--- a/inst/extdata/projections.xlsx
+++ b/inst/extdata/projections.xlsx
@@ -1,32 +1,46 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10314"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/malcalakovalski/Documents/Projects/fim/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/malcalakovalski/Documents/Projects/fim/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3531CB9F-A2C7-C547-95E4-159BEEB576C6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86D4AC4E-C8D7-4244-B03D-CCA2D37B3A45}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="500" windowWidth="33600" windowHeight="19380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="520" yWindow="540" windowWidth="33600" windowHeight="19380" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="economic" sheetId="1" r:id="rId1"/>
-    <sheet name="budget" sheetId="3" r:id="rId2"/>
-    <sheet name="1. Quarterly" sheetId="2" r:id="rId3"/>
+    <sheet name="CARES" sheetId="6" r:id="rId2"/>
+    <sheet name="budget" sheetId="3" r:id="rId3"/>
+    <sheet name="crrca" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId5"/>
+    <sheet name="1. Quarterly" sheetId="2" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'1. Quarterly'!$A$5:$AZ$135</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="2">'1. Quarterly'!$A:$D</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">'1. Quarterly'!$A$5:$AZ$135</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="5">'1. Quarterly'!$A:$D</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="197">
   <si>
     <t>date</t>
   </si>
@@ -558,15 +572,106 @@
   <si>
     <t>yptu</t>
   </si>
+  <si>
+    <t>state_ui</t>
+  </si>
+  <si>
+    <t>federal_ui</t>
+  </si>
+  <si>
+    <t>snap</t>
+  </si>
+  <si>
+    <t>ppp</t>
+  </si>
+  <si>
+    <t>rebate_checks</t>
+  </si>
+  <si>
+    <t>housing_assistance</t>
+  </si>
+  <si>
+    <t>aviation</t>
+  </si>
+  <si>
+    <t>education_stabilization_fund</t>
+  </si>
+  <si>
+    <t>employee_retention</t>
+  </si>
+  <si>
+    <t>agriculture</t>
+  </si>
+  <si>
+    <t>childcare</t>
+  </si>
+  <si>
+    <t>vaccines</t>
+  </si>
+  <si>
+    <t>transit</t>
+  </si>
+  <si>
+    <t>emergency_injury_disaster_relief</t>
+  </si>
+  <si>
+    <t>eitc</t>
+  </si>
+  <si>
+    <t>nonprofit_ppp</t>
+  </si>
+  <si>
+    <t>nonprofit_provider_relief_fund</t>
+  </si>
+  <si>
+    <t>provider_relief_fund</t>
+  </si>
+  <si>
+    <t>2021 Q1</t>
+  </si>
+  <si>
+    <t>2021 Q2</t>
+  </si>
+  <si>
+    <t>2021 Q3</t>
+  </si>
+  <si>
+    <t>2021 Q4</t>
+  </si>
+  <si>
+    <t>2022 Q1</t>
+  </si>
+  <si>
+    <t>2022 Q2</t>
+  </si>
+  <si>
+    <t>2022 Q3</t>
+  </si>
+  <si>
+    <t>2022 Q4</t>
+  </si>
+  <si>
+    <t>2023 Q1</t>
+  </si>
+  <si>
+    <t>2023 Q2</t>
+  </si>
+  <si>
+    <t>2023 Q3</t>
+  </si>
+  <si>
+    <t>2023 Q4</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -714,6 +819,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <i/>
@@ -736,6 +842,12 @@
     <font>
       <sz val="11"/>
       <color theme="3"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -1061,7 +1173,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="47">
+  <cellStyleXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -1112,8 +1224,9 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="19" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -1142,6 +1255,10 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="43" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="43"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="19" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="46" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1152,12 +1269,11 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="43" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="19" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="43" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="47" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="47">
+  <cellStyles count="48">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -1185,6 +1301,7 @@
     <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Comma" xfId="47" builtinId="3"/>
     <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
@@ -1518,11 +1635,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F20" sqref="F20"/>
+      <selection pane="bottomRight" activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4586,477 +4703,243 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77260E8A-45C6-C74E-A071-E1E958901B15}">
-  <dimension ref="A1:I16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DE6E772-7745-4345-AD59-C84EFCAA345D}">
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>158</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>159</v>
+        <v>182</v>
       </c>
       <c r="C1" t="s">
-        <v>160</v>
+        <v>183</v>
       </c>
       <c r="D1" t="s">
-        <v>161</v>
+        <v>184</v>
       </c>
       <c r="E1" t="s">
-        <v>162</v>
-      </c>
-      <c r="F1" t="s">
-        <v>163</v>
-      </c>
-      <c r="G1" t="s">
-        <v>164</v>
-      </c>
-      <c r="H1" t="s">
-        <v>165</v>
-      </c>
-      <c r="I1" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>2017</v>
-      </c>
-      <c r="B2" s="30">
-        <v>2060</v>
-      </c>
-      <c r="C2" s="30">
-        <v>1582</v>
-      </c>
-      <c r="D2" s="30">
-        <v>133</v>
-      </c>
-      <c r="E2" s="30">
-        <v>407</v>
-      </c>
-      <c r="F2" s="30">
-        <v>1269</v>
-      </c>
-      <c r="G2" s="30">
-        <v>702.28</v>
-      </c>
-      <c r="H2" s="30">
-        <v>374.68</v>
-      </c>
-      <c r="I2" s="30">
-        <v>31.2</v>
-      </c>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B2">
+        <f>378/1000</f>
+        <v>0.378</v>
+      </c>
+      <c r="C2">
+        <v>43</v>
+      </c>
+      <c r="D2">
+        <v>12</v>
+      </c>
+      <c r="E2">
+        <v>18</v>
+      </c>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2018</v>
-      </c>
-      <c r="B3" s="30">
-        <v>2154</v>
-      </c>
-      <c r="C3" s="30">
-        <v>1610</v>
-      </c>
-      <c r="D3" s="30">
-        <v>149</v>
-      </c>
-      <c r="E3" s="30">
-        <v>184</v>
-      </c>
-      <c r="F3" s="30">
-        <v>1329</v>
-      </c>
-      <c r="G3" s="30">
-        <v>704</v>
-      </c>
-      <c r="H3" s="30">
-        <v>389</v>
-      </c>
-      <c r="I3" s="30">
-        <v>30</v>
-      </c>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>186</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>43</v>
+      </c>
+      <c r="D3">
+        <v>12</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>2019</v>
-      </c>
-      <c r="B4" s="30">
-        <v>2286.6971250000001</v>
-      </c>
-      <c r="C4" s="30">
-        <v>1652.8922560000001</v>
-      </c>
-      <c r="D4" s="30">
-        <v>173.3855016</v>
-      </c>
-      <c r="E4" s="30">
-        <v>166.2805401</v>
-      </c>
-      <c r="F4" s="30">
-        <v>1395.0821430000001</v>
-      </c>
-      <c r="G4" s="30">
-        <v>775.40599999999995</v>
-      </c>
-      <c r="H4" s="30">
-        <v>409.42099999999999</v>
-      </c>
-      <c r="I4" s="30">
-        <v>27.626999999999999</v>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>187</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>43</v>
+      </c>
+      <c r="D4">
+        <v>12</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>2020</v>
-      </c>
-      <c r="B5" s="30">
-        <v>3320.7721320000001</v>
-      </c>
-      <c r="C5" s="31">
-        <v>1608.662</v>
-      </c>
-      <c r="D5" s="31">
-        <v>289.49400000000003</v>
-      </c>
-      <c r="E5" s="31">
-        <v>211.845</v>
-      </c>
-      <c r="F5" s="31">
-        <v>1309.954</v>
-      </c>
-      <c r="G5" s="31">
-        <v>916.94899999999996</v>
-      </c>
-      <c r="H5" s="31">
-        <v>458.46899999999999</v>
-      </c>
-      <c r="I5" s="31">
-        <v>473.16500000000002</v>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>188</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>15</v>
+      </c>
+      <c r="D5">
+        <v>12</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>2021</v>
-      </c>
-      <c r="B6" s="30">
-        <v>2675.6800560000001</v>
-      </c>
-      <c r="C6" s="31">
-        <v>1698.961</v>
-      </c>
-      <c r="D6" s="31">
-        <v>317.62599999999998</v>
-      </c>
-      <c r="E6" s="31">
-        <v>164.04599999999999</v>
-      </c>
-      <c r="F6" s="31">
-        <v>1325.337</v>
-      </c>
-      <c r="G6" s="31">
-        <v>830.23699999999997</v>
-      </c>
-      <c r="H6" s="31">
-        <v>507.26100000000002</v>
-      </c>
-      <c r="I6" s="31">
-        <v>242.08699999999999</v>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>189</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>2022</v>
-      </c>
-      <c r="B7" s="30">
-        <v>2725.1688960000001</v>
-      </c>
-      <c r="C7" s="31">
-        <v>2040.5219999999999</v>
-      </c>
-      <c r="D7" s="31">
-        <v>350.88200000000001</v>
-      </c>
-      <c r="E7" s="31">
-        <v>251.98500000000001</v>
-      </c>
-      <c r="F7" s="31">
-        <v>1351.277</v>
-      </c>
-      <c r="G7" s="31">
-        <v>942.86400000000003</v>
-      </c>
-      <c r="H7" s="31">
-        <v>514.14599999999996</v>
-      </c>
-      <c r="I7" s="31">
-        <v>40.164000000000001</v>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>190</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>2023</v>
-      </c>
-      <c r="B8" s="30">
-        <v>2789.7678000000001</v>
-      </c>
-      <c r="C8" s="31">
-        <v>2084.1019999999999</v>
-      </c>
-      <c r="D8" s="31">
-        <v>361.96100000000001</v>
-      </c>
-      <c r="E8" s="31">
-        <v>303.99599999999998</v>
-      </c>
-      <c r="F8" s="31">
-        <v>1452.09</v>
-      </c>
-      <c r="G8" s="31">
-        <v>1017.717</v>
-      </c>
-      <c r="H8" s="31">
-        <v>491.86900000000003</v>
-      </c>
-      <c r="I8" s="31">
-        <v>37.088999999999999</v>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>191</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>2024</v>
-      </c>
-      <c r="B9" s="30">
-        <v>2862.2467660000002</v>
-      </c>
-      <c r="C9" s="31">
-        <v>2138.5259999999998</v>
-      </c>
-      <c r="D9" s="31">
-        <v>378.53399999999999</v>
-      </c>
-      <c r="E9" s="31">
-        <v>328.43299999999999</v>
-      </c>
-      <c r="F9" s="31">
-        <v>1506.7819999999999</v>
-      </c>
-      <c r="G9" s="31">
-        <v>1047.1569999999999</v>
-      </c>
-      <c r="H9" s="31">
-        <v>503.505</v>
-      </c>
-      <c r="I9" s="31">
-        <v>36.167000000000002</v>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>192</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>2025</v>
-      </c>
-      <c r="B10" s="30">
-        <v>3076.7846719999998</v>
-      </c>
-      <c r="C10" s="31">
-        <v>2227.5610000000001</v>
-      </c>
-      <c r="D10" s="31">
-        <v>365.35899999999998</v>
-      </c>
-      <c r="E10" s="31">
-        <v>355.43400000000003</v>
-      </c>
-      <c r="F10" s="31">
-        <v>1558.3019999999999</v>
-      </c>
-      <c r="G10" s="31">
-        <v>1171.548</v>
-      </c>
-      <c r="H10" s="31">
-        <v>533.43499999999995</v>
-      </c>
-      <c r="I10" s="31">
-        <v>34.216999999999999</v>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>193</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>2026</v>
-      </c>
-      <c r="B11" s="30">
-        <v>3236.1370160000001</v>
-      </c>
-      <c r="C11" s="31">
-        <v>2479.105</v>
-      </c>
-      <c r="D11" s="31">
-        <v>353.93799999999999</v>
-      </c>
-      <c r="E11" s="31">
-        <v>365.29700000000003</v>
-      </c>
-      <c r="F11" s="31">
-        <v>1618.9469999999999</v>
-      </c>
-      <c r="G11" s="31">
-        <v>1256.192</v>
-      </c>
-      <c r="H11" s="31">
-        <v>563.24099999999999</v>
-      </c>
-      <c r="I11" s="31">
-        <v>33.183999999999997</v>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>194</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>2027</v>
-      </c>
-      <c r="B12" s="30">
-        <v>3385.882263</v>
-      </c>
-      <c r="C12" s="31">
-        <v>2697.9229999999998</v>
-      </c>
-      <c r="D12" s="31">
-        <v>365.00299999999999</v>
-      </c>
-      <c r="E12" s="31">
-        <v>360.97699999999998</v>
-      </c>
-      <c r="F12" s="31">
-        <v>1672.973</v>
-      </c>
-      <c r="G12" s="31">
-        <v>1348.1610000000001</v>
-      </c>
-      <c r="H12" s="31">
-        <v>597.41200000000003</v>
-      </c>
-      <c r="I12" s="31">
-        <v>33.901000000000003</v>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>195</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>2028</v>
-      </c>
-      <c r="B13" s="30">
-        <v>3654.9385870000001</v>
-      </c>
-      <c r="C13" s="31">
-        <v>2782.221</v>
-      </c>
-      <c r="D13" s="31">
-        <v>362.74099999999999</v>
-      </c>
-      <c r="E13" s="31">
-        <v>368.625</v>
-      </c>
-      <c r="F13" s="31">
-        <v>1729.1780000000001</v>
-      </c>
-      <c r="G13" s="31">
-        <v>1516.3989999999999</v>
-      </c>
-      <c r="H13" s="31">
-        <v>631.86</v>
-      </c>
-      <c r="I13" s="31">
-        <v>35.832000000000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>2029</v>
-      </c>
-      <c r="B14" s="30">
-        <v>3651.8353670000001</v>
-      </c>
-      <c r="C14" s="31">
-        <v>2882.0140000000001</v>
-      </c>
-      <c r="D14" s="31">
-        <v>359.91500000000002</v>
-      </c>
-      <c r="E14" s="31">
-        <v>377.49</v>
-      </c>
-      <c r="F14" s="31">
-        <v>1788.18</v>
-      </c>
-      <c r="G14" s="31">
-        <v>1475.1320000000001</v>
-      </c>
-      <c r="H14" s="31">
-        <v>667.45500000000004</v>
-      </c>
-      <c r="I14" s="31">
-        <v>37.915999999999997</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>2030</v>
-      </c>
-      <c r="B15" s="30">
-        <v>3932.6238069999999</v>
-      </c>
-      <c r="C15" s="31">
-        <v>2985.3470000000002</v>
-      </c>
-      <c r="D15" s="31">
-        <v>357.32900000000001</v>
-      </c>
-      <c r="E15" s="31">
-        <v>385.48599999999999</v>
-      </c>
-      <c r="F15" s="31">
-        <v>1848.9970000000001</v>
-      </c>
-      <c r="G15" s="31">
-        <v>1642.68</v>
-      </c>
-      <c r="H15" s="31">
-        <v>705.01099999999997</v>
-      </c>
-      <c r="I15" s="31">
-        <v>40.545000000000002</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>2031</v>
-      </c>
-      <c r="B16" s="30">
-        <v>3932.6238069999999</v>
-      </c>
-      <c r="C16" s="31">
-        <v>3096.473</v>
-      </c>
-      <c r="D16" s="31">
-        <v>367.358</v>
-      </c>
-      <c r="E16" s="31">
-        <v>392.95400000000001</v>
-      </c>
-      <c r="F16" s="31">
-        <v>1914.1849999999999</v>
-      </c>
-      <c r="G16" s="31">
-        <v>1781.768</v>
-      </c>
-      <c r="H16" s="31">
-        <v>744.03499999999997</v>
-      </c>
-      <c r="I16" s="31">
-        <v>45.503</v>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>196</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5065,11 +4948,1171 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77260E8A-45C6-C74E-A071-E1E958901B15}">
+  <dimension ref="A1:J16"/>
+  <sheetViews>
+    <sheetView zoomScale="107" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E1" t="s">
+        <v>162</v>
+      </c>
+      <c r="F1" t="s">
+        <v>163</v>
+      </c>
+      <c r="G1" t="s">
+        <v>164</v>
+      </c>
+      <c r="H1" t="s">
+        <v>165</v>
+      </c>
+      <c r="I1" t="s">
+        <v>166</v>
+      </c>
+      <c r="J1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>2017</v>
+      </c>
+      <c r="B2" s="26">
+        <v>2060</v>
+      </c>
+      <c r="C2" s="26">
+        <v>1582</v>
+      </c>
+      <c r="D2" s="26">
+        <v>133</v>
+      </c>
+      <c r="E2" s="26">
+        <v>407</v>
+      </c>
+      <c r="F2" s="26">
+        <v>1269</v>
+      </c>
+      <c r="G2" s="26">
+        <v>702.28</v>
+      </c>
+      <c r="H2" s="26">
+        <v>374.68</v>
+      </c>
+      <c r="I2" s="26">
+        <v>31.2</v>
+      </c>
+      <c r="J2" s="26">
+        <f>I2</f>
+        <v>31.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2018</v>
+      </c>
+      <c r="B3" s="26">
+        <v>2154</v>
+      </c>
+      <c r="C3" s="26">
+        <v>1610</v>
+      </c>
+      <c r="D3" s="26">
+        <v>149</v>
+      </c>
+      <c r="E3" s="26">
+        <v>184</v>
+      </c>
+      <c r="F3" s="26">
+        <v>1329</v>
+      </c>
+      <c r="G3" s="26">
+        <v>704</v>
+      </c>
+      <c r="H3" s="26">
+        <v>389</v>
+      </c>
+      <c r="I3" s="26">
+        <v>30</v>
+      </c>
+      <c r="J3" s="26">
+        <f>I3</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2019</v>
+      </c>
+      <c r="B4" s="26">
+        <v>2286.6971250000001</v>
+      </c>
+      <c r="C4" s="26">
+        <v>1652.8922560000001</v>
+      </c>
+      <c r="D4" s="26">
+        <v>173.3855016</v>
+      </c>
+      <c r="E4" s="26">
+        <v>166.2805401</v>
+      </c>
+      <c r="F4" s="26">
+        <v>1395.0821430000001</v>
+      </c>
+      <c r="G4" s="26">
+        <v>775.40599999999995</v>
+      </c>
+      <c r="H4" s="26">
+        <v>409.42099999999999</v>
+      </c>
+      <c r="I4" s="26">
+        <v>27.626999999999999</v>
+      </c>
+      <c r="J4" s="26">
+        <f>I4</f>
+        <v>27.626999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2020</v>
+      </c>
+      <c r="B5" s="26">
+        <v>3320.7721320000001</v>
+      </c>
+      <c r="C5" s="27">
+        <v>1608.662</v>
+      </c>
+      <c r="D5" s="27">
+        <v>289.49400000000003</v>
+      </c>
+      <c r="E5" s="27">
+        <v>211.845</v>
+      </c>
+      <c r="F5" s="27">
+        <v>1309.954</v>
+      </c>
+      <c r="G5" s="27">
+        <v>916.94899999999996</v>
+      </c>
+      <c r="H5" s="27">
+        <v>458.46899999999999</v>
+      </c>
+      <c r="I5" s="27">
+        <v>473.16500000000002</v>
+      </c>
+      <c r="J5" s="26">
+        <f>I5</f>
+        <v>473.16500000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>2021</v>
+      </c>
+      <c r="B6" s="26">
+        <v>2675.6800560000001</v>
+      </c>
+      <c r="C6" s="27">
+        <v>1698.961</v>
+      </c>
+      <c r="D6" s="27">
+        <v>317.62599999999998</v>
+      </c>
+      <c r="E6" s="27">
+        <v>164.04599999999999</v>
+      </c>
+      <c r="F6" s="27">
+        <v>1325.337</v>
+      </c>
+      <c r="G6" s="27">
+        <v>830.23699999999997</v>
+      </c>
+      <c r="H6" s="27">
+        <v>507.26100000000002</v>
+      </c>
+      <c r="I6" s="27">
+        <v>242.08699999999999</v>
+      </c>
+      <c r="J6" s="25">
+        <v>59.15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>2022</v>
+      </c>
+      <c r="B7" s="26">
+        <v>2725.1688960000001</v>
+      </c>
+      <c r="C7" s="27">
+        <v>2040.5219999999999</v>
+      </c>
+      <c r="D7" s="27">
+        <v>350.88200000000001</v>
+      </c>
+      <c r="E7" s="27">
+        <v>251.98500000000001</v>
+      </c>
+      <c r="F7" s="27">
+        <v>1351.277</v>
+      </c>
+      <c r="G7" s="27">
+        <v>942.86400000000003</v>
+      </c>
+      <c r="H7" s="27">
+        <v>514.14599999999996</v>
+      </c>
+      <c r="I7" s="27">
+        <v>40.164000000000001</v>
+      </c>
+      <c r="J7" s="25">
+        <v>38.14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>2023</v>
+      </c>
+      <c r="B8" s="26">
+        <v>2789.7678000000001</v>
+      </c>
+      <c r="C8" s="27">
+        <v>2084.1019999999999</v>
+      </c>
+      <c r="D8" s="27">
+        <v>361.96100000000001</v>
+      </c>
+      <c r="E8" s="27">
+        <v>303.99599999999998</v>
+      </c>
+      <c r="F8" s="27">
+        <v>1452.09</v>
+      </c>
+      <c r="G8" s="27">
+        <v>1017.717</v>
+      </c>
+      <c r="H8" s="27">
+        <v>491.86900000000003</v>
+      </c>
+      <c r="I8" s="27">
+        <v>37.088999999999999</v>
+      </c>
+      <c r="J8" s="25">
+        <v>36.145000000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>2024</v>
+      </c>
+      <c r="B9" s="26">
+        <v>2862.2467660000002</v>
+      </c>
+      <c r="C9" s="27">
+        <v>2138.5259999999998</v>
+      </c>
+      <c r="D9" s="27">
+        <v>378.53399999999999</v>
+      </c>
+      <c r="E9" s="27">
+        <v>328.43299999999999</v>
+      </c>
+      <c r="F9" s="27">
+        <v>1506.7819999999999</v>
+      </c>
+      <c r="G9" s="27">
+        <v>1047.1569999999999</v>
+      </c>
+      <c r="H9" s="27">
+        <v>503.505</v>
+      </c>
+      <c r="I9" s="27">
+        <v>36.167000000000002</v>
+      </c>
+      <c r="J9" s="25">
+        <v>35.369999999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>2025</v>
+      </c>
+      <c r="B10" s="26">
+        <v>3076.7846719999998</v>
+      </c>
+      <c r="C10" s="27">
+        <v>2227.5610000000001</v>
+      </c>
+      <c r="D10" s="27">
+        <v>365.35899999999998</v>
+      </c>
+      <c r="E10" s="27">
+        <v>355.43400000000003</v>
+      </c>
+      <c r="F10" s="27">
+        <v>1558.3019999999999</v>
+      </c>
+      <c r="G10" s="27">
+        <v>1171.548</v>
+      </c>
+      <c r="H10" s="27">
+        <v>533.43499999999995</v>
+      </c>
+      <c r="I10" s="27">
+        <v>34.216999999999999</v>
+      </c>
+      <c r="J10" s="25">
+        <v>33.424999999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>2026</v>
+      </c>
+      <c r="B11" s="26">
+        <v>3236.1370160000001</v>
+      </c>
+      <c r="C11" s="27">
+        <v>2479.105</v>
+      </c>
+      <c r="D11" s="27">
+        <v>353.93799999999999</v>
+      </c>
+      <c r="E11" s="27">
+        <v>365.29700000000003</v>
+      </c>
+      <c r="F11" s="27">
+        <v>1618.9469999999999</v>
+      </c>
+      <c r="G11" s="27">
+        <v>1256.192</v>
+      </c>
+      <c r="H11" s="27">
+        <v>563.24099999999999</v>
+      </c>
+      <c r="I11" s="27">
+        <v>33.183999999999997</v>
+      </c>
+      <c r="J11" s="25">
+        <v>32.450000000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>2027</v>
+      </c>
+      <c r="B12" s="26">
+        <v>3385.882263</v>
+      </c>
+      <c r="C12" s="27">
+        <v>2697.9229999999998</v>
+      </c>
+      <c r="D12" s="27">
+        <v>365.00299999999999</v>
+      </c>
+      <c r="E12" s="27">
+        <v>360.97699999999998</v>
+      </c>
+      <c r="F12" s="27">
+        <v>1672.973</v>
+      </c>
+      <c r="G12" s="27">
+        <v>1348.1610000000001</v>
+      </c>
+      <c r="H12" s="27">
+        <v>597.41200000000003</v>
+      </c>
+      <c r="I12" s="27">
+        <v>33.901000000000003</v>
+      </c>
+      <c r="J12" s="25">
+        <v>33.164999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>2028</v>
+      </c>
+      <c r="B13" s="26">
+        <v>3654.9385870000001</v>
+      </c>
+      <c r="C13" s="27">
+        <v>2782.221</v>
+      </c>
+      <c r="D13" s="27">
+        <v>362.74099999999999</v>
+      </c>
+      <c r="E13" s="27">
+        <v>368.625</v>
+      </c>
+      <c r="F13" s="27">
+        <v>1729.1780000000001</v>
+      </c>
+      <c r="G13" s="27">
+        <v>1516.3989999999999</v>
+      </c>
+      <c r="H13" s="27">
+        <v>631.86</v>
+      </c>
+      <c r="I13" s="27">
+        <v>35.832000000000001</v>
+      </c>
+      <c r="J13" s="25">
+        <v>35.090000000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>2029</v>
+      </c>
+      <c r="B14" s="26">
+        <v>3651.8353670000001</v>
+      </c>
+      <c r="C14" s="27">
+        <v>2882.0140000000001</v>
+      </c>
+      <c r="D14" s="27">
+        <v>359.91500000000002</v>
+      </c>
+      <c r="E14" s="27">
+        <v>377.49</v>
+      </c>
+      <c r="F14" s="27">
+        <v>1788.18</v>
+      </c>
+      <c r="G14" s="27">
+        <v>1475.1320000000001</v>
+      </c>
+      <c r="H14" s="27">
+        <v>667.45500000000004</v>
+      </c>
+      <c r="I14" s="27">
+        <v>37.915999999999997</v>
+      </c>
+      <c r="J14" s="25">
+        <v>37.164999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>2030</v>
+      </c>
+      <c r="B15" s="26">
+        <v>3932.6238069999999</v>
+      </c>
+      <c r="C15" s="27">
+        <v>2985.3470000000002</v>
+      </c>
+      <c r="D15" s="27">
+        <v>357.32900000000001</v>
+      </c>
+      <c r="E15" s="27">
+        <v>385.48599999999999</v>
+      </c>
+      <c r="F15" s="27">
+        <v>1848.9970000000001</v>
+      </c>
+      <c r="G15" s="27">
+        <v>1642.68</v>
+      </c>
+      <c r="H15" s="27">
+        <v>705.01099999999997</v>
+      </c>
+      <c r="I15" s="27">
+        <v>40.545000000000002</v>
+      </c>
+      <c r="J15" s="25">
+        <v>39.784999999999997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>2031</v>
+      </c>
+      <c r="B16" s="26">
+        <v>3932.6238069999999</v>
+      </c>
+      <c r="C16" s="27">
+        <v>3096.473</v>
+      </c>
+      <c r="D16" s="27">
+        <v>367.358</v>
+      </c>
+      <c r="E16" s="27">
+        <v>392.95400000000001</v>
+      </c>
+      <c r="F16" s="27">
+        <v>1914.1849999999999</v>
+      </c>
+      <c r="G16" s="27">
+        <v>1781.768</v>
+      </c>
+      <c r="H16" s="27">
+        <v>744.03499999999997</v>
+      </c>
+      <c r="I16" s="27">
+        <v>45.503</v>
+      </c>
+      <c r="J16" s="25">
+        <v>44.73</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B46AA86B-2BB2-174B-844E-5456E2801ADC}">
+  <dimension ref="A1:O12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F1" t="s">
+        <v>179</v>
+      </c>
+      <c r="G1" t="s">
+        <v>172</v>
+      </c>
+      <c r="H1" t="s">
+        <v>178</v>
+      </c>
+      <c r="I1" t="s">
+        <v>175</v>
+      </c>
+      <c r="J1" t="s">
+        <v>176</v>
+      </c>
+      <c r="K1" t="s">
+        <v>169</v>
+      </c>
+      <c r="L1" t="s">
+        <v>177</v>
+      </c>
+      <c r="M1" t="s">
+        <v>180</v>
+      </c>
+      <c r="N1" t="s">
+        <v>181</v>
+      </c>
+      <c r="O1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>2021</v>
+      </c>
+      <c r="B2">
+        <f>284+43.5 + 15 + 2</f>
+        <v>344.5</v>
+      </c>
+      <c r="C2">
+        <v>164</v>
+      </c>
+      <c r="D2">
+        <v>85</v>
+      </c>
+      <c r="E2">
+        <v>16</v>
+      </c>
+      <c r="F2">
+        <v>29</v>
+      </c>
+      <c r="G2">
+        <v>25</v>
+      </c>
+      <c r="H2">
+        <v>20</v>
+      </c>
+      <c r="I2">
+        <v>20</v>
+      </c>
+      <c r="J2">
+        <v>13</v>
+      </c>
+      <c r="K2">
+        <v>13</v>
+      </c>
+      <c r="L2">
+        <v>10</v>
+      </c>
+      <c r="M2">
+        <v>20</v>
+      </c>
+      <c r="N2">
+        <v>5</v>
+      </c>
+      <c r="O2" s="33">
+        <f>181.506</f>
+        <v>181.506</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2022</v>
+      </c>
+      <c r="B3" s="32">
+        <v>0</v>
+      </c>
+      <c r="C3" s="32">
+        <v>0</v>
+      </c>
+      <c r="D3" s="32">
+        <v>0</v>
+      </c>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3" s="25">
+        <v>1.7549999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2023</v>
+      </c>
+      <c r="B4" s="32">
+        <v>0</v>
+      </c>
+      <c r="C4" s="32">
+        <v>0</v>
+      </c>
+      <c r="D4" s="32">
+        <v>0</v>
+      </c>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="32"/>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4" s="25">
+        <v>0.67600000000000005</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2024</v>
+      </c>
+      <c r="B5" s="32">
+        <v>0</v>
+      </c>
+      <c r="C5" s="32">
+        <v>0</v>
+      </c>
+      <c r="D5" s="32">
+        <v>0</v>
+      </c>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32">
+        <v>0</v>
+      </c>
+      <c r="G5" s="32">
+        <v>0</v>
+      </c>
+      <c r="H5" s="32">
+        <v>0</v>
+      </c>
+      <c r="I5" s="32">
+        <v>0</v>
+      </c>
+      <c r="J5" s="32">
+        <v>0</v>
+      </c>
+      <c r="K5" s="32">
+        <v>0</v>
+      </c>
+      <c r="L5" s="32">
+        <v>0</v>
+      </c>
+      <c r="M5" s="32">
+        <v>0</v>
+      </c>
+      <c r="N5" s="32">
+        <v>0</v>
+      </c>
+      <c r="O5" s="25">
+        <v>0.53100000000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>2025</v>
+      </c>
+      <c r="B6" s="32">
+        <v>0</v>
+      </c>
+      <c r="C6" s="32">
+        <v>0</v>
+      </c>
+      <c r="D6" s="32">
+        <v>0</v>
+      </c>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32">
+        <v>0</v>
+      </c>
+      <c r="G6" s="32">
+        <v>0</v>
+      </c>
+      <c r="H6" s="32">
+        <v>0</v>
+      </c>
+      <c r="I6" s="32">
+        <v>0</v>
+      </c>
+      <c r="J6" s="32">
+        <v>0</v>
+      </c>
+      <c r="K6" s="32">
+        <v>0</v>
+      </c>
+      <c r="L6" s="32">
+        <v>0</v>
+      </c>
+      <c r="M6" s="32">
+        <v>0</v>
+      </c>
+      <c r="N6" s="32">
+        <v>0</v>
+      </c>
+      <c r="O6" s="25">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>2026</v>
+      </c>
+      <c r="B7" s="32">
+        <v>0</v>
+      </c>
+      <c r="C7" s="32">
+        <v>0</v>
+      </c>
+      <c r="D7" s="32">
+        <v>0</v>
+      </c>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32">
+        <v>0</v>
+      </c>
+      <c r="G7" s="32">
+        <v>0</v>
+      </c>
+      <c r="H7" s="32">
+        <v>0</v>
+      </c>
+      <c r="I7" s="32">
+        <v>0</v>
+      </c>
+      <c r="J7" s="32">
+        <v>0</v>
+      </c>
+      <c r="K7" s="32">
+        <v>0</v>
+      </c>
+      <c r="L7" s="32">
+        <v>0</v>
+      </c>
+      <c r="M7" s="32">
+        <v>0</v>
+      </c>
+      <c r="N7" s="32">
+        <v>0</v>
+      </c>
+      <c r="O7" s="25">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>2027</v>
+      </c>
+      <c r="B8" s="32">
+        <v>0</v>
+      </c>
+      <c r="C8" s="32">
+        <v>0</v>
+      </c>
+      <c r="D8" s="32">
+        <v>0</v>
+      </c>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32">
+        <v>0</v>
+      </c>
+      <c r="G8" s="32">
+        <v>0</v>
+      </c>
+      <c r="H8" s="32">
+        <v>0</v>
+      </c>
+      <c r="I8" s="32">
+        <v>0</v>
+      </c>
+      <c r="J8" s="32">
+        <v>0</v>
+      </c>
+      <c r="K8" s="32">
+        <v>0</v>
+      </c>
+      <c r="L8" s="32">
+        <v>0</v>
+      </c>
+      <c r="M8" s="32">
+        <v>0</v>
+      </c>
+      <c r="N8" s="32">
+        <v>0</v>
+      </c>
+      <c r="O8" s="25">
+        <v>0.52700000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>2028</v>
+      </c>
+      <c r="B9" s="32">
+        <v>0</v>
+      </c>
+      <c r="C9" s="32">
+        <v>0</v>
+      </c>
+      <c r="D9" s="32">
+        <v>0</v>
+      </c>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32">
+        <v>0</v>
+      </c>
+      <c r="G9" s="32">
+        <v>0</v>
+      </c>
+      <c r="H9" s="32">
+        <v>0</v>
+      </c>
+      <c r="I9" s="32">
+        <v>0</v>
+      </c>
+      <c r="J9" s="32">
+        <v>0</v>
+      </c>
+      <c r="K9" s="32">
+        <v>0</v>
+      </c>
+      <c r="L9" s="32">
+        <v>0</v>
+      </c>
+      <c r="M9" s="32">
+        <v>0</v>
+      </c>
+      <c r="N9" s="32">
+        <v>0</v>
+      </c>
+      <c r="O9" s="25">
+        <v>0.52700000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>2029</v>
+      </c>
+      <c r="B10" s="32">
+        <v>0</v>
+      </c>
+      <c r="C10" s="32">
+        <v>0</v>
+      </c>
+      <c r="D10" s="32">
+        <v>0</v>
+      </c>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32">
+        <v>0</v>
+      </c>
+      <c r="G10" s="32">
+        <v>0</v>
+      </c>
+      <c r="H10" s="32">
+        <v>0</v>
+      </c>
+      <c r="I10" s="32">
+        <v>0</v>
+      </c>
+      <c r="J10" s="32">
+        <v>0</v>
+      </c>
+      <c r="K10" s="32">
+        <v>0</v>
+      </c>
+      <c r="L10" s="32">
+        <v>0</v>
+      </c>
+      <c r="M10" s="32">
+        <v>0</v>
+      </c>
+      <c r="N10" s="32">
+        <v>0</v>
+      </c>
+      <c r="O10" s="25">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>2030</v>
+      </c>
+      <c r="B11" s="32">
+        <v>0</v>
+      </c>
+      <c r="C11" s="32">
+        <v>0</v>
+      </c>
+      <c r="D11" s="32">
+        <v>0</v>
+      </c>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32">
+        <v>0</v>
+      </c>
+      <c r="G11" s="32">
+        <v>0</v>
+      </c>
+      <c r="H11" s="32">
+        <v>0</v>
+      </c>
+      <c r="I11" s="32">
+        <v>0</v>
+      </c>
+      <c r="J11" s="32">
+        <v>0</v>
+      </c>
+      <c r="K11" s="32">
+        <v>0</v>
+      </c>
+      <c r="L11" s="32">
+        <v>0</v>
+      </c>
+      <c r="M11" s="32">
+        <v>0</v>
+      </c>
+      <c r="N11" s="32">
+        <v>0</v>
+      </c>
+      <c r="O11" s="25">
+        <v>0.53500000000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>2031</v>
+      </c>
+      <c r="B12" s="32">
+        <v>0</v>
+      </c>
+      <c r="C12" s="32">
+        <v>0</v>
+      </c>
+      <c r="D12" s="32">
+        <v>0</v>
+      </c>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32">
+        <v>0</v>
+      </c>
+      <c r="G12" s="32">
+        <v>0</v>
+      </c>
+      <c r="H12" s="32">
+        <v>0</v>
+      </c>
+      <c r="I12" s="32">
+        <v>0</v>
+      </c>
+      <c r="J12" s="32">
+        <v>0</v>
+      </c>
+      <c r="K12" s="32">
+        <v>0</v>
+      </c>
+      <c r="L12" s="32">
+        <v>0</v>
+      </c>
+      <c r="M12" s="32">
+        <v>0</v>
+      </c>
+      <c r="N12" s="32">
+        <v>0</v>
+      </c>
+      <c r="O12" s="25">
+        <v>0.54300000000000004</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07E42683-B4AF-4746-955F-5BBF64474D4E}">
+  <dimension ref="A1:L4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F1" t="s">
+        <v>179</v>
+      </c>
+      <c r="G1" t="s">
+        <v>172</v>
+      </c>
+      <c r="H1" t="s">
+        <v>178</v>
+      </c>
+      <c r="I1" t="s">
+        <v>175</v>
+      </c>
+      <c r="J1" t="s">
+        <v>176</v>
+      </c>
+      <c r="K1" t="s">
+        <v>169</v>
+      </c>
+      <c r="L1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>2021</v>
+      </c>
+      <c r="B2">
+        <f>284+80.5</f>
+        <v>364.5</v>
+      </c>
+      <c r="C2">
+        <v>164</v>
+      </c>
+      <c r="D2">
+        <v>82</v>
+      </c>
+      <c r="E2">
+        <v>16</v>
+      </c>
+      <c r="F2">
+        <v>29</v>
+      </c>
+      <c r="G2">
+        <v>25</v>
+      </c>
+      <c r="H2">
+        <v>48</v>
+      </c>
+      <c r="I2">
+        <v>20</v>
+      </c>
+      <c r="J2">
+        <v>13</v>
+      </c>
+      <c r="K2">
+        <v>13</v>
+      </c>
+      <c r="L2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2023</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7511D70-80B4-5E47-A7B7-55F3EFCB84BC}">
   <dimension ref="A1:BL135"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="8" topLeftCell="AN9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="8" topLeftCell="D103" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
       <selection pane="bottomRight" activeCell="T22" sqref="T22:BL22"/>
@@ -5094,27 +6137,27 @@
       </c>
     </row>
     <row r="2" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="28" t="s">
         <v>156</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
     </row>
     <row r="4" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D4" s="25"/>
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="30" t="s">
         <v>155</v>
       </c>
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
@@ -25952,12 +26995,12 @@
       </c>
     </row>
     <row r="130" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A130" s="29" t="s">
+      <c r="A130" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="B130" s="29"/>
-      <c r="C130" s="29"/>
-      <c r="D130" s="29"/>
+      <c r="B130" s="31"/>
+      <c r="C130" s="31"/>
+      <c r="D130" s="31"/>
     </row>
     <row r="131" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C131" s="8"/>

--- a/inst/extdata/projections.xlsx
+++ b/inst/extdata/projections.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10314"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/malcalakovalski/Documents/Projects/fim/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86D4AC4E-C8D7-4244-B03D-CCA2D37B3A45}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAAC3DFE-3F82-0B4C-B1B8-27FB968E53F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="520" yWindow="540" windowWidth="33600" windowHeight="19380" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="16800" windowHeight="19720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="economic" sheetId="1" r:id="rId1"/>
-    <sheet name="CARES" sheetId="6" r:id="rId2"/>
-    <sheet name="budget" sheetId="3" r:id="rId3"/>
+    <sheet name="budget" sheetId="3" r:id="rId2"/>
+    <sheet name="CARES" sheetId="6" r:id="rId3"/>
     <sheet name="crrca" sheetId="5" r:id="rId4"/>
     <sheet name="Sheet1" sheetId="4" r:id="rId5"/>
     <sheet name="1. Quarterly" sheetId="2" r:id="rId6"/>
@@ -1259,6 +1259,9 @@
     <xf numFmtId="2" fontId="19" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="43" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="47" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="46" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1269,9 +1272,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="43" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="43" applyFont="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="47" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="48">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1635,11 +1635,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L32" sqref="L32"/>
+      <selection pane="bottomRight" activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4703,6 +4703,537 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77260E8A-45C6-C74E-A071-E1E958901B15}">
+  <dimension ref="A1:J16"/>
+  <sheetViews>
+    <sheetView zoomScale="107" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E1" t="s">
+        <v>162</v>
+      </c>
+      <c r="F1" t="s">
+        <v>163</v>
+      </c>
+      <c r="G1" t="s">
+        <v>164</v>
+      </c>
+      <c r="H1" t="s">
+        <v>165</v>
+      </c>
+      <c r="I1" t="s">
+        <v>166</v>
+      </c>
+      <c r="J1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>2017</v>
+      </c>
+      <c r="B2" s="26">
+        <v>2060</v>
+      </c>
+      <c r="C2" s="26">
+        <v>1582</v>
+      </c>
+      <c r="D2" s="26">
+        <v>133</v>
+      </c>
+      <c r="E2" s="26">
+        <v>407</v>
+      </c>
+      <c r="F2" s="26">
+        <v>1269</v>
+      </c>
+      <c r="G2" s="26">
+        <v>702.28</v>
+      </c>
+      <c r="H2" s="26">
+        <v>374.68</v>
+      </c>
+      <c r="I2" s="26">
+        <v>31.2</v>
+      </c>
+      <c r="J2" s="26">
+        <f>I2</f>
+        <v>31.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2018</v>
+      </c>
+      <c r="B3" s="26">
+        <v>2154</v>
+      </c>
+      <c r="C3" s="26">
+        <v>1610</v>
+      </c>
+      <c r="D3" s="26">
+        <v>149</v>
+      </c>
+      <c r="E3" s="26">
+        <v>184</v>
+      </c>
+      <c r="F3" s="26">
+        <v>1329</v>
+      </c>
+      <c r="G3" s="26">
+        <v>704</v>
+      </c>
+      <c r="H3" s="26">
+        <v>389</v>
+      </c>
+      <c r="I3" s="26">
+        <v>30</v>
+      </c>
+      <c r="J3" s="26">
+        <f>I3</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2019</v>
+      </c>
+      <c r="B4" s="26">
+        <v>2286.6971250000001</v>
+      </c>
+      <c r="C4" s="26">
+        <v>1652.8922560000001</v>
+      </c>
+      <c r="D4" s="26">
+        <v>173.3855016</v>
+      </c>
+      <c r="E4" s="26">
+        <v>166.2805401</v>
+      </c>
+      <c r="F4" s="26">
+        <v>1395.0821430000001</v>
+      </c>
+      <c r="G4" s="26">
+        <v>775.40599999999995</v>
+      </c>
+      <c r="H4" s="26">
+        <v>409.42099999999999</v>
+      </c>
+      <c r="I4" s="26">
+        <v>27.626999999999999</v>
+      </c>
+      <c r="J4" s="26">
+        <f>I4</f>
+        <v>27.626999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2020</v>
+      </c>
+      <c r="B5" s="26">
+        <v>3320.7721320000001</v>
+      </c>
+      <c r="C5" s="27">
+        <v>1608.662</v>
+      </c>
+      <c r="D5" s="27">
+        <v>289.49400000000003</v>
+      </c>
+      <c r="E5" s="27">
+        <v>211.845</v>
+      </c>
+      <c r="F5" s="27">
+        <v>1309.954</v>
+      </c>
+      <c r="G5" s="27">
+        <v>916.94899999999996</v>
+      </c>
+      <c r="H5" s="27">
+        <v>458.46899999999999</v>
+      </c>
+      <c r="I5" s="27">
+        <v>473.16500000000002</v>
+      </c>
+      <c r="J5" s="26">
+        <f>I5</f>
+        <v>473.16500000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>2021</v>
+      </c>
+      <c r="B6" s="26">
+        <v>2675.6800560000001</v>
+      </c>
+      <c r="C6" s="27">
+        <v>1698.961</v>
+      </c>
+      <c r="D6" s="27">
+        <v>317.62599999999998</v>
+      </c>
+      <c r="E6" s="27">
+        <v>164.04599999999999</v>
+      </c>
+      <c r="F6" s="27">
+        <v>1325.337</v>
+      </c>
+      <c r="G6" s="27">
+        <v>830.23699999999997</v>
+      </c>
+      <c r="H6" s="27">
+        <v>507.26100000000002</v>
+      </c>
+      <c r="I6" s="27">
+        <v>242.08699999999999</v>
+      </c>
+      <c r="J6" s="25">
+        <v>59.15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>2022</v>
+      </c>
+      <c r="B7" s="26">
+        <v>2725.1688960000001</v>
+      </c>
+      <c r="C7" s="27">
+        <v>2040.5219999999999</v>
+      </c>
+      <c r="D7" s="27">
+        <v>350.88200000000001</v>
+      </c>
+      <c r="E7" s="27">
+        <v>251.98500000000001</v>
+      </c>
+      <c r="F7" s="27">
+        <v>1351.277</v>
+      </c>
+      <c r="G7" s="27">
+        <v>942.86400000000003</v>
+      </c>
+      <c r="H7" s="27">
+        <v>514.14599999999996</v>
+      </c>
+      <c r="I7" s="27">
+        <v>40.164000000000001</v>
+      </c>
+      <c r="J7" s="25">
+        <v>38.14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>2023</v>
+      </c>
+      <c r="B8" s="26">
+        <v>2789.7678000000001</v>
+      </c>
+      <c r="C8" s="27">
+        <v>2084.1019999999999</v>
+      </c>
+      <c r="D8" s="27">
+        <v>361.96100000000001</v>
+      </c>
+      <c r="E8" s="27">
+        <v>303.99599999999998</v>
+      </c>
+      <c r="F8" s="27">
+        <v>1452.09</v>
+      </c>
+      <c r="G8" s="27">
+        <v>1017.717</v>
+      </c>
+      <c r="H8" s="27">
+        <v>491.86900000000003</v>
+      </c>
+      <c r="I8" s="27">
+        <v>37.088999999999999</v>
+      </c>
+      <c r="J8" s="25">
+        <v>36.145000000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>2024</v>
+      </c>
+      <c r="B9" s="26">
+        <v>2862.2467660000002</v>
+      </c>
+      <c r="C9" s="27">
+        <v>2138.5259999999998</v>
+      </c>
+      <c r="D9" s="27">
+        <v>378.53399999999999</v>
+      </c>
+      <c r="E9" s="27">
+        <v>328.43299999999999</v>
+      </c>
+      <c r="F9" s="27">
+        <v>1506.7819999999999</v>
+      </c>
+      <c r="G9" s="27">
+        <v>1047.1569999999999</v>
+      </c>
+      <c r="H9" s="27">
+        <v>503.505</v>
+      </c>
+      <c r="I9" s="27">
+        <v>36.167000000000002</v>
+      </c>
+      <c r="J9" s="25">
+        <v>35.369999999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>2025</v>
+      </c>
+      <c r="B10" s="26">
+        <v>3076.7846719999998</v>
+      </c>
+      <c r="C10" s="27">
+        <v>2227.5610000000001</v>
+      </c>
+      <c r="D10" s="27">
+        <v>365.35899999999998</v>
+      </c>
+      <c r="E10" s="27">
+        <v>355.43400000000003</v>
+      </c>
+      <c r="F10" s="27">
+        <v>1558.3019999999999</v>
+      </c>
+      <c r="G10" s="27">
+        <v>1171.548</v>
+      </c>
+      <c r="H10" s="27">
+        <v>533.43499999999995</v>
+      </c>
+      <c r="I10" s="27">
+        <v>34.216999999999999</v>
+      </c>
+      <c r="J10" s="25">
+        <v>33.424999999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>2026</v>
+      </c>
+      <c r="B11" s="26">
+        <v>3236.1370160000001</v>
+      </c>
+      <c r="C11" s="27">
+        <v>2479.105</v>
+      </c>
+      <c r="D11" s="27">
+        <v>353.93799999999999</v>
+      </c>
+      <c r="E11" s="27">
+        <v>365.29700000000003</v>
+      </c>
+      <c r="F11" s="27">
+        <v>1618.9469999999999</v>
+      </c>
+      <c r="G11" s="27">
+        <v>1256.192</v>
+      </c>
+      <c r="H11" s="27">
+        <v>563.24099999999999</v>
+      </c>
+      <c r="I11" s="27">
+        <v>33.183999999999997</v>
+      </c>
+      <c r="J11" s="25">
+        <v>32.450000000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>2027</v>
+      </c>
+      <c r="B12" s="26">
+        <v>3385.882263</v>
+      </c>
+      <c r="C12" s="27">
+        <v>2697.9229999999998</v>
+      </c>
+      <c r="D12" s="27">
+        <v>365.00299999999999</v>
+      </c>
+      <c r="E12" s="27">
+        <v>360.97699999999998</v>
+      </c>
+      <c r="F12" s="27">
+        <v>1672.973</v>
+      </c>
+      <c r="G12" s="27">
+        <v>1348.1610000000001</v>
+      </c>
+      <c r="H12" s="27">
+        <v>597.41200000000003</v>
+      </c>
+      <c r="I12" s="27">
+        <v>33.901000000000003</v>
+      </c>
+      <c r="J12" s="25">
+        <v>33.164999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>2028</v>
+      </c>
+      <c r="B13" s="26">
+        <v>3654.9385870000001</v>
+      </c>
+      <c r="C13" s="27">
+        <v>2782.221</v>
+      </c>
+      <c r="D13" s="27">
+        <v>362.74099999999999</v>
+      </c>
+      <c r="E13" s="27">
+        <v>368.625</v>
+      </c>
+      <c r="F13" s="27">
+        <v>1729.1780000000001</v>
+      </c>
+      <c r="G13" s="27">
+        <v>1516.3989999999999</v>
+      </c>
+      <c r="H13" s="27">
+        <v>631.86</v>
+      </c>
+      <c r="I13" s="27">
+        <v>35.832000000000001</v>
+      </c>
+      <c r="J13" s="25">
+        <v>35.090000000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>2029</v>
+      </c>
+      <c r="B14" s="26">
+        <v>3651.8353670000001</v>
+      </c>
+      <c r="C14" s="27">
+        <v>2882.0140000000001</v>
+      </c>
+      <c r="D14" s="27">
+        <v>359.91500000000002</v>
+      </c>
+      <c r="E14" s="27">
+        <v>377.49</v>
+      </c>
+      <c r="F14" s="27">
+        <v>1788.18</v>
+      </c>
+      <c r="G14" s="27">
+        <v>1475.1320000000001</v>
+      </c>
+      <c r="H14" s="27">
+        <v>667.45500000000004</v>
+      </c>
+      <c r="I14" s="27">
+        <v>37.915999999999997</v>
+      </c>
+      <c r="J14" s="25">
+        <v>37.164999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>2030</v>
+      </c>
+      <c r="B15" s="26">
+        <v>3932.6238069999999</v>
+      </c>
+      <c r="C15" s="27">
+        <v>2985.3470000000002</v>
+      </c>
+      <c r="D15" s="27">
+        <v>357.32900000000001</v>
+      </c>
+      <c r="E15" s="27">
+        <v>385.48599999999999</v>
+      </c>
+      <c r="F15" s="27">
+        <v>1848.9970000000001</v>
+      </c>
+      <c r="G15" s="27">
+        <v>1642.68</v>
+      </c>
+      <c r="H15" s="27">
+        <v>705.01099999999997</v>
+      </c>
+      <c r="I15" s="27">
+        <v>40.545000000000002</v>
+      </c>
+      <c r="J15" s="25">
+        <v>39.784999999999997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>2031</v>
+      </c>
+      <c r="B16" s="26">
+        <v>3932.6238069999999</v>
+      </c>
+      <c r="C16" s="27">
+        <v>3096.473</v>
+      </c>
+      <c r="D16" s="27">
+        <v>367.358</v>
+      </c>
+      <c r="E16" s="27">
+        <v>392.95400000000001</v>
+      </c>
+      <c r="F16" s="27">
+        <v>1914.1849999999999</v>
+      </c>
+      <c r="G16" s="27">
+        <v>1781.768</v>
+      </c>
+      <c r="H16" s="27">
+        <v>744.03499999999997</v>
+      </c>
+      <c r="I16" s="27">
+        <v>45.503</v>
+      </c>
+      <c r="J16" s="25">
+        <v>44.73</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DE6E772-7745-4345-AD59-C84EFCAA345D}">
   <dimension ref="A1:L13"/>
   <sheetViews>
@@ -4746,10 +5277,10 @@
       <c r="E2">
         <v>18</v>
       </c>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -4767,10 +5298,10 @@
       <c r="E3">
         <v>0</v>
       </c>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="34"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -4940,537 +5471,6 @@
       </c>
       <c r="E13">
         <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77260E8A-45C6-C74E-A071-E1E958901B15}">
-  <dimension ref="A1:J16"/>
-  <sheetViews>
-    <sheetView zoomScale="107" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>158</v>
-      </c>
-      <c r="B1" t="s">
-        <v>159</v>
-      </c>
-      <c r="C1" t="s">
-        <v>160</v>
-      </c>
-      <c r="D1" t="s">
-        <v>161</v>
-      </c>
-      <c r="E1" t="s">
-        <v>162</v>
-      </c>
-      <c r="F1" t="s">
-        <v>163</v>
-      </c>
-      <c r="G1" t="s">
-        <v>164</v>
-      </c>
-      <c r="H1" t="s">
-        <v>165</v>
-      </c>
-      <c r="I1" t="s">
-        <v>166</v>
-      </c>
-      <c r="J1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>2017</v>
-      </c>
-      <c r="B2" s="26">
-        <v>2060</v>
-      </c>
-      <c r="C2" s="26">
-        <v>1582</v>
-      </c>
-      <c r="D2" s="26">
-        <v>133</v>
-      </c>
-      <c r="E2" s="26">
-        <v>407</v>
-      </c>
-      <c r="F2" s="26">
-        <v>1269</v>
-      </c>
-      <c r="G2" s="26">
-        <v>702.28</v>
-      </c>
-      <c r="H2" s="26">
-        <v>374.68</v>
-      </c>
-      <c r="I2" s="26">
-        <v>31.2</v>
-      </c>
-      <c r="J2" s="26">
-        <f>I2</f>
-        <v>31.2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2018</v>
-      </c>
-      <c r="B3" s="26">
-        <v>2154</v>
-      </c>
-      <c r="C3" s="26">
-        <v>1610</v>
-      </c>
-      <c r="D3" s="26">
-        <v>149</v>
-      </c>
-      <c r="E3" s="26">
-        <v>184</v>
-      </c>
-      <c r="F3" s="26">
-        <v>1329</v>
-      </c>
-      <c r="G3" s="26">
-        <v>704</v>
-      </c>
-      <c r="H3" s="26">
-        <v>389</v>
-      </c>
-      <c r="I3" s="26">
-        <v>30</v>
-      </c>
-      <c r="J3" s="26">
-        <f>I3</f>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>2019</v>
-      </c>
-      <c r="B4" s="26">
-        <v>2286.6971250000001</v>
-      </c>
-      <c r="C4" s="26">
-        <v>1652.8922560000001</v>
-      </c>
-      <c r="D4" s="26">
-        <v>173.3855016</v>
-      </c>
-      <c r="E4" s="26">
-        <v>166.2805401</v>
-      </c>
-      <c r="F4" s="26">
-        <v>1395.0821430000001</v>
-      </c>
-      <c r="G4" s="26">
-        <v>775.40599999999995</v>
-      </c>
-      <c r="H4" s="26">
-        <v>409.42099999999999</v>
-      </c>
-      <c r="I4" s="26">
-        <v>27.626999999999999</v>
-      </c>
-      <c r="J4" s="26">
-        <f>I4</f>
-        <v>27.626999999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>2020</v>
-      </c>
-      <c r="B5" s="26">
-        <v>3320.7721320000001</v>
-      </c>
-      <c r="C5" s="27">
-        <v>1608.662</v>
-      </c>
-      <c r="D5" s="27">
-        <v>289.49400000000003</v>
-      </c>
-      <c r="E5" s="27">
-        <v>211.845</v>
-      </c>
-      <c r="F5" s="27">
-        <v>1309.954</v>
-      </c>
-      <c r="G5" s="27">
-        <v>916.94899999999996</v>
-      </c>
-      <c r="H5" s="27">
-        <v>458.46899999999999</v>
-      </c>
-      <c r="I5" s="27">
-        <v>473.16500000000002</v>
-      </c>
-      <c r="J5" s="26">
-        <f>I5</f>
-        <v>473.16500000000002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>2021</v>
-      </c>
-      <c r="B6" s="26">
-        <v>2675.6800560000001</v>
-      </c>
-      <c r="C6" s="27">
-        <v>1698.961</v>
-      </c>
-      <c r="D6" s="27">
-        <v>317.62599999999998</v>
-      </c>
-      <c r="E6" s="27">
-        <v>164.04599999999999</v>
-      </c>
-      <c r="F6" s="27">
-        <v>1325.337</v>
-      </c>
-      <c r="G6" s="27">
-        <v>830.23699999999997</v>
-      </c>
-      <c r="H6" s="27">
-        <v>507.26100000000002</v>
-      </c>
-      <c r="I6" s="27">
-        <v>242.08699999999999</v>
-      </c>
-      <c r="J6" s="25">
-        <v>59.15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>2022</v>
-      </c>
-      <c r="B7" s="26">
-        <v>2725.1688960000001</v>
-      </c>
-      <c r="C7" s="27">
-        <v>2040.5219999999999</v>
-      </c>
-      <c r="D7" s="27">
-        <v>350.88200000000001</v>
-      </c>
-      <c r="E7" s="27">
-        <v>251.98500000000001</v>
-      </c>
-      <c r="F7" s="27">
-        <v>1351.277</v>
-      </c>
-      <c r="G7" s="27">
-        <v>942.86400000000003</v>
-      </c>
-      <c r="H7" s="27">
-        <v>514.14599999999996</v>
-      </c>
-      <c r="I7" s="27">
-        <v>40.164000000000001</v>
-      </c>
-      <c r="J7" s="25">
-        <v>38.14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>2023</v>
-      </c>
-      <c r="B8" s="26">
-        <v>2789.7678000000001</v>
-      </c>
-      <c r="C8" s="27">
-        <v>2084.1019999999999</v>
-      </c>
-      <c r="D8" s="27">
-        <v>361.96100000000001</v>
-      </c>
-      <c r="E8" s="27">
-        <v>303.99599999999998</v>
-      </c>
-      <c r="F8" s="27">
-        <v>1452.09</v>
-      </c>
-      <c r="G8" s="27">
-        <v>1017.717</v>
-      </c>
-      <c r="H8" s="27">
-        <v>491.86900000000003</v>
-      </c>
-      <c r="I8" s="27">
-        <v>37.088999999999999</v>
-      </c>
-      <c r="J8" s="25">
-        <v>36.145000000000003</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>2024</v>
-      </c>
-      <c r="B9" s="26">
-        <v>2862.2467660000002</v>
-      </c>
-      <c r="C9" s="27">
-        <v>2138.5259999999998</v>
-      </c>
-      <c r="D9" s="27">
-        <v>378.53399999999999</v>
-      </c>
-      <c r="E9" s="27">
-        <v>328.43299999999999</v>
-      </c>
-      <c r="F9" s="27">
-        <v>1506.7819999999999</v>
-      </c>
-      <c r="G9" s="27">
-        <v>1047.1569999999999</v>
-      </c>
-      <c r="H9" s="27">
-        <v>503.505</v>
-      </c>
-      <c r="I9" s="27">
-        <v>36.167000000000002</v>
-      </c>
-      <c r="J9" s="25">
-        <v>35.369999999999997</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>2025</v>
-      </c>
-      <c r="B10" s="26">
-        <v>3076.7846719999998</v>
-      </c>
-      <c r="C10" s="27">
-        <v>2227.5610000000001</v>
-      </c>
-      <c r="D10" s="27">
-        <v>365.35899999999998</v>
-      </c>
-      <c r="E10" s="27">
-        <v>355.43400000000003</v>
-      </c>
-      <c r="F10" s="27">
-        <v>1558.3019999999999</v>
-      </c>
-      <c r="G10" s="27">
-        <v>1171.548</v>
-      </c>
-      <c r="H10" s="27">
-        <v>533.43499999999995</v>
-      </c>
-      <c r="I10" s="27">
-        <v>34.216999999999999</v>
-      </c>
-      <c r="J10" s="25">
-        <v>33.424999999999997</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>2026</v>
-      </c>
-      <c r="B11" s="26">
-        <v>3236.1370160000001</v>
-      </c>
-      <c r="C11" s="27">
-        <v>2479.105</v>
-      </c>
-      <c r="D11" s="27">
-        <v>353.93799999999999</v>
-      </c>
-      <c r="E11" s="27">
-        <v>365.29700000000003</v>
-      </c>
-      <c r="F11" s="27">
-        <v>1618.9469999999999</v>
-      </c>
-      <c r="G11" s="27">
-        <v>1256.192</v>
-      </c>
-      <c r="H11" s="27">
-        <v>563.24099999999999</v>
-      </c>
-      <c r="I11" s="27">
-        <v>33.183999999999997</v>
-      </c>
-      <c r="J11" s="25">
-        <v>32.450000000000003</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>2027</v>
-      </c>
-      <c r="B12" s="26">
-        <v>3385.882263</v>
-      </c>
-      <c r="C12" s="27">
-        <v>2697.9229999999998</v>
-      </c>
-      <c r="D12" s="27">
-        <v>365.00299999999999</v>
-      </c>
-      <c r="E12" s="27">
-        <v>360.97699999999998</v>
-      </c>
-      <c r="F12" s="27">
-        <v>1672.973</v>
-      </c>
-      <c r="G12" s="27">
-        <v>1348.1610000000001</v>
-      </c>
-      <c r="H12" s="27">
-        <v>597.41200000000003</v>
-      </c>
-      <c r="I12" s="27">
-        <v>33.901000000000003</v>
-      </c>
-      <c r="J12" s="25">
-        <v>33.164999999999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>2028</v>
-      </c>
-      <c r="B13" s="26">
-        <v>3654.9385870000001</v>
-      </c>
-      <c r="C13" s="27">
-        <v>2782.221</v>
-      </c>
-      <c r="D13" s="27">
-        <v>362.74099999999999</v>
-      </c>
-      <c r="E13" s="27">
-        <v>368.625</v>
-      </c>
-      <c r="F13" s="27">
-        <v>1729.1780000000001</v>
-      </c>
-      <c r="G13" s="27">
-        <v>1516.3989999999999</v>
-      </c>
-      <c r="H13" s="27">
-        <v>631.86</v>
-      </c>
-      <c r="I13" s="27">
-        <v>35.832000000000001</v>
-      </c>
-      <c r="J13" s="25">
-        <v>35.090000000000003</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>2029</v>
-      </c>
-      <c r="B14" s="26">
-        <v>3651.8353670000001</v>
-      </c>
-      <c r="C14" s="27">
-        <v>2882.0140000000001</v>
-      </c>
-      <c r="D14" s="27">
-        <v>359.91500000000002</v>
-      </c>
-      <c r="E14" s="27">
-        <v>377.49</v>
-      </c>
-      <c r="F14" s="27">
-        <v>1788.18</v>
-      </c>
-      <c r="G14" s="27">
-        <v>1475.1320000000001</v>
-      </c>
-      <c r="H14" s="27">
-        <v>667.45500000000004</v>
-      </c>
-      <c r="I14" s="27">
-        <v>37.915999999999997</v>
-      </c>
-      <c r="J14" s="25">
-        <v>37.164999999999999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>2030</v>
-      </c>
-      <c r="B15" s="26">
-        <v>3932.6238069999999</v>
-      </c>
-      <c r="C15" s="27">
-        <v>2985.3470000000002</v>
-      </c>
-      <c r="D15" s="27">
-        <v>357.32900000000001</v>
-      </c>
-      <c r="E15" s="27">
-        <v>385.48599999999999</v>
-      </c>
-      <c r="F15" s="27">
-        <v>1848.9970000000001</v>
-      </c>
-      <c r="G15" s="27">
-        <v>1642.68</v>
-      </c>
-      <c r="H15" s="27">
-        <v>705.01099999999997</v>
-      </c>
-      <c r="I15" s="27">
-        <v>40.545000000000002</v>
-      </c>
-      <c r="J15" s="25">
-        <v>39.784999999999997</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>2031</v>
-      </c>
-      <c r="B16" s="26">
-        <v>3932.6238069999999</v>
-      </c>
-      <c r="C16" s="27">
-        <v>3096.473</v>
-      </c>
-      <c r="D16" s="27">
-        <v>367.358</v>
-      </c>
-      <c r="E16" s="27">
-        <v>392.95400000000001</v>
-      </c>
-      <c r="F16" s="27">
-        <v>1914.1849999999999</v>
-      </c>
-      <c r="G16" s="27">
-        <v>1781.768</v>
-      </c>
-      <c r="H16" s="27">
-        <v>744.03499999999997</v>
-      </c>
-      <c r="I16" s="27">
-        <v>45.503</v>
-      </c>
-      <c r="J16" s="25">
-        <v>44.73</v>
       </c>
     </row>
   </sheetData>
@@ -5482,7 +5482,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B46AA86B-2BB2-174B-844E-5456E2801ADC}">
   <dimension ref="A1:O12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
@@ -5579,7 +5579,7 @@
       <c r="N2">
         <v>5</v>
       </c>
-      <c r="O2" s="33">
+      <c r="O2" s="29">
         <f>181.506</f>
         <v>181.506</v>
       </c>
@@ -5588,23 +5588,23 @@
       <c r="A3">
         <v>2022</v>
       </c>
-      <c r="B3" s="32">
+      <c r="B3" s="28">
         <v>0</v>
       </c>
-      <c r="C3" s="32">
+      <c r="C3" s="28">
         <v>0</v>
       </c>
-      <c r="D3" s="32">
+      <c r="D3" s="28">
         <v>0</v>
       </c>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="32"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="28"/>
       <c r="N3">
         <v>0</v>
       </c>
@@ -5616,23 +5616,23 @@
       <c r="A4">
         <v>2023</v>
       </c>
-      <c r="B4" s="32">
+      <c r="B4" s="28">
         <v>0</v>
       </c>
-      <c r="C4" s="32">
+      <c r="C4" s="28">
         <v>0</v>
       </c>
-      <c r="D4" s="32">
+      <c r="D4" s="28">
         <v>0</v>
       </c>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="32"/>
-      <c r="L4" s="32"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="28"/>
       <c r="N4">
         <v>0</v>
       </c>
@@ -5644,41 +5644,41 @@
       <c r="A5">
         <v>2024</v>
       </c>
-      <c r="B5" s="32">
+      <c r="B5" s="28">
         <v>0</v>
       </c>
-      <c r="C5" s="32">
+      <c r="C5" s="28">
         <v>0</v>
       </c>
-      <c r="D5" s="32">
+      <c r="D5" s="28">
         <v>0</v>
       </c>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32">
+      <c r="E5" s="28"/>
+      <c r="F5" s="28">
         <v>0</v>
       </c>
-      <c r="G5" s="32">
+      <c r="G5" s="28">
         <v>0</v>
       </c>
-      <c r="H5" s="32">
+      <c r="H5" s="28">
         <v>0</v>
       </c>
-      <c r="I5" s="32">
+      <c r="I5" s="28">
         <v>0</v>
       </c>
-      <c r="J5" s="32">
+      <c r="J5" s="28">
         <v>0</v>
       </c>
-      <c r="K5" s="32">
+      <c r="K5" s="28">
         <v>0</v>
       </c>
-      <c r="L5" s="32">
+      <c r="L5" s="28">
         <v>0</v>
       </c>
-      <c r="M5" s="32">
+      <c r="M5" s="28">
         <v>0</v>
       </c>
-      <c r="N5" s="32">
+      <c r="N5" s="28">
         <v>0</v>
       </c>
       <c r="O5" s="25">
@@ -5689,41 +5689,41 @@
       <c r="A6">
         <v>2025</v>
       </c>
-      <c r="B6" s="32">
+      <c r="B6" s="28">
         <v>0</v>
       </c>
-      <c r="C6" s="32">
+      <c r="C6" s="28">
         <v>0</v>
       </c>
-      <c r="D6" s="32">
+      <c r="D6" s="28">
         <v>0</v>
       </c>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32">
+      <c r="E6" s="28"/>
+      <c r="F6" s="28">
         <v>0</v>
       </c>
-      <c r="G6" s="32">
+      <c r="G6" s="28">
         <v>0</v>
       </c>
-      <c r="H6" s="32">
+      <c r="H6" s="28">
         <v>0</v>
       </c>
-      <c r="I6" s="32">
+      <c r="I6" s="28">
         <v>0</v>
       </c>
-      <c r="J6" s="32">
+      <c r="J6" s="28">
         <v>0</v>
       </c>
-      <c r="K6" s="32">
+      <c r="K6" s="28">
         <v>0</v>
       </c>
-      <c r="L6" s="32">
+      <c r="L6" s="28">
         <v>0</v>
       </c>
-      <c r="M6" s="32">
+      <c r="M6" s="28">
         <v>0</v>
       </c>
-      <c r="N6" s="32">
+      <c r="N6" s="28">
         <v>0</v>
       </c>
       <c r="O6" s="25">
@@ -5734,41 +5734,41 @@
       <c r="A7">
         <v>2026</v>
       </c>
-      <c r="B7" s="32">
+      <c r="B7" s="28">
         <v>0</v>
       </c>
-      <c r="C7" s="32">
+      <c r="C7" s="28">
         <v>0</v>
       </c>
-      <c r="D7" s="32">
+      <c r="D7" s="28">
         <v>0</v>
       </c>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32">
+      <c r="E7" s="28"/>
+      <c r="F7" s="28">
         <v>0</v>
       </c>
-      <c r="G7" s="32">
+      <c r="G7" s="28">
         <v>0</v>
       </c>
-      <c r="H7" s="32">
+      <c r="H7" s="28">
         <v>0</v>
       </c>
-      <c r="I7" s="32">
+      <c r="I7" s="28">
         <v>0</v>
       </c>
-      <c r="J7" s="32">
+      <c r="J7" s="28">
         <v>0</v>
       </c>
-      <c r="K7" s="32">
+      <c r="K7" s="28">
         <v>0</v>
       </c>
-      <c r="L7" s="32">
+      <c r="L7" s="28">
         <v>0</v>
       </c>
-      <c r="M7" s="32">
+      <c r="M7" s="28">
         <v>0</v>
       </c>
-      <c r="N7" s="32">
+      <c r="N7" s="28">
         <v>0</v>
       </c>
       <c r="O7" s="25">
@@ -5779,41 +5779,41 @@
       <c r="A8">
         <v>2027</v>
       </c>
-      <c r="B8" s="32">
+      <c r="B8" s="28">
         <v>0</v>
       </c>
-      <c r="C8" s="32">
+      <c r="C8" s="28">
         <v>0</v>
       </c>
-      <c r="D8" s="32">
+      <c r="D8" s="28">
         <v>0</v>
       </c>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32">
+      <c r="E8" s="28"/>
+      <c r="F8" s="28">
         <v>0</v>
       </c>
-      <c r="G8" s="32">
+      <c r="G8" s="28">
         <v>0</v>
       </c>
-      <c r="H8" s="32">
+      <c r="H8" s="28">
         <v>0</v>
       </c>
-      <c r="I8" s="32">
+      <c r="I8" s="28">
         <v>0</v>
       </c>
-      <c r="J8" s="32">
+      <c r="J8" s="28">
         <v>0</v>
       </c>
-      <c r="K8" s="32">
+      <c r="K8" s="28">
         <v>0</v>
       </c>
-      <c r="L8" s="32">
+      <c r="L8" s="28">
         <v>0</v>
       </c>
-      <c r="M8" s="32">
+      <c r="M8" s="28">
         <v>0</v>
       </c>
-      <c r="N8" s="32">
+      <c r="N8" s="28">
         <v>0</v>
       </c>
       <c r="O8" s="25">
@@ -5824,41 +5824,41 @@
       <c r="A9">
         <v>2028</v>
       </c>
-      <c r="B9" s="32">
+      <c r="B9" s="28">
         <v>0</v>
       </c>
-      <c r="C9" s="32">
+      <c r="C9" s="28">
         <v>0</v>
       </c>
-      <c r="D9" s="32">
+      <c r="D9" s="28">
         <v>0</v>
       </c>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32">
+      <c r="E9" s="28"/>
+      <c r="F9" s="28">
         <v>0</v>
       </c>
-      <c r="G9" s="32">
+      <c r="G9" s="28">
         <v>0</v>
       </c>
-      <c r="H9" s="32">
+      <c r="H9" s="28">
         <v>0</v>
       </c>
-      <c r="I9" s="32">
+      <c r="I9" s="28">
         <v>0</v>
       </c>
-      <c r="J9" s="32">
+      <c r="J9" s="28">
         <v>0</v>
       </c>
-      <c r="K9" s="32">
+      <c r="K9" s="28">
         <v>0</v>
       </c>
-      <c r="L9" s="32">
+      <c r="L9" s="28">
         <v>0</v>
       </c>
-      <c r="M9" s="32">
+      <c r="M9" s="28">
         <v>0</v>
       </c>
-      <c r="N9" s="32">
+      <c r="N9" s="28">
         <v>0</v>
       </c>
       <c r="O9" s="25">
@@ -5869,41 +5869,41 @@
       <c r="A10">
         <v>2029</v>
       </c>
-      <c r="B10" s="32">
+      <c r="B10" s="28">
         <v>0</v>
       </c>
-      <c r="C10" s="32">
+      <c r="C10" s="28">
         <v>0</v>
       </c>
-      <c r="D10" s="32">
+      <c r="D10" s="28">
         <v>0</v>
       </c>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32">
+      <c r="E10" s="28"/>
+      <c r="F10" s="28">
         <v>0</v>
       </c>
-      <c r="G10" s="32">
+      <c r="G10" s="28">
         <v>0</v>
       </c>
-      <c r="H10" s="32">
+      <c r="H10" s="28">
         <v>0</v>
       </c>
-      <c r="I10" s="32">
+      <c r="I10" s="28">
         <v>0</v>
       </c>
-      <c r="J10" s="32">
+      <c r="J10" s="28">
         <v>0</v>
       </c>
-      <c r="K10" s="32">
+      <c r="K10" s="28">
         <v>0</v>
       </c>
-      <c r="L10" s="32">
+      <c r="L10" s="28">
         <v>0</v>
       </c>
-      <c r="M10" s="32">
+      <c r="M10" s="28">
         <v>0</v>
       </c>
-      <c r="N10" s="32">
+      <c r="N10" s="28">
         <v>0</v>
       </c>
       <c r="O10" s="25">
@@ -5914,41 +5914,41 @@
       <c r="A11">
         <v>2030</v>
       </c>
-      <c r="B11" s="32">
+      <c r="B11" s="28">
         <v>0</v>
       </c>
-      <c r="C11" s="32">
+      <c r="C11" s="28">
         <v>0</v>
       </c>
-      <c r="D11" s="32">
+      <c r="D11" s="28">
         <v>0</v>
       </c>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32">
+      <c r="E11" s="28"/>
+      <c r="F11" s="28">
         <v>0</v>
       </c>
-      <c r="G11" s="32">
+      <c r="G11" s="28">
         <v>0</v>
       </c>
-      <c r="H11" s="32">
+      <c r="H11" s="28">
         <v>0</v>
       </c>
-      <c r="I11" s="32">
+      <c r="I11" s="28">
         <v>0</v>
       </c>
-      <c r="J11" s="32">
+      <c r="J11" s="28">
         <v>0</v>
       </c>
-      <c r="K11" s="32">
+      <c r="K11" s="28">
         <v>0</v>
       </c>
-      <c r="L11" s="32">
+      <c r="L11" s="28">
         <v>0</v>
       </c>
-      <c r="M11" s="32">
+      <c r="M11" s="28">
         <v>0</v>
       </c>
-      <c r="N11" s="32">
+      <c r="N11" s="28">
         <v>0</v>
       </c>
       <c r="O11" s="25">
@@ -5959,41 +5959,41 @@
       <c r="A12">
         <v>2031</v>
       </c>
-      <c r="B12" s="32">
+      <c r="B12" s="28">
         <v>0</v>
       </c>
-      <c r="C12" s="32">
+      <c r="C12" s="28">
         <v>0</v>
       </c>
-      <c r="D12" s="32">
+      <c r="D12" s="28">
         <v>0</v>
       </c>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32">
+      <c r="E12" s="28"/>
+      <c r="F12" s="28">
         <v>0</v>
       </c>
-      <c r="G12" s="32">
+      <c r="G12" s="28">
         <v>0</v>
       </c>
-      <c r="H12" s="32">
+      <c r="H12" s="28">
         <v>0</v>
       </c>
-      <c r="I12" s="32">
+      <c r="I12" s="28">
         <v>0</v>
       </c>
-      <c r="J12" s="32">
+      <c r="J12" s="28">
         <v>0</v>
       </c>
-      <c r="K12" s="32">
+      <c r="K12" s="28">
         <v>0</v>
       </c>
-      <c r="L12" s="32">
+      <c r="L12" s="28">
         <v>0</v>
       </c>
-      <c r="M12" s="32">
+      <c r="M12" s="28">
         <v>0</v>
       </c>
-      <c r="N12" s="32">
+      <c r="N12" s="28">
         <v>0</v>
       </c>
       <c r="O12" s="25">
@@ -6137,27 +6137,27 @@
       </c>
     </row>
     <row r="2" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="31" t="s">
         <v>156</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
     </row>
     <row r="4" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D4" s="25"/>
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="33" t="s">
         <v>155</v>
       </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
@@ -26995,12 +26995,12 @@
       </c>
     </row>
     <row r="130" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A130" s="31" t="s">
+      <c r="A130" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="B130" s="31"/>
-      <c r="C130" s="31"/>
-      <c r="D130" s="31"/>
+      <c r="B130" s="34"/>
+      <c r="C130" s="34"/>
+      <c r="D130" s="34"/>
     </row>
     <row r="131" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C131" s="8"/>

--- a/inst/extdata/projections.xlsx
+++ b/inst/extdata/projections.xlsx
@@ -8,21 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/malcalakovalski/Documents/Projects/fim/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAAC3DFE-3F82-0B4C-B1B8-27FB968E53F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D04AAA22-8CD6-924A-AB02-9EBDC5F826B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="16800" windowHeight="19720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="16800" windowHeight="19720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="economic" sheetId="1" r:id="rId1"/>
     <sheet name="budget" sheetId="3" r:id="rId2"/>
-    <sheet name="CARES" sheetId="6" r:id="rId3"/>
-    <sheet name="crrca" sheetId="5" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId5"/>
-    <sheet name="1. Quarterly" sheetId="2" r:id="rId6"/>
+    <sheet name="quarterly fmap" sheetId="7" r:id="rId3"/>
+    <sheet name="annual fmap" sheetId="8" r:id="rId4"/>
+    <sheet name="CARES" sheetId="6" r:id="rId5"/>
+    <sheet name="crrca" sheetId="5" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId7"/>
+    <sheet name="1. Quarterly" sheetId="2" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">'1. Quarterly'!$A$5:$AZ$135</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="5">'1. Quarterly'!$A:$D</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="7">'1. Quarterly'!$A$5:$AZ$135</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="7">'1. Quarterly'!$A:$D</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="212">
   <si>
     <t>date</t>
   </si>
@@ -662,16 +664,62 @@
   <si>
     <t>2023 Q4</t>
   </si>
+  <si>
+    <t>2017 Q4</t>
+  </si>
+  <si>
+    <t>2018 Q1</t>
+  </si>
+  <si>
+    <t>2018 Q2</t>
+  </si>
+  <si>
+    <t>2018 Q3</t>
+  </si>
+  <si>
+    <t>2018 Q4</t>
+  </si>
+  <si>
+    <t>2019 Q1</t>
+  </si>
+  <si>
+    <t>2019 Q2</t>
+  </si>
+  <si>
+    <t>2019 Q3</t>
+  </si>
+  <si>
+    <t>2019 Q4</t>
+  </si>
+  <si>
+    <t>2020 Q1</t>
+  </si>
+  <si>
+    <t>2020 Q2</t>
+  </si>
+  <si>
+    <t>2020 Q3</t>
+  </si>
+  <si>
+    <t>2020 Q4</t>
+  </si>
+  <si>
+    <t>2024 Q1</t>
+  </si>
+  <si>
+    <t>fmap</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -851,8 +899,23 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1036,6 +1099,12 @@
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDEBF7"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -1226,7 +1295,7 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="19" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -1272,6 +1341,8 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="43" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="27" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="48">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1635,7 +1706,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -5234,6 +5305,380 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34DE4D24-926E-5240-89B6-F8FE59F1901D}">
+  <dimension ref="A1:B27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B2">
+        <v>0.66513142470107067</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B3">
+        <v>0.66513142470107067</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>199</v>
+      </c>
+      <c r="B4">
+        <v>0.66892566614130466</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>200</v>
+      </c>
+      <c r="B5">
+        <v>0.65283836530948725</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>201</v>
+      </c>
+      <c r="B6">
+        <v>0.65953557146217701</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>202</v>
+      </c>
+      <c r="B7">
+        <v>0.66058231423538405</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>203</v>
+      </c>
+      <c r="B8">
+        <v>0.6749214177505789</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>204</v>
+      </c>
+      <c r="B9">
+        <v>0.68242012696430432</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>205</v>
+      </c>
+      <c r="B10">
+        <v>0.6730637268687778</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>206</v>
+      </c>
+      <c r="B11">
+        <v>0.66424643423393748</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>207</v>
+      </c>
+      <c r="B12">
+        <v>0.67846773573296415</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>208</v>
+      </c>
+      <c r="B13">
+        <v>0.76648081779484256</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>209</v>
+      </c>
+      <c r="B14">
+        <v>0.71094027669909299</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>185</v>
+      </c>
+      <c r="B15">
+        <v>0.75054511245142341</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>186</v>
+      </c>
+      <c r="B16">
+        <v>0.7533823239283487</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>187</v>
+      </c>
+      <c r="B17">
+        <v>0.75196371818988605</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>188</v>
+      </c>
+      <c r="B18">
+        <v>0.75196371818988605</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>189</v>
+      </c>
+      <c r="B19">
+        <v>0.75196371818988605</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>190</v>
+      </c>
+      <c r="B20">
+        <v>0.75196371818988605</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>191</v>
+      </c>
+      <c r="B21">
+        <v>0.75196371818988605</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>192</v>
+      </c>
+      <c r="B22">
+        <v>0.67274689645476138</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>193</v>
+      </c>
+      <c r="B23">
+        <v>0.67274689645476138</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>194</v>
+      </c>
+      <c r="B24">
+        <v>0.67274689645476138</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>195</v>
+      </c>
+      <c r="B25">
+        <v>0.67274689645476138</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>196</v>
+      </c>
+      <c r="B26">
+        <v>0.67274689645476138</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>210</v>
+      </c>
+      <c r="B27">
+        <v>0.67274689645476138</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B036E1FF-8773-7847-8D8D-5866CBDF4EC4}">
+  <dimension ref="A1:P13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A2" s="35">
+        <v>2019</v>
+      </c>
+      <c r="B2" s="36">
+        <v>0.67300000000000004</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A3" s="35">
+        <v>2020</v>
+      </c>
+      <c r="B3" s="36">
+        <v>0.70499999999999996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A4" s="35">
+        <v>2021</v>
+      </c>
+      <c r="B4" s="36">
+        <v>0.752</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A5" s="35">
+        <v>2022</v>
+      </c>
+      <c r="B5" s="36">
+        <v>0.73199999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A6" s="35">
+        <v>2023</v>
+      </c>
+      <c r="B6" s="36">
+        <v>0.67300000000000004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A7" s="35">
+        <v>2024</v>
+      </c>
+      <c r="B7" s="36">
+        <v>0.67300000000000004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A8" s="35">
+        <v>2025</v>
+      </c>
+      <c r="B8" s="36">
+        <v>0.67300000000000004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A9" s="35">
+        <v>2026</v>
+      </c>
+      <c r="B9" s="36">
+        <v>0.67300000000000004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A10" s="35">
+        <v>2027</v>
+      </c>
+      <c r="B10" s="36">
+        <v>0.67300000000000004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A11" s="35">
+        <v>2028</v>
+      </c>
+      <c r="B11" s="36">
+        <v>0.67300000000000004</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A12" s="35">
+        <v>2029</v>
+      </c>
+      <c r="B12" s="36">
+        <v>0.67300000000000004</v>
+      </c>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="35"/>
+      <c r="L12" s="35"/>
+      <c r="M12" s="35"/>
+      <c r="N12" s="35"/>
+      <c r="O12" s="35"/>
+      <c r="P12" s="35"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A13" s="35">
+        <v>2030</v>
+      </c>
+      <c r="B13" s="36">
+        <v>0.67300000000000004</v>
+      </c>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="36"/>
+      <c r="K13" s="36"/>
+      <c r="L13" s="36"/>
+      <c r="M13" s="36"/>
+      <c r="N13" s="36"/>
+      <c r="O13" s="36"/>
+      <c r="P13" s="36"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DE6E772-7745-4345-AD59-C84EFCAA345D}">
   <dimension ref="A1:L13"/>
   <sheetViews>
@@ -5478,7 +5923,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B46AA86B-2BB2-174B-844E-5456E2801ADC}">
   <dimension ref="A1:O12"/>
   <sheetViews>
@@ -6005,7 +6450,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07E42683-B4AF-4746-955F-5BBF64474D4E}">
   <dimension ref="A1:L4"/>
   <sheetViews>
@@ -6107,7 +6552,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7511D70-80B4-5E47-A7B7-55F3EFCB84BC}">
   <dimension ref="A1:BL135"/>
   <sheetViews>

--- a/inst/extdata/projections.xlsx
+++ b/inst/extdata/projections.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/malcalakovalski/Documents/Projects/fim/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D04AAA22-8CD6-924A-AB02-9EBDC5F826B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78E53387-4490-AC42-89F8-C889A106BCFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="16800" windowHeight="19720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="economic" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="213">
   <si>
     <t>date</t>
   </si>
@@ -709,6 +709,9 @@
   <si>
     <t>fmap</t>
   </si>
+  <si>
+    <t>unemployment_rate</t>
+  </si>
 </sst>
 </file>
 
@@ -915,7 +918,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1107,6 +1110,12 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB4C6E7"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="12">
     <border>
@@ -1295,7 +1304,7 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="19" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -1331,6 +1340,8 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="43" applyFont="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="47" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="27" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="46" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1341,8 +1352,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="43" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="27" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="19" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="48">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1704,13 +1714,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P61"/>
+  <dimension ref="A1:BJ61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E32" sqref="E32"/>
+      <selection pane="bottomRight" activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1718,7 +1728,7 @@
     <col min="5" max="5" width="11.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1767,8 +1777,11 @@
       <c r="P1" t="s">
         <v>15</v>
       </c>
+      <c r="Q1" t="s">
+        <v>212</v>
+      </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>42825</v>
       </c>
@@ -1817,8 +1830,53 @@
       <c r="P2">
         <v>243.83</v>
       </c>
+      <c r="R2" s="37"/>
+      <c r="S2" s="37"/>
+      <c r="T2" s="37"/>
+      <c r="U2" s="37"/>
+      <c r="V2" s="37"/>
+      <c r="W2" s="37"/>
+      <c r="X2" s="37"/>
+      <c r="Y2" s="37"/>
+      <c r="Z2" s="37"/>
+      <c r="AA2" s="37"/>
+      <c r="AB2" s="37"/>
+      <c r="AC2" s="37"/>
+      <c r="AD2" s="37"/>
+      <c r="AE2" s="37"/>
+      <c r="AF2" s="37"/>
+      <c r="AG2" s="37"/>
+      <c r="AH2" s="37"/>
+      <c r="AI2" s="37"/>
+      <c r="AJ2" s="37"/>
+      <c r="AK2" s="37"/>
+      <c r="AL2" s="37"/>
+      <c r="AM2" s="37"/>
+      <c r="AN2" s="37"/>
+      <c r="AO2" s="37"/>
+      <c r="AP2" s="37"/>
+      <c r="AQ2" s="37"/>
+      <c r="AR2" s="37"/>
+      <c r="AS2" s="37"/>
+      <c r="AT2" s="37"/>
+      <c r="AU2" s="37"/>
+      <c r="AV2" s="37"/>
+      <c r="AW2" s="37"/>
+      <c r="AX2" s="37"/>
+      <c r="AY2" s="37"/>
+      <c r="AZ2" s="37"/>
+      <c r="BA2" s="37"/>
+      <c r="BB2" s="37"/>
+      <c r="BC2" s="37"/>
+      <c r="BD2" s="37"/>
+      <c r="BE2" s="37"/>
+      <c r="BF2" s="37"/>
+      <c r="BG2" s="37"/>
+      <c r="BH2" s="37"/>
+      <c r="BI2" s="37"/>
+      <c r="BJ2" s="37"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>42916</v>
       </c>
@@ -1868,7 +1926,7 @@
         <v>244.065</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>43008</v>
       </c>
@@ -1918,7 +1976,7 @@
         <v>245.36799999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>43100</v>
       </c>
@@ -1968,7 +2026,7 @@
         <v>247.273</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>43190</v>
       </c>
@@ -2018,7 +2076,7 @@
         <v>249.25</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>43281</v>
       </c>
@@ -2068,7 +2126,7 @@
         <v>250.578</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>43373</v>
       </c>
@@ -2118,7 +2176,7 @@
         <v>251.828</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>43465</v>
       </c>
@@ -2168,7 +2226,7 @@
         <v>252.75899999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>43555</v>
       </c>
@@ -2218,7 +2276,7 @@
         <v>253.3</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>43646</v>
       </c>
@@ -2268,7 +2326,7 @@
         <v>255.2</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>43738</v>
       </c>
@@ -2318,7 +2376,7 @@
         <v>256.3</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>43830</v>
       </c>
@@ -2368,7 +2426,7 @@
         <v>257.8</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>43921</v>
       </c>
@@ -2418,7 +2476,7 @@
         <v>258.60000000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>44012</v>
       </c>
@@ -2468,7 +2526,7 @@
         <v>256.60000000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>44104</v>
       </c>
@@ -2518,7 +2576,7 @@
         <v>258.3</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>44196</v>
       </c>
@@ -2567,8 +2625,11 @@
       <c r="P17" s="14">
         <v>260.59899999999999</v>
       </c>
+      <c r="Q17" s="37">
+        <v>6.8</v>
+      </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>44286</v>
       </c>
@@ -2617,8 +2678,11 @@
       <c r="P18" s="3">
         <v>261.77999999999997</v>
       </c>
+      <c r="Q18" s="37">
+        <v>6</v>
+      </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>44377</v>
       </c>
@@ -2667,8 +2731,11 @@
       <c r="P19" s="3">
         <v>263.077</v>
       </c>
+      <c r="Q19" s="37">
+        <v>6</v>
+      </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>44469</v>
       </c>
@@ -2717,8 +2784,11 @@
       <c r="P20" s="3">
         <v>264.58</v>
       </c>
+      <c r="Q20" s="37">
+        <v>5.6</v>
+      </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>44561</v>
       </c>
@@ -2767,8 +2837,11 @@
       <c r="P21" s="3">
         <v>265.661</v>
       </c>
+      <c r="Q21" s="37">
+        <v>5.3</v>
+      </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>44651</v>
       </c>
@@ -2817,8 +2890,11 @@
       <c r="P22" s="3">
         <v>267.07100000000003</v>
       </c>
+      <c r="Q22" s="37">
+        <v>5.0999999999999996</v>
+      </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>44742</v>
       </c>
@@ -2867,8 +2943,11 @@
       <c r="P23" s="3">
         <v>268.524</v>
       </c>
+      <c r="Q23" s="37">
+        <v>5</v>
+      </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>44834</v>
       </c>
@@ -2917,8 +2996,11 @@
       <c r="P24" s="3">
         <v>269.99900000000002</v>
       </c>
+      <c r="Q24" s="37">
+        <v>4.9000000000000004</v>
+      </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>44926</v>
       </c>
@@ -2967,8 +3049,11 @@
       <c r="P25" s="3">
         <v>271.512</v>
       </c>
+      <c r="Q25" s="37">
+        <v>4.9000000000000004</v>
+      </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>45016</v>
       </c>
@@ -3017,8 +3102,11 @@
       <c r="P26" s="3">
         <v>273.03699999999998</v>
       </c>
+      <c r="Q26" s="37">
+        <v>4.8</v>
+      </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>45107</v>
       </c>
@@ -3067,8 +3155,11 @@
       <c r="P27" s="3">
         <v>274.58699999999999</v>
       </c>
+      <c r="Q27" s="37">
+        <v>4.8</v>
+      </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>45199</v>
       </c>
@@ -3117,8 +3208,11 @@
       <c r="P28" s="3">
         <v>276.15100000000001</v>
       </c>
+      <c r="Q28" s="37">
+        <v>4.7</v>
+      </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>45291</v>
       </c>
@@ -3167,8 +3261,11 @@
       <c r="P29" s="3">
         <v>277.72500000000002</v>
       </c>
+      <c r="Q29" s="37">
+        <v>4.5999999999999996</v>
+      </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>45382</v>
       </c>
@@ -3217,8 +3314,11 @@
       <c r="P30" s="3">
         <v>279.31700000000001</v>
       </c>
+      <c r="Q30" s="37">
+        <v>4.5</v>
+      </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>45473</v>
       </c>
@@ -3267,8 +3367,11 @@
       <c r="P31" s="3">
         <v>280.93099999999998</v>
       </c>
+      <c r="Q31" s="37">
+        <v>4.4000000000000004</v>
+      </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>45565</v>
       </c>
@@ -3317,8 +3420,11 @@
       <c r="P32" s="3">
         <v>282.57100000000003</v>
       </c>
+      <c r="Q32" s="37">
+        <v>4.3</v>
+      </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>45657</v>
       </c>
@@ -3367,8 +3473,11 @@
       <c r="P33" s="3">
         <v>284.23099999999999</v>
       </c>
+      <c r="Q33" s="37">
+        <v>4.2</v>
+      </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>45747</v>
       </c>
@@ -3417,8 +3526,11 @@
       <c r="P34" s="3">
         <v>285.90300000000002</v>
       </c>
+      <c r="Q34" s="37">
+        <v>4.2</v>
+      </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>45838</v>
       </c>
@@ -3467,8 +3579,11 @@
       <c r="P35" s="3">
         <v>287.589</v>
       </c>
+      <c r="Q35" s="37">
+        <v>4.0999999999999996</v>
+      </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>45930</v>
       </c>
@@ -3517,8 +3632,11 @@
       <c r="P36" s="3">
         <v>289.291</v>
       </c>
+      <c r="Q36" s="37">
+        <v>4</v>
+      </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>46022</v>
       </c>
@@ -3567,8 +3685,11 @@
       <c r="P37" s="3">
         <v>291.00799999999998</v>
       </c>
+      <c r="Q37" s="37">
+        <v>4</v>
+      </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>46112</v>
       </c>
@@ -3617,8 +3738,11 @@
       <c r="P38" s="3">
         <v>292.74700000000001</v>
       </c>
+      <c r="Q38" s="37">
+        <v>3.9</v>
+      </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>46203</v>
       </c>
@@ -3667,8 +3791,11 @@
       <c r="P39" s="3">
         <v>294.50099999999998</v>
       </c>
+      <c r="Q39" s="37">
+        <v>3.9</v>
+      </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>46295</v>
       </c>
@@ -3717,8 +3844,11 @@
       <c r="P40" s="3">
         <v>296.27</v>
       </c>
+      <c r="Q40" s="37">
+        <v>3.9</v>
+      </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>46387</v>
       </c>
@@ -3767,8 +3897,11 @@
       <c r="P41" s="3">
         <v>298.05500000000001</v>
       </c>
+      <c r="Q41" s="37">
+        <v>3.9</v>
+      </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>46477</v>
       </c>
@@ -3817,8 +3950,11 @@
       <c r="P42" s="3">
         <v>299.85899999999998</v>
       </c>
+      <c r="Q42" s="37">
+        <v>3.9</v>
+      </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>46568</v>
       </c>
@@ -3867,8 +4003,11 @@
       <c r="P43" s="3">
         <v>301.67599999999999</v>
       </c>
+      <c r="Q43" s="37">
+        <v>3.9</v>
+      </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>46660</v>
       </c>
@@ -3917,8 +4056,11 @@
       <c r="P44" s="3">
         <v>303.51</v>
       </c>
+      <c r="Q44" s="37">
+        <v>4</v>
+      </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>46752</v>
       </c>
@@ -3967,8 +4109,11 @@
       <c r="P45" s="3">
         <v>305.36</v>
       </c>
+      <c r="Q45" s="37">
+        <v>4</v>
+      </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>46843</v>
       </c>
@@ -4017,8 +4162,11 @@
       <c r="P46" s="3">
         <v>307.21699999999998</v>
       </c>
+      <c r="Q46" s="37">
+        <v>4</v>
+      </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>46934</v>
       </c>
@@ -4067,8 +4215,11 @@
       <c r="P47" s="3">
         <v>309.08699999999999</v>
       </c>
+      <c r="Q47" s="37">
+        <v>4</v>
+      </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>47026</v>
       </c>
@@ -4117,8 +4268,11 @@
       <c r="P48" s="3">
         <v>310.971</v>
       </c>
+      <c r="Q48" s="37">
+        <v>4</v>
+      </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>47118</v>
       </c>
@@ -4167,8 +4321,11 @@
       <c r="P49" s="3">
         <v>312.86900000000003</v>
       </c>
+      <c r="Q49" s="37">
+        <v>4.0999999999999996</v>
+      </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>47208</v>
       </c>
@@ -4217,8 +4374,11 @@
       <c r="P50" s="3">
         <v>314.762</v>
       </c>
+      <c r="Q50" s="37">
+        <v>4.0999999999999996</v>
+      </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>47299</v>
       </c>
@@ -4267,8 +4427,11 @@
       <c r="P51" s="3">
         <v>316.654</v>
       </c>
+      <c r="Q51" s="37">
+        <v>4.0999999999999996</v>
+      </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>47391</v>
       </c>
@@ -4317,8 +4480,11 @@
       <c r="P52" s="3">
         <v>318.54700000000003</v>
       </c>
+      <c r="Q52" s="37">
+        <v>4.0999999999999996</v>
+      </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>47483</v>
       </c>
@@ -4367,8 +4533,11 @@
       <c r="P53" s="3">
         <v>320.44</v>
       </c>
+      <c r="Q53" s="37">
+        <v>4.2</v>
+      </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>47573</v>
       </c>
@@ -4417,8 +4586,11 @@
       <c r="P54" s="3">
         <v>322.33199999999999</v>
       </c>
+      <c r="Q54" s="37">
+        <v>4.2</v>
+      </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>47664</v>
       </c>
@@ -4467,8 +4639,11 @@
       <c r="P55" s="3">
         <v>324.226</v>
       </c>
+      <c r="Q55" s="37">
+        <v>4.3</v>
+      </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>47756</v>
       </c>
@@ -4517,8 +4692,11 @@
       <c r="P56" s="3">
         <v>326.12200000000001</v>
       </c>
+      <c r="Q56" s="37">
+        <v>4.3</v>
+      </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>47848</v>
       </c>
@@ -4567,8 +4745,11 @@
       <c r="P57" s="3">
         <v>328.017</v>
       </c>
+      <c r="Q57" s="37">
+        <v>4.3</v>
+      </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>47938</v>
       </c>
@@ -4617,8 +4798,11 @@
       <c r="P58" s="3">
         <v>329.91500000000002</v>
       </c>
+      <c r="Q58" s="37">
+        <v>4.3</v>
+      </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>48029</v>
       </c>
@@ -4667,8 +4851,11 @@
       <c r="P59" s="3">
         <v>331.815</v>
       </c>
+      <c r="Q59" s="37">
+        <v>4.3</v>
+      </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>48121</v>
       </c>
@@ -4717,8 +4904,11 @@
       <c r="P60" s="3">
         <v>333.71899999999999</v>
       </c>
+      <c r="Q60" s="37">
+        <v>4.3</v>
+      </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>48213</v>
       </c>
@@ -4766,6 +4956,9 @@
       </c>
       <c r="P61" s="3">
         <v>335.62799999999999</v>
+      </c>
+      <c r="Q61" s="37">
+        <v>4.3</v>
       </c>
     </row>
   </sheetData>
@@ -5539,7 +5732,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B036E1FF-8773-7847-8D8D-5866CBDF4EC4}">
   <dimension ref="A1:P13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -5554,124 +5747,124 @@
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A2" s="35">
+      <c r="A2" s="31">
         <v>2019</v>
       </c>
-      <c r="B2" s="36">
+      <c r="B2" s="32">
         <v>0.67300000000000004</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A3" s="35">
+      <c r="A3" s="31">
         <v>2020</v>
       </c>
-      <c r="B3" s="36">
+      <c r="B3" s="32">
         <v>0.70499999999999996</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A4" s="35">
+      <c r="A4" s="31">
         <v>2021</v>
       </c>
-      <c r="B4" s="36">
+      <c r="B4" s="32">
         <v>0.752</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A5" s="35">
+      <c r="A5" s="31">
         <v>2022</v>
       </c>
-      <c r="B5" s="36">
+      <c r="B5" s="32">
         <v>0.73199999999999998</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A6" s="35">
+      <c r="A6" s="31">
         <v>2023</v>
       </c>
-      <c r="B6" s="36">
+      <c r="B6" s="32">
         <v>0.67300000000000004</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A7" s="35">
+      <c r="A7" s="31">
         <v>2024</v>
       </c>
-      <c r="B7" s="36">
+      <c r="B7" s="32">
         <v>0.67300000000000004</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A8" s="35">
+      <c r="A8" s="31">
         <v>2025</v>
       </c>
-      <c r="B8" s="36">
+      <c r="B8" s="32">
         <v>0.67300000000000004</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A9" s="35">
+      <c r="A9" s="31">
         <v>2026</v>
       </c>
-      <c r="B9" s="36">
+      <c r="B9" s="32">
         <v>0.67300000000000004</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A10" s="35">
+      <c r="A10" s="31">
         <v>2027</v>
       </c>
-      <c r="B10" s="36">
+      <c r="B10" s="32">
         <v>0.67300000000000004</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A11" s="35">
+      <c r="A11" s="31">
         <v>2028</v>
       </c>
-      <c r="B11" s="36">
+      <c r="B11" s="32">
         <v>0.67300000000000004</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A12" s="35">
+      <c r="A12" s="31">
         <v>2029</v>
       </c>
-      <c r="B12" s="36">
+      <c r="B12" s="32">
         <v>0.67300000000000004</v>
       </c>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="35"/>
-      <c r="J12" s="35"/>
-      <c r="K12" s="35"/>
-      <c r="L12" s="35"/>
-      <c r="M12" s="35"/>
-      <c r="N12" s="35"/>
-      <c r="O12" s="35"/>
-      <c r="P12" s="35"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="31"/>
+      <c r="L12" s="31"/>
+      <c r="M12" s="31"/>
+      <c r="N12" s="31"/>
+      <c r="O12" s="31"/>
+      <c r="P12" s="31"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A13" s="35">
+      <c r="A13" s="31">
         <v>2030</v>
       </c>
-      <c r="B13" s="36">
+      <c r="B13" s="32">
         <v>0.67300000000000004</v>
       </c>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="36"/>
-      <c r="J13" s="36"/>
-      <c r="K13" s="36"/>
-      <c r="L13" s="36"/>
-      <c r="M13" s="36"/>
-      <c r="N13" s="36"/>
-      <c r="O13" s="36"/>
-      <c r="P13" s="36"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="32"/>
+      <c r="J13" s="32"/>
+      <c r="K13" s="32"/>
+      <c r="L13" s="32"/>
+      <c r="M13" s="32"/>
+      <c r="N13" s="32"/>
+      <c r="O13" s="32"/>
+      <c r="P13" s="32"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6557,10 +6750,10 @@
   <dimension ref="A1:BL135"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="8" topLeftCell="D103" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="8" topLeftCell="AQ28" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="T22" sqref="T22:BL22"/>
+      <selection pane="bottomRight" activeCell="T38" sqref="T38:BL38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6582,27 +6775,27 @@
       </c>
     </row>
     <row r="2" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="33" t="s">
         <v>156</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
     </row>
     <row r="4" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D4" s="25"/>
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="35" t="s">
         <v>155</v>
       </c>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
@@ -27440,12 +27633,12 @@
       </c>
     </row>
     <row r="130" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A130" s="34" t="s">
+      <c r="A130" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="B130" s="34"/>
-      <c r="C130" s="34"/>
-      <c r="D130" s="34"/>
+      <c r="B130" s="36"/>
+      <c r="C130" s="36"/>
+      <c r="D130" s="36"/>
     </row>
     <row r="131" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C131" s="8"/>

--- a/inst/extdata/projections.xlsx
+++ b/inst/extdata/projections.xlsx
@@ -8,23 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/malcalakovalski/Documents/Projects/fim/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78E53387-4490-AC42-89F8-C889A106BCFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABB1E712-8DEA-9F43-BCF9-1010424DE873}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13440" yWindow="1100" windowWidth="33600" windowHeight="19720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="economic" sheetId="1" r:id="rId1"/>
-    <sheet name="budget" sheetId="3" r:id="rId2"/>
-    <sheet name="quarterly fmap" sheetId="7" r:id="rId3"/>
-    <sheet name="annual fmap" sheetId="8" r:id="rId4"/>
-    <sheet name="CARES" sheetId="6" r:id="rId5"/>
-    <sheet name="crrca" sheetId="5" r:id="rId6"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId7"/>
-    <sheet name="1. Quarterly" sheetId="2" r:id="rId8"/>
+    <sheet name="pre-pandemic economic" sheetId="9" r:id="rId1"/>
+    <sheet name="economic" sheetId="1" r:id="rId2"/>
+    <sheet name="budget" sheetId="3" r:id="rId3"/>
+    <sheet name="quarterly fmap" sheetId="7" r:id="rId4"/>
+    <sheet name="annual fmap" sheetId="8" r:id="rId5"/>
+    <sheet name="CARES" sheetId="6" r:id="rId6"/>
+    <sheet name="crrca" sheetId="5" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId8"/>
+    <sheet name="1. Quarterly" sheetId="2" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="7">'1. Quarterly'!$A$5:$AZ$135</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="7">'1. Quarterly'!$A:$D</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="8">'1. Quarterly'!$A$5:$AZ$135</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="8">'1. Quarterly'!$A:$D</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="215">
   <si>
     <t>date</t>
   </si>
@@ -712,6 +713,12 @@
   <si>
     <t>unemployment_rate</t>
   </si>
+  <si>
+    <t>federal_purchases_growth</t>
+  </si>
+  <si>
+    <t>state_purchases_growth</t>
+  </si>
 </sst>
 </file>
 
@@ -1342,6 +1349,7 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="47" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="26" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="27" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="19" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="46" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1352,7 +1360,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="43" applyFont="1"/>
-    <xf numFmtId="164" fontId="19" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="48">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1713,14 +1720,544 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86381FD6-3DA6-864B-ACAE-10D968FEABB3}">
+  <dimension ref="A1:C49"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>43921</v>
+      </c>
+      <c r="B2" s="14">
+        <v>5.3959999999999999</v>
+      </c>
+      <c r="C2" s="14">
+        <v>3.8639999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>44012</v>
+      </c>
+      <c r="B3" s="14">
+        <v>2.79</v>
+      </c>
+      <c r="C3" s="14">
+        <v>3.2149999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>44104</v>
+      </c>
+      <c r="B4" s="14">
+        <v>2.7240000000000002</v>
+      </c>
+      <c r="C4" s="14">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>44196</v>
+      </c>
+      <c r="B5" s="14">
+        <v>2.6549999999999998</v>
+      </c>
+      <c r="C5" s="14">
+        <v>3.7440000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>44286</v>
+      </c>
+      <c r="B6" s="14">
+        <v>2.7839999999999998</v>
+      </c>
+      <c r="C6" s="14">
+        <v>3.734</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>44377</v>
+      </c>
+      <c r="B7" s="14">
+        <v>2.7959999999999998</v>
+      </c>
+      <c r="C7" s="14">
+        <v>3.7170000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>44469</v>
+      </c>
+      <c r="B8" s="14">
+        <v>2.7669999999999999</v>
+      </c>
+      <c r="C8" s="14">
+        <v>3.72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>44561</v>
+      </c>
+      <c r="B9" s="14">
+        <v>2.4209999999999998</v>
+      </c>
+      <c r="C9" s="14">
+        <v>3.7509999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>44651</v>
+      </c>
+      <c r="B10" s="14">
+        <v>2.536</v>
+      </c>
+      <c r="C10" s="14">
+        <v>3.8479999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>44742</v>
+      </c>
+      <c r="B11" s="14">
+        <v>2.512</v>
+      </c>
+      <c r="C11" s="14">
+        <v>3.911</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>44834</v>
+      </c>
+      <c r="B12" s="14">
+        <v>2.5459999999999998</v>
+      </c>
+      <c r="C12" s="14">
+        <v>3.9390000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>44926</v>
+      </c>
+      <c r="B13" s="14">
+        <v>2.5859999999999999</v>
+      </c>
+      <c r="C13" s="14">
+        <v>3.9849999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>45016</v>
+      </c>
+      <c r="B14" s="14">
+        <v>2.5750000000000002</v>
+      </c>
+      <c r="C14" s="14">
+        <v>3.9830000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>45107</v>
+      </c>
+      <c r="B15" s="14">
+        <v>2.6059999999999999</v>
+      </c>
+      <c r="C15" s="14">
+        <v>3.9590000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>45199</v>
+      </c>
+      <c r="B16" s="14">
+        <v>2.5960000000000001</v>
+      </c>
+      <c r="C16" s="14">
+        <v>3.9830000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>45291</v>
+      </c>
+      <c r="B17" s="14">
+        <v>2.6259999999999999</v>
+      </c>
+      <c r="C17" s="14">
+        <v>3.976</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>45382</v>
+      </c>
+      <c r="B18" s="14">
+        <v>2.6269999999999998</v>
+      </c>
+      <c r="C18" s="14">
+        <v>3.9649999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>45473</v>
+      </c>
+      <c r="B19" s="14">
+        <v>2.6259999999999999</v>
+      </c>
+      <c r="C19" s="14">
+        <v>3.9409999999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>45565</v>
+      </c>
+      <c r="B20" s="14">
+        <v>2.5750000000000002</v>
+      </c>
+      <c r="C20" s="14">
+        <v>3.9470000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>45657</v>
+      </c>
+      <c r="B21" s="14">
+        <v>2.5659999999999998</v>
+      </c>
+      <c r="C21" s="14">
+        <v>3.9289999999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>45747</v>
+      </c>
+      <c r="B22" s="14">
+        <v>2.4710000000000001</v>
+      </c>
+      <c r="C22" s="14">
+        <v>3.8860000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>45838</v>
+      </c>
+      <c r="B23" s="14">
+        <v>2.46</v>
+      </c>
+      <c r="C23" s="14">
+        <v>3.847</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>45930</v>
+      </c>
+      <c r="B24" s="14">
+        <v>2.4529999999999998</v>
+      </c>
+      <c r="C24" s="14">
+        <v>3.839</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>46022</v>
+      </c>
+      <c r="B25" s="14">
+        <v>2.552</v>
+      </c>
+      <c r="C25" s="14">
+        <v>3.819</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>46112</v>
+      </c>
+      <c r="B26" s="14">
+        <v>2.5019999999999998</v>
+      </c>
+      <c r="C26" s="14">
+        <v>3.8039999999999998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>46203</v>
+      </c>
+      <c r="B27" s="14">
+        <v>2.5390000000000001</v>
+      </c>
+      <c r="C27" s="14">
+        <v>3.786</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>46295</v>
+      </c>
+      <c r="B28" s="14">
+        <v>2.5339999999999998</v>
+      </c>
+      <c r="C28" s="14">
+        <v>3.7989999999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>46387</v>
+      </c>
+      <c r="B29" s="14">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="C29" s="14">
+        <v>3.794</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>46477</v>
+      </c>
+      <c r="B30" s="14">
+        <v>2.4809999999999999</v>
+      </c>
+      <c r="C30" s="14">
+        <v>3.7879999999999998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>46568</v>
+      </c>
+      <c r="B31" s="14">
+        <v>2.4729999999999999</v>
+      </c>
+      <c r="C31" s="14">
+        <v>3.7610000000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>46660</v>
+      </c>
+      <c r="B32" s="14">
+        <v>2.5129999999999999</v>
+      </c>
+      <c r="C32" s="14">
+        <v>3.7509999999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <v>46752</v>
+      </c>
+      <c r="B33" s="14">
+        <v>2.536</v>
+      </c>
+      <c r="C33" s="14">
+        <v>3.7349999999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>46843</v>
+      </c>
+      <c r="B34" s="14">
+        <v>2.5289999999999999</v>
+      </c>
+      <c r="C34" s="14">
+        <v>3.7229999999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <v>46934</v>
+      </c>
+      <c r="B35" s="14">
+        <v>2.5209999999999999</v>
+      </c>
+      <c r="C35" s="14">
+        <v>3.74</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <v>47026</v>
+      </c>
+      <c r="B36" s="14">
+        <v>2.508</v>
+      </c>
+      <c r="C36" s="14">
+        <v>3.7320000000000002</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
+        <v>47118</v>
+      </c>
+      <c r="B37" s="14">
+        <v>2.496</v>
+      </c>
+      <c r="C37" s="14">
+        <v>3.7250000000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <v>47208</v>
+      </c>
+      <c r="B38" s="14">
+        <v>2.4390000000000001</v>
+      </c>
+      <c r="C38" s="14">
+        <v>3.7149999999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
+        <v>47299</v>
+      </c>
+      <c r="B39" s="14">
+        <v>2.5179999999999998</v>
+      </c>
+      <c r="C39" s="14">
+        <v>3.7029999999999998</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
+        <v>47391</v>
+      </c>
+      <c r="B40" s="14">
+        <v>2.4689999999999999</v>
+      </c>
+      <c r="C40" s="14">
+        <v>3.673</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
+        <v>47483</v>
+      </c>
+      <c r="B41" s="14">
+        <v>2.4710000000000001</v>
+      </c>
+      <c r="C41" s="14">
+        <v>3.65</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
+        <v>47573</v>
+      </c>
+      <c r="B42" s="14">
+        <v>2.5150000000000001</v>
+      </c>
+      <c r="C42" s="14">
+        <v>3.6349999999999998</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
+        <v>47664</v>
+      </c>
+      <c r="B43" s="14">
+        <v>2.5179999999999998</v>
+      </c>
+      <c r="C43" s="14">
+        <v>3.6309999999999998</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
+        <v>47756</v>
+      </c>
+      <c r="B44" s="14">
+        <v>2.5209999999999999</v>
+      </c>
+      <c r="C44" s="14">
+        <v>3.625</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
+        <v>47848</v>
+      </c>
+      <c r="B45" s="14">
+        <v>2.5680000000000001</v>
+      </c>
+      <c r="C45" s="14">
+        <v>3.6269999999999998</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
+        <v>47938</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
+        <v>48029</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
+        <v>48121</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
+        <v>48213</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BJ61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q14" sqref="Q14"/>
+      <selection pane="bottomRight" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1830,51 +2367,51 @@
       <c r="P2">
         <v>243.83</v>
       </c>
-      <c r="R2" s="37"/>
-      <c r="S2" s="37"/>
-      <c r="T2" s="37"/>
-      <c r="U2" s="37"/>
-      <c r="V2" s="37"/>
-      <c r="W2" s="37"/>
-      <c r="X2" s="37"/>
-      <c r="Y2" s="37"/>
-      <c r="Z2" s="37"/>
-      <c r="AA2" s="37"/>
-      <c r="AB2" s="37"/>
-      <c r="AC2" s="37"/>
-      <c r="AD2" s="37"/>
-      <c r="AE2" s="37"/>
-      <c r="AF2" s="37"/>
-      <c r="AG2" s="37"/>
-      <c r="AH2" s="37"/>
-      <c r="AI2" s="37"/>
-      <c r="AJ2" s="37"/>
-      <c r="AK2" s="37"/>
-      <c r="AL2" s="37"/>
-      <c r="AM2" s="37"/>
-      <c r="AN2" s="37"/>
-      <c r="AO2" s="37"/>
-      <c r="AP2" s="37"/>
-      <c r="AQ2" s="37"/>
-      <c r="AR2" s="37"/>
-      <c r="AS2" s="37"/>
-      <c r="AT2" s="37"/>
-      <c r="AU2" s="37"/>
-      <c r="AV2" s="37"/>
-      <c r="AW2" s="37"/>
-      <c r="AX2" s="37"/>
-      <c r="AY2" s="37"/>
-      <c r="AZ2" s="37"/>
-      <c r="BA2" s="37"/>
-      <c r="BB2" s="37"/>
-      <c r="BC2" s="37"/>
-      <c r="BD2" s="37"/>
-      <c r="BE2" s="37"/>
-      <c r="BF2" s="37"/>
-      <c r="BG2" s="37"/>
-      <c r="BH2" s="37"/>
-      <c r="BI2" s="37"/>
-      <c r="BJ2" s="37"/>
+      <c r="R2" s="33"/>
+      <c r="S2" s="33"/>
+      <c r="T2" s="33"/>
+      <c r="U2" s="33"/>
+      <c r="V2" s="33"/>
+      <c r="W2" s="33"/>
+      <c r="X2" s="33"/>
+      <c r="Y2" s="33"/>
+      <c r="Z2" s="33"/>
+      <c r="AA2" s="33"/>
+      <c r="AB2" s="33"/>
+      <c r="AC2" s="33"/>
+      <c r="AD2" s="33"/>
+      <c r="AE2" s="33"/>
+      <c r="AF2" s="33"/>
+      <c r="AG2" s="33"/>
+      <c r="AH2" s="33"/>
+      <c r="AI2" s="33"/>
+      <c r="AJ2" s="33"/>
+      <c r="AK2" s="33"/>
+      <c r="AL2" s="33"/>
+      <c r="AM2" s="33"/>
+      <c r="AN2" s="33"/>
+      <c r="AO2" s="33"/>
+      <c r="AP2" s="33"/>
+      <c r="AQ2" s="33"/>
+      <c r="AR2" s="33"/>
+      <c r="AS2" s="33"/>
+      <c r="AT2" s="33"/>
+      <c r="AU2" s="33"/>
+      <c r="AV2" s="33"/>
+      <c r="AW2" s="33"/>
+      <c r="AX2" s="33"/>
+      <c r="AY2" s="33"/>
+      <c r="AZ2" s="33"/>
+      <c r="BA2" s="33"/>
+      <c r="BB2" s="33"/>
+      <c r="BC2" s="33"/>
+      <c r="BD2" s="33"/>
+      <c r="BE2" s="33"/>
+      <c r="BF2" s="33"/>
+      <c r="BG2" s="33"/>
+      <c r="BH2" s="33"/>
+      <c r="BI2" s="33"/>
+      <c r="BJ2" s="33"/>
     </row>
     <row r="3" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
@@ -2625,7 +3162,7 @@
       <c r="P17" s="14">
         <v>260.59899999999999</v>
       </c>
-      <c r="Q17" s="37">
+      <c r="Q17" s="33">
         <v>6.8</v>
       </c>
     </row>
@@ -2678,7 +3215,7 @@
       <c r="P18" s="3">
         <v>261.77999999999997</v>
       </c>
-      <c r="Q18" s="37">
+      <c r="Q18" s="33">
         <v>6</v>
       </c>
     </row>
@@ -2731,7 +3268,7 @@
       <c r="P19" s="3">
         <v>263.077</v>
       </c>
-      <c r="Q19" s="37">
+      <c r="Q19" s="33">
         <v>6</v>
       </c>
     </row>
@@ -2784,7 +3321,7 @@
       <c r="P20" s="3">
         <v>264.58</v>
       </c>
-      <c r="Q20" s="37">
+      <c r="Q20" s="33">
         <v>5.6</v>
       </c>
     </row>
@@ -2837,7 +3374,7 @@
       <c r="P21" s="3">
         <v>265.661</v>
       </c>
-      <c r="Q21" s="37">
+      <c r="Q21" s="33">
         <v>5.3</v>
       </c>
     </row>
@@ -2890,7 +3427,7 @@
       <c r="P22" s="3">
         <v>267.07100000000003</v>
       </c>
-      <c r="Q22" s="37">
+      <c r="Q22" s="33">
         <v>5.0999999999999996</v>
       </c>
     </row>
@@ -2943,7 +3480,7 @@
       <c r="P23" s="3">
         <v>268.524</v>
       </c>
-      <c r="Q23" s="37">
+      <c r="Q23" s="33">
         <v>5</v>
       </c>
     </row>
@@ -2996,7 +3533,7 @@
       <c r="P24" s="3">
         <v>269.99900000000002</v>
       </c>
-      <c r="Q24" s="37">
+      <c r="Q24" s="33">
         <v>4.9000000000000004</v>
       </c>
     </row>
@@ -3049,7 +3586,7 @@
       <c r="P25" s="3">
         <v>271.512</v>
       </c>
-      <c r="Q25" s="37">
+      <c r="Q25" s="33">
         <v>4.9000000000000004</v>
       </c>
     </row>
@@ -3102,7 +3639,7 @@
       <c r="P26" s="3">
         <v>273.03699999999998</v>
       </c>
-      <c r="Q26" s="37">
+      <c r="Q26" s="33">
         <v>4.8</v>
       </c>
     </row>
@@ -3155,7 +3692,7 @@
       <c r="P27" s="3">
         <v>274.58699999999999</v>
       </c>
-      <c r="Q27" s="37">
+      <c r="Q27" s="33">
         <v>4.8</v>
       </c>
     </row>
@@ -3208,7 +3745,7 @@
       <c r="P28" s="3">
         <v>276.15100000000001</v>
       </c>
-      <c r="Q28" s="37">
+      <c r="Q28" s="33">
         <v>4.7</v>
       </c>
     </row>
@@ -3261,7 +3798,7 @@
       <c r="P29" s="3">
         <v>277.72500000000002</v>
       </c>
-      <c r="Q29" s="37">
+      <c r="Q29" s="33">
         <v>4.5999999999999996</v>
       </c>
     </row>
@@ -3314,7 +3851,7 @@
       <c r="P30" s="3">
         <v>279.31700000000001</v>
       </c>
-      <c r="Q30" s="37">
+      <c r="Q30" s="33">
         <v>4.5</v>
       </c>
     </row>
@@ -3367,7 +3904,7 @@
       <c r="P31" s="3">
         <v>280.93099999999998</v>
       </c>
-      <c r="Q31" s="37">
+      <c r="Q31" s="33">
         <v>4.4000000000000004</v>
       </c>
     </row>
@@ -3420,7 +3957,7 @@
       <c r="P32" s="3">
         <v>282.57100000000003</v>
       </c>
-      <c r="Q32" s="37">
+      <c r="Q32" s="33">
         <v>4.3</v>
       </c>
     </row>
@@ -3473,7 +4010,7 @@
       <c r="P33" s="3">
         <v>284.23099999999999</v>
       </c>
-      <c r="Q33" s="37">
+      <c r="Q33" s="33">
         <v>4.2</v>
       </c>
     </row>
@@ -3526,7 +4063,7 @@
       <c r="P34" s="3">
         <v>285.90300000000002</v>
       </c>
-      <c r="Q34" s="37">
+      <c r="Q34" s="33">
         <v>4.2</v>
       </c>
     </row>
@@ -3579,7 +4116,7 @@
       <c r="P35" s="3">
         <v>287.589</v>
       </c>
-      <c r="Q35" s="37">
+      <c r="Q35" s="33">
         <v>4.0999999999999996</v>
       </c>
     </row>
@@ -3632,7 +4169,7 @@
       <c r="P36" s="3">
         <v>289.291</v>
       </c>
-      <c r="Q36" s="37">
+      <c r="Q36" s="33">
         <v>4</v>
       </c>
     </row>
@@ -3685,7 +4222,7 @@
       <c r="P37" s="3">
         <v>291.00799999999998</v>
       </c>
-      <c r="Q37" s="37">
+      <c r="Q37" s="33">
         <v>4</v>
       </c>
     </row>
@@ -3738,7 +4275,7 @@
       <c r="P38" s="3">
         <v>292.74700000000001</v>
       </c>
-      <c r="Q38" s="37">
+      <c r="Q38" s="33">
         <v>3.9</v>
       </c>
     </row>
@@ -3791,7 +4328,7 @@
       <c r="P39" s="3">
         <v>294.50099999999998</v>
       </c>
-      <c r="Q39" s="37">
+      <c r="Q39" s="33">
         <v>3.9</v>
       </c>
     </row>
@@ -3844,7 +4381,7 @@
       <c r="P40" s="3">
         <v>296.27</v>
       </c>
-      <c r="Q40" s="37">
+      <c r="Q40" s="33">
         <v>3.9</v>
       </c>
     </row>
@@ -3897,7 +4434,7 @@
       <c r="P41" s="3">
         <v>298.05500000000001</v>
       </c>
-      <c r="Q41" s="37">
+      <c r="Q41" s="33">
         <v>3.9</v>
       </c>
     </row>
@@ -3950,7 +4487,7 @@
       <c r="P42" s="3">
         <v>299.85899999999998</v>
       </c>
-      <c r="Q42" s="37">
+      <c r="Q42" s="33">
         <v>3.9</v>
       </c>
     </row>
@@ -4003,7 +4540,7 @@
       <c r="P43" s="3">
         <v>301.67599999999999</v>
       </c>
-      <c r="Q43" s="37">
+      <c r="Q43" s="33">
         <v>3.9</v>
       </c>
     </row>
@@ -4056,7 +4593,7 @@
       <c r="P44" s="3">
         <v>303.51</v>
       </c>
-      <c r="Q44" s="37">
+      <c r="Q44" s="33">
         <v>4</v>
       </c>
     </row>
@@ -4109,7 +4646,7 @@
       <c r="P45" s="3">
         <v>305.36</v>
       </c>
-      <c r="Q45" s="37">
+      <c r="Q45" s="33">
         <v>4</v>
       </c>
     </row>
@@ -4162,7 +4699,7 @@
       <c r="P46" s="3">
         <v>307.21699999999998</v>
       </c>
-      <c r="Q46" s="37">
+      <c r="Q46" s="33">
         <v>4</v>
       </c>
     </row>
@@ -4215,7 +4752,7 @@
       <c r="P47" s="3">
         <v>309.08699999999999</v>
       </c>
-      <c r="Q47" s="37">
+      <c r="Q47" s="33">
         <v>4</v>
       </c>
     </row>
@@ -4268,7 +4805,7 @@
       <c r="P48" s="3">
         <v>310.971</v>
       </c>
-      <c r="Q48" s="37">
+      <c r="Q48" s="33">
         <v>4</v>
       </c>
     </row>
@@ -4321,7 +4858,7 @@
       <c r="P49" s="3">
         <v>312.86900000000003</v>
       </c>
-      <c r="Q49" s="37">
+      <c r="Q49" s="33">
         <v>4.0999999999999996</v>
       </c>
     </row>
@@ -4374,7 +4911,7 @@
       <c r="P50" s="3">
         <v>314.762</v>
       </c>
-      <c r="Q50" s="37">
+      <c r="Q50" s="33">
         <v>4.0999999999999996</v>
       </c>
     </row>
@@ -4427,7 +4964,7 @@
       <c r="P51" s="3">
         <v>316.654</v>
       </c>
-      <c r="Q51" s="37">
+      <c r="Q51" s="33">
         <v>4.0999999999999996</v>
       </c>
     </row>
@@ -4480,7 +5017,7 @@
       <c r="P52" s="3">
         <v>318.54700000000003</v>
       </c>
-      <c r="Q52" s="37">
+      <c r="Q52" s="33">
         <v>4.0999999999999996</v>
       </c>
     </row>
@@ -4533,7 +5070,7 @@
       <c r="P53" s="3">
         <v>320.44</v>
       </c>
-      <c r="Q53" s="37">
+      <c r="Q53" s="33">
         <v>4.2</v>
       </c>
     </row>
@@ -4586,7 +5123,7 @@
       <c r="P54" s="3">
         <v>322.33199999999999</v>
       </c>
-      <c r="Q54" s="37">
+      <c r="Q54" s="33">
         <v>4.2</v>
       </c>
     </row>
@@ -4639,7 +5176,7 @@
       <c r="P55" s="3">
         <v>324.226</v>
       </c>
-      <c r="Q55" s="37">
+      <c r="Q55" s="33">
         <v>4.3</v>
       </c>
     </row>
@@ -4692,7 +5229,7 @@
       <c r="P56" s="3">
         <v>326.12200000000001</v>
       </c>
-      <c r="Q56" s="37">
+      <c r="Q56" s="33">
         <v>4.3</v>
       </c>
     </row>
@@ -4745,7 +5282,7 @@
       <c r="P57" s="3">
         <v>328.017</v>
       </c>
-      <c r="Q57" s="37">
+      <c r="Q57" s="33">
         <v>4.3</v>
       </c>
     </row>
@@ -4798,7 +5335,7 @@
       <c r="P58" s="3">
         <v>329.91500000000002</v>
       </c>
-      <c r="Q58" s="37">
+      <c r="Q58" s="33">
         <v>4.3</v>
       </c>
     </row>
@@ -4851,7 +5388,7 @@
       <c r="P59" s="3">
         <v>331.815</v>
       </c>
-      <c r="Q59" s="37">
+      <c r="Q59" s="33">
         <v>4.3</v>
       </c>
     </row>
@@ -4904,7 +5441,7 @@
       <c r="P60" s="3">
         <v>333.71899999999999</v>
       </c>
-      <c r="Q60" s="37">
+      <c r="Q60" s="33">
         <v>4.3</v>
       </c>
     </row>
@@ -4957,7 +5494,7 @@
       <c r="P61" s="3">
         <v>335.62799999999999</v>
       </c>
-      <c r="Q61" s="37">
+      <c r="Q61" s="33">
         <v>4.3</v>
       </c>
     </row>
@@ -4966,7 +5503,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77260E8A-45C6-C74E-A071-E1E958901B15}">
   <dimension ref="A1:J16"/>
   <sheetViews>
@@ -5497,12 +6034,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34DE4D24-926E-5240-89B6-F8FE59F1901D}">
   <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5728,7 +6265,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B036E1FF-8773-7847-8D8D-5866CBDF4EC4}">
   <dimension ref="A1:P13"/>
   <sheetViews>
@@ -5871,7 +6408,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DE6E772-7745-4345-AD59-C84EFCAA345D}">
   <dimension ref="A1:L13"/>
   <sheetViews>
@@ -6116,7 +6653,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B46AA86B-2BB2-174B-844E-5456E2801ADC}">
   <dimension ref="A1:O12"/>
   <sheetViews>
@@ -6643,7 +7180,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07E42683-B4AF-4746-955F-5BBF64474D4E}">
   <dimension ref="A1:L4"/>
   <sheetViews>
@@ -6745,7 +7282,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7511D70-80B4-5E47-A7B7-55F3EFCB84BC}">
   <dimension ref="A1:BL135"/>
   <sheetViews>
@@ -6775,27 +7312,27 @@
       </c>
     </row>
     <row r="2" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="34" t="s">
         <v>156</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
     </row>
     <row r="4" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D4" s="25"/>
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="36" t="s">
         <v>155</v>
       </c>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
@@ -27633,12 +28170,12 @@
       </c>
     </row>
     <row r="130" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A130" s="36" t="s">
+      <c r="A130" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="B130" s="36"/>
-      <c r="C130" s="36"/>
-      <c r="D130" s="36"/>
+      <c r="B130" s="37"/>
+      <c r="C130" s="37"/>
+      <c r="D130" s="37"/>
     </row>
     <row r="131" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C131" s="8"/>

--- a/inst/extdata/projections.xlsx
+++ b/inst/extdata/projections.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/malcalakovalski/Documents/Projects/fim/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABB1E712-8DEA-9F43-BCF9-1010424DE873}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{643B6C21-8F6E-4343-97E8-9D5C1BC207CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13440" yWindow="1100" windowWidth="33600" windowHeight="19720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pre-pandemic economic" sheetId="9" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="216">
   <si>
     <t>date</t>
   </si>
@@ -718,6 +718,9 @@
   </si>
   <si>
     <t>state_purchases_growth</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -1723,7 +1726,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86381FD6-3DA6-864B-ACAE-10D968FEABB3}">
   <dimension ref="A1:C49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -6036,15 +6039,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34DE4D24-926E-5240-89B6-F8FE59F1901D}">
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6052,7 +6055,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>197</v>
       </c>
@@ -6060,116 +6063,119 @@
         <v>0.66513142470107067</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>198</v>
       </c>
       <c r="B3">
-        <v>0.66513142470107067</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.66892566614130466</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>199</v>
       </c>
       <c r="B4">
-        <v>0.66892566614130466</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.65283836530948725</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>200</v>
       </c>
       <c r="B5">
-        <v>0.65283836530948725</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.65953557146217701</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>201</v>
       </c>
       <c r="B6">
-        <v>0.65953557146217701</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.66058231423538405</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>202</v>
       </c>
       <c r="B7">
-        <v>0.66058231423538405</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.6749214177505789</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>203</v>
       </c>
       <c r="B8">
-        <v>0.6749214177505789</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.68242012696430432</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>204</v>
       </c>
       <c r="B9">
-        <v>0.68242012696430432</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.6730637268687778</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>205</v>
       </c>
       <c r="B10">
-        <v>0.6730637268687778</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.66424643423393748</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>206</v>
       </c>
       <c r="B11">
-        <v>0.66424643423393748</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.67846773573296415</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>207</v>
       </c>
       <c r="B12">
-        <v>0.67846773573296415</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.76648081779484256</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>208</v>
       </c>
       <c r="B13">
-        <v>0.76648081779484256</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.71094027669909299</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>209</v>
       </c>
       <c r="B14">
-        <v>0.71094027669909299</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.75054511245142341</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>185</v>
       </c>
       <c r="B15">
-        <v>0.75054511245142341</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.7533823239283487</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>186</v>
       </c>
       <c r="B16">
-        <v>0.7533823239283487</v>
+        <v>0.75196371818988605</v>
+      </c>
+      <c r="J16" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -6209,7 +6215,7 @@
         <v>191</v>
       </c>
       <c r="B21">
-        <v>0.75196371818988605</v>
+        <v>0.67274689645476105</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -6270,7 +6276,7 @@
   <dimension ref="A1:P13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/inst/extdata/projections.xlsx
+++ b/inst/extdata/projections.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nsalwati\Downloads\Hutchins Fiscal Impact Measure\fim\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CA3D794-3DCF-44F6-AD6C-629E6134975E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F0D213E1-11F1-4D06-9944-E15B378E3F94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dictionary" sheetId="10" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="251">
   <si>
     <t>date</t>
   </si>
@@ -771,6 +771,63 @@
   <si>
     <t xml:space="preserve">    "gsh", "Components of GDP (Real)", "Government Consumption Expenditures and Gross Investment", "State and local "</t>
   </si>
+  <si>
+    <t xml:space="preserve">Economic 10 yr Projection, Quarterly </t>
+  </si>
+  <si>
+    <t>"gftfp"</t>
+  </si>
+  <si>
+    <t>Social Security; Subtotal + Major Health Care Programs; Subtotal + Income Security Programs; Subtotal - Major Health Care Programs; Medicaid</t>
+  </si>
+  <si>
+    <t>"yptmd"</t>
+  </si>
+  <si>
+    <t>Major Health Care Programs; Medicaid</t>
+  </si>
+  <si>
+    <t>"yptmr"</t>
+  </si>
+  <si>
+    <t>Major Health Care Programs; Medicare</t>
+  </si>
+  <si>
+    <t>"yptu"</t>
+  </si>
+  <si>
+    <t>Income Security Programs; Unemployment Compensation</t>
+  </si>
+  <si>
+    <t>Budget 10 yr Projection, CBO's Baseline Budget Projections, by Category</t>
+  </si>
+  <si>
+    <t>Budget 10 yr Projection, Mandatory Outlays Projected in CBO's Baseline, Adjusted to Exclude Effects of Timing Shifts</t>
+  </si>
+  <si>
+    <t>"gfrpt"</t>
+  </si>
+  <si>
+    <t>"gfrs"</t>
+  </si>
+  <si>
+    <t>"gfrcp"</t>
+  </si>
+  <si>
+    <t>"gfrpri"</t>
+  </si>
+  <si>
+    <t>Revenues;Individual income taxes</t>
+  </si>
+  <si>
+    <t>Revenues;Payroll taxes</t>
+  </si>
+  <si>
+    <t>Revenues;Corporate income taxes</t>
+  </si>
+  <si>
+    <t>Revenues;Other</t>
+  </si>
 </sst>
 </file>
 
@@ -781,7 +838,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -976,8 +1033,17 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="37">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1181,6 +1247,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="12">
     <border>
@@ -1369,7 +1441,7 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="43" applyFont="1"/>
@@ -1406,6 +1478,9 @@
     <xf numFmtId="0" fontId="26" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="27" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="19" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="19" fillId="36" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="19" fillId="36" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="46" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1416,9 +1491,19 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="43" applyFont="1"/>
-    <xf numFmtId="1" fontId="19" fillId="36" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="19" fillId="36" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="19" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="48">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1780,96 +1865,302 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91A9440D-BB32-4FF5-9B05-8B4462DE649B}">
-  <dimension ref="A1:A16"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="32.625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="40" t="s">
+        <v>232</v>
+      </c>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="39" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="39" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="39" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="39" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="39" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B7" s="39"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="39" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="B8" s="39"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="39" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="B9" s="39"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="39" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="B10" s="39"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="39"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="39" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="B11" s="39"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="39"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="39" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="B12" s="39"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="39"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="39" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="B13" s="39"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="39"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="39" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="B14" s="39"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="39"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="39" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="B15" s="39"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="39"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="39" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="B16" s="39"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="39"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="39" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="B17" s="39"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="39"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="39" t="s">
         <v>231</v>
       </c>
+      <c r="B18" s="39"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="39"/>
+    </row>
+    <row r="21" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="41" t="s">
+        <v>242</v>
+      </c>
+      <c r="B21" s="41"/>
+      <c r="C21" s="41"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>233</v>
+      </c>
+      <c r="B22" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>235</v>
+      </c>
+      <c r="B23" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>237</v>
+      </c>
+      <c r="B24" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>239</v>
+      </c>
+      <c r="B25" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="41" t="s">
+        <v>241</v>
+      </c>
+      <c r="B26" s="41"/>
+      <c r="C26" s="41"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>243</v>
+      </c>
+      <c r="B27" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>244</v>
+      </c>
+      <c r="B28" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>245</v>
+      </c>
+      <c r="B29" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>246</v>
+      </c>
+      <c r="B30" t="s">
+        <v>250</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A26:C26"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1901,27 +2192,27 @@
       </c>
     </row>
     <row r="2" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="35" t="s">
         <v>156</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
     </row>
     <row r="4" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D4" s="23"/>
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="37" t="s">
         <v>155</v>
       </c>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -22759,12 +23050,12 @@
       </c>
     </row>
     <row r="130" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="35" t="s">
+      <c r="A130" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="B130" s="35"/>
-      <c r="C130" s="35"/>
-      <c r="D130" s="35"/>
+      <c r="B130" s="38"/>
+      <c r="C130" s="38"/>
+      <c r="D130" s="38"/>
     </row>
     <row r="131" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C131" s="6"/>
@@ -22998,10 +23289,10 @@
       <c r="A10" s="1">
         <v>44651</v>
       </c>
-      <c r="B10" s="37">
+      <c r="B10" s="33">
         <v>2.298</v>
       </c>
-      <c r="C10" s="37">
+      <c r="C10" s="33">
         <v>9.2159999999999993</v>
       </c>
     </row>
@@ -23009,10 +23300,10 @@
       <c r="A11" s="1">
         <v>44742</v>
       </c>
-      <c r="B11" s="37">
+      <c r="B11" s="33">
         <v>4.2320000000000002</v>
       </c>
-      <c r="C11" s="37">
+      <c r="C11" s="33">
         <v>9.843</v>
       </c>
     </row>
@@ -23020,10 +23311,10 @@
       <c r="A12" s="1">
         <v>44834</v>
       </c>
-      <c r="B12" s="37">
+      <c r="B12" s="33">
         <v>4.1929999999999996</v>
       </c>
-      <c r="C12" s="37">
+      <c r="C12" s="33">
         <v>7.6760000000000002</v>
       </c>
     </row>
@@ -23031,10 +23322,10 @@
       <c r="A13" s="1">
         <v>44926</v>
       </c>
-      <c r="B13" s="37">
+      <c r="B13" s="33">
         <v>3.786</v>
       </c>
-      <c r="C13" s="37">
+      <c r="C13" s="33">
         <v>5.7149999999999999</v>
       </c>
     </row>
@@ -23042,10 +23333,10 @@
       <c r="A14" s="1">
         <v>45016</v>
       </c>
-      <c r="B14" s="37">
+      <c r="B14" s="33">
         <v>4.0339999999999998</v>
       </c>
-      <c r="C14" s="37">
+      <c r="C14" s="33">
         <v>4.9859999999999998</v>
       </c>
     </row>
@@ -23053,10 +23344,10 @@
       <c r="A15" s="1">
         <v>45107</v>
       </c>
-      <c r="B15" s="37">
+      <c r="B15" s="33">
         <v>3.6819999999999999</v>
       </c>
-      <c r="C15" s="37">
+      <c r="C15" s="33">
         <v>4.2220000000000004</v>
       </c>
     </row>
@@ -23064,10 +23355,10 @@
       <c r="A16" s="1">
         <v>45199</v>
       </c>
-      <c r="B16" s="37">
+      <c r="B16" s="33">
         <v>3.3159999999999998</v>
       </c>
-      <c r="C16" s="37">
+      <c r="C16" s="33">
         <v>3.7879999999999998</v>
       </c>
     </row>
@@ -23075,10 +23366,10 @@
       <c r="A17" s="1">
         <v>45291</v>
       </c>
-      <c r="B17" s="37">
+      <c r="B17" s="33">
         <v>2.9569999999999999</v>
       </c>
-      <c r="C17" s="37">
+      <c r="C17" s="33">
         <v>3.6309999999999998</v>
       </c>
     </row>
@@ -23086,10 +23377,10 @@
       <c r="A18" s="1">
         <v>45382</v>
       </c>
-      <c r="B18" s="37">
+      <c r="B18" s="33">
         <v>3.2949999999999999</v>
       </c>
-      <c r="C18" s="37">
+      <c r="C18" s="33">
         <v>3.5049999999999999</v>
       </c>
     </row>
@@ -23097,10 +23388,10 @@
       <c r="A19" s="1">
         <v>45473</v>
       </c>
-      <c r="B19" s="37">
+      <c r="B19" s="33">
         <v>3.1269999999999998</v>
       </c>
-      <c r="C19" s="37">
+      <c r="C19" s="33">
         <v>3.4809999999999999</v>
       </c>
     </row>
@@ -23108,10 +23399,10 @@
       <c r="A20" s="1">
         <v>45565</v>
       </c>
-      <c r="B20" s="37">
+      <c r="B20" s="33">
         <v>3.125</v>
       </c>
-      <c r="C20" s="37">
+      <c r="C20" s="33">
         <v>3.5430000000000001</v>
       </c>
     </row>
@@ -23119,10 +23410,10 @@
       <c r="A21" s="1">
         <v>45657</v>
       </c>
-      <c r="B21" s="37">
+      <c r="B21" s="33">
         <v>3.113</v>
       </c>
-      <c r="C21" s="37">
+      <c r="C21" s="33">
         <v>3.633</v>
       </c>
     </row>
@@ -23130,10 +23421,10 @@
       <c r="A22" s="1">
         <v>45747</v>
       </c>
-      <c r="B22" s="37">
+      <c r="B22" s="33">
         <v>2.5430000000000001</v>
       </c>
-      <c r="C22" s="37">
+      <c r="C22" s="33">
         <v>3.8759999999999999</v>
       </c>
     </row>
@@ -23141,10 +23432,10 @@
       <c r="A23" s="1">
         <v>45838</v>
       </c>
-      <c r="B23" s="37">
+      <c r="B23" s="33">
         <v>2.61</v>
       </c>
-      <c r="C23" s="37">
+      <c r="C23" s="33">
         <v>3.98</v>
       </c>
     </row>
@@ -23152,10 +23443,10 @@
       <c r="A24" s="1">
         <v>45930</v>
       </c>
-      <c r="B24" s="37">
+      <c r="B24" s="33">
         <v>2.673</v>
       </c>
-      <c r="C24" s="37">
+      <c r="C24" s="33">
         <v>4.0709999999999997</v>
       </c>
     </row>
@@ -23163,10 +23454,10 @@
       <c r="A25" s="1">
         <v>46022</v>
       </c>
-      <c r="B25" s="37">
+      <c r="B25" s="33">
         <v>2.7309999999999999</v>
       </c>
-      <c r="C25" s="37">
+      <c r="C25" s="33">
         <v>4.0750000000000002</v>
       </c>
     </row>
@@ -23174,10 +23465,10 @@
       <c r="A26" s="1">
         <v>46112</v>
       </c>
-      <c r="B26" s="37">
+      <c r="B26" s="33">
         <v>2.5009999999999999</v>
       </c>
-      <c r="C26" s="37">
+      <c r="C26" s="33">
         <v>4.032</v>
       </c>
     </row>
@@ -23185,10 +23476,10 @@
       <c r="A27" s="1">
         <v>46203</v>
       </c>
-      <c r="B27" s="37">
+      <c r="B27" s="33">
         <v>2.59</v>
       </c>
-      <c r="C27" s="37">
+      <c r="C27" s="33">
         <v>3.9910000000000001</v>
       </c>
     </row>
@@ -23196,10 +23487,10 @@
       <c r="A28" s="1">
         <v>46295</v>
       </c>
-      <c r="B28" s="37">
+      <c r="B28" s="33">
         <v>2.661</v>
       </c>
-      <c r="C28" s="37">
+      <c r="C28" s="33">
         <v>3.9529999999999998</v>
       </c>
     </row>
@@ -23207,10 +23498,10 @@
       <c r="A29" s="1">
         <v>46387</v>
       </c>
-      <c r="B29" s="37">
+      <c r="B29" s="33">
         <v>2.6659999999999999</v>
       </c>
-      <c r="C29" s="37">
+      <c r="C29" s="33">
         <v>3.923</v>
       </c>
     </row>
@@ -23218,10 +23509,10 @@
       <c r="A30" s="1">
         <v>46477</v>
       </c>
-      <c r="B30" s="37">
+      <c r="B30" s="33">
         <v>2.5910000000000002</v>
       </c>
-      <c r="C30" s="37">
+      <c r="C30" s="33">
         <v>3.8959999999999999</v>
       </c>
     </row>
@@ -23229,10 +23520,10 @@
       <c r="A31" s="1">
         <v>46568</v>
       </c>
-      <c r="B31" s="37">
+      <c r="B31" s="33">
         <v>2.5939999999999999</v>
       </c>
-      <c r="C31" s="37">
+      <c r="C31" s="33">
         <v>3.891</v>
       </c>
     </row>
@@ -23240,10 +23531,10 @@
       <c r="A32" s="1">
         <v>46660</v>
       </c>
-      <c r="B32" s="37">
+      <c r="B32" s="33">
         <v>2.5960000000000001</v>
       </c>
-      <c r="C32" s="37">
+      <c r="C32" s="33">
         <v>3.8620000000000001</v>
       </c>
     </row>
@@ -23251,10 +23542,10 @@
       <c r="A33" s="1">
         <v>46752</v>
       </c>
-      <c r="B33" s="37">
+      <c r="B33" s="33">
         <v>2.6150000000000002</v>
       </c>
-      <c r="C33" s="37">
+      <c r="C33" s="33">
         <v>3.8380000000000001</v>
       </c>
     </row>
@@ -23262,10 +23553,10 @@
       <c r="A34" s="1">
         <v>46843</v>
       </c>
-      <c r="B34" s="37">
+      <c r="B34" s="33">
         <v>2.5190000000000001</v>
       </c>
-      <c r="C34" s="37">
+      <c r="C34" s="33">
         <v>3.8039999999999998</v>
       </c>
     </row>
@@ -23273,10 +23564,10 @@
       <c r="A35" s="1">
         <v>46934</v>
       </c>
-      <c r="B35" s="37">
+      <c r="B35" s="33">
         <v>2.5030000000000001</v>
       </c>
-      <c r="C35" s="37">
+      <c r="C35" s="33">
         <v>3.7970000000000002</v>
       </c>
     </row>
@@ -23284,10 +23575,10 @@
       <c r="A36" s="1">
         <v>47026</v>
       </c>
-      <c r="B36" s="37">
+      <c r="B36" s="33">
         <v>2.4790000000000001</v>
       </c>
-      <c r="C36" s="37">
+      <c r="C36" s="33">
         <v>3.78</v>
       </c>
     </row>
@@ -23295,10 +23586,10 @@
       <c r="A37" s="1">
         <v>47118</v>
       </c>
-      <c r="B37" s="37">
+      <c r="B37" s="33">
         <v>2.4700000000000002</v>
       </c>
-      <c r="C37" s="37">
+      <c r="C37" s="33">
         <v>3.766</v>
       </c>
     </row>
@@ -23306,10 +23597,10 @@
       <c r="A38" s="1">
         <v>47208</v>
       </c>
-      <c r="B38" s="37">
+      <c r="B38" s="33">
         <v>2.4620000000000002</v>
       </c>
-      <c r="C38" s="37">
+      <c r="C38" s="33">
         <v>3.74</v>
       </c>
     </row>
@@ -23317,10 +23608,10 @@
       <c r="A39" s="1">
         <v>47299</v>
       </c>
-      <c r="B39" s="37">
+      <c r="B39" s="33">
         <v>2.4460000000000002</v>
       </c>
-      <c r="C39" s="37">
+      <c r="C39" s="33">
         <v>3.746</v>
       </c>
     </row>
@@ -23328,10 +23619,10 @@
       <c r="A40" s="1">
         <v>47391</v>
       </c>
-      <c r="B40" s="37">
+      <c r="B40" s="33">
         <v>2.4380000000000002</v>
       </c>
-      <c r="C40" s="37">
+      <c r="C40" s="33">
         <v>3.7570000000000001</v>
       </c>
     </row>
@@ -23339,10 +23630,10 @@
       <c r="A41" s="1">
         <v>47483</v>
       </c>
-      <c r="B41" s="37">
+      <c r="B41" s="33">
         <v>2.4380000000000002</v>
       </c>
-      <c r="C41" s="37">
+      <c r="C41" s="33">
         <v>3.7709999999999999</v>
       </c>
     </row>
@@ -23350,10 +23641,10 @@
       <c r="A42" s="1">
         <v>47573</v>
       </c>
-      <c r="B42" s="37">
+      <c r="B42" s="33">
         <v>2.4350000000000001</v>
       </c>
-      <c r="C42" s="37">
+      <c r="C42" s="33">
         <v>3.7749999999999999</v>
       </c>
     </row>
@@ -23361,10 +23652,10 @@
       <c r="A43" s="1">
         <v>47664</v>
       </c>
-      <c r="B43" s="37">
+      <c r="B43" s="33">
         <v>2.431</v>
       </c>
-      <c r="C43" s="37">
+      <c r="C43" s="33">
         <v>3.7810000000000001</v>
       </c>
     </row>
@@ -23372,10 +23663,10 @@
       <c r="A44" s="1">
         <v>47756</v>
       </c>
-      <c r="B44" s="37">
+      <c r="B44" s="33">
         <v>2.4279999999999999</v>
       </c>
-      <c r="C44" s="37">
+      <c r="C44" s="33">
         <v>3.7879999999999998</v>
       </c>
     </row>
@@ -23383,10 +23674,10 @@
       <c r="A45" s="1">
         <v>47848</v>
       </c>
-      <c r="B45" s="37">
+      <c r="B45" s="33">
         <v>2.4239999999999999</v>
       </c>
-      <c r="C45" s="37">
+      <c r="C45" s="33">
         <v>3.7879999999999998</v>
       </c>
     </row>
@@ -23394,10 +23685,10 @@
       <c r="A46" s="1">
         <v>47938</v>
       </c>
-      <c r="B46" s="37">
+      <c r="B46" s="33">
         <v>2.3719999999999999</v>
       </c>
-      <c r="C46" s="37">
+      <c r="C46" s="33">
         <v>3.8069999999999999</v>
       </c>
     </row>
@@ -23405,10 +23696,10 @@
       <c r="A47" s="1">
         <v>48029</v>
       </c>
-      <c r="B47" s="37">
+      <c r="B47" s="33">
         <v>2.3679999999999999</v>
       </c>
-      <c r="C47" s="37">
+      <c r="C47" s="33">
         <v>3.7909999999999999</v>
       </c>
     </row>
@@ -23416,10 +23707,10 @@
       <c r="A48" s="1">
         <v>48121</v>
       </c>
-      <c r="B48" s="37">
+      <c r="B48" s="33">
         <v>2.3679999999999999</v>
       </c>
-      <c r="C48" s="37">
+      <c r="C48" s="33">
         <v>3.7909999999999999</v>
       </c>
     </row>
@@ -23427,42 +23718,42 @@
       <c r="A49" s="1">
         <v>48213</v>
       </c>
-      <c r="B49" s="37">
+      <c r="B49" s="33">
         <v>2.3690000000000002</v>
       </c>
-      <c r="C49" s="37">
+      <c r="C49" s="33">
         <v>3.7839999999999998</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B50" s="37">
+      <c r="B50" s="33">
         <v>2.3690000000000002</v>
       </c>
-      <c r="C50" s="37">
+      <c r="C50" s="33">
         <v>3.79</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B51" s="37">
+      <c r="B51" s="33">
         <v>2.37</v>
       </c>
-      <c r="C51" s="37">
+      <c r="C51" s="33">
         <v>3.7909999999999999</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B52" s="37">
+      <c r="B52" s="33">
         <v>2.371</v>
       </c>
-      <c r="C52" s="37">
+      <c r="C52" s="33">
         <v>3.7869999999999999</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B53" s="37">
+      <c r="B53" s="33">
         <v>2.4249999999999998</v>
       </c>
-      <c r="C53" s="37">
+      <c r="C53" s="33">
         <v>3.79</v>
       </c>
     </row>
@@ -23479,7 +23770,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D62" sqref="D62"/>
+      <selection pane="bottomRight" activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -24649,52 +24940,52 @@
       <c r="A22" s="1">
         <v>44651</v>
       </c>
-      <c r="B22" s="36">
+      <c r="B22" s="32">
         <v>24422.799999999999</v>
       </c>
-      <c r="C22" s="36">
+      <c r="C22" s="32">
         <v>19876.099999999999</v>
       </c>
-      <c r="D22" s="36">
+      <c r="D22" s="32">
         <v>20005.5</v>
       </c>
-      <c r="E22" s="36">
+      <c r="E22" s="32">
         <v>24577</v>
       </c>
-      <c r="F22" s="37">
+      <c r="F22" s="33">
         <v>119.761</v>
       </c>
-      <c r="G22" s="37">
+      <c r="G22" s="33">
         <v>122.875</v>
       </c>
-      <c r="H22" s="36">
+      <c r="H22" s="32">
         <v>16690.7</v>
       </c>
-      <c r="I22" s="36">
+      <c r="I22" s="32">
         <v>13936.6</v>
       </c>
-      <c r="J22" s="36">
+      <c r="J22" s="32">
         <v>3352.7</v>
       </c>
-      <c r="K22" s="36">
+      <c r="K22" s="32">
         <v>1318.9</v>
       </c>
-      <c r="L22" s="36">
+      <c r="L22" s="32">
         <v>2033</v>
       </c>
-      <c r="M22" s="36">
+      <c r="M22" s="32">
         <v>4200.2</v>
       </c>
-      <c r="N22" s="36">
+      <c r="N22" s="32">
         <v>1575</v>
       </c>
-      <c r="O22" s="36">
+      <c r="O22" s="32">
         <v>2625.2</v>
       </c>
-      <c r="P22" s="37">
+      <c r="P22" s="33">
         <v>282.976</v>
       </c>
-      <c r="Q22" s="37">
+      <c r="Q22" s="33">
         <v>3.91</v>
       </c>
     </row>
@@ -24702,52 +24993,52 @@
       <c r="A23" s="1">
         <v>44742</v>
       </c>
-      <c r="B23" s="36">
+      <c r="B23" s="32">
         <v>24956.9</v>
       </c>
-      <c r="C23" s="36">
+      <c r="C23" s="32">
         <v>20083.5</v>
       </c>
-      <c r="D23" s="36">
+      <c r="D23" s="32">
         <v>20101.2</v>
       </c>
-      <c r="E23" s="36">
+      <c r="E23" s="32">
         <v>24971.1</v>
       </c>
-      <c r="F23" s="37">
+      <c r="F23" s="33">
         <v>121.06699999999999</v>
       </c>
-      <c r="G23" s="37">
+      <c r="G23" s="33">
         <v>124.265</v>
       </c>
-      <c r="H23" s="36">
+      <c r="H23" s="32">
         <v>16993</v>
       </c>
-      <c r="I23" s="36">
+      <c r="I23" s="32">
         <v>14036</v>
       </c>
-      <c r="J23" s="36">
+      <c r="J23" s="32">
         <v>3370.8</v>
       </c>
-      <c r="K23" s="36">
+      <c r="K23" s="32">
         <v>1321.6</v>
       </c>
-      <c r="L23" s="36">
+      <c r="L23" s="32">
         <v>2048</v>
       </c>
-      <c r="M23" s="36">
+      <c r="M23" s="32">
         <v>4278.8999999999996</v>
       </c>
-      <c r="N23" s="36">
+      <c r="N23" s="32">
         <v>1591.4</v>
       </c>
-      <c r="O23" s="36">
+      <c r="O23" s="32">
         <v>2687.5</v>
       </c>
-      <c r="P23" s="37">
+      <c r="P23" s="33">
         <v>286.52100000000002</v>
       </c>
-      <c r="Q23" s="37">
+      <c r="Q23" s="33">
         <v>3.85</v>
       </c>
     </row>
@@ -24755,52 +25046,52 @@
       <c r="A24" s="1">
         <v>44834</v>
       </c>
-      <c r="B24" s="36">
+      <c r="B24" s="32">
         <v>25388.3</v>
       </c>
-      <c r="C24" s="36">
+      <c r="C24" s="32">
         <v>20268.900000000001</v>
       </c>
-      <c r="D24" s="36">
+      <c r="D24" s="32">
         <v>20197.900000000001</v>
       </c>
-      <c r="E24" s="36">
+      <c r="E24" s="32">
         <v>25289.599999999999</v>
       </c>
-      <c r="F24" s="37">
+      <c r="F24" s="33">
         <v>121.98699999999999</v>
       </c>
-      <c r="G24" s="37">
+      <c r="G24" s="33">
         <v>125.25700000000001</v>
       </c>
-      <c r="H24" s="36">
+      <c r="H24" s="32">
         <v>17251.3</v>
       </c>
-      <c r="I24" s="36">
+      <c r="I24" s="32">
         <v>14141.9</v>
       </c>
-      <c r="J24" s="36">
+      <c r="J24" s="32">
         <v>3390.3</v>
       </c>
-      <c r="K24" s="36">
+      <c r="K24" s="32">
         <v>1325.4</v>
       </c>
-      <c r="L24" s="36">
+      <c r="L24" s="32">
         <v>2063.4</v>
       </c>
-      <c r="M24" s="36">
+      <c r="M24" s="32">
         <v>4345.5</v>
       </c>
-      <c r="N24" s="36">
+      <c r="N24" s="32">
         <v>1607.9</v>
       </c>
-      <c r="O24" s="36">
+      <c r="O24" s="32">
         <v>2737.7</v>
       </c>
-      <c r="P24" s="37">
+      <c r="P24" s="33">
         <v>289.08600000000001</v>
       </c>
-      <c r="Q24" s="37">
+      <c r="Q24" s="33">
         <v>3.72</v>
       </c>
     </row>
@@ -24808,52 +25099,52 @@
       <c r="A25" s="1">
         <v>44926</v>
       </c>
-      <c r="B25" s="36">
+      <c r="B25" s="32">
         <v>25773.5</v>
       </c>
-      <c r="C25" s="36">
+      <c r="C25" s="32">
         <v>20430.7</v>
       </c>
-      <c r="D25" s="36">
+      <c r="D25" s="32">
         <v>20295.5</v>
       </c>
-      <c r="E25" s="36">
+      <c r="E25" s="32">
         <v>25591.4</v>
       </c>
-      <c r="F25" s="37">
+      <c r="F25" s="33">
         <v>122.816</v>
       </c>
-      <c r="G25" s="37">
+      <c r="G25" s="33">
         <v>126.15</v>
       </c>
-      <c r="H25" s="36">
+      <c r="H25" s="32">
         <v>17488.099999999999</v>
       </c>
-      <c r="I25" s="36">
+      <c r="I25" s="32">
         <v>14239.3</v>
       </c>
-      <c r="J25" s="36">
+      <c r="J25" s="32">
         <v>3404.4</v>
       </c>
-      <c r="K25" s="36">
+      <c r="K25" s="32">
         <v>1330.1</v>
       </c>
-      <c r="L25" s="36">
+      <c r="L25" s="32">
         <v>2072.6999999999998</v>
       </c>
-      <c r="M25" s="36">
+      <c r="M25" s="32">
         <v>4398.8</v>
       </c>
-      <c r="N25" s="36">
+      <c r="N25" s="32">
         <v>1622.9</v>
       </c>
-      <c r="O25" s="36">
+      <c r="O25" s="32">
         <v>2776</v>
       </c>
-      <c r="P25" s="37">
+      <c r="P25" s="33">
         <v>291.41000000000003</v>
       </c>
-      <c r="Q25" s="37">
+      <c r="Q25" s="33">
         <v>3.65</v>
       </c>
     </row>
@@ -24861,52 +25152,52 @@
       <c r="A26" s="1">
         <v>45016</v>
       </c>
-      <c r="B26" s="36">
+      <c r="B26" s="32">
         <v>26095.1</v>
       </c>
-      <c r="C26" s="36">
+      <c r="C26" s="32">
         <v>20557.7</v>
       </c>
-      <c r="D26" s="36">
+      <c r="D26" s="32">
         <v>20393.599999999999</v>
       </c>
-      <c r="E26" s="36">
+      <c r="E26" s="32">
         <v>25874.1</v>
       </c>
-      <c r="F26" s="37">
+      <c r="F26" s="33">
         <v>123.57299999999999</v>
       </c>
-      <c r="G26" s="37">
+      <c r="G26" s="33">
         <v>126.935</v>
       </c>
-      <c r="H26" s="36">
+      <c r="H26" s="32">
         <v>17692.3</v>
       </c>
-      <c r="I26" s="36">
+      <c r="I26" s="32">
         <v>14317.2</v>
       </c>
-      <c r="J26" s="36">
+      <c r="J26" s="32">
         <v>3417</v>
       </c>
-      <c r="K26" s="36">
+      <c r="K26" s="32">
         <v>1336.1</v>
       </c>
-      <c r="L26" s="36">
+      <c r="L26" s="32">
         <v>2079.5</v>
       </c>
-      <c r="M26" s="36">
+      <c r="M26" s="32">
         <v>4448.8999999999996</v>
       </c>
-      <c r="N26" s="36">
+      <c r="N26" s="32">
         <v>1639</v>
       </c>
-      <c r="O26" s="36">
+      <c r="O26" s="32">
         <v>2809.9</v>
       </c>
-      <c r="P26" s="37">
+      <c r="P26" s="33">
         <v>293.56099999999998</v>
       </c>
-      <c r="Q26" s="37">
+      <c r="Q26" s="33">
         <v>3.58</v>
       </c>
     </row>
@@ -24914,52 +25205,52 @@
       <c r="A27" s="1">
         <v>45107</v>
       </c>
-      <c r="B27" s="36">
+      <c r="B27" s="32">
         <v>26403.7</v>
       </c>
-      <c r="C27" s="36">
+      <c r="C27" s="32">
         <v>20684.3</v>
       </c>
-      <c r="D27" s="36">
+      <c r="D27" s="32">
         <v>20492.099999999999</v>
       </c>
-      <c r="E27" s="36">
+      <c r="E27" s="32">
         <v>26144.6</v>
       </c>
-      <c r="F27" s="37">
+      <c r="F27" s="33">
         <v>124.288</v>
       </c>
-      <c r="G27" s="37">
+      <c r="G27" s="33">
         <v>127.651</v>
       </c>
-      <c r="H27" s="36">
+      <c r="H27" s="32">
         <v>17892.599999999999</v>
       </c>
-      <c r="I27" s="36">
+      <c r="I27" s="32">
         <v>14396</v>
       </c>
-      <c r="J27" s="36">
+      <c r="J27" s="32">
         <v>3427.2</v>
       </c>
-      <c r="K27" s="36">
+      <c r="K27" s="32">
         <v>1341.1</v>
       </c>
-      <c r="L27" s="36">
+      <c r="L27" s="32">
         <v>2084.6999999999998</v>
       </c>
-      <c r="M27" s="36">
+      <c r="M27" s="32">
         <v>4493</v>
       </c>
-      <c r="N27" s="36">
+      <c r="N27" s="32">
         <v>1653.9</v>
       </c>
-      <c r="O27" s="36">
+      <c r="O27" s="32">
         <v>2839.2</v>
       </c>
-      <c r="P27" s="37">
+      <c r="P27" s="33">
         <v>295.51600000000002</v>
       </c>
-      <c r="Q27" s="37">
+      <c r="Q27" s="33">
         <v>3.52</v>
       </c>
     </row>
@@ -24967,52 +25258,52 @@
       <c r="A28" s="1">
         <v>45199</v>
       </c>
-      <c r="B28" s="36">
+      <c r="B28" s="32">
         <v>26686.3</v>
       </c>
-      <c r="C28" s="36">
+      <c r="C28" s="32">
         <v>20792.8</v>
       </c>
-      <c r="D28" s="36">
+      <c r="D28" s="32">
         <v>20591.2</v>
       </c>
-      <c r="E28" s="36">
+      <c r="E28" s="32">
         <v>26413</v>
       </c>
-      <c r="F28" s="37">
+      <c r="F28" s="33">
         <v>124.98699999999999</v>
       </c>
-      <c r="G28" s="37">
+      <c r="G28" s="33">
         <v>128.34299999999999</v>
       </c>
-      <c r="H28" s="36">
+      <c r="H28" s="32">
         <v>18086.3</v>
       </c>
-      <c r="I28" s="36">
+      <c r="I28" s="32">
         <v>14470.5</v>
       </c>
-      <c r="J28" s="36">
+      <c r="J28" s="32">
         <v>3435.1</v>
       </c>
-      <c r="K28" s="36">
+      <c r="K28" s="32">
         <v>1344.8</v>
       </c>
-      <c r="L28" s="36">
+      <c r="L28" s="32">
         <v>2088.9</v>
       </c>
-      <c r="M28" s="36">
+      <c r="M28" s="32">
         <v>4533.1000000000004</v>
       </c>
-      <c r="N28" s="36">
+      <c r="N28" s="32">
         <v>1667.4</v>
       </c>
-      <c r="O28" s="36">
+      <c r="O28" s="32">
         <v>2865.7</v>
       </c>
-      <c r="P28" s="37">
+      <c r="P28" s="33">
         <v>297.36500000000001</v>
       </c>
-      <c r="Q28" s="37">
+      <c r="Q28" s="33">
         <v>3.5310000000000001</v>
       </c>
     </row>
@@ -25020,52 +25311,52 @@
       <c r="A29" s="1">
         <v>45291</v>
       </c>
-      <c r="B29" s="36">
+      <c r="B29" s="32">
         <v>26931.4</v>
       </c>
-      <c r="C29" s="36">
+      <c r="C29" s="32">
         <v>20872.400000000001</v>
       </c>
-      <c r="D29" s="36">
+      <c r="D29" s="32">
         <v>20690.8</v>
       </c>
-      <c r="E29" s="36">
+      <c r="E29" s="32">
         <v>26681.9</v>
       </c>
-      <c r="F29" s="37">
+      <c r="F29" s="33">
         <v>125.67400000000001</v>
       </c>
-      <c r="G29" s="37">
+      <c r="G29" s="33">
         <v>129.029</v>
       </c>
-      <c r="H29" s="36">
+      <c r="H29" s="32">
         <v>18268.2</v>
       </c>
-      <c r="I29" s="36">
+      <c r="I29" s="32">
         <v>14536.1</v>
       </c>
-      <c r="J29" s="36">
+      <c r="J29" s="32">
         <v>3441.4</v>
       </c>
-      <c r="K29" s="36">
+      <c r="K29" s="32">
         <v>1347.2</v>
       </c>
-      <c r="L29" s="36">
+      <c r="L29" s="32">
         <v>2092.8000000000002</v>
       </c>
-      <c r="M29" s="36">
+      <c r="M29" s="32">
         <v>4571</v>
       </c>
-      <c r="N29" s="36">
+      <c r="N29" s="32">
         <v>1679.6</v>
       </c>
-      <c r="O29" s="36">
+      <c r="O29" s="32">
         <v>2891.3</v>
       </c>
-      <c r="P29" s="37">
+      <c r="P29" s="33">
         <v>299.15499999999997</v>
       </c>
-      <c r="Q29" s="37">
+      <c r="Q29" s="33">
         <v>3.5510000000000002</v>
       </c>
     </row>
@@ -25073,52 +25364,52 @@
       <c r="A30" s="1">
         <v>45382</v>
       </c>
-      <c r="B30" s="36">
+      <c r="B30" s="32">
         <v>27173.9</v>
       </c>
-      <c r="C30" s="36">
+      <c r="C30" s="32">
         <v>20947</v>
       </c>
-      <c r="D30" s="36">
+      <c r="D30" s="32">
         <v>20790.8</v>
       </c>
-      <c r="E30" s="36">
+      <c r="E30" s="32">
         <v>26955.4</v>
       </c>
-      <c r="F30" s="37">
+      <c r="F30" s="33">
         <v>126.343</v>
       </c>
-      <c r="G30" s="37">
+      <c r="G30" s="33">
         <v>129.727</v>
       </c>
-      <c r="H30" s="36">
+      <c r="H30" s="32">
         <v>18446.3</v>
       </c>
-      <c r="I30" s="36">
+      <c r="I30" s="32">
         <v>14600.2</v>
       </c>
-      <c r="J30" s="36">
+      <c r="J30" s="32">
         <v>3448.3</v>
       </c>
-      <c r="K30" s="36">
+      <c r="K30" s="32">
         <v>1350.7</v>
       </c>
-      <c r="L30" s="36">
+      <c r="L30" s="32">
         <v>2096.3000000000002</v>
       </c>
-      <c r="M30" s="36">
+      <c r="M30" s="32">
         <v>4609.6000000000004</v>
       </c>
-      <c r="N30" s="36">
+      <c r="N30" s="32">
         <v>1693.3</v>
       </c>
-      <c r="O30" s="36">
+      <c r="O30" s="32">
         <v>2916.4</v>
       </c>
-      <c r="P30" s="37">
+      <c r="P30" s="33">
         <v>300.90600000000001</v>
       </c>
-      <c r="Q30" s="37">
+      <c r="Q30" s="33">
         <v>3.6219999999999999</v>
       </c>
     </row>
@@ -25126,52 +25417,52 @@
       <c r="A31" s="1">
         <v>45473</v>
       </c>
-      <c r="B31" s="36">
+      <c r="B31" s="32">
         <v>27411.1</v>
       </c>
-      <c r="C31" s="36">
+      <c r="C31" s="32">
         <v>21021.4</v>
       </c>
-      <c r="D31" s="36">
+      <c r="D31" s="32">
         <v>20890.5</v>
       </c>
-      <c r="E31" s="36">
+      <c r="E31" s="32">
         <v>27223.9</v>
       </c>
-      <c r="F31" s="37">
+      <c r="F31" s="33">
         <v>127.001</v>
       </c>
-      <c r="G31" s="37">
+      <c r="G31" s="33">
         <v>130.39599999999999</v>
       </c>
-      <c r="H31" s="36">
+      <c r="H31" s="32">
         <v>18612.400000000001</v>
       </c>
-      <c r="I31" s="36">
+      <c r="I31" s="32">
         <v>14655.3</v>
       </c>
-      <c r="J31" s="36">
+      <c r="J31" s="32">
         <v>3454.8</v>
       </c>
-      <c r="K31" s="36">
+      <c r="K31" s="32">
         <v>1353.6</v>
       </c>
-      <c r="L31" s="36">
+      <c r="L31" s="32">
         <v>2099.9</v>
       </c>
-      <c r="M31" s="36">
+      <c r="M31" s="32">
         <v>4647.8</v>
       </c>
-      <c r="N31" s="36">
+      <c r="N31" s="32">
         <v>1706.4</v>
       </c>
-      <c r="O31" s="36">
+      <c r="O31" s="32">
         <v>2941.4</v>
       </c>
-      <c r="P31" s="37">
+      <c r="P31" s="33">
         <v>302.64600000000002</v>
       </c>
-      <c r="Q31" s="37">
+      <c r="Q31" s="33">
         <v>3.6850000000000001</v>
       </c>
     </row>
@@ -25179,52 +25470,52 @@
       <c r="A32" s="1">
         <v>45565</v>
       </c>
-      <c r="B32" s="36">
+      <c r="B32" s="32">
         <v>27646.6</v>
       </c>
-      <c r="C32" s="36">
+      <c r="C32" s="32">
         <v>21094.799999999999</v>
       </c>
-      <c r="D32" s="36">
+      <c r="D32" s="32">
         <v>20990</v>
       </c>
-      <c r="E32" s="36">
+      <c r="E32" s="32">
         <v>27492.2</v>
       </c>
-      <c r="F32" s="37">
+      <c r="F32" s="33">
         <v>127.65</v>
       </c>
-      <c r="G32" s="37">
+      <c r="G32" s="33">
         <v>131.059</v>
       </c>
-      <c r="H32" s="36">
+      <c r="H32" s="32">
         <v>18774.5</v>
       </c>
-      <c r="I32" s="36">
+      <c r="I32" s="32">
         <v>14707.8</v>
       </c>
-      <c r="J32" s="36">
+      <c r="J32" s="32">
         <v>3461.5</v>
       </c>
-      <c r="K32" s="36">
+      <c r="K32" s="32">
         <v>1356.5</v>
       </c>
-      <c r="L32" s="36">
+      <c r="L32" s="32">
         <v>2103.8000000000002</v>
       </c>
-      <c r="M32" s="36">
+      <c r="M32" s="32">
         <v>4686.7</v>
       </c>
-      <c r="N32" s="36">
+      <c r="N32" s="32">
         <v>1719.6</v>
       </c>
-      <c r="O32" s="36">
+      <c r="O32" s="32">
         <v>2967.1</v>
       </c>
-      <c r="P32" s="37">
+      <c r="P32" s="33">
         <v>304.37299999999999</v>
       </c>
-      <c r="Q32" s="37">
+      <c r="Q32" s="33">
         <v>3.722</v>
       </c>
     </row>
@@ -25232,52 +25523,52 @@
       <c r="A33" s="1">
         <v>45657</v>
       </c>
-      <c r="B33" s="36">
+      <c r="B33" s="32">
         <v>27893.1</v>
       </c>
-      <c r="C33" s="36">
+      <c r="C33" s="32">
         <v>21176.400000000001</v>
       </c>
-      <c r="D33" s="36">
+      <c r="D33" s="32">
         <v>21089.3</v>
       </c>
-      <c r="E33" s="36">
+      <c r="E33" s="32">
         <v>27760.799999999999</v>
       </c>
-      <c r="F33" s="37">
+      <c r="F33" s="33">
         <v>128.29400000000001</v>
       </c>
-      <c r="G33" s="37">
+      <c r="G33" s="33">
         <v>131.71700000000001</v>
       </c>
-      <c r="H33" s="36">
+      <c r="H33" s="32">
         <v>18946.900000000001</v>
       </c>
-      <c r="I33" s="36">
+      <c r="I33" s="32">
         <v>14768.3</v>
       </c>
-      <c r="J33" s="36">
+      <c r="J33" s="32">
         <v>3468.5</v>
       </c>
-      <c r="K33" s="36">
+      <c r="K33" s="32">
         <v>1359.2</v>
       </c>
-      <c r="L33" s="36">
+      <c r="L33" s="32">
         <v>2108</v>
       </c>
-      <c r="M33" s="36">
+      <c r="M33" s="32">
         <v>4726.5</v>
       </c>
-      <c r="N33" s="36">
+      <c r="N33" s="32">
         <v>1732.8</v>
       </c>
-      <c r="O33" s="36">
+      <c r="O33" s="32">
         <v>2993.7</v>
       </c>
-      <c r="P33" s="37">
+      <c r="P33" s="33">
         <v>306.09899999999999</v>
       </c>
-      <c r="Q33" s="37">
+      <c r="Q33" s="33">
         <v>3.76</v>
       </c>
     </row>
@@ -25285,52 +25576,52 @@
       <c r="A34" s="1">
         <v>45747</v>
       </c>
-      <c r="B34" s="36">
+      <c r="B34" s="32">
         <v>28142.6</v>
       </c>
-      <c r="C34" s="36">
+      <c r="C34" s="32">
         <v>21257.7</v>
       </c>
-      <c r="D34" s="36">
+      <c r="D34" s="32">
         <v>21188.3</v>
       </c>
-      <c r="E34" s="36">
+      <c r="E34" s="32">
         <v>28032.799999999999</v>
       </c>
-      <c r="F34" s="37">
+      <c r="F34" s="33">
         <v>128.94200000000001</v>
       </c>
-      <c r="G34" s="37">
+      <c r="G34" s="33">
         <v>132.387</v>
       </c>
-      <c r="H34" s="36">
+      <c r="H34" s="32">
         <v>19117.900000000001</v>
       </c>
-      <c r="I34" s="36">
+      <c r="I34" s="32">
         <v>14826.6</v>
       </c>
-      <c r="J34" s="36">
+      <c r="J34" s="32">
         <v>3474.5</v>
       </c>
-      <c r="K34" s="36">
+      <c r="K34" s="32">
         <v>1360.1</v>
       </c>
-      <c r="L34" s="36">
+      <c r="L34" s="32">
         <v>2113</v>
       </c>
-      <c r="M34" s="36">
+      <c r="M34" s="32">
         <v>4766</v>
       </c>
-      <c r="N34" s="36">
+      <c r="N34" s="32">
         <v>1743.7</v>
       </c>
-      <c r="O34" s="36">
+      <c r="O34" s="32">
         <v>3022.3</v>
       </c>
-      <c r="P34" s="37">
+      <c r="P34" s="33">
         <v>307.85399999999998</v>
       </c>
-      <c r="Q34" s="37">
+      <c r="Q34" s="33">
         <v>3.7989999999999999</v>
       </c>
     </row>
@@ -25338,52 +25629,52 @@
       <c r="A35" s="1">
         <v>45838</v>
       </c>
-      <c r="B35" s="36">
+      <c r="B35" s="32">
         <v>28400.2</v>
       </c>
-      <c r="C35" s="36">
+      <c r="C35" s="32">
         <v>21343.8</v>
       </c>
-      <c r="D35" s="36">
+      <c r="D35" s="32">
         <v>21287.1</v>
       </c>
-      <c r="E35" s="36">
+      <c r="E35" s="32">
         <v>28306.2</v>
       </c>
-      <c r="F35" s="37">
+      <c r="F35" s="33">
         <v>129.589</v>
       </c>
-      <c r="G35" s="37">
+      <c r="G35" s="33">
         <v>133.06</v>
       </c>
-      <c r="H35" s="36">
+      <c r="H35" s="32">
         <v>19292.7</v>
       </c>
-      <c r="I35" s="36">
+      <c r="I35" s="32">
         <v>14887.5</v>
       </c>
-      <c r="J35" s="36">
+      <c r="J35" s="32">
         <v>3481</v>
       </c>
-      <c r="K35" s="36">
+      <c r="K35" s="32">
         <v>1361.2</v>
       </c>
-      <c r="L35" s="36">
+      <c r="L35" s="32">
         <v>2118.1999999999998</v>
       </c>
-      <c r="M35" s="36">
+      <c r="M35" s="32">
         <v>4806.8999999999996</v>
       </c>
-      <c r="N35" s="36">
+      <c r="N35" s="32">
         <v>1755</v>
       </c>
-      <c r="O35" s="36">
+      <c r="O35" s="32">
         <v>3052</v>
       </c>
-      <c r="P35" s="37">
+      <c r="P35" s="33">
         <v>309.61799999999999</v>
       </c>
-      <c r="Q35" s="37">
+      <c r="Q35" s="33">
         <v>3.8380000000000001</v>
       </c>
     </row>
@@ -25391,52 +25682,52 @@
       <c r="A36" s="1">
         <v>45930</v>
       </c>
-      <c r="B36" s="36">
+      <c r="B36" s="32">
         <v>28648.6</v>
       </c>
-      <c r="C36" s="36">
+      <c r="C36" s="32">
         <v>21421</v>
       </c>
-      <c r="D36" s="36">
+      <c r="D36" s="32">
         <v>21385.9</v>
       </c>
-      <c r="E36" s="36">
+      <c r="E36" s="32">
         <v>28582.6</v>
       </c>
-      <c r="F36" s="37">
+      <c r="F36" s="33">
         <v>130.23599999999999</v>
       </c>
-      <c r="G36" s="37">
+      <c r="G36" s="33">
         <v>133.74</v>
       </c>
-      <c r="H36" s="36">
+      <c r="H36" s="32">
         <v>19460.400000000001</v>
       </c>
-      <c r="I36" s="36">
+      <c r="I36" s="32">
         <v>14942.4</v>
       </c>
-      <c r="J36" s="36">
+      <c r="J36" s="32">
         <v>3487.9</v>
       </c>
-      <c r="K36" s="36">
+      <c r="K36" s="32">
         <v>1362.5</v>
       </c>
-      <c r="L36" s="36">
+      <c r="L36" s="32">
         <v>2123.6999999999998</v>
       </c>
-      <c r="M36" s="36">
+      <c r="M36" s="32">
         <v>4849.1000000000004</v>
       </c>
-      <c r="N36" s="36">
+      <c r="N36" s="32">
         <v>1766.6</v>
       </c>
-      <c r="O36" s="36">
+      <c r="O36" s="32">
         <v>3082.6</v>
       </c>
-      <c r="P36" s="37">
+      <c r="P36" s="33">
         <v>311.38799999999998</v>
       </c>
-      <c r="Q36" s="37">
+      <c r="Q36" s="33">
         <v>3.8769999999999998</v>
       </c>
     </row>
@@ -25444,52 +25735,52 @@
       <c r="A37" s="1">
         <v>46022</v>
       </c>
-      <c r="B37" s="36">
+      <c r="B37" s="32">
         <v>28909.599999999999</v>
       </c>
-      <c r="C37" s="36">
+      <c r="C37" s="32">
         <v>21506.400000000001</v>
       </c>
-      <c r="D37" s="36">
+      <c r="D37" s="32">
         <v>21484.6</v>
       </c>
-      <c r="E37" s="36">
+      <c r="E37" s="32">
         <v>28860.799999999999</v>
       </c>
-      <c r="F37" s="37">
+      <c r="F37" s="33">
         <v>130.88200000000001</v>
       </c>
-      <c r="G37" s="37">
+      <c r="G37" s="33">
         <v>134.423</v>
       </c>
-      <c r="H37" s="36">
+      <c r="H37" s="32">
         <v>19646.400000000001</v>
       </c>
-      <c r="I37" s="36">
+      <c r="I37" s="32">
         <v>15010.7</v>
       </c>
-      <c r="J37" s="36">
+      <c r="J37" s="32">
         <v>3494.8</v>
       </c>
-      <c r="K37" s="36">
+      <c r="K37" s="32">
         <v>1363.9</v>
       </c>
-      <c r="L37" s="36">
+      <c r="L37" s="32">
         <v>2129</v>
       </c>
-      <c r="M37" s="36">
+      <c r="M37" s="32">
         <v>4892</v>
       </c>
-      <c r="N37" s="36">
+      <c r="N37" s="32">
         <v>1778.5</v>
       </c>
-      <c r="O37" s="36">
+      <c r="O37" s="32">
         <v>3113.5</v>
       </c>
-      <c r="P37" s="37">
+      <c r="P37" s="33">
         <v>313.16800000000001</v>
       </c>
-      <c r="Q37" s="37">
+      <c r="Q37" s="33">
         <v>3.915</v>
       </c>
     </row>
@@ -25497,52 +25788,52 @@
       <c r="A38" s="1">
         <v>46112</v>
       </c>
-      <c r="B38" s="36">
+      <c r="B38" s="32">
         <v>29128.2</v>
       </c>
-      <c r="C38" s="36">
+      <c r="C38" s="32">
         <v>21558.5</v>
       </c>
-      <c r="D38" s="36">
+      <c r="D38" s="32">
         <v>21583.3</v>
       </c>
-      <c r="E38" s="36">
+      <c r="E38" s="32">
         <v>29141.5</v>
       </c>
-      <c r="F38" s="37">
+      <c r="F38" s="33">
         <v>131.53100000000001</v>
       </c>
-      <c r="G38" s="37">
+      <c r="G38" s="33">
         <v>135.11199999999999</v>
       </c>
-      <c r="H38" s="36">
+      <c r="H38" s="32">
         <v>19785.3</v>
       </c>
-      <c r="I38" s="36">
+      <c r="I38" s="32">
         <v>15042.2</v>
       </c>
-      <c r="J38" s="36">
+      <c r="J38" s="32">
         <v>3500.7</v>
       </c>
-      <c r="K38" s="36">
+      <c r="K38" s="32">
         <v>1364.6</v>
       </c>
-      <c r="L38" s="36">
+      <c r="L38" s="32">
         <v>2134.1</v>
       </c>
-      <c r="M38" s="36">
+      <c r="M38" s="32">
         <v>4934</v>
       </c>
-      <c r="N38" s="36">
+      <c r="N38" s="32">
         <v>1789.5</v>
       </c>
-      <c r="O38" s="36">
+      <c r="O38" s="32">
         <v>3144.4</v>
       </c>
-      <c r="P38" s="37">
+      <c r="P38" s="33">
         <v>314.96199999999999</v>
       </c>
-      <c r="Q38" s="37">
+      <c r="Q38" s="33">
         <v>3.9590000000000001</v>
       </c>
     </row>
@@ -25550,52 +25841,52 @@
       <c r="A39" s="1">
         <v>46203</v>
       </c>
-      <c r="B39" s="36">
+      <c r="B39" s="32">
         <v>29382.5</v>
       </c>
-      <c r="C39" s="36">
+      <c r="C39" s="32">
         <v>21635.8</v>
       </c>
-      <c r="D39" s="36">
+      <c r="D39" s="32">
         <v>21681.5</v>
       </c>
-      <c r="E39" s="36">
+      <c r="E39" s="32">
         <v>29423.9</v>
       </c>
-      <c r="F39" s="37">
+      <c r="F39" s="33">
         <v>132.18299999999999</v>
       </c>
-      <c r="G39" s="37">
+      <c r="G39" s="33">
         <v>135.804</v>
       </c>
-      <c r="H39" s="36">
+      <c r="H39" s="32">
         <v>19957.400000000001</v>
       </c>
-      <c r="I39" s="36">
+      <c r="I39" s="32">
         <v>15098.3</v>
       </c>
-      <c r="J39" s="36">
+      <c r="J39" s="32">
         <v>3506.6</v>
       </c>
-      <c r="K39" s="36">
+      <c r="K39" s="32">
         <v>1365.6</v>
       </c>
-      <c r="L39" s="36">
+      <c r="L39" s="32">
         <v>2138.8000000000002</v>
       </c>
-      <c r="M39" s="36">
+      <c r="M39" s="32">
         <v>4976.3999999999996</v>
       </c>
-      <c r="N39" s="36">
+      <c r="N39" s="32">
         <v>1801</v>
       </c>
-      <c r="O39" s="36">
+      <c r="O39" s="32">
         <v>3175.3</v>
       </c>
-      <c r="P39" s="37">
+      <c r="P39" s="33">
         <v>316.77100000000002</v>
       </c>
-      <c r="Q39" s="37">
+      <c r="Q39" s="33">
         <v>4.0039999999999996</v>
       </c>
     </row>
@@ -25603,52 +25894,52 @@
       <c r="A40" s="1">
         <v>46295</v>
       </c>
-      <c r="B40" s="36">
+      <c r="B40" s="32">
         <v>29645.7</v>
       </c>
-      <c r="C40" s="36">
+      <c r="C40" s="32">
         <v>21718.1</v>
       </c>
-      <c r="D40" s="36">
+      <c r="D40" s="32">
         <v>21779.5</v>
       </c>
-      <c r="E40" s="36">
+      <c r="E40" s="32">
         <v>29708.3</v>
       </c>
-      <c r="F40" s="37">
+      <c r="F40" s="33">
         <v>132.83799999999999</v>
       </c>
-      <c r="G40" s="37">
+      <c r="G40" s="33">
         <v>136.50200000000001</v>
       </c>
-      <c r="H40" s="36">
+      <c r="H40" s="32">
         <v>20130.2</v>
       </c>
-      <c r="I40" s="36">
+      <c r="I40" s="32">
         <v>15153.9</v>
       </c>
-      <c r="J40" s="36">
+      <c r="J40" s="32">
         <v>3512.4</v>
       </c>
-      <c r="K40" s="36">
+      <c r="K40" s="32">
         <v>1366.8</v>
       </c>
-      <c r="L40" s="36">
+      <c r="L40" s="32">
         <v>2143.3000000000002</v>
       </c>
-      <c r="M40" s="36">
+      <c r="M40" s="32">
         <v>5019.2</v>
       </c>
-      <c r="N40" s="36">
+      <c r="N40" s="32">
         <v>1812.9</v>
       </c>
-      <c r="O40" s="36">
+      <c r="O40" s="32">
         <v>3206.3</v>
       </c>
-      <c r="P40" s="37">
+      <c r="P40" s="33">
         <v>318.596</v>
       </c>
-      <c r="Q40" s="37">
+      <c r="Q40" s="33">
         <v>4.0549999999999997</v>
       </c>
     </row>
@@ -25656,52 +25947,52 @@
       <c r="A41" s="1">
         <v>46387</v>
       </c>
-      <c r="B41" s="36">
+      <c r="B41" s="32">
         <v>29910.9</v>
       </c>
-      <c r="C41" s="36">
+      <c r="C41" s="32">
         <v>21800</v>
       </c>
-      <c r="D41" s="36">
+      <c r="D41" s="32">
         <v>21877.4</v>
       </c>
-      <c r="E41" s="36">
+      <c r="E41" s="32">
         <v>29995.200000000001</v>
       </c>
-      <c r="F41" s="37">
+      <c r="F41" s="33">
         <v>133.49600000000001</v>
       </c>
-      <c r="G41" s="37">
+      <c r="G41" s="33">
         <v>137.20500000000001</v>
       </c>
-      <c r="H41" s="36">
+      <c r="H41" s="32">
         <v>20306.2</v>
       </c>
-      <c r="I41" s="36">
+      <c r="I41" s="32">
         <v>15211</v>
       </c>
-      <c r="J41" s="36">
+      <c r="J41" s="32">
         <v>3518</v>
       </c>
-      <c r="K41" s="36">
+      <c r="K41" s="32">
         <v>1368</v>
       </c>
-      <c r="L41" s="36">
+      <c r="L41" s="32">
         <v>2147.6</v>
       </c>
-      <c r="M41" s="36">
+      <c r="M41" s="32">
         <v>5062.1000000000004</v>
       </c>
-      <c r="N41" s="36">
+      <c r="N41" s="32">
         <v>1824.8</v>
       </c>
-      <c r="O41" s="36">
+      <c r="O41" s="32">
         <v>3237.3</v>
       </c>
-      <c r="P41" s="37">
+      <c r="P41" s="33">
         <v>320.43700000000001</v>
       </c>
-      <c r="Q41" s="37">
+      <c r="Q41" s="33">
         <v>4.101</v>
       </c>
     </row>
@@ -25709,52 +26000,52 @@
       <c r="A42" s="1">
         <v>46477</v>
       </c>
-      <c r="B42" s="36">
+      <c r="B42" s="32">
         <v>30191</v>
       </c>
-      <c r="C42" s="36">
+      <c r="C42" s="32">
         <v>21891.200000000001</v>
       </c>
-      <c r="D42" s="36">
+      <c r="D42" s="32">
         <v>21975.200000000001</v>
       </c>
-      <c r="E42" s="36">
+      <c r="E42" s="32">
         <v>30284.5</v>
       </c>
-      <c r="F42" s="37">
+      <c r="F42" s="33">
         <v>134.16</v>
       </c>
-      <c r="G42" s="37">
+      <c r="G42" s="33">
         <v>137.91399999999999</v>
       </c>
-      <c r="H42" s="36">
+      <c r="H42" s="32">
         <v>20502.900000000001</v>
       </c>
-      <c r="I42" s="36">
+      <c r="I42" s="32">
         <v>15282.4</v>
       </c>
-      <c r="J42" s="36">
+      <c r="J42" s="32">
         <v>3523.2</v>
       </c>
-      <c r="K42" s="36">
+      <c r="K42" s="32">
         <v>1368.9</v>
       </c>
-      <c r="L42" s="36">
+      <c r="L42" s="32">
         <v>2151.8000000000002</v>
       </c>
-      <c r="M42" s="36">
+      <c r="M42" s="32">
         <v>5104.8999999999996</v>
       </c>
-      <c r="N42" s="36">
+      <c r="N42" s="32">
         <v>1836.6</v>
       </c>
-      <c r="O42" s="36">
+      <c r="O42" s="32">
         <v>3268.4</v>
       </c>
-      <c r="P42" s="37">
+      <c r="P42" s="33">
         <v>322.29599999999999</v>
       </c>
-      <c r="Q42" s="37">
+      <c r="Q42" s="33">
         <v>4.149</v>
       </c>
     </row>
@@ -25762,52 +26053,52 @@
       <c r="A43" s="1">
         <v>46568</v>
       </c>
-      <c r="B43" s="36">
+      <c r="B43" s="32">
         <v>30471.3</v>
       </c>
-      <c r="C43" s="36">
+      <c r="C43" s="32">
         <v>21980.6</v>
       </c>
-      <c r="D43" s="36">
+      <c r="D43" s="32">
         <v>22072.9</v>
       </c>
-      <c r="E43" s="36">
+      <c r="E43" s="32">
         <v>30576.1</v>
       </c>
-      <c r="F43" s="37">
+      <c r="F43" s="33">
         <v>134.828</v>
       </c>
-      <c r="G43" s="37">
+      <c r="G43" s="33">
         <v>138.62700000000001</v>
       </c>
-      <c r="H43" s="36">
+      <c r="H43" s="32">
         <v>20698.3</v>
       </c>
-      <c r="I43" s="36">
+      <c r="I43" s="32">
         <v>15351.6</v>
       </c>
-      <c r="J43" s="36">
+      <c r="J43" s="32">
         <v>3528.4</v>
       </c>
-      <c r="K43" s="36">
+      <c r="K43" s="32">
         <v>1369.9</v>
       </c>
-      <c r="L43" s="36">
+      <c r="L43" s="32">
         <v>2155.8000000000002</v>
       </c>
-      <c r="M43" s="36">
+      <c r="M43" s="32">
         <v>5148.1000000000004</v>
       </c>
-      <c r="N43" s="36">
+      <c r="N43" s="32">
         <v>1848.4</v>
       </c>
-      <c r="O43" s="36">
+      <c r="O43" s="32">
         <v>3299.7</v>
       </c>
-      <c r="P43" s="37">
+      <c r="P43" s="33">
         <v>324.17099999999999</v>
       </c>
-      <c r="Q43" s="37">
+      <c r="Q43" s="33">
         <v>4.1920000000000002</v>
       </c>
     </row>
@@ -25815,52 +26106,52 @@
       <c r="A44" s="1">
         <v>46660</v>
       </c>
-      <c r="B44" s="36">
+      <c r="B44" s="32">
         <v>30754</v>
       </c>
-      <c r="C44" s="36">
+      <c r="C44" s="32">
         <v>22070.2</v>
       </c>
-      <c r="D44" s="36">
+      <c r="D44" s="32">
         <v>22170.400000000001</v>
       </c>
-      <c r="E44" s="36">
+      <c r="E44" s="32">
         <v>30870</v>
       </c>
-      <c r="F44" s="37">
+      <c r="F44" s="33">
         <v>135.5</v>
       </c>
-      <c r="G44" s="37">
+      <c r="G44" s="33">
         <v>139.346</v>
       </c>
-      <c r="H44" s="36">
+      <c r="H44" s="32">
         <v>20899.5</v>
       </c>
-      <c r="I44" s="36">
+      <c r="I44" s="32">
         <v>15424</v>
       </c>
-      <c r="J44" s="36">
+      <c r="J44" s="32">
         <v>3533.3</v>
       </c>
-      <c r="K44" s="36">
+      <c r="K44" s="32">
         <v>1370.8</v>
       </c>
-      <c r="L44" s="36">
+      <c r="L44" s="32">
         <v>2159.6999999999998</v>
       </c>
-      <c r="M44" s="36">
+      <c r="M44" s="32">
         <v>5191.3999999999996</v>
       </c>
-      <c r="N44" s="36">
+      <c r="N44" s="32">
         <v>1860.2</v>
       </c>
-      <c r="O44" s="36">
+      <c r="O44" s="32">
         <v>3331.1</v>
       </c>
-      <c r="P44" s="37">
+      <c r="P44" s="33">
         <v>326.06099999999998</v>
       </c>
-      <c r="Q44" s="37">
+      <c r="Q44" s="33">
         <v>4.2469999999999999</v>
       </c>
     </row>
@@ -25868,52 +26159,52 @@
       <c r="A45" s="1">
         <v>46752</v>
       </c>
-      <c r="B45" s="36">
+      <c r="B45" s="32">
         <v>31038.799999999999</v>
       </c>
-      <c r="C45" s="36">
+      <c r="C45" s="32">
         <v>22159.7</v>
       </c>
-      <c r="D45" s="36">
+      <c r="D45" s="32">
         <v>22268.1</v>
       </c>
-      <c r="E45" s="36">
+      <c r="E45" s="32">
         <v>31166.3</v>
       </c>
-      <c r="F45" s="37">
+      <c r="F45" s="33">
         <v>136.17500000000001</v>
       </c>
-      <c r="G45" s="37">
+      <c r="G45" s="33">
         <v>140.06800000000001</v>
       </c>
-      <c r="H45" s="36">
+      <c r="H45" s="32">
         <v>21100.2</v>
       </c>
-      <c r="I45" s="36">
+      <c r="I45" s="32">
         <v>15494.9</v>
       </c>
-      <c r="J45" s="36">
+      <c r="J45" s="32">
         <v>3538.1</v>
       </c>
-      <c r="K45" s="36">
+      <c r="K45" s="32">
         <v>1371.9</v>
       </c>
-      <c r="L45" s="36">
+      <c r="L45" s="32">
         <v>2163.4</v>
       </c>
-      <c r="M45" s="36">
+      <c r="M45" s="32">
         <v>5234.8999999999996</v>
       </c>
-      <c r="N45" s="36">
+      <c r="N45" s="32">
         <v>1872.3</v>
       </c>
-      <c r="O45" s="36">
+      <c r="O45" s="32">
         <v>3362.6</v>
       </c>
-      <c r="P45" s="37">
+      <c r="P45" s="33">
         <v>327.96199999999999</v>
       </c>
-      <c r="Q45" s="37">
+      <c r="Q45" s="33">
         <v>4.3079999999999998</v>
       </c>
     </row>
@@ -25921,52 +26212,52 @@
       <c r="A46" s="1">
         <v>46843</v>
       </c>
-      <c r="B46" s="36">
+      <c r="B46" s="32">
         <v>31335.7</v>
       </c>
-      <c r="C46" s="36">
+      <c r="C46" s="32">
         <v>22256.400000000001</v>
       </c>
-      <c r="D46" s="36">
+      <c r="D46" s="32">
         <v>22366</v>
       </c>
-      <c r="E46" s="36">
+      <c r="E46" s="32">
         <v>31465.1</v>
       </c>
-      <c r="F46" s="37">
+      <c r="F46" s="33">
         <v>136.85499999999999</v>
       </c>
-      <c r="G46" s="37">
+      <c r="G46" s="33">
         <v>140.79400000000001</v>
       </c>
-      <c r="H46" s="36">
+      <c r="H46" s="32">
         <v>21316.5</v>
       </c>
-      <c r="I46" s="36">
+      <c r="I46" s="32">
         <v>15575.9</v>
       </c>
-      <c r="J46" s="36">
+      <c r="J46" s="32">
         <v>3542.5</v>
       </c>
-      <c r="K46" s="36">
+      <c r="K46" s="32">
         <v>1372.6</v>
       </c>
-      <c r="L46" s="36">
+      <c r="L46" s="32">
         <v>2166.9</v>
       </c>
-      <c r="M46" s="36">
+      <c r="M46" s="32">
         <v>5278.1</v>
       </c>
-      <c r="N46" s="36">
+      <c r="N46" s="32">
         <v>1884</v>
       </c>
-      <c r="O46" s="36">
+      <c r="O46" s="32">
         <v>3394.2</v>
       </c>
-      <c r="P46" s="37">
+      <c r="P46" s="33">
         <v>329.87799999999999</v>
       </c>
-      <c r="Q46" s="37">
+      <c r="Q46" s="33">
         <v>4.3780000000000001</v>
       </c>
     </row>
@@ -25974,52 +26265,52 @@
       <c r="A47" s="1">
         <v>46934</v>
       </c>
-      <c r="B47" s="36">
+      <c r="B47" s="32">
         <v>31633.8</v>
       </c>
-      <c r="C47" s="36">
+      <c r="C47" s="32">
         <v>22352.1</v>
       </c>
-      <c r="D47" s="36">
+      <c r="D47" s="32">
         <v>22464.400000000001</v>
       </c>
-      <c r="E47" s="36">
+      <c r="E47" s="32">
         <v>31767.200000000001</v>
       </c>
-      <c r="F47" s="37">
+      <c r="F47" s="33">
         <v>137.541</v>
       </c>
-      <c r="G47" s="37">
+      <c r="G47" s="33">
         <v>141.52500000000001</v>
       </c>
-      <c r="H47" s="36">
+      <c r="H47" s="32">
         <v>21534.9</v>
       </c>
-      <c r="I47" s="36">
+      <c r="I47" s="32">
         <v>15657</v>
       </c>
-      <c r="J47" s="36">
+      <c r="J47" s="32">
         <v>3546.8</v>
       </c>
-      <c r="K47" s="36">
+      <c r="K47" s="32">
         <v>1373.3</v>
       </c>
-      <c r="L47" s="36">
+      <c r="L47" s="32">
         <v>2170.4</v>
       </c>
-      <c r="M47" s="36">
+      <c r="M47" s="32">
         <v>5321.6</v>
       </c>
-      <c r="N47" s="36">
+      <c r="N47" s="32">
         <v>1895.7</v>
       </c>
-      <c r="O47" s="36">
+      <c r="O47" s="32">
         <v>3425.9</v>
       </c>
-      <c r="P47" s="37">
+      <c r="P47" s="33">
         <v>331.81099999999998</v>
       </c>
-      <c r="Q47" s="37">
+      <c r="Q47" s="33">
         <v>4.45</v>
       </c>
     </row>
@@ -26027,52 +26318,52 @@
       <c r="A48" s="1">
         <v>47026</v>
       </c>
-      <c r="B48" s="36">
+      <c r="B48" s="32">
         <v>31938.2</v>
       </c>
-      <c r="C48" s="36">
+      <c r="C48" s="32">
         <v>22450.5</v>
       </c>
-      <c r="D48" s="36">
+      <c r="D48" s="32">
         <v>22563.3</v>
       </c>
-      <c r="E48" s="36">
+      <c r="E48" s="32">
         <v>32072.5</v>
       </c>
-      <c r="F48" s="37">
+      <c r="F48" s="33">
         <v>138.232</v>
       </c>
-      <c r="G48" s="37">
+      <c r="G48" s="33">
         <v>142.261</v>
       </c>
-      <c r="H48" s="36">
+      <c r="H48" s="32">
         <v>21753.9</v>
       </c>
-      <c r="I48" s="36">
+      <c r="I48" s="32">
         <v>15737.3</v>
       </c>
-      <c r="J48" s="36">
+      <c r="J48" s="32">
         <v>3550.9</v>
       </c>
-      <c r="K48" s="36">
+      <c r="K48" s="32">
         <v>1373.9</v>
       </c>
-      <c r="L48" s="36">
+      <c r="L48" s="32">
         <v>2173.8000000000002</v>
       </c>
-      <c r="M48" s="36">
+      <c r="M48" s="32">
         <v>5365.2</v>
       </c>
-      <c r="N48" s="36">
+      <c r="N48" s="32">
         <v>1907.3</v>
       </c>
-      <c r="O48" s="36">
+      <c r="O48" s="32">
         <v>3457.9</v>
       </c>
-      <c r="P48" s="37">
+      <c r="P48" s="33">
         <v>333.76</v>
       </c>
-      <c r="Q48" s="37">
+      <c r="Q48" s="33">
         <v>4.5019999999999998</v>
       </c>
     </row>
@@ -26080,52 +26371,52 @@
       <c r="A49" s="1">
         <v>47118</v>
       </c>
-      <c r="B49" s="36">
+      <c r="B49" s="32">
         <v>32245.9</v>
       </c>
-      <c r="C49" s="36">
+      <c r="C49" s="32">
         <v>22549.4</v>
       </c>
-      <c r="D49" s="36">
+      <c r="D49" s="32">
         <v>22662.7</v>
       </c>
-      <c r="E49" s="36">
+      <c r="E49" s="32">
         <v>32381.1</v>
       </c>
-      <c r="F49" s="37">
+      <c r="F49" s="33">
         <v>138.92699999999999</v>
       </c>
-      <c r="G49" s="37">
+      <c r="G49" s="33">
         <v>143.001</v>
       </c>
-      <c r="H49" s="36">
+      <c r="H49" s="32">
         <v>21974.7</v>
       </c>
-      <c r="I49" s="36">
+      <c r="I49" s="32">
         <v>15817.4</v>
       </c>
-      <c r="J49" s="36">
+      <c r="J49" s="32">
         <v>3554.9</v>
       </c>
-      <c r="K49" s="36">
+      <c r="K49" s="32">
         <v>1374.5</v>
       </c>
-      <c r="L49" s="36">
+      <c r="L49" s="32">
         <v>2177</v>
       </c>
-      <c r="M49" s="36">
+      <c r="M49" s="32">
         <v>5409</v>
       </c>
-      <c r="N49" s="36">
+      <c r="N49" s="32">
         <v>1919</v>
       </c>
-      <c r="O49" s="36">
+      <c r="O49" s="32">
         <v>3490</v>
       </c>
-      <c r="P49" s="37">
+      <c r="P49" s="33">
         <v>335.72300000000001</v>
       </c>
-      <c r="Q49" s="37">
+      <c r="Q49" s="33">
         <v>4.53</v>
       </c>
     </row>
@@ -26133,52 +26424,52 @@
       <c r="A50" s="1">
         <v>47208</v>
       </c>
-      <c r="B50" s="36">
+      <c r="B50" s="32">
         <v>32557.200000000001</v>
       </c>
-      <c r="C50" s="36">
+      <c r="C50" s="32">
         <v>22649</v>
       </c>
-      <c r="D50" s="36">
+      <c r="D50" s="32">
         <v>22762.799999999999</v>
       </c>
-      <c r="E50" s="36">
+      <c r="E50" s="32">
         <v>32693.200000000001</v>
       </c>
-      <c r="F50" s="37">
+      <c r="F50" s="33">
         <v>139.62700000000001</v>
       </c>
-      <c r="G50" s="37">
+      <c r="G50" s="33">
         <v>143.74600000000001</v>
       </c>
-      <c r="H50" s="36">
+      <c r="H50" s="32">
         <v>22194.2</v>
       </c>
-      <c r="I50" s="36">
+      <c r="I50" s="32">
         <v>15895.3</v>
       </c>
-      <c r="J50" s="36">
+      <c r="J50" s="32">
         <v>3558.7</v>
       </c>
-      <c r="K50" s="36">
+      <c r="K50" s="32">
         <v>1375.1</v>
       </c>
-      <c r="L50" s="36">
+      <c r="L50" s="32">
         <v>2180.1</v>
       </c>
-      <c r="M50" s="36">
+      <c r="M50" s="32">
         <v>5452.8</v>
       </c>
-      <c r="N50" s="36">
+      <c r="N50" s="32">
         <v>1930.7</v>
       </c>
-      <c r="O50" s="36">
+      <c r="O50" s="32">
         <v>3522.2</v>
       </c>
-      <c r="P50" s="37">
+      <c r="P50" s="33">
         <v>337.69900000000001</v>
       </c>
-      <c r="Q50" s="37">
+      <c r="Q50" s="33">
         <v>4.5359999999999996</v>
       </c>
     </row>
@@ -26186,52 +26477,52 @@
       <c r="A51" s="1">
         <v>47299</v>
       </c>
-      <c r="B51" s="36">
+      <c r="B51" s="32">
         <v>32872</v>
       </c>
-      <c r="C51" s="36">
+      <c r="C51" s="32">
         <v>22749.200000000001</v>
       </c>
-      <c r="D51" s="36">
+      <c r="D51" s="32">
         <v>22863.5</v>
       </c>
-      <c r="E51" s="36">
+      <c r="E51" s="32">
         <v>33008.9</v>
       </c>
-      <c r="F51" s="37">
+      <c r="F51" s="33">
         <v>140.33000000000001</v>
       </c>
-      <c r="G51" s="37">
+      <c r="G51" s="33">
         <v>144.49700000000001</v>
       </c>
-      <c r="H51" s="36">
+      <c r="H51" s="32">
         <v>22419.7</v>
       </c>
-      <c r="I51" s="36">
+      <c r="I51" s="32">
         <v>15976.3</v>
       </c>
-      <c r="J51" s="36">
+      <c r="J51" s="32">
         <v>3562.4</v>
       </c>
-      <c r="K51" s="36">
+      <c r="K51" s="32">
         <v>1375.6</v>
       </c>
-      <c r="L51" s="36">
+      <c r="L51" s="32">
         <v>2183.1999999999998</v>
       </c>
-      <c r="M51" s="36">
+      <c r="M51" s="32">
         <v>5497.1</v>
       </c>
-      <c r="N51" s="36">
+      <c r="N51" s="32">
         <v>1942.4</v>
       </c>
-      <c r="O51" s="36">
+      <c r="O51" s="32">
         <v>3554.7</v>
       </c>
-      <c r="P51" s="37">
+      <c r="P51" s="33">
         <v>339.685</v>
       </c>
-      <c r="Q51" s="37">
+      <c r="Q51" s="33">
         <v>4.5389999999999997</v>
       </c>
     </row>
@@ -26239,52 +26530,52 @@
       <c r="A52" s="1">
         <v>47391</v>
       </c>
-      <c r="B52" s="36">
+      <c r="B52" s="32">
         <v>33189.5</v>
       </c>
-      <c r="C52" s="36">
+      <c r="C52" s="32">
         <v>22849.5</v>
       </c>
-      <c r="D52" s="36">
+      <c r="D52" s="32">
         <v>22964.3</v>
       </c>
-      <c r="E52" s="36">
+      <c r="E52" s="32">
         <v>33327.300000000003</v>
       </c>
-      <c r="F52" s="37">
+      <c r="F52" s="33">
         <v>141.03800000000001</v>
       </c>
-      <c r="G52" s="37">
+      <c r="G52" s="33">
         <v>145.25200000000001</v>
       </c>
-      <c r="H52" s="36">
+      <c r="H52" s="32">
         <v>22644.6</v>
       </c>
-      <c r="I52" s="36">
+      <c r="I52" s="32">
         <v>16055.6</v>
       </c>
-      <c r="J52" s="36">
+      <c r="J52" s="32">
         <v>3566.1</v>
       </c>
-      <c r="K52" s="36">
+      <c r="K52" s="32">
         <v>1376.1</v>
       </c>
-      <c r="L52" s="36">
+      <c r="L52" s="32">
         <v>2186.1999999999998</v>
       </c>
-      <c r="M52" s="36">
+      <c r="M52" s="32">
         <v>5541.7</v>
       </c>
-      <c r="N52" s="36">
+      <c r="N52" s="32">
         <v>1954.1</v>
       </c>
-      <c r="O52" s="36">
+      <c r="O52" s="32">
         <v>3587.6</v>
       </c>
-      <c r="P52" s="37">
+      <c r="P52" s="33">
         <v>341.68200000000002</v>
       </c>
-      <c r="Q52" s="37">
+      <c r="Q52" s="33">
         <v>4.5419999999999998</v>
       </c>
     </row>
@@ -26292,52 +26583,52 @@
       <c r="A53" s="1">
         <v>47483</v>
       </c>
-      <c r="B53" s="36">
+      <c r="B53" s="32">
         <v>33509.699999999997</v>
       </c>
-      <c r="C53" s="36">
+      <c r="C53" s="32">
         <v>22949.8</v>
       </c>
-      <c r="D53" s="36">
+      <c r="D53" s="32">
         <v>23065.1</v>
       </c>
-      <c r="E53" s="36">
+      <c r="E53" s="32">
         <v>33648.400000000001</v>
       </c>
-      <c r="F53" s="37">
+      <c r="F53" s="33">
         <v>141.749</v>
       </c>
-      <c r="G53" s="37">
+      <c r="G53" s="33">
         <v>146.01300000000001</v>
       </c>
-      <c r="H53" s="36">
+      <c r="H53" s="32">
         <v>22872.2</v>
       </c>
-      <c r="I53" s="36">
+      <c r="I53" s="32">
         <v>16135.6</v>
       </c>
-      <c r="J53" s="36">
+      <c r="J53" s="32">
         <v>3569.8</v>
       </c>
-      <c r="K53" s="36">
+      <c r="K53" s="32">
         <v>1376.6</v>
       </c>
-      <c r="L53" s="36">
+      <c r="L53" s="32">
         <v>2189.4</v>
       </c>
-      <c r="M53" s="36">
+      <c r="M53" s="32">
         <v>5586.9</v>
       </c>
-      <c r="N53" s="36">
+      <c r="N53" s="32">
         <v>1965.9</v>
       </c>
-      <c r="O53" s="36">
+      <c r="O53" s="32">
         <v>3621</v>
       </c>
-      <c r="P53" s="37">
+      <c r="P53" s="33">
         <v>343.68900000000002</v>
       </c>
-      <c r="Q53" s="37">
+      <c r="Q53" s="33">
         <v>4.5460000000000003</v>
       </c>
     </row>
@@ -26345,52 +26636,52 @@
       <c r="A54" s="1">
         <v>47573</v>
       </c>
-      <c r="B54" s="36">
+      <c r="B54" s="32">
         <v>33832.400000000001</v>
       </c>
-      <c r="C54" s="36">
+      <c r="C54" s="32">
         <v>23050.2</v>
       </c>
-      <c r="D54" s="36">
+      <c r="D54" s="32">
         <v>23166</v>
       </c>
-      <c r="E54" s="36">
+      <c r="E54" s="32">
         <v>33972</v>
       </c>
-      <c r="F54" s="37">
+      <c r="F54" s="33">
         <v>142.464</v>
       </c>
-      <c r="G54" s="37">
+      <c r="G54" s="33">
         <v>146.77699999999999</v>
       </c>
-      <c r="H54" s="36">
+      <c r="H54" s="32">
         <v>23102.400000000001</v>
       </c>
-      <c r="I54" s="36">
+      <c r="I54" s="32">
         <v>16216.3</v>
       </c>
-      <c r="J54" s="36">
+      <c r="J54" s="32">
         <v>3573.6</v>
       </c>
-      <c r="K54" s="36">
+      <c r="K54" s="32">
         <v>1377.1</v>
       </c>
-      <c r="L54" s="36">
+      <c r="L54" s="32">
         <v>2192.5</v>
       </c>
-      <c r="M54" s="36">
+      <c r="M54" s="32">
         <v>5632.5</v>
       </c>
-      <c r="N54" s="36">
+      <c r="N54" s="32">
         <v>1977.8</v>
       </c>
-      <c r="O54" s="36">
+      <c r="O54" s="32">
         <v>3654.7</v>
       </c>
-      <c r="P54" s="37">
+      <c r="P54" s="33">
         <v>345.702</v>
       </c>
-      <c r="Q54" s="37">
+      <c r="Q54" s="33">
         <v>4.5490000000000004</v>
       </c>
     </row>
@@ -26398,52 +26689,52 @@
       <c r="A55" s="1">
         <v>47664</v>
       </c>
-      <c r="B55" s="36">
+      <c r="B55" s="32">
         <v>34157.599999999999</v>
       </c>
-      <c r="C55" s="36">
+      <c r="C55" s="32">
         <v>23150.799999999999</v>
       </c>
-      <c r="D55" s="36">
+      <c r="D55" s="32">
         <v>23267.1</v>
       </c>
-      <c r="E55" s="36">
+      <c r="E55" s="32">
         <v>34298.1</v>
       </c>
-      <c r="F55" s="37">
+      <c r="F55" s="33">
         <v>143.18100000000001</v>
       </c>
-      <c r="G55" s="37">
+      <c r="G55" s="33">
         <v>147.54300000000001</v>
       </c>
-      <c r="H55" s="36">
+      <c r="H55" s="32">
         <v>23337.1</v>
       </c>
-      <c r="I55" s="36">
+      <c r="I55" s="32">
         <v>16299</v>
       </c>
-      <c r="J55" s="36">
+      <c r="J55" s="32">
         <v>3577.5</v>
       </c>
-      <c r="K55" s="36">
+      <c r="K55" s="32">
         <v>1377.6</v>
       </c>
-      <c r="L55" s="36">
+      <c r="L55" s="32">
         <v>2195.6999999999998</v>
       </c>
-      <c r="M55" s="36">
+      <c r="M55" s="32">
         <v>5678.5</v>
       </c>
-      <c r="N55" s="36">
+      <c r="N55" s="32">
         <v>1989.7</v>
       </c>
-      <c r="O55" s="36">
+      <c r="O55" s="32">
         <v>3688.8</v>
       </c>
-      <c r="P55" s="37">
+      <c r="P55" s="33">
         <v>347.72300000000001</v>
       </c>
-      <c r="Q55" s="37">
+      <c r="Q55" s="33">
         <v>4.5519999999999996</v>
       </c>
     </row>
@@ -26451,52 +26742,52 @@
       <c r="A56" s="1">
         <v>47756</v>
       </c>
-      <c r="B56" s="36">
+      <c r="B56" s="32">
         <v>34485.4</v>
       </c>
-      <c r="C56" s="36">
+      <c r="C56" s="32">
         <v>23251.5</v>
       </c>
-      <c r="D56" s="36">
+      <c r="D56" s="32">
         <v>23368.3</v>
       </c>
-      <c r="E56" s="36">
+      <c r="E56" s="32">
         <v>34626.699999999997</v>
       </c>
-      <c r="F56" s="37">
+      <c r="F56" s="33">
         <v>143.90100000000001</v>
       </c>
-      <c r="G56" s="37">
+      <c r="G56" s="33">
         <v>148.31399999999999</v>
       </c>
-      <c r="H56" s="36">
+      <c r="H56" s="32">
         <v>23573.200000000001</v>
       </c>
-      <c r="I56" s="36">
+      <c r="I56" s="32">
         <v>16381.5</v>
       </c>
-      <c r="J56" s="36">
+      <c r="J56" s="32">
         <v>3581.4</v>
       </c>
-      <c r="K56" s="36">
+      <c r="K56" s="32">
         <v>1378.1</v>
       </c>
-      <c r="L56" s="36">
+      <c r="L56" s="32">
         <v>2199</v>
       </c>
-      <c r="M56" s="36">
+      <c r="M56" s="32">
         <v>5724.9</v>
       </c>
-      <c r="N56" s="36">
+      <c r="N56" s="32">
         <v>2001.7</v>
       </c>
-      <c r="O56" s="36">
+      <c r="O56" s="32">
         <v>3723.2</v>
       </c>
-      <c r="P56" s="37">
+      <c r="P56" s="33">
         <v>349.75299999999999</v>
       </c>
-      <c r="Q56" s="37">
+      <c r="Q56" s="33">
         <v>4.5540000000000003</v>
       </c>
     </row>
@@ -26504,52 +26795,52 @@
       <c r="A57" s="1">
         <v>47848</v>
       </c>
-      <c r="B57" s="36">
+      <c r="B57" s="32">
         <v>34815.699999999997</v>
       </c>
-      <c r="C57" s="36">
+      <c r="C57" s="32">
         <v>23352.400000000001</v>
       </c>
-      <c r="D57" s="36">
+      <c r="D57" s="32">
         <v>23469.7</v>
       </c>
-      <c r="E57" s="36">
+      <c r="E57" s="32">
         <v>34957.9</v>
       </c>
-      <c r="F57" s="37">
+      <c r="F57" s="33">
         <v>144.62299999999999</v>
       </c>
-      <c r="G57" s="37">
+      <c r="G57" s="33">
         <v>149.08799999999999</v>
       </c>
-      <c r="H57" s="36">
+      <c r="H57" s="32">
         <v>23810.1</v>
       </c>
-      <c r="I57" s="36">
+      <c r="I57" s="32">
         <v>16463.5</v>
       </c>
-      <c r="J57" s="36">
+      <c r="J57" s="32">
         <v>3585.2</v>
       </c>
-      <c r="K57" s="36">
+      <c r="K57" s="32">
         <v>1378.5</v>
       </c>
-      <c r="L57" s="36">
+      <c r="L57" s="32">
         <v>2202.1999999999998</v>
       </c>
-      <c r="M57" s="36">
+      <c r="M57" s="32">
         <v>5771.7</v>
       </c>
-      <c r="N57" s="36">
+      <c r="N57" s="32">
         <v>2013.7</v>
       </c>
-      <c r="O57" s="36">
+      <c r="O57" s="32">
         <v>3758</v>
       </c>
-      <c r="P57" s="37">
+      <c r="P57" s="33">
         <v>351.78899999999999</v>
       </c>
-      <c r="Q57" s="37">
+      <c r="Q57" s="33">
         <v>4.5579999999999998</v>
       </c>
     </row>
@@ -26557,52 +26848,52 @@
       <c r="A58" s="1">
         <v>47938</v>
       </c>
-      <c r="B58" s="36">
+      <c r="B58" s="32">
         <v>35148.6</v>
       </c>
-      <c r="C58" s="36">
+      <c r="C58" s="32">
         <v>23453.5</v>
       </c>
-      <c r="D58" s="36">
+      <c r="D58" s="32">
         <v>23571.200000000001</v>
       </c>
-      <c r="E58" s="36">
+      <c r="E58" s="32">
         <v>35291.800000000003</v>
       </c>
-      <c r="F58" s="37">
+      <c r="F58" s="33">
         <v>145.34899999999999</v>
       </c>
-      <c r="G58" s="37">
+      <c r="G58" s="33">
         <v>149.86500000000001</v>
       </c>
-      <c r="H58" s="36">
+      <c r="H58" s="32">
         <v>24050.400000000001</v>
       </c>
-      <c r="I58" s="36">
+      <c r="I58" s="32">
         <v>16546.599999999999</v>
       </c>
-      <c r="J58" s="36">
+      <c r="J58" s="32">
         <v>3589</v>
       </c>
-      <c r="K58" s="36">
+      <c r="K58" s="32">
         <v>1378.8</v>
       </c>
-      <c r="L58" s="36">
+      <c r="L58" s="32">
         <v>2205.5</v>
       </c>
-      <c r="M58" s="36">
+      <c r="M58" s="32">
         <v>5818.8</v>
       </c>
-      <c r="N58" s="36">
+      <c r="N58" s="32">
         <v>2025.5</v>
       </c>
-      <c r="O58" s="36">
+      <c r="O58" s="32">
         <v>3793.3</v>
       </c>
-      <c r="P58" s="37">
+      <c r="P58" s="33">
         <v>353.83199999999999</v>
       </c>
-      <c r="Q58" s="37">
+      <c r="Q58" s="33">
         <v>4.5510000000000002</v>
       </c>
     </row>
@@ -26610,52 +26901,52 @@
       <c r="A59" s="1">
         <v>48029</v>
       </c>
-      <c r="B59" s="36">
+      <c r="B59" s="32">
         <v>35484.1</v>
       </c>
-      <c r="C59" s="36">
+      <c r="C59" s="32">
         <v>23554.7</v>
       </c>
-      <c r="D59" s="36">
+      <c r="D59" s="32">
         <v>23672.9</v>
       </c>
-      <c r="E59" s="36">
+      <c r="E59" s="32">
         <v>35628.199999999997</v>
       </c>
-      <c r="F59" s="37">
+      <c r="F59" s="33">
         <v>146.077</v>
       </c>
-      <c r="G59" s="37">
+      <c r="G59" s="33">
         <v>150.64500000000001</v>
       </c>
-      <c r="H59" s="36">
+      <c r="H59" s="32">
         <v>24294.799999999999</v>
       </c>
-      <c r="I59" s="36">
+      <c r="I59" s="32">
         <v>16631.400000000001</v>
       </c>
-      <c r="J59" s="36">
+      <c r="J59" s="32">
         <v>3592.7</v>
       </c>
-      <c r="K59" s="36">
+      <c r="K59" s="32">
         <v>1379.1</v>
       </c>
-      <c r="L59" s="36">
+      <c r="L59" s="32">
         <v>2208.8000000000002</v>
       </c>
-      <c r="M59" s="36">
+      <c r="M59" s="32">
         <v>5866.1</v>
       </c>
-      <c r="N59" s="36">
+      <c r="N59" s="32">
         <v>2037.4</v>
       </c>
-      <c r="O59" s="36">
+      <c r="O59" s="32">
         <v>3828.7</v>
       </c>
-      <c r="P59" s="37">
+      <c r="P59" s="33">
         <v>355.88499999999999</v>
       </c>
-      <c r="Q59" s="37">
+      <c r="Q59" s="33">
         <v>4.5439999999999996</v>
       </c>
     </row>
@@ -26663,52 +26954,52 @@
       <c r="A60" s="1">
         <v>48121</v>
       </c>
-      <c r="B60" s="36">
+      <c r="B60" s="32">
         <v>35822</v>
       </c>
-      <c r="C60" s="36">
+      <c r="C60" s="32">
         <v>23656</v>
       </c>
-      <c r="D60" s="36">
+      <c r="D60" s="32">
         <v>23774.799999999999</v>
       </c>
-      <c r="E60" s="36">
+      <c r="E60" s="32">
         <v>35967</v>
       </c>
-      <c r="F60" s="37">
+      <c r="F60" s="33">
         <v>146.80799999999999</v>
       </c>
-      <c r="G60" s="37">
+      <c r="G60" s="33">
         <v>151.428</v>
       </c>
-      <c r="H60" s="36">
+      <c r="H60" s="32">
         <v>24540.400000000001</v>
       </c>
-      <c r="I60" s="36">
+      <c r="I60" s="32">
         <v>16716</v>
       </c>
-      <c r="J60" s="36">
+      <c r="J60" s="32">
         <v>3596.4</v>
       </c>
-      <c r="K60" s="36">
+      <c r="K60" s="32">
         <v>1379.3</v>
       </c>
-      <c r="L60" s="36">
+      <c r="L60" s="32">
         <v>2212.1</v>
       </c>
-      <c r="M60" s="36">
+      <c r="M60" s="32">
         <v>5913.9</v>
       </c>
-      <c r="N60" s="36">
+      <c r="N60" s="32">
         <v>2049.4</v>
       </c>
-      <c r="O60" s="36">
+      <c r="O60" s="32">
         <v>3864.5</v>
       </c>
-      <c r="P60" s="37">
+      <c r="P60" s="33">
         <v>357.94499999999999</v>
       </c>
-      <c r="Q60" s="37">
+      <c r="Q60" s="33">
         <v>4.5380000000000003</v>
       </c>
     </row>
@@ -26716,52 +27007,52 @@
       <c r="A61" s="1">
         <v>48213</v>
       </c>
-      <c r="B61" s="36">
+      <c r="B61" s="32">
         <v>36162.400000000001</v>
       </c>
-      <c r="C61" s="36">
+      <c r="C61" s="32">
         <v>23757.5</v>
       </c>
-      <c r="D61" s="36">
+      <c r="D61" s="32">
         <v>23876.7</v>
       </c>
-      <c r="E61" s="36">
+      <c r="E61" s="32">
         <v>36308.300000000003</v>
       </c>
-      <c r="F61" s="37">
+      <c r="F61" s="33">
         <v>147.541</v>
       </c>
-      <c r="G61" s="37">
+      <c r="G61" s="33">
         <v>152.214</v>
       </c>
-      <c r="H61" s="36">
+      <c r="H61" s="32">
         <v>24787.5</v>
       </c>
-      <c r="I61" s="36">
+      <c r="I61" s="32">
         <v>16800.400000000001</v>
       </c>
-      <c r="J61" s="36">
+      <c r="J61" s="32">
         <v>3600.1</v>
       </c>
-      <c r="K61" s="36">
+      <c r="K61" s="32">
         <v>1379.6</v>
       </c>
-      <c r="L61" s="36">
+      <c r="L61" s="32">
         <v>2215.3000000000002</v>
       </c>
-      <c r="M61" s="36">
+      <c r="M61" s="32">
         <v>5962</v>
       </c>
-      <c r="N61" s="36">
+      <c r="N61" s="32">
         <v>2061.4</v>
       </c>
-      <c r="O61" s="36">
+      <c r="O61" s="32">
         <v>3900.6</v>
       </c>
-      <c r="P61" s="37">
+      <c r="P61" s="33">
         <v>360.01299999999998</v>
       </c>
-      <c r="Q61" s="37">
+      <c r="Q61" s="33">
         <v>4.5309999999999997</v>
       </c>
     </row>
@@ -26769,52 +27060,52 @@
       <c r="A62" s="1">
         <v>48304</v>
       </c>
-      <c r="B62" s="36">
+      <c r="B62" s="32">
         <v>36505.5</v>
       </c>
-      <c r="C62" s="36">
+      <c r="C62" s="32">
         <v>23859.200000000001</v>
       </c>
-      <c r="D62" s="36">
+      <c r="D62" s="32">
         <v>23978.9</v>
       </c>
-      <c r="E62" s="36">
+      <c r="E62" s="32">
         <v>36652.300000000003</v>
       </c>
-      <c r="F62" s="37">
+      <c r="F62" s="33">
         <v>148.27699999999999</v>
       </c>
-      <c r="G62" s="37">
+      <c r="G62" s="33">
         <v>153.00299999999999</v>
       </c>
-      <c r="H62" s="36">
+      <c r="H62" s="32">
         <v>25037.8</v>
       </c>
-      <c r="I62" s="36">
+      <c r="I62" s="32">
         <v>16885.8</v>
       </c>
-      <c r="J62" s="36">
+      <c r="J62" s="32">
         <v>3603.8</v>
       </c>
-      <c r="K62" s="36">
+      <c r="K62" s="32">
         <v>1379.8</v>
       </c>
-      <c r="L62" s="36">
+      <c r="L62" s="32">
         <v>2218.6</v>
       </c>
-      <c r="M62" s="36">
+      <c r="M62" s="32">
         <v>6010.5</v>
       </c>
-      <c r="N62" s="36">
+      <c r="N62" s="32">
         <v>2073.5</v>
       </c>
-      <c r="O62" s="36">
+      <c r="O62" s="32">
         <v>3937</v>
       </c>
-      <c r="P62" s="37">
+      <c r="P62" s="33">
         <v>362.09</v>
       </c>
-      <c r="Q62" s="37">
+      <c r="Q62" s="33">
         <v>4.524</v>
       </c>
     </row>
@@ -26822,52 +27113,52 @@
       <c r="A63" s="1">
         <v>48395</v>
       </c>
-      <c r="B63" s="36">
+      <c r="B63" s="32">
         <v>36851.1</v>
       </c>
-      <c r="C63" s="36">
+      <c r="C63" s="32">
         <v>23961.1</v>
       </c>
-      <c r="D63" s="36">
+      <c r="D63" s="32">
         <v>24081.3</v>
       </c>
-      <c r="E63" s="36">
+      <c r="E63" s="32">
         <v>36998.800000000003</v>
       </c>
-      <c r="F63" s="37">
+      <c r="F63" s="33">
         <v>149.01499999999999</v>
       </c>
-      <c r="G63" s="37">
+      <c r="G63" s="33">
         <v>153.79499999999999</v>
       </c>
-      <c r="H63" s="36">
+      <c r="H63" s="32">
         <v>25289.4</v>
       </c>
-      <c r="I63" s="36">
+      <c r="I63" s="32">
         <v>16971.099999999999</v>
       </c>
-      <c r="J63" s="36">
+      <c r="J63" s="32">
         <v>3607.6</v>
       </c>
-      <c r="K63" s="36">
+      <c r="K63" s="32">
         <v>1380.1</v>
       </c>
-      <c r="L63" s="36">
+      <c r="L63" s="32">
         <v>2221.9</v>
       </c>
-      <c r="M63" s="36">
+      <c r="M63" s="32">
         <v>6059.5</v>
       </c>
-      <c r="N63" s="36">
+      <c r="N63" s="32">
         <v>2085.6999999999998</v>
       </c>
-      <c r="O63" s="36">
+      <c r="O63" s="32">
         <v>3973.8</v>
       </c>
-      <c r="P63" s="37">
+      <c r="P63" s="33">
         <v>364.17700000000002</v>
       </c>
-      <c r="Q63" s="37">
+      <c r="Q63" s="33">
         <v>4.5170000000000003</v>
       </c>
     </row>
@@ -26875,52 +27166,52 @@
       <c r="A64" s="1">
         <v>48487</v>
       </c>
-      <c r="B64" s="36">
+      <c r="B64" s="32">
         <v>37199.1</v>
       </c>
-      <c r="C64" s="36">
+      <c r="C64" s="32">
         <v>24063</v>
       </c>
-      <c r="D64" s="36">
+      <c r="D64" s="32">
         <v>24183.7</v>
       </c>
-      <c r="E64" s="36">
+      <c r="E64" s="32">
         <v>37347.699999999997</v>
       </c>
-      <c r="F64" s="37">
+      <c r="F64" s="33">
         <v>149.755</v>
       </c>
-      <c r="G64" s="37">
+      <c r="G64" s="33">
         <v>154.59</v>
       </c>
-      <c r="H64" s="36">
+      <c r="H64" s="32">
         <v>25543.3</v>
       </c>
-      <c r="I64" s="36">
+      <c r="I64" s="32">
         <v>17056.599999999999</v>
       </c>
-      <c r="J64" s="36">
+      <c r="J64" s="32">
         <v>3611.4</v>
       </c>
-      <c r="K64" s="36">
+      <c r="K64" s="32">
         <v>1380.4</v>
       </c>
-      <c r="L64" s="36">
+      <c r="L64" s="32">
         <v>2225.1999999999998</v>
       </c>
-      <c r="M64" s="36">
+      <c r="M64" s="32">
         <v>6108.9</v>
       </c>
-      <c r="N64" s="36">
+      <c r="N64" s="32">
         <v>2097.9</v>
       </c>
-      <c r="O64" s="36">
+      <c r="O64" s="32">
         <v>4010.9</v>
       </c>
-      <c r="P64" s="37">
+      <c r="P64" s="33">
         <v>366.274</v>
       </c>
-      <c r="Q64" s="37">
+      <c r="Q64" s="33">
         <v>4.51</v>
       </c>
     </row>
@@ -26928,58 +27219,58 @@
       <c r="A65" s="1">
         <v>48579</v>
       </c>
-      <c r="B65" s="36">
+      <c r="B65" s="32">
         <v>37549.5</v>
       </c>
-      <c r="C65" s="36">
+      <c r="C65" s="32">
         <v>24164.9</v>
       </c>
-      <c r="D65" s="36">
+      <c r="D65" s="32">
         <v>24286.1</v>
       </c>
-      <c r="E65" s="36">
+      <c r="E65" s="32">
         <v>37699</v>
       </c>
-      <c r="F65" s="37">
+      <c r="F65" s="33">
         <v>150.499</v>
       </c>
-      <c r="G65" s="37">
+      <c r="G65" s="33">
         <v>155.38800000000001</v>
       </c>
-      <c r="H65" s="36">
+      <c r="H65" s="32">
         <v>25797.9</v>
       </c>
-      <c r="I65" s="36">
+      <c r="I65" s="32">
         <v>17141.599999999999</v>
       </c>
-      <c r="J65" s="36">
+      <c r="J65" s="32">
         <v>3615.3</v>
       </c>
-      <c r="K65" s="36">
+      <c r="K65" s="32">
         <v>1380.8</v>
       </c>
-      <c r="L65" s="36">
+      <c r="L65" s="32">
         <v>2228.6</v>
       </c>
-      <c r="M65" s="36">
+      <c r="M65" s="32">
         <v>6158.9</v>
       </c>
-      <c r="N65" s="36">
+      <c r="N65" s="32">
         <v>2110.6</v>
       </c>
-      <c r="O65" s="36">
+      <c r="O65" s="32">
         <v>4048.4</v>
       </c>
-      <c r="P65" s="37">
+      <c r="P65" s="33">
         <v>368.38</v>
       </c>
-      <c r="Q65" s="37">
+      <c r="Q65" s="33">
         <v>4.5030000000000001</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="I66" s="38"/>
-      <c r="L66" s="38"/>
+      <c r="I66" s="34"/>
+      <c r="L66" s="34"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -26988,10 +27279,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77260E8A-45C6-C74E-A071-E1E958901B15}">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="107" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+    <sheetView zoomScale="107" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -27164,29 +27455,29 @@
       <c r="A6">
         <v>2021</v>
       </c>
-      <c r="B6" s="24">
-        <v>2675.6800560000001</v>
-      </c>
-      <c r="C6" s="25">
-        <v>1698.961</v>
-      </c>
-      <c r="D6" s="25">
-        <v>317.62599999999998</v>
-      </c>
-      <c r="E6" s="25">
-        <v>164.04599999999999</v>
-      </c>
-      <c r="F6" s="25">
-        <v>1325.337</v>
-      </c>
-      <c r="G6" s="25">
-        <v>830.23699999999997</v>
-      </c>
-      <c r="H6" s="25">
-        <v>507.26100000000002</v>
-      </c>
-      <c r="I6" s="25">
-        <v>242.08699999999999</v>
+      <c r="B6" s="43">
+        <v>3460.683</v>
+      </c>
+      <c r="C6" s="42">
+        <v>2044.377</v>
+      </c>
+      <c r="D6" s="42">
+        <v>316.81599999999997</v>
+      </c>
+      <c r="E6" s="42">
+        <v>371.83100000000002</v>
+      </c>
+      <c r="F6" s="42">
+        <v>1314.088</v>
+      </c>
+      <c r="G6" s="42">
+        <v>867.67600000000004</v>
+      </c>
+      <c r="H6" s="42">
+        <v>520.58799999999997</v>
+      </c>
+      <c r="I6" s="42">
+        <v>391.74700000000001</v>
       </c>
       <c r="J6" s="23">
         <v>59.15</v>
@@ -27196,29 +27487,29 @@
       <c r="A7">
         <v>2022</v>
       </c>
-      <c r="B7" s="24">
-        <v>2725.1688960000001</v>
-      </c>
-      <c r="C7" s="25">
-        <v>2040.5219999999999</v>
-      </c>
-      <c r="D7" s="25">
-        <v>350.88200000000001</v>
-      </c>
-      <c r="E7" s="25">
-        <v>251.98500000000001</v>
-      </c>
-      <c r="F7" s="25">
-        <v>1351.277</v>
-      </c>
-      <c r="G7" s="25">
-        <v>942.86400000000003</v>
-      </c>
-      <c r="H7" s="25">
-        <v>514.14599999999996</v>
-      </c>
-      <c r="I7" s="25">
-        <v>40.164000000000001</v>
+      <c r="B7" s="43">
+        <v>2820.0129999999999</v>
+      </c>
+      <c r="C7" s="42">
+        <v>2622.5050000000001</v>
+      </c>
+      <c r="D7" s="42">
+        <v>354.14499999999998</v>
+      </c>
+      <c r="E7" s="42">
+        <v>394.8</v>
+      </c>
+      <c r="F7" s="42">
+        <v>1464.5930000000001</v>
+      </c>
+      <c r="G7" s="42">
+        <v>941.351</v>
+      </c>
+      <c r="H7" s="42">
+        <v>589.25400000000002</v>
+      </c>
+      <c r="I7" s="42">
+        <v>39.683999999999997</v>
       </c>
       <c r="J7" s="23">
         <v>38.14</v>
@@ -27228,29 +27519,29 @@
       <c r="A8">
         <v>2023</v>
       </c>
-      <c r="B8" s="24">
-        <v>2789.7678000000001</v>
-      </c>
-      <c r="C8" s="25">
-        <v>2084.1019999999999</v>
-      </c>
-      <c r="D8" s="25">
-        <v>361.96100000000001</v>
-      </c>
-      <c r="E8" s="25">
-        <v>303.99599999999998</v>
-      </c>
-      <c r="F8" s="25">
-        <v>1452.09</v>
-      </c>
-      <c r="G8" s="25">
-        <v>1017.717</v>
-      </c>
-      <c r="H8" s="25">
-        <v>491.86900000000003</v>
-      </c>
-      <c r="I8" s="25">
-        <v>37.088999999999999</v>
+      <c r="B8" s="43">
+        <v>2797.576</v>
+      </c>
+      <c r="C8" s="42">
+        <v>2578.828</v>
+      </c>
+      <c r="D8" s="42">
+        <v>282.96600000000001</v>
+      </c>
+      <c r="E8" s="42">
+        <v>456.12900000000002</v>
+      </c>
+      <c r="F8" s="42">
+        <v>1571.68</v>
+      </c>
+      <c r="G8" s="42">
+        <v>1008.7670000000001</v>
+      </c>
+      <c r="H8" s="42">
+        <v>601.34799999999996</v>
+      </c>
+      <c r="I8" s="42">
+        <v>29.963000000000001</v>
       </c>
       <c r="J8" s="23">
         <v>36.145000000000003</v>
@@ -27260,29 +27551,29 @@
       <c r="A9">
         <v>2024</v>
       </c>
-      <c r="B9" s="24">
-        <v>2862.2467660000002</v>
-      </c>
-      <c r="C9" s="25">
-        <v>2138.5259999999998</v>
-      </c>
-      <c r="D9" s="25">
-        <v>378.53399999999999</v>
-      </c>
-      <c r="E9" s="25">
-        <v>328.43299999999999</v>
-      </c>
-      <c r="F9" s="25">
-        <v>1506.7819999999999</v>
-      </c>
-      <c r="G9" s="25">
-        <v>1047.1569999999999</v>
-      </c>
-      <c r="H9" s="25">
-        <v>503.505</v>
-      </c>
-      <c r="I9" s="25">
-        <v>36.167000000000002</v>
+      <c r="B9" s="43">
+        <v>2950.2380000000003</v>
+      </c>
+      <c r="C9" s="42">
+        <v>2541.6950000000002</v>
+      </c>
+      <c r="D9" s="42">
+        <v>279.18700000000001</v>
+      </c>
+      <c r="E9" s="42">
+        <v>478.02100000000002</v>
+      </c>
+      <c r="F9" s="42">
+        <v>1624.982</v>
+      </c>
+      <c r="G9" s="42">
+        <v>1085.711</v>
+      </c>
+      <c r="H9" s="42">
+        <v>545.42499999999995</v>
+      </c>
+      <c r="I9" s="42">
+        <v>33.764000000000003</v>
       </c>
       <c r="J9" s="23">
         <v>35.369999999999997</v>
@@ -27292,29 +27583,29 @@
       <c r="A10">
         <v>2025</v>
       </c>
-      <c r="B10" s="24">
-        <v>3076.7846719999998</v>
-      </c>
-      <c r="C10" s="25">
-        <v>2227.5610000000001</v>
-      </c>
-      <c r="D10" s="25">
-        <v>365.35899999999998</v>
-      </c>
-      <c r="E10" s="25">
-        <v>355.43400000000003</v>
-      </c>
-      <c r="F10" s="25">
-        <v>1558.3019999999999</v>
-      </c>
-      <c r="G10" s="25">
-        <v>1171.548</v>
-      </c>
-      <c r="H10" s="25">
-        <v>533.43499999999995</v>
-      </c>
-      <c r="I10" s="25">
-        <v>34.216999999999999</v>
+      <c r="B10" s="43">
+        <v>3121.6370000000002</v>
+      </c>
+      <c r="C10" s="42">
+        <v>2539.1210000000001</v>
+      </c>
+      <c r="D10" s="42">
+        <v>290.19799999999998</v>
+      </c>
+      <c r="E10" s="42">
+        <v>483.15800000000002</v>
+      </c>
+      <c r="F10" s="42">
+        <v>1669.0419999999999</v>
+      </c>
+      <c r="G10" s="42">
+        <v>1165.28</v>
+      </c>
+      <c r="H10" s="42">
+        <v>547.125</v>
+      </c>
+      <c r="I10" s="42">
+        <v>36.093000000000004</v>
       </c>
       <c r="J10" s="23">
         <v>33.424999999999997</v>
@@ -27324,29 +27615,29 @@
       <c r="A11">
         <v>2026</v>
       </c>
-      <c r="B11" s="24">
-        <v>3236.1370160000001</v>
-      </c>
-      <c r="C11" s="25">
-        <v>2479.105</v>
-      </c>
-      <c r="D11" s="25">
-        <v>353.93799999999999</v>
-      </c>
-      <c r="E11" s="25">
-        <v>365.29700000000003</v>
-      </c>
-      <c r="F11" s="25">
-        <v>1618.9469999999999</v>
-      </c>
-      <c r="G11" s="25">
-        <v>1256.192</v>
-      </c>
-      <c r="H11" s="25">
-        <v>563.24099999999999</v>
-      </c>
-      <c r="I11" s="25">
-        <v>33.183999999999997</v>
+      <c r="B11" s="43">
+        <v>3312.8409999999999</v>
+      </c>
+      <c r="C11" s="42">
+        <v>2770.9430000000002</v>
+      </c>
+      <c r="D11" s="42">
+        <v>310.27800000000002</v>
+      </c>
+      <c r="E11" s="42">
+        <v>472.99400000000003</v>
+      </c>
+      <c r="F11" s="42">
+        <v>1725.508</v>
+      </c>
+      <c r="G11" s="42">
+        <v>1262.203</v>
+      </c>
+      <c r="H11" s="42">
+        <v>577.846</v>
+      </c>
+      <c r="I11" s="42">
+        <v>38.706000000000003</v>
       </c>
       <c r="J11" s="23">
         <v>32.450000000000003</v>
@@ -27356,29 +27647,29 @@
       <c r="A12">
         <v>2027</v>
       </c>
-      <c r="B12" s="24">
-        <v>3385.882263</v>
-      </c>
-      <c r="C12" s="25">
-        <v>2697.9229999999998</v>
-      </c>
-      <c r="D12" s="25">
-        <v>365.00299999999999</v>
-      </c>
-      <c r="E12" s="25">
-        <v>360.97699999999998</v>
-      </c>
-      <c r="F12" s="25">
-        <v>1672.973</v>
-      </c>
-      <c r="G12" s="25">
-        <v>1348.1610000000001</v>
-      </c>
-      <c r="H12" s="25">
-        <v>597.41200000000003</v>
-      </c>
-      <c r="I12" s="25">
-        <v>33.901000000000003</v>
+      <c r="B12" s="43">
+        <v>3489.6079999999997</v>
+      </c>
+      <c r="C12" s="42">
+        <v>2969.5929999999998</v>
+      </c>
+      <c r="D12" s="42">
+        <v>335.54300000000001</v>
+      </c>
+      <c r="E12" s="42">
+        <v>456.85199999999998</v>
+      </c>
+      <c r="F12" s="42">
+        <v>1786.4459999999999</v>
+      </c>
+      <c r="G12" s="42">
+        <v>1360.3689999999999</v>
+      </c>
+      <c r="H12" s="42">
+        <v>607.851</v>
+      </c>
+      <c r="I12" s="42">
+        <v>40.206000000000003</v>
       </c>
       <c r="J12" s="23">
         <v>33.164999999999999</v>
@@ -27388,29 +27679,29 @@
       <c r="A13">
         <v>2028</v>
       </c>
-      <c r="B13" s="24">
-        <v>3654.9385870000001</v>
-      </c>
-      <c r="C13" s="25">
-        <v>2782.221</v>
-      </c>
-      <c r="D13" s="25">
-        <v>362.74099999999999</v>
-      </c>
-      <c r="E13" s="25">
-        <v>368.625</v>
-      </c>
-      <c r="F13" s="25">
-        <v>1729.1780000000001</v>
-      </c>
-      <c r="G13" s="25">
-        <v>1516.3989999999999</v>
-      </c>
-      <c r="H13" s="25">
-        <v>631.86</v>
-      </c>
-      <c r="I13" s="25">
-        <v>35.832000000000001</v>
+      <c r="B13" s="43">
+        <v>3698.8889999999997</v>
+      </c>
+      <c r="C13" s="42">
+        <v>3049.3029999999999</v>
+      </c>
+      <c r="D13" s="42">
+        <v>351.88</v>
+      </c>
+      <c r="E13" s="42">
+        <v>461.02300000000002</v>
+      </c>
+      <c r="F13" s="42">
+        <v>1853.4290000000001</v>
+      </c>
+      <c r="G13" s="42">
+        <v>1461.5450000000001</v>
+      </c>
+      <c r="H13" s="42">
+        <v>639.17700000000002</v>
+      </c>
+      <c r="I13" s="42">
+        <v>43.817</v>
       </c>
       <c r="J13" s="23">
         <v>35.090000000000003</v>
@@ -27420,29 +27711,29 @@
       <c r="A14">
         <v>2029</v>
       </c>
-      <c r="B14" s="24">
-        <v>3651.8353670000001</v>
-      </c>
-      <c r="C14" s="25">
-        <v>2882.0140000000001</v>
-      </c>
-      <c r="D14" s="25">
-        <v>359.91500000000002</v>
-      </c>
-      <c r="E14" s="25">
-        <v>377.49</v>
-      </c>
-      <c r="F14" s="25">
-        <v>1788.18</v>
-      </c>
-      <c r="G14" s="25">
-        <v>1475.1320000000001</v>
-      </c>
-      <c r="H14" s="25">
-        <v>667.45500000000004</v>
-      </c>
-      <c r="I14" s="25">
-        <v>37.915999999999997</v>
+      <c r="B14" s="43">
+        <v>3909.2000000000007</v>
+      </c>
+      <c r="C14" s="42">
+        <v>3169.9630000000002</v>
+      </c>
+      <c r="D14" s="42">
+        <v>370.37900000000002</v>
+      </c>
+      <c r="E14" s="42">
+        <v>470.43400000000003</v>
+      </c>
+      <c r="F14" s="42">
+        <v>1923.1959999999999</v>
+      </c>
+      <c r="G14" s="42">
+        <v>1559.3230000000001</v>
+      </c>
+      <c r="H14" s="42">
+        <v>671.87</v>
+      </c>
+      <c r="I14" s="42">
+        <v>46.652000000000001</v>
       </c>
       <c r="J14" s="23">
         <v>37.164999999999999</v>
@@ -27452,29 +27743,29 @@
       <c r="A15">
         <v>2030</v>
       </c>
-      <c r="B15" s="24">
-        <v>3932.6238069999999</v>
-      </c>
-      <c r="C15" s="25">
-        <v>2985.3470000000002</v>
-      </c>
-      <c r="D15" s="25">
-        <v>357.32900000000001</v>
-      </c>
-      <c r="E15" s="25">
-        <v>385.48599999999999</v>
-      </c>
-      <c r="F15" s="25">
-        <v>1848.9970000000001</v>
-      </c>
-      <c r="G15" s="25">
-        <v>1642.68</v>
-      </c>
-      <c r="H15" s="25">
-        <v>705.01099999999997</v>
-      </c>
-      <c r="I15" s="25">
-        <v>40.545000000000002</v>
+      <c r="B15" s="43">
+        <v>4136.3910000000005</v>
+      </c>
+      <c r="C15" s="42">
+        <v>3300.931</v>
+      </c>
+      <c r="D15" s="42">
+        <v>384.83100000000002</v>
+      </c>
+      <c r="E15" s="42">
+        <v>480.08300000000003</v>
+      </c>
+      <c r="F15" s="42">
+        <v>1995.49</v>
+      </c>
+      <c r="G15" s="42">
+        <v>1672.029</v>
+      </c>
+      <c r="H15" s="42">
+        <v>708.27200000000005</v>
+      </c>
+      <c r="I15" s="42">
+        <v>48.414000000000001</v>
       </c>
       <c r="J15" s="23">
         <v>39.784999999999997</v>
@@ -27484,33 +27775,76 @@
       <c r="A16">
         <v>2031</v>
       </c>
-      <c r="B16" s="24">
-        <v>3932.6238069999999</v>
-      </c>
-      <c r="C16" s="25">
-        <v>3096.473</v>
-      </c>
-      <c r="D16" s="25">
-        <v>367.358</v>
-      </c>
-      <c r="E16" s="25">
-        <v>392.95400000000001</v>
-      </c>
-      <c r="F16" s="25">
-        <v>1914.1849999999999</v>
-      </c>
-      <c r="G16" s="25">
-        <v>1781.768</v>
-      </c>
-      <c r="H16" s="25">
-        <v>744.03499999999997</v>
-      </c>
-      <c r="I16" s="25">
-        <v>45.503</v>
+      <c r="B16" s="43">
+        <v>4361.9230000000007</v>
+      </c>
+      <c r="C16" s="42">
+        <v>3435.5259999999998</v>
+      </c>
+      <c r="D16" s="42">
+        <v>403.47</v>
+      </c>
+      <c r="E16" s="42">
+        <v>491.02199999999999</v>
+      </c>
+      <c r="F16" s="42">
+        <v>2071.7869999999998</v>
+      </c>
+      <c r="G16" s="42">
+        <v>1782.018</v>
+      </c>
+      <c r="H16" s="42">
+        <v>748.83299999999997</v>
+      </c>
+      <c r="I16" s="42">
+        <v>50.064</v>
       </c>
       <c r="J16" s="23">
         <v>44.73</v>
       </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>2032</v>
+      </c>
+      <c r="B17" s="43">
+        <v>4630.4039999999995</v>
+      </c>
+      <c r="C17" s="42">
+        <v>3582.4940000000001</v>
+      </c>
+      <c r="D17" s="42">
+        <v>424.18400000000003</v>
+      </c>
+      <c r="E17" s="42">
+        <v>505.16</v>
+      </c>
+      <c r="F17" s="42">
+        <v>2150.2310000000002</v>
+      </c>
+      <c r="G17" s="42">
+        <v>1929.3679999999999</v>
+      </c>
+      <c r="H17" s="42">
+        <v>789.40700000000004</v>
+      </c>
+      <c r="I17" s="42">
+        <v>51.475000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B24" s="43"/>
+      <c r="C24" s="43"/>
+      <c r="D24" s="43"/>
+      <c r="E24" s="43"/>
+      <c r="F24" s="43"/>
+      <c r="G24" s="43"/>
+      <c r="H24" s="43"/>
+      <c r="I24" s="43"/>
+      <c r="J24" s="43"/>
+      <c r="K24" s="43"/>
+      <c r="L24" s="43"/>
+      <c r="M24" s="43"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -27521,8 +27855,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34DE4D24-926E-5240-89B6-F8FE59F1901D}">
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/inst/extdata/projections.xlsx
+++ b/inst/extdata/projections.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nsalwati\Downloads\Hutchins Fiscal Impact Measure\fim\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F0D213E1-11F1-4D06-9944-E15B378E3F94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45F6F29A-50CE-4323-9116-95E5969FD3E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dictionary" sheetId="10" r:id="rId1"/>
     <sheet name="pre-pandemic economic" sheetId="9" r:id="rId2"/>
-    <sheet name="economic" sheetId="1" r:id="rId3"/>
+    <sheet name="economic" sheetId="11" r:id="rId3"/>
     <sheet name="budget" sheetId="3" r:id="rId4"/>
     <sheet name="quarterly fmap" sheetId="7" r:id="rId5"/>
     <sheet name="annual fmap" sheetId="8" r:id="rId6"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="273">
   <si>
     <t>date</t>
   </si>
@@ -724,54 +724,6 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>gdp, "Output", "Gross Domestic Product (GDP)", NA,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    "gdph", "Output", "Real GDP", NA,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    "gdppotq", "Potential GDP and Its Components", "Potential GDP", NA,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    "gdppothq", "Potential GDP and Its Components", "Real Potential GDP", NA,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    "dc", "Prices", "Price Index, Personal Consumption Expenditures (PCE)", NA,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    "cpiu", "Prices", "Consumer Price Index, All Urban Consumers (CPI-U)", NA,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    "jgdp", "Prices", "GDP Price Index", NA,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    "unemployment_rate", "Labor", "Unemployment Rate, Civilian, 16 Years or Older", NA,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    "c", "Components of GDP (Nominal)", "Personal Consumption Expenditures", NA,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    "g", "Components of GDP (Nominal)", "Government Consumption Expenditures and Gross Investment", NA,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    "gf", "Components of GDP (Nominal)", "Government Consumption Expenditures and Gross Investment", "Federal",</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    "gs", "Components of GDP (Nominal)", "Government Consumption Expenditures and Gross Investment", "State and local ",</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    "ch", "Components of GDP (Real)", "Personal Consumption Expenditures", NA,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    "gh", "Components of GDP (Real)", "Government Consumption Expenditures and Gross Investment", NA,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    "gfh", "Components of GDP (Real)", "Government Consumption Expenditures and Gross Investment", "Federal",</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    "gsh", "Components of GDP (Real)", "Government Consumption Expenditures and Gross Investment", "State and local "</t>
-  </si>
-  <si>
     <t xml:space="preserve">Economic 10 yr Projection, Quarterly </t>
   </si>
   <si>
@@ -827,6 +779,120 @@
   </si>
   <si>
     <t>Revenues;Other</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "Output"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "Gross Domestic Product (GDP)"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "Real GDP"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "Potential GDP and Its Components"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "Potential GDP"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "gdppothq"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "Real Potential GDP"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "dc"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "Prices"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "Price Index</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Personal Consumption Expenditures (PCE)"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "cpiu"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "Consumer Price Index</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> All Urban Consumers (CPI-U)"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "jgdp"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "GDP Price Index"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "unemployment_rate"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "Labor"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "Unemployment Rate</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Civilian</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 16 Years or Older"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "c"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "Components of GDP (Nominal)"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "Personal Consumption Expenditures"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "g"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "Government Consumption Expenditures and Gross Investment"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "gf"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "Federal"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "gs"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "State and local "</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "ch"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "Components of GDP (Real)"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "gh"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "gfh"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "gsh"</t>
+  </si>
+  <si>
+    <t>"gdph"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "gdppotq"</t>
   </si>
 </sst>
 </file>
@@ -1441,7 +1507,7 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="43" applyFont="1"/>
@@ -1481,6 +1547,23 @@
     <xf numFmtId="1" fontId="19" fillId="36" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="19" fillId="36" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="3" fontId="19" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="46" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1491,19 +1574,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="43" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="19" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="48">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1868,289 +1938,397 @@
   <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="32.625" customWidth="1"/>
+    <col min="1" max="1" width="25.375" customWidth="1"/>
+    <col min="2" max="2" width="32" customWidth="1"/>
+    <col min="3" max="3" width="50.375" customWidth="1"/>
+    <col min="4" max="4" width="44" customWidth="1"/>
+    <col min="5" max="5" width="19.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="40" t="s">
-        <v>232</v>
+        <v>216</v>
       </c>
       <c r="B1" s="40"/>
       <c r="C1" s="40"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="39" t="s">
-        <v>216</v>
-      </c>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
+        <v>1</v>
+      </c>
+      <c r="B3" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="C3" s="38" t="s">
+        <v>236</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>237</v>
+      </c>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="39" t="s">
-        <v>217</v>
-      </c>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
+        <v>271</v>
+      </c>
+      <c r="B4" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="C4" s="38" t="s">
+        <v>238</v>
+      </c>
+      <c r="D4" s="35" t="s">
+        <v>237</v>
+      </c>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="39" t="s">
-        <v>218</v>
-      </c>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
+        <v>272</v>
+      </c>
+      <c r="B5" s="38" t="s">
+        <v>239</v>
+      </c>
+      <c r="C5" s="38" t="s">
+        <v>240</v>
+      </c>
+      <c r="D5" s="35" t="s">
+        <v>237</v>
+      </c>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="39" t="s">
-        <v>219</v>
-      </c>
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
+        <v>241</v>
+      </c>
+      <c r="B6" s="38" t="s">
+        <v>239</v>
+      </c>
+      <c r="C6" s="38" t="s">
+        <v>242</v>
+      </c>
+      <c r="D6" s="35" t="s">
+        <v>237</v>
+      </c>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="39" t="s">
-        <v>220</v>
-      </c>
-      <c r="B7" s="39"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
+        <v>243</v>
+      </c>
+      <c r="B7" s="38" t="s">
+        <v>244</v>
+      </c>
+      <c r="C7" s="38" t="s">
+        <v>245</v>
+      </c>
+      <c r="D7" s="35" t="s">
+        <v>246</v>
+      </c>
+      <c r="E7" s="35" t="s">
+        <v>237</v>
+      </c>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="39" t="s">
-        <v>221</v>
-      </c>
-      <c r="B8" s="39"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="39"/>
+        <v>247</v>
+      </c>
+      <c r="B8" s="38" t="s">
+        <v>244</v>
+      </c>
+      <c r="C8" s="38" t="s">
+        <v>248</v>
+      </c>
+      <c r="D8" s="35" t="s">
+        <v>249</v>
+      </c>
+      <c r="E8" s="35" t="s">
+        <v>237</v>
+      </c>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="39" t="s">
-        <v>222</v>
-      </c>
-      <c r="B9" s="39"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="39"/>
+        <v>250</v>
+      </c>
+      <c r="B9" s="38" t="s">
+        <v>244</v>
+      </c>
+      <c r="C9" s="38" t="s">
+        <v>251</v>
+      </c>
+      <c r="D9" s="35" t="s">
+        <v>237</v>
+      </c>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="39" t="s">
-        <v>223</v>
-      </c>
-      <c r="B10" s="39"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="39"/>
+        <v>252</v>
+      </c>
+      <c r="B10" s="38" t="s">
+        <v>253</v>
+      </c>
+      <c r="C10" s="38" t="s">
+        <v>254</v>
+      </c>
+      <c r="D10" s="35" t="s">
+        <v>255</v>
+      </c>
+      <c r="E10" s="35" t="s">
+        <v>256</v>
+      </c>
+      <c r="F10" s="35" t="s">
+        <v>237</v>
+      </c>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="39" t="s">
-        <v>224</v>
-      </c>
-      <c r="B11" s="39"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="39"/>
+        <v>257</v>
+      </c>
+      <c r="B11" s="38" t="s">
+        <v>258</v>
+      </c>
+      <c r="C11" s="38" t="s">
+        <v>259</v>
+      </c>
+      <c r="D11" s="35" t="s">
+        <v>237</v>
+      </c>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="39" t="s">
-        <v>225</v>
-      </c>
-      <c r="B12" s="39"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="39"/>
+        <v>260</v>
+      </c>
+      <c r="B12" s="38" t="s">
+        <v>258</v>
+      </c>
+      <c r="C12" s="38" t="s">
+        <v>261</v>
+      </c>
+      <c r="D12" s="35" t="s">
+        <v>237</v>
+      </c>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="35"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="39" t="s">
-        <v>226</v>
-      </c>
-      <c r="B13" s="39"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
+        <v>262</v>
+      </c>
+      <c r="B13" s="38" t="s">
+        <v>258</v>
+      </c>
+      <c r="C13" s="38" t="s">
+        <v>261</v>
+      </c>
+      <c r="D13" s="35" t="s">
+        <v>263</v>
+      </c>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="39" t="s">
-        <v>227</v>
-      </c>
-      <c r="B14" s="39"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="39"/>
+        <v>264</v>
+      </c>
+      <c r="B14" s="38" t="s">
+        <v>258</v>
+      </c>
+      <c r="C14" s="38" t="s">
+        <v>261</v>
+      </c>
+      <c r="D14" s="35" t="s">
+        <v>265</v>
+      </c>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="39" t="s">
-        <v>228</v>
-      </c>
-      <c r="B15" s="39"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="39"/>
+        <v>266</v>
+      </c>
+      <c r="B15" s="38" t="s">
+        <v>267</v>
+      </c>
+      <c r="C15" s="38" t="s">
+        <v>259</v>
+      </c>
+      <c r="D15" s="35" t="s">
+        <v>237</v>
+      </c>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="35"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="39" t="s">
-        <v>229</v>
-      </c>
-      <c r="B16" s="39"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="39"/>
+        <v>268</v>
+      </c>
+      <c r="B16" s="38" t="s">
+        <v>267</v>
+      </c>
+      <c r="C16" s="38" t="s">
+        <v>261</v>
+      </c>
+      <c r="D16" s="35" t="s">
+        <v>237</v>
+      </c>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="39" t="s">
-        <v>230</v>
-      </c>
-      <c r="B17" s="39"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="39"/>
+        <v>269</v>
+      </c>
+      <c r="B17" s="38" t="s">
+        <v>267</v>
+      </c>
+      <c r="C17" s="38" t="s">
+        <v>261</v>
+      </c>
+      <c r="D17" s="35" t="s">
+        <v>263</v>
+      </c>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="35"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="39" t="s">
-        <v>231</v>
-      </c>
-      <c r="B18" s="39"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="39"/>
+        <v>270</v>
+      </c>
+      <c r="B18" s="38" t="s">
+        <v>267</v>
+      </c>
+      <c r="C18" s="38" t="s">
+        <v>261</v>
+      </c>
+      <c r="D18" s="35" t="s">
+        <v>265</v>
+      </c>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="35"/>
     </row>
     <row r="21" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="41" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="B21" s="41"/>
       <c r="C21" s="41"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>233</v>
+        <v>217</v>
       </c>
       <c r="B22" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="B23" t="s">
-        <v>236</v>
+        <v>220</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>237</v>
+        <v>221</v>
       </c>
       <c r="B24" t="s">
-        <v>238</v>
+        <v>222</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="B25" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="41" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
       <c r="B26" s="41"/>
       <c r="C26" s="41"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
       <c r="B27" t="s">
-        <v>247</v>
+        <v>231</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
       <c r="B28" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
       <c r="B29" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="B30" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -2192,27 +2370,27 @@
       </c>
     </row>
     <row r="2" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="42" t="s">
         <v>156</v>
       </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
     </row>
     <row r="4" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D4" s="23"/>
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="44" t="s">
         <v>155</v>
       </c>
-      <c r="B5" s="37"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -23050,12 +23228,12 @@
       </c>
     </row>
     <row r="130" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="38" t="s">
+      <c r="A130" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="B130" s="38"/>
-      <c r="C130" s="38"/>
-      <c r="D130" s="38"/>
+      <c r="B130" s="45"/>
+      <c r="C130" s="45"/>
+      <c r="D130" s="45"/>
     </row>
     <row r="131" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C131" s="6"/>
@@ -23763,14 +23941,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E35EE37A-6DA7-464E-B4F9-9D022FBE10B3}">
   <dimension ref="A1:BJ66"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O14" sqref="O14"/>
+      <selection pane="bottomRight" activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -27455,28 +27633,28 @@
       <c r="A6">
         <v>2021</v>
       </c>
-      <c r="B6" s="43">
+      <c r="B6" s="37">
         <v>3460.683</v>
       </c>
-      <c r="C6" s="42">
+      <c r="C6" s="36">
         <v>2044.377</v>
       </c>
-      <c r="D6" s="42">
+      <c r="D6" s="36">
         <v>316.81599999999997</v>
       </c>
-      <c r="E6" s="42">
+      <c r="E6" s="36">
         <v>371.83100000000002</v>
       </c>
-      <c r="F6" s="42">
+      <c r="F6" s="36">
         <v>1314.088</v>
       </c>
-      <c r="G6" s="42">
+      <c r="G6" s="36">
         <v>867.67600000000004</v>
       </c>
-      <c r="H6" s="42">
+      <c r="H6" s="36">
         <v>520.58799999999997</v>
       </c>
-      <c r="I6" s="42">
+      <c r="I6" s="36">
         <v>391.74700000000001</v>
       </c>
       <c r="J6" s="23">
@@ -27487,28 +27665,28 @@
       <c r="A7">
         <v>2022</v>
       </c>
-      <c r="B7" s="43">
+      <c r="B7" s="37">
         <v>2820.0129999999999</v>
       </c>
-      <c r="C7" s="42">
+      <c r="C7" s="36">
         <v>2622.5050000000001</v>
       </c>
-      <c r="D7" s="42">
+      <c r="D7" s="36">
         <v>354.14499999999998</v>
       </c>
-      <c r="E7" s="42">
+      <c r="E7" s="36">
         <v>394.8</v>
       </c>
-      <c r="F7" s="42">
+      <c r="F7" s="36">
         <v>1464.5930000000001</v>
       </c>
-      <c r="G7" s="42">
+      <c r="G7" s="36">
         <v>941.351</v>
       </c>
-      <c r="H7" s="42">
+      <c r="H7" s="36">
         <v>589.25400000000002</v>
       </c>
-      <c r="I7" s="42">
+      <c r="I7" s="36">
         <v>39.683999999999997</v>
       </c>
       <c r="J7" s="23">
@@ -27519,28 +27697,28 @@
       <c r="A8">
         <v>2023</v>
       </c>
-      <c r="B8" s="43">
+      <c r="B8" s="37">
         <v>2797.576</v>
       </c>
-      <c r="C8" s="42">
+      <c r="C8" s="36">
         <v>2578.828</v>
       </c>
-      <c r="D8" s="42">
+      <c r="D8" s="36">
         <v>282.96600000000001</v>
       </c>
-      <c r="E8" s="42">
+      <c r="E8" s="36">
         <v>456.12900000000002</v>
       </c>
-      <c r="F8" s="42">
+      <c r="F8" s="36">
         <v>1571.68</v>
       </c>
-      <c r="G8" s="42">
+      <c r="G8" s="36">
         <v>1008.7670000000001</v>
       </c>
-      <c r="H8" s="42">
+      <c r="H8" s="36">
         <v>601.34799999999996</v>
       </c>
-      <c r="I8" s="42">
+      <c r="I8" s="36">
         <v>29.963000000000001</v>
       </c>
       <c r="J8" s="23">
@@ -27551,28 +27729,28 @@
       <c r="A9">
         <v>2024</v>
       </c>
-      <c r="B9" s="43">
+      <c r="B9" s="37">
         <v>2950.2380000000003</v>
       </c>
-      <c r="C9" s="42">
+      <c r="C9" s="36">
         <v>2541.6950000000002</v>
       </c>
-      <c r="D9" s="42">
+      <c r="D9" s="36">
         <v>279.18700000000001</v>
       </c>
-      <c r="E9" s="42">
+      <c r="E9" s="36">
         <v>478.02100000000002</v>
       </c>
-      <c r="F9" s="42">
+      <c r="F9" s="36">
         <v>1624.982</v>
       </c>
-      <c r="G9" s="42">
+      <c r="G9" s="36">
         <v>1085.711</v>
       </c>
-      <c r="H9" s="42">
+      <c r="H9" s="36">
         <v>545.42499999999995</v>
       </c>
-      <c r="I9" s="42">
+      <c r="I9" s="36">
         <v>33.764000000000003</v>
       </c>
       <c r="J9" s="23">
@@ -27583,28 +27761,28 @@
       <c r="A10">
         <v>2025</v>
       </c>
-      <c r="B10" s="43">
+      <c r="B10" s="37">
         <v>3121.6370000000002</v>
       </c>
-      <c r="C10" s="42">
+      <c r="C10" s="36">
         <v>2539.1210000000001</v>
       </c>
-      <c r="D10" s="42">
+      <c r="D10" s="36">
         <v>290.19799999999998</v>
       </c>
-      <c r="E10" s="42">
+      <c r="E10" s="36">
         <v>483.15800000000002</v>
       </c>
-      <c r="F10" s="42">
+      <c r="F10" s="36">
         <v>1669.0419999999999</v>
       </c>
-      <c r="G10" s="42">
+      <c r="G10" s="36">
         <v>1165.28</v>
       </c>
-      <c r="H10" s="42">
+      <c r="H10" s="36">
         <v>547.125</v>
       </c>
-      <c r="I10" s="42">
+      <c r="I10" s="36">
         <v>36.093000000000004</v>
       </c>
       <c r="J10" s="23">
@@ -27615,28 +27793,28 @@
       <c r="A11">
         <v>2026</v>
       </c>
-      <c r="B11" s="43">
+      <c r="B11" s="37">
         <v>3312.8409999999999</v>
       </c>
-      <c r="C11" s="42">
+      <c r="C11" s="36">
         <v>2770.9430000000002</v>
       </c>
-      <c r="D11" s="42">
+      <c r="D11" s="36">
         <v>310.27800000000002</v>
       </c>
-      <c r="E11" s="42">
+      <c r="E11" s="36">
         <v>472.99400000000003</v>
       </c>
-      <c r="F11" s="42">
+      <c r="F11" s="36">
         <v>1725.508</v>
       </c>
-      <c r="G11" s="42">
+      <c r="G11" s="36">
         <v>1262.203</v>
       </c>
-      <c r="H11" s="42">
+      <c r="H11" s="36">
         <v>577.846</v>
       </c>
-      <c r="I11" s="42">
+      <c r="I11" s="36">
         <v>38.706000000000003</v>
       </c>
       <c r="J11" s="23">
@@ -27647,28 +27825,28 @@
       <c r="A12">
         <v>2027</v>
       </c>
-      <c r="B12" s="43">
+      <c r="B12" s="37">
         <v>3489.6079999999997</v>
       </c>
-      <c r="C12" s="42">
+      <c r="C12" s="36">
         <v>2969.5929999999998</v>
       </c>
-      <c r="D12" s="42">
+      <c r="D12" s="36">
         <v>335.54300000000001</v>
       </c>
-      <c r="E12" s="42">
+      <c r="E12" s="36">
         <v>456.85199999999998</v>
       </c>
-      <c r="F12" s="42">
+      <c r="F12" s="36">
         <v>1786.4459999999999</v>
       </c>
-      <c r="G12" s="42">
+      <c r="G12" s="36">
         <v>1360.3689999999999</v>
       </c>
-      <c r="H12" s="42">
+      <c r="H12" s="36">
         <v>607.851</v>
       </c>
-      <c r="I12" s="42">
+      <c r="I12" s="36">
         <v>40.206000000000003</v>
       </c>
       <c r="J12" s="23">
@@ -27679,28 +27857,28 @@
       <c r="A13">
         <v>2028</v>
       </c>
-      <c r="B13" s="43">
+      <c r="B13" s="37">
         <v>3698.8889999999997</v>
       </c>
-      <c r="C13" s="42">
+      <c r="C13" s="36">
         <v>3049.3029999999999</v>
       </c>
-      <c r="D13" s="42">
+      <c r="D13" s="36">
         <v>351.88</v>
       </c>
-      <c r="E13" s="42">
+      <c r="E13" s="36">
         <v>461.02300000000002</v>
       </c>
-      <c r="F13" s="42">
+      <c r="F13" s="36">
         <v>1853.4290000000001</v>
       </c>
-      <c r="G13" s="42">
+      <c r="G13" s="36">
         <v>1461.5450000000001</v>
       </c>
-      <c r="H13" s="42">
+      <c r="H13" s="36">
         <v>639.17700000000002</v>
       </c>
-      <c r="I13" s="42">
+      <c r="I13" s="36">
         <v>43.817</v>
       </c>
       <c r="J13" s="23">
@@ -27711,28 +27889,28 @@
       <c r="A14">
         <v>2029</v>
       </c>
-      <c r="B14" s="43">
+      <c r="B14" s="37">
         <v>3909.2000000000007</v>
       </c>
-      <c r="C14" s="42">
+      <c r="C14" s="36">
         <v>3169.9630000000002</v>
       </c>
-      <c r="D14" s="42">
+      <c r="D14" s="36">
         <v>370.37900000000002</v>
       </c>
-      <c r="E14" s="42">
+      <c r="E14" s="36">
         <v>470.43400000000003</v>
       </c>
-      <c r="F14" s="42">
+      <c r="F14" s="36">
         <v>1923.1959999999999</v>
       </c>
-      <c r="G14" s="42">
+      <c r="G14" s="36">
         <v>1559.3230000000001</v>
       </c>
-      <c r="H14" s="42">
+      <c r="H14" s="36">
         <v>671.87</v>
       </c>
-      <c r="I14" s="42">
+      <c r="I14" s="36">
         <v>46.652000000000001</v>
       </c>
       <c r="J14" s="23">
@@ -27743,28 +27921,28 @@
       <c r="A15">
         <v>2030</v>
       </c>
-      <c r="B15" s="43">
+      <c r="B15" s="37">
         <v>4136.3910000000005</v>
       </c>
-      <c r="C15" s="42">
+      <c r="C15" s="36">
         <v>3300.931</v>
       </c>
-      <c r="D15" s="42">
+      <c r="D15" s="36">
         <v>384.83100000000002</v>
       </c>
-      <c r="E15" s="42">
+      <c r="E15" s="36">
         <v>480.08300000000003</v>
       </c>
-      <c r="F15" s="42">
+      <c r="F15" s="36">
         <v>1995.49</v>
       </c>
-      <c r="G15" s="42">
+      <c r="G15" s="36">
         <v>1672.029</v>
       </c>
-      <c r="H15" s="42">
+      <c r="H15" s="36">
         <v>708.27200000000005</v>
       </c>
-      <c r="I15" s="42">
+      <c r="I15" s="36">
         <v>48.414000000000001</v>
       </c>
       <c r="J15" s="23">
@@ -27775,28 +27953,28 @@
       <c r="A16">
         <v>2031</v>
       </c>
-      <c r="B16" s="43">
+      <c r="B16" s="37">
         <v>4361.9230000000007</v>
       </c>
-      <c r="C16" s="42">
+      <c r="C16" s="36">
         <v>3435.5259999999998</v>
       </c>
-      <c r="D16" s="42">
+      <c r="D16" s="36">
         <v>403.47</v>
       </c>
-      <c r="E16" s="42">
+      <c r="E16" s="36">
         <v>491.02199999999999</v>
       </c>
-      <c r="F16" s="42">
+      <c r="F16" s="36">
         <v>2071.7869999999998</v>
       </c>
-      <c r="G16" s="42">
+      <c r="G16" s="36">
         <v>1782.018</v>
       </c>
-      <c r="H16" s="42">
+      <c r="H16" s="36">
         <v>748.83299999999997</v>
       </c>
-      <c r="I16" s="42">
+      <c r="I16" s="36">
         <v>50.064</v>
       </c>
       <c r="J16" s="23">
@@ -27807,44 +27985,44 @@
       <c r="A17">
         <v>2032</v>
       </c>
-      <c r="B17" s="43">
+      <c r="B17" s="37">
         <v>4630.4039999999995</v>
       </c>
-      <c r="C17" s="42">
+      <c r="C17" s="36">
         <v>3582.4940000000001</v>
       </c>
-      <c r="D17" s="42">
+      <c r="D17" s="36">
         <v>424.18400000000003</v>
       </c>
-      <c r="E17" s="42">
+      <c r="E17" s="36">
         <v>505.16</v>
       </c>
-      <c r="F17" s="42">
+      <c r="F17" s="36">
         <v>2150.2310000000002</v>
       </c>
-      <c r="G17" s="42">
+      <c r="G17" s="36">
         <v>1929.3679999999999</v>
       </c>
-      <c r="H17" s="42">
+      <c r="H17" s="36">
         <v>789.40700000000004</v>
       </c>
-      <c r="I17" s="42">
+      <c r="I17" s="36">
         <v>51.475000000000001</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B24" s="43"/>
-      <c r="C24" s="43"/>
-      <c r="D24" s="43"/>
-      <c r="E24" s="43"/>
-      <c r="F24" s="43"/>
-      <c r="G24" s="43"/>
-      <c r="H24" s="43"/>
-      <c r="I24" s="43"/>
-      <c r="J24" s="43"/>
-      <c r="K24" s="43"/>
-      <c r="L24" s="43"/>
-      <c r="M24" s="43"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="37"/>
+      <c r="I24" s="37"/>
+      <c r="J24" s="37"/>
+      <c r="K24" s="37"/>
+      <c r="L24" s="37"/>
+      <c r="M24" s="37"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -27855,7 +28033,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34DE4D24-926E-5240-89B6-F8FE59F1901D}">
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>

--- a/inst/extdata/projections.xlsx
+++ b/inst/extdata/projections.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nsalwati\Downloads\Hutchins Fiscal Impact Measure\fim\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45F6F29A-50CE-4323-9116-95E5969FD3E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{517DD753-0892-474B-8302-116A23349C28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dictionary" sheetId="10" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="277">
   <si>
     <t>date</t>
   </si>
@@ -893,6 +893,18 @@
   </si>
   <si>
     <t xml:space="preserve"> "gdppotq"</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Sub category</t>
+  </si>
+  <si>
+    <t>Sub sub sub category</t>
+  </si>
+  <si>
+    <t>Sub sub category</t>
   </si>
 </sst>
 </file>
@@ -1937,27 +1949,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91A9440D-BB32-4FF5-9B05-8B4462DE649B}">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.375" customWidth="1"/>
+    <col min="1" max="1" width="25.3984375" customWidth="1"/>
     <col min="2" max="2" width="32" customWidth="1"/>
-    <col min="3" max="3" width="50.375" customWidth="1"/>
+    <col min="3" max="3" width="50.3984375" customWidth="1"/>
     <col min="4" max="4" width="44" customWidth="1"/>
-    <col min="5" max="5" width="19.625" customWidth="1"/>
+    <col min="5" max="5" width="19.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="40" t="s">
         <v>216</v>
       </c>
       <c r="B1" s="40"/>
       <c r="C1" s="40"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>273</v>
+      </c>
+      <c r="C2" t="s">
+        <v>274</v>
+      </c>
+      <c r="D2" t="s">
+        <v>276</v>
+      </c>
+      <c r="E2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="39" t="s">
         <v>1</v>
       </c>
@@ -1975,7 +2001,7 @@
       <c r="G3" s="35"/>
       <c r="H3" s="35"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="39" t="s">
         <v>271</v>
       </c>
@@ -1993,7 +2019,7 @@
       <c r="G4" s="35"/>
       <c r="H4" s="35"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="39" t="s">
         <v>272</v>
       </c>
@@ -2011,7 +2037,7 @@
       <c r="G5" s="35"/>
       <c r="H5" s="35"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="39" t="s">
         <v>241</v>
       </c>
@@ -2029,7 +2055,7 @@
       <c r="G6" s="35"/>
       <c r="H6" s="35"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="39" t="s">
         <v>243</v>
       </c>
@@ -2049,7 +2075,7 @@
       <c r="G7" s="35"/>
       <c r="H7" s="35"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="39" t="s">
         <v>247</v>
       </c>
@@ -2069,7 +2095,7 @@
       <c r="G8" s="35"/>
       <c r="H8" s="35"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="39" t="s">
         <v>250</v>
       </c>
@@ -2087,7 +2113,7 @@
       <c r="G9" s="35"/>
       <c r="H9" s="35"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="39" t="s">
         <v>252</v>
       </c>
@@ -2109,7 +2135,7 @@
       <c r="G10" s="35"/>
       <c r="H10" s="35"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="39" t="s">
         <v>257</v>
       </c>
@@ -2127,7 +2153,7 @@
       <c r="G11" s="35"/>
       <c r="H11" s="35"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="39" t="s">
         <v>260</v>
       </c>
@@ -2145,7 +2171,7 @@
       <c r="G12" s="35"/>
       <c r="H12" s="35"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="39" t="s">
         <v>262</v>
       </c>
@@ -2163,7 +2189,7 @@
       <c r="G13" s="35"/>
       <c r="H13" s="35"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="39" t="s">
         <v>264</v>
       </c>
@@ -2181,7 +2207,7 @@
       <c r="G14" s="35"/>
       <c r="H14" s="35"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="39" t="s">
         <v>266</v>
       </c>
@@ -2199,7 +2225,7 @@
       <c r="G15" s="35"/>
       <c r="H15" s="35"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="39" t="s">
         <v>268</v>
       </c>
@@ -2217,7 +2243,7 @@
       <c r="G16" s="35"/>
       <c r="H16" s="35"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="39" t="s">
         <v>269</v>
       </c>
@@ -2235,7 +2261,7 @@
       <c r="G17" s="35"/>
       <c r="H17" s="35"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="39" t="s">
         <v>270</v>
       </c>
@@ -2253,14 +2279,14 @@
       <c r="G18" s="35"/>
       <c r="H18" s="35"/>
     </row>
-    <row r="21" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="41" t="s">
         <v>226</v>
       </c>
       <c r="B21" s="41"/>
       <c r="C21" s="41"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>217</v>
       </c>
@@ -2268,7 +2294,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>219</v>
       </c>
@@ -2276,7 +2302,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>221</v>
       </c>
@@ -2284,7 +2310,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>223</v>
       </c>
@@ -2292,14 +2318,14 @@
         <v>224</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="41" t="s">
         <v>225</v>
       </c>
       <c r="B26" s="41"/>
       <c r="C26" s="41"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>227</v>
       </c>
@@ -2307,7 +2333,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>228</v>
       </c>
@@ -2315,7 +2341,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>229</v>
       </c>
@@ -2323,7 +2349,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>230</v>
       </c>
@@ -2353,23 +2379,23 @@
       <selection pane="bottomRight" activeCell="T38" sqref="T38:BL38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.75" style="2" customWidth="1"/>
-    <col min="2" max="2" width="51.75" style="2" customWidth="1"/>
-    <col min="3" max="3" width="55.75" style="2" customWidth="1"/>
-    <col min="4" max="4" width="63.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="19" width="8.25" style="2" hidden="1" customWidth="1"/>
-    <col min="20" max="60" width="8.25" style="2" customWidth="1"/>
-    <col min="61" max="16384" width="9.25" style="2"/>
+    <col min="1" max="1" width="2.69921875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="51.69921875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="55.69921875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="63.69921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="19" width="8.19921875" style="2" hidden="1" customWidth="1"/>
+    <col min="20" max="60" width="8.19921875" style="2" customWidth="1"/>
+    <col min="61" max="16384" width="9.19921875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="2" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="42" t="s">
         <v>156</v>
       </c>
@@ -2381,7 +2407,7 @@
       <c r="G2" s="43"/>
       <c r="H2" s="43"/>
     </row>
-    <row r="4" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D4" s="23"/>
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2444,7 +2470,7 @@
       <c r="BG5" s="3"/>
       <c r="BH5" s="3"/>
     </row>
-    <row r="6" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="BA6" s="22"/>
       <c r="BB6" s="22"/>
       <c r="BC6" s="22"/>
@@ -2454,7 +2480,7 @@
       <c r="BK6" s="22"/>
       <c r="BL6" s="22"/>
     </row>
-    <row r="7" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -2791,7 +2817,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="9" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>92</v>
       </c>
@@ -2979,7 +3005,7 @@
         <v>33695.9</v>
       </c>
     </row>
-    <row r="10" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>91</v>
       </c>
@@ -3545,7 +3571,7 @@
         <v>23615.3</v>
       </c>
     </row>
-    <row r="13" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>89</v>
       </c>
@@ -3733,7 +3759,7 @@
         <v>18628.5</v>
       </c>
     </row>
-    <row r="14" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D14" s="2" t="s">
         <v>20</v>
       </c>
@@ -3918,7 +3944,7 @@
         <v>2.0049999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T15" s="16"/>
       <c r="U15" s="16"/>
       <c r="V15" s="16"/>
@@ -4525,7 +4551,7 @@
         <v>1.9910000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
         <v>85</v>
       </c>
@@ -4713,7 +4739,7 @@
         <v>141.75399999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D20" s="2" t="s">
         <v>20</v>
       </c>
@@ -4898,7 +4924,7 @@
         <v>2.0030000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
         <v>84</v>
       </c>
@@ -5086,7 +5112,7 @@
         <v>335.62799999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D22" s="2" t="s">
         <v>20</v>
       </c>
@@ -5271,7 +5297,7 @@
         <v>2.3069999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
         <v>83</v>
       </c>
@@ -5459,7 +5485,7 @@
         <v>346.53300000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D24" s="2" t="s">
         <v>20</v>
       </c>
@@ -5644,7 +5670,7 @@
         <v>2.3260000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
         <v>81</v>
       </c>
@@ -5832,7 +5858,7 @@
         <v>182.87299999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D26" s="2" t="s">
         <v>20</v>
       </c>
@@ -6017,7 +6043,7 @@
         <v>0.247</v>
       </c>
     </row>
-    <row r="27" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="2" t="s">
         <v>79</v>
       </c>
@@ -6205,7 +6231,7 @@
         <v>143.11099999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D28" s="2" t="s">
         <v>20</v>
       </c>
@@ -6390,7 +6416,7 @@
         <v>2.0619999999999998</v>
       </c>
     </row>
-    <row r="29" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="2" t="s">
         <v>78</v>
       </c>
@@ -6578,7 +6604,7 @@
         <v>198.76</v>
       </c>
     </row>
-    <row r="30" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D30" s="2" t="s">
         <v>20</v>
       </c>
@@ -6763,7 +6789,7 @@
         <v>3.129</v>
       </c>
     </row>
-    <row r="31" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="2" t="s">
         <v>76</v>
       </c>
@@ -6951,7 +6977,7 @@
         <v>57.07</v>
       </c>
     </row>
-    <row r="32" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="2" t="s">
         <v>75</v>
       </c>
@@ -7139,7 +7165,7 @@
         <v>59.4</v>
       </c>
     </row>
-    <row r="33" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="s">
         <v>73</v>
       </c>
@@ -7327,7 +7353,7 @@
         <v>2.85</v>
       </c>
     </row>
-    <row r="34" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="2" t="s">
         <v>71</v>
       </c>
@@ -7515,7 +7541,7 @@
         <v>440.10700000000003</v>
       </c>
     </row>
-    <row r="35" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="15"/>
       <c r="B35" s="2" t="s">
         <v>69</v>
@@ -7704,7 +7730,7 @@
         <v>172.202</v>
       </c>
     </row>
-    <row r="36" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
       <c r="G36" s="5"/>
@@ -7831,7 +7857,7 @@
       <c r="BK37" s="12"/>
       <c r="BL37" s="12"/>
     </row>
-    <row r="38" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="2" t="s">
         <v>66</v>
       </c>
@@ -8019,7 +8045,7 @@
         <v>4.343</v>
       </c>
     </row>
-    <row r="39" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="2" t="s">
         <v>65</v>
       </c>
@@ -8207,7 +8233,7 @@
         <v>169.917</v>
       </c>
     </row>
-    <row r="40" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D40" s="2" t="s">
         <v>20</v>
       </c>
@@ -8392,7 +8418,7 @@
         <v>0.28299999999999997</v>
       </c>
     </row>
-    <row r="41" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="2" t="s">
         <v>64</v>
       </c>
@@ -8580,7 +8606,7 @@
         <v>60.713000000000001</v>
       </c>
     </row>
-    <row r="42" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="2" t="s">
         <v>63</v>
       </c>
@@ -8768,7 +8794,7 @@
         <v>162.536</v>
       </c>
     </row>
-    <row r="43" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D43" s="2" t="s">
         <v>20</v>
       </c>
@@ -8953,7 +8979,7 @@
         <v>0.248</v>
       </c>
     </row>
-    <row r="44" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="2" t="s">
         <v>62</v>
       </c>
@@ -9141,7 +9167,7 @@
         <v>158.464</v>
       </c>
     </row>
-    <row r="45" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D45" s="2" t="s">
         <v>20</v>
       </c>
@@ -9326,7 +9352,7 @@
         <v>0.30499999999999999</v>
       </c>
     </row>
-    <row r="46" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="2" t="s">
         <v>61</v>
       </c>
@@ -9514,7 +9540,7 @@
         <v>133.11099999999999</v>
       </c>
     </row>
-    <row r="47" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D47" s="2" t="s">
         <v>20</v>
       </c>
@@ -9699,7 +9725,7 @@
         <v>1.7230000000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="2" t="s">
         <v>60</v>
       </c>
@@ -9887,7 +9913,7 @@
         <v>115.813</v>
       </c>
     </row>
-    <row r="49" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D49" s="2" t="s">
         <v>20</v>
       </c>
@@ -10072,7 +10098,7 @@
         <v>0.19900000000000001</v>
       </c>
     </row>
-    <row r="50" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E50" s="5"/>
       <c r="F50" s="5"/>
       <c r="G50" s="5"/>
@@ -10199,7 +10225,7 @@
       <c r="BK51" s="12"/>
       <c r="BL51" s="12"/>
     </row>
-    <row r="52" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="2" t="s">
         <v>57</v>
       </c>
@@ -10387,7 +10413,7 @@
         <v>279.86799999999999</v>
       </c>
     </row>
-    <row r="53" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D53" s="2" t="s">
         <v>20</v>
       </c>
@@ -10572,7 +10598,7 @@
         <v>0.53800000000000003</v>
       </c>
     </row>
-    <row r="54" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="2" t="s">
         <v>56</v>
       </c>
@@ -10760,7 +10786,7 @@
         <v>135.44399999999999</v>
       </c>
     </row>
-    <row r="55" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E55" s="5"/>
       <c r="F55" s="5"/>
       <c r="G55" s="5"/>
@@ -10887,7 +10913,7 @@
       <c r="BK56" s="12"/>
       <c r="BL56" s="12"/>
     </row>
-    <row r="57" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="2" t="s">
         <v>53</v>
       </c>
@@ -11075,7 +11101,7 @@
         <v>3.419</v>
       </c>
     </row>
-    <row r="58" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="2" t="s">
         <v>52</v>
       </c>
@@ -11263,7 +11289,7 @@
         <v>2.3650000000000002</v>
       </c>
     </row>
-    <row r="59" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="2" t="s">
         <v>51</v>
       </c>
@@ -11451,7 +11477,7 @@
         <v>2.5150000000000001</v>
       </c>
     </row>
-    <row r="60" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E60" s="5"/>
       <c r="F60" s="5"/>
       <c r="G60" s="5"/>
@@ -11578,7 +11604,7 @@
       <c r="BK61" s="12"/>
       <c r="BL61" s="12"/>
     </row>
-    <row r="62" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="2" t="s">
         <v>48</v>
       </c>
@@ -11766,7 +11792,7 @@
         <v>30495.4</v>
       </c>
     </row>
-    <row r="63" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D63" s="2" t="s">
         <v>37</v>
       </c>
@@ -11951,7 +11977,7 @@
         <v>90.501000000000005</v>
       </c>
     </row>
-    <row r="64" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="2" t="s">
         <v>47</v>
       </c>
@@ -12139,7 +12165,7 @@
         <v>18106.099999999999</v>
       </c>
     </row>
-    <row r="65" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D65" s="2" t="s">
         <v>37</v>
       </c>
@@ -12324,7 +12350,7 @@
         <v>53.732999999999997</v>
       </c>
     </row>
-    <row r="66" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="2" t="s">
         <v>46</v>
       </c>
@@ -12512,7 +12538,7 @@
         <v>14617</v>
       </c>
     </row>
-    <row r="67" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D67" s="2" t="s">
         <v>37</v>
       </c>
@@ -12697,7 +12723,7 @@
         <v>43.378999999999998</v>
       </c>
     </row>
-    <row r="68" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="2" t="s">
         <v>45</v>
       </c>
@@ -12885,7 +12911,7 @@
         <v>8833.5</v>
       </c>
     </row>
-    <row r="69" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D69" s="2" t="s">
         <v>37</v>
       </c>
@@ -13070,7 +13096,7 @@
         <v>26.215</v>
       </c>
     </row>
-    <row r="70" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C70" s="2" t="s">
         <v>44</v>
       </c>
@@ -13258,7 +13284,7 @@
         <v>75.8</v>
       </c>
     </row>
-    <row r="71" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D71" s="2" t="s">
         <v>37</v>
       </c>
@@ -13443,7 +13469,7 @@
         <v>0.22500000000000001</v>
       </c>
     </row>
-    <row r="72" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C72" s="2" t="s">
         <v>43</v>
       </c>
@@ -13631,7 +13657,7 @@
         <v>2564.4</v>
       </c>
     </row>
-    <row r="73" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D73" s="2" t="s">
         <v>37</v>
       </c>
@@ -13816,7 +13842,7 @@
         <v>7.61</v>
       </c>
     </row>
-    <row r="74" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C74" s="2" t="s">
         <v>42</v>
       </c>
@@ -14004,7 +14030,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="75" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D75" s="2" t="s">
         <v>37</v>
       </c>
@@ -14189,7 +14215,7 @@
         <v>3.6669999999999998</v>
       </c>
     </row>
-    <row r="76" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C76" s="2" t="s">
         <v>41</v>
       </c>
@@ -14377,7 +14403,7 @@
         <v>2897.1</v>
       </c>
     </row>
-    <row r="77" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D77" s="2" t="s">
         <v>37</v>
       </c>
@@ -14562,7 +14588,7 @@
         <v>8.5969999999999995</v>
       </c>
     </row>
-    <row r="78" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C78" s="2" t="s">
         <v>40</v>
       </c>
@@ -14750,7 +14776,7 @@
         <v>2060.1999999999998</v>
       </c>
     </row>
-    <row r="79" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D79" s="2" t="s">
         <v>37</v>
       </c>
@@ -14935,7 +14961,7 @@
         <v>6.1139999999999999</v>
       </c>
     </row>
-    <row r="80" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80" s="2" t="s">
         <v>39</v>
       </c>
@@ -15123,7 +15149,7 @@
         <v>3450.2</v>
       </c>
     </row>
-    <row r="81" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D81" s="2" t="s">
         <v>37</v>
       </c>
@@ -15308,7 +15334,7 @@
         <v>10.239000000000001</v>
       </c>
     </row>
-    <row r="82" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B82" s="2" t="s">
         <v>38</v>
       </c>
@@ -15496,7 +15522,7 @@
         <v>2591.6999999999998</v>
       </c>
     </row>
-    <row r="83" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D83" s="2" t="s">
         <v>37</v>
       </c>
@@ -15681,7 +15707,7 @@
         <v>7.6909999999999998</v>
       </c>
     </row>
-    <row r="84" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E84" s="5"/>
       <c r="F84" s="5"/>
       <c r="G84" s="5"/>
@@ -15808,7 +15834,7 @@
       <c r="BK85" s="12"/>
       <c r="BL85" s="12"/>
     </row>
-    <row r="86" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B86" s="2" t="s">
         <v>32</v>
       </c>
@@ -15996,7 +16022,7 @@
         <v>23476.1</v>
       </c>
     </row>
-    <row r="87" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D87" s="2" t="s">
         <v>20</v>
       </c>
@@ -16181,7 +16207,7 @@
         <v>4.024</v>
       </c>
     </row>
-    <row r="88" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B88" s="2" t="s">
         <v>31</v>
       </c>
@@ -16369,7 +16395,7 @@
         <v>5649.8</v>
       </c>
     </row>
-    <row r="89" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D89" s="2" t="s">
         <v>20</v>
       </c>
@@ -16554,7 +16580,7 @@
         <v>2.85</v>
       </c>
     </row>
-    <row r="90" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C90" s="2" t="s">
         <v>30</v>
       </c>
@@ -16742,7 +16768,7 @@
         <v>4330.8</v>
       </c>
     </row>
-    <row r="91" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D91" s="2" t="s">
         <v>20</v>
       </c>
@@ -16927,7 +16953,7 @@
         <v>3.2269999999999999</v>
       </c>
     </row>
-    <row r="92" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C92" s="14" t="s">
         <v>29</v>
       </c>
@@ -17115,7 +17141,7 @@
         <v>1265.2</v>
       </c>
     </row>
-    <row r="93" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D93" s="2" t="s">
         <v>20</v>
       </c>
@@ -17300,7 +17326,7 @@
         <v>1.4870000000000001</v>
       </c>
     </row>
-    <row r="94" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C94" s="2" t="s">
         <v>28</v>
       </c>
@@ -17488,7 +17514,7 @@
         <v>53.8</v>
       </c>
     </row>
-    <row r="95" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B95" s="2" t="s">
         <v>27</v>
       </c>
@@ -17676,7 +17702,7 @@
         <v>5547</v>
       </c>
     </row>
-    <row r="96" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D96" s="2" t="s">
         <v>20</v>
       </c>
@@ -17861,7 +17887,7 @@
         <v>3.3359999999999999</v>
       </c>
     </row>
-    <row r="97" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C97" s="2" t="s">
         <v>26</v>
       </c>
@@ -18049,7 +18075,7 @@
         <v>1925.2</v>
       </c>
     </row>
-    <row r="98" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D98" s="2" t="s">
         <v>20</v>
       </c>
@@ -18234,7 +18260,7 @@
         <v>2.5230000000000001</v>
       </c>
     </row>
-    <row r="99" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C99" s="2" t="s">
         <v>25</v>
       </c>
@@ -18422,7 +18448,7 @@
         <v>3621.8</v>
       </c>
     </row>
-    <row r="100" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D100" s="2" t="s">
         <v>20</v>
       </c>
@@ -18607,7 +18633,7 @@
         <v>3.7719999999999998</v>
       </c>
     </row>
-    <row r="101" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B101" s="2" t="s">
         <v>24</v>
       </c>
@@ -18795,7 +18821,7 @@
         <v>-977</v>
       </c>
     </row>
-    <row r="102" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C102" s="2" t="s">
         <v>23</v>
       </c>
@@ -18983,7 +19009,7 @@
         <v>3538.4</v>
       </c>
     </row>
-    <row r="103" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D103" s="2" t="s">
         <v>20</v>
       </c>
@@ -19168,7 +19194,7 @@
         <v>3.3519999999999999</v>
       </c>
     </row>
-    <row r="104" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C104" s="2" t="s">
         <v>22</v>
       </c>
@@ -19356,7 +19382,7 @@
         <v>4515.3999999999996</v>
       </c>
     </row>
-    <row r="105" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D105" s="2" t="s">
         <v>20</v>
       </c>
@@ -19541,7 +19567,7 @@
         <v>3.4119999999999999</v>
       </c>
     </row>
-    <row r="106" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B106" s="2" t="s">
         <v>35</v>
       </c>
@@ -19729,7 +19755,7 @@
         <v>-755.9</v>
       </c>
     </row>
-    <row r="107" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E107" s="5"/>
       <c r="F107" s="5"/>
       <c r="G107" s="5"/>
@@ -19856,7 +19882,7 @@
       <c r="BK108" s="12"/>
       <c r="BL108" s="12"/>
     </row>
-    <row r="109" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B109" s="2" t="s">
         <v>32</v>
       </c>
@@ -20044,7 +20070,7 @@
         <v>16882.099999999999</v>
       </c>
     </row>
-    <row r="110" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D110" s="2" t="s">
         <v>20</v>
       </c>
@@ -20229,7 +20255,7 @@
         <v>1.9930000000000001</v>
       </c>
     </row>
-    <row r="111" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B111" s="2" t="s">
         <v>31</v>
       </c>
@@ -20417,7 +20443,7 @@
         <v>4378.8999999999996</v>
       </c>
     </row>
-    <row r="112" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D112" s="2" t="s">
         <v>20</v>
       </c>
@@ -20602,7 +20628,7 @@
         <v>1.5660000000000001</v>
       </c>
     </row>
-    <row r="113" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C113" s="2" t="s">
         <v>30</v>
       </c>
@@ -20790,7 +20816,7 @@
         <v>3723.6</v>
       </c>
     </row>
-    <row r="114" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D114" s="2" t="s">
         <v>20</v>
       </c>
@@ -20975,7 +21001,7 @@
         <v>2.3330000000000002</v>
       </c>
     </row>
-    <row r="115" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C115" s="2" t="s">
         <v>29</v>
       </c>
@@ -21163,7 +21189,7 @@
         <v>662.3</v>
       </c>
     </row>
-    <row r="116" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D116" s="2" t="s">
         <v>20</v>
       </c>
@@ -21348,7 +21374,7 @@
         <v>-1.149</v>
       </c>
     </row>
-    <row r="117" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C117" s="2" t="s">
         <v>28</v>
       </c>
@@ -21536,7 +21562,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="118" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B118" s="2" t="s">
         <v>27</v>
       </c>
@@ -21724,7 +21750,7 @@
         <v>3555.2</v>
       </c>
     </row>
-    <row r="119" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C119" s="2" t="s">
         <v>26</v>
       </c>
@@ -21912,7 +21938,7 @@
         <v>1363.5</v>
       </c>
     </row>
-    <row r="120" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C120" s="2" t="s">
         <v>25</v>
       </c>
@@ -22100,7 +22126,7 @@
         <v>2186.3000000000002</v>
       </c>
     </row>
-    <row r="121" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D121" s="2" t="s">
         <v>20</v>
       </c>
@@ -22285,7 +22311,7 @@
         <v>0.67200000000000004</v>
       </c>
     </row>
-    <row r="122" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B122" s="2" t="s">
         <v>24</v>
       </c>
@@ -22473,7 +22499,7 @@
         <v>-1336.4</v>
       </c>
     </row>
-    <row r="123" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C123" s="2" t="s">
         <v>23</v>
       </c>
@@ -22661,7 +22687,7 @@
         <v>3081.2</v>
       </c>
     </row>
-    <row r="124" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D124" s="2" t="s">
         <v>20</v>
       </c>
@@ -22846,7 +22872,7 @@
         <v>1.7370000000000001</v>
       </c>
     </row>
-    <row r="125" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C125" s="2" t="s">
         <v>22</v>
       </c>
@@ -23034,7 +23060,7 @@
         <v>4417.6000000000004</v>
       </c>
     </row>
-    <row r="126" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="3"/>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
@@ -23222,12 +23248,12 @@
         <v>2.2570000000000001</v>
       </c>
     </row>
-    <row r="128" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="130" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="45" t="s">
         <v>18</v>
       </c>
@@ -23235,10 +23261,10 @@
       <c r="C130" s="45"/>
       <c r="D130" s="45"/>
     </row>
-    <row r="131" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C131" s="6"/>
     </row>
-    <row r="132" spans="1:64" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:64" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
         <v>17</v>
       </c>
@@ -23256,7 +23282,7 @@
       <c r="P132" s="7"/>
       <c r="Q132" s="7"/>
     </row>
-    <row r="133" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C133" s="6"/>
       <c r="E133" s="5"/>
       <c r="G133" s="5"/>
@@ -23271,12 +23297,12 @@
       <c r="P133" s="5"/>
       <c r="Q133" s="5"/>
     </row>
-    <row r="134" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="135" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="3"/>
       <c r="B135" s="4"/>
       <c r="C135" s="3"/>
@@ -23362,9 +23388,9 @@
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -23375,7 +23401,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>43921</v>
       </c>
@@ -23386,7 +23412,7 @@
         <v>3.8639999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>44012</v>
       </c>
@@ -23397,7 +23423,7 @@
         <v>3.2149999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>44104</v>
       </c>
@@ -23408,7 +23434,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>44196</v>
       </c>
@@ -23419,7 +23445,7 @@
         <v>3.7440000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>44286</v>
       </c>
@@ -23430,7 +23456,7 @@
         <v>3.734</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>44377</v>
       </c>
@@ -23441,7 +23467,7 @@
         <v>3.7170000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>44469</v>
       </c>
@@ -23452,7 +23478,7 @@
         <v>3.72</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>44561</v>
       </c>
@@ -23463,7 +23489,7 @@
         <v>3.7509999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>44651</v>
       </c>
@@ -23474,7 +23500,7 @@
         <v>9.2159999999999993</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>44742</v>
       </c>
@@ -23485,7 +23511,7 @@
         <v>9.843</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>44834</v>
       </c>
@@ -23496,7 +23522,7 @@
         <v>7.6760000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>44926</v>
       </c>
@@ -23507,7 +23533,7 @@
         <v>5.7149999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>45016</v>
       </c>
@@ -23518,7 +23544,7 @@
         <v>4.9859999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>45107</v>
       </c>
@@ -23529,7 +23555,7 @@
         <v>4.2220000000000004</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>45199</v>
       </c>
@@ -23540,7 +23566,7 @@
         <v>3.7879999999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>45291</v>
       </c>
@@ -23551,7 +23577,7 @@
         <v>3.6309999999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>45382</v>
       </c>
@@ -23562,7 +23588,7 @@
         <v>3.5049999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>45473</v>
       </c>
@@ -23573,7 +23599,7 @@
         <v>3.4809999999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>45565</v>
       </c>
@@ -23584,7 +23610,7 @@
         <v>3.5430000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>45657</v>
       </c>
@@ -23595,7 +23621,7 @@
         <v>3.633</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>45747</v>
       </c>
@@ -23606,7 +23632,7 @@
         <v>3.8759999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>45838</v>
       </c>
@@ -23617,7 +23643,7 @@
         <v>3.98</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>45930</v>
       </c>
@@ -23628,7 +23654,7 @@
         <v>4.0709999999999997</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>46022</v>
       </c>
@@ -23639,7 +23665,7 @@
         <v>4.0750000000000002</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>46112</v>
       </c>
@@ -23650,7 +23676,7 @@
         <v>4.032</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>46203</v>
       </c>
@@ -23661,7 +23687,7 @@
         <v>3.9910000000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>46295</v>
       </c>
@@ -23672,7 +23698,7 @@
         <v>3.9529999999999998</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>46387</v>
       </c>
@@ -23683,7 +23709,7 @@
         <v>3.923</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>46477</v>
       </c>
@@ -23694,7 +23720,7 @@
         <v>3.8959999999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>46568</v>
       </c>
@@ -23705,7 +23731,7 @@
         <v>3.891</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>46660</v>
       </c>
@@ -23716,7 +23742,7 @@
         <v>3.8620000000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>46752</v>
       </c>
@@ -23727,7 +23753,7 @@
         <v>3.8380000000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>46843</v>
       </c>
@@ -23738,7 +23764,7 @@
         <v>3.8039999999999998</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>46934</v>
       </c>
@@ -23749,7 +23775,7 @@
         <v>3.7970000000000002</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>47026</v>
       </c>
@@ -23760,7 +23786,7 @@
         <v>3.78</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>47118</v>
       </c>
@@ -23771,7 +23797,7 @@
         <v>3.766</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>47208</v>
       </c>
@@ -23782,7 +23808,7 @@
         <v>3.74</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>47299</v>
       </c>
@@ -23793,7 +23819,7 @@
         <v>3.746</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>47391</v>
       </c>
@@ -23804,7 +23830,7 @@
         <v>3.7570000000000001</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>47483</v>
       </c>
@@ -23815,7 +23841,7 @@
         <v>3.7709999999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>47573</v>
       </c>
@@ -23826,7 +23852,7 @@
         <v>3.7749999999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>47664</v>
       </c>
@@ -23837,7 +23863,7 @@
         <v>3.7810000000000001</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>47756</v>
       </c>
@@ -23848,7 +23874,7 @@
         <v>3.7879999999999998</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>47848</v>
       </c>
@@ -23859,7 +23885,7 @@
         <v>3.7879999999999998</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>47938</v>
       </c>
@@ -23870,7 +23896,7 @@
         <v>3.8069999999999999</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>48029</v>
       </c>
@@ -23881,7 +23907,7 @@
         <v>3.7909999999999999</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>48121</v>
       </c>
@@ -23892,7 +23918,7 @@
         <v>3.7909999999999999</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>48213</v>
       </c>
@@ -23903,7 +23929,7 @@
         <v>3.7839999999999998</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B50" s="33">
         <v>2.3690000000000002</v>
       </c>
@@ -23911,7 +23937,7 @@
         <v>3.79</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B51" s="33">
         <v>2.37</v>
       </c>
@@ -23919,7 +23945,7 @@
         <v>3.7909999999999999</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B52" s="33">
         <v>2.371</v>
       </c>
@@ -23927,7 +23953,7 @@
         <v>3.7869999999999999</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B53" s="33">
         <v>2.4249999999999998</v>
       </c>
@@ -23944,19 +23970,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E35EE37A-6DA7-464E-B4F9-9D022FBE10B3}">
   <dimension ref="A1:BJ66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="11.25" customWidth="1"/>
+    <col min="5" max="5" width="11.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -24009,7 +24035,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="2" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>42825</v>
       </c>
@@ -24107,7 +24133,7 @@
       <c r="BI2" s="31"/>
       <c r="BJ2" s="31"/>
     </row>
-    <row r="3" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>42916</v>
       </c>
@@ -24160,7 +24186,7 @@
         <v>4.3659999999999997</v>
       </c>
     </row>
-    <row r="4" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>43008</v>
       </c>
@@ -24213,7 +24239,7 @@
         <v>4.3330000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>43100</v>
       </c>
@@ -24266,7 +24292,7 @@
         <v>4.1660000000000004</v>
       </c>
     </row>
-    <row r="6" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>43190</v>
       </c>
@@ -24319,7 +24345,7 @@
         <v>4.0330000000000004</v>
       </c>
     </row>
-    <row r="7" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>43281</v>
       </c>
@@ -24372,7 +24398,7 @@
         <v>3.9329999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>43373</v>
       </c>
@@ -24425,7 +24451,7 @@
         <v>3.766</v>
       </c>
     </row>
-    <row r="9" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>43465</v>
       </c>
@@ -24478,7 +24504,7 @@
         <v>3.8330000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>43555</v>
       </c>
@@ -24531,7 +24557,7 @@
         <v>3.8660000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>43646</v>
       </c>
@@ -24584,7 +24610,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="12" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>43738</v>
       </c>
@@ -24637,7 +24663,7 @@
         <v>3.633</v>
       </c>
     </row>
-    <row r="13" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>43830</v>
       </c>
@@ -24690,7 +24716,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="14" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>43921</v>
       </c>
@@ -24743,7 +24769,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="15" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>44012</v>
       </c>
@@ -24796,7 +24822,7 @@
         <v>12.965999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>44104</v>
       </c>
@@ -24849,7 +24875,7 @@
         <v>8.8330000000000002</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>44196</v>
       </c>
@@ -24902,7 +24928,7 @@
         <v>6.766</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>44286</v>
       </c>
@@ -24955,7 +24981,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>44377</v>
       </c>
@@ -25008,7 +25034,7 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>44469</v>
       </c>
@@ -25061,7 +25087,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>44561</v>
       </c>
@@ -25114,7 +25140,7 @@
         <v>4.2329999999999997</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>44651</v>
       </c>
@@ -25167,7 +25193,7 @@
         <v>3.91</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>44742</v>
       </c>
@@ -25220,7 +25246,7 @@
         <v>3.85</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>44834</v>
       </c>
@@ -25273,7 +25299,7 @@
         <v>3.72</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>44926</v>
       </c>
@@ -25326,7 +25352,7 @@
         <v>3.65</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>45016</v>
       </c>
@@ -25379,7 +25405,7 @@
         <v>3.58</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>45107</v>
       </c>
@@ -25432,7 +25458,7 @@
         <v>3.52</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>45199</v>
       </c>
@@ -25485,7 +25511,7 @@
         <v>3.5310000000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>45291</v>
       </c>
@@ -25538,7 +25564,7 @@
         <v>3.5510000000000002</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>45382</v>
       </c>
@@ -25591,7 +25617,7 @@
         <v>3.6219999999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>45473</v>
       </c>
@@ -25644,7 +25670,7 @@
         <v>3.6850000000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>45565</v>
       </c>
@@ -25697,7 +25723,7 @@
         <v>3.722</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>45657</v>
       </c>
@@ -25750,7 +25776,7 @@
         <v>3.76</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>45747</v>
       </c>
@@ -25803,7 +25829,7 @@
         <v>3.7989999999999999</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>45838</v>
       </c>
@@ -25856,7 +25882,7 @@
         <v>3.8380000000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>45930</v>
       </c>
@@ -25909,7 +25935,7 @@
         <v>3.8769999999999998</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>46022</v>
       </c>
@@ -25962,7 +25988,7 @@
         <v>3.915</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>46112</v>
       </c>
@@ -26015,7 +26041,7 @@
         <v>3.9590000000000001</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>46203</v>
       </c>
@@ -26068,7 +26094,7 @@
         <v>4.0039999999999996</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>46295</v>
       </c>
@@ -26121,7 +26147,7 @@
         <v>4.0549999999999997</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>46387</v>
       </c>
@@ -26174,7 +26200,7 @@
         <v>4.101</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>46477</v>
       </c>
@@ -26227,7 +26253,7 @@
         <v>4.149</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>46568</v>
       </c>
@@ -26280,7 +26306,7 @@
         <v>4.1920000000000002</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>46660</v>
       </c>
@@ -26333,7 +26359,7 @@
         <v>4.2469999999999999</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>46752</v>
       </c>
@@ -26386,7 +26412,7 @@
         <v>4.3079999999999998</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>46843</v>
       </c>
@@ -26439,7 +26465,7 @@
         <v>4.3780000000000001</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>46934</v>
       </c>
@@ -26492,7 +26518,7 @@
         <v>4.45</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>47026</v>
       </c>
@@ -26545,7 +26571,7 @@
         <v>4.5019999999999998</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>47118</v>
       </c>
@@ -26598,7 +26624,7 @@
         <v>4.53</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>47208</v>
       </c>
@@ -26651,7 +26677,7 @@
         <v>4.5359999999999996</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>47299</v>
       </c>
@@ -26704,7 +26730,7 @@
         <v>4.5389999999999997</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>47391</v>
       </c>
@@ -26757,7 +26783,7 @@
         <v>4.5419999999999998</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>47483</v>
       </c>
@@ -26810,7 +26836,7 @@
         <v>4.5460000000000003</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>47573</v>
       </c>
@@ -26863,7 +26889,7 @@
         <v>4.5490000000000004</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>47664</v>
       </c>
@@ -26916,7 +26942,7 @@
         <v>4.5519999999999996</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>47756</v>
       </c>
@@ -26969,7 +26995,7 @@
         <v>4.5540000000000003</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>47848</v>
       </c>
@@ -27022,7 +27048,7 @@
         <v>4.5579999999999998</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>47938</v>
       </c>
@@ -27075,7 +27101,7 @@
         <v>4.5510000000000002</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>48029</v>
       </c>
@@ -27128,7 +27154,7 @@
         <v>4.5439999999999996</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>48121</v>
       </c>
@@ -27181,7 +27207,7 @@
         <v>4.5380000000000003</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>48213</v>
       </c>
@@ -27234,7 +27260,7 @@
         <v>4.5309999999999997</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>48304</v>
       </c>
@@ -27287,7 +27313,7 @@
         <v>4.524</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>48395</v>
       </c>
@@ -27340,7 +27366,7 @@
         <v>4.5170000000000003</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>48487</v>
       </c>
@@ -27393,7 +27419,7 @@
         <v>4.51</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>48579</v>
       </c>
@@ -27446,7 +27472,7 @@
         <v>4.5030000000000001</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
       <c r="I66" s="34"/>
       <c r="L66" s="34"/>
     </row>
@@ -27463,9 +27489,9 @@
       <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>158</v>
       </c>
@@ -27497,7 +27523,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2017</v>
       </c>
@@ -27530,7 +27556,7 @@
         <v>31.2</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2018</v>
       </c>
@@ -27563,7 +27589,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2019</v>
       </c>
@@ -27596,7 +27622,7 @@
         <v>27.626999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2020</v>
       </c>
@@ -27629,7 +27655,7 @@
         <v>473.16500000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2021</v>
       </c>
@@ -27661,7 +27687,7 @@
         <v>59.15</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2022</v>
       </c>
@@ -27693,7 +27719,7 @@
         <v>38.14</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2023</v>
       </c>
@@ -27725,7 +27751,7 @@
         <v>36.145000000000003</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2024</v>
       </c>
@@ -27757,7 +27783,7 @@
         <v>35.369999999999997</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2025</v>
       </c>
@@ -27789,7 +27815,7 @@
         <v>33.424999999999997</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2026</v>
       </c>
@@ -27821,7 +27847,7 @@
         <v>32.450000000000003</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2027</v>
       </c>
@@ -27853,7 +27879,7 @@
         <v>33.164999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2028</v>
       </c>
@@ -27885,7 +27911,7 @@
         <v>35.090000000000003</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2029</v>
       </c>
@@ -27917,7 +27943,7 @@
         <v>37.164999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2030</v>
       </c>
@@ -27949,7 +27975,7 @@
         <v>39.784999999999997</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2031</v>
       </c>
@@ -27981,7 +28007,7 @@
         <v>44.73</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2032</v>
       </c>
@@ -28010,7 +28036,7 @@
         <v>51.475000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B24" s="37"/>
       <c r="C24" s="37"/>
       <c r="D24" s="37"/>
@@ -28037,9 +28063,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -28047,7 +28073,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>197</v>
       </c>
@@ -28055,7 +28081,7 @@
         <v>0.66513142470107067</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>198</v>
       </c>
@@ -28063,7 +28089,7 @@
         <v>0.66892566614130466</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>199</v>
       </c>
@@ -28071,7 +28097,7 @@
         <v>0.65283836530948725</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>200</v>
       </c>
@@ -28079,7 +28105,7 @@
         <v>0.65953557146217701</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>201</v>
       </c>
@@ -28087,7 +28113,7 @@
         <v>0.66058231423538405</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>202</v>
       </c>
@@ -28095,7 +28121,7 @@
         <v>0.6749214177505789</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>203</v>
       </c>
@@ -28103,7 +28129,7 @@
         <v>0.68242012696430432</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>204</v>
       </c>
@@ -28111,7 +28137,7 @@
         <v>0.6730637268687778</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>205</v>
       </c>
@@ -28119,7 +28145,7 @@
         <v>0.66424643423393748</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>206</v>
       </c>
@@ -28127,7 +28153,7 @@
         <v>0.67846773573296415</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>207</v>
       </c>
@@ -28135,7 +28161,7 @@
         <v>0.76648081779484256</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>208</v>
       </c>
@@ -28143,7 +28169,7 @@
         <v>0.71094027669909299</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>209</v>
       </c>
@@ -28151,7 +28177,7 @@
         <v>0.75054511245142341</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>185</v>
       </c>
@@ -28159,7 +28185,7 @@
         <v>0.7533823239283487</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>186</v>
       </c>
@@ -28170,7 +28196,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>187</v>
       </c>
@@ -28178,7 +28204,7 @@
         <v>0.75196371818988605</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>188</v>
       </c>
@@ -28186,7 +28212,7 @@
         <v>0.75196371818988605</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>189</v>
       </c>
@@ -28194,7 +28220,7 @@
         <v>0.75196371818988605</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>190</v>
       </c>
@@ -28202,7 +28228,7 @@
         <v>0.75196371818988605</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>191</v>
       </c>
@@ -28210,7 +28236,7 @@
         <v>0.67274689645476105</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>192</v>
       </c>
@@ -28218,7 +28244,7 @@
         <v>0.67274689645476138</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>193</v>
       </c>
@@ -28226,7 +28252,7 @@
         <v>0.67274689645476138</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>194</v>
       </c>
@@ -28234,7 +28260,7 @@
         <v>0.67274689645476138</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>195</v>
       </c>
@@ -28242,7 +28268,7 @@
         <v>0.67274689645476138</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>196</v>
       </c>
@@ -28250,7 +28276,7 @@
         <v>0.67274689645476138</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>210</v>
       </c>
@@ -28271,9 +28297,9 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>158</v>
       </c>
@@ -28281,7 +28307,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="29">
         <v>2019</v>
       </c>
@@ -28289,7 +28315,7 @@
         <v>0.67300000000000004</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="29">
         <v>2020</v>
       </c>
@@ -28297,7 +28323,7 @@
         <v>0.70499999999999996</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="29">
         <v>2021</v>
       </c>
@@ -28305,7 +28331,7 @@
         <v>0.752</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="29">
         <v>2022</v>
       </c>
@@ -28313,7 +28339,7 @@
         <v>0.73199999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="29">
         <v>2023</v>
       </c>
@@ -28321,7 +28347,7 @@
         <v>0.67300000000000004</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="29">
         <v>2024</v>
       </c>
@@ -28329,7 +28355,7 @@
         <v>0.67300000000000004</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="29">
         <v>2025</v>
       </c>
@@ -28337,7 +28363,7 @@
         <v>0.67300000000000004</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="29">
         <v>2026</v>
       </c>
@@ -28345,7 +28371,7 @@
         <v>0.67300000000000004</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="29">
         <v>2027</v>
       </c>
@@ -28353,7 +28379,7 @@
         <v>0.67300000000000004</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="29">
         <v>2028</v>
       </c>
@@ -28361,7 +28387,7 @@
         <v>0.67300000000000004</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="29">
         <v>2029</v>
       </c>
@@ -28381,7 +28407,7 @@
       <c r="O12" s="29"/>
       <c r="P12" s="29"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="29">
         <v>2030</v>
       </c>
@@ -28414,9 +28440,9 @@
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -28433,7 +28459,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>185</v>
       </c>
@@ -28455,7 +28481,7 @@
       <c r="K2" s="28"/>
       <c r="L2" s="28"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>186</v>
       </c>
@@ -28476,7 +28502,7 @@
       <c r="K3" s="28"/>
       <c r="L3" s="28"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>187</v>
       </c>
@@ -28493,7 +28519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>188</v>
       </c>
@@ -28510,7 +28536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>189</v>
       </c>
@@ -28527,7 +28553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>190</v>
       </c>
@@ -28544,7 +28570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>191</v>
       </c>
@@ -28561,7 +28587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>192</v>
       </c>
@@ -28578,7 +28604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>193</v>
       </c>
@@ -28595,7 +28621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>194</v>
       </c>
@@ -28612,7 +28638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>195</v>
       </c>
@@ -28629,7 +28655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>196</v>
       </c>
@@ -28659,9 +28685,9 @@
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -28708,7 +28734,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2021</v>
       </c>
@@ -28757,7 +28783,7 @@
         <v>181.506</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2022</v>
       </c>
@@ -28785,7 +28811,7 @@
         <v>1.7549999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2023</v>
       </c>
@@ -28813,7 +28839,7 @@
         <v>0.67600000000000005</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2024</v>
       </c>
@@ -28858,7 +28884,7 @@
         <v>0.53100000000000003</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2025</v>
       </c>
@@ -28903,7 +28929,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2026</v>
       </c>
@@ -28948,7 +28974,7 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2027</v>
       </c>
@@ -28993,7 +29019,7 @@
         <v>0.52700000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2028</v>
       </c>
@@ -29038,7 +29064,7 @@
         <v>0.52700000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2029</v>
       </c>
@@ -29083,7 +29109,7 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2030</v>
       </c>
@@ -29128,7 +29154,7 @@
         <v>0.53500000000000003</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2031</v>
       </c>
@@ -29186,9 +29212,9 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -29226,7 +29252,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2021</v>
       </c>
@@ -29265,12 +29291,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2022</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2023</v>
       </c>

--- a/inst/extdata/projections.xlsx
+++ b/inst/extdata/projections.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nsalwati\Downloads\Hutchins Fiscal Impact Measure\fim\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{517DD753-0892-474B-8302-116A23349C28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9933A1D6-CBC0-49C9-8C67-2219B20A6945}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dictionary" sheetId="10" r:id="rId1"/>
@@ -1121,7 +1121,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1331,6 +1331,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="12">
     <border>
@@ -1466,7 +1472,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="48">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -1518,8 +1524,9 @@
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="43" applyFont="1"/>
@@ -1570,6 +1577,10 @@
       <alignment horizontal="left" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="48" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1586,8 +1597,11 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="43" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="48">
+  <cellStyles count="49">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -1633,6 +1647,7 @@
     <cellStyle name="Normal 2 3 2" xfId="44" xr:uid="{1F57F976-5F5C-0544-85DA-254B543D7295}"/>
     <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Percent" xfId="48" builtinId="5"/>
     <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
@@ -1949,27 +1964,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91A9440D-BB32-4FF5-9B05-8B4462DE649B}">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.3984375" customWidth="1"/>
+    <col min="1" max="1" width="25.375" customWidth="1"/>
     <col min="2" max="2" width="32" customWidth="1"/>
-    <col min="3" max="3" width="50.3984375" customWidth="1"/>
+    <col min="3" max="3" width="50.375" customWidth="1"/>
     <col min="4" max="4" width="44" customWidth="1"/>
-    <col min="5" max="5" width="19.59765625" customWidth="1"/>
+    <col min="5" max="5" width="19.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="40" t="s">
+    <row r="1" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="42" t="s">
         <v>216</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>273</v>
       </c>
@@ -1983,7 +1998,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="39" t="s">
         <v>1</v>
       </c>
@@ -2001,7 +2016,7 @@
       <c r="G3" s="35"/>
       <c r="H3" s="35"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="39" t="s">
         <v>271</v>
       </c>
@@ -2019,7 +2034,7 @@
       <c r="G4" s="35"/>
       <c r="H4" s="35"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="39" t="s">
         <v>272</v>
       </c>
@@ -2037,7 +2052,7 @@
       <c r="G5" s="35"/>
       <c r="H5" s="35"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="39" t="s">
         <v>241</v>
       </c>
@@ -2055,7 +2070,7 @@
       <c r="G6" s="35"/>
       <c r="H6" s="35"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="39" t="s">
         <v>243</v>
       </c>
@@ -2075,7 +2090,7 @@
       <c r="G7" s="35"/>
       <c r="H7" s="35"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="39" t="s">
         <v>247</v>
       </c>
@@ -2095,7 +2110,7 @@
       <c r="G8" s="35"/>
       <c r="H8" s="35"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="39" t="s">
         <v>250</v>
       </c>
@@ -2113,7 +2128,7 @@
       <c r="G9" s="35"/>
       <c r="H9" s="35"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="39" t="s">
         <v>252</v>
       </c>
@@ -2135,7 +2150,7 @@
       <c r="G10" s="35"/>
       <c r="H10" s="35"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="39" t="s">
         <v>257</v>
       </c>
@@ -2153,7 +2168,7 @@
       <c r="G11" s="35"/>
       <c r="H11" s="35"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="39" t="s">
         <v>260</v>
       </c>
@@ -2171,7 +2186,7 @@
       <c r="G12" s="35"/>
       <c r="H12" s="35"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="39" t="s">
         <v>262</v>
       </c>
@@ -2189,7 +2204,7 @@
       <c r="G13" s="35"/>
       <c r="H13" s="35"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="39" t="s">
         <v>264</v>
       </c>
@@ -2207,7 +2222,7 @@
       <c r="G14" s="35"/>
       <c r="H14" s="35"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="39" t="s">
         <v>266</v>
       </c>
@@ -2225,7 +2240,7 @@
       <c r="G15" s="35"/>
       <c r="H15" s="35"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="39" t="s">
         <v>268</v>
       </c>
@@ -2243,7 +2258,7 @@
       <c r="G16" s="35"/>
       <c r="H16" s="35"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="39" t="s">
         <v>269</v>
       </c>
@@ -2261,7 +2276,7 @@
       <c r="G17" s="35"/>
       <c r="H17" s="35"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="39" t="s">
         <v>270</v>
       </c>
@@ -2279,14 +2294,14 @@
       <c r="G18" s="35"/>
       <c r="H18" s="35"/>
     </row>
-    <row r="21" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="41" t="s">
+    <row r="21" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="43" t="s">
         <v>226</v>
       </c>
-      <c r="B21" s="41"/>
-      <c r="C21" s="41"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B21" s="43"/>
+      <c r="C21" s="43"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>217</v>
       </c>
@@ -2294,7 +2309,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>219</v>
       </c>
@@ -2302,7 +2317,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>221</v>
       </c>
@@ -2310,7 +2325,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>223</v>
       </c>
@@ -2318,14 +2333,14 @@
         <v>224</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="41" t="s">
+    <row r="26" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="43" t="s">
         <v>225</v>
       </c>
-      <c r="B26" s="41"/>
-      <c r="C26" s="41"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B26" s="43"/>
+      <c r="C26" s="43"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>227</v>
       </c>
@@ -2333,7 +2348,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>228</v>
       </c>
@@ -2341,7 +2356,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>229</v>
       </c>
@@ -2349,7 +2364,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>230</v>
       </c>
@@ -2379,44 +2394,44 @@
       <selection pane="bottomRight" activeCell="T38" sqref="T38:BL38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.69921875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="51.69921875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="55.69921875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="63.69921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="19" width="8.19921875" style="2" hidden="1" customWidth="1"/>
-    <col min="20" max="60" width="8.19921875" style="2" customWidth="1"/>
-    <col min="61" max="16384" width="9.19921875" style="2"/>
+    <col min="1" max="1" width="2.75" style="2" customWidth="1"/>
+    <col min="2" max="2" width="51.75" style="2" customWidth="1"/>
+    <col min="3" max="3" width="55.75" style="2" customWidth="1"/>
+    <col min="4" max="4" width="63.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="19" width="8.25" style="2" hidden="1" customWidth="1"/>
+    <col min="20" max="60" width="8.25" style="2" customWidth="1"/>
+    <col min="61" max="16384" width="9.25" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="2" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="42" t="s">
+    <row r="2" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="44" t="s">
         <v>156</v>
       </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-    </row>
-    <row r="4" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+    </row>
+    <row r="4" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D4" s="23"/>
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="46" t="s">
         <v>155</v>
       </c>
-      <c r="B5" s="44"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
+      <c r="B5" s="46"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -2470,7 +2485,7 @@
       <c r="BG5" s="3"/>
       <c r="BH5" s="3"/>
     </row>
-    <row r="6" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="BA6" s="22"/>
       <c r="BB6" s="22"/>
       <c r="BC6" s="22"/>
@@ -2480,7 +2495,7 @@
       <c r="BK6" s="22"/>
       <c r="BL6" s="22"/>
     </row>
-    <row r="7" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -2817,7 +2832,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="9" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
         <v>92</v>
       </c>
@@ -3005,7 +3020,7 @@
         <v>33695.9</v>
       </c>
     </row>
-    <row r="10" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
         <v>91</v>
       </c>
@@ -3571,7 +3586,7 @@
         <v>23615.3</v>
       </c>
     </row>
-    <row r="13" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
         <v>89</v>
       </c>
@@ -3759,7 +3774,7 @@
         <v>18628.5</v>
       </c>
     </row>
-    <row r="14" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D14" s="2" t="s">
         <v>20</v>
       </c>
@@ -3944,7 +3959,7 @@
         <v>2.0049999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="T15" s="16"/>
       <c r="U15" s="16"/>
       <c r="V15" s="16"/>
@@ -4551,7 +4566,7 @@
         <v>1.9910000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
         <v>85</v>
       </c>
@@ -4739,7 +4754,7 @@
         <v>141.75399999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D20" s="2" t="s">
         <v>20</v>
       </c>
@@ -4924,7 +4939,7 @@
         <v>2.0030000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
         <v>84</v>
       </c>
@@ -5112,7 +5127,7 @@
         <v>335.62799999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D22" s="2" t="s">
         <v>20</v>
       </c>
@@ -5297,7 +5312,7 @@
         <v>2.3069999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
         <v>83</v>
       </c>
@@ -5485,7 +5500,7 @@
         <v>346.53300000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D24" s="2" t="s">
         <v>20</v>
       </c>
@@ -5670,7 +5685,7 @@
         <v>2.3260000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="2" t="s">
         <v>81</v>
       </c>
@@ -5858,7 +5873,7 @@
         <v>182.87299999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D26" s="2" t="s">
         <v>20</v>
       </c>
@@ -6043,7 +6058,7 @@
         <v>0.247</v>
       </c>
     </row>
-    <row r="27" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="2" t="s">
         <v>79</v>
       </c>
@@ -6231,7 +6246,7 @@
         <v>143.11099999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D28" s="2" t="s">
         <v>20</v>
       </c>
@@ -6416,7 +6431,7 @@
         <v>2.0619999999999998</v>
       </c>
     </row>
-    <row r="29" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="2" t="s">
         <v>78</v>
       </c>
@@ -6604,7 +6619,7 @@
         <v>198.76</v>
       </c>
     </row>
-    <row r="30" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D30" s="2" t="s">
         <v>20</v>
       </c>
@@ -6789,7 +6804,7 @@
         <v>3.129</v>
       </c>
     </row>
-    <row r="31" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="2" t="s">
         <v>76</v>
       </c>
@@ -6977,7 +6992,7 @@
         <v>57.07</v>
       </c>
     </row>
-    <row r="32" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="2" t="s">
         <v>75</v>
       </c>
@@ -7165,7 +7180,7 @@
         <v>59.4</v>
       </c>
     </row>
-    <row r="33" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="2" t="s">
         <v>73</v>
       </c>
@@ -7353,7 +7368,7 @@
         <v>2.85</v>
       </c>
     </row>
-    <row r="34" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="2" t="s">
         <v>71</v>
       </c>
@@ -7541,7 +7556,7 @@
         <v>440.10700000000003</v>
       </c>
     </row>
-    <row r="35" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="15"/>
       <c r="B35" s="2" t="s">
         <v>69</v>
@@ -7730,7 +7745,7 @@
         <v>172.202</v>
       </c>
     </row>
-    <row r="36" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
       <c r="G36" s="5"/>
@@ -7857,7 +7872,7 @@
       <c r="BK37" s="12"/>
       <c r="BL37" s="12"/>
     </row>
-    <row r="38" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="2" t="s">
         <v>66</v>
       </c>
@@ -8045,7 +8060,7 @@
         <v>4.343</v>
       </c>
     </row>
-    <row r="39" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="2" t="s">
         <v>65</v>
       </c>
@@ -8233,7 +8248,7 @@
         <v>169.917</v>
       </c>
     </row>
-    <row r="40" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D40" s="2" t="s">
         <v>20</v>
       </c>
@@ -8418,7 +8433,7 @@
         <v>0.28299999999999997</v>
       </c>
     </row>
-    <row r="41" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="2" t="s">
         <v>64</v>
       </c>
@@ -8606,7 +8621,7 @@
         <v>60.713000000000001</v>
       </c>
     </row>
-    <row r="42" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="2" t="s">
         <v>63</v>
       </c>
@@ -8794,7 +8809,7 @@
         <v>162.536</v>
       </c>
     </row>
-    <row r="43" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D43" s="2" t="s">
         <v>20</v>
       </c>
@@ -8979,7 +8994,7 @@
         <v>0.248</v>
       </c>
     </row>
-    <row r="44" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" s="2" t="s">
         <v>62</v>
       </c>
@@ -9167,7 +9182,7 @@
         <v>158.464</v>
       </c>
     </row>
-    <row r="45" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D45" s="2" t="s">
         <v>20</v>
       </c>
@@ -9352,7 +9367,7 @@
         <v>0.30499999999999999</v>
       </c>
     </row>
-    <row r="46" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="2" t="s">
         <v>61</v>
       </c>
@@ -9540,7 +9555,7 @@
         <v>133.11099999999999</v>
       </c>
     </row>
-    <row r="47" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D47" s="2" t="s">
         <v>20</v>
       </c>
@@ -9725,7 +9740,7 @@
         <v>1.7230000000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="2" t="s">
         <v>60</v>
       </c>
@@ -9913,7 +9928,7 @@
         <v>115.813</v>
       </c>
     </row>
-    <row r="49" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D49" s="2" t="s">
         <v>20</v>
       </c>
@@ -10098,7 +10113,7 @@
         <v>0.19900000000000001</v>
       </c>
     </row>
-    <row r="50" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E50" s="5"/>
       <c r="F50" s="5"/>
       <c r="G50" s="5"/>
@@ -10225,7 +10240,7 @@
       <c r="BK51" s="12"/>
       <c r="BL51" s="12"/>
     </row>
-    <row r="52" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="2" t="s">
         <v>57</v>
       </c>
@@ -10413,7 +10428,7 @@
         <v>279.86799999999999</v>
       </c>
     </row>
-    <row r="53" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D53" s="2" t="s">
         <v>20</v>
       </c>
@@ -10598,7 +10613,7 @@
         <v>0.53800000000000003</v>
       </c>
     </row>
-    <row r="54" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="2" t="s">
         <v>56</v>
       </c>
@@ -10786,7 +10801,7 @@
         <v>135.44399999999999</v>
       </c>
     </row>
-    <row r="55" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E55" s="5"/>
       <c r="F55" s="5"/>
       <c r="G55" s="5"/>
@@ -10913,7 +10928,7 @@
       <c r="BK56" s="12"/>
       <c r="BL56" s="12"/>
     </row>
-    <row r="57" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B57" s="2" t="s">
         <v>53</v>
       </c>
@@ -11101,7 +11116,7 @@
         <v>3.419</v>
       </c>
     </row>
-    <row r="58" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="2" t="s">
         <v>52</v>
       </c>
@@ -11289,7 +11304,7 @@
         <v>2.3650000000000002</v>
       </c>
     </row>
-    <row r="59" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="2" t="s">
         <v>51</v>
       </c>
@@ -11477,7 +11492,7 @@
         <v>2.5150000000000001</v>
       </c>
     </row>
-    <row r="60" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E60" s="5"/>
       <c r="F60" s="5"/>
       <c r="G60" s="5"/>
@@ -11604,7 +11619,7 @@
       <c r="BK61" s="12"/>
       <c r="BL61" s="12"/>
     </row>
-    <row r="62" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B62" s="2" t="s">
         <v>48</v>
       </c>
@@ -11792,7 +11807,7 @@
         <v>30495.4</v>
       </c>
     </row>
-    <row r="63" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D63" s="2" t="s">
         <v>37</v>
       </c>
@@ -11977,7 +11992,7 @@
         <v>90.501000000000005</v>
       </c>
     </row>
-    <row r="64" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B64" s="2" t="s">
         <v>47</v>
       </c>
@@ -12165,7 +12180,7 @@
         <v>18106.099999999999</v>
       </c>
     </row>
-    <row r="65" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D65" s="2" t="s">
         <v>37</v>
       </c>
@@ -12350,7 +12365,7 @@
         <v>53.732999999999997</v>
       </c>
     </row>
-    <row r="66" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B66" s="2" t="s">
         <v>46</v>
       </c>
@@ -12538,7 +12553,7 @@
         <v>14617</v>
       </c>
     </row>
-    <row r="67" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D67" s="2" t="s">
         <v>37</v>
       </c>
@@ -12723,7 +12738,7 @@
         <v>43.378999999999998</v>
       </c>
     </row>
-    <row r="68" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B68" s="2" t="s">
         <v>45</v>
       </c>
@@ -12911,7 +12926,7 @@
         <v>8833.5</v>
       </c>
     </row>
-    <row r="69" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D69" s="2" t="s">
         <v>37</v>
       </c>
@@ -13096,7 +13111,7 @@
         <v>26.215</v>
       </c>
     </row>
-    <row r="70" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C70" s="2" t="s">
         <v>44</v>
       </c>
@@ -13284,7 +13299,7 @@
         <v>75.8</v>
       </c>
     </row>
-    <row r="71" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D71" s="2" t="s">
         <v>37</v>
       </c>
@@ -13469,7 +13484,7 @@
         <v>0.22500000000000001</v>
       </c>
     </row>
-    <row r="72" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C72" s="2" t="s">
         <v>43</v>
       </c>
@@ -13657,7 +13672,7 @@
         <v>2564.4</v>
       </c>
     </row>
-    <row r="73" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D73" s="2" t="s">
         <v>37</v>
       </c>
@@ -13842,7 +13857,7 @@
         <v>7.61</v>
       </c>
     </row>
-    <row r="74" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C74" s="2" t="s">
         <v>42</v>
       </c>
@@ -14030,7 +14045,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="75" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D75" s="2" t="s">
         <v>37</v>
       </c>
@@ -14215,7 +14230,7 @@
         <v>3.6669999999999998</v>
       </c>
     </row>
-    <row r="76" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C76" s="2" t="s">
         <v>41</v>
       </c>
@@ -14403,7 +14418,7 @@
         <v>2897.1</v>
       </c>
     </row>
-    <row r="77" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D77" s="2" t="s">
         <v>37</v>
       </c>
@@ -14588,7 +14603,7 @@
         <v>8.5969999999999995</v>
       </c>
     </row>
-    <row r="78" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C78" s="2" t="s">
         <v>40</v>
       </c>
@@ -14776,7 +14791,7 @@
         <v>2060.1999999999998</v>
       </c>
     </row>
-    <row r="79" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D79" s="2" t="s">
         <v>37</v>
       </c>
@@ -14961,7 +14976,7 @@
         <v>6.1139999999999999</v>
       </c>
     </row>
-    <row r="80" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B80" s="2" t="s">
         <v>39</v>
       </c>
@@ -15149,7 +15164,7 @@
         <v>3450.2</v>
       </c>
     </row>
-    <row r="81" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D81" s="2" t="s">
         <v>37</v>
       </c>
@@ -15334,7 +15349,7 @@
         <v>10.239000000000001</v>
       </c>
     </row>
-    <row r="82" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B82" s="2" t="s">
         <v>38</v>
       </c>
@@ -15522,7 +15537,7 @@
         <v>2591.6999999999998</v>
       </c>
     </row>
-    <row r="83" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D83" s="2" t="s">
         <v>37</v>
       </c>
@@ -15707,7 +15722,7 @@
         <v>7.6909999999999998</v>
       </c>
     </row>
-    <row r="84" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E84" s="5"/>
       <c r="F84" s="5"/>
       <c r="G84" s="5"/>
@@ -15834,7 +15849,7 @@
       <c r="BK85" s="12"/>
       <c r="BL85" s="12"/>
     </row>
-    <row r="86" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B86" s="2" t="s">
         <v>32</v>
       </c>
@@ -16022,7 +16037,7 @@
         <v>23476.1</v>
       </c>
     </row>
-    <row r="87" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D87" s="2" t="s">
         <v>20</v>
       </c>
@@ -16207,7 +16222,7 @@
         <v>4.024</v>
       </c>
     </row>
-    <row r="88" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B88" s="2" t="s">
         <v>31</v>
       </c>
@@ -16395,7 +16410,7 @@
         <v>5649.8</v>
       </c>
     </row>
-    <row r="89" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D89" s="2" t="s">
         <v>20</v>
       </c>
@@ -16580,7 +16595,7 @@
         <v>2.85</v>
       </c>
     </row>
-    <row r="90" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C90" s="2" t="s">
         <v>30</v>
       </c>
@@ -16768,7 +16783,7 @@
         <v>4330.8</v>
       </c>
     </row>
-    <row r="91" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D91" s="2" t="s">
         <v>20</v>
       </c>
@@ -16953,7 +16968,7 @@
         <v>3.2269999999999999</v>
       </c>
     </row>
-    <row r="92" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C92" s="14" t="s">
         <v>29</v>
       </c>
@@ -17141,7 +17156,7 @@
         <v>1265.2</v>
       </c>
     </row>
-    <row r="93" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D93" s="2" t="s">
         <v>20</v>
       </c>
@@ -17326,7 +17341,7 @@
         <v>1.4870000000000001</v>
       </c>
     </row>
-    <row r="94" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C94" s="2" t="s">
         <v>28</v>
       </c>
@@ -17514,7 +17529,7 @@
         <v>53.8</v>
       </c>
     </row>
-    <row r="95" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B95" s="2" t="s">
         <v>27</v>
       </c>
@@ -17702,7 +17717,7 @@
         <v>5547</v>
       </c>
     </row>
-    <row r="96" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D96" s="2" t="s">
         <v>20</v>
       </c>
@@ -17887,7 +17902,7 @@
         <v>3.3359999999999999</v>
       </c>
     </row>
-    <row r="97" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C97" s="2" t="s">
         <v>26</v>
       </c>
@@ -18075,7 +18090,7 @@
         <v>1925.2</v>
       </c>
     </row>
-    <row r="98" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D98" s="2" t="s">
         <v>20</v>
       </c>
@@ -18260,7 +18275,7 @@
         <v>2.5230000000000001</v>
       </c>
     </row>
-    <row r="99" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C99" s="2" t="s">
         <v>25</v>
       </c>
@@ -18448,7 +18463,7 @@
         <v>3621.8</v>
       </c>
     </row>
-    <row r="100" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D100" s="2" t="s">
         <v>20</v>
       </c>
@@ -18633,7 +18648,7 @@
         <v>3.7719999999999998</v>
       </c>
     </row>
-    <row r="101" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B101" s="2" t="s">
         <v>24</v>
       </c>
@@ -18821,7 +18836,7 @@
         <v>-977</v>
       </c>
     </row>
-    <row r="102" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C102" s="2" t="s">
         <v>23</v>
       </c>
@@ -19009,7 +19024,7 @@
         <v>3538.4</v>
       </c>
     </row>
-    <row r="103" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D103" s="2" t="s">
         <v>20</v>
       </c>
@@ -19194,7 +19209,7 @@
         <v>3.3519999999999999</v>
       </c>
     </row>
-    <row r="104" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C104" s="2" t="s">
         <v>22</v>
       </c>
@@ -19382,7 +19397,7 @@
         <v>4515.3999999999996</v>
       </c>
     </row>
-    <row r="105" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D105" s="2" t="s">
         <v>20</v>
       </c>
@@ -19567,7 +19582,7 @@
         <v>3.4119999999999999</v>
       </c>
     </row>
-    <row r="106" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B106" s="2" t="s">
         <v>35</v>
       </c>
@@ -19755,7 +19770,7 @@
         <v>-755.9</v>
       </c>
     </row>
-    <row r="107" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E107" s="5"/>
       <c r="F107" s="5"/>
       <c r="G107" s="5"/>
@@ -19882,7 +19897,7 @@
       <c r="BK108" s="12"/>
       <c r="BL108" s="12"/>
     </row>
-    <row r="109" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B109" s="2" t="s">
         <v>32</v>
       </c>
@@ -20070,7 +20085,7 @@
         <v>16882.099999999999</v>
       </c>
     </row>
-    <row r="110" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D110" s="2" t="s">
         <v>20</v>
       </c>
@@ -20255,7 +20270,7 @@
         <v>1.9930000000000001</v>
       </c>
     </row>
-    <row r="111" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B111" s="2" t="s">
         <v>31</v>
       </c>
@@ -20443,7 +20458,7 @@
         <v>4378.8999999999996</v>
       </c>
     </row>
-    <row r="112" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D112" s="2" t="s">
         <v>20</v>
       </c>
@@ -20628,7 +20643,7 @@
         <v>1.5660000000000001</v>
       </c>
     </row>
-    <row r="113" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C113" s="2" t="s">
         <v>30</v>
       </c>
@@ -20816,7 +20831,7 @@
         <v>3723.6</v>
       </c>
     </row>
-    <row r="114" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D114" s="2" t="s">
         <v>20</v>
       </c>
@@ -21001,7 +21016,7 @@
         <v>2.3330000000000002</v>
       </c>
     </row>
-    <row r="115" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C115" s="2" t="s">
         <v>29</v>
       </c>
@@ -21189,7 +21204,7 @@
         <v>662.3</v>
       </c>
     </row>
-    <row r="116" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D116" s="2" t="s">
         <v>20</v>
       </c>
@@ -21374,7 +21389,7 @@
         <v>-1.149</v>
       </c>
     </row>
-    <row r="117" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C117" s="2" t="s">
         <v>28</v>
       </c>
@@ -21562,7 +21577,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="118" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B118" s="2" t="s">
         <v>27</v>
       </c>
@@ -21750,7 +21765,7 @@
         <v>3555.2</v>
       </c>
     </row>
-    <row r="119" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C119" s="2" t="s">
         <v>26</v>
       </c>
@@ -21938,7 +21953,7 @@
         <v>1363.5</v>
       </c>
     </row>
-    <row r="120" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C120" s="2" t="s">
         <v>25</v>
       </c>
@@ -22126,7 +22141,7 @@
         <v>2186.3000000000002</v>
       </c>
     </row>
-    <row r="121" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D121" s="2" t="s">
         <v>20</v>
       </c>
@@ -22311,7 +22326,7 @@
         <v>0.67200000000000004</v>
       </c>
     </row>
-    <row r="122" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B122" s="2" t="s">
         <v>24</v>
       </c>
@@ -22499,7 +22514,7 @@
         <v>-1336.4</v>
       </c>
     </row>
-    <row r="123" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C123" s="2" t="s">
         <v>23</v>
       </c>
@@ -22687,7 +22702,7 @@
         <v>3081.2</v>
       </c>
     </row>
-    <row r="124" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D124" s="2" t="s">
         <v>20</v>
       </c>
@@ -22872,7 +22887,7 @@
         <v>1.7370000000000001</v>
       </c>
     </row>
-    <row r="125" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C125" s="2" t="s">
         <v>22</v>
       </c>
@@ -23060,7 +23075,7 @@
         <v>4417.6000000000004</v>
       </c>
     </row>
-    <row r="126" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="3"/>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
@@ -23248,23 +23263,23 @@
         <v>2.2570000000000001</v>
       </c>
     </row>
-    <row r="128" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="130" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="45" t="s">
+    <row r="130" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A130" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="B130" s="45"/>
-      <c r="C130" s="45"/>
-      <c r="D130" s="45"/>
-    </row>
-    <row r="131" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B130" s="47"/>
+      <c r="C130" s="47"/>
+      <c r="D130" s="47"/>
+    </row>
+    <row r="131" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C131" s="6"/>
     </row>
-    <row r="132" spans="1:64" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:64" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
         <v>17</v>
       </c>
@@ -23282,7 +23297,7 @@
       <c r="P132" s="7"/>
       <c r="Q132" s="7"/>
     </row>
-    <row r="133" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C133" s="6"/>
       <c r="E133" s="5"/>
       <c r="G133" s="5"/>
@@ -23297,12 +23312,12 @@
       <c r="P133" s="5"/>
       <c r="Q133" s="5"/>
     </row>
-    <row r="134" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="135" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="3"/>
       <c r="B135" s="4"/>
       <c r="C135" s="3"/>
@@ -23388,9 +23403,9 @@
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -23401,7 +23416,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>43921</v>
       </c>
@@ -23412,7 +23427,7 @@
         <v>3.8639999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>44012</v>
       </c>
@@ -23423,7 +23438,7 @@
         <v>3.2149999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>44104</v>
       </c>
@@ -23434,7 +23449,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>44196</v>
       </c>
@@ -23445,7 +23460,7 @@
         <v>3.7440000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>44286</v>
       </c>
@@ -23456,7 +23471,7 @@
         <v>3.734</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>44377</v>
       </c>
@@ -23467,7 +23482,7 @@
         <v>3.7170000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>44469</v>
       </c>
@@ -23478,7 +23493,7 @@
         <v>3.72</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>44561</v>
       </c>
@@ -23489,7 +23504,7 @@
         <v>3.7509999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>44651</v>
       </c>
@@ -23500,7 +23515,7 @@
         <v>9.2159999999999993</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>44742</v>
       </c>
@@ -23511,7 +23526,7 @@
         <v>9.843</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>44834</v>
       </c>
@@ -23522,7 +23537,7 @@
         <v>7.6760000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>44926</v>
       </c>
@@ -23533,7 +23548,7 @@
         <v>5.7149999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>45016</v>
       </c>
@@ -23544,7 +23559,7 @@
         <v>4.9859999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>45107</v>
       </c>
@@ -23555,7 +23570,7 @@
         <v>4.2220000000000004</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>45199</v>
       </c>
@@ -23566,7 +23581,7 @@
         <v>3.7879999999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>45291</v>
       </c>
@@ -23577,7 +23592,7 @@
         <v>3.6309999999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>45382</v>
       </c>
@@ -23588,7 +23603,7 @@
         <v>3.5049999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>45473</v>
       </c>
@@ -23599,7 +23614,7 @@
         <v>3.4809999999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>45565</v>
       </c>
@@ -23610,7 +23625,7 @@
         <v>3.5430000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>45657</v>
       </c>
@@ -23621,7 +23636,7 @@
         <v>3.633</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>45747</v>
       </c>
@@ -23632,7 +23647,7 @@
         <v>3.8759999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>45838</v>
       </c>
@@ -23643,7 +23658,7 @@
         <v>3.98</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>45930</v>
       </c>
@@ -23654,7 +23669,7 @@
         <v>4.0709999999999997</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>46022</v>
       </c>
@@ -23665,7 +23680,7 @@
         <v>4.0750000000000002</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>46112</v>
       </c>
@@ -23676,7 +23691,7 @@
         <v>4.032</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>46203</v>
       </c>
@@ -23687,7 +23702,7 @@
         <v>3.9910000000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>46295</v>
       </c>
@@ -23698,7 +23713,7 @@
         <v>3.9529999999999998</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>46387</v>
       </c>
@@ -23709,7 +23724,7 @@
         <v>3.923</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>46477</v>
       </c>
@@ -23720,7 +23735,7 @@
         <v>3.8959999999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>46568</v>
       </c>
@@ -23731,7 +23746,7 @@
         <v>3.891</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>46660</v>
       </c>
@@ -23742,7 +23757,7 @@
         <v>3.8620000000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>46752</v>
       </c>
@@ -23753,7 +23768,7 @@
         <v>3.8380000000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>46843</v>
       </c>
@@ -23764,7 +23779,7 @@
         <v>3.8039999999999998</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>46934</v>
       </c>
@@ -23775,7 +23790,7 @@
         <v>3.7970000000000002</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>47026</v>
       </c>
@@ -23786,7 +23801,7 @@
         <v>3.78</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>47118</v>
       </c>
@@ -23797,7 +23812,7 @@
         <v>3.766</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>47208</v>
       </c>
@@ -23808,7 +23823,7 @@
         <v>3.74</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>47299</v>
       </c>
@@ -23819,7 +23834,7 @@
         <v>3.746</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>47391</v>
       </c>
@@ -23830,7 +23845,7 @@
         <v>3.7570000000000001</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>47483</v>
       </c>
@@ -23841,7 +23856,7 @@
         <v>3.7709999999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>47573</v>
       </c>
@@ -23852,7 +23867,7 @@
         <v>3.7749999999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>47664</v>
       </c>
@@ -23863,7 +23878,7 @@
         <v>3.7810000000000001</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>47756</v>
       </c>
@@ -23874,7 +23889,7 @@
         <v>3.7879999999999998</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>47848</v>
       </c>
@@ -23885,7 +23900,7 @@
         <v>3.7879999999999998</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>47938</v>
       </c>
@@ -23896,7 +23911,7 @@
         <v>3.8069999999999999</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>48029</v>
       </c>
@@ -23907,7 +23922,7 @@
         <v>3.7909999999999999</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>48121</v>
       </c>
@@ -23918,7 +23933,7 @@
         <v>3.7909999999999999</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>48213</v>
       </c>
@@ -23929,7 +23944,7 @@
         <v>3.7839999999999998</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B50" s="33">
         <v>2.3690000000000002</v>
       </c>
@@ -23937,7 +23952,7 @@
         <v>3.79</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B51" s="33">
         <v>2.37</v>
       </c>
@@ -23945,7 +23960,7 @@
         <v>3.7909999999999999</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B52" s="33">
         <v>2.371</v>
       </c>
@@ -23953,7 +23968,7 @@
         <v>3.7869999999999999</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B53" s="33">
         <v>2.4249999999999998</v>
       </c>
@@ -23968,74 +23983,74 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E35EE37A-6DA7-464E-B4F9-9D022FBE10B3}">
-  <dimension ref="A1:BJ66"/>
+  <dimension ref="A1:AT66"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F22" sqref="F22"/>
+      <selection pane="bottomRight" activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="11.19921875" customWidth="1"/>
+    <col min="5" max="5" width="11.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:46" s="41" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="48" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="2" spans="1:62" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>42825</v>
       </c>
@@ -24116,24 +24131,8 @@
       <c r="AR2" s="31"/>
       <c r="AS2" s="31"/>
       <c r="AT2" s="31"/>
-      <c r="AU2" s="31"/>
-      <c r="AV2" s="31"/>
-      <c r="AW2" s="31"/>
-      <c r="AX2" s="31"/>
-      <c r="AY2" s="31"/>
-      <c r="AZ2" s="31"/>
-      <c r="BA2" s="31"/>
-      <c r="BB2" s="31"/>
-      <c r="BC2" s="31"/>
-      <c r="BD2" s="31"/>
-      <c r="BE2" s="31"/>
-      <c r="BF2" s="31"/>
-      <c r="BG2" s="31"/>
-      <c r="BH2" s="31"/>
-      <c r="BI2" s="31"/>
-      <c r="BJ2" s="31"/>
-    </row>
-    <row r="3" spans="1:62" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>42916</v>
       </c>
@@ -24186,7 +24185,7 @@
         <v>4.3659999999999997</v>
       </c>
     </row>
-    <row r="4" spans="1:62" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>43008</v>
       </c>
@@ -24239,7 +24238,7 @@
         <v>4.3330000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:62" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>43100</v>
       </c>
@@ -24292,7 +24291,7 @@
         <v>4.1660000000000004</v>
       </c>
     </row>
-    <row r="6" spans="1:62" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>43190</v>
       </c>
@@ -24345,7 +24344,7 @@
         <v>4.0330000000000004</v>
       </c>
     </row>
-    <row r="7" spans="1:62" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>43281</v>
       </c>
@@ -24398,7 +24397,7 @@
         <v>3.9329999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:62" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>43373</v>
       </c>
@@ -24451,7 +24450,7 @@
         <v>3.766</v>
       </c>
     </row>
-    <row r="9" spans="1:62" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>43465</v>
       </c>
@@ -24504,7 +24503,7 @@
         <v>3.8330000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:62" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>43555</v>
       </c>
@@ -24557,7 +24556,7 @@
         <v>3.8660000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:62" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>43646</v>
       </c>
@@ -24610,7 +24609,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="12" spans="1:62" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>43738</v>
       </c>
@@ -24663,7 +24662,7 @@
         <v>3.633</v>
       </c>
     </row>
-    <row r="13" spans="1:62" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>43830</v>
       </c>
@@ -24716,7 +24715,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="14" spans="1:62" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>43921</v>
       </c>
@@ -24769,7 +24768,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="15" spans="1:62" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>44012</v>
       </c>
@@ -24822,7 +24821,7 @@
         <v>12.965999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:62" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>44104</v>
       </c>
@@ -24875,7 +24874,7 @@
         <v>8.8330000000000002</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>44196</v>
       </c>
@@ -24928,7 +24927,7 @@
         <v>6.766</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>44286</v>
       </c>
@@ -24981,7 +24980,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>44377</v>
       </c>
@@ -25034,7 +25033,7 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>44469</v>
       </c>
@@ -25087,7 +25086,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>44561</v>
       </c>
@@ -25140,7 +25139,7 @@
         <v>4.2329999999999997</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>44651</v>
       </c>
@@ -25193,7 +25192,7 @@
         <v>3.91</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>44742</v>
       </c>
@@ -25246,7 +25245,7 @@
         <v>3.85</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>44834</v>
       </c>
@@ -25298,8 +25297,9 @@
       <c r="Q24" s="33">
         <v>3.72</v>
       </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R24" s="40"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>44926</v>
       </c>
@@ -25352,7 +25352,7 @@
         <v>3.65</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>45016</v>
       </c>
@@ -25405,7 +25405,7 @@
         <v>3.58</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>45107</v>
       </c>
@@ -25458,7 +25458,7 @@
         <v>3.52</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>45199</v>
       </c>
@@ -25511,7 +25511,7 @@
         <v>3.5310000000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>45291</v>
       </c>
@@ -25564,7 +25564,7 @@
         <v>3.5510000000000002</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>45382</v>
       </c>
@@ -25617,7 +25617,7 @@
         <v>3.6219999999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>45473</v>
       </c>
@@ -25670,7 +25670,7 @@
         <v>3.6850000000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>45565</v>
       </c>
@@ -25723,7 +25723,7 @@
         <v>3.722</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>45657</v>
       </c>
@@ -25776,7 +25776,7 @@
         <v>3.76</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>45747</v>
       </c>
@@ -25829,7 +25829,7 @@
         <v>3.7989999999999999</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>45838</v>
       </c>
@@ -25882,7 +25882,7 @@
         <v>3.8380000000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>45930</v>
       </c>
@@ -25935,7 +25935,7 @@
         <v>3.8769999999999998</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>46022</v>
       </c>
@@ -25988,7 +25988,7 @@
         <v>3.915</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>46112</v>
       </c>
@@ -26041,7 +26041,7 @@
         <v>3.9590000000000001</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>46203</v>
       </c>
@@ -26094,7 +26094,7 @@
         <v>4.0039999999999996</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>46295</v>
       </c>
@@ -26147,7 +26147,7 @@
         <v>4.0549999999999997</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>46387</v>
       </c>
@@ -26200,7 +26200,7 @@
         <v>4.101</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>46477</v>
       </c>
@@ -26253,7 +26253,7 @@
         <v>4.149</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>46568</v>
       </c>
@@ -26306,7 +26306,7 @@
         <v>4.1920000000000002</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>46660</v>
       </c>
@@ -26359,7 +26359,7 @@
         <v>4.2469999999999999</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>46752</v>
       </c>
@@ -26412,7 +26412,7 @@
         <v>4.3079999999999998</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>46843</v>
       </c>
@@ -26465,7 +26465,7 @@
         <v>4.3780000000000001</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>46934</v>
       </c>
@@ -26518,7 +26518,7 @@
         <v>4.45</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>47026</v>
       </c>
@@ -26571,7 +26571,7 @@
         <v>4.5019999999999998</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>47118</v>
       </c>
@@ -26624,7 +26624,7 @@
         <v>4.53</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>47208</v>
       </c>
@@ -26677,7 +26677,7 @@
         <v>4.5359999999999996</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>47299</v>
       </c>
@@ -26730,7 +26730,7 @@
         <v>4.5389999999999997</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>47391</v>
       </c>
@@ -26783,7 +26783,7 @@
         <v>4.5419999999999998</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>47483</v>
       </c>
@@ -26836,7 +26836,7 @@
         <v>4.5460000000000003</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>47573</v>
       </c>
@@ -26889,7 +26889,7 @@
         <v>4.5490000000000004</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>47664</v>
       </c>
@@ -26942,7 +26942,7 @@
         <v>4.5519999999999996</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>47756</v>
       </c>
@@ -26995,7 +26995,7 @@
         <v>4.5540000000000003</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>47848</v>
       </c>
@@ -27048,7 +27048,7 @@
         <v>4.5579999999999998</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>47938</v>
       </c>
@@ -27101,7 +27101,7 @@
         <v>4.5510000000000002</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>48029</v>
       </c>
@@ -27154,7 +27154,7 @@
         <v>4.5439999999999996</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>48121</v>
       </c>
@@ -27207,7 +27207,7 @@
         <v>4.5380000000000003</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>48213</v>
       </c>
@@ -27260,7 +27260,7 @@
         <v>4.5309999999999997</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>48304</v>
       </c>
@@ -27313,7 +27313,7 @@
         <v>4.524</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>48395</v>
       </c>
@@ -27366,7 +27366,7 @@
         <v>4.5170000000000003</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>48487</v>
       </c>
@@ -27419,7 +27419,7 @@
         <v>4.51</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>48579</v>
       </c>
@@ -27472,7 +27472,7 @@
         <v>4.5030000000000001</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="I66" s="34"/>
       <c r="L66" s="34"/>
     </row>
@@ -27489,9 +27489,9 @@
       <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>158</v>
       </c>
@@ -27523,7 +27523,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2017</v>
       </c>
@@ -27556,7 +27556,7 @@
         <v>31.2</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2018</v>
       </c>
@@ -27589,7 +27589,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2019</v>
       </c>
@@ -27622,7 +27622,7 @@
         <v>27.626999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2020</v>
       </c>
@@ -27655,7 +27655,7 @@
         <v>473.16500000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2021</v>
       </c>
@@ -27687,7 +27687,7 @@
         <v>59.15</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2022</v>
       </c>
@@ -27719,7 +27719,7 @@
         <v>38.14</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2023</v>
       </c>
@@ -27751,7 +27751,7 @@
         <v>36.145000000000003</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2024</v>
       </c>
@@ -27783,7 +27783,7 @@
         <v>35.369999999999997</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2025</v>
       </c>
@@ -27815,7 +27815,7 @@
         <v>33.424999999999997</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2026</v>
       </c>
@@ -27847,7 +27847,7 @@
         <v>32.450000000000003</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2027</v>
       </c>
@@ -27879,7 +27879,7 @@
         <v>33.164999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2028</v>
       </c>
@@ -27911,7 +27911,7 @@
         <v>35.090000000000003</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2029</v>
       </c>
@@ -27943,7 +27943,7 @@
         <v>37.164999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2030</v>
       </c>
@@ -27975,7 +27975,7 @@
         <v>39.784999999999997</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2031</v>
       </c>
@@ -28007,7 +28007,7 @@
         <v>44.73</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2032</v>
       </c>
@@ -28036,7 +28036,7 @@
         <v>51.475000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B24" s="37"/>
       <c r="C24" s="37"/>
       <c r="D24" s="37"/>
@@ -28063,9 +28063,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -28073,7 +28073,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>197</v>
       </c>
@@ -28081,7 +28081,7 @@
         <v>0.66513142470107067</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>198</v>
       </c>
@@ -28089,7 +28089,7 @@
         <v>0.66892566614130466</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>199</v>
       </c>
@@ -28097,7 +28097,7 @@
         <v>0.65283836530948725</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>200</v>
       </c>
@@ -28105,7 +28105,7 @@
         <v>0.65953557146217701</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>201</v>
       </c>
@@ -28113,7 +28113,7 @@
         <v>0.66058231423538405</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>202</v>
       </c>
@@ -28121,7 +28121,7 @@
         <v>0.6749214177505789</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>203</v>
       </c>
@@ -28129,7 +28129,7 @@
         <v>0.68242012696430432</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>204</v>
       </c>
@@ -28137,7 +28137,7 @@
         <v>0.6730637268687778</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>205</v>
       </c>
@@ -28145,7 +28145,7 @@
         <v>0.66424643423393748</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>206</v>
       </c>
@@ -28153,7 +28153,7 @@
         <v>0.67846773573296415</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>207</v>
       </c>
@@ -28161,7 +28161,7 @@
         <v>0.76648081779484256</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>208</v>
       </c>
@@ -28169,7 +28169,7 @@
         <v>0.71094027669909299</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>209</v>
       </c>
@@ -28177,7 +28177,7 @@
         <v>0.75054511245142341</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>185</v>
       </c>
@@ -28185,7 +28185,7 @@
         <v>0.7533823239283487</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>186</v>
       </c>
@@ -28196,7 +28196,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>187</v>
       </c>
@@ -28204,7 +28204,7 @@
         <v>0.75196371818988605</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>188</v>
       </c>
@@ -28212,7 +28212,7 @@
         <v>0.75196371818988605</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>189</v>
       </c>
@@ -28220,7 +28220,7 @@
         <v>0.75196371818988605</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>190</v>
       </c>
@@ -28228,7 +28228,7 @@
         <v>0.75196371818988605</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>191</v>
       </c>
@@ -28236,7 +28236,7 @@
         <v>0.67274689645476105</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>192</v>
       </c>
@@ -28244,7 +28244,7 @@
         <v>0.67274689645476138</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>193</v>
       </c>
@@ -28252,7 +28252,7 @@
         <v>0.67274689645476138</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>194</v>
       </c>
@@ -28260,7 +28260,7 @@
         <v>0.67274689645476138</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>195</v>
       </c>
@@ -28268,7 +28268,7 @@
         <v>0.67274689645476138</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>196</v>
       </c>
@@ -28276,7 +28276,7 @@
         <v>0.67274689645476138</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>210</v>
       </c>
@@ -28297,9 +28297,9 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>158</v>
       </c>
@@ -28307,7 +28307,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="29">
         <v>2019</v>
       </c>
@@ -28315,7 +28315,7 @@
         <v>0.67300000000000004</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="29">
         <v>2020</v>
       </c>
@@ -28323,7 +28323,7 @@
         <v>0.70499999999999996</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="29">
         <v>2021</v>
       </c>
@@ -28331,7 +28331,7 @@
         <v>0.752</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="29">
         <v>2022</v>
       </c>
@@ -28339,7 +28339,7 @@
         <v>0.73199999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="29">
         <v>2023</v>
       </c>
@@ -28347,7 +28347,7 @@
         <v>0.67300000000000004</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="29">
         <v>2024</v>
       </c>
@@ -28355,7 +28355,7 @@
         <v>0.67300000000000004</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="29">
         <v>2025</v>
       </c>
@@ -28363,7 +28363,7 @@
         <v>0.67300000000000004</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="29">
         <v>2026</v>
       </c>
@@ -28371,7 +28371,7 @@
         <v>0.67300000000000004</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="29">
         <v>2027</v>
       </c>
@@ -28379,7 +28379,7 @@
         <v>0.67300000000000004</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="29">
         <v>2028</v>
       </c>
@@ -28387,7 +28387,7 @@
         <v>0.67300000000000004</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="29">
         <v>2029</v>
       </c>
@@ -28407,7 +28407,7 @@
       <c r="O12" s="29"/>
       <c r="P12" s="29"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="29">
         <v>2030</v>
       </c>
@@ -28440,9 +28440,9 @@
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -28459,7 +28459,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>185</v>
       </c>
@@ -28481,7 +28481,7 @@
       <c r="K2" s="28"/>
       <c r="L2" s="28"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>186</v>
       </c>
@@ -28502,7 +28502,7 @@
       <c r="K3" s="28"/>
       <c r="L3" s="28"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>187</v>
       </c>
@@ -28519,7 +28519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>188</v>
       </c>
@@ -28536,7 +28536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>189</v>
       </c>
@@ -28553,7 +28553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>190</v>
       </c>
@@ -28570,7 +28570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>191</v>
       </c>
@@ -28587,7 +28587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>192</v>
       </c>
@@ -28604,7 +28604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>193</v>
       </c>
@@ -28621,7 +28621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>194</v>
       </c>
@@ -28638,7 +28638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>195</v>
       </c>
@@ -28655,7 +28655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>196</v>
       </c>
@@ -28685,9 +28685,9 @@
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -28734,7 +28734,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2021</v>
       </c>
@@ -28783,7 +28783,7 @@
         <v>181.506</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2022</v>
       </c>
@@ -28811,7 +28811,7 @@
         <v>1.7549999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2023</v>
       </c>
@@ -28839,7 +28839,7 @@
         <v>0.67600000000000005</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2024</v>
       </c>
@@ -28884,7 +28884,7 @@
         <v>0.53100000000000003</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2025</v>
       </c>
@@ -28929,7 +28929,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2026</v>
       </c>
@@ -28974,7 +28974,7 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2027</v>
       </c>
@@ -29019,7 +29019,7 @@
         <v>0.52700000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2028</v>
       </c>
@@ -29064,7 +29064,7 @@
         <v>0.52700000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2029</v>
       </c>
@@ -29109,7 +29109,7 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2030</v>
       </c>
@@ -29154,7 +29154,7 @@
         <v>0.53500000000000003</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2031</v>
       </c>
@@ -29212,9 +29212,9 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -29252,7 +29252,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2021</v>
       </c>
@@ -29291,12 +29291,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2022</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2023</v>
       </c>

--- a/inst/extdata/projections.xlsx
+++ b/inst/extdata/projections.xlsx
@@ -8,25 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nsalwati\Downloads\Hutchins Fiscal Impact Measure\fim\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9933A1D6-CBC0-49C9-8C67-2219B20A6945}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1991280A-36E7-444D-82EF-D3DD91C7546A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="12480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="dictionary" sheetId="10" r:id="rId1"/>
-    <sheet name="pre-pandemic economic" sheetId="9" r:id="rId2"/>
-    <sheet name="economic" sheetId="11" r:id="rId3"/>
-    <sheet name="budget" sheetId="3" r:id="rId4"/>
-    <sheet name="quarterly fmap" sheetId="7" r:id="rId5"/>
-    <sheet name="annual fmap" sheetId="8" r:id="rId6"/>
-    <sheet name="CARES" sheetId="6" r:id="rId7"/>
-    <sheet name="crrca" sheetId="5" r:id="rId8"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId9"/>
-    <sheet name="1. Quarterly" sheetId="2" r:id="rId10"/>
+    <sheet name="dictionary" sheetId="12" r:id="rId1"/>
+    <sheet name="economic" sheetId="11" r:id="rId2"/>
+    <sheet name="budget" sheetId="3" r:id="rId3"/>
+    <sheet name="pre-pandemic economic" sheetId="9" r:id="rId4"/>
+    <sheet name="dictionary_old" sheetId="10" r:id="rId5"/>
+    <sheet name="quarterly fmap" sheetId="7" r:id="rId6"/>
+    <sheet name="annual fmap" sheetId="8" r:id="rId7"/>
+    <sheet name="CARES" sheetId="6" r:id="rId8"/>
+    <sheet name="crrca" sheetId="5" r:id="rId9"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId10"/>
+    <sheet name="1. Quarterly" sheetId="2" r:id="rId11"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="9">'1. Quarterly'!$A$5:$AZ$135</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="9">'1. Quarterly'!$A:$D</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="10">'1. Quarterly'!$A$5:$AZ$135</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="10">'1. Quarterly'!$A:$D</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="318">
   <si>
     <t>date</t>
   </si>
@@ -905,6 +906,129 @@
   </si>
   <si>
     <t>Sub sub category</t>
+  </si>
+  <si>
+    <t>Sheet</t>
+  </si>
+  <si>
+    <t>economic</t>
+  </si>
+  <si>
+    <t>10-Year Economic Projections. https://www.cbo.gov/data/budget-economic-data#4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CBO release </t>
+  </si>
+  <si>
+    <t>Quarterly</t>
+  </si>
+  <si>
+    <t>budget</t>
+  </si>
+  <si>
+    <t>Budget 10 yr Projection. https://www.cbo.gov/data/budget-economic-data#3</t>
+  </si>
+  <si>
+    <t>Mandatory Outlays Projected in CBO's Baseline, Adjusted to Exclude Effects of Timing Shifts</t>
+  </si>
+  <si>
+    <t>Major Health Care Programs&gt; Medicaid</t>
+  </si>
+  <si>
+    <t>Major Health Care Programs&gt; Medicare</t>
+  </si>
+  <si>
+    <t>Income Security Programs&gt; Unemployment Compensation</t>
+  </si>
+  <si>
+    <t>(Social Security&gt; Subtotal) + (Major Health Care Programs&gt; Subtotal) + (Income Security Programs&gt; Subtotal) - (Major Health Care Programs&gt; Medicaid)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Output&gt;Gross Domestic Product (GDP)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Output&gt;Real GDP</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Potential GDP and Its Components&gt;Potential GDP</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Potential GDP and Its Components&gt;Real Potential GDP</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Prices&gt;Price Index Personal Consumption Expenditures (PCE)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Prices&gt;Consumer Price Index All Urban Consumers (CPI-U)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Prices&gt;GDP Price Index</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Labor&gt;Unemployment Rate Civilian 16 Years or Older</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Components of GDP (Nominal)&gt;Personal Consumption Expenditures</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Components of GDP (Nominal)&gt;Government Consumption Expenditures and Gross Investment</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Components of GDP (Nominal)&gt;Government Consumption Expenditures and Gross Investment&gt;Federal</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Components of GDP (Nominal)&gt;Government Consumption Expenditures and Gross Investment&gt;State and local </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Components of GDP (Real)&gt;Personal Consumption Expenditures</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Components of GDP (Real)&gt;Government Consumption Expenditures and Gross Investment</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Components of GDP (Real)&gt;Government Consumption Expenditures and Gross Investment&gt;Federal</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Components of GDP (Real)&gt;Government Consumption Expenditures and Gross Investment&gt;State and local </t>
+  </si>
+  <si>
+    <t>CBO's Baseline Budget Projections, by Category</t>
+  </si>
+  <si>
+    <t>Revenues&gt;Individual income taxes</t>
+  </si>
+  <si>
+    <t>Revenues&gt;Payroll taxes</t>
+  </si>
+  <si>
+    <t>Revenues&gt;Corporate income taxes</t>
+  </si>
+  <si>
+    <t>Revenues&gt;Other</t>
+  </si>
+  <si>
+    <t>Update the variables in each of the sheets according the CBO baseline</t>
+  </si>
+  <si>
+    <t>You will have to transpose the columns and paste in the line items</t>
+  </si>
+  <si>
+    <t>Note that some variables are a result of the sum of multiple line items</t>
+  </si>
+  <si>
+    <t>Don't change the names of the variables in the sheets</t>
+  </si>
+  <si>
+    <t>Make sure to save, run data-raw/projections.R, commit and push changes once you're done</t>
+  </si>
+  <si>
+    <t>Variable in sheet</t>
+  </si>
+  <si>
+    <t>CBO Line item</t>
+  </si>
+  <si>
+    <t>CBO Table</t>
   </si>
 </sst>
 </file>
@@ -1338,7 +1462,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -1471,6 +1595,74 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1526,7 +1718,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="43" applyFont="1"/>
@@ -1581,6 +1773,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="37" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1597,9 +1834,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="43" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1961,422 +2195,624 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91A9440D-BB32-4FF5-9B05-8B4462DE649B}">
-  <dimension ref="A1:H30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{386681B1-D5EF-4F8F-85A9-C01E4CBD446B}">
+  <dimension ref="A1:P31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.375" customWidth="1"/>
-    <col min="2" max="2" width="32" customWidth="1"/>
-    <col min="3" max="3" width="50.375" customWidth="1"/>
-    <col min="4" max="4" width="44" customWidth="1"/>
-    <col min="5" max="5" width="19.625" customWidth="1"/>
+    <col min="1" max="2" width="19.625" style="43" customWidth="1"/>
+    <col min="3" max="3" width="26.375" style="44" customWidth="1"/>
+    <col min="4" max="5" width="19.625" style="43" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
-        <v>216</v>
-      </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>273</v>
-      </c>
-      <c r="C2" t="s">
-        <v>274</v>
-      </c>
-      <c r="D2" t="s">
-        <v>276</v>
-      </c>
-      <c r="E2" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="39" t="s">
+    <row r="1" spans="1:16" s="48" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="55" t="s">
+        <v>277</v>
+      </c>
+      <c r="B1" s="45" t="s">
+        <v>280</v>
+      </c>
+      <c r="C1" s="46" t="s">
+        <v>317</v>
+      </c>
+      <c r="D1" s="45" t="s">
+        <v>315</v>
+      </c>
+      <c r="E1" s="45" t="s">
+        <v>316</v>
+      </c>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
+      <c r="O1" s="47"/>
+      <c r="P1" s="47"/>
+    </row>
+    <row r="2" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="62" t="s">
+        <v>278</v>
+      </c>
+      <c r="B2" s="59" t="s">
+        <v>279</v>
+      </c>
+      <c r="C2" s="59" t="s">
+        <v>281</v>
+      </c>
+      <c r="D2" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="38" t="s">
-        <v>235</v>
-      </c>
-      <c r="C3" s="38" t="s">
-        <v>236</v>
-      </c>
-      <c r="D3" s="35" t="s">
-        <v>237</v>
-      </c>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="39" t="s">
-        <v>271</v>
-      </c>
-      <c r="B4" s="38" t="s">
-        <v>235</v>
-      </c>
-      <c r="C4" s="38" t="s">
-        <v>238</v>
-      </c>
-      <c r="D4" s="35" t="s">
-        <v>237</v>
-      </c>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="39" t="s">
-        <v>272</v>
-      </c>
-      <c r="B5" s="38" t="s">
-        <v>239</v>
-      </c>
-      <c r="C5" s="38" t="s">
-        <v>240</v>
-      </c>
-      <c r="D5" s="35" t="s">
-        <v>237</v>
-      </c>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="39" t="s">
-        <v>241</v>
-      </c>
-      <c r="B6" s="38" t="s">
-        <v>239</v>
-      </c>
-      <c r="C6" s="38" t="s">
-        <v>242</v>
-      </c>
-      <c r="D6" s="35" t="s">
-        <v>237</v>
-      </c>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="39" t="s">
-        <v>243</v>
-      </c>
-      <c r="B7" s="38" t="s">
-        <v>244</v>
-      </c>
-      <c r="C7" s="38" t="s">
-        <v>245</v>
-      </c>
-      <c r="D7" s="35" t="s">
-        <v>246</v>
-      </c>
-      <c r="E7" s="35" t="s">
-        <v>237</v>
-      </c>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="39" t="s">
-        <v>247</v>
-      </c>
-      <c r="B8" s="38" t="s">
-        <v>244</v>
-      </c>
-      <c r="C8" s="38" t="s">
-        <v>248</v>
-      </c>
-      <c r="D8" s="35" t="s">
-        <v>249</v>
-      </c>
-      <c r="E8" s="35" t="s">
-        <v>237</v>
-      </c>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="39" t="s">
-        <v>250</v>
-      </c>
-      <c r="B9" s="38" t="s">
-        <v>244</v>
-      </c>
-      <c r="C9" s="38" t="s">
-        <v>251</v>
-      </c>
-      <c r="D9" s="35" t="s">
-        <v>237</v>
-      </c>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="35"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="39" t="s">
-        <v>252</v>
-      </c>
-      <c r="B10" s="38" t="s">
-        <v>253</v>
-      </c>
-      <c r="C10" s="38" t="s">
-        <v>254</v>
-      </c>
-      <c r="D10" s="35" t="s">
-        <v>255</v>
-      </c>
-      <c r="E10" s="35" t="s">
-        <v>256</v>
-      </c>
-      <c r="F10" s="35" t="s">
-        <v>237</v>
-      </c>
-      <c r="G10" s="35"/>
-      <c r="H10" s="35"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="39" t="s">
-        <v>257</v>
-      </c>
-      <c r="B11" s="38" t="s">
-        <v>258</v>
-      </c>
-      <c r="C11" s="38" t="s">
-        <v>259</v>
-      </c>
-      <c r="D11" s="35" t="s">
-        <v>237</v>
-      </c>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="39" t="s">
-        <v>260</v>
-      </c>
-      <c r="B12" s="38" t="s">
-        <v>258</v>
-      </c>
-      <c r="C12" s="38" t="s">
-        <v>261</v>
-      </c>
-      <c r="D12" s="35" t="s">
-        <v>237</v>
-      </c>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="35"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="39" t="s">
-        <v>262</v>
-      </c>
-      <c r="B13" s="38" t="s">
-        <v>258</v>
-      </c>
-      <c r="C13" s="38" t="s">
-        <v>261</v>
-      </c>
-      <c r="D13" s="35" t="s">
-        <v>263</v>
-      </c>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="39" t="s">
-        <v>264</v>
-      </c>
-      <c r="B14" s="38" t="s">
-        <v>258</v>
-      </c>
-      <c r="C14" s="38" t="s">
-        <v>261</v>
-      </c>
-      <c r="D14" s="35" t="s">
-        <v>265</v>
-      </c>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="39" t="s">
-        <v>266</v>
-      </c>
-      <c r="B15" s="38" t="s">
-        <v>267</v>
-      </c>
-      <c r="C15" s="38" t="s">
-        <v>259</v>
-      </c>
-      <c r="D15" s="35" t="s">
-        <v>237</v>
-      </c>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="39" t="s">
-        <v>268</v>
-      </c>
-      <c r="B16" s="38" t="s">
-        <v>267</v>
-      </c>
-      <c r="C16" s="38" t="s">
-        <v>261</v>
-      </c>
-      <c r="D16" s="35" t="s">
-        <v>237</v>
-      </c>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="39" t="s">
-        <v>269</v>
-      </c>
-      <c r="B17" s="38" t="s">
-        <v>267</v>
-      </c>
-      <c r="C17" s="38" t="s">
-        <v>261</v>
-      </c>
-      <c r="D17" s="35" t="s">
-        <v>263</v>
-      </c>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="35"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="39" t="s">
-        <v>270</v>
-      </c>
-      <c r="B18" s="38" t="s">
-        <v>267</v>
-      </c>
-      <c r="C18" s="38" t="s">
-        <v>261</v>
-      </c>
-      <c r="D18" s="35" t="s">
-        <v>265</v>
-      </c>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="35"/>
-    </row>
-    <row r="21" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="43" t="s">
-        <v>226</v>
-      </c>
-      <c r="B21" s="43"/>
-      <c r="C21" s="43"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>217</v>
-      </c>
-      <c r="B22" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>219</v>
-      </c>
-      <c r="B23" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>221</v>
-      </c>
-      <c r="B24" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>223</v>
-      </c>
-      <c r="B25" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="43" t="s">
-        <v>225</v>
-      </c>
-      <c r="B26" s="43"/>
-      <c r="C26" s="43"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>227</v>
-      </c>
-      <c r="B27" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>228</v>
-      </c>
-      <c r="B28" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>229</v>
-      </c>
-      <c r="B29" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>230</v>
-      </c>
-      <c r="B30" t="s">
-        <v>234</v>
+      <c r="E2" s="49" t="s">
+        <v>289</v>
+      </c>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="49"/>
+      <c r="N2" s="49"/>
+      <c r="O2" s="49"/>
+      <c r="P2" s="50"/>
+    </row>
+    <row r="3" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="63"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="57" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="51" t="s">
+        <v>290</v>
+      </c>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="51"/>
+      <c r="L3" s="51"/>
+      <c r="M3" s="51"/>
+      <c r="N3" s="51"/>
+      <c r="O3" s="51"/>
+      <c r="P3" s="52"/>
+    </row>
+    <row r="4" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="63"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="57" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="51" t="s">
+        <v>291</v>
+      </c>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="51"/>
+      <c r="L4" s="51"/>
+      <c r="M4" s="51"/>
+      <c r="N4" s="51"/>
+      <c r="O4" s="51"/>
+      <c r="P4" s="52"/>
+    </row>
+    <row r="5" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="63"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="57" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="51" t="s">
+        <v>292</v>
+      </c>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="51"/>
+      <c r="M5" s="51"/>
+      <c r="N5" s="51"/>
+      <c r="O5" s="51"/>
+      <c r="P5" s="52"/>
+    </row>
+    <row r="6" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="63"/>
+      <c r="B6" s="60"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="51" t="s">
+        <v>293</v>
+      </c>
+      <c r="F6" s="51"/>
+      <c r="G6" s="51"/>
+      <c r="H6" s="51"/>
+      <c r="I6" s="51"/>
+      <c r="J6" s="51"/>
+      <c r="K6" s="51"/>
+      <c r="L6" s="51"/>
+      <c r="M6" s="51"/>
+      <c r="N6" s="51"/>
+      <c r="O6" s="51"/>
+      <c r="P6" s="52"/>
+    </row>
+    <row r="7" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="63"/>
+      <c r="B7" s="60"/>
+      <c r="C7" s="60"/>
+      <c r="D7" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="51" t="s">
+        <v>294</v>
+      </c>
+      <c r="F7" s="51"/>
+      <c r="G7" s="51"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="51"/>
+      <c r="K7" s="51"/>
+      <c r="L7" s="51"/>
+      <c r="M7" s="51"/>
+      <c r="N7" s="51"/>
+      <c r="O7" s="51"/>
+      <c r="P7" s="52"/>
+    </row>
+    <row r="8" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="63"/>
+      <c r="B8" s="60"/>
+      <c r="C8" s="60"/>
+      <c r="D8" s="57" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="51" t="s">
+        <v>295</v>
+      </c>
+      <c r="F8" s="51"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="51"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="51"/>
+      <c r="K8" s="51"/>
+      <c r="L8" s="51"/>
+      <c r="M8" s="51"/>
+      <c r="N8" s="51"/>
+      <c r="O8" s="51"/>
+      <c r="P8" s="52"/>
+    </row>
+    <row r="9" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="63"/>
+      <c r="B9" s="60"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="57" t="s">
+        <v>212</v>
+      </c>
+      <c r="E9" s="51" t="s">
+        <v>296</v>
+      </c>
+      <c r="F9" s="51"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="51"/>
+      <c r="I9" s="51"/>
+      <c r="J9" s="51"/>
+      <c r="K9" s="51"/>
+      <c r="L9" s="51"/>
+      <c r="M9" s="51"/>
+      <c r="N9" s="51"/>
+      <c r="O9" s="51"/>
+      <c r="P9" s="52"/>
+    </row>
+    <row r="10" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="63"/>
+      <c r="B10" s="60"/>
+      <c r="C10" s="60"/>
+      <c r="D10" s="57" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="51" t="s">
+        <v>297</v>
+      </c>
+      <c r="F10" s="51"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="51"/>
+      <c r="I10" s="51"/>
+      <c r="J10" s="51"/>
+      <c r="K10" s="51"/>
+      <c r="L10" s="51"/>
+      <c r="M10" s="51"/>
+      <c r="N10" s="51"/>
+      <c r="O10" s="51"/>
+      <c r="P10" s="52"/>
+    </row>
+    <row r="11" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="63"/>
+      <c r="B11" s="60"/>
+      <c r="C11" s="60"/>
+      <c r="D11" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="51" t="s">
+        <v>298</v>
+      </c>
+      <c r="F11" s="51"/>
+      <c r="G11" s="51"/>
+      <c r="H11" s="51"/>
+      <c r="I11" s="51"/>
+      <c r="J11" s="51"/>
+      <c r="K11" s="51"/>
+      <c r="L11" s="51"/>
+      <c r="M11" s="51"/>
+      <c r="N11" s="51"/>
+      <c r="O11" s="51"/>
+      <c r="P11" s="52"/>
+    </row>
+    <row r="12" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="63"/>
+      <c r="B12" s="60"/>
+      <c r="C12" s="60"/>
+      <c r="D12" s="57" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="51" t="s">
+        <v>299</v>
+      </c>
+      <c r="F12" s="51"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="51"/>
+      <c r="J12" s="51"/>
+      <c r="K12" s="51"/>
+      <c r="L12" s="51"/>
+      <c r="M12" s="51"/>
+      <c r="N12" s="51"/>
+      <c r="O12" s="51"/>
+      <c r="P12" s="52"/>
+    </row>
+    <row r="13" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="63"/>
+      <c r="B13" s="60"/>
+      <c r="C13" s="60"/>
+      <c r="D13" s="57" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="51" t="s">
+        <v>300</v>
+      </c>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="51"/>
+      <c r="K13" s="51"/>
+      <c r="L13" s="51"/>
+      <c r="M13" s="51"/>
+      <c r="N13" s="51"/>
+      <c r="O13" s="51"/>
+      <c r="P13" s="52"/>
+    </row>
+    <row r="14" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="63"/>
+      <c r="B14" s="60"/>
+      <c r="C14" s="60"/>
+      <c r="D14" s="57" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="51" t="s">
+        <v>301</v>
+      </c>
+      <c r="F14" s="51"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="51"/>
+      <c r="I14" s="51"/>
+      <c r="J14" s="51"/>
+      <c r="K14" s="51"/>
+      <c r="L14" s="51"/>
+      <c r="M14" s="51"/>
+      <c r="N14" s="51"/>
+      <c r="O14" s="51"/>
+      <c r="P14" s="52"/>
+    </row>
+    <row r="15" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="63"/>
+      <c r="B15" s="60"/>
+      <c r="C15" s="60"/>
+      <c r="D15" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="51" t="s">
+        <v>302</v>
+      </c>
+      <c r="F15" s="51"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="51"/>
+      <c r="J15" s="51"/>
+      <c r="K15" s="51"/>
+      <c r="L15" s="51"/>
+      <c r="M15" s="51"/>
+      <c r="N15" s="51"/>
+      <c r="O15" s="51"/>
+      <c r="P15" s="52"/>
+    </row>
+    <row r="16" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="63"/>
+      <c r="B16" s="60"/>
+      <c r="C16" s="60"/>
+      <c r="D16" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="51" t="s">
+        <v>303</v>
+      </c>
+      <c r="F16" s="51"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="51"/>
+      <c r="I16" s="51"/>
+      <c r="J16" s="51"/>
+      <c r="K16" s="51"/>
+      <c r="L16" s="51"/>
+      <c r="M16" s="51"/>
+      <c r="N16" s="51"/>
+      <c r="O16" s="51"/>
+      <c r="P16" s="52"/>
+    </row>
+    <row r="17" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="64"/>
+      <c r="B17" s="61"/>
+      <c r="C17" s="61"/>
+      <c r="D17" s="58" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="53" t="s">
+        <v>304</v>
+      </c>
+      <c r="F17" s="53"/>
+      <c r="G17" s="53"/>
+      <c r="H17" s="53"/>
+      <c r="I17" s="53"/>
+      <c r="J17" s="53"/>
+      <c r="K17" s="53"/>
+      <c r="L17" s="53"/>
+      <c r="M17" s="53"/>
+      <c r="N17" s="53"/>
+      <c r="O17" s="53"/>
+      <c r="P17" s="54"/>
+    </row>
+    <row r="18" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="62" t="s">
+        <v>282</v>
+      </c>
+      <c r="B18" s="59" t="s">
+        <v>283</v>
+      </c>
+      <c r="C18" s="59" t="s">
+        <v>284</v>
+      </c>
+      <c r="D18" s="56" t="s">
+        <v>159</v>
+      </c>
+      <c r="E18" s="49" t="s">
+        <v>288</v>
+      </c>
+      <c r="F18" s="49"/>
+      <c r="G18" s="49"/>
+      <c r="H18" s="49"/>
+      <c r="I18" s="49"/>
+      <c r="J18" s="49"/>
+      <c r="K18" s="49"/>
+      <c r="L18" s="49"/>
+      <c r="M18" s="49"/>
+      <c r="N18" s="49"/>
+      <c r="O18" s="49"/>
+      <c r="P18" s="50"/>
+    </row>
+    <row r="19" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="63"/>
+      <c r="B19" s="60"/>
+      <c r="C19" s="60"/>
+      <c r="D19" s="57" t="s">
+        <v>165</v>
+      </c>
+      <c r="E19" s="51" t="s">
+        <v>285</v>
+      </c>
+      <c r="F19" s="51"/>
+      <c r="G19" s="51"/>
+      <c r="H19" s="51"/>
+      <c r="I19" s="51"/>
+      <c r="J19" s="51"/>
+      <c r="K19" s="51"/>
+      <c r="L19" s="51"/>
+      <c r="M19" s="51"/>
+      <c r="N19" s="51"/>
+      <c r="O19" s="51"/>
+      <c r="P19" s="52"/>
+    </row>
+    <row r="20" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="63"/>
+      <c r="B20" s="60"/>
+      <c r="C20" s="60"/>
+      <c r="D20" s="57" t="s">
+        <v>164</v>
+      </c>
+      <c r="E20" s="51" t="s">
+        <v>286</v>
+      </c>
+      <c r="F20" s="51"/>
+      <c r="G20" s="51"/>
+      <c r="H20" s="51"/>
+      <c r="I20" s="51"/>
+      <c r="J20" s="51"/>
+      <c r="K20" s="51"/>
+      <c r="L20" s="51"/>
+      <c r="M20" s="51"/>
+      <c r="N20" s="51"/>
+      <c r="O20" s="51"/>
+      <c r="P20" s="52"/>
+    </row>
+    <row r="21" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="63"/>
+      <c r="B21" s="60"/>
+      <c r="C21" s="61"/>
+      <c r="D21" s="58" t="s">
+        <v>166</v>
+      </c>
+      <c r="E21" s="53" t="s">
+        <v>287</v>
+      </c>
+      <c r="F21" s="53"/>
+      <c r="G21" s="53"/>
+      <c r="H21" s="53"/>
+      <c r="I21" s="53"/>
+      <c r="J21" s="53"/>
+      <c r="K21" s="53"/>
+      <c r="L21" s="53"/>
+      <c r="M21" s="53"/>
+      <c r="N21" s="53"/>
+      <c r="O21" s="53"/>
+      <c r="P21" s="54"/>
+    </row>
+    <row r="22" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="63"/>
+      <c r="B22" s="60"/>
+      <c r="C22" s="60" t="s">
+        <v>305</v>
+      </c>
+      <c r="D22" s="57" t="s">
+        <v>160</v>
+      </c>
+      <c r="E22" s="51" t="s">
+        <v>306</v>
+      </c>
+      <c r="F22" s="51"/>
+      <c r="G22" s="51"/>
+      <c r="H22" s="51"/>
+      <c r="I22" s="51"/>
+      <c r="J22" s="51"/>
+      <c r="K22" s="51"/>
+      <c r="L22" s="51"/>
+      <c r="M22" s="51"/>
+      <c r="N22" s="51"/>
+      <c r="O22" s="51"/>
+      <c r="P22" s="52"/>
+    </row>
+    <row r="23" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="63"/>
+      <c r="B23" s="60"/>
+      <c r="C23" s="60"/>
+      <c r="D23" s="57" t="s">
+        <v>163</v>
+      </c>
+      <c r="E23" s="51" t="s">
+        <v>307</v>
+      </c>
+      <c r="F23" s="51"/>
+      <c r="G23" s="51"/>
+      <c r="H23" s="51"/>
+      <c r="I23" s="51"/>
+      <c r="J23" s="51"/>
+      <c r="K23" s="51"/>
+      <c r="L23" s="51"/>
+      <c r="M23" s="51"/>
+      <c r="N23" s="51"/>
+      <c r="O23" s="51"/>
+      <c r="P23" s="52"/>
+    </row>
+    <row r="24" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="63"/>
+      <c r="B24" s="60"/>
+      <c r="C24" s="60"/>
+      <c r="D24" s="57" t="s">
+        <v>162</v>
+      </c>
+      <c r="E24" s="51" t="s">
+        <v>308</v>
+      </c>
+      <c r="F24" s="51"/>
+      <c r="G24" s="51"/>
+      <c r="H24" s="51"/>
+      <c r="I24" s="51"/>
+      <c r="J24" s="51"/>
+      <c r="K24" s="51"/>
+      <c r="L24" s="51"/>
+      <c r="M24" s="51"/>
+      <c r="N24" s="51"/>
+      <c r="O24" s="51"/>
+      <c r="P24" s="52"/>
+    </row>
+    <row r="25" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="64"/>
+      <c r="B25" s="61"/>
+      <c r="C25" s="61"/>
+      <c r="D25" s="58" t="s">
+        <v>161</v>
+      </c>
+      <c r="E25" s="53" t="s">
+        <v>309</v>
+      </c>
+      <c r="F25" s="53"/>
+      <c r="G25" s="53"/>
+      <c r="H25" s="53"/>
+      <c r="I25" s="53"/>
+      <c r="J25" s="53"/>
+      <c r="K25" s="53"/>
+      <c r="L25" s="53"/>
+      <c r="M25" s="53"/>
+      <c r="N25" s="53"/>
+      <c r="O25" s="53"/>
+      <c r="P25" s="54"/>
+    </row>
+    <row r="27" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="43" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="43" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="43" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="43" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="43" t="s">
+        <v>314</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A26:C26"/>
+  <mergeCells count="7">
+    <mergeCell ref="B2:B17"/>
+    <mergeCell ref="A2:A17"/>
+    <mergeCell ref="C2:C17"/>
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="B18:B25"/>
+    <mergeCell ref="A18:A25"/>
+    <mergeCell ref="C22:C25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -2384,6 +2820,108 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07E42683-B4AF-4746-955F-5BBF64474D4E}">
+  <dimension ref="A1:L4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F1" t="s">
+        <v>179</v>
+      </c>
+      <c r="G1" t="s">
+        <v>172</v>
+      </c>
+      <c r="H1" t="s">
+        <v>178</v>
+      </c>
+      <c r="I1" t="s">
+        <v>175</v>
+      </c>
+      <c r="J1" t="s">
+        <v>176</v>
+      </c>
+      <c r="K1" t="s">
+        <v>169</v>
+      </c>
+      <c r="L1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2021</v>
+      </c>
+      <c r="B2">
+        <f>284+80.5</f>
+        <v>364.5</v>
+      </c>
+      <c r="C2">
+        <v>164</v>
+      </c>
+      <c r="D2">
+        <v>82</v>
+      </c>
+      <c r="E2">
+        <v>16</v>
+      </c>
+      <c r="F2">
+        <v>29</v>
+      </c>
+      <c r="G2">
+        <v>25</v>
+      </c>
+      <c r="H2">
+        <v>48</v>
+      </c>
+      <c r="I2">
+        <v>20</v>
+      </c>
+      <c r="J2">
+        <v>13</v>
+      </c>
+      <c r="K2">
+        <v>13</v>
+      </c>
+      <c r="L2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2023</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7511D70-80B4-5E47-A7B7-55F3EFCB84BC}">
   <dimension ref="A1:BL135"/>
   <sheetViews>
@@ -2411,27 +2949,27 @@
       </c>
     </row>
     <row r="2" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="67" t="s">
         <v>156</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
     </row>
     <row r="4" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D4" s="23"/>
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="46" t="s">
+      <c r="A5" s="69" t="s">
         <v>155</v>
       </c>
-      <c r="B5" s="46"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
+      <c r="B5" s="69"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -23269,12 +23807,12 @@
       </c>
     </row>
     <row r="130" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="47" t="s">
+      <c r="A130" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="B130" s="47"/>
-      <c r="C130" s="47"/>
-      <c r="D130" s="47"/>
+      <c r="B130" s="70"/>
+      <c r="C130" s="70"/>
+      <c r="D130" s="70"/>
     </row>
     <row r="131" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C131" s="6"/>
@@ -23396,596 +23934,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86381FD6-3DA6-864B-ACAE-10D968FEABB3}">
-  <dimension ref="A1:C53"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>213</v>
-      </c>
-      <c r="C1" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>43921</v>
-      </c>
-      <c r="B2" s="12">
-        <v>5.3959999999999999</v>
-      </c>
-      <c r="C2" s="12">
-        <v>3.8639999999999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>44012</v>
-      </c>
-      <c r="B3" s="12">
-        <v>2.79</v>
-      </c>
-      <c r="C3" s="12">
-        <v>3.2149999999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>44104</v>
-      </c>
-      <c r="B4" s="12">
-        <v>2.7240000000000002</v>
-      </c>
-      <c r="C4" s="12">
-        <v>3.8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>44196</v>
-      </c>
-      <c r="B5" s="12">
-        <v>2.6549999999999998</v>
-      </c>
-      <c r="C5" s="12">
-        <v>3.7440000000000002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>44286</v>
-      </c>
-      <c r="B6" s="12">
-        <v>2.7839999999999998</v>
-      </c>
-      <c r="C6" s="12">
-        <v>3.734</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>44377</v>
-      </c>
-      <c r="B7" s="12">
-        <v>2.7959999999999998</v>
-      </c>
-      <c r="C7" s="12">
-        <v>3.7170000000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>44469</v>
-      </c>
-      <c r="B8" s="12">
-        <v>2.7669999999999999</v>
-      </c>
-      <c r="C8" s="12">
-        <v>3.72</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>44561</v>
-      </c>
-      <c r="B9" s="12">
-        <v>2.4209999999999998</v>
-      </c>
-      <c r="C9" s="12">
-        <v>3.7509999999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>44651</v>
-      </c>
-      <c r="B10" s="33">
-        <v>2.298</v>
-      </c>
-      <c r="C10" s="33">
-        <v>9.2159999999999993</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>44742</v>
-      </c>
-      <c r="B11" s="33">
-        <v>4.2320000000000002</v>
-      </c>
-      <c r="C11" s="33">
-        <v>9.843</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>44834</v>
-      </c>
-      <c r="B12" s="33">
-        <v>4.1929999999999996</v>
-      </c>
-      <c r="C12" s="33">
-        <v>7.6760000000000002</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>44926</v>
-      </c>
-      <c r="B13" s="33">
-        <v>3.786</v>
-      </c>
-      <c r="C13" s="33">
-        <v>5.7149999999999999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>45016</v>
-      </c>
-      <c r="B14" s="33">
-        <v>4.0339999999999998</v>
-      </c>
-      <c r="C14" s="33">
-        <v>4.9859999999999998</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>45107</v>
-      </c>
-      <c r="B15" s="33">
-        <v>3.6819999999999999</v>
-      </c>
-      <c r="C15" s="33">
-        <v>4.2220000000000004</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>45199</v>
-      </c>
-      <c r="B16" s="33">
-        <v>3.3159999999999998</v>
-      </c>
-      <c r="C16" s="33">
-        <v>3.7879999999999998</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>45291</v>
-      </c>
-      <c r="B17" s="33">
-        <v>2.9569999999999999</v>
-      </c>
-      <c r="C17" s="33">
-        <v>3.6309999999999998</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>45382</v>
-      </c>
-      <c r="B18" s="33">
-        <v>3.2949999999999999</v>
-      </c>
-      <c r="C18" s="33">
-        <v>3.5049999999999999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>45473</v>
-      </c>
-      <c r="B19" s="33">
-        <v>3.1269999999999998</v>
-      </c>
-      <c r="C19" s="33">
-        <v>3.4809999999999999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>45565</v>
-      </c>
-      <c r="B20" s="33">
-        <v>3.125</v>
-      </c>
-      <c r="C20" s="33">
-        <v>3.5430000000000001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>45657</v>
-      </c>
-      <c r="B21" s="33">
-        <v>3.113</v>
-      </c>
-      <c r="C21" s="33">
-        <v>3.633</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>45747</v>
-      </c>
-      <c r="B22" s="33">
-        <v>2.5430000000000001</v>
-      </c>
-      <c r="C22" s="33">
-        <v>3.8759999999999999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>45838</v>
-      </c>
-      <c r="B23" s="33">
-        <v>2.61</v>
-      </c>
-      <c r="C23" s="33">
-        <v>3.98</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>45930</v>
-      </c>
-      <c r="B24" s="33">
-        <v>2.673</v>
-      </c>
-      <c r="C24" s="33">
-        <v>4.0709999999999997</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>46022</v>
-      </c>
-      <c r="B25" s="33">
-        <v>2.7309999999999999</v>
-      </c>
-      <c r="C25" s="33">
-        <v>4.0750000000000002</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <v>46112</v>
-      </c>
-      <c r="B26" s="33">
-        <v>2.5009999999999999</v>
-      </c>
-      <c r="C26" s="33">
-        <v>4.032</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
-        <v>46203</v>
-      </c>
-      <c r="B27" s="33">
-        <v>2.59</v>
-      </c>
-      <c r="C27" s="33">
-        <v>3.9910000000000001</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
-        <v>46295</v>
-      </c>
-      <c r="B28" s="33">
-        <v>2.661</v>
-      </c>
-      <c r="C28" s="33">
-        <v>3.9529999999999998</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
-        <v>46387</v>
-      </c>
-      <c r="B29" s="33">
-        <v>2.6659999999999999</v>
-      </c>
-      <c r="C29" s="33">
-        <v>3.923</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
-        <v>46477</v>
-      </c>
-      <c r="B30" s="33">
-        <v>2.5910000000000002</v>
-      </c>
-      <c r="C30" s="33">
-        <v>3.8959999999999999</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
-        <v>46568</v>
-      </c>
-      <c r="B31" s="33">
-        <v>2.5939999999999999</v>
-      </c>
-      <c r="C31" s="33">
-        <v>3.891</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
-        <v>46660</v>
-      </c>
-      <c r="B32" s="33">
-        <v>2.5960000000000001</v>
-      </c>
-      <c r="C32" s="33">
-        <v>3.8620000000000001</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
-        <v>46752</v>
-      </c>
-      <c r="B33" s="33">
-        <v>2.6150000000000002</v>
-      </c>
-      <c r="C33" s="33">
-        <v>3.8380000000000001</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
-        <v>46843</v>
-      </c>
-      <c r="B34" s="33">
-        <v>2.5190000000000001</v>
-      </c>
-      <c r="C34" s="33">
-        <v>3.8039999999999998</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
-        <v>46934</v>
-      </c>
-      <c r="B35" s="33">
-        <v>2.5030000000000001</v>
-      </c>
-      <c r="C35" s="33">
-        <v>3.7970000000000002</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
-        <v>47026</v>
-      </c>
-      <c r="B36" s="33">
-        <v>2.4790000000000001</v>
-      </c>
-      <c r="C36" s="33">
-        <v>3.78</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
-        <v>47118</v>
-      </c>
-      <c r="B37" s="33">
-        <v>2.4700000000000002</v>
-      </c>
-      <c r="C37" s="33">
-        <v>3.766</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
-        <v>47208</v>
-      </c>
-      <c r="B38" s="33">
-        <v>2.4620000000000002</v>
-      </c>
-      <c r="C38" s="33">
-        <v>3.74</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
-        <v>47299</v>
-      </c>
-      <c r="B39" s="33">
-        <v>2.4460000000000002</v>
-      </c>
-      <c r="C39" s="33">
-        <v>3.746</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="1">
-        <v>47391</v>
-      </c>
-      <c r="B40" s="33">
-        <v>2.4380000000000002</v>
-      </c>
-      <c r="C40" s="33">
-        <v>3.7570000000000001</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="1">
-        <v>47483</v>
-      </c>
-      <c r="B41" s="33">
-        <v>2.4380000000000002</v>
-      </c>
-      <c r="C41" s="33">
-        <v>3.7709999999999999</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="1">
-        <v>47573</v>
-      </c>
-      <c r="B42" s="33">
-        <v>2.4350000000000001</v>
-      </c>
-      <c r="C42" s="33">
-        <v>3.7749999999999999</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="1">
-        <v>47664</v>
-      </c>
-      <c r="B43" s="33">
-        <v>2.431</v>
-      </c>
-      <c r="C43" s="33">
-        <v>3.7810000000000001</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="1">
-        <v>47756</v>
-      </c>
-      <c r="B44" s="33">
-        <v>2.4279999999999999</v>
-      </c>
-      <c r="C44" s="33">
-        <v>3.7879999999999998</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="1">
-        <v>47848</v>
-      </c>
-      <c r="B45" s="33">
-        <v>2.4239999999999999</v>
-      </c>
-      <c r="C45" s="33">
-        <v>3.7879999999999998</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="1">
-        <v>47938</v>
-      </c>
-      <c r="B46" s="33">
-        <v>2.3719999999999999</v>
-      </c>
-      <c r="C46" s="33">
-        <v>3.8069999999999999</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="1">
-        <v>48029</v>
-      </c>
-      <c r="B47" s="33">
-        <v>2.3679999999999999</v>
-      </c>
-      <c r="C47" s="33">
-        <v>3.7909999999999999</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="1">
-        <v>48121</v>
-      </c>
-      <c r="B48" s="33">
-        <v>2.3679999999999999</v>
-      </c>
-      <c r="C48" s="33">
-        <v>3.7909999999999999</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="1">
-        <v>48213</v>
-      </c>
-      <c r="B49" s="33">
-        <v>2.3690000000000002</v>
-      </c>
-      <c r="C49" s="33">
-        <v>3.7839999999999998</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B50" s="33">
-        <v>2.3690000000000002</v>
-      </c>
-      <c r="C50" s="33">
-        <v>3.79</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B51" s="33">
-        <v>2.37</v>
-      </c>
-      <c r="C51" s="33">
-        <v>3.7909999999999999</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B52" s="33">
-        <v>2.371</v>
-      </c>
-      <c r="C52" s="33">
-        <v>3.7869999999999999</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B53" s="33">
-        <v>2.4249999999999998</v>
-      </c>
-      <c r="C53" s="33">
-        <v>3.79</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E35EE37A-6DA7-464E-B4F9-9D022FBE10B3}">
   <dimension ref="A1:AT66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -24007,16 +23959,16 @@
       <c r="C1" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="48" t="s">
+      <c r="D1" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="48" t="s">
+      <c r="E1" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="48" t="s">
+      <c r="F1" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="48" t="s">
+      <c r="G1" s="42" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="41" t="s">
@@ -24043,10 +23995,10 @@
       <c r="O1" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="48" t="s">
+      <c r="P1" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="48" t="s">
+      <c r="Q1" s="42" t="s">
         <v>212</v>
       </c>
     </row>
@@ -27481,7 +27433,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77260E8A-45C6-C74E-A071-E1E958901B15}">
   <dimension ref="A1:M24"/>
   <sheetViews>
@@ -28055,7 +28007,1016 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86381FD6-3DA6-864B-ACAE-10D968FEABB3}">
+  <dimension ref="A1:C53"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>43921</v>
+      </c>
+      <c r="B2" s="12">
+        <v>5.3959999999999999</v>
+      </c>
+      <c r="C2" s="12">
+        <v>3.8639999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>44012</v>
+      </c>
+      <c r="B3" s="12">
+        <v>2.79</v>
+      </c>
+      <c r="C3" s="12">
+        <v>3.2149999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>44104</v>
+      </c>
+      <c r="B4" s="12">
+        <v>2.7240000000000002</v>
+      </c>
+      <c r="C4" s="12">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>44196</v>
+      </c>
+      <c r="B5" s="12">
+        <v>2.6549999999999998</v>
+      </c>
+      <c r="C5" s="12">
+        <v>3.7440000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>44286</v>
+      </c>
+      <c r="B6" s="12">
+        <v>2.7839999999999998</v>
+      </c>
+      <c r="C6" s="12">
+        <v>3.734</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>44377</v>
+      </c>
+      <c r="B7" s="12">
+        <v>2.7959999999999998</v>
+      </c>
+      <c r="C7" s="12">
+        <v>3.7170000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>44469</v>
+      </c>
+      <c r="B8" s="12">
+        <v>2.7669999999999999</v>
+      </c>
+      <c r="C8" s="12">
+        <v>3.72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>44561</v>
+      </c>
+      <c r="B9" s="12">
+        <v>2.4209999999999998</v>
+      </c>
+      <c r="C9" s="12">
+        <v>3.7509999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>44651</v>
+      </c>
+      <c r="B10" s="33">
+        <v>2.298</v>
+      </c>
+      <c r="C10" s="33">
+        <v>9.2159999999999993</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>44742</v>
+      </c>
+      <c r="B11" s="33">
+        <v>4.2320000000000002</v>
+      </c>
+      <c r="C11" s="33">
+        <v>9.843</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>44834</v>
+      </c>
+      <c r="B12" s="33">
+        <v>4.1929999999999996</v>
+      </c>
+      <c r="C12" s="33">
+        <v>7.6760000000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>44926</v>
+      </c>
+      <c r="B13" s="33">
+        <v>3.786</v>
+      </c>
+      <c r="C13" s="33">
+        <v>5.7149999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>45016</v>
+      </c>
+      <c r="B14" s="33">
+        <v>4.0339999999999998</v>
+      </c>
+      <c r="C14" s="33">
+        <v>4.9859999999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>45107</v>
+      </c>
+      <c r="B15" s="33">
+        <v>3.6819999999999999</v>
+      </c>
+      <c r="C15" s="33">
+        <v>4.2220000000000004</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>45199</v>
+      </c>
+      <c r="B16" s="33">
+        <v>3.3159999999999998</v>
+      </c>
+      <c r="C16" s="33">
+        <v>3.7879999999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>45291</v>
+      </c>
+      <c r="B17" s="33">
+        <v>2.9569999999999999</v>
+      </c>
+      <c r="C17" s="33">
+        <v>3.6309999999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>45382</v>
+      </c>
+      <c r="B18" s="33">
+        <v>3.2949999999999999</v>
+      </c>
+      <c r="C18" s="33">
+        <v>3.5049999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>45473</v>
+      </c>
+      <c r="B19" s="33">
+        <v>3.1269999999999998</v>
+      </c>
+      <c r="C19" s="33">
+        <v>3.4809999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>45565</v>
+      </c>
+      <c r="B20" s="33">
+        <v>3.125</v>
+      </c>
+      <c r="C20" s="33">
+        <v>3.5430000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>45657</v>
+      </c>
+      <c r="B21" s="33">
+        <v>3.113</v>
+      </c>
+      <c r="C21" s="33">
+        <v>3.633</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>45747</v>
+      </c>
+      <c r="B22" s="33">
+        <v>2.5430000000000001</v>
+      </c>
+      <c r="C22" s="33">
+        <v>3.8759999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>45838</v>
+      </c>
+      <c r="B23" s="33">
+        <v>2.61</v>
+      </c>
+      <c r="C23" s="33">
+        <v>3.98</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>45930</v>
+      </c>
+      <c r="B24" s="33">
+        <v>2.673</v>
+      </c>
+      <c r="C24" s="33">
+        <v>4.0709999999999997</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>46022</v>
+      </c>
+      <c r="B25" s="33">
+        <v>2.7309999999999999</v>
+      </c>
+      <c r="C25" s="33">
+        <v>4.0750000000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>46112</v>
+      </c>
+      <c r="B26" s="33">
+        <v>2.5009999999999999</v>
+      </c>
+      <c r="C26" s="33">
+        <v>4.032</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>46203</v>
+      </c>
+      <c r="B27" s="33">
+        <v>2.59</v>
+      </c>
+      <c r="C27" s="33">
+        <v>3.9910000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>46295</v>
+      </c>
+      <c r="B28" s="33">
+        <v>2.661</v>
+      </c>
+      <c r="C28" s="33">
+        <v>3.9529999999999998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>46387</v>
+      </c>
+      <c r="B29" s="33">
+        <v>2.6659999999999999</v>
+      </c>
+      <c r="C29" s="33">
+        <v>3.923</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>46477</v>
+      </c>
+      <c r="B30" s="33">
+        <v>2.5910000000000002</v>
+      </c>
+      <c r="C30" s="33">
+        <v>3.8959999999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>46568</v>
+      </c>
+      <c r="B31" s="33">
+        <v>2.5939999999999999</v>
+      </c>
+      <c r="C31" s="33">
+        <v>3.891</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>46660</v>
+      </c>
+      <c r="B32" s="33">
+        <v>2.5960000000000001</v>
+      </c>
+      <c r="C32" s="33">
+        <v>3.8620000000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>46752</v>
+      </c>
+      <c r="B33" s="33">
+        <v>2.6150000000000002</v>
+      </c>
+      <c r="C33" s="33">
+        <v>3.8380000000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>46843</v>
+      </c>
+      <c r="B34" s="33">
+        <v>2.5190000000000001</v>
+      </c>
+      <c r="C34" s="33">
+        <v>3.8039999999999998</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>46934</v>
+      </c>
+      <c r="B35" s="33">
+        <v>2.5030000000000001</v>
+      </c>
+      <c r="C35" s="33">
+        <v>3.7970000000000002</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>47026</v>
+      </c>
+      <c r="B36" s="33">
+        <v>2.4790000000000001</v>
+      </c>
+      <c r="C36" s="33">
+        <v>3.78</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>47118</v>
+      </c>
+      <c r="B37" s="33">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="C37" s="33">
+        <v>3.766</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>47208</v>
+      </c>
+      <c r="B38" s="33">
+        <v>2.4620000000000002</v>
+      </c>
+      <c r="C38" s="33">
+        <v>3.74</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>47299</v>
+      </c>
+      <c r="B39" s="33">
+        <v>2.4460000000000002</v>
+      </c>
+      <c r="C39" s="33">
+        <v>3.746</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>47391</v>
+      </c>
+      <c r="B40" s="33">
+        <v>2.4380000000000002</v>
+      </c>
+      <c r="C40" s="33">
+        <v>3.7570000000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>47483</v>
+      </c>
+      <c r="B41" s="33">
+        <v>2.4380000000000002</v>
+      </c>
+      <c r="C41" s="33">
+        <v>3.7709999999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>47573</v>
+      </c>
+      <c r="B42" s="33">
+        <v>2.4350000000000001</v>
+      </c>
+      <c r="C42" s="33">
+        <v>3.7749999999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>47664</v>
+      </c>
+      <c r="B43" s="33">
+        <v>2.431</v>
+      </c>
+      <c r="C43" s="33">
+        <v>3.7810000000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>47756</v>
+      </c>
+      <c r="B44" s="33">
+        <v>2.4279999999999999</v>
+      </c>
+      <c r="C44" s="33">
+        <v>3.7879999999999998</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>47848</v>
+      </c>
+      <c r="B45" s="33">
+        <v>2.4239999999999999</v>
+      </c>
+      <c r="C45" s="33">
+        <v>3.7879999999999998</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>47938</v>
+      </c>
+      <c r="B46" s="33">
+        <v>2.3719999999999999</v>
+      </c>
+      <c r="C46" s="33">
+        <v>3.8069999999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>48029</v>
+      </c>
+      <c r="B47" s="33">
+        <v>2.3679999999999999</v>
+      </c>
+      <c r="C47" s="33">
+        <v>3.7909999999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>48121</v>
+      </c>
+      <c r="B48" s="33">
+        <v>2.3679999999999999</v>
+      </c>
+      <c r="C48" s="33">
+        <v>3.7909999999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>48213</v>
+      </c>
+      <c r="B49" s="33">
+        <v>2.3690000000000002</v>
+      </c>
+      <c r="C49" s="33">
+        <v>3.7839999999999998</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B50" s="33">
+        <v>2.3690000000000002</v>
+      </c>
+      <c r="C50" s="33">
+        <v>3.79</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B51" s="33">
+        <v>2.37</v>
+      </c>
+      <c r="C51" s="33">
+        <v>3.7909999999999999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B52" s="33">
+        <v>2.371</v>
+      </c>
+      <c r="C52" s="33">
+        <v>3.7869999999999999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B53" s="33">
+        <v>2.4249999999999998</v>
+      </c>
+      <c r="C53" s="33">
+        <v>3.79</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91A9440D-BB32-4FF5-9B05-8B4462DE649B}">
+  <dimension ref="A1:H30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.375" customWidth="1"/>
+    <col min="2" max="2" width="32" customWidth="1"/>
+    <col min="3" max="3" width="50.375" customWidth="1"/>
+    <col min="4" max="4" width="44" customWidth="1"/>
+    <col min="5" max="5" width="19.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="65" t="s">
+        <v>216</v>
+      </c>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>273</v>
+      </c>
+      <c r="C2" t="s">
+        <v>274</v>
+      </c>
+      <c r="D2" t="s">
+        <v>276</v>
+      </c>
+      <c r="E2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="C3" s="38" t="s">
+        <v>236</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>237</v>
+      </c>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="39" t="s">
+        <v>271</v>
+      </c>
+      <c r="B4" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="C4" s="38" t="s">
+        <v>238</v>
+      </c>
+      <c r="D4" s="35" t="s">
+        <v>237</v>
+      </c>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="39" t="s">
+        <v>272</v>
+      </c>
+      <c r="B5" s="38" t="s">
+        <v>239</v>
+      </c>
+      <c r="C5" s="38" t="s">
+        <v>240</v>
+      </c>
+      <c r="D5" s="35" t="s">
+        <v>237</v>
+      </c>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="39" t="s">
+        <v>241</v>
+      </c>
+      <c r="B6" s="38" t="s">
+        <v>239</v>
+      </c>
+      <c r="C6" s="38" t="s">
+        <v>242</v>
+      </c>
+      <c r="D6" s="35" t="s">
+        <v>237</v>
+      </c>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="39" t="s">
+        <v>243</v>
+      </c>
+      <c r="B7" s="38" t="s">
+        <v>244</v>
+      </c>
+      <c r="C7" s="38" t="s">
+        <v>245</v>
+      </c>
+      <c r="D7" s="35" t="s">
+        <v>246</v>
+      </c>
+      <c r="E7" s="35" t="s">
+        <v>237</v>
+      </c>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="39" t="s">
+        <v>247</v>
+      </c>
+      <c r="B8" s="38" t="s">
+        <v>244</v>
+      </c>
+      <c r="C8" s="38" t="s">
+        <v>248</v>
+      </c>
+      <c r="D8" s="35" t="s">
+        <v>249</v>
+      </c>
+      <c r="E8" s="35" t="s">
+        <v>237</v>
+      </c>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="39" t="s">
+        <v>250</v>
+      </c>
+      <c r="B9" s="38" t="s">
+        <v>244</v>
+      </c>
+      <c r="C9" s="38" t="s">
+        <v>251</v>
+      </c>
+      <c r="D9" s="35" t="s">
+        <v>237</v>
+      </c>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="39" t="s">
+        <v>252</v>
+      </c>
+      <c r="B10" s="38" t="s">
+        <v>253</v>
+      </c>
+      <c r="C10" s="38" t="s">
+        <v>254</v>
+      </c>
+      <c r="D10" s="35" t="s">
+        <v>255</v>
+      </c>
+      <c r="E10" s="35" t="s">
+        <v>256</v>
+      </c>
+      <c r="F10" s="35" t="s">
+        <v>237</v>
+      </c>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="39" t="s">
+        <v>257</v>
+      </c>
+      <c r="B11" s="38" t="s">
+        <v>258</v>
+      </c>
+      <c r="C11" s="38" t="s">
+        <v>259</v>
+      </c>
+      <c r="D11" s="35" t="s">
+        <v>237</v>
+      </c>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="39" t="s">
+        <v>260</v>
+      </c>
+      <c r="B12" s="38" t="s">
+        <v>258</v>
+      </c>
+      <c r="C12" s="38" t="s">
+        <v>261</v>
+      </c>
+      <c r="D12" s="35" t="s">
+        <v>237</v>
+      </c>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="35"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="39" t="s">
+        <v>262</v>
+      </c>
+      <c r="B13" s="38" t="s">
+        <v>258</v>
+      </c>
+      <c r="C13" s="38" t="s">
+        <v>261</v>
+      </c>
+      <c r="D13" s="35" t="s">
+        <v>263</v>
+      </c>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="39" t="s">
+        <v>264</v>
+      </c>
+      <c r="B14" s="38" t="s">
+        <v>258</v>
+      </c>
+      <c r="C14" s="38" t="s">
+        <v>261</v>
+      </c>
+      <c r="D14" s="35" t="s">
+        <v>265</v>
+      </c>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="39" t="s">
+        <v>266</v>
+      </c>
+      <c r="B15" s="38" t="s">
+        <v>267</v>
+      </c>
+      <c r="C15" s="38" t="s">
+        <v>259</v>
+      </c>
+      <c r="D15" s="35" t="s">
+        <v>237</v>
+      </c>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="35"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="39" t="s">
+        <v>268</v>
+      </c>
+      <c r="B16" s="38" t="s">
+        <v>267</v>
+      </c>
+      <c r="C16" s="38" t="s">
+        <v>261</v>
+      </c>
+      <c r="D16" s="35" t="s">
+        <v>237</v>
+      </c>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="39" t="s">
+        <v>269</v>
+      </c>
+      <c r="B17" s="38" t="s">
+        <v>267</v>
+      </c>
+      <c r="C17" s="38" t="s">
+        <v>261</v>
+      </c>
+      <c r="D17" s="35" t="s">
+        <v>263</v>
+      </c>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="35"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="39" t="s">
+        <v>270</v>
+      </c>
+      <c r="B18" s="38" t="s">
+        <v>267</v>
+      </c>
+      <c r="C18" s="38" t="s">
+        <v>261</v>
+      </c>
+      <c r="D18" s="35" t="s">
+        <v>265</v>
+      </c>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="35"/>
+    </row>
+    <row r="21" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="66" t="s">
+        <v>226</v>
+      </c>
+      <c r="B21" s="66"/>
+      <c r="C21" s="66"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>217</v>
+      </c>
+      <c r="B22" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>219</v>
+      </c>
+      <c r="B23" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>221</v>
+      </c>
+      <c r="B24" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>223</v>
+      </c>
+      <c r="B25" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="66" t="s">
+        <v>225</v>
+      </c>
+      <c r="B26" s="66"/>
+      <c r="C26" s="66"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>227</v>
+      </c>
+      <c r="B27" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>228</v>
+      </c>
+      <c r="B28" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>229</v>
+      </c>
+      <c r="B29" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>230</v>
+      </c>
+      <c r="B30" t="s">
+        <v>234</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A26:C26"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34DE4D24-926E-5240-89B6-F8FE59F1901D}">
   <dimension ref="A1:J27"/>
   <sheetViews>
@@ -28289,7 +29250,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B036E1FF-8773-7847-8D8D-5866CBDF4EC4}">
   <dimension ref="A1:P13"/>
   <sheetViews>
@@ -28432,7 +29393,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DE6E772-7745-4345-AD59-C84EFCAA345D}">
   <dimension ref="A1:L13"/>
   <sheetViews>
@@ -28677,7 +29638,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B46AA86B-2BB2-174B-844E-5456E2801ADC}">
   <dimension ref="A1:O12"/>
   <sheetViews>
@@ -29202,106 +30163,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07E42683-B4AF-4746-955F-5BBF64474D4E}">
-  <dimension ref="A1:L4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C1" t="s">
-        <v>171</v>
-      </c>
-      <c r="D1" t="s">
-        <v>174</v>
-      </c>
-      <c r="E1" t="s">
-        <v>173</v>
-      </c>
-      <c r="F1" t="s">
-        <v>179</v>
-      </c>
-      <c r="G1" t="s">
-        <v>172</v>
-      </c>
-      <c r="H1" t="s">
-        <v>178</v>
-      </c>
-      <c r="I1" t="s">
-        <v>175</v>
-      </c>
-      <c r="J1" t="s">
-        <v>176</v>
-      </c>
-      <c r="K1" t="s">
-        <v>169</v>
-      </c>
-      <c r="L1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>2021</v>
-      </c>
-      <c r="B2">
-        <f>284+80.5</f>
-        <v>364.5</v>
-      </c>
-      <c r="C2">
-        <v>164</v>
-      </c>
-      <c r="D2">
-        <v>82</v>
-      </c>
-      <c r="E2">
-        <v>16</v>
-      </c>
-      <c r="F2">
-        <v>29</v>
-      </c>
-      <c r="G2">
-        <v>25</v>
-      </c>
-      <c r="H2">
-        <v>48</v>
-      </c>
-      <c r="I2">
-        <v>20</v>
-      </c>
-      <c r="J2">
-        <v>13</v>
-      </c>
-      <c r="K2">
-        <v>13</v>
-      </c>
-      <c r="L2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2023</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/inst/extdata/projections.xlsx
+++ b/inst/extdata/projections.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lstojanovic\Downloads\fim\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C032D503-BB84-4FD7-B733-FFCEDBDC11C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B5458CC-C093-49B5-A863-CC85D695B8C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dictionary" sheetId="12" r:id="rId1"/>
@@ -1041,9 +1041,16 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="58" x14ac:knownFonts="1">
+  <fonts count="59" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1429,7 +1436,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="41">
+  <fills count="42">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1657,6 +1664,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="18">
     <border>
@@ -1860,614 +1873,627 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="555">
+  <cellStyleXfs count="568">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="38" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="39" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="3" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="43" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="47" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="49" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="42" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="42" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="42" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="42" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="3" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="42" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="42" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="44" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="48" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="50" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="51" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="51" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="51" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="51" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="52" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="53" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="42" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="42" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="42" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="42" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="42" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="42" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="42" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="42" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="42" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="42" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="42" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="42" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="42" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="42" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="42" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="42" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="42" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="42" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="42" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="42" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="42" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="42" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="42" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="42" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="42" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="42" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="42" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="55" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="33" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="33" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="33" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="33" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="32" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="32" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="32" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="32" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="43" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="43" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="43" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="43" applyFont="1"/>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="44" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="20" fillId="33" borderId="10" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="10" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="20" fillId="33" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="20" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="20" fillId="33" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="43" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="43" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="43" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="43" applyFont="1"/>
-    <xf numFmtId="1" fontId="20" fillId="0" borderId="0" xfId="44" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="44" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="21" fillId="33" borderId="10" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="10" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="21" fillId="33" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="21" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="21" fillId="33" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="43" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="43" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="20" fillId="33" borderId="0" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="43" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="20" fillId="33" borderId="0" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="20" fillId="0" borderId="0" xfId="43" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="21" fillId="0" borderId="0" xfId="44" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="43" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" xfId="43" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="21" fillId="33" borderId="0" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="43" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="21" fillId="33" borderId="0" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="21" fillId="0" borderId="0" xfId="43" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="43" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="43"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="43" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="43"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="20" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="21" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="43" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="43" applyFont="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="47" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="28" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="20" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="20" fillId="36" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="28" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="29" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="21" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="21" fillId="36" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="3" fontId="20" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="21" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2486,14 +2512,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="37" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2502,7 +2528,15 @@
     <xf numFmtId="0" fontId="0" fillId="37" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="37" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="37" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="37" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="37" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="21" fillId="40" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="21" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="37" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2521,32 +2555,28 @@
     <xf numFmtId="0" fontId="0" fillId="37" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="46" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="46" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="45" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="45" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="43" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="20" fillId="40" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="20" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="43" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="3" fontId="21" fillId="0" borderId="0" xfId="557" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="555">
+  <cellStyles count="568">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent1 2" xfId="239" xr:uid="{3BFC55F7-51B1-4FDA-AD2D-45EE9FC0E358}"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
@@ -2609,6 +2639,7 @@
     <cellStyle name="Comma 2 5" xfId="268" xr:uid="{ED7AB695-2FF6-4E6B-93FB-EE0771B57790}"/>
     <cellStyle name="Comma 2 6" xfId="269" xr:uid="{1A1A5A7A-A328-49FD-8734-9A89E8435F22}"/>
     <cellStyle name="Comma 2 7" xfId="551" xr:uid="{034DE24C-82DB-41AE-8669-A26936A07365}"/>
+    <cellStyle name="Comma 2 8" xfId="558" xr:uid="{A9A78556-3949-492B-9332-D464F2572638}"/>
     <cellStyle name="Comma 3" xfId="61" xr:uid="{3F57168F-E1FC-4D0F-875E-DDCA6900DC30}"/>
     <cellStyle name="Comma 4" xfId="270" xr:uid="{BEBF23D2-3406-44B9-AAC9-D9CB948294B8}"/>
     <cellStyle name="Comma 5" xfId="554" xr:uid="{1AFAE6B4-C9BE-4366-8F61-F341FF24605F}"/>
@@ -2619,6 +2650,7 @@
     <cellStyle name="Currency0" xfId="548" xr:uid="{7C5A3230-E75E-4504-BD7F-BD2F613F47CC}"/>
     <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Explanatory Text 2" xfId="275" xr:uid="{5970234C-DCD0-4517-9687-0858CDE34CC0}"/>
+    <cellStyle name="Explanatory Text 2 2" xfId="567" xr:uid="{177A4CFF-28AF-42D5-8819-08A7407047BD}"/>
     <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Good 2" xfId="276" xr:uid="{CC44491A-B575-4371-8689-421D28D9ECCA}"/>
     <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
@@ -2631,6 +2663,7 @@
     <cellStyle name="Heading 4 2" xfId="280" xr:uid="{B999CA62-905C-418E-86ED-DF98AB0B2388}"/>
     <cellStyle name="Hyperlink" xfId="46" builtinId="8" customBuiltin="1"/>
     <cellStyle name="Hyperlink 2" xfId="62" xr:uid="{89A4B3A4-7302-435F-BA24-F2BA518130CF}"/>
+    <cellStyle name="Hyperlink 2 2" xfId="566" xr:uid="{C51A4FD9-BC67-405C-B88E-933E44175CCB}"/>
     <cellStyle name="Hyperlink 3" xfId="64" xr:uid="{DF5CC241-C44B-41FA-8223-EFF329E6F99E}"/>
     <cellStyle name="Hyperlink 4" xfId="69" xr:uid="{9F8C8D46-C874-4DEC-AD77-8A147941F6F7}"/>
     <cellStyle name="Hyperlink 5" xfId="361" xr:uid="{C35A2BBC-6BE7-499B-9CB7-EC9CC8EFFDFF}"/>
@@ -2649,6 +2682,7 @@
     <cellStyle name="Normal 11 2" xfId="285" xr:uid="{6CC1ECB3-E981-4719-8C5E-973EF6752C53}"/>
     <cellStyle name="Normal 11 3" xfId="286" xr:uid="{7BCB17B9-8AF8-4131-B52A-8B093C3B6C41}"/>
     <cellStyle name="Normal 11 4" xfId="287" xr:uid="{B8033B5C-0432-405A-A3B5-0371CDCAEE22}"/>
+    <cellStyle name="Normal 110" xfId="559" xr:uid="{11B26177-B084-4CA1-BE0E-315F3F9AE2DC}"/>
     <cellStyle name="Normal 12" xfId="288" xr:uid="{B4455323-B5C3-4510-92AF-2F909D2882EC}"/>
     <cellStyle name="Normal 12 2" xfId="289" xr:uid="{A2862B47-4C9B-4643-AA2B-BA4E5A7A0182}"/>
     <cellStyle name="Normal 12 3" xfId="290" xr:uid="{72989AAC-DDB1-4FDA-8638-F9B8DBE65D19}"/>
@@ -2712,12 +2746,14 @@
     <cellStyle name="Normal 2 25" xfId="549" xr:uid="{5BA395FF-94EE-4625-A64E-1E3F4C4410A6}"/>
     <cellStyle name="Normal 2 26" xfId="53" xr:uid="{482DAD43-C3D1-4E01-BDF4-74FCFE3287C6}"/>
     <cellStyle name="Normal 2 3" xfId="42" xr:uid="{BF186650-9699-4958-BCC9-3BF9FC16D228}"/>
+    <cellStyle name="Normal 2 3 11" xfId="557" xr:uid="{C262F1EA-A753-458B-84CB-ED9853231F57}"/>
     <cellStyle name="Normal 2 3 2" xfId="44" xr:uid="{1F57F976-5F5C-0544-85DA-254B543D7295}"/>
     <cellStyle name="Normal 2 3 2 2" xfId="84" xr:uid="{CACB3562-70F9-4E3E-B435-3F32A421D2AD}"/>
     <cellStyle name="Normal 2 3 2 2 2" xfId="380" xr:uid="{42D0719E-63FF-49B7-89AA-377D59334012}"/>
     <cellStyle name="Normal 2 3 2 3" xfId="85" xr:uid="{0376F071-3EDE-463C-8AD2-809E347E2187}"/>
     <cellStyle name="Normal 2 3 2 3 2" xfId="381" xr:uid="{5BE64271-D4E6-4740-BEBB-D28C3C1634C6}"/>
     <cellStyle name="Normal 2 3 2 4" xfId="382" xr:uid="{2532BB67-EE67-4895-A091-77C5CF8CEAC1}"/>
+    <cellStyle name="Normal 2 3 2 5" xfId="563" xr:uid="{FD4085BE-08B4-432E-9E27-EA9E619652D9}"/>
     <cellStyle name="Normal 2 3 3" xfId="86" xr:uid="{C3387823-3B7A-4918-A653-83A8A388CEEF}"/>
     <cellStyle name="Normal 2 3 4" xfId="87" xr:uid="{CC853838-2EE1-4F80-BC92-5B86B2B1BC35}"/>
     <cellStyle name="Normal 2 3 4 2" xfId="383" xr:uid="{2A462A97-F987-401C-B675-086FCFACF412}"/>
@@ -2728,10 +2764,12 @@
     <cellStyle name="Normal 2 4" xfId="89" xr:uid="{6DC8A698-6553-4C48-80AF-66D0080D7AF7}"/>
     <cellStyle name="Normal 2 4 2" xfId="90" xr:uid="{CB4C08B5-7843-4E05-B509-F0EC21FF94AE}"/>
     <cellStyle name="Normal 2 4 2 2" xfId="386" xr:uid="{42399CD2-459E-4E25-9F05-2FC5E4AD2463}"/>
+    <cellStyle name="Normal 2 4 3" xfId="560" xr:uid="{DBE2EC71-C62A-44D4-AC25-884E40575130}"/>
     <cellStyle name="Normal 2 5" xfId="91" xr:uid="{158B0F54-624D-479B-B095-F7CB333B0C1B}"/>
     <cellStyle name="Normal 2 5 2" xfId="92" xr:uid="{E9A8EC0D-5369-48E7-8C7E-0DF514BB232F}"/>
     <cellStyle name="Normal 2 5 2 2" xfId="387" xr:uid="{37031257-F089-41CE-BB27-811A99D3AF30}"/>
     <cellStyle name="Normal 2 5 3" xfId="388" xr:uid="{258F48E7-ECF5-4FE6-9160-69EFA81842C1}"/>
+    <cellStyle name="Normal 2 5 4" xfId="564" xr:uid="{8757F9CD-CB52-4488-ADAF-94C9319CF16A}"/>
     <cellStyle name="Normal 2 6" xfId="93" xr:uid="{1FD052E4-3842-409A-8EB6-2E37B38D2DA4}"/>
     <cellStyle name="Normal 2 6 2" xfId="94" xr:uid="{E5175086-94FC-42A6-9447-BF10D83813E6}"/>
     <cellStyle name="Normal 2 6 2 2" xfId="389" xr:uid="{9F456EC1-05F9-4FB8-8530-3385E38CBC02}"/>
@@ -2748,6 +2786,7 @@
     <cellStyle name="Normal 2 9 2" xfId="395" xr:uid="{2DCF504F-BEAC-49E7-AF1B-B1822DFA5EFA}"/>
     <cellStyle name="Normal 20" xfId="50" xr:uid="{18FA63CA-DB25-40DA-976D-AC4EB2E01BC2}"/>
     <cellStyle name="Normal 21" xfId="49" xr:uid="{DB90B2F7-C7EC-41C3-A873-3194C756E857}"/>
+    <cellStyle name="Normal 22" xfId="555" xr:uid="{699D68F3-9DE6-45A6-A2E8-20A1ECB7E66C}"/>
     <cellStyle name="Normal 3" xfId="51" xr:uid="{F8360F93-37BC-4883-8AD3-74B00C39428D}"/>
     <cellStyle name="Normal 3 10" xfId="314" xr:uid="{9D549A2C-CF14-487E-9A43-547434452194}"/>
     <cellStyle name="Normal 3 11" xfId="315" xr:uid="{384AAC8F-B4A4-4888-94B7-94E750A95048}"/>
@@ -2768,6 +2807,7 @@
     <cellStyle name="Normal 3 3 3" xfId="105" xr:uid="{AC33B931-A0BA-4A12-A34E-F5F630FC53E6}"/>
     <cellStyle name="Normal 3 3 3 2" xfId="401" xr:uid="{95B14E28-B900-4DE7-A7BA-9F7CD733F4EA}"/>
     <cellStyle name="Normal 3 3 4" xfId="402" xr:uid="{8BF727D6-035E-42D5-9EC1-A2E65CFCDF72}"/>
+    <cellStyle name="Normal 3 3 5" xfId="562" xr:uid="{A8A0EA7B-DBD5-4AE2-A0EA-5B4B3DB5D692}"/>
     <cellStyle name="Normal 3 4" xfId="106" xr:uid="{D42D0AAA-6964-4342-87E1-FDCC385547F4}"/>
     <cellStyle name="Normal 3 4 2" xfId="107" xr:uid="{2B8F4384-041F-4470-9317-8F1344A25BC8}"/>
     <cellStyle name="Normal 3 4 2 2" xfId="403" xr:uid="{72D95192-7581-49BC-82DD-3C20D7458EFB}"/>
@@ -2795,6 +2835,7 @@
     <cellStyle name="Normal 4 11 2" xfId="546" xr:uid="{5668290E-4E72-4AAB-990B-246390CA7405}"/>
     <cellStyle name="Normal 4 12" xfId="319" xr:uid="{54597C28-BCD2-4DAF-8FF5-3F62F0B68040}"/>
     <cellStyle name="Normal 4 13" xfId="320" xr:uid="{B8C81593-332D-4630-92A0-2B9538A3B827}"/>
+    <cellStyle name="Normal 4 14" xfId="561" xr:uid="{008B9C75-20D2-4E10-89ED-BDF19F3CE9F5}"/>
     <cellStyle name="Normal 4 2" xfId="116" xr:uid="{6C921B71-3E9A-45AA-9A48-4E04A5A32648}"/>
     <cellStyle name="Normal 4 2 2" xfId="117" xr:uid="{B1C3D8B7-08A2-45F2-B013-92D7A8ED68C5}"/>
     <cellStyle name="Normal 4 2 2 2" xfId="118" xr:uid="{B2D3F14F-CF48-44FB-92F4-7735A7C0DCF0}"/>
@@ -2840,6 +2881,7 @@
     <cellStyle name="Normal 5 11" xfId="321" xr:uid="{1F03AE3B-1AAA-4D2E-A4B6-42082EE6B2F1}"/>
     <cellStyle name="Normal 5 12" xfId="322" xr:uid="{81EFEA3A-0E38-4C32-BB8B-F669866113EE}"/>
     <cellStyle name="Normal 5 13" xfId="323" xr:uid="{9EBEA801-E5BF-4FF3-B2AC-C9B5F6585CDE}"/>
+    <cellStyle name="Normal 5 14" xfId="556" xr:uid="{7143A386-11B8-43E4-9524-3115CD2E9394}"/>
     <cellStyle name="Normal 5 2" xfId="135" xr:uid="{FA2DBB41-CE2E-41E6-B2CE-82B1BCD9A21F}"/>
     <cellStyle name="Normal 5 2 2" xfId="136" xr:uid="{9DAD820E-344A-4CB9-BC5A-701540137DB3}"/>
     <cellStyle name="Normal 5 2 2 2" xfId="137" xr:uid="{1B2F3095-CA20-48F1-AC40-DABA77242456}"/>
@@ -2857,6 +2899,7 @@
     <cellStyle name="Normal 5 3 3" xfId="142" xr:uid="{E43477C8-1455-488E-8645-59D81E0664D1}"/>
     <cellStyle name="Normal 5 3 3 2" xfId="442" xr:uid="{37344EBC-118B-4A76-9B5D-78780CE91AE4}"/>
     <cellStyle name="Normal 5 3 4" xfId="443" xr:uid="{907AA117-1CE3-48BA-8C12-0870D50E8F70}"/>
+    <cellStyle name="Normal 5 3 5" xfId="565" xr:uid="{5B01957D-2670-4889-A2B0-7B04937A280A}"/>
     <cellStyle name="Normal 5 4" xfId="143" xr:uid="{4E7224D6-B00E-4996-87B8-6D79638F438F}"/>
     <cellStyle name="Normal 5 4 2" xfId="144" xr:uid="{08D9D467-DFB1-4865-A040-2D7F1181D025}"/>
     <cellStyle name="Normal 5 4 2 2" xfId="444" xr:uid="{65CE5265-F5F9-4037-A60B-44D808C80BB7}"/>
@@ -3415,18 +3458,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{386681B1-D5EF-4F8F-85A9-C01E4CBD446B}">
   <dimension ref="A1:P31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="19.58203125" style="41" customWidth="1"/>
-    <col min="3" max="3" width="26.33203125" style="42" customWidth="1"/>
-    <col min="4" max="5" width="19.58203125" style="41" customWidth="1"/>
+    <col min="1" max="2" width="19.625" style="41" customWidth="1"/>
+    <col min="3" max="3" width="26.375" style="42" customWidth="1"/>
+    <col min="4" max="5" width="19.625" style="41" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="46" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" s="46" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="53" t="s">
         <v>277</v>
       </c>
@@ -3454,17 +3497,17 @@
       <c r="O1" s="45"/>
       <c r="P1" s="45"/>
     </row>
-    <row r="2" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="57" t="s">
+    <row r="2" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="65" t="s">
         <v>278</v>
       </c>
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="62" t="s">
         <v>279</v>
       </c>
-      <c r="C2" s="54" t="s">
+      <c r="C2" s="62" t="s">
         <v>281</v>
       </c>
-      <c r="D2" s="70" t="s">
+      <c r="D2" s="58" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="47" t="s">
@@ -3482,11 +3525,11 @@
       <c r="O2" s="47"/>
       <c r="P2" s="48"/>
     </row>
-    <row r="3" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="58"/>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="66" t="s">
+    <row r="3" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="66"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="54" t="s">
         <v>2</v>
       </c>
       <c r="E3" s="49" t="s">
@@ -3504,11 +3547,11 @@
       <c r="O3" s="49"/>
       <c r="P3" s="50"/>
     </row>
-    <row r="4" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="58"/>
-      <c r="B4" s="55"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="66" t="s">
+    <row r="4" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="66"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="54" t="s">
         <v>4</v>
       </c>
       <c r="E4" s="49" t="s">
@@ -3526,11 +3569,11 @@
       <c r="O4" s="49"/>
       <c r="P4" s="50"/>
     </row>
-    <row r="5" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="58"/>
-      <c r="B5" s="55"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="66" t="s">
+    <row r="5" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="66"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="54" t="s">
         <v>3</v>
       </c>
       <c r="E5" s="49" t="s">
@@ -3548,11 +3591,11 @@
       <c r="O5" s="49"/>
       <c r="P5" s="50"/>
     </row>
-    <row r="6" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="58"/>
-      <c r="B6" s="55"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="66" t="s">
+    <row r="6" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="66"/>
+      <c r="B6" s="63"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="54" t="s">
         <v>5</v>
       </c>
       <c r="E6" s="49" t="s">
@@ -3570,11 +3613,11 @@
       <c r="O6" s="49"/>
       <c r="P6" s="50"/>
     </row>
-    <row r="7" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="58"/>
-      <c r="B7" s="55"/>
-      <c r="C7" s="55"/>
-      <c r="D7" s="66" t="s">
+    <row r="7" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="66"/>
+      <c r="B7" s="63"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="54" t="s">
         <v>15</v>
       </c>
       <c r="E7" s="49" t="s">
@@ -3592,11 +3635,11 @@
       <c r="O7" s="49"/>
       <c r="P7" s="50"/>
     </row>
-    <row r="8" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="58"/>
-      <c r="B8" s="55"/>
-      <c r="C8" s="55"/>
-      <c r="D8" s="66" t="s">
+    <row r="8" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="66"/>
+      <c r="B8" s="63"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="54" t="s">
         <v>6</v>
       </c>
       <c r="E8" s="49" t="s">
@@ -3614,11 +3657,11 @@
       <c r="O8" s="49"/>
       <c r="P8" s="50"/>
     </row>
-    <row r="9" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="58"/>
-      <c r="B9" s="55"/>
-      <c r="C9" s="55"/>
-      <c r="D9" s="66" t="s">
+    <row r="9" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="66"/>
+      <c r="B9" s="63"/>
+      <c r="C9" s="63"/>
+      <c r="D9" s="54" t="s">
         <v>212</v>
       </c>
       <c r="E9" s="49" t="s">
@@ -3636,11 +3679,11 @@
       <c r="O9" s="49"/>
       <c r="P9" s="50"/>
     </row>
-    <row r="10" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="58"/>
-      <c r="B10" s="55"/>
-      <c r="C10" s="55"/>
-      <c r="D10" s="66" t="s">
+    <row r="10" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="66"/>
+      <c r="B10" s="63"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="54" t="s">
         <v>7</v>
       </c>
       <c r="E10" s="49" t="s">
@@ -3658,11 +3701,11 @@
       <c r="O10" s="49"/>
       <c r="P10" s="50"/>
     </row>
-    <row r="11" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="58"/>
-      <c r="B11" s="55"/>
-      <c r="C11" s="55"/>
-      <c r="D11" s="66" t="s">
+    <row r="11" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="66"/>
+      <c r="B11" s="63"/>
+      <c r="C11" s="63"/>
+      <c r="D11" s="54" t="s">
         <v>12</v>
       </c>
       <c r="E11" s="49" t="s">
@@ -3680,11 +3723,11 @@
       <c r="O11" s="49"/>
       <c r="P11" s="50"/>
     </row>
-    <row r="12" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="58"/>
-      <c r="B12" s="55"/>
-      <c r="C12" s="55"/>
-      <c r="D12" s="66" t="s">
+    <row r="12" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="66"/>
+      <c r="B12" s="63"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="54" t="s">
         <v>13</v>
       </c>
       <c r="E12" s="49" t="s">
@@ -3702,11 +3745,11 @@
       <c r="O12" s="49"/>
       <c r="P12" s="50"/>
     </row>
-    <row r="13" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="58"/>
-      <c r="B13" s="55"/>
-      <c r="C13" s="55"/>
-      <c r="D13" s="66" t="s">
+    <row r="13" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="66"/>
+      <c r="B13" s="63"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="54" t="s">
         <v>14</v>
       </c>
       <c r="E13" s="49" t="s">
@@ -3724,11 +3767,11 @@
       <c r="O13" s="49"/>
       <c r="P13" s="50"/>
     </row>
-    <row r="14" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="58"/>
-      <c r="B14" s="55"/>
-      <c r="C14" s="55"/>
-      <c r="D14" s="66" t="s">
+    <row r="14" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="66"/>
+      <c r="B14" s="63"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="54" t="s">
         <v>8</v>
       </c>
       <c r="E14" s="49" t="s">
@@ -3746,11 +3789,11 @@
       <c r="O14" s="49"/>
       <c r="P14" s="50"/>
     </row>
-    <row r="15" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="58"/>
-      <c r="B15" s="55"/>
-      <c r="C15" s="55"/>
-      <c r="D15" s="66" t="s">
+    <row r="15" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="66"/>
+      <c r="B15" s="63"/>
+      <c r="C15" s="63"/>
+      <c r="D15" s="54" t="s">
         <v>9</v>
       </c>
       <c r="E15" s="49" t="s">
@@ -3768,11 +3811,11 @@
       <c r="O15" s="49"/>
       <c r="P15" s="50"/>
     </row>
-    <row r="16" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="58"/>
-      <c r="B16" s="55"/>
-      <c r="C16" s="55"/>
-      <c r="D16" s="66" t="s">
+    <row r="16" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="66"/>
+      <c r="B16" s="63"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="54" t="s">
         <v>10</v>
       </c>
       <c r="E16" s="49" t="s">
@@ -3790,11 +3833,11 @@
       <c r="O16" s="49"/>
       <c r="P16" s="50"/>
     </row>
-    <row r="17" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="59"/>
-      <c r="B17" s="56"/>
-      <c r="C17" s="56"/>
-      <c r="D17" s="72" t="s">
+    <row r="17" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="67"/>
+      <c r="B17" s="64"/>
+      <c r="C17" s="64"/>
+      <c r="D17" s="60" t="s">
         <v>11</v>
       </c>
       <c r="E17" s="51" t="s">
@@ -3812,17 +3855,17 @@
       <c r="O17" s="51"/>
       <c r="P17" s="52"/>
     </row>
-    <row r="18" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="57" t="s">
+    <row r="18" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="65" t="s">
         <v>282</v>
       </c>
-      <c r="B18" s="54" t="s">
+      <c r="B18" s="62" t="s">
         <v>283</v>
       </c>
-      <c r="C18" s="54" t="s">
+      <c r="C18" s="62" t="s">
         <v>317</v>
       </c>
-      <c r="D18" s="70" t="s">
+      <c r="D18" s="58" t="s">
         <v>159</v>
       </c>
       <c r="E18" s="47" t="s">
@@ -3840,11 +3883,11 @@
       <c r="O18" s="47"/>
       <c r="P18" s="48"/>
     </row>
-    <row r="19" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="58"/>
-      <c r="B19" s="55"/>
-      <c r="C19" s="55"/>
-      <c r="D19" s="66" t="s">
+    <row r="19" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="66"/>
+      <c r="B19" s="63"/>
+      <c r="C19" s="63"/>
+      <c r="D19" s="54" t="s">
         <v>165</v>
       </c>
       <c r="E19" s="49" t="s">
@@ -3862,11 +3905,11 @@
       <c r="O19" s="49"/>
       <c r="P19" s="50"/>
     </row>
-    <row r="20" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="58"/>
-      <c r="B20" s="55"/>
-      <c r="C20" s="55"/>
-      <c r="D20" s="66" t="s">
+    <row r="20" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="66"/>
+      <c r="B20" s="63"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="54" t="s">
         <v>164</v>
       </c>
       <c r="E20" s="49" t="s">
@@ -3884,11 +3927,11 @@
       <c r="O20" s="49"/>
       <c r="P20" s="50"/>
     </row>
-    <row r="21" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="58"/>
-      <c r="B21" s="55"/>
-      <c r="C21" s="56"/>
-      <c r="D21" s="72" t="s">
+    <row r="21" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="66"/>
+      <c r="B21" s="63"/>
+      <c r="C21" s="64"/>
+      <c r="D21" s="60" t="s">
         <v>166</v>
       </c>
       <c r="E21" s="51" t="s">
@@ -3906,13 +3949,13 @@
       <c r="O21" s="51"/>
       <c r="P21" s="52"/>
     </row>
-    <row r="22" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="58"/>
-      <c r="B22" s="55"/>
-      <c r="C22" s="55" t="s">
+    <row r="22" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="66"/>
+      <c r="B22" s="63"/>
+      <c r="C22" s="63" t="s">
         <v>304</v>
       </c>
-      <c r="D22" s="66" t="s">
+      <c r="D22" s="54" t="s">
         <v>160</v>
       </c>
       <c r="E22" s="49" t="s">
@@ -3930,11 +3973,11 @@
       <c r="O22" s="49"/>
       <c r="P22" s="50"/>
     </row>
-    <row r="23" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="58"/>
-      <c r="B23" s="55"/>
-      <c r="C23" s="55"/>
-      <c r="D23" s="66" t="s">
+    <row r="23" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="66"/>
+      <c r="B23" s="63"/>
+      <c r="C23" s="63"/>
+      <c r="D23" s="54" t="s">
         <v>163</v>
       </c>
       <c r="E23" s="49" t="s">
@@ -3952,11 +3995,11 @@
       <c r="O23" s="49"/>
       <c r="P23" s="50"/>
     </row>
-    <row r="24" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="58"/>
-      <c r="B24" s="55"/>
-      <c r="C24" s="55"/>
-      <c r="D24" s="66" t="s">
+    <row r="24" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="66"/>
+      <c r="B24" s="63"/>
+      <c r="C24" s="63"/>
+      <c r="D24" s="54" t="s">
         <v>162</v>
       </c>
       <c r="E24" s="49" t="s">
@@ -3974,11 +4017,11 @@
       <c r="O24" s="49"/>
       <c r="P24" s="50"/>
     </row>
-    <row r="25" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="59"/>
-      <c r="B25" s="56"/>
-      <c r="C25" s="56"/>
-      <c r="D25" s="72" t="s">
+    <row r="25" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="67"/>
+      <c r="B25" s="64"/>
+      <c r="C25" s="64"/>
+      <c r="D25" s="60" t="s">
         <v>161</v>
       </c>
       <c r="E25" s="51" t="s">
@@ -3996,27 +4039,27 @@
       <c r="O25" s="51"/>
       <c r="P25" s="52"/>
     </row>
-    <row r="27" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="41" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="41" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="41" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="41" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="41" t="s">
         <v>313</v>
       </c>
@@ -4044,9 +4087,9 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4084,7 +4127,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2021</v>
       </c>
@@ -4123,12 +4166,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2022</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2023</v>
       </c>
@@ -4143,13 +4186,13 @@
   <dimension ref="A1:BL135"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="8" topLeftCell="AQ28" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="8" topLeftCell="AQ25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
       <selection pane="bottomRight" activeCell="T38" sqref="T38:BL38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.75" style="2" customWidth="1"/>
     <col min="2" max="2" width="51.75" style="2" customWidth="1"/>
@@ -4160,33 +4203,33 @@
     <col min="61" max="16384" width="9.25" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="2" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="62" t="s">
+    <row r="2" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="70" t="s">
         <v>156</v>
       </c>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-    </row>
-    <row r="4" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
+    </row>
+    <row r="4" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D4" s="23"/>
     </row>
-    <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="64" t="s">
+    <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="72" t="s">
         <v>155</v>
       </c>
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -4240,7 +4283,7 @@
       <c r="BG5" s="3"/>
       <c r="BH5" s="3"/>
     </row>
-    <row r="6" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="BA6" s="22"/>
       <c r="BB6" s="22"/>
       <c r="BC6" s="22"/>
@@ -4250,7 +4293,7 @@
       <c r="BK6" s="22"/>
       <c r="BL6" s="22"/>
     </row>
-    <row r="7" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -4438,7 +4481,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="8" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>93</v>
       </c>
@@ -4587,7 +4630,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="9" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
         <v>92</v>
       </c>
@@ -4775,7 +4818,7 @@
         <v>33695.9</v>
       </c>
     </row>
-    <row r="10" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
         <v>91</v>
       </c>
@@ -4963,7 +5006,7 @@
         <v>23545.3</v>
       </c>
     </row>
-    <row r="11" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="13"/>
       <c r="B11" s="2" t="s">
         <v>90</v>
@@ -5152,7 +5195,7 @@
         <v>33795</v>
       </c>
     </row>
-    <row r="12" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="13"/>
       <c r="B12" s="2" t="s">
         <v>89</v>
@@ -5341,7 +5384,7 @@
         <v>23615.3</v>
       </c>
     </row>
-    <row r="13" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
         <v>89</v>
       </c>
@@ -5529,7 +5572,7 @@
         <v>18628.5</v>
       </c>
     </row>
-    <row r="14" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D14" s="2" t="s">
         <v>20</v>
       </c>
@@ -5714,7 +5757,7 @@
         <v>2.0049999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="T15" s="16"/>
       <c r="U15" s="16"/>
       <c r="V15" s="16"/>
@@ -5761,7 +5804,7 @@
       <c r="BK15" s="16"/>
       <c r="BL15" s="16"/>
     </row>
-    <row r="16" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
         <v>88</v>
       </c>
@@ -5946,7 +5989,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="17" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13"/>
       <c r="B17" s="2" t="s">
         <v>86</v>
@@ -6135,7 +6178,7 @@
         <v>139.059</v>
       </c>
     </row>
-    <row r="18" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="13"/>
       <c r="D18" s="2" t="s">
         <v>20</v>
@@ -6321,7 +6364,7 @@
         <v>1.9910000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
         <v>85</v>
       </c>
@@ -6509,7 +6552,7 @@
         <v>141.75399999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D20" s="2" t="s">
         <v>20</v>
       </c>
@@ -6694,7 +6737,7 @@
         <v>2.0030000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
         <v>84</v>
       </c>
@@ -6882,7 +6925,7 @@
         <v>335.62799999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D22" s="2" t="s">
         <v>20</v>
       </c>
@@ -7067,7 +7110,7 @@
         <v>2.3069999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
         <v>83</v>
       </c>
@@ -7255,7 +7298,7 @@
         <v>346.53300000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D24" s="2" t="s">
         <v>20</v>
       </c>
@@ -7440,7 +7483,7 @@
         <v>2.3260000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="2" t="s">
         <v>81</v>
       </c>
@@ -7628,7 +7671,7 @@
         <v>182.87299999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D26" s="2" t="s">
         <v>20</v>
       </c>
@@ -7813,7 +7856,7 @@
         <v>0.247</v>
       </c>
     </row>
-    <row r="27" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="2" t="s">
         <v>79</v>
       </c>
@@ -8001,7 +8044,7 @@
         <v>143.11099999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D28" s="2" t="s">
         <v>20</v>
       </c>
@@ -8186,7 +8229,7 @@
         <v>2.0619999999999998</v>
       </c>
     </row>
-    <row r="29" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="2" t="s">
         <v>78</v>
       </c>
@@ -8374,7 +8417,7 @@
         <v>198.76</v>
       </c>
     </row>
-    <row r="30" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D30" s="2" t="s">
         <v>20</v>
       </c>
@@ -8559,7 +8602,7 @@
         <v>3.129</v>
       </c>
     </row>
-    <row r="31" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="2" t="s">
         <v>76</v>
       </c>
@@ -8747,7 +8790,7 @@
         <v>57.07</v>
       </c>
     </row>
-    <row r="32" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="2" t="s">
         <v>75</v>
       </c>
@@ -8935,7 +8978,7 @@
         <v>59.4</v>
       </c>
     </row>
-    <row r="33" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="2" t="s">
         <v>73</v>
       </c>
@@ -9123,7 +9166,7 @@
         <v>2.85</v>
       </c>
     </row>
-    <row r="34" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="2" t="s">
         <v>71</v>
       </c>
@@ -9311,7 +9354,7 @@
         <v>440.10700000000003</v>
       </c>
     </row>
-    <row r="35" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="15"/>
       <c r="B35" s="2" t="s">
         <v>69</v>
@@ -9500,7 +9543,7 @@
         <v>172.202</v>
       </c>
     </row>
-    <row r="36" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
       <c r="G36" s="5"/>
@@ -9562,7 +9605,7 @@
       <c r="BK36" s="12"/>
       <c r="BL36" s="12"/>
     </row>
-    <row r="37" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="s">
         <v>67</v>
       </c>
@@ -9627,7 +9670,7 @@
       <c r="BK37" s="12"/>
       <c r="BL37" s="12"/>
     </row>
-    <row r="38" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="2" t="s">
         <v>66</v>
       </c>
@@ -9815,7 +9858,7 @@
         <v>4.343</v>
       </c>
     </row>
-    <row r="39" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="2" t="s">
         <v>65</v>
       </c>
@@ -10003,7 +10046,7 @@
         <v>169.917</v>
       </c>
     </row>
-    <row r="40" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D40" s="2" t="s">
         <v>20</v>
       </c>
@@ -10188,7 +10231,7 @@
         <v>0.28299999999999997</v>
       </c>
     </row>
-    <row r="41" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="2" t="s">
         <v>64</v>
       </c>
@@ -10376,7 +10419,7 @@
         <v>60.713000000000001</v>
       </c>
     </row>
-    <row r="42" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="2" t="s">
         <v>63</v>
       </c>
@@ -10564,7 +10607,7 @@
         <v>162.536</v>
       </c>
     </row>
-    <row r="43" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D43" s="2" t="s">
         <v>20</v>
       </c>
@@ -10749,7 +10792,7 @@
         <v>0.248</v>
       </c>
     </row>
-    <row r="44" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" s="2" t="s">
         <v>62</v>
       </c>
@@ -10937,7 +10980,7 @@
         <v>158.464</v>
       </c>
     </row>
-    <row r="45" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D45" s="2" t="s">
         <v>20</v>
       </c>
@@ -11122,7 +11165,7 @@
         <v>0.30499999999999999</v>
       </c>
     </row>
-    <row r="46" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="2" t="s">
         <v>61</v>
       </c>
@@ -11310,7 +11353,7 @@
         <v>133.11099999999999</v>
       </c>
     </row>
-    <row r="47" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D47" s="2" t="s">
         <v>20</v>
       </c>
@@ -11495,7 +11538,7 @@
         <v>1.7230000000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="2" t="s">
         <v>60</v>
       </c>
@@ -11683,7 +11726,7 @@
         <v>115.813</v>
       </c>
     </row>
-    <row r="49" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D49" s="2" t="s">
         <v>20</v>
       </c>
@@ -11868,7 +11911,7 @@
         <v>0.19900000000000001</v>
       </c>
     </row>
-    <row r="50" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E50" s="5"/>
       <c r="F50" s="5"/>
       <c r="G50" s="5"/>
@@ -11930,7 +11973,7 @@
       <c r="BK50" s="12"/>
       <c r="BL50" s="12"/>
     </row>
-    <row r="51" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="13" t="s">
         <v>58</v>
       </c>
@@ -11995,7 +12038,7 @@
       <c r="BK51" s="12"/>
       <c r="BL51" s="12"/>
     </row>
-    <row r="52" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="2" t="s">
         <v>57</v>
       </c>
@@ -12183,7 +12226,7 @@
         <v>279.86799999999999</v>
       </c>
     </row>
-    <row r="53" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D53" s="2" t="s">
         <v>20</v>
       </c>
@@ -12368,7 +12411,7 @@
         <v>0.53800000000000003</v>
       </c>
     </row>
-    <row r="54" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="2" t="s">
         <v>56</v>
       </c>
@@ -12556,7 +12599,7 @@
         <v>135.44399999999999</v>
       </c>
     </row>
-    <row r="55" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E55" s="5"/>
       <c r="F55" s="5"/>
       <c r="G55" s="5"/>
@@ -12618,7 +12661,7 @@
       <c r="BK55" s="12"/>
       <c r="BL55" s="12"/>
     </row>
-    <row r="56" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="13" t="s">
         <v>54</v>
       </c>
@@ -12683,7 +12726,7 @@
       <c r="BK56" s="12"/>
       <c r="BL56" s="12"/>
     </row>
-    <row r="57" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B57" s="2" t="s">
         <v>53</v>
       </c>
@@ -12871,7 +12914,7 @@
         <v>3.419</v>
       </c>
     </row>
-    <row r="58" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="2" t="s">
         <v>52</v>
       </c>
@@ -13059,7 +13102,7 @@
         <v>2.3650000000000002</v>
       </c>
     </row>
-    <row r="59" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="2" t="s">
         <v>51</v>
       </c>
@@ -13247,7 +13290,7 @@
         <v>2.5150000000000001</v>
       </c>
     </row>
-    <row r="60" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E60" s="5"/>
       <c r="F60" s="5"/>
       <c r="G60" s="5"/>
@@ -13309,7 +13352,7 @@
       <c r="BK60" s="12"/>
       <c r="BL60" s="12"/>
     </row>
-    <row r="61" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="13" t="s">
         <v>49</v>
       </c>
@@ -13374,7 +13417,7 @@
       <c r="BK61" s="12"/>
       <c r="BL61" s="12"/>
     </row>
-    <row r="62" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B62" s="2" t="s">
         <v>48</v>
       </c>
@@ -13562,7 +13605,7 @@
         <v>30495.4</v>
       </c>
     </row>
-    <row r="63" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D63" s="2" t="s">
         <v>37</v>
       </c>
@@ -13747,7 +13790,7 @@
         <v>90.501000000000005</v>
       </c>
     </row>
-    <row r="64" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B64" s="2" t="s">
         <v>47</v>
       </c>
@@ -13935,7 +13978,7 @@
         <v>18106.099999999999</v>
       </c>
     </row>
-    <row r="65" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D65" s="2" t="s">
         <v>37</v>
       </c>
@@ -14120,7 +14163,7 @@
         <v>53.732999999999997</v>
       </c>
     </row>
-    <row r="66" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B66" s="2" t="s">
         <v>46</v>
       </c>
@@ -14308,7 +14351,7 @@
         <v>14617</v>
       </c>
     </row>
-    <row r="67" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D67" s="2" t="s">
         <v>37</v>
       </c>
@@ -14493,7 +14536,7 @@
         <v>43.378999999999998</v>
       </c>
     </row>
-    <row r="68" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B68" s="2" t="s">
         <v>45</v>
       </c>
@@ -14681,7 +14724,7 @@
         <v>8833.5</v>
       </c>
     </row>
-    <row r="69" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D69" s="2" t="s">
         <v>37</v>
       </c>
@@ -14866,7 +14909,7 @@
         <v>26.215</v>
       </c>
     </row>
-    <row r="70" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C70" s="2" t="s">
         <v>44</v>
       </c>
@@ -15054,7 +15097,7 @@
         <v>75.8</v>
       </c>
     </row>
-    <row r="71" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D71" s="2" t="s">
         <v>37</v>
       </c>
@@ -15239,7 +15282,7 @@
         <v>0.22500000000000001</v>
       </c>
     </row>
-    <row r="72" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C72" s="2" t="s">
         <v>43</v>
       </c>
@@ -15427,7 +15470,7 @@
         <v>2564.4</v>
       </c>
     </row>
-    <row r="73" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D73" s="2" t="s">
         <v>37</v>
       </c>
@@ -15612,7 +15655,7 @@
         <v>7.61</v>
       </c>
     </row>
-    <row r="74" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C74" s="2" t="s">
         <v>42</v>
       </c>
@@ -15800,7 +15843,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="75" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D75" s="2" t="s">
         <v>37</v>
       </c>
@@ -15985,7 +16028,7 @@
         <v>3.6669999999999998</v>
       </c>
     </row>
-    <row r="76" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C76" s="2" t="s">
         <v>41</v>
       </c>
@@ -16173,7 +16216,7 @@
         <v>2897.1</v>
       </c>
     </row>
-    <row r="77" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D77" s="2" t="s">
         <v>37</v>
       </c>
@@ -16358,7 +16401,7 @@
         <v>8.5969999999999995</v>
       </c>
     </row>
-    <row r="78" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C78" s="2" t="s">
         <v>40</v>
       </c>
@@ -16546,7 +16589,7 @@
         <v>2060.1999999999998</v>
       </c>
     </row>
-    <row r="79" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D79" s="2" t="s">
         <v>37</v>
       </c>
@@ -16731,7 +16774,7 @@
         <v>6.1139999999999999</v>
       </c>
     </row>
-    <row r="80" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B80" s="2" t="s">
         <v>39</v>
       </c>
@@ -16919,7 +16962,7 @@
         <v>3450.2</v>
       </c>
     </row>
-    <row r="81" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D81" s="2" t="s">
         <v>37</v>
       </c>
@@ -17104,7 +17147,7 @@
         <v>10.239000000000001</v>
       </c>
     </row>
-    <row r="82" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B82" s="2" t="s">
         <v>38</v>
       </c>
@@ -17292,7 +17335,7 @@
         <v>2591.6999999999998</v>
       </c>
     </row>
-    <row r="83" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D83" s="2" t="s">
         <v>37</v>
       </c>
@@ -17477,7 +17520,7 @@
         <v>7.6909999999999998</v>
       </c>
     </row>
-    <row r="84" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E84" s="5"/>
       <c r="F84" s="5"/>
       <c r="G84" s="5"/>
@@ -17539,7 +17582,7 @@
       <c r="BK84" s="12"/>
       <c r="BL84" s="12"/>
     </row>
-    <row r="85" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="13" t="s">
         <v>36</v>
       </c>
@@ -17604,7 +17647,7 @@
       <c r="BK85" s="12"/>
       <c r="BL85" s="12"/>
     </row>
-    <row r="86" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B86" s="2" t="s">
         <v>32</v>
       </c>
@@ -17792,7 +17835,7 @@
         <v>23476.1</v>
       </c>
     </row>
-    <row r="87" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D87" s="2" t="s">
         <v>20</v>
       </c>
@@ -17977,7 +18020,7 @@
         <v>4.024</v>
       </c>
     </row>
-    <row r="88" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B88" s="2" t="s">
         <v>31</v>
       </c>
@@ -18165,7 +18208,7 @@
         <v>5649.8</v>
       </c>
     </row>
-    <row r="89" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D89" s="2" t="s">
         <v>20</v>
       </c>
@@ -18350,7 +18393,7 @@
         <v>2.85</v>
       </c>
     </row>
-    <row r="90" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C90" s="2" t="s">
         <v>30</v>
       </c>
@@ -18538,7 +18581,7 @@
         <v>4330.8</v>
       </c>
     </row>
-    <row r="91" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D91" s="2" t="s">
         <v>20</v>
       </c>
@@ -18723,7 +18766,7 @@
         <v>3.2269999999999999</v>
       </c>
     </row>
-    <row r="92" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C92" s="14" t="s">
         <v>29</v>
       </c>
@@ -18911,7 +18954,7 @@
         <v>1265.2</v>
       </c>
     </row>
-    <row r="93" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D93" s="2" t="s">
         <v>20</v>
       </c>
@@ -19096,7 +19139,7 @@
         <v>1.4870000000000001</v>
       </c>
     </row>
-    <row r="94" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C94" s="2" t="s">
         <v>28</v>
       </c>
@@ -19284,7 +19327,7 @@
         <v>53.8</v>
       </c>
     </row>
-    <row r="95" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B95" s="2" t="s">
         <v>27</v>
       </c>
@@ -19472,7 +19515,7 @@
         <v>5547</v>
       </c>
     </row>
-    <row r="96" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D96" s="2" t="s">
         <v>20</v>
       </c>
@@ -19657,7 +19700,7 @@
         <v>3.3359999999999999</v>
       </c>
     </row>
-    <row r="97" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C97" s="2" t="s">
         <v>26</v>
       </c>
@@ -19845,7 +19888,7 @@
         <v>1925.2</v>
       </c>
     </row>
-    <row r="98" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D98" s="2" t="s">
         <v>20</v>
       </c>
@@ -20030,7 +20073,7 @@
         <v>2.5230000000000001</v>
       </c>
     </row>
-    <row r="99" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C99" s="2" t="s">
         <v>25</v>
       </c>
@@ -20218,7 +20261,7 @@
         <v>3621.8</v>
       </c>
     </row>
-    <row r="100" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D100" s="2" t="s">
         <v>20</v>
       </c>
@@ -20403,7 +20446,7 @@
         <v>3.7719999999999998</v>
       </c>
     </row>
-    <row r="101" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B101" s="2" t="s">
         <v>24</v>
       </c>
@@ -20591,7 +20634,7 @@
         <v>-977</v>
       </c>
     </row>
-    <row r="102" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C102" s="2" t="s">
         <v>23</v>
       </c>
@@ -20779,7 +20822,7 @@
         <v>3538.4</v>
       </c>
     </row>
-    <row r="103" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D103" s="2" t="s">
         <v>20</v>
       </c>
@@ -20964,7 +21007,7 @@
         <v>3.3519999999999999</v>
       </c>
     </row>
-    <row r="104" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C104" s="2" t="s">
         <v>22</v>
       </c>
@@ -21152,7 +21195,7 @@
         <v>4515.3999999999996</v>
       </c>
     </row>
-    <row r="105" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D105" s="2" t="s">
         <v>20</v>
       </c>
@@ -21337,7 +21380,7 @@
         <v>3.4119999999999999</v>
       </c>
     </row>
-    <row r="106" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B106" s="2" t="s">
         <v>35</v>
       </c>
@@ -21525,7 +21568,7 @@
         <v>-755.9</v>
       </c>
     </row>
-    <row r="107" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E107" s="5"/>
       <c r="F107" s="5"/>
       <c r="G107" s="5"/>
@@ -21587,7 +21630,7 @@
       <c r="BK107" s="12"/>
       <c r="BL107" s="12"/>
     </row>
-    <row r="108" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="13" t="s">
         <v>33</v>
       </c>
@@ -21652,7 +21695,7 @@
       <c r="BK108" s="12"/>
       <c r="BL108" s="12"/>
     </row>
-    <row r="109" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B109" s="2" t="s">
         <v>32</v>
       </c>
@@ -21840,7 +21883,7 @@
         <v>16882.099999999999</v>
       </c>
     </row>
-    <row r="110" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D110" s="2" t="s">
         <v>20</v>
       </c>
@@ -22025,7 +22068,7 @@
         <v>1.9930000000000001</v>
       </c>
     </row>
-    <row r="111" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B111" s="2" t="s">
         <v>31</v>
       </c>
@@ -22213,7 +22256,7 @@
         <v>4378.8999999999996</v>
       </c>
     </row>
-    <row r="112" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D112" s="2" t="s">
         <v>20</v>
       </c>
@@ -22398,7 +22441,7 @@
         <v>1.5660000000000001</v>
       </c>
     </row>
-    <row r="113" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C113" s="2" t="s">
         <v>30</v>
       </c>
@@ -22586,7 +22629,7 @@
         <v>3723.6</v>
       </c>
     </row>
-    <row r="114" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D114" s="2" t="s">
         <v>20</v>
       </c>
@@ -22771,7 +22814,7 @@
         <v>2.3330000000000002</v>
       </c>
     </row>
-    <row r="115" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C115" s="2" t="s">
         <v>29</v>
       </c>
@@ -22959,7 +23002,7 @@
         <v>662.3</v>
       </c>
     </row>
-    <row r="116" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D116" s="2" t="s">
         <v>20</v>
       </c>
@@ -23144,7 +23187,7 @@
         <v>-1.149</v>
       </c>
     </row>
-    <row r="117" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C117" s="2" t="s">
         <v>28</v>
       </c>
@@ -23332,7 +23375,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="118" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B118" s="2" t="s">
         <v>27</v>
       </c>
@@ -23520,7 +23563,7 @@
         <v>3555.2</v>
       </c>
     </row>
-    <row r="119" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C119" s="2" t="s">
         <v>26</v>
       </c>
@@ -23708,7 +23751,7 @@
         <v>1363.5</v>
       </c>
     </row>
-    <row r="120" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C120" s="2" t="s">
         <v>25</v>
       </c>
@@ -23896,7 +23939,7 @@
         <v>2186.3000000000002</v>
       </c>
     </row>
-    <row r="121" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D121" s="2" t="s">
         <v>20</v>
       </c>
@@ -24081,7 +24124,7 @@
         <v>0.67200000000000004</v>
       </c>
     </row>
-    <row r="122" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B122" s="2" t="s">
         <v>24</v>
       </c>
@@ -24269,7 +24312,7 @@
         <v>-1336.4</v>
       </c>
     </row>
-    <row r="123" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C123" s="2" t="s">
         <v>23</v>
       </c>
@@ -24457,7 +24500,7 @@
         <v>3081.2</v>
       </c>
     </row>
-    <row r="124" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D124" s="2" t="s">
         <v>20</v>
       </c>
@@ -24642,7 +24685,7 @@
         <v>1.7370000000000001</v>
       </c>
     </row>
-    <row r="125" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C125" s="2" t="s">
         <v>22</v>
       </c>
@@ -24830,7 +24873,7 @@
         <v>4417.6000000000004</v>
       </c>
     </row>
-    <row r="126" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="3"/>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
@@ -25018,23 +25061,23 @@
         <v>2.2570000000000001</v>
       </c>
     </row>
-    <row r="128" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="130" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="65" t="s">
+    <row r="130" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A130" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="B130" s="65"/>
-      <c r="C130" s="65"/>
-      <c r="D130" s="65"/>
-    </row>
-    <row r="131" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B130" s="73"/>
+      <c r="C130" s="73"/>
+      <c r="D130" s="73"/>
+    </row>
+    <row r="131" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C131" s="6"/>
     </row>
-    <row r="132" spans="1:64" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:64" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
         <v>17</v>
       </c>
@@ -25052,7 +25095,7 @@
       <c r="P132" s="7"/>
       <c r="Q132" s="7"/>
     </row>
-    <row r="133" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C133" s="6"/>
       <c r="E133" s="5"/>
       <c r="G133" s="5"/>
@@ -25067,12 +25110,12 @@
       <c r="P133" s="5"/>
       <c r="Q133" s="5"/>
     </row>
-    <row r="134" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="135" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="3"/>
       <c r="B135" s="4"/>
       <c r="C135" s="3"/>
@@ -25161,12 +25204,12 @@
       <selection pane="bottomRight" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="11.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" s="39" customFormat="1" ht="31" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:46" s="39" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
@@ -25219,7 +25262,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="2" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>42825</v>
       </c>
@@ -25301,7 +25344,7 @@
       <c r="AS2" s="31"/>
       <c r="AT2" s="31"/>
     </row>
-    <row r="3" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>42916</v>
       </c>
@@ -25354,7 +25397,7 @@
         <v>4.3659999999999997</v>
       </c>
     </row>
-    <row r="4" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>43008</v>
       </c>
@@ -25407,7 +25450,7 @@
         <v>4.3330000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>43100</v>
       </c>
@@ -25460,7 +25503,7 @@
         <v>4.1660000000000004</v>
       </c>
     </row>
-    <row r="6" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>43190</v>
       </c>
@@ -25513,7 +25556,7 @@
         <v>4.0330000000000004</v>
       </c>
     </row>
-    <row r="7" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>43281</v>
       </c>
@@ -25566,7 +25609,7 @@
         <v>3.9329999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>43373</v>
       </c>
@@ -25619,7 +25662,7 @@
         <v>3.766</v>
       </c>
     </row>
-    <row r="9" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>43465</v>
       </c>
@@ -25672,7 +25715,7 @@
         <v>3.8330000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>43555</v>
       </c>
@@ -25725,7 +25768,7 @@
         <v>3.8660000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>43646</v>
       </c>
@@ -25778,7 +25821,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="12" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>43738</v>
       </c>
@@ -25831,7 +25874,7 @@
         <v>3.633</v>
       </c>
     </row>
-    <row r="13" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>43830</v>
       </c>
@@ -25884,20 +25927,20 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="14" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A14" s="69">
+    <row r="14" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A14" s="57">
         <v>43921</v>
       </c>
-      <c r="B14" s="68">
+      <c r="B14" s="56">
         <v>21538</v>
       </c>
-      <c r="C14" s="73">
+      <c r="C14" s="61">
         <v>18989.900000000001</v>
       </c>
-      <c r="D14" s="73">
+      <c r="D14" s="61">
         <v>19399.2</v>
       </c>
-      <c r="E14" s="73">
+      <c r="E14" s="61">
         <v>22002.2</v>
       </c>
       <c r="F14">
@@ -25937,7 +25980,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="15" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>44012</v>
       </c>
@@ -25990,7 +26033,7 @@
         <v>12.965999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>44104</v>
       </c>
@@ -26043,7 +26086,7 @@
         <v>8.8330000000000002</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>44196</v>
       </c>
@@ -26096,7 +26139,7 @@
         <v>6.766</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>44286</v>
       </c>
@@ -26149,7 +26192,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>44377</v>
       </c>
@@ -26202,7 +26245,7 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>44469</v>
       </c>
@@ -26255,7 +26298,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>44561</v>
       </c>
@@ -26308,2548 +26351,2548 @@
         <v>4.2329999999999997</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>44651</v>
       </c>
-      <c r="B22" s="71">
+      <c r="B22" s="59">
         <v>24740.5</v>
       </c>
-      <c r="C22" s="67">
+      <c r="C22" s="55">
         <v>19924.099999999999</v>
       </c>
-      <c r="D22" s="67">
+      <c r="D22" s="55">
         <v>20087.7</v>
       </c>
-      <c r="E22" s="67">
+      <c r="E22" s="55">
         <v>24943.599999999999</v>
       </c>
-      <c r="F22" s="71">
+      <c r="F22" s="59">
         <v>120.32299999999999</v>
       </c>
-      <c r="G22" s="71">
+      <c r="G22" s="59">
         <v>124.209</v>
       </c>
-      <c r="H22" s="71">
+      <c r="H22" s="59">
         <v>16874.8</v>
       </c>
-      <c r="I22" s="71">
+      <c r="I22" s="59">
         <v>14028.4</v>
       </c>
-      <c r="J22" s="71">
+      <c r="J22" s="59">
         <v>3393.4</v>
       </c>
-      <c r="K22" s="71">
+      <c r="K22" s="59">
         <v>1353</v>
       </c>
-      <c r="L22" s="71">
+      <c r="L22" s="59">
         <v>2040.7</v>
       </c>
-      <c r="M22" s="71">
+      <c r="M22" s="59">
         <v>4311.3999999999996</v>
       </c>
-      <c r="N22" s="71">
+      <c r="N22" s="59">
         <v>1613.1</v>
       </c>
-      <c r="O22" s="71">
+      <c r="O22" s="59">
         <v>2698.2</v>
       </c>
-      <c r="P22" s="71">
+      <c r="P22" s="59">
         <v>284.60700000000003</v>
       </c>
-      <c r="Q22" s="71">
+      <c r="Q22" s="59">
         <v>3.8</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>44742</v>
       </c>
-      <c r="B23" s="71">
+      <c r="B23" s="59">
         <v>25248.5</v>
       </c>
-      <c r="C23" s="67">
+      <c r="C23" s="55">
         <v>19895.3</v>
       </c>
-      <c r="D23" s="67">
+      <c r="D23" s="55">
         <v>20178.3</v>
       </c>
-      <c r="E23" s="67">
+      <c r="E23" s="55">
         <v>25607.599999999999</v>
       </c>
-      <c r="F23" s="71">
+      <c r="F23" s="59">
         <v>122.459</v>
       </c>
-      <c r="G23" s="71">
+      <c r="G23" s="59">
         <v>126.914</v>
       </c>
-      <c r="H23" s="71">
+      <c r="H23" s="59">
         <v>17261.3</v>
       </c>
-      <c r="I23" s="71">
+      <c r="I23" s="59">
         <v>14099.5</v>
       </c>
-      <c r="J23" s="71">
+      <c r="J23" s="59">
         <v>3379.5</v>
       </c>
-      <c r="K23" s="71">
+      <c r="K23" s="59">
         <v>1341.3</v>
       </c>
-      <c r="L23" s="71">
+      <c r="L23" s="59">
         <v>2037.8</v>
       </c>
-      <c r="M23" s="71">
+      <c r="M23" s="59">
         <v>4412.8</v>
       </c>
-      <c r="N23" s="71">
+      <c r="N23" s="59">
         <v>1622.7</v>
       </c>
-      <c r="O23" s="71">
+      <c r="O23" s="59">
         <v>2790</v>
       </c>
-      <c r="P23" s="71">
+      <c r="P23" s="59">
         <v>291.82100000000003</v>
       </c>
-      <c r="Q23" s="71">
+      <c r="Q23" s="59">
         <v>3.6</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>44834</v>
       </c>
-      <c r="B24" s="71">
+      <c r="B24" s="59">
         <v>25699</v>
       </c>
-      <c r="C24" s="67">
+      <c r="C24" s="55">
         <v>20039.400000000001</v>
       </c>
-      <c r="D24" s="67">
+      <c r="D24" s="55">
         <v>20269.099999999999</v>
       </c>
-      <c r="E24" s="67">
+      <c r="E24" s="55">
         <v>25993.599999999999</v>
       </c>
-      <c r="F24" s="71">
+      <c r="F24" s="59">
         <v>123.74299999999999</v>
       </c>
-      <c r="G24" s="71">
+      <c r="G24" s="59">
         <v>128.24799999999999</v>
       </c>
-      <c r="H24" s="71">
+      <c r="H24" s="59">
         <v>17517.099999999999</v>
       </c>
-      <c r="I24" s="71">
+      <c r="I24" s="59">
         <v>14159.9</v>
       </c>
-      <c r="J24" s="71">
+      <c r="J24" s="59">
         <v>3404.9</v>
       </c>
-      <c r="K24" s="71">
+      <c r="K24" s="59">
         <v>1352.6</v>
       </c>
-      <c r="L24" s="71">
+      <c r="L24" s="59">
         <v>2052.1</v>
       </c>
-      <c r="M24" s="71">
+      <c r="M24" s="59">
         <v>4486.5</v>
       </c>
-      <c r="N24" s="71">
+      <c r="N24" s="59">
         <v>1656.9</v>
       </c>
-      <c r="O24" s="71">
+      <c r="O24" s="59">
         <v>2829.6</v>
       </c>
-      <c r="P24" s="71">
+      <c r="P24" s="59">
         <v>295.88400000000001</v>
       </c>
-      <c r="Q24" s="71">
+      <c r="Q24" s="59">
         <v>3.5659999999999998</v>
       </c>
       <c r="R24" s="38"/>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>44926</v>
       </c>
-      <c r="B25" s="71">
+      <c r="B25" s="59">
         <v>25990</v>
       </c>
-      <c r="C25" s="67">
+      <c r="C25" s="55">
         <v>20079.5</v>
       </c>
-      <c r="D25" s="67">
+      <c r="D25" s="55">
         <v>20362</v>
       </c>
-      <c r="E25" s="67">
+      <c r="E25" s="55">
         <v>26355.7</v>
       </c>
-      <c r="F25" s="71">
+      <c r="F25" s="59">
         <v>124.94799999999999</v>
       </c>
-      <c r="G25" s="71">
+      <c r="G25" s="59">
         <v>129.435</v>
       </c>
-      <c r="H25" s="71">
+      <c r="H25" s="59">
         <v>17851.099999999999</v>
       </c>
-      <c r="I25" s="71">
+      <c r="I25" s="59">
         <v>14286.7</v>
       </c>
-      <c r="J25" s="71">
+      <c r="J25" s="59">
         <v>3408.9</v>
       </c>
-      <c r="K25" s="71">
+      <c r="K25" s="59">
         <v>1350.2</v>
       </c>
-      <c r="L25" s="71">
+      <c r="L25" s="59">
         <v>2058</v>
       </c>
-      <c r="M25" s="71">
+      <c r="M25" s="59">
         <v>4536.8999999999996</v>
       </c>
-      <c r="N25" s="71">
+      <c r="N25" s="59">
         <v>1665.8</v>
       </c>
-      <c r="O25" s="71">
+      <c r="O25" s="59">
         <v>2871.1</v>
       </c>
-      <c r="P25" s="71">
+      <c r="P25" s="59">
         <v>299.28899999999999</v>
       </c>
-      <c r="Q25" s="71">
+      <c r="Q25" s="59">
         <v>3.7330000000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>45016</v>
       </c>
-      <c r="B26" s="71">
+      <c r="B26" s="59">
         <v>26138.1</v>
       </c>
-      <c r="C26" s="67">
+      <c r="C26" s="55">
         <v>20019.5</v>
       </c>
-      <c r="D26" s="67">
+      <c r="D26" s="55">
         <v>20453.7</v>
       </c>
-      <c r="E26" s="67">
+      <c r="E26" s="55">
         <v>26705.1</v>
       </c>
-      <c r="F26" s="71">
+      <c r="F26" s="59">
         <v>126.05</v>
       </c>
-      <c r="G26" s="71">
+      <c r="G26" s="59">
         <v>130.56299999999999</v>
       </c>
-      <c r="H26" s="71">
+      <c r="H26" s="59">
         <v>18063.900000000001</v>
       </c>
-      <c r="I26" s="71">
+      <c r="I26" s="59">
         <v>14330.7</v>
       </c>
-      <c r="J26" s="71">
+      <c r="J26" s="59">
         <v>3417.1</v>
       </c>
-      <c r="K26" s="71">
+      <c r="K26" s="59">
         <v>1355.6</v>
       </c>
-      <c r="L26" s="71">
+      <c r="L26" s="59">
         <v>2061.1</v>
       </c>
-      <c r="M26" s="71">
+      <c r="M26" s="59">
         <v>4583.3</v>
       </c>
-      <c r="N26" s="71">
+      <c r="N26" s="59">
         <v>1683.2</v>
       </c>
-      <c r="O26" s="71">
+      <c r="O26" s="59">
         <v>2900.1</v>
       </c>
-      <c r="P26" s="71">
+      <c r="P26" s="59">
         <v>302.44799999999998</v>
       </c>
-      <c r="Q26" s="71">
+      <c r="Q26" s="59">
         <v>4.0990000000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>45107</v>
       </c>
-      <c r="B27" s="71">
+      <c r="B27" s="59">
         <v>26298.3</v>
       </c>
-      <c r="C27" s="67">
+      <c r="C27" s="55">
         <v>20000.900000000001</v>
       </c>
-      <c r="D27" s="67">
+      <c r="D27" s="55">
         <v>20541.3</v>
       </c>
-      <c r="E27" s="67">
+      <c r="E27" s="55">
         <v>27008.799999999999</v>
       </c>
-      <c r="F27" s="71">
+      <c r="F27" s="59">
         <v>127.099</v>
       </c>
-      <c r="G27" s="71">
+      <c r="G27" s="59">
         <v>131.48500000000001</v>
       </c>
-      <c r="H27" s="71">
+      <c r="H27" s="59">
         <v>18252.3</v>
       </c>
-      <c r="I27" s="71">
+      <c r="I27" s="59">
         <v>14360.7</v>
       </c>
-      <c r="J27" s="71">
+      <c r="J27" s="59">
         <v>3428.5</v>
       </c>
-      <c r="K27" s="71">
+      <c r="K27" s="59">
         <v>1360.4</v>
       </c>
-      <c r="L27" s="71">
+      <c r="L27" s="59">
         <v>2067.6999999999998</v>
       </c>
-      <c r="M27" s="71">
+      <c r="M27" s="59">
         <v>4631.7</v>
       </c>
-      <c r="N27" s="71">
+      <c r="N27" s="59">
         <v>1699</v>
       </c>
-      <c r="O27" s="71">
+      <c r="O27" s="59">
         <v>2932.7</v>
       </c>
-      <c r="P27" s="71">
+      <c r="P27" s="59">
         <v>305.53500000000003</v>
       </c>
-      <c r="Q27" s="71">
+      <c r="Q27" s="59">
         <v>4.5990000000000002</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>45199</v>
       </c>
-      <c r="B28" s="71">
+      <c r="B28" s="59">
         <v>26525.3</v>
       </c>
-      <c r="C28" s="67">
+      <c r="C28" s="55">
         <v>20026.400000000001</v>
       </c>
-      <c r="D28" s="67">
+      <c r="D28" s="55">
         <v>20627.400000000001</v>
       </c>
-      <c r="E28" s="67">
+      <c r="E28" s="55">
         <v>27321.3</v>
       </c>
-      <c r="F28" s="71">
+      <c r="F28" s="59">
         <v>128.13900000000001</v>
       </c>
-      <c r="G28" s="71">
+      <c r="G28" s="59">
         <v>132.45099999999999</v>
       </c>
-      <c r="H28" s="71">
+      <c r="H28" s="59">
         <v>18452.8</v>
       </c>
-      <c r="I28" s="71">
+      <c r="I28" s="59">
         <v>14400.5</v>
       </c>
-      <c r="J28" s="71">
+      <c r="J28" s="59">
         <v>3446.2</v>
       </c>
-      <c r="K28" s="71">
+      <c r="K28" s="59">
         <v>1369.5</v>
       </c>
-      <c r="L28" s="71">
+      <c r="L28" s="59">
         <v>2076.5</v>
       </c>
-      <c r="M28" s="71">
+      <c r="M28" s="59">
         <v>4691.7</v>
       </c>
-      <c r="N28" s="71">
+      <c r="N28" s="59">
         <v>1721.1</v>
       </c>
-      <c r="O28" s="71">
+      <c r="O28" s="59">
         <v>2970.6</v>
       </c>
-      <c r="P28" s="71">
+      <c r="P28" s="59">
         <v>308.52199999999999</v>
       </c>
-      <c r="Q28" s="71">
+      <c r="Q28" s="59">
         <v>4.899</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>45291</v>
       </c>
-      <c r="B29" s="71">
+      <c r="B29" s="59">
         <v>26791.9</v>
       </c>
-      <c r="C29" s="67">
+      <c r="C29" s="55">
         <v>20094</v>
       </c>
-      <c r="D29" s="67">
+      <c r="D29" s="55">
         <v>20713.099999999999</v>
       </c>
-      <c r="E29" s="67">
+      <c r="E29" s="55">
         <v>27617.4</v>
       </c>
-      <c r="F29" s="71">
+      <c r="F29" s="59">
         <v>129.08099999999999</v>
       </c>
-      <c r="G29" s="71">
+      <c r="G29" s="59">
         <v>133.333</v>
       </c>
-      <c r="H29" s="71">
+      <c r="H29" s="59">
         <v>18649.400000000001</v>
       </c>
-      <c r="I29" s="71">
+      <c r="I29" s="59">
         <v>14447.8</v>
       </c>
-      <c r="J29" s="71">
+      <c r="J29" s="59">
         <v>3457.6</v>
       </c>
-      <c r="K29" s="71">
+      <c r="K29" s="59">
         <v>1376.4</v>
       </c>
-      <c r="L29" s="71">
+      <c r="L29" s="59">
         <v>2081.4</v>
       </c>
-      <c r="M29" s="71">
+      <c r="M29" s="59">
         <v>4743.6000000000004</v>
       </c>
-      <c r="N29" s="71">
+      <c r="N29" s="59">
         <v>1740.7</v>
       </c>
-      <c r="O29" s="71">
+      <c r="O29" s="59">
         <v>3002.9</v>
       </c>
-      <c r="P29" s="71">
+      <c r="P29" s="59">
         <v>311.21800000000002</v>
       </c>
-      <c r="Q29" s="71">
+      <c r="Q29" s="59">
         <v>5.1139999999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>45382</v>
       </c>
-      <c r="B30" s="71">
+      <c r="B30" s="59">
         <v>27098.3</v>
       </c>
-      <c r="C30" s="67">
+      <c r="C30" s="55">
         <v>20201.2</v>
       </c>
-      <c r="D30" s="67">
+      <c r="D30" s="55">
         <v>20798.099999999999</v>
       </c>
-      <c r="E30" s="67">
+      <c r="E30" s="55">
         <v>27899</v>
       </c>
-      <c r="F30" s="71">
+      <c r="F30" s="59">
         <v>129.92599999999999</v>
       </c>
-      <c r="G30" s="71">
+      <c r="G30" s="59">
         <v>134.14099999999999</v>
       </c>
-      <c r="H30" s="71">
+      <c r="H30" s="59">
         <v>18836.5</v>
       </c>
-      <c r="I30" s="71">
+      <c r="I30" s="59">
         <v>14497.8</v>
       </c>
-      <c r="J30" s="71">
+      <c r="J30" s="59">
         <v>3467.2</v>
       </c>
-      <c r="K30" s="71">
+      <c r="K30" s="59">
         <v>1380.2</v>
       </c>
-      <c r="L30" s="71">
+      <c r="L30" s="59">
         <v>2087.1</v>
       </c>
-      <c r="M30" s="71">
+      <c r="M30" s="59">
         <v>4792.6000000000004</v>
       </c>
-      <c r="N30" s="71">
+      <c r="N30" s="59">
         <v>1758.2</v>
       </c>
-      <c r="O30" s="71">
+      <c r="O30" s="59">
         <v>3034.4</v>
       </c>
-      <c r="P30" s="71">
+      <c r="P30" s="59">
         <v>313.44600000000003</v>
       </c>
-      <c r="Q30" s="71">
+      <c r="Q30" s="59">
         <v>5.0990000000000002</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>45473</v>
       </c>
-      <c r="B31" s="71">
+      <c r="B31" s="59">
         <v>27422.1</v>
       </c>
-      <c r="C31" s="67">
+      <c r="C31" s="55">
         <v>20326.400000000001</v>
       </c>
-      <c r="D31" s="67">
+      <c r="D31" s="55">
         <v>20884.2</v>
       </c>
-      <c r="E31" s="67">
+      <c r="E31" s="55">
         <v>28174.5</v>
       </c>
-      <c r="F31" s="71">
+      <c r="F31" s="59">
         <v>130.70400000000001</v>
       </c>
-      <c r="G31" s="71">
+      <c r="G31" s="59">
         <v>134.90799999999999</v>
       </c>
-      <c r="H31" s="71">
+      <c r="H31" s="59">
         <v>19019.400000000001</v>
       </c>
-      <c r="I31" s="71">
+      <c r="I31" s="59">
         <v>14551.4</v>
       </c>
-      <c r="J31" s="71">
+      <c r="J31" s="59">
         <v>3474.8</v>
       </c>
-      <c r="K31" s="71">
+      <c r="K31" s="59">
         <v>1383.1</v>
       </c>
-      <c r="L31" s="71">
+      <c r="L31" s="59">
         <v>2091.9</v>
       </c>
-      <c r="M31" s="71">
+      <c r="M31" s="59">
         <v>4836.7</v>
       </c>
-      <c r="N31" s="71">
+      <c r="N31" s="59">
         <v>1774.2</v>
       </c>
-      <c r="O31" s="71">
+      <c r="O31" s="59">
         <v>3062.5</v>
       </c>
-      <c r="P31" s="71">
+      <c r="P31" s="59">
         <v>315.35500000000002</v>
       </c>
-      <c r="Q31" s="71">
+      <c r="Q31" s="59">
         <v>4.9429999999999996</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>45565</v>
       </c>
-      <c r="B32" s="71">
+      <c r="B32" s="59">
         <v>27752.5</v>
       </c>
-      <c r="C32" s="67">
+      <c r="C32" s="55">
         <v>20460.8</v>
       </c>
-      <c r="D32" s="67">
+      <c r="D32" s="55">
         <v>20971.7</v>
       </c>
-      <c r="E32" s="67">
+      <c r="E32" s="55">
         <v>28445.5</v>
       </c>
-      <c r="F32" s="71">
+      <c r="F32" s="59">
         <v>131.452</v>
       </c>
-      <c r="G32" s="71">
+      <c r="G32" s="59">
         <v>135.637</v>
       </c>
-      <c r="H32" s="71">
+      <c r="H32" s="59">
         <v>19200.900000000001</v>
       </c>
-      <c r="I32" s="71">
+      <c r="I32" s="59">
         <v>14606.8</v>
       </c>
-      <c r="J32" s="71">
+      <c r="J32" s="59">
         <v>3482.8</v>
       </c>
-      <c r="K32" s="71">
+      <c r="K32" s="59">
         <v>1386.3</v>
       </c>
-      <c r="L32" s="71">
+      <c r="L32" s="59">
         <v>2096.6999999999998</v>
       </c>
-      <c r="M32" s="71">
+      <c r="M32" s="59">
         <v>4880.5</v>
       </c>
-      <c r="N32" s="71">
+      <c r="N32" s="59">
         <v>1790.4</v>
       </c>
-      <c r="O32" s="71">
+      <c r="O32" s="59">
         <v>3090.1</v>
       </c>
-      <c r="P32" s="71">
+      <c r="P32" s="59">
         <v>317.11900000000003</v>
       </c>
-      <c r="Q32" s="71">
+      <c r="Q32" s="59">
         <v>4.859</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>45657</v>
       </c>
-      <c r="B33" s="71">
+      <c r="B33" s="59">
         <v>28094.6</v>
       </c>
-      <c r="C33" s="67">
+      <c r="C33" s="55">
         <v>20604.099999999999</v>
       </c>
-      <c r="D33" s="67">
+      <c r="D33" s="55">
         <v>21061.200000000001</v>
       </c>
-      <c r="E33" s="67">
+      <c r="E33" s="55">
         <v>28717.9</v>
       </c>
-      <c r="F33" s="71">
+      <c r="F33" s="59">
         <v>132.18100000000001</v>
       </c>
-      <c r="G33" s="71">
+      <c r="G33" s="59">
         <v>136.35400000000001</v>
       </c>
-      <c r="H33" s="71">
+      <c r="H33" s="59">
         <v>19391.900000000001</v>
       </c>
-      <c r="I33" s="71">
+      <c r="I33" s="59">
         <v>14670.6</v>
       </c>
-      <c r="J33" s="71">
+      <c r="J33" s="59">
         <v>3490.1</v>
       </c>
-      <c r="K33" s="71">
+      <c r="K33" s="59">
         <v>1388.8</v>
       </c>
-      <c r="L33" s="71">
+      <c r="L33" s="59">
         <v>2101.5</v>
       </c>
-      <c r="M33" s="71">
+      <c r="M33" s="59">
         <v>4923</v>
       </c>
-      <c r="N33" s="71">
+      <c r="N33" s="59">
         <v>1805.5</v>
       </c>
-      <c r="O33" s="71">
+      <c r="O33" s="59">
         <v>3117.6</v>
       </c>
-      <c r="P33" s="71">
+      <c r="P33" s="59">
         <v>318.80200000000002</v>
       </c>
-      <c r="Q33" s="71">
+      <c r="Q33" s="59">
         <v>4.7990000000000004</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>45747</v>
       </c>
-      <c r="B34" s="71">
+      <c r="B34" s="59">
         <v>28443.200000000001</v>
       </c>
-      <c r="C34" s="67">
+      <c r="C34" s="55">
         <v>20751.5</v>
       </c>
-      <c r="D34" s="67">
+      <c r="D34" s="55">
         <v>21152.2</v>
       </c>
-      <c r="E34" s="67">
+      <c r="E34" s="55">
         <v>28992.400000000001</v>
       </c>
-      <c r="F34" s="71">
+      <c r="F34" s="59">
         <v>132.91800000000001</v>
       </c>
-      <c r="G34" s="71">
+      <c r="G34" s="59">
         <v>137.065</v>
       </c>
-      <c r="H34" s="71">
+      <c r="H34" s="59">
         <v>19588.599999999999</v>
       </c>
-      <c r="I34" s="71">
+      <c r="I34" s="59">
         <v>14737.3</v>
       </c>
-      <c r="J34" s="71">
+      <c r="J34" s="59">
         <v>3497.1</v>
       </c>
-      <c r="K34" s="71">
+      <c r="K34" s="59">
         <v>1390.9</v>
       </c>
-      <c r="L34" s="71">
+      <c r="L34" s="59">
         <v>2106.3000000000002</v>
       </c>
-      <c r="M34" s="71">
+      <c r="M34" s="59">
         <v>4965.1000000000004</v>
       </c>
-      <c r="N34" s="71">
+      <c r="N34" s="59">
         <v>1819</v>
       </c>
-      <c r="O34" s="71">
+      <c r="O34" s="59">
         <v>3146.1</v>
       </c>
-      <c r="P34" s="71">
+      <c r="P34" s="59">
         <v>320.53399999999999</v>
       </c>
-      <c r="Q34" s="71">
+      <c r="Q34" s="59">
         <v>4.7759999999999998</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>45838</v>
       </c>
-      <c r="B35" s="71">
+      <c r="B35" s="59">
         <v>28783.5</v>
       </c>
-      <c r="C35" s="67">
+      <c r="C35" s="55">
         <v>20890.900000000001</v>
       </c>
-      <c r="D35" s="67">
+      <c r="D35" s="55">
         <v>21244.400000000001</v>
       </c>
-      <c r="E35" s="67">
+      <c r="E35" s="55">
         <v>29270.6</v>
       </c>
-      <c r="F35" s="71">
+      <c r="F35" s="59">
         <v>133.64500000000001</v>
       </c>
-      <c r="G35" s="71">
+      <c r="G35" s="59">
         <v>137.78</v>
       </c>
-      <c r="H35" s="71">
+      <c r="H35" s="59">
         <v>19779.599999999999</v>
       </c>
-      <c r="I35" s="71">
+      <c r="I35" s="59">
         <v>14800</v>
       </c>
-      <c r="J35" s="71">
+      <c r="J35" s="59">
         <v>3504.4</v>
       </c>
-      <c r="K35" s="71">
+      <c r="K35" s="59">
         <v>1393</v>
       </c>
-      <c r="L35" s="71">
+      <c r="L35" s="59">
         <v>2111.3000000000002</v>
       </c>
-      <c r="M35" s="71">
+      <c r="M35" s="59">
         <v>5007.7</v>
       </c>
-      <c r="N35" s="71">
+      <c r="N35" s="59">
         <v>1832.8</v>
       </c>
-      <c r="O35" s="71">
+      <c r="O35" s="59">
         <v>3174.9</v>
       </c>
-      <c r="P35" s="71">
+      <c r="P35" s="59">
         <v>322.22899999999998</v>
       </c>
-      <c r="Q35" s="71">
+      <c r="Q35" s="59">
         <v>4.7380000000000004</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>45930</v>
       </c>
-      <c r="B36" s="71">
+      <c r="B36" s="59">
         <v>29119</v>
       </c>
-      <c r="C36" s="67">
+      <c r="C36" s="55">
         <v>21025.3</v>
       </c>
-      <c r="D36" s="67">
+      <c r="D36" s="55">
         <v>21338.2</v>
       </c>
-      <c r="E36" s="67">
+      <c r="E36" s="55">
         <v>29552.3</v>
       </c>
-      <c r="F36" s="71">
+      <c r="F36" s="59">
         <v>134.36600000000001</v>
       </c>
-      <c r="G36" s="71">
+      <c r="G36" s="59">
         <v>138.495</v>
       </c>
-      <c r="H36" s="71">
+      <c r="H36" s="59">
         <v>19973.5</v>
       </c>
-      <c r="I36" s="71">
+      <c r="I36" s="59">
         <v>14864.9</v>
       </c>
-      <c r="J36" s="71">
+      <c r="J36" s="59">
         <v>3511.6</v>
       </c>
-      <c r="K36" s="71">
+      <c r="K36" s="59">
         <v>1395.2</v>
       </c>
-      <c r="L36" s="71">
+      <c r="L36" s="59">
         <v>2116.1999999999998</v>
       </c>
-      <c r="M36" s="71">
+      <c r="M36" s="59">
         <v>5050.6000000000004</v>
       </c>
-      <c r="N36" s="71">
+      <c r="N36" s="59">
         <v>1846.8</v>
       </c>
-      <c r="O36" s="71">
+      <c r="O36" s="59">
         <v>3203.9</v>
       </c>
-      <c r="P36" s="71">
+      <c r="P36" s="59">
         <v>323.90699999999998</v>
       </c>
-      <c r="Q36" s="71">
+      <c r="Q36" s="59">
         <v>4.694</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>46022</v>
       </c>
-      <c r="B37" s="71">
+      <c r="B37" s="59">
         <v>29442.5</v>
       </c>
-      <c r="C37" s="67">
+      <c r="C37" s="55">
         <v>21148.6</v>
       </c>
-      <c r="D37" s="67">
+      <c r="D37" s="55">
         <v>21433.4</v>
       </c>
-      <c r="E37" s="67">
+      <c r="E37" s="55">
         <v>29839.1</v>
       </c>
-      <c r="F37" s="71">
+      <c r="F37" s="59">
         <v>135.08600000000001</v>
       </c>
-      <c r="G37" s="71">
+      <c r="G37" s="59">
         <v>139.21700000000001</v>
       </c>
-      <c r="H37" s="71">
+      <c r="H37" s="59">
         <v>20163.8</v>
       </c>
-      <c r="I37" s="71">
+      <c r="I37" s="59">
         <v>14926.6</v>
       </c>
-      <c r="J37" s="71">
+      <c r="J37" s="59">
         <v>3519.5</v>
       </c>
-      <c r="K37" s="71">
+      <c r="K37" s="59">
         <v>1397.5</v>
       </c>
-      <c r="L37" s="71">
+      <c r="L37" s="59">
         <v>2121.6999999999998</v>
       </c>
-      <c r="M37" s="71">
+      <c r="M37" s="59">
         <v>5094.7</v>
       </c>
-      <c r="N37" s="71">
+      <c r="N37" s="59">
         <v>1860.9</v>
       </c>
-      <c r="O37" s="71">
+      <c r="O37" s="59">
         <v>3233.8</v>
       </c>
-      <c r="P37" s="71">
+      <c r="P37" s="59">
         <v>325.58999999999997</v>
       </c>
-      <c r="Q37" s="71">
+      <c r="Q37" s="59">
         <v>4.6449999999999996</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>46112</v>
       </c>
-      <c r="B38" s="71">
+      <c r="B38" s="59">
         <v>29766.2</v>
       </c>
-      <c r="C38" s="67">
+      <c r="C38" s="55">
         <v>21271.7</v>
       </c>
-      <c r="D38" s="67">
+      <c r="D38" s="55">
         <v>21530</v>
       </c>
-      <c r="E38" s="67">
+      <c r="E38" s="55">
         <v>30127.7</v>
       </c>
-      <c r="F38" s="71">
+      <c r="F38" s="59">
         <v>135.797</v>
       </c>
-      <c r="G38" s="71">
+      <c r="G38" s="59">
         <v>139.93299999999999</v>
       </c>
-      <c r="H38" s="71">
+      <c r="H38" s="59">
         <v>20362.099999999999</v>
       </c>
-      <c r="I38" s="71">
+      <c r="I38" s="59">
         <v>14994.5</v>
       </c>
-      <c r="J38" s="71">
+      <c r="J38" s="59">
         <v>3525.9</v>
       </c>
-      <c r="K38" s="71">
+      <c r="K38" s="59">
         <v>1399.7</v>
       </c>
-      <c r="L38" s="71">
+      <c r="L38" s="59">
         <v>2125.9</v>
       </c>
-      <c r="M38" s="71">
+      <c r="M38" s="59">
         <v>5135.8999999999996</v>
       </c>
-      <c r="N38" s="71">
+      <c r="N38" s="59">
         <v>1873.8</v>
       </c>
-      <c r="O38" s="71">
+      <c r="O38" s="59">
         <v>3262.1</v>
       </c>
-      <c r="P38" s="71">
+      <c r="P38" s="59">
         <v>327.23099999999999</v>
       </c>
-      <c r="Q38" s="71">
+      <c r="Q38" s="59">
         <v>4.6040000000000001</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>46203</v>
       </c>
-      <c r="B39" s="71">
+      <c r="B39" s="59">
         <v>30094.6</v>
       </c>
-      <c r="C39" s="67">
+      <c r="C39" s="55">
         <v>21397.7</v>
       </c>
-      <c r="D39" s="67">
+      <c r="D39" s="55">
         <v>21627.7</v>
       </c>
-      <c r="E39" s="67">
+      <c r="E39" s="55">
         <v>30418</v>
       </c>
-      <c r="F39" s="71">
+      <c r="F39" s="59">
         <v>136.49700000000001</v>
       </c>
-      <c r="G39" s="71">
+      <c r="G39" s="59">
         <v>140.64400000000001</v>
       </c>
-      <c r="H39" s="71">
+      <c r="H39" s="59">
         <v>20565</v>
       </c>
-      <c r="I39" s="71">
+      <c r="I39" s="59">
         <v>15066.2</v>
       </c>
-      <c r="J39" s="71">
+      <c r="J39" s="59">
         <v>3532.4</v>
       </c>
-      <c r="K39" s="71">
+      <c r="K39" s="59">
         <v>1401.5</v>
       </c>
-      <c r="L39" s="71">
+      <c r="L39" s="59">
         <v>2130.5</v>
       </c>
-      <c r="M39" s="71">
+      <c r="M39" s="59">
         <v>5177.7</v>
       </c>
-      <c r="N39" s="71">
+      <c r="N39" s="59">
         <v>1886.3</v>
       </c>
-      <c r="O39" s="71">
+      <c r="O39" s="59">
         <v>3291.4</v>
       </c>
-      <c r="P39" s="71">
+      <c r="P39" s="59">
         <v>328.86799999999999</v>
       </c>
-      <c r="Q39" s="71">
+      <c r="Q39" s="59">
         <v>4.5739999999999998</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>46295</v>
       </c>
-      <c r="B40" s="71">
+      <c r="B40" s="59">
         <v>30425.9</v>
       </c>
-      <c r="C40" s="67">
+      <c r="C40" s="55">
         <v>21525.200000000001</v>
       </c>
-      <c r="D40" s="67">
+      <c r="D40" s="55">
         <v>21726.3</v>
       </c>
-      <c r="E40" s="67">
+      <c r="E40" s="55">
         <v>30710.3</v>
       </c>
-      <c r="F40" s="71">
+      <c r="F40" s="59">
         <v>137.191</v>
       </c>
-      <c r="G40" s="71">
+      <c r="G40" s="59">
         <v>141.35</v>
       </c>
-      <c r="H40" s="71">
+      <c r="H40" s="59">
         <v>20768.599999999999</v>
       </c>
-      <c r="I40" s="71">
+      <c r="I40" s="59">
         <v>15138.3</v>
       </c>
-      <c r="J40" s="71">
+      <c r="J40" s="59">
         <v>3538.9</v>
       </c>
-      <c r="K40" s="71">
+      <c r="K40" s="59">
         <v>1403.4</v>
       </c>
-      <c r="L40" s="71">
+      <c r="L40" s="59">
         <v>2135.1</v>
       </c>
-      <c r="M40" s="71">
+      <c r="M40" s="59">
         <v>5219.8999999999996</v>
       </c>
-      <c r="N40" s="71">
+      <c r="N40" s="59">
         <v>1898.8</v>
       </c>
-      <c r="O40" s="71">
+      <c r="O40" s="59">
         <v>3321.1</v>
       </c>
-      <c r="P40" s="71">
+      <c r="P40" s="59">
         <v>330.51299999999998</v>
       </c>
-      <c r="Q40" s="71">
+      <c r="Q40" s="59">
         <v>4.5469999999999997</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>46387</v>
       </c>
-      <c r="B41" s="71">
+      <c r="B41" s="59">
         <v>30762.9</v>
       </c>
-      <c r="C41" s="67">
+      <c r="C41" s="55">
         <v>21655.3</v>
       </c>
-      <c r="D41" s="67">
+      <c r="D41" s="55">
         <v>21826.1</v>
       </c>
-      <c r="E41" s="67">
+      <c r="E41" s="55">
         <v>31005.599999999999</v>
       </c>
-      <c r="F41" s="71">
+      <c r="F41" s="59">
         <v>137.88300000000001</v>
       </c>
-      <c r="G41" s="71">
+      <c r="G41" s="59">
         <v>142.05699999999999</v>
       </c>
-      <c r="H41" s="71">
+      <c r="H41" s="59">
         <v>20981.4</v>
       </c>
-      <c r="I41" s="71">
+      <c r="I41" s="59">
         <v>15216.7</v>
       </c>
-      <c r="J41" s="71">
+      <c r="J41" s="59">
         <v>3545</v>
       </c>
-      <c r="K41" s="71">
+      <c r="K41" s="59">
         <v>1405</v>
       </c>
-      <c r="L41" s="71">
+      <c r="L41" s="59">
         <v>2139.4</v>
       </c>
-      <c r="M41" s="71">
+      <c r="M41" s="59">
         <v>5262</v>
       </c>
-      <c r="N41" s="71">
+      <c r="N41" s="59">
         <v>1911.2</v>
       </c>
-      <c r="O41" s="71">
+      <c r="O41" s="59">
         <v>3350.8</v>
       </c>
-      <c r="P41" s="71">
+      <c r="P41" s="59">
         <v>332.17899999999997</v>
       </c>
-      <c r="Q41" s="71">
+      <c r="Q41" s="59">
         <v>4.5279999999999996</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>46477</v>
       </c>
-      <c r="B42" s="71">
+      <c r="B42" s="59">
         <v>31091.599999999999</v>
       </c>
-      <c r="C42" s="67">
+      <c r="C42" s="55">
         <v>21778.799999999999</v>
       </c>
-      <c r="D42" s="67">
+      <c r="D42" s="55">
         <v>21926.9</v>
       </c>
-      <c r="E42" s="67">
+      <c r="E42" s="55">
         <v>31303</v>
       </c>
-      <c r="F42" s="71">
+      <c r="F42" s="59">
         <v>138.57400000000001</v>
       </c>
-      <c r="G42" s="71">
+      <c r="G42" s="59">
         <v>142.76</v>
       </c>
-      <c r="H42" s="71">
+      <c r="H42" s="59">
         <v>21191.200000000001</v>
       </c>
-      <c r="I42" s="71">
+      <c r="I42" s="59">
         <v>15292.3</v>
       </c>
-      <c r="J42" s="71">
+      <c r="J42" s="59">
         <v>3551.2</v>
       </c>
-      <c r="K42" s="71">
+      <c r="K42" s="59">
         <v>1406.4</v>
       </c>
-      <c r="L42" s="71">
+      <c r="L42" s="59">
         <v>2144.1999999999998</v>
       </c>
-      <c r="M42" s="71">
+      <c r="M42" s="59">
         <v>5304.2</v>
       </c>
-      <c r="N42" s="71">
+      <c r="N42" s="59">
         <v>1922.8</v>
       </c>
-      <c r="O42" s="71">
+      <c r="O42" s="59">
         <v>3381.4</v>
       </c>
-      <c r="P42" s="71">
+      <c r="P42" s="59">
         <v>333.87</v>
       </c>
-      <c r="Q42" s="71">
+      <c r="Q42" s="59">
         <v>4.5119999999999996</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>46568</v>
       </c>
-      <c r="B43" s="71">
+      <c r="B43" s="59">
         <v>31417.200000000001</v>
       </c>
-      <c r="C43" s="67">
+      <c r="C43" s="55">
         <v>21898.7</v>
       </c>
-      <c r="D43" s="67">
+      <c r="D43" s="55">
         <v>22028.5</v>
       </c>
-      <c r="E43" s="67">
+      <c r="E43" s="55">
         <v>31603.5</v>
       </c>
-      <c r="F43" s="71">
+      <c r="F43" s="59">
         <v>139.26499999999999</v>
       </c>
-      <c r="G43" s="71">
+      <c r="G43" s="59">
         <v>143.46600000000001</v>
       </c>
-      <c r="H43" s="71">
+      <c r="H43" s="59">
         <v>21405.5</v>
       </c>
-      <c r="I43" s="71">
+      <c r="I43" s="59">
         <v>15370.3</v>
       </c>
-      <c r="J43" s="71">
+      <c r="J43" s="59">
         <v>3557.1</v>
       </c>
-      <c r="K43" s="71">
+      <c r="K43" s="59">
         <v>1407.7</v>
       </c>
-      <c r="L43" s="71">
+      <c r="L43" s="59">
         <v>2148.5</v>
       </c>
-      <c r="M43" s="71">
+      <c r="M43" s="59">
         <v>5346.4</v>
       </c>
-      <c r="N43" s="71">
+      <c r="N43" s="59">
         <v>1934.5</v>
       </c>
-      <c r="O43" s="71">
+      <c r="O43" s="59">
         <v>3412</v>
       </c>
-      <c r="P43" s="71">
+      <c r="P43" s="59">
         <v>335.59500000000003</v>
       </c>
-      <c r="Q43" s="71">
+      <c r="Q43" s="59">
         <v>4.4989999999999997</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>46660</v>
       </c>
-      <c r="B44" s="71">
+      <c r="B44" s="59">
         <v>31733.3</v>
       </c>
-      <c r="C44" s="67">
+      <c r="C44" s="55">
         <v>22010</v>
       </c>
-      <c r="D44" s="67">
+      <c r="D44" s="55">
         <v>22131</v>
       </c>
-      <c r="E44" s="67">
+      <c r="E44" s="55">
         <v>31907.7</v>
       </c>
-      <c r="F44" s="71">
+      <c r="F44" s="59">
         <v>139.959</v>
       </c>
-      <c r="G44" s="71">
+      <c r="G44" s="59">
         <v>144.17599999999999</v>
       </c>
-      <c r="H44" s="71">
+      <c r="H44" s="59">
         <v>21615.3</v>
       </c>
-      <c r="I44" s="71">
+      <c r="I44" s="59">
         <v>15443.9</v>
       </c>
-      <c r="J44" s="71">
+      <c r="J44" s="59">
         <v>3563.1</v>
       </c>
-      <c r="K44" s="71">
+      <c r="K44" s="59">
         <v>1409.1</v>
       </c>
-      <c r="L44" s="71">
+      <c r="L44" s="59">
         <v>2153</v>
       </c>
-      <c r="M44" s="71">
+      <c r="M44" s="59">
         <v>5389.4</v>
       </c>
-      <c r="N44" s="71">
+      <c r="N44" s="59">
         <v>1946.2</v>
       </c>
-      <c r="O44" s="71">
+      <c r="O44" s="59">
         <v>3443.2</v>
       </c>
-      <c r="P44" s="71">
+      <c r="P44" s="59">
         <v>337.35700000000003</v>
       </c>
-      <c r="Q44" s="71">
+      <c r="Q44" s="59">
         <v>4.4870000000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>46752</v>
       </c>
-      <c r="B45" s="71">
+      <c r="B45" s="59">
         <v>32050.3</v>
       </c>
-      <c r="C45" s="67">
+      <c r="C45" s="55">
         <v>22119.599999999999</v>
       </c>
-      <c r="D45" s="67">
+      <c r="D45" s="55">
         <v>22234.400000000001</v>
       </c>
-      <c r="E45" s="67">
+      <c r="E45" s="55">
         <v>32216.6</v>
       </c>
-      <c r="F45" s="71">
+      <c r="F45" s="59">
         <v>140.65700000000001</v>
       </c>
-      <c r="G45" s="71">
+      <c r="G45" s="59">
         <v>144.89500000000001</v>
       </c>
-      <c r="H45" s="71">
+      <c r="H45" s="59">
         <v>21828.9</v>
       </c>
-      <c r="I45" s="71">
+      <c r="I45" s="59">
         <v>15519.2</v>
       </c>
-      <c r="J45" s="71">
+      <c r="J45" s="59">
         <v>3568.8</v>
       </c>
-      <c r="K45" s="71">
+      <c r="K45" s="59">
         <v>1410.5</v>
       </c>
-      <c r="L45" s="71">
+      <c r="L45" s="59">
         <v>2157.1999999999998</v>
       </c>
-      <c r="M45" s="71">
+      <c r="M45" s="59">
         <v>5433</v>
       </c>
-      <c r="N45" s="71">
+      <c r="N45" s="59">
         <v>1958.4</v>
       </c>
-      <c r="O45" s="71">
+      <c r="O45" s="59">
         <v>3474.5</v>
       </c>
-      <c r="P45" s="71">
+      <c r="P45" s="59">
         <v>339.16300000000001</v>
       </c>
-      <c r="Q45" s="71">
+      <c r="Q45" s="59">
         <v>4.476</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>46843</v>
       </c>
-      <c r="B46" s="71">
+      <c r="B46" s="59">
         <v>32366.7</v>
       </c>
-      <c r="C46" s="67">
+      <c r="C46" s="55">
         <v>22226.2</v>
       </c>
-      <c r="D46" s="67">
+      <c r="D46" s="55">
         <v>22338.5</v>
       </c>
-      <c r="E46" s="67">
+      <c r="E46" s="55">
         <v>32530.3</v>
       </c>
-      <c r="F46" s="71">
+      <c r="F46" s="59">
         <v>141.36099999999999</v>
       </c>
-      <c r="G46" s="71">
+      <c r="G46" s="59">
         <v>145.624</v>
       </c>
-      <c r="H46" s="71">
+      <c r="H46" s="59">
         <v>22045.1</v>
       </c>
-      <c r="I46" s="71">
+      <c r="I46" s="59">
         <v>15594.8</v>
       </c>
-      <c r="J46" s="71">
+      <c r="J46" s="59">
         <v>3574.5</v>
       </c>
-      <c r="K46" s="71">
+      <c r="K46" s="59">
         <v>1411.7</v>
       </c>
-      <c r="L46" s="71">
+      <c r="L46" s="59">
         <v>2161.6</v>
       </c>
-      <c r="M46" s="71">
+      <c r="M46" s="59">
         <v>5477.2</v>
       </c>
-      <c r="N46" s="71">
+      <c r="N46" s="59">
         <v>1970.3</v>
       </c>
-      <c r="O46" s="71">
+      <c r="O46" s="59">
         <v>3506.9</v>
       </c>
-      <c r="P46" s="71">
+      <c r="P46" s="59">
         <v>341.01100000000002</v>
       </c>
-      <c r="Q46" s="71">
+      <c r="Q46" s="59">
         <v>4.4669999999999996</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>46934</v>
       </c>
-      <c r="B47" s="71">
+      <c r="B47" s="59">
         <v>32683.200000000001</v>
       </c>
-      <c r="C47" s="67">
+      <c r="C47" s="55">
         <v>22331.599999999999</v>
       </c>
-      <c r="D47" s="67">
+      <c r="D47" s="55">
         <v>22443.7</v>
       </c>
-      <c r="E47" s="67">
+      <c r="E47" s="55">
         <v>32847.300000000003</v>
       </c>
-      <c r="F47" s="71">
+      <c r="F47" s="59">
         <v>142.06800000000001</v>
       </c>
-      <c r="G47" s="71">
+      <c r="G47" s="59">
         <v>146.35400000000001</v>
       </c>
-      <c r="H47" s="71">
+      <c r="H47" s="59">
         <v>22256.799999999999</v>
       </c>
-      <c r="I47" s="71">
+      <c r="I47" s="59">
         <v>15666.3</v>
       </c>
-      <c r="J47" s="71">
+      <c r="J47" s="59">
         <v>3580</v>
       </c>
-      <c r="K47" s="71">
+      <c r="K47" s="59">
         <v>1412.6</v>
       </c>
-      <c r="L47" s="71">
+      <c r="L47" s="59">
         <v>2166</v>
       </c>
-      <c r="M47" s="71">
+      <c r="M47" s="59">
         <v>5521.7</v>
       </c>
-      <c r="N47" s="71">
+      <c r="N47" s="59">
         <v>1981.9</v>
       </c>
-      <c r="O47" s="71">
+      <c r="O47" s="59">
         <v>3539.8</v>
       </c>
-      <c r="P47" s="71">
+      <c r="P47" s="59">
         <v>342.887</v>
       </c>
-      <c r="Q47" s="71">
+      <c r="Q47" s="59">
         <v>4.4649999999999999</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>47026</v>
       </c>
-      <c r="B48" s="71">
+      <c r="B48" s="59">
         <v>33001.4</v>
       </c>
-      <c r="C48" s="67">
+      <c r="C48" s="55">
         <v>22436.9</v>
       </c>
-      <c r="D48" s="67">
+      <c r="D48" s="55">
         <v>22549.599999999999</v>
       </c>
-      <c r="E48" s="67">
+      <c r="E48" s="55">
         <v>33167.199999999997</v>
       </c>
-      <c r="F48" s="71">
+      <c r="F48" s="59">
         <v>142.77600000000001</v>
       </c>
-      <c r="G48" s="71">
+      <c r="G48" s="59">
         <v>147.08500000000001</v>
       </c>
-      <c r="H48" s="71">
+      <c r="H48" s="59">
         <v>22472.9</v>
       </c>
-      <c r="I48" s="71">
+      <c r="I48" s="59">
         <v>15740</v>
       </c>
-      <c r="J48" s="71">
+      <c r="J48" s="59">
         <v>3585.2</v>
       </c>
-      <c r="K48" s="71">
+      <c r="K48" s="59">
         <v>1413.5</v>
       </c>
-      <c r="L48" s="71">
+      <c r="L48" s="59">
         <v>2170</v>
       </c>
-      <c r="M48" s="71">
+      <c r="M48" s="59">
         <v>5566.3</v>
       </c>
-      <c r="N48" s="71">
+      <c r="N48" s="59">
         <v>1993.5</v>
       </c>
-      <c r="O48" s="71">
+      <c r="O48" s="59">
         <v>3572.8</v>
       </c>
-      <c r="P48" s="71">
+      <c r="P48" s="59">
         <v>344.78899999999999</v>
       </c>
-      <c r="Q48" s="71">
+      <c r="Q48" s="59">
         <v>4.47</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>47118</v>
       </c>
-      <c r="B49" s="71">
+      <c r="B49" s="59">
         <v>33322.300000000003</v>
       </c>
-      <c r="C49" s="67">
+      <c r="C49" s="55">
         <v>22542.799999999999</v>
       </c>
-      <c r="D49" s="67">
+      <c r="D49" s="55">
         <v>22656.1</v>
       </c>
-      <c r="E49" s="67">
+      <c r="E49" s="55">
         <v>33489.699999999997</v>
       </c>
-      <c r="F49" s="71">
+      <c r="F49" s="59">
         <v>143.48400000000001</v>
       </c>
-      <c r="G49" s="71">
+      <c r="G49" s="59">
         <v>147.81700000000001</v>
       </c>
-      <c r="H49" s="71">
+      <c r="H49" s="59">
         <v>22691.200000000001</v>
       </c>
-      <c r="I49" s="71">
+      <c r="I49" s="59">
         <v>15814.4</v>
       </c>
-      <c r="J49" s="71">
+      <c r="J49" s="59">
         <v>3590</v>
       </c>
-      <c r="K49" s="71">
+      <c r="K49" s="59">
         <v>1414.4</v>
       </c>
-      <c r="L49" s="71">
+      <c r="L49" s="59">
         <v>2173.9</v>
       </c>
-      <c r="M49" s="71">
+      <c r="M49" s="59">
         <v>5610.9</v>
       </c>
-      <c r="N49" s="71">
+      <c r="N49" s="59">
         <v>2005.1</v>
       </c>
-      <c r="O49" s="71">
+      <c r="O49" s="59">
         <v>3605.8</v>
       </c>
-      <c r="P49" s="71">
+      <c r="P49" s="59">
         <v>346.714</v>
       </c>
-      <c r="Q49" s="71">
+      <c r="Q49" s="59">
         <v>4.4809999999999999</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>47208</v>
       </c>
-      <c r="B50" s="71">
+      <c r="B50" s="59">
         <v>33646.300000000003</v>
       </c>
-      <c r="C50" s="67">
+      <c r="C50" s="55">
         <v>22649</v>
       </c>
-      <c r="D50" s="67">
+      <c r="D50" s="55">
         <v>22762.9</v>
       </c>
-      <c r="E50" s="67">
+      <c r="E50" s="55">
         <v>33815.4</v>
       </c>
-      <c r="F50" s="71">
+      <c r="F50" s="59">
         <v>144.19499999999999</v>
       </c>
-      <c r="G50" s="71">
+      <c r="G50" s="59">
         <v>148.55500000000001</v>
       </c>
-      <c r="H50" s="71">
+      <c r="H50" s="59">
         <v>22913.599999999999</v>
       </c>
-      <c r="I50" s="71">
+      <c r="I50" s="59">
         <v>15890.6</v>
       </c>
-      <c r="J50" s="71">
+      <c r="J50" s="59">
         <v>3594.6</v>
       </c>
-      <c r="K50" s="71">
+      <c r="K50" s="59">
         <v>1415.1</v>
       </c>
-      <c r="L50" s="71">
+      <c r="L50" s="59">
         <v>2177.6</v>
       </c>
-      <c r="M50" s="71">
+      <c r="M50" s="59">
         <v>5655.6</v>
       </c>
-      <c r="N50" s="71">
+      <c r="N50" s="59">
         <v>2016.7</v>
       </c>
-      <c r="O50" s="71">
+      <c r="O50" s="59">
         <v>3638.9</v>
       </c>
-      <c r="P50" s="71">
+      <c r="P50" s="59">
         <v>348.65499999999997</v>
       </c>
-      <c r="Q50" s="71">
+      <c r="Q50" s="59">
         <v>4.4939999999999998</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>47299</v>
       </c>
-      <c r="B51" s="71">
+      <c r="B51" s="59">
         <v>33973</v>
       </c>
-      <c r="C51" s="67">
+      <c r="C51" s="55">
         <v>22755.5</v>
       </c>
-      <c r="D51" s="67">
+      <c r="D51" s="55">
         <v>22869.9</v>
       </c>
-      <c r="E51" s="67">
+      <c r="E51" s="55">
         <v>34143.699999999997</v>
       </c>
-      <c r="F51" s="71">
+      <c r="F51" s="59">
         <v>144.91</v>
       </c>
-      <c r="G51" s="71">
+      <c r="G51" s="59">
         <v>149.29499999999999</v>
       </c>
-      <c r="H51" s="71">
+      <c r="H51" s="59">
         <v>23144.6</v>
       </c>
-      <c r="I51" s="71">
+      <c r="I51" s="59">
         <v>15971.7</v>
       </c>
-      <c r="J51" s="71">
+      <c r="J51" s="59">
         <v>3599</v>
       </c>
-      <c r="K51" s="71">
+      <c r="K51" s="59">
         <v>1415.8</v>
       </c>
-      <c r="L51" s="71">
+      <c r="L51" s="59">
         <v>2181.1</v>
       </c>
-      <c r="M51" s="71">
+      <c r="M51" s="59">
         <v>5700.6</v>
       </c>
-      <c r="N51" s="71">
+      <c r="N51" s="59">
         <v>2028.4</v>
       </c>
-      <c r="O51" s="71">
+      <c r="O51" s="59">
         <v>3672.2</v>
       </c>
-      <c r="P51" s="71">
+      <c r="P51" s="59">
         <v>350.61</v>
       </c>
-      <c r="Q51" s="71">
+      <c r="Q51" s="59">
         <v>4.5039999999999996</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>47391</v>
       </c>
-      <c r="B52" s="71">
+      <c r="B52" s="59">
         <v>34301.599999999999</v>
       </c>
-      <c r="C52" s="67">
+      <c r="C52" s="55">
         <v>22861.8</v>
       </c>
-      <c r="D52" s="67">
+      <c r="D52" s="55">
         <v>22976.7</v>
       </c>
-      <c r="E52" s="67">
+      <c r="E52" s="55">
         <v>34474</v>
       </c>
-      <c r="F52" s="71">
+      <c r="F52" s="59">
         <v>145.62700000000001</v>
       </c>
-      <c r="G52" s="71">
+      <c r="G52" s="59">
         <v>150.03899999999999</v>
       </c>
-      <c r="H52" s="71">
+      <c r="H52" s="59">
         <v>23376.1</v>
       </c>
-      <c r="I52" s="71">
+      <c r="I52" s="59">
         <v>16051.9</v>
       </c>
-      <c r="J52" s="71">
+      <c r="J52" s="59">
         <v>3603.2</v>
       </c>
-      <c r="K52" s="71">
+      <c r="K52" s="59">
         <v>1416.6</v>
       </c>
-      <c r="L52" s="71">
+      <c r="L52" s="59">
         <v>2184.4</v>
       </c>
-      <c r="M52" s="71">
+      <c r="M52" s="59">
         <v>5745.6</v>
       </c>
-      <c r="N52" s="71">
+      <c r="N52" s="59">
         <v>2040.1</v>
       </c>
-      <c r="O52" s="71">
+      <c r="O52" s="59">
         <v>3705.4</v>
       </c>
-      <c r="P52" s="71">
+      <c r="P52" s="59">
         <v>352.58</v>
       </c>
-      <c r="Q52" s="71">
+      <c r="Q52" s="59">
         <v>4.5119999999999996</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>47483</v>
       </c>
-      <c r="B53" s="71">
+      <c r="B53" s="59">
         <v>34632</v>
       </c>
-      <c r="C53" s="67">
+      <c r="C53" s="55">
         <v>22967.7</v>
       </c>
-      <c r="D53" s="67">
+      <c r="D53" s="55">
         <v>23083.1</v>
       </c>
-      <c r="E53" s="67">
+      <c r="E53" s="55">
         <v>34806</v>
       </c>
-      <c r="F53" s="71">
+      <c r="F53" s="59">
         <v>146.34700000000001</v>
       </c>
-      <c r="G53" s="71">
+      <c r="G53" s="59">
         <v>150.785</v>
       </c>
-      <c r="H53" s="71">
+      <c r="H53" s="59">
         <v>23606.9</v>
       </c>
-      <c r="I53" s="71">
+      <c r="I53" s="59">
         <v>16130.7</v>
       </c>
-      <c r="J53" s="71">
+      <c r="J53" s="59">
         <v>3607.6</v>
       </c>
-      <c r="K53" s="71">
+      <c r="K53" s="59">
         <v>1417.6</v>
       </c>
-      <c r="L53" s="71">
+      <c r="L53" s="59">
         <v>2187.6999999999998</v>
       </c>
-      <c r="M53" s="71">
+      <c r="M53" s="59">
         <v>5791.3</v>
       </c>
-      <c r="N53" s="71">
+      <c r="N53" s="59">
         <v>2052.3000000000002</v>
       </c>
-      <c r="O53" s="71">
+      <c r="O53" s="59">
         <v>3738.9</v>
       </c>
-      <c r="P53" s="71">
+      <c r="P53" s="59">
         <v>354.565</v>
       </c>
-      <c r="Q53" s="71">
+      <c r="Q53" s="59">
         <v>4.5190000000000001</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>47573</v>
       </c>
-      <c r="B54" s="71">
+      <c r="B54" s="59">
         <v>34964.400000000001</v>
       </c>
-      <c r="C54" s="67">
+      <c r="C54" s="55">
         <v>23073.3</v>
       </c>
-      <c r="D54" s="67">
+      <c r="D54" s="55">
         <v>23189.3</v>
       </c>
-      <c r="E54" s="67">
+      <c r="E54" s="55">
         <v>35140.1</v>
       </c>
-      <c r="F54" s="71">
+      <c r="F54" s="59">
         <v>147.07</v>
       </c>
-      <c r="G54" s="71">
+      <c r="G54" s="59">
         <v>151.535</v>
       </c>
-      <c r="H54" s="71">
+      <c r="H54" s="59">
         <v>23841.3</v>
       </c>
-      <c r="I54" s="71">
+      <c r="I54" s="59">
         <v>16210.9</v>
       </c>
-      <c r="J54" s="71">
+      <c r="J54" s="59">
         <v>3611.8</v>
       </c>
-      <c r="K54" s="71">
+      <c r="K54" s="59">
         <v>1418.6</v>
       </c>
-      <c r="L54" s="71">
+      <c r="L54" s="59">
         <v>2190.8000000000002</v>
       </c>
-      <c r="M54" s="71">
+      <c r="M54" s="59">
         <v>5837.1</v>
       </c>
-      <c r="N54" s="71">
+      <c r="N54" s="59">
         <v>2064.5</v>
       </c>
-      <c r="O54" s="71">
+      <c r="O54" s="59">
         <v>3772.6</v>
       </c>
-      <c r="P54" s="71">
+      <c r="P54" s="59">
         <v>356.56</v>
       </c>
-      <c r="Q54" s="71">
+      <c r="Q54" s="59">
         <v>4.524</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>47664</v>
       </c>
-      <c r="B55" s="71">
+      <c r="B55" s="59">
         <v>35298.800000000003</v>
       </c>
-      <c r="C55" s="67">
+      <c r="C55" s="55">
         <v>23178.9</v>
       </c>
-      <c r="D55" s="67">
+      <c r="D55" s="55">
         <v>23295.4</v>
       </c>
-      <c r="E55" s="67">
+      <c r="E55" s="55">
         <v>35476.199999999997</v>
       </c>
-      <c r="F55" s="71">
+      <c r="F55" s="59">
         <v>147.79400000000001</v>
       </c>
-      <c r="G55" s="71">
+      <c r="G55" s="59">
         <v>152.28800000000001</v>
       </c>
-      <c r="H55" s="71">
+      <c r="H55" s="59">
         <v>24076.799999999999</v>
       </c>
-      <c r="I55" s="71">
+      <c r="I55" s="59">
         <v>16290.8</v>
       </c>
-      <c r="J55" s="71">
+      <c r="J55" s="59">
         <v>3615.8</v>
       </c>
-      <c r="K55" s="71">
+      <c r="K55" s="59">
         <v>1419.3</v>
       </c>
-      <c r="L55" s="71">
+      <c r="L55" s="59">
         <v>2194</v>
       </c>
-      <c r="M55" s="71">
+      <c r="M55" s="59">
         <v>5883</v>
       </c>
-      <c r="N55" s="71">
+      <c r="N55" s="59">
         <v>2076.5</v>
       </c>
-      <c r="O55" s="71">
+      <c r="O55" s="59">
         <v>3806.4</v>
       </c>
-      <c r="P55" s="71">
+      <c r="P55" s="59">
         <v>358.56799999999998</v>
       </c>
-      <c r="Q55" s="71">
+      <c r="Q55" s="59">
         <v>4.53</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>47756</v>
       </c>
-      <c r="B56" s="71">
+      <c r="B56" s="59">
         <v>35635.5</v>
       </c>
-      <c r="C56" s="67">
+      <c r="C56" s="55">
         <v>23284.5</v>
       </c>
-      <c r="D56" s="67">
+      <c r="D56" s="55">
         <v>23401.5</v>
       </c>
-      <c r="E56" s="67">
+      <c r="E56" s="55">
         <v>35814.6</v>
       </c>
-      <c r="F56" s="71">
+      <c r="F56" s="59">
         <v>148.52000000000001</v>
       </c>
-      <c r="G56" s="71">
+      <c r="G56" s="59">
         <v>153.04300000000001</v>
       </c>
-      <c r="H56" s="71">
+      <c r="H56" s="59">
         <v>24314.400000000001</v>
       </c>
-      <c r="I56" s="71">
+      <c r="I56" s="59">
         <v>16371</v>
       </c>
-      <c r="J56" s="71">
+      <c r="J56" s="59">
         <v>3619.8</v>
       </c>
-      <c r="K56" s="71">
+      <c r="K56" s="59">
         <v>1420.1</v>
       </c>
-      <c r="L56" s="71">
+      <c r="L56" s="59">
         <v>2197.1</v>
       </c>
-      <c r="M56" s="71">
+      <c r="M56" s="59">
         <v>5929.1</v>
       </c>
-      <c r="N56" s="71">
+      <c r="N56" s="59">
         <v>2088.6</v>
       </c>
-      <c r="O56" s="71">
+      <c r="O56" s="59">
         <v>3840.5</v>
       </c>
-      <c r="P56" s="71">
+      <c r="P56" s="59">
         <v>360.58699999999999</v>
       </c>
-      <c r="Q56" s="71">
+      <c r="Q56" s="59">
         <v>4.5350000000000001</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>47848</v>
       </c>
-      <c r="B57" s="71">
+      <c r="B57" s="59">
         <v>35974.400000000001</v>
       </c>
-      <c r="C57" s="67">
+      <c r="C57" s="55">
         <v>23390.1</v>
       </c>
-      <c r="D57" s="67">
+      <c r="D57" s="55">
         <v>23507.599999999999</v>
       </c>
-      <c r="E57" s="67">
+      <c r="E57" s="55">
         <v>36155.199999999997</v>
       </c>
-      <c r="F57" s="71">
+      <c r="F57" s="59">
         <v>149.249</v>
       </c>
-      <c r="G57" s="71">
+      <c r="G57" s="59">
         <v>153.80199999999999</v>
       </c>
-      <c r="H57" s="71">
+      <c r="H57" s="59">
         <v>24553.200000000001</v>
       </c>
-      <c r="I57" s="71">
+      <c r="I57" s="59">
         <v>16451.2</v>
       </c>
-      <c r="J57" s="71">
+      <c r="J57" s="59">
         <v>3623.8</v>
       </c>
-      <c r="K57" s="71">
+      <c r="K57" s="59">
         <v>1420.9</v>
       </c>
-      <c r="L57" s="71">
+      <c r="L57" s="59">
         <v>2200.1999999999998</v>
       </c>
-      <c r="M57" s="71">
+      <c r="M57" s="59">
         <v>5975.5</v>
       </c>
-      <c r="N57" s="71">
+      <c r="N57" s="59">
         <v>2100.6999999999998</v>
       </c>
-      <c r="O57" s="71">
+      <c r="O57" s="59">
         <v>3874.8</v>
       </c>
-      <c r="P57" s="71">
+      <c r="P57" s="59">
         <v>362.61799999999999</v>
       </c>
-      <c r="Q57" s="71">
+      <c r="Q57" s="59">
         <v>4.5369999999999999</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>47938</v>
       </c>
-      <c r="B58" s="71">
+      <c r="B58" s="59">
         <v>36315.4</v>
       </c>
-      <c r="C58" s="67">
+      <c r="C58" s="55">
         <v>23495.599999999999</v>
       </c>
-      <c r="D58" s="67">
+      <c r="D58" s="55">
         <v>23613.7</v>
       </c>
-      <c r="E58" s="67">
+      <c r="E58" s="55">
         <v>36497.9</v>
       </c>
-      <c r="F58" s="71">
+      <c r="F58" s="59">
         <v>149.97900000000001</v>
       </c>
-      <c r="G58" s="71">
+      <c r="G58" s="59">
         <v>154.56200000000001</v>
       </c>
-      <c r="H58" s="71">
+      <c r="H58" s="59">
         <v>24795.8</v>
       </c>
-      <c r="I58" s="71">
+      <c r="I58" s="59">
         <v>16532.8</v>
       </c>
-      <c r="J58" s="71">
+      <c r="J58" s="59">
         <v>3627.5</v>
       </c>
-      <c r="K58" s="71">
+      <c r="K58" s="59">
         <v>1421.4</v>
       </c>
-      <c r="L58" s="71">
+      <c r="L58" s="59">
         <v>2203.1999999999998</v>
       </c>
-      <c r="M58" s="71">
+      <c r="M58" s="59">
         <v>6022</v>
       </c>
-      <c r="N58" s="71">
+      <c r="N58" s="59">
         <v>2112.6999999999998</v>
       </c>
-      <c r="O58" s="71">
+      <c r="O58" s="59">
         <v>3909.3</v>
       </c>
-      <c r="P58" s="71">
+      <c r="P58" s="59">
         <v>364.66199999999998</v>
       </c>
-      <c r="Q58" s="71">
+      <c r="Q58" s="59">
         <v>4.5350000000000001</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>48029</v>
       </c>
-      <c r="B59" s="71">
+      <c r="B59" s="59">
         <v>36658.300000000003</v>
       </c>
-      <c r="C59" s="67">
+      <c r="C59" s="55">
         <v>23601.200000000001</v>
       </c>
-      <c r="D59" s="67">
+      <c r="D59" s="55">
         <v>23719.8</v>
       </c>
-      <c r="E59" s="67">
+      <c r="E59" s="55">
         <v>36842.5</v>
       </c>
-      <c r="F59" s="71">
+      <c r="F59" s="59">
         <v>150.71199999999999</v>
       </c>
-      <c r="G59" s="71">
+      <c r="G59" s="59">
         <v>155.32400000000001</v>
       </c>
-      <c r="H59" s="71">
+      <c r="H59" s="59">
         <v>25042.2</v>
       </c>
-      <c r="I59" s="71">
+      <c r="I59" s="59">
         <v>16615.900000000001</v>
       </c>
-      <c r="J59" s="71">
+      <c r="J59" s="59">
         <v>3631.3</v>
       </c>
-      <c r="K59" s="71">
+      <c r="K59" s="59">
         <v>1422</v>
       </c>
-      <c r="L59" s="71">
+      <c r="L59" s="59">
         <v>2206.3000000000002</v>
       </c>
-      <c r="M59" s="71">
+      <c r="M59" s="59">
         <v>6068.7</v>
       </c>
-      <c r="N59" s="71">
+      <c r="N59" s="59">
         <v>2124.6999999999998</v>
       </c>
-      <c r="O59" s="71">
+      <c r="O59" s="59">
         <v>3944</v>
       </c>
-      <c r="P59" s="71">
+      <c r="P59" s="59">
         <v>366.71699999999998</v>
       </c>
-      <c r="Q59" s="71">
+      <c r="Q59" s="59">
         <v>4.53</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>48121</v>
       </c>
-      <c r="B60" s="71">
+      <c r="B60" s="59">
         <v>37003.199999999997</v>
       </c>
-      <c r="C60" s="67">
+      <c r="C60" s="55">
         <v>23706.7</v>
       </c>
-      <c r="D60" s="67">
+      <c r="D60" s="55">
         <v>23825.8</v>
       </c>
-      <c r="E60" s="67">
+      <c r="E60" s="55">
         <v>37189.199999999997</v>
       </c>
-      <c r="F60" s="71">
+      <c r="F60" s="59">
         <v>151.446</v>
       </c>
-      <c r="G60" s="71">
+      <c r="G60" s="59">
         <v>156.08699999999999</v>
       </c>
-      <c r="H60" s="71">
+      <c r="H60" s="59">
         <v>25291.9</v>
       </c>
-      <c r="I60" s="71">
+      <c r="I60" s="59">
         <v>16700.2</v>
       </c>
-      <c r="J60" s="71">
+      <c r="J60" s="59">
         <v>3635.1</v>
       </c>
-      <c r="K60" s="71">
+      <c r="K60" s="59">
         <v>1422.6</v>
       </c>
-      <c r="L60" s="71">
+      <c r="L60" s="59">
         <v>2209.3000000000002</v>
       </c>
-      <c r="M60" s="71">
+      <c r="M60" s="59">
         <v>6115.8</v>
       </c>
-      <c r="N60" s="71">
+      <c r="N60" s="59">
         <v>2136.6999999999998</v>
       </c>
-      <c r="O60" s="71">
+      <c r="O60" s="59">
         <v>3979</v>
       </c>
-      <c r="P60" s="71">
+      <c r="P60" s="59">
         <v>368.786</v>
       </c>
-      <c r="Q60" s="71">
+      <c r="Q60" s="59">
         <v>4.5250000000000004</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>48213</v>
       </c>
-      <c r="B61" s="71">
+      <c r="B61" s="59">
         <v>37350.199999999997</v>
       </c>
-      <c r="C61" s="67">
+      <c r="C61" s="55">
         <v>23812.2</v>
       </c>
-      <c r="D61" s="67">
+      <c r="D61" s="55">
         <v>23931.9</v>
       </c>
-      <c r="E61" s="67">
+      <c r="E61" s="55">
         <v>37537.9</v>
       </c>
-      <c r="F61" s="71">
+      <c r="F61" s="59">
         <v>152.18299999999999</v>
       </c>
-      <c r="G61" s="71">
+      <c r="G61" s="59">
         <v>156.85300000000001</v>
       </c>
-      <c r="H61" s="71">
+      <c r="H61" s="59">
         <v>25550.2</v>
       </c>
-      <c r="I61" s="71">
+      <c r="I61" s="59">
         <v>16789.099999999999</v>
       </c>
-      <c r="J61" s="71">
+      <c r="J61" s="59">
         <v>3634.9</v>
       </c>
-      <c r="K61" s="71">
+      <c r="K61" s="59">
         <v>1418.9</v>
       </c>
-      <c r="L61" s="71">
+      <c r="L61" s="59">
         <v>2212.3000000000002</v>
       </c>
-      <c r="M61" s="71">
+      <c r="M61" s="59">
         <v>6156.4</v>
       </c>
-      <c r="N61" s="71">
+      <c r="N61" s="59">
         <v>2142.3000000000002</v>
       </c>
-      <c r="O61" s="71">
+      <c r="O61" s="59">
         <v>4014</v>
       </c>
-      <c r="P61" s="71">
+      <c r="P61" s="59">
         <v>370.86599999999999</v>
       </c>
-      <c r="Q61" s="71">
+      <c r="Q61" s="59">
         <v>4.5190000000000001</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>48304</v>
       </c>
-      <c r="B62" s="71">
+      <c r="B62" s="59">
         <v>37698.300000000003</v>
       </c>
-      <c r="C62" s="67">
+      <c r="C62" s="55">
         <v>23917.7</v>
       </c>
-      <c r="D62" s="67">
+      <c r="D62" s="55">
         <v>24037.9</v>
       </c>
-      <c r="E62" s="67">
+      <c r="E62" s="55">
         <v>37887.699999999997</v>
       </c>
-      <c r="F62" s="71">
+      <c r="F62" s="59">
         <v>152.92099999999999</v>
       </c>
-      <c r="G62" s="71">
+      <c r="G62" s="59">
         <v>157.61699999999999</v>
       </c>
-      <c r="H62" s="71">
+      <c r="H62" s="59">
         <v>25809.3</v>
       </c>
-      <c r="I62" s="71">
+      <c r="I62" s="59">
         <v>16877.400000000001</v>
       </c>
-      <c r="J62" s="71">
+      <c r="J62" s="59">
         <v>3636.5</v>
       </c>
-      <c r="K62" s="71">
+      <c r="K62" s="59">
         <v>1417</v>
       </c>
-      <c r="L62" s="71">
+      <c r="L62" s="59">
         <v>2215.3000000000002</v>
       </c>
-      <c r="M62" s="71">
+      <c r="M62" s="59">
         <v>6200.4</v>
       </c>
-      <c r="N62" s="71">
+      <c r="N62" s="59">
         <v>2150.8000000000002</v>
       </c>
-      <c r="O62" s="71">
+      <c r="O62" s="59">
         <v>4049.5</v>
       </c>
-      <c r="P62" s="71">
+      <c r="P62" s="59">
         <v>372.96</v>
       </c>
-      <c r="Q62" s="71">
+      <c r="Q62" s="59">
         <v>4.5140000000000002</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>48395</v>
       </c>
-      <c r="B63" s="71">
+      <c r="B63" s="59">
         <v>38048.300000000003</v>
       </c>
-      <c r="C63" s="67">
+      <c r="C63" s="55">
         <v>24023</v>
       </c>
-      <c r="D63" s="67">
+      <c r="D63" s="55">
         <v>24143.7</v>
       </c>
-      <c r="E63" s="67">
+      <c r="E63" s="55">
         <v>38239.5</v>
       </c>
-      <c r="F63" s="71">
+      <c r="F63" s="59">
         <v>153.66300000000001</v>
       </c>
-      <c r="G63" s="71">
+      <c r="G63" s="59">
         <v>158.38200000000001</v>
       </c>
-      <c r="H63" s="71">
+      <c r="H63" s="59">
         <v>26071</v>
       </c>
-      <c r="I63" s="71">
+      <c r="I63" s="59">
         <v>16966.3</v>
       </c>
-      <c r="J63" s="71">
+      <c r="J63" s="59">
         <v>3638.1</v>
       </c>
-      <c r="K63" s="71">
+      <c r="K63" s="59">
         <v>1415.2</v>
       </c>
-      <c r="L63" s="71">
+      <c r="L63" s="59">
         <v>2218.3000000000002</v>
       </c>
-      <c r="M63" s="71">
+      <c r="M63" s="59">
         <v>6244.6</v>
       </c>
-      <c r="N63" s="71">
+      <c r="N63" s="59">
         <v>2159.4</v>
       </c>
-      <c r="O63" s="71">
+      <c r="O63" s="59">
         <v>4085.2</v>
       </c>
-      <c r="P63" s="71">
+      <c r="P63" s="59">
         <v>375.06700000000001</v>
       </c>
-      <c r="Q63" s="71">
+      <c r="Q63" s="59">
         <v>4.508</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>48487</v>
       </c>
-      <c r="B64" s="71">
+      <c r="B64" s="59">
         <v>38399.800000000003</v>
       </c>
-      <c r="C64" s="67">
+      <c r="C64" s="55">
         <v>24128.2</v>
       </c>
-      <c r="D64" s="67">
+      <c r="D64" s="55">
         <v>24249.5</v>
       </c>
-      <c r="E64" s="67">
+      <c r="E64" s="55">
         <v>38592.800000000003</v>
       </c>
-      <c r="F64" s="71">
+      <c r="F64" s="59">
         <v>154.40700000000001</v>
       </c>
-      <c r="G64" s="71">
+      <c r="G64" s="59">
         <v>159.149</v>
       </c>
-      <c r="H64" s="71">
+      <c r="H64" s="59">
         <v>26333.1</v>
       </c>
-      <c r="I64" s="71">
+      <c r="I64" s="59">
         <v>17054.3</v>
       </c>
-      <c r="J64" s="71">
+      <c r="J64" s="59">
         <v>3639.8</v>
       </c>
-      <c r="K64" s="71">
+      <c r="K64" s="59">
         <v>1413.4</v>
       </c>
-      <c r="L64" s="71">
+      <c r="L64" s="59">
         <v>2221.4</v>
       </c>
-      <c r="M64" s="71">
+      <c r="M64" s="59">
         <v>6289.2</v>
       </c>
-      <c r="N64" s="71">
+      <c r="N64" s="59">
         <v>2168</v>
       </c>
-      <c r="O64" s="71">
+      <c r="O64" s="59">
         <v>4121.2</v>
       </c>
-      <c r="P64" s="71">
+      <c r="P64" s="59">
         <v>377.18700000000001</v>
       </c>
-      <c r="Q64" s="71">
+      <c r="Q64" s="59">
         <v>4.5030000000000001</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>48579</v>
       </c>
-      <c r="B65" s="71">
+      <c r="B65" s="59">
         <v>38753.199999999997</v>
       </c>
-      <c r="C65" s="67">
+      <c r="C65" s="55">
         <v>24233.3</v>
       </c>
-      <c r="D65" s="67">
+      <c r="D65" s="55">
         <v>24355.1</v>
       </c>
-      <c r="E65" s="67">
+      <c r="E65" s="55">
         <v>38948</v>
       </c>
-      <c r="F65" s="71">
+      <c r="F65" s="59">
         <v>155.15299999999999</v>
       </c>
-      <c r="G65" s="71">
+      <c r="G65" s="59">
         <v>159.917</v>
       </c>
-      <c r="H65" s="71">
+      <c r="H65" s="59">
         <v>26590.400000000001</v>
       </c>
-      <c r="I65" s="71">
+      <c r="I65" s="59">
         <v>17138.099999999999</v>
       </c>
-      <c r="J65" s="71">
+      <c r="J65" s="59">
         <v>3643.9</v>
       </c>
-      <c r="K65" s="71">
+      <c r="K65" s="59">
         <v>1414.2</v>
       </c>
-      <c r="L65" s="71">
+      <c r="L65" s="59">
         <v>2224.5</v>
       </c>
-      <c r="M65" s="71">
+      <c r="M65" s="59">
         <v>6338.2</v>
       </c>
-      <c r="N65" s="71">
+      <c r="N65" s="59">
         <v>2180.5</v>
       </c>
-      <c r="O65" s="71">
+      <c r="O65" s="59">
         <v>4157.7</v>
       </c>
-      <c r="P65" s="71">
+      <c r="P65" s="59">
         <v>379.32100000000003</v>
       </c>
-      <c r="Q65" s="71">
+      <c r="Q65" s="59">
         <v>4.4969999999999999</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>48669</v>
       </c>
-      <c r="B66" s="71">
+      <c r="B66" s="59">
         <v>39108.400000000001</v>
       </c>
-      <c r="C66" s="71">
+      <c r="C66" s="59">
         <v>24338.5</v>
       </c>
-      <c r="D66" s="71">
+      <c r="D66" s="59">
         <v>24460.799999999999</v>
       </c>
-      <c r="E66" s="71">
+      <c r="E66" s="59">
         <v>39304.9</v>
       </c>
-      <c r="F66" s="71">
+      <c r="F66" s="59">
         <v>155.90199999999999</v>
       </c>
-      <c r="G66" s="71">
+      <c r="G66" s="59">
         <v>160.685</v>
       </c>
-      <c r="H66" s="71">
+      <c r="H66" s="59">
         <v>26850.6</v>
       </c>
-      <c r="I66" s="71">
+      <c r="I66" s="59">
         <v>17222.7</v>
       </c>
-      <c r="J66" s="71">
+      <c r="J66" s="59">
         <v>3647.8</v>
       </c>
-      <c r="K66" s="71">
+      <c r="K66" s="59">
         <v>1414.8</v>
       </c>
-      <c r="L66" s="71">
+      <c r="L66" s="59">
         <v>2227.6</v>
       </c>
-      <c r="M66" s="71">
+      <c r="M66" s="59">
         <v>6386.6</v>
       </c>
-      <c r="N66" s="71">
+      <c r="N66" s="59">
         <v>2192.6</v>
       </c>
-      <c r="O66" s="71">
+      <c r="O66" s="59">
         <v>4194</v>
       </c>
-      <c r="P66" s="71">
+      <c r="P66" s="59">
         <v>381.46800000000002</v>
       </c>
-      <c r="Q66" s="71">
+      <c r="Q66" s="59">
         <v>4.4909999999999997</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>48760</v>
       </c>
-      <c r="B67" s="71">
+      <c r="B67" s="59">
         <v>39465.699999999997</v>
       </c>
-      <c r="C67" s="71">
+      <c r="C67" s="59">
         <v>24443.7</v>
       </c>
-      <c r="D67" s="71">
+      <c r="D67" s="59">
         <v>24566.5</v>
       </c>
-      <c r="E67" s="71">
+      <c r="E67" s="59">
         <v>39664</v>
       </c>
-      <c r="F67" s="71">
+      <c r="F67" s="59">
         <v>156.65299999999999</v>
       </c>
-      <c r="G67" s="71">
+      <c r="G67" s="59">
         <v>161.45500000000001</v>
       </c>
-      <c r="H67" s="71">
+      <c r="H67" s="59">
         <v>27112.3</v>
       </c>
-      <c r="I67" s="71">
+      <c r="I67" s="59">
         <v>17307.2</v>
       </c>
-      <c r="J67" s="71">
+      <c r="J67" s="59">
         <v>3651.7</v>
       </c>
-      <c r="K67" s="71">
+      <c r="K67" s="59">
         <v>1415.4</v>
       </c>
-      <c r="L67" s="71">
+      <c r="L67" s="59">
         <v>2230.8000000000002</v>
       </c>
-      <c r="M67" s="71">
+      <c r="M67" s="59">
         <v>6435.6</v>
       </c>
-      <c r="N67" s="71">
+      <c r="N67" s="59">
         <v>2204.6999999999998</v>
       </c>
-      <c r="O67" s="71">
+      <c r="O67" s="59">
         <v>4230.8</v>
       </c>
-      <c r="P67" s="71">
+      <c r="P67" s="59">
         <v>383.62900000000002</v>
       </c>
-      <c r="Q67" s="71">
+      <c r="Q67" s="59">
         <v>4.4850000000000003</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>48852</v>
       </c>
-      <c r="B68" s="71">
+      <c r="B68" s="59">
         <v>39825</v>
       </c>
-      <c r="C68" s="71">
+      <c r="C68" s="59">
         <v>24548.7</v>
       </c>
-      <c r="D68" s="71">
+      <c r="D68" s="59">
         <v>24672</v>
       </c>
-      <c r="E68" s="71">
+      <c r="E68" s="59">
         <v>40025.1</v>
       </c>
-      <c r="F68" s="71">
+      <c r="F68" s="59">
         <v>157.40700000000001</v>
       </c>
-      <c r="G68" s="71">
+      <c r="G68" s="59">
         <v>162.22800000000001</v>
       </c>
-      <c r="H68" s="71">
+      <c r="H68" s="59">
         <v>27375.7</v>
       </c>
-      <c r="I68" s="71">
+      <c r="I68" s="59">
         <v>17391.599999999999</v>
       </c>
-      <c r="J68" s="71">
+      <c r="J68" s="59">
         <v>3655.8</v>
       </c>
-      <c r="K68" s="71">
+      <c r="K68" s="59">
         <v>1416.1</v>
       </c>
-      <c r="L68" s="71">
+      <c r="L68" s="59">
         <v>2234.1</v>
       </c>
-      <c r="M68" s="71">
+      <c r="M68" s="59">
         <v>6485</v>
       </c>
-      <c r="N68" s="71">
+      <c r="N68" s="59">
         <v>2217</v>
       </c>
-      <c r="O68" s="71">
+      <c r="O68" s="59">
         <v>4268</v>
       </c>
-      <c r="P68" s="71">
+      <c r="P68" s="59">
         <v>385.80399999999997</v>
       </c>
-      <c r="Q68" s="71">
+      <c r="Q68" s="59">
         <v>4.4800000000000004</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>48944</v>
       </c>
-      <c r="B69" s="71">
+      <c r="B69" s="59">
         <v>40184.5</v>
       </c>
-      <c r="C69" s="71">
+      <c r="C69" s="59">
         <v>24653.4</v>
       </c>
-      <c r="D69" s="71">
+      <c r="D69" s="59">
         <v>24777.3</v>
       </c>
-      <c r="E69" s="71">
+      <c r="E69" s="59">
         <v>40386.5</v>
       </c>
-      <c r="F69" s="71">
+      <c r="F69" s="59">
         <v>158.16399999999999</v>
       </c>
-      <c r="G69" s="71">
+      <c r="G69" s="59">
         <v>162.99700000000001</v>
       </c>
-      <c r="H69" s="71">
+      <c r="H69" s="59">
         <v>27642.1</v>
       </c>
-      <c r="I69" s="71">
+      <c r="I69" s="59">
         <v>17476.900000000001</v>
       </c>
-      <c r="J69" s="71">
+      <c r="J69" s="59">
         <v>3660</v>
       </c>
-      <c r="K69" s="71">
+      <c r="K69" s="59">
         <v>1417</v>
       </c>
-      <c r="L69" s="71">
+      <c r="L69" s="59">
         <v>2237.1999999999998</v>
       </c>
-      <c r="M69" s="71">
+      <c r="M69" s="59">
         <v>6535.1</v>
       </c>
-      <c r="N69" s="71">
+      <c r="N69" s="59">
         <v>2229.6999999999998</v>
       </c>
-      <c r="O69" s="71">
+      <c r="O69" s="59">
         <v>4305.5</v>
       </c>
-      <c r="P69" s="71">
+      <c r="P69" s="59">
         <v>387.99200000000002</v>
       </c>
-      <c r="Q69" s="71">
+      <c r="Q69" s="59">
         <v>4.4729999999999999</v>
       </c>
     </row>
@@ -28863,44 +28906,44 @@
   <dimension ref="A1:M24"/>
   <sheetViews>
     <sheetView zoomScale="107" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>158</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="74" t="s">
         <v>159</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="74" t="s">
         <v>160</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="74" t="s">
         <v>161</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="74" t="s">
         <v>162</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="74" t="s">
         <v>163</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="74" t="s">
         <v>164</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="74" t="s">
         <v>165</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="74" t="s">
         <v>166</v>
       </c>
       <c r="J1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2017</v>
       </c>
@@ -28933,7 +28976,7 @@
         <v>31.2</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2018</v>
       </c>
@@ -28966,7 +29009,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2019</v>
       </c>
@@ -28999,7 +29042,7 @@
         <v>27.626999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2020</v>
       </c>
@@ -29032,7 +29075,7 @@
         <v>473.16500000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2021</v>
       </c>
@@ -29064,385 +29107,385 @@
         <v>59.15</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2022</v>
       </c>
-      <c r="B7" s="35">
-        <v>2828.8630000000003</v>
-      </c>
-      <c r="C7" s="34">
-        <v>2632.145</v>
+      <c r="B7">
+        <v>2870.6589999999997</v>
+      </c>
+      <c r="C7" s="75">
+        <v>2632.1460000000002</v>
       </c>
       <c r="D7" s="34">
-        <v>355.58100000000002</v>
-      </c>
-      <c r="E7" s="34">
-        <v>424.86700000000002</v>
-      </c>
-      <c r="F7" s="34">
-        <v>1483.5260000000001</v>
+        <v>356.86099999999999</v>
+      </c>
+      <c r="E7" s="75">
+        <v>424.86500000000001</v>
+      </c>
+      <c r="F7" s="75">
+        <v>1483.527</v>
       </c>
       <c r="G7" s="34">
-        <v>937.072</v>
+        <v>974.649</v>
       </c>
       <c r="H7" s="34">
-        <v>591.95000000000005</v>
-      </c>
-      <c r="I7" s="34">
-        <v>33.607999999999997</v>
+        <v>591.94899999999996</v>
+      </c>
+      <c r="I7" s="75">
+        <v>33.42</v>
       </c>
       <c r="J7" s="23">
         <v>38.14</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2023</v>
       </c>
-      <c r="B8" s="35">
-        <v>2845.7650000000003</v>
-      </c>
-      <c r="C8" s="34">
-        <v>2522.7190000000001</v>
+      <c r="B8">
+        <v>2888.1039999999994</v>
+      </c>
+      <c r="C8" s="75">
+        <v>2524.85</v>
       </c>
       <c r="D8" s="34">
-        <v>251.26499999999999</v>
-      </c>
-      <c r="E8" s="34">
+        <v>252.172</v>
+      </c>
+      <c r="E8" s="75">
         <v>475.38</v>
       </c>
-      <c r="F8" s="34">
+      <c r="F8" s="75">
         <v>1562.308</v>
       </c>
       <c r="G8" s="34">
-        <v>998.23700000000008</v>
+        <v>1007.94</v>
       </c>
       <c r="H8" s="34">
-        <v>589.41600000000005</v>
-      </c>
-      <c r="I8" s="34">
-        <v>36.939</v>
+        <v>594.28700000000003</v>
+      </c>
+      <c r="I8" s="75">
+        <v>35.064999999999998</v>
       </c>
       <c r="J8" s="23">
         <v>36.145000000000003</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2024</v>
       </c>
-      <c r="B9" s="35">
-        <v>3033.2420000000002</v>
-      </c>
-      <c r="C9" s="34">
-        <v>2467.0259999999998</v>
+      <c r="B9">
+        <v>2991.8819999999996</v>
+      </c>
+      <c r="C9" s="75">
+        <v>2474.6379999999999</v>
       </c>
       <c r="D9" s="34">
-        <v>259.96899999999999</v>
-      </c>
-      <c r="E9" s="34">
+        <v>261.43200000000002</v>
+      </c>
+      <c r="E9" s="75">
         <v>478.517</v>
       </c>
-      <c r="F9" s="34">
+      <c r="F9" s="75">
         <v>1632.9190000000001</v>
       </c>
       <c r="G9" s="34">
-        <v>1080.8440000000001</v>
+        <v>1012.097</v>
       </c>
       <c r="H9" s="34">
-        <v>538.94399999999996</v>
-      </c>
-      <c r="I9" s="34">
-        <v>49.883000000000003</v>
+        <v>538.49199999999996</v>
+      </c>
+      <c r="I9" s="75">
+        <v>48.832999999999998</v>
       </c>
       <c r="J9" s="23">
         <v>35.369999999999997</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2025</v>
       </c>
-      <c r="B10" s="35">
-        <v>3185.049</v>
-      </c>
-      <c r="C10" s="34">
-        <v>2510.951</v>
+      <c r="B10">
+        <v>3213.6779999999999</v>
+      </c>
+      <c r="C10" s="75">
+        <v>2516.848</v>
       </c>
       <c r="D10" s="34">
-        <v>264.053</v>
-      </c>
-      <c r="E10" s="34">
+        <v>266.22699999999998</v>
+      </c>
+      <c r="E10" s="75">
         <v>488.59100000000001</v>
       </c>
-      <c r="F10" s="34">
+      <c r="F10" s="75">
         <v>1702.7950000000001</v>
       </c>
       <c r="G10" s="34">
-        <v>1133.1199999999999</v>
+        <v>1128.174</v>
       </c>
       <c r="H10" s="34">
-        <v>535.17399999999998</v>
-      </c>
-      <c r="I10" s="34">
-        <v>47.795999999999999</v>
+        <v>536.51199999999994</v>
+      </c>
+      <c r="I10" s="75">
+        <v>47.930999999999997</v>
       </c>
       <c r="J10" s="23">
         <v>33.424999999999997</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2026</v>
       </c>
-      <c r="B11" s="35">
-        <v>3347.1309999999999</v>
-      </c>
-      <c r="C11" s="34">
-        <v>2764.1120000000001</v>
+      <c r="B11">
+        <v>3358.7740000000003</v>
+      </c>
+      <c r="C11" s="75">
+        <v>2768.2910000000002</v>
       </c>
       <c r="D11" s="34">
-        <v>272.80200000000002</v>
-      </c>
-      <c r="E11" s="34">
+        <v>275.62799999999999</v>
+      </c>
+      <c r="E11" s="75">
         <v>494.54199999999997</v>
       </c>
-      <c r="F11" s="34">
+      <c r="F11" s="75">
         <v>1778.4079999999999</v>
       </c>
       <c r="G11" s="34">
-        <v>1221.9949999999999</v>
+        <v>1200.9649999999999</v>
       </c>
       <c r="H11" s="34">
-        <v>572.28399999999999</v>
-      </c>
-      <c r="I11" s="34">
-        <v>47.585999999999999</v>
+        <v>574.03399999999999</v>
+      </c>
+      <c r="I11" s="75">
+        <v>47.662999999999997</v>
       </c>
       <c r="J11" s="23">
         <v>32.450000000000003</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2027</v>
       </c>
-      <c r="B12" s="35">
-        <v>3525.1359999999995</v>
-      </c>
-      <c r="C12" s="34">
-        <v>3017.8339999999998</v>
+      <c r="B12">
+        <v>3528.5050000000001</v>
+      </c>
+      <c r="C12" s="75">
+        <v>3018.96</v>
       </c>
       <c r="D12" s="34">
-        <v>292.99600000000004</v>
-      </c>
-      <c r="E12" s="34">
+        <v>295.37200000000001</v>
+      </c>
+      <c r="E12" s="75">
         <v>494.27699999999999</v>
       </c>
-      <c r="F12" s="34">
+      <c r="F12" s="75">
         <v>1849.482</v>
       </c>
       <c r="G12" s="34">
-        <v>1311.038</v>
+        <v>1290.059</v>
       </c>
       <c r="H12" s="34">
-        <v>611.38400000000001</v>
-      </c>
-      <c r="I12" s="34">
-        <v>48.134999999999998</v>
+        <v>613.12400000000002</v>
+      </c>
+      <c r="I12" s="75">
+        <v>48.295999999999999</v>
       </c>
       <c r="J12" s="23">
         <v>33.164999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2028</v>
       </c>
-      <c r="B13" s="35">
-        <v>3719.3239999999992</v>
-      </c>
-      <c r="C13" s="34">
-        <v>3121.471</v>
+      <c r="B13">
+        <v>3807.6110000000003</v>
+      </c>
+      <c r="C13" s="75">
+        <v>3122.78</v>
       </c>
       <c r="D13" s="34">
-        <v>368.69299999999998</v>
-      </c>
-      <c r="E13" s="34">
+        <v>370.39800000000002</v>
+      </c>
+      <c r="E13" s="75">
         <v>505.666</v>
       </c>
-      <c r="F13" s="34">
+      <c r="F13" s="75">
         <v>1920.4159999999999</v>
       </c>
       <c r="G13" s="34">
-        <v>1405.01</v>
+        <v>1459.932</v>
       </c>
       <c r="H13" s="34">
-        <v>648.851</v>
-      </c>
-      <c r="I13" s="34">
-        <v>46.277000000000001</v>
+        <v>650.25300000000004</v>
+      </c>
+      <c r="I13" s="75">
+        <v>49.445999999999998</v>
       </c>
       <c r="J13" s="23">
         <v>35.090000000000003</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2029</v>
       </c>
-      <c r="B14" s="35">
-        <v>3925.9989999999998</v>
-      </c>
-      <c r="C14" s="34">
-        <v>3246.0479999999998</v>
+      <c r="B14">
+        <v>3844.8139999999994</v>
+      </c>
+      <c r="C14" s="75">
+        <v>3247.703</v>
       </c>
       <c r="D14" s="34">
-        <v>385.65800000000002</v>
-      </c>
-      <c r="E14" s="34">
+        <v>387.233</v>
+      </c>
+      <c r="E14" s="75">
         <v>514.1</v>
       </c>
-      <c r="F14" s="34">
+      <c r="F14" s="75">
         <v>1993.2159999999999</v>
       </c>
       <c r="G14" s="34">
-        <v>1502.7280000000001</v>
+        <v>1402.376</v>
       </c>
       <c r="H14" s="34">
-        <v>688.97199999999998</v>
-      </c>
-      <c r="I14" s="34">
-        <v>48.280999999999999</v>
+        <v>690.32600000000002</v>
+      </c>
+      <c r="I14" s="75">
+        <v>48.981000000000002</v>
       </c>
       <c r="J14" s="23">
         <v>37.164999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2030</v>
       </c>
-      <c r="B15" s="35">
-        <v>4145.5839999999998</v>
-      </c>
-      <c r="C15" s="34">
-        <v>3377.4830000000002</v>
+      <c r="B15">
+        <v>4149.6720000000005</v>
+      </c>
+      <c r="C15" s="75">
+        <v>3379.645</v>
       </c>
       <c r="D15" s="34">
-        <v>398.149</v>
-      </c>
-      <c r="E15" s="34">
+        <v>399.61500000000001</v>
+      </c>
+      <c r="E15" s="75">
         <v>520.36</v>
       </c>
-      <c r="F15" s="34">
+      <c r="F15" s="75">
         <v>2068.1619999999998</v>
       </c>
       <c r="G15" s="34">
-        <v>1607.2349999999999</v>
+        <v>1586.6780000000001</v>
       </c>
       <c r="H15" s="34">
-        <v>731.78</v>
-      </c>
-      <c r="I15" s="34">
-        <v>50.331000000000003</v>
+        <v>733.11400000000003</v>
+      </c>
+      <c r="I15" s="75">
+        <v>51.081000000000003</v>
       </c>
       <c r="J15" s="23">
         <v>39.784999999999997</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2031</v>
       </c>
-      <c r="B16" s="35">
-        <v>4390.4080000000004</v>
-      </c>
-      <c r="C16" s="34">
-        <v>3514.779</v>
+      <c r="B16">
+        <v>4385.942</v>
+      </c>
+      <c r="C16" s="75">
+        <v>3517.4789999999998</v>
       </c>
       <c r="D16" s="34">
-        <v>414.47899999999998</v>
-      </c>
-      <c r="E16" s="34">
+        <v>415.78699999999998</v>
+      </c>
+      <c r="E16" s="75">
         <v>526.91200000000003</v>
       </c>
-      <c r="F16" s="34">
+      <c r="F16" s="75">
         <v>2146.652</v>
       </c>
       <c r="G16" s="34">
-        <v>1729.7629999999999</v>
+        <v>1701.896</v>
       </c>
       <c r="H16" s="34">
-        <v>775.31100000000004</v>
-      </c>
-      <c r="I16" s="34">
-        <v>52.173000000000002</v>
+        <v>776.64800000000002</v>
+      </c>
+      <c r="I16" s="75">
+        <v>52.962000000000003</v>
       </c>
       <c r="J16" s="23">
         <v>44.73</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2032</v>
       </c>
-      <c r="B17" s="35">
-        <v>4630.808</v>
-      </c>
-      <c r="C17" s="34">
-        <v>3649.5810000000001</v>
+      <c r="B17">
+        <v>4640.3609999999999</v>
+      </c>
+      <c r="C17" s="75">
+        <v>3652.27</v>
       </c>
       <c r="D17" s="34">
-        <v>434.58099999999996</v>
-      </c>
-      <c r="E17" s="34">
+        <v>435.815</v>
+      </c>
+      <c r="E17" s="75">
         <v>527.173</v>
       </c>
-      <c r="F17" s="34">
+      <c r="F17" s="75">
         <v>2226.1680000000001</v>
       </c>
       <c r="G17" s="34">
-        <v>1841.241</v>
+        <v>1827.884</v>
       </c>
       <c r="H17" s="34">
-        <v>825.77200000000005</v>
-      </c>
-      <c r="I17" s="34">
-        <v>53.786999999999999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+        <v>825.85199999999998</v>
+      </c>
+      <c r="I17" s="75">
+        <v>54.610999999999997</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2033</v>
       </c>
       <c r="B18">
-        <v>4915.7880000000005</v>
-      </c>
-      <c r="C18">
-        <v>3803.0410000000002</v>
+        <v>5030.5419999999995</v>
+      </c>
+      <c r="C18" s="75">
+        <v>3806.261</v>
       </c>
       <c r="D18">
-        <v>448.84899999999993</v>
-      </c>
-      <c r="E18">
+        <v>450.166</v>
+      </c>
+      <c r="E18" s="75">
         <v>539.30700000000002</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="75">
         <v>2306.5329999999999</v>
       </c>
       <c r="G18">
-        <v>2001.2230000000002</v>
+        <v>2087.83</v>
       </c>
       <c r="H18">
-        <v>878.55100000000004</v>
-      </c>
-      <c r="I18">
-        <v>55.387999999999998</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+        <v>878.55600000000004</v>
+      </c>
+      <c r="I18" s="75">
+        <v>56.253</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B24" s="35"/>
       <c r="C24" s="35"/>
       <c r="D24" s="35"/>
@@ -29469,9 +29512,9 @@
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -29482,7 +29525,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>43921</v>
       </c>
@@ -29493,7 +29536,7 @@
         <v>3.8639999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>44012</v>
       </c>
@@ -29504,7 +29547,7 @@
         <v>3.2149999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>44104</v>
       </c>
@@ -29515,7 +29558,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>44196</v>
       </c>
@@ -29526,7 +29569,7 @@
         <v>3.7440000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>44286</v>
       </c>
@@ -29537,7 +29580,7 @@
         <v>3.734</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>44377</v>
       </c>
@@ -29548,7 +29591,7 @@
         <v>3.7170000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>44469</v>
       </c>
@@ -29559,7 +29602,7 @@
         <v>3.72</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>44561</v>
       </c>
@@ -29570,7 +29613,7 @@
         <v>3.7509999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>44651</v>
       </c>
@@ -29581,7 +29624,7 @@
         <v>9.2159999999999993</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>44742</v>
       </c>
@@ -29592,7 +29635,7 @@
         <v>9.843</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>44834</v>
       </c>
@@ -29603,7 +29646,7 @@
         <v>7.6760000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>44926</v>
       </c>
@@ -29614,7 +29657,7 @@
         <v>5.7149999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>45016</v>
       </c>
@@ -29625,7 +29668,7 @@
         <v>4.9859999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>45107</v>
       </c>
@@ -29636,7 +29679,7 @@
         <v>4.2220000000000004</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>45199</v>
       </c>
@@ -29647,7 +29690,7 @@
         <v>3.7879999999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>45291</v>
       </c>
@@ -29658,7 +29701,7 @@
         <v>3.6309999999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>45382</v>
       </c>
@@ -29669,7 +29712,7 @@
         <v>3.5049999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>45473</v>
       </c>
@@ -29680,7 +29723,7 @@
         <v>3.4809999999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>45565</v>
       </c>
@@ -29691,7 +29734,7 @@
         <v>3.5430000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>45657</v>
       </c>
@@ -29702,7 +29745,7 @@
         <v>3.633</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>45747</v>
       </c>
@@ -29713,7 +29756,7 @@
         <v>3.8759999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>45838</v>
       </c>
@@ -29724,7 +29767,7 @@
         <v>3.98</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>45930</v>
       </c>
@@ -29735,7 +29778,7 @@
         <v>4.0709999999999997</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>46022</v>
       </c>
@@ -29746,7 +29789,7 @@
         <v>4.0750000000000002</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>46112</v>
       </c>
@@ -29757,7 +29800,7 @@
         <v>4.032</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>46203</v>
       </c>
@@ -29768,7 +29811,7 @@
         <v>3.9910000000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>46295</v>
       </c>
@@ -29779,7 +29822,7 @@
         <v>3.9529999999999998</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>46387</v>
       </c>
@@ -29790,7 +29833,7 @@
         <v>3.923</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>46477</v>
       </c>
@@ -29801,7 +29844,7 @@
         <v>3.8959999999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>46568</v>
       </c>
@@ -29812,7 +29855,7 @@
         <v>3.891</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>46660</v>
       </c>
@@ -29823,7 +29866,7 @@
         <v>3.8620000000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>46752</v>
       </c>
@@ -29834,7 +29877,7 @@
         <v>3.8380000000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>46843</v>
       </c>
@@ -29845,7 +29888,7 @@
         <v>3.8039999999999998</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>46934</v>
       </c>
@@ -29856,7 +29899,7 @@
         <v>3.7970000000000002</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>47026</v>
       </c>
@@ -29867,7 +29910,7 @@
         <v>3.78</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>47118</v>
       </c>
@@ -29878,7 +29921,7 @@
         <v>3.766</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>47208</v>
       </c>
@@ -29889,7 +29932,7 @@
         <v>3.74</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>47299</v>
       </c>
@@ -29900,7 +29943,7 @@
         <v>3.746</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>47391</v>
       </c>
@@ -29911,7 +29954,7 @@
         <v>3.7570000000000001</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>47483</v>
       </c>
@@ -29922,7 +29965,7 @@
         <v>3.7709999999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>47573</v>
       </c>
@@ -29933,7 +29976,7 @@
         <v>3.7749999999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>47664</v>
       </c>
@@ -29944,7 +29987,7 @@
         <v>3.7810000000000001</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>47756</v>
       </c>
@@ -29955,7 +29998,7 @@
         <v>3.7879999999999998</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>47848</v>
       </c>
@@ -29966,7 +30009,7 @@
         <v>3.7879999999999998</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>47938</v>
       </c>
@@ -29977,7 +30020,7 @@
         <v>3.8069999999999999</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>48029</v>
       </c>
@@ -29988,7 +30031,7 @@
         <v>3.7909999999999999</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>48121</v>
       </c>
@@ -29999,7 +30042,7 @@
         <v>3.7909999999999999</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>48213</v>
       </c>
@@ -30010,7 +30053,7 @@
         <v>3.7839999999999998</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B50" s="32">
         <v>2.3690000000000002</v>
       </c>
@@ -30018,7 +30061,7 @@
         <v>3.79</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B51" s="32">
         <v>2.37</v>
       </c>
@@ -30026,7 +30069,7 @@
         <v>3.7909999999999999</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B52" s="32">
         <v>2.371</v>
       </c>
@@ -30034,7 +30077,7 @@
         <v>3.7869999999999999</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B53" s="32">
         <v>2.4249999999999998</v>
       </c>
@@ -30055,23 +30098,23 @@
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.33203125" customWidth="1"/>
+    <col min="1" max="1" width="25.375" customWidth="1"/>
     <col min="2" max="2" width="32" customWidth="1"/>
-    <col min="3" max="3" width="50.33203125" customWidth="1"/>
+    <col min="3" max="3" width="50.375" customWidth="1"/>
     <col min="4" max="4" width="44" customWidth="1"/>
-    <col min="5" max="5" width="19.58203125" customWidth="1"/>
+    <col min="5" max="5" width="19.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="60" t="s">
+    <row r="1" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="68" t="s">
         <v>216</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>273</v>
       </c>
@@ -30085,7 +30128,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="37" t="s">
         <v>1</v>
       </c>
@@ -30103,7 +30146,7 @@
       <c r="G3" s="33"/>
       <c r="H3" s="33"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="37" t="s">
         <v>271</v>
       </c>
@@ -30121,7 +30164,7 @@
       <c r="G4" s="33"/>
       <c r="H4" s="33"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="37" t="s">
         <v>272</v>
       </c>
@@ -30139,7 +30182,7 @@
       <c r="G5" s="33"/>
       <c r="H5" s="33"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="37" t="s">
         <v>241</v>
       </c>
@@ -30157,7 +30200,7 @@
       <c r="G6" s="33"/>
       <c r="H6" s="33"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="37" t="s">
         <v>243</v>
       </c>
@@ -30177,7 +30220,7 @@
       <c r="G7" s="33"/>
       <c r="H7" s="33"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="37" t="s">
         <v>247</v>
       </c>
@@ -30197,7 +30240,7 @@
       <c r="G8" s="33"/>
       <c r="H8" s="33"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="37" t="s">
         <v>250</v>
       </c>
@@ -30215,7 +30258,7 @@
       <c r="G9" s="33"/>
       <c r="H9" s="33"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="37" t="s">
         <v>252</v>
       </c>
@@ -30237,7 +30280,7 @@
       <c r="G10" s="33"/>
       <c r="H10" s="33"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="37" t="s">
         <v>257</v>
       </c>
@@ -30255,7 +30298,7 @@
       <c r="G11" s="33"/>
       <c r="H11" s="33"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="37" t="s">
         <v>260</v>
       </c>
@@ -30273,7 +30316,7 @@
       <c r="G12" s="33"/>
       <c r="H12" s="33"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="37" t="s">
         <v>262</v>
       </c>
@@ -30291,7 +30334,7 @@
       <c r="G13" s="33"/>
       <c r="H13" s="33"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="37" t="s">
         <v>264</v>
       </c>
@@ -30309,7 +30352,7 @@
       <c r="G14" s="33"/>
       <c r="H14" s="33"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="37" t="s">
         <v>266</v>
       </c>
@@ -30327,7 +30370,7 @@
       <c r="G15" s="33"/>
       <c r="H15" s="33"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="37" t="s">
         <v>268</v>
       </c>
@@ -30345,7 +30388,7 @@
       <c r="G16" s="33"/>
       <c r="H16" s="33"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="37" t="s">
         <v>269</v>
       </c>
@@ -30363,7 +30406,7 @@
       <c r="G17" s="33"/>
       <c r="H17" s="33"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="37" t="s">
         <v>270</v>
       </c>
@@ -30381,14 +30424,14 @@
       <c r="G18" s="33"/>
       <c r="H18" s="33"/>
     </row>
-    <row r="21" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="61" t="s">
+    <row r="21" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="69" t="s">
         <v>226</v>
       </c>
-      <c r="B21" s="61"/>
-      <c r="C21" s="61"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B21" s="69"/>
+      <c r="C21" s="69"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>217</v>
       </c>
@@ -30396,7 +30439,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>219</v>
       </c>
@@ -30404,7 +30447,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>221</v>
       </c>
@@ -30412,7 +30455,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>223</v>
       </c>
@@ -30420,14 +30463,14 @@
         <v>224</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="61" t="s">
+    <row r="26" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="69" t="s">
         <v>225</v>
       </c>
-      <c r="B26" s="61"/>
-      <c r="C26" s="61"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B26" s="69"/>
+      <c r="C26" s="69"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>227</v>
       </c>
@@ -30435,7 +30478,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>228</v>
       </c>
@@ -30443,7 +30486,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>229</v>
       </c>
@@ -30451,7 +30494,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>230</v>
       </c>
@@ -30478,9 +30521,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -30488,7 +30531,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>197</v>
       </c>
@@ -30496,7 +30539,7 @@
         <v>0.66513142470107067</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>198</v>
       </c>
@@ -30504,7 +30547,7 @@
         <v>0.66892566614130466</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>199</v>
       </c>
@@ -30512,7 +30555,7 @@
         <v>0.65283836530948725</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>200</v>
       </c>
@@ -30520,7 +30563,7 @@
         <v>0.65953557146217701</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>201</v>
       </c>
@@ -30528,7 +30571,7 @@
         <v>0.66058231423538405</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>202</v>
       </c>
@@ -30536,7 +30579,7 @@
         <v>0.6749214177505789</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>203</v>
       </c>
@@ -30544,7 +30587,7 @@
         <v>0.68242012696430432</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>204</v>
       </c>
@@ -30552,7 +30595,7 @@
         <v>0.6730637268687778</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>205</v>
       </c>
@@ -30560,7 +30603,7 @@
         <v>0.66424643423393748</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>206</v>
       </c>
@@ -30568,7 +30611,7 @@
         <v>0.67846773573296415</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>207</v>
       </c>
@@ -30576,7 +30619,7 @@
         <v>0.76648081779484256</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>208</v>
       </c>
@@ -30584,7 +30627,7 @@
         <v>0.71094027669909299</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>209</v>
       </c>
@@ -30592,7 +30635,7 @@
         <v>0.75054511245142341</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>185</v>
       </c>
@@ -30600,7 +30643,7 @@
         <v>0.7533823239283487</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>186</v>
       </c>
@@ -30611,7 +30654,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>187</v>
       </c>
@@ -30619,7 +30662,7 @@
         <v>0.75196371818988605</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>188</v>
       </c>
@@ -30627,7 +30670,7 @@
         <v>0.75196371818988605</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>189</v>
       </c>
@@ -30635,7 +30678,7 @@
         <v>0.75196371818988605</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>190</v>
       </c>
@@ -30643,7 +30686,7 @@
         <v>0.75196371818988605</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>191</v>
       </c>
@@ -30651,7 +30694,7 @@
         <v>0.67274689645476105</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>192</v>
       </c>
@@ -30659,7 +30702,7 @@
         <v>0.67274689645476138</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>193</v>
       </c>
@@ -30667,7 +30710,7 @@
         <v>0.67274689645476138</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>194</v>
       </c>
@@ -30675,7 +30718,7 @@
         <v>0.67274689645476138</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>195</v>
       </c>
@@ -30683,7 +30726,7 @@
         <v>0.67274689645476138</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>196</v>
       </c>
@@ -30691,7 +30734,7 @@
         <v>0.67274689645476138</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>210</v>
       </c>
@@ -30712,9 +30755,9 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>158</v>
       </c>
@@ -30722,7 +30765,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="29">
         <v>2019</v>
       </c>
@@ -30730,7 +30773,7 @@
         <v>0.67300000000000004</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="29">
         <v>2020</v>
       </c>
@@ -30738,7 +30781,7 @@
         <v>0.70499999999999996</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="29">
         <v>2021</v>
       </c>
@@ -30746,7 +30789,7 @@
         <v>0.752</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="29">
         <v>2022</v>
       </c>
@@ -30754,7 +30797,7 @@
         <v>0.73199999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="29">
         <v>2023</v>
       </c>
@@ -30762,7 +30805,7 @@
         <v>0.67300000000000004</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="29">
         <v>2024</v>
       </c>
@@ -30770,7 +30813,7 @@
         <v>0.67300000000000004</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="29">
         <v>2025</v>
       </c>
@@ -30778,7 +30821,7 @@
         <v>0.67300000000000004</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="29">
         <v>2026</v>
       </c>
@@ -30786,7 +30829,7 @@
         <v>0.67300000000000004</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="29">
         <v>2027</v>
       </c>
@@ -30794,7 +30837,7 @@
         <v>0.67300000000000004</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="29">
         <v>2028</v>
       </c>
@@ -30802,7 +30845,7 @@
         <v>0.67300000000000004</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="29">
         <v>2029</v>
       </c>
@@ -30822,7 +30865,7 @@
       <c r="O12" s="29"/>
       <c r="P12" s="29"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="29">
         <v>2030</v>
       </c>
@@ -30855,9 +30898,9 @@
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -30874,7 +30917,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>185</v>
       </c>
@@ -30896,7 +30939,7 @@
       <c r="K2" s="28"/>
       <c r="L2" s="28"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>186</v>
       </c>
@@ -30917,7 +30960,7 @@
       <c r="K3" s="28"/>
       <c r="L3" s="28"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>187</v>
       </c>
@@ -30934,7 +30977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>188</v>
       </c>
@@ -30951,7 +30994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>189</v>
       </c>
@@ -30968,7 +31011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>190</v>
       </c>
@@ -30985,7 +31028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>191</v>
       </c>
@@ -31002,7 +31045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>192</v>
       </c>
@@ -31019,7 +31062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>193</v>
       </c>
@@ -31036,7 +31079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>194</v>
       </c>
@@ -31053,7 +31096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>195</v>
       </c>
@@ -31070,7 +31113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>196</v>
       </c>
@@ -31100,9 +31143,9 @@
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -31149,7 +31192,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2021</v>
       </c>
@@ -31198,7 +31241,7 @@
         <v>181.506</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2022</v>
       </c>
@@ -31226,7 +31269,7 @@
         <v>1.7549999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2023</v>
       </c>
@@ -31254,7 +31297,7 @@
         <v>0.67600000000000005</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2024</v>
       </c>
@@ -31299,7 +31342,7 @@
         <v>0.53100000000000003</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2025</v>
       </c>
@@ -31344,7 +31387,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2026</v>
       </c>
@@ -31389,7 +31432,7 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2027</v>
       </c>
@@ -31434,7 +31477,7 @@
         <v>0.52700000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2028</v>
       </c>
@@ -31479,7 +31522,7 @@
         <v>0.52700000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2029</v>
       </c>
@@ -31524,7 +31567,7 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2030</v>
       </c>
@@ -31569,7 +31612,7 @@
         <v>0.53500000000000003</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2031</v>
       </c>

--- a/inst/extdata/projections.xlsx
+++ b/inst/extdata/projections.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stoja\fim\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66262B66-9F70-4C8D-963E-91D113B62468}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ADC3AE3-FE13-492C-9EC7-F6396A6F98DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-3390" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dictionary" sheetId="12" r:id="rId1"/>
@@ -1436,7 +1436,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="43">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1662,18 +1662,6 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -2458,7 +2446,7 @@
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="43" applyFont="1"/>
@@ -2532,6 +2520,9 @@
     <xf numFmtId="3" fontId="21" fillId="0" borderId="0" xfId="557" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="1" fontId="21" fillId="39" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="21" fillId="39" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="21" fillId="0" borderId="0" xfId="557" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2566,16 +2557,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="43" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="41" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="21" fillId="41" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="21" fillId="41" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="21" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="21" fillId="39" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="21" fillId="39" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="21" fillId="42" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="3" fontId="21" fillId="0" borderId="0" xfId="557" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="568">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3499,13 +3480,13 @@
       <c r="P1" s="39"/>
     </row>
     <row r="2" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="59" t="s">
         <v>278</v>
       </c>
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="56" t="s">
         <v>279</v>
       </c>
-      <c r="C2" s="53" t="s">
+      <c r="C2" s="56" t="s">
         <v>281</v>
       </c>
       <c r="D2" s="49" t="s">
@@ -3527,9 +3508,9 @@
       <c r="P2" s="42"/>
     </row>
     <row r="3" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="57"/>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
+      <c r="A3" s="60"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
       <c r="D3" s="48" t="s">
         <v>2</v>
       </c>
@@ -3549,9 +3530,9 @@
       <c r="P3" s="44"/>
     </row>
     <row r="4" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="57"/>
-      <c r="B4" s="54"/>
-      <c r="C4" s="54"/>
+      <c r="A4" s="60"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="57"/>
       <c r="D4" s="48" t="s">
         <v>4</v>
       </c>
@@ -3571,9 +3552,9 @@
       <c r="P4" s="44"/>
     </row>
     <row r="5" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="57"/>
-      <c r="B5" s="54"/>
-      <c r="C5" s="54"/>
+      <c r="A5" s="60"/>
+      <c r="B5" s="57"/>
+      <c r="C5" s="57"/>
       <c r="D5" s="48" t="s">
         <v>3</v>
       </c>
@@ -3593,9 +3574,9 @@
       <c r="P5" s="44"/>
     </row>
     <row r="6" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="57"/>
-      <c r="B6" s="54"/>
-      <c r="C6" s="54"/>
+      <c r="A6" s="60"/>
+      <c r="B6" s="57"/>
+      <c r="C6" s="57"/>
       <c r="D6" s="48" t="s">
         <v>5</v>
       </c>
@@ -3615,9 +3596,9 @@
       <c r="P6" s="44"/>
     </row>
     <row r="7" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="57"/>
-      <c r="B7" s="54"/>
-      <c r="C7" s="54"/>
+      <c r="A7" s="60"/>
+      <c r="B7" s="57"/>
+      <c r="C7" s="57"/>
       <c r="D7" s="48" t="s">
         <v>15</v>
       </c>
@@ -3637,9 +3618,9 @@
       <c r="P7" s="44"/>
     </row>
     <row r="8" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="57"/>
-      <c r="B8" s="54"/>
-      <c r="C8" s="54"/>
+      <c r="A8" s="60"/>
+      <c r="B8" s="57"/>
+      <c r="C8" s="57"/>
       <c r="D8" s="48" t="s">
         <v>6</v>
       </c>
@@ -3659,9 +3640,9 @@
       <c r="P8" s="44"/>
     </row>
     <row r="9" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="57"/>
-      <c r="B9" s="54"/>
-      <c r="C9" s="54"/>
+      <c r="A9" s="60"/>
+      <c r="B9" s="57"/>
+      <c r="C9" s="57"/>
       <c r="D9" s="48" t="s">
         <v>212</v>
       </c>
@@ -3681,9 +3662,9 @@
       <c r="P9" s="44"/>
     </row>
     <row r="10" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="57"/>
-      <c r="B10" s="54"/>
-      <c r="C10" s="54"/>
+      <c r="A10" s="60"/>
+      <c r="B10" s="57"/>
+      <c r="C10" s="57"/>
       <c r="D10" s="48" t="s">
         <v>7</v>
       </c>
@@ -3703,9 +3684,9 @@
       <c r="P10" s="44"/>
     </row>
     <row r="11" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="57"/>
-      <c r="B11" s="54"/>
-      <c r="C11" s="54"/>
+      <c r="A11" s="60"/>
+      <c r="B11" s="57"/>
+      <c r="C11" s="57"/>
       <c r="D11" s="48" t="s">
         <v>12</v>
       </c>
@@ -3725,9 +3706,9 @@
       <c r="P11" s="44"/>
     </row>
     <row r="12" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="57"/>
-      <c r="B12" s="54"/>
-      <c r="C12" s="54"/>
+      <c r="A12" s="60"/>
+      <c r="B12" s="57"/>
+      <c r="C12" s="57"/>
       <c r="D12" s="48" t="s">
         <v>13</v>
       </c>
@@ -3747,9 +3728,9 @@
       <c r="P12" s="44"/>
     </row>
     <row r="13" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="57"/>
-      <c r="B13" s="54"/>
-      <c r="C13" s="54"/>
+      <c r="A13" s="60"/>
+      <c r="B13" s="57"/>
+      <c r="C13" s="57"/>
       <c r="D13" s="48" t="s">
         <v>14</v>
       </c>
@@ -3769,9 +3750,9 @@
       <c r="P13" s="44"/>
     </row>
     <row r="14" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="57"/>
-      <c r="B14" s="54"/>
-      <c r="C14" s="54"/>
+      <c r="A14" s="60"/>
+      <c r="B14" s="57"/>
+      <c r="C14" s="57"/>
       <c r="D14" s="48" t="s">
         <v>8</v>
       </c>
@@ -3791,9 +3772,9 @@
       <c r="P14" s="44"/>
     </row>
     <row r="15" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="57"/>
-      <c r="B15" s="54"/>
-      <c r="C15" s="54"/>
+      <c r="A15" s="60"/>
+      <c r="B15" s="57"/>
+      <c r="C15" s="57"/>
       <c r="D15" s="48" t="s">
         <v>9</v>
       </c>
@@ -3813,9 +3794,9 @@
       <c r="P15" s="44"/>
     </row>
     <row r="16" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="57"/>
-      <c r="B16" s="54"/>
-      <c r="C16" s="54"/>
+      <c r="A16" s="60"/>
+      <c r="B16" s="57"/>
+      <c r="C16" s="57"/>
       <c r="D16" s="48" t="s">
         <v>10</v>
       </c>
@@ -3835,9 +3816,9 @@
       <c r="P16" s="44"/>
     </row>
     <row r="17" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="58"/>
-      <c r="B17" s="55"/>
-      <c r="C17" s="55"/>
+      <c r="A17" s="61"/>
+      <c r="B17" s="58"/>
+      <c r="C17" s="58"/>
       <c r="D17" s="50" t="s">
         <v>11</v>
       </c>
@@ -3857,13 +3838,13 @@
       <c r="P17" s="46"/>
     </row>
     <row r="18" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="56" t="s">
+      <c r="A18" s="59" t="s">
         <v>282</v>
       </c>
-      <c r="B18" s="53" t="s">
+      <c r="B18" s="56" t="s">
         <v>283</v>
       </c>
-      <c r="C18" s="53" t="s">
+      <c r="C18" s="56" t="s">
         <v>317</v>
       </c>
       <c r="D18" s="49" t="s">
@@ -3885,9 +3866,9 @@
       <c r="P18" s="42"/>
     </row>
     <row r="19" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="57"/>
-      <c r="B19" s="54"/>
-      <c r="C19" s="54"/>
+      <c r="A19" s="60"/>
+      <c r="B19" s="57"/>
+      <c r="C19" s="57"/>
       <c r="D19" s="48" t="s">
         <v>165</v>
       </c>
@@ -3907,9 +3888,9 @@
       <c r="P19" s="44"/>
     </row>
     <row r="20" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="57"/>
-      <c r="B20" s="54"/>
-      <c r="C20" s="54"/>
+      <c r="A20" s="60"/>
+      <c r="B20" s="57"/>
+      <c r="C20" s="57"/>
       <c r="D20" s="48" t="s">
         <v>164</v>
       </c>
@@ -3929,9 +3910,9 @@
       <c r="P20" s="44"/>
     </row>
     <row r="21" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="57"/>
-      <c r="B21" s="54"/>
-      <c r="C21" s="55"/>
+      <c r="A21" s="60"/>
+      <c r="B21" s="57"/>
+      <c r="C21" s="58"/>
       <c r="D21" s="50" t="s">
         <v>166</v>
       </c>
@@ -3951,9 +3932,9 @@
       <c r="P21" s="46"/>
     </row>
     <row r="22" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="57"/>
-      <c r="B22" s="54"/>
-      <c r="C22" s="54" t="s">
+      <c r="A22" s="60"/>
+      <c r="B22" s="57"/>
+      <c r="C22" s="57" t="s">
         <v>304</v>
       </c>
       <c r="D22" s="48" t="s">
@@ -3975,9 +3956,9 @@
       <c r="P22" s="44"/>
     </row>
     <row r="23" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="57"/>
-      <c r="B23" s="54"/>
-      <c r="C23" s="54"/>
+      <c r="A23" s="60"/>
+      <c r="B23" s="57"/>
+      <c r="C23" s="57"/>
       <c r="D23" s="48" t="s">
         <v>163</v>
       </c>
@@ -3997,9 +3978,9 @@
       <c r="P23" s="44"/>
     </row>
     <row r="24" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="57"/>
-      <c r="B24" s="54"/>
-      <c r="C24" s="54"/>
+      <c r="A24" s="60"/>
+      <c r="B24" s="57"/>
+      <c r="C24" s="57"/>
       <c r="D24" s="48" t="s">
         <v>162</v>
       </c>
@@ -4019,9 +4000,9 @@
       <c r="P24" s="44"/>
     </row>
     <row r="25" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="58"/>
-      <c r="B25" s="55"/>
-      <c r="C25" s="55"/>
+      <c r="A25" s="61"/>
+      <c r="B25" s="58"/>
+      <c r="C25" s="58"/>
       <c r="D25" s="50" t="s">
         <v>161</v>
       </c>
@@ -4222,27 +4203,27 @@
       </c>
     </row>
     <row r="2" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="64" t="s">
         <v>156</v>
       </c>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
     </row>
     <row r="4" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D4" s="23"/>
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="63" t="s">
+      <c r="A5" s="66" t="s">
         <v>155</v>
       </c>
-      <c r="B5" s="63"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
+      <c r="B5" s="66"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -25080,12 +25061,12 @@
       </c>
     </row>
     <row r="130" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="64" t="s">
+      <c r="A130" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="B130" s="64"/>
-      <c r="C130" s="64"/>
-      <c r="D130" s="64"/>
+      <c r="B130" s="67"/>
+      <c r="C130" s="67"/>
+      <c r="D130" s="67"/>
     </row>
     <row r="131" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C131" s="6"/>
@@ -25208,13 +25189,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E35EE37A-6DA7-464E-B4F9-9D022FBE10B3}">
-  <dimension ref="A1:AT66"/>
+  <dimension ref="A1:R57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G24" sqref="G24"/>
+      <selection pane="bottomRight" activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -25222,7 +25203,7 @@
     <col min="5" max="5" width="11.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" s="34" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" s="34" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
@@ -25275,3466 +25256,2972 @@
         <v>212</v>
       </c>
     </row>
-    <row r="2" spans="1:46" s="73" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="65">
-        <v>42825</v>
-      </c>
-      <c r="B2" s="67">
-        <v>19153.900000000001</v>
-      </c>
-      <c r="C2" s="67">
-        <v>17896.599999999999</v>
-      </c>
-      <c r="D2" s="67">
-        <v>18274.5</v>
-      </c>
-      <c r="E2" s="67">
-        <v>19558.400000000001</v>
-      </c>
-      <c r="F2" s="66">
-        <v>105.453</v>
-      </c>
-      <c r="G2" s="66">
-        <v>107.00700000000001</v>
-      </c>
-      <c r="H2" s="67">
-        <v>13046.4</v>
-      </c>
-      <c r="I2" s="67">
-        <v>12372.2</v>
-      </c>
-      <c r="J2" s="67">
-        <v>3153.8</v>
-      </c>
-      <c r="K2" s="67">
-        <v>1183.8</v>
-      </c>
-      <c r="L2" s="67">
-        <v>1967.8</v>
-      </c>
-      <c r="M2" s="67">
-        <v>3357.3</v>
-      </c>
-      <c r="N2" s="67">
-        <v>1242.5</v>
-      </c>
-      <c r="O2" s="67">
-        <v>2114.8000000000002</v>
-      </c>
-      <c r="P2" s="66">
-        <v>243.83799999999999</v>
-      </c>
-      <c r="Q2" s="66">
-        <v>4.5659999999999998</v>
-      </c>
-      <c r="R2" s="72"/>
-      <c r="S2" s="72"/>
-      <c r="T2" s="72"/>
-      <c r="U2" s="72"/>
-      <c r="V2" s="72"/>
-      <c r="W2" s="72"/>
-      <c r="X2" s="72"/>
-      <c r="Y2" s="72"/>
-      <c r="Z2" s="72"/>
-      <c r="AA2" s="72"/>
-      <c r="AB2" s="72"/>
-      <c r="AC2" s="72"/>
-      <c r="AD2" s="72"/>
-      <c r="AE2" s="72"/>
-      <c r="AF2" s="72"/>
-      <c r="AG2" s="72"/>
-      <c r="AH2" s="72"/>
-      <c r="AI2" s="72"/>
-      <c r="AJ2" s="72"/>
-      <c r="AK2" s="72"/>
-      <c r="AL2" s="72"/>
-      <c r="AM2" s="72"/>
-      <c r="AN2" s="72"/>
-      <c r="AO2" s="72"/>
-      <c r="AP2" s="72"/>
-      <c r="AQ2" s="72"/>
-      <c r="AR2" s="72"/>
-      <c r="AS2" s="72"/>
-      <c r="AT2" s="72"/>
-    </row>
-    <row r="3" spans="1:46" s="73" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="65">
-        <v>42916</v>
-      </c>
-      <c r="B3" s="67">
-        <v>19322.900000000001</v>
-      </c>
-      <c r="C3" s="67">
-        <v>17996.8</v>
-      </c>
-      <c r="D3" s="67">
-        <v>18353</v>
-      </c>
-      <c r="E3" s="67">
-        <v>19705.3</v>
-      </c>
-      <c r="F3" s="66">
-        <v>105.751</v>
-      </c>
-      <c r="G3" s="66">
-        <v>107.361</v>
-      </c>
-      <c r="H3" s="67">
-        <v>13144.4</v>
-      </c>
-      <c r="I3" s="67">
-        <v>12430.1</v>
-      </c>
-      <c r="J3" s="67">
-        <v>3163.2</v>
-      </c>
-      <c r="K3" s="67">
-        <v>1193.7</v>
-      </c>
-      <c r="L3" s="67">
-        <v>1967.5</v>
-      </c>
-      <c r="M3" s="67">
-        <v>3378.2</v>
-      </c>
-      <c r="N3" s="67">
-        <v>1257.5999999999999</v>
-      </c>
-      <c r="O3" s="67">
-        <v>2120.6</v>
-      </c>
-      <c r="P3" s="66">
-        <v>244.12</v>
-      </c>
-      <c r="Q3" s="66">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>44286</v>
+      </c>
+      <c r="B2" s="11">
+        <v>22600.2</v>
+      </c>
+      <c r="C2" s="11">
+        <v>20990.5</v>
+      </c>
+      <c r="D2" s="11">
+        <v>22884.6</v>
+      </c>
+      <c r="E2" s="11">
+        <v>21254.6</v>
+      </c>
+      <c r="F2" s="5">
+        <v>106.578</v>
+      </c>
+      <c r="G2" s="5">
+        <v>107.73099999999999</v>
+      </c>
+      <c r="H2" s="11">
+        <v>15217.7</v>
+      </c>
+      <c r="I2" s="11">
+        <v>14282.6</v>
+      </c>
+      <c r="J2" s="11">
+        <v>3743.1</v>
+      </c>
+      <c r="K2" s="11">
+        <v>1499.1</v>
+      </c>
+      <c r="L2" s="11">
+        <v>2247</v>
+      </c>
+      <c r="M2" s="11">
+        <v>4143.8999999999996</v>
+      </c>
+      <c r="N2" s="11">
+        <v>1609.9</v>
+      </c>
+      <c r="O2" s="11">
+        <v>2533.9</v>
+      </c>
+      <c r="P2" s="5">
+        <v>263.73399999999998</v>
+      </c>
+      <c r="Q2" s="5">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>44377</v>
+      </c>
+      <c r="B3" s="11">
+        <v>23292.400000000001</v>
+      </c>
+      <c r="C3" s="11">
+        <v>21309.5</v>
+      </c>
+      <c r="D3" s="11">
+        <v>23343.1</v>
+      </c>
+      <c r="E3" s="11">
+        <v>21355.9</v>
+      </c>
+      <c r="F3" s="5">
+        <v>108.208</v>
+      </c>
+      <c r="G3" s="5">
+        <v>109.33199999999999</v>
+      </c>
+      <c r="H3" s="11">
+        <v>15950.9</v>
+      </c>
+      <c r="I3" s="11">
+        <v>14745.6</v>
+      </c>
+      <c r="J3" s="11">
+        <v>3701.8</v>
+      </c>
+      <c r="K3" s="11">
+        <v>1464.8</v>
+      </c>
+      <c r="L3" s="11">
+        <v>2239.1999999999998</v>
+      </c>
+      <c r="M3" s="11">
+        <v>4160.2</v>
+      </c>
+      <c r="N3" s="11">
+        <v>1588.5</v>
+      </c>
+      <c r="O3" s="11">
+        <v>2571.6999999999998</v>
+      </c>
+      <c r="P3" s="5">
+        <v>268.55700000000002</v>
+      </c>
+      <c r="Q3" s="5">
+        <v>5.9329999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>44469</v>
+      </c>
+      <c r="B4" s="11">
+        <v>23829</v>
+      </c>
+      <c r="C4" s="11">
+        <v>21483.1</v>
+      </c>
+      <c r="D4" s="11">
+        <v>23804.5</v>
+      </c>
+      <c r="E4" s="11">
+        <v>21461</v>
+      </c>
+      <c r="F4" s="5">
+        <v>109.705</v>
+      </c>
+      <c r="G4" s="5">
+        <v>110.95699999999999</v>
+      </c>
+      <c r="H4" s="11">
+        <v>16285.1</v>
+      </c>
+      <c r="I4" s="11">
+        <v>14848.8</v>
+      </c>
+      <c r="J4" s="11">
+        <v>3688.2</v>
+      </c>
+      <c r="K4" s="11">
+        <v>1439.1</v>
+      </c>
+      <c r="L4" s="11">
+        <v>2250.1</v>
+      </c>
+      <c r="M4" s="11">
+        <v>4201.5</v>
+      </c>
+      <c r="N4" s="11">
+        <v>1576.4</v>
+      </c>
+      <c r="O4" s="11">
+        <v>2625.1</v>
+      </c>
+      <c r="P4" s="5">
+        <v>272.887</v>
+      </c>
+      <c r="Q4" s="5">
+        <v>5.133</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>44561</v>
+      </c>
+      <c r="B5" s="11">
+        <v>24654.6</v>
+      </c>
+      <c r="C5" s="11">
+        <v>21847.599999999999</v>
+      </c>
+      <c r="D5" s="11">
+        <v>24338.1</v>
+      </c>
+      <c r="E5" s="11">
+        <v>21567.1</v>
+      </c>
+      <c r="F5" s="5">
+        <v>111.514</v>
+      </c>
+      <c r="G5" s="5">
+        <v>112.858</v>
+      </c>
+      <c r="H5" s="11">
+        <v>16718.2</v>
+      </c>
+      <c r="I5" s="11">
+        <v>14995.6</v>
+      </c>
+      <c r="J5" s="11">
+        <v>3685.8</v>
+      </c>
+      <c r="K5" s="11">
+        <v>1446.5</v>
+      </c>
+      <c r="L5" s="11">
+        <v>2240.9</v>
+      </c>
+      <c r="M5" s="11">
+        <v>4266.6000000000004</v>
+      </c>
+      <c r="N5" s="11">
+        <v>1602.5</v>
+      </c>
+      <c r="O5" s="11">
+        <v>2664.2</v>
+      </c>
+      <c r="P5" s="5">
+        <v>278.70600000000002</v>
+      </c>
+      <c r="Q5" s="5">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>44651</v>
+      </c>
+      <c r="B6" s="11">
+        <v>25029.1</v>
+      </c>
+      <c r="C6" s="11">
+        <v>21738.9</v>
+      </c>
+      <c r="D6" s="11">
+        <v>24954.400000000001</v>
+      </c>
+      <c r="E6" s="11">
+        <v>21674</v>
+      </c>
+      <c r="F6" s="5">
+        <v>113.59</v>
+      </c>
+      <c r="G6" s="5">
+        <v>115.182</v>
+      </c>
+      <c r="H6" s="11">
+        <v>17030.599999999999</v>
+      </c>
+      <c r="I6" s="11">
+        <v>14995.2</v>
+      </c>
+      <c r="J6" s="11">
+        <v>3658.8</v>
+      </c>
+      <c r="K6" s="11">
+        <v>1420.9</v>
+      </c>
+      <c r="L6" s="11">
+        <v>2238.4</v>
+      </c>
+      <c r="M6" s="11">
+        <v>4321.3999999999996</v>
+      </c>
+      <c r="N6" s="11">
+        <v>1601.7</v>
+      </c>
+      <c r="O6" s="11">
+        <v>2719.7</v>
+      </c>
+      <c r="P6" s="5">
+        <v>284.89299999999997</v>
+      </c>
+      <c r="Q6" s="5">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>44742</v>
+      </c>
+      <c r="B7" s="11">
+        <v>25544.3</v>
+      </c>
+      <c r="C7" s="11">
+        <v>21708.2</v>
+      </c>
+      <c r="D7" s="11">
+        <v>25631.200000000001</v>
+      </c>
+      <c r="E7" s="11">
+        <v>21782</v>
+      </c>
+      <c r="F7" s="5">
+        <v>115.577</v>
+      </c>
+      <c r="G7" s="5">
+        <v>117.70399999999999</v>
+      </c>
+      <c r="H7" s="11">
+        <v>17415.099999999999</v>
+      </c>
+      <c r="I7" s="11">
+        <v>15069.2</v>
+      </c>
+      <c r="J7" s="11">
+        <v>3641.2</v>
+      </c>
+      <c r="K7" s="11">
+        <v>1406.9</v>
+      </c>
+      <c r="L7" s="11">
+        <v>2234.1</v>
+      </c>
+      <c r="M7" s="11">
+        <v>4415.7</v>
+      </c>
+      <c r="N7" s="11">
+        <v>1612.3</v>
+      </c>
+      <c r="O7" s="11">
+        <v>2803.4</v>
+      </c>
+      <c r="P7" s="5">
+        <v>291.53500000000003</v>
+      </c>
+      <c r="Q7" s="5">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>44834</v>
+      </c>
+      <c r="B8" s="11">
+        <v>25994.6</v>
+      </c>
+      <c r="C8" s="11">
+        <v>21851.1</v>
+      </c>
+      <c r="D8" s="11">
+        <v>26045.9</v>
+      </c>
+      <c r="E8" s="11">
+        <v>21894.2</v>
+      </c>
+      <c r="F8" s="5">
+        <v>116.905</v>
+      </c>
+      <c r="G8" s="5">
+        <v>118.98</v>
+      </c>
+      <c r="H8" s="11">
+        <v>17684.2</v>
+      </c>
+      <c r="I8" s="11">
+        <v>15127.4</v>
+      </c>
+      <c r="J8" s="11">
+        <v>3667</v>
+      </c>
+      <c r="K8" s="11">
+        <v>1411.2</v>
+      </c>
+      <c r="L8" s="11">
+        <v>2255.1</v>
+      </c>
+      <c r="M8" s="11">
+        <v>4477.8999999999996</v>
+      </c>
+      <c r="N8" s="11">
+        <v>1636.3</v>
+      </c>
+      <c r="O8" s="11">
+        <v>2841.5</v>
+      </c>
+      <c r="P8" s="5">
+        <v>295.495</v>
+      </c>
+      <c r="Q8" s="5">
+        <v>3.5659999999999998</v>
+      </c>
+      <c r="R8" s="33"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>44926</v>
+      </c>
+      <c r="B9" s="11">
+        <v>26408.400000000001</v>
+      </c>
+      <c r="C9" s="11">
+        <v>21990</v>
+      </c>
+      <c r="D9" s="11">
+        <v>26428.7</v>
+      </c>
+      <c r="E9" s="11">
+        <v>22006.9</v>
+      </c>
+      <c r="F9" s="5">
+        <v>118.098</v>
+      </c>
+      <c r="G9" s="5">
+        <v>120.11499999999999</v>
+      </c>
+      <c r="H9" s="11">
+        <v>17917</v>
+      </c>
+      <c r="I9" s="11">
+        <v>15171.4</v>
+      </c>
+      <c r="J9" s="11">
+        <v>3714.8</v>
+      </c>
+      <c r="K9" s="11">
+        <v>1444.5</v>
+      </c>
+      <c r="L9" s="11">
+        <v>2270.8000000000002</v>
+      </c>
+      <c r="M9" s="11">
+        <v>4572.3999999999996</v>
+      </c>
+      <c r="N9" s="11">
+        <v>1691.8</v>
+      </c>
+      <c r="O9" s="11">
+        <v>2880.6</v>
+      </c>
+      <c r="P9" s="5">
+        <v>298.52499999999998</v>
+      </c>
+      <c r="Q9" s="5">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>45016</v>
+      </c>
+      <c r="B10" s="11">
+        <v>26813.599999999999</v>
+      </c>
+      <c r="C10" s="11">
+        <v>22112.3</v>
+      </c>
+      <c r="D10" s="11">
+        <v>26830</v>
+      </c>
+      <c r="E10" s="11">
+        <v>22125.8</v>
+      </c>
+      <c r="F10" s="5">
+        <v>119.309</v>
+      </c>
+      <c r="G10" s="5">
+        <v>121.264</v>
+      </c>
+      <c r="H10" s="11">
+        <v>18269.599999999999</v>
+      </c>
+      <c r="I10" s="11">
+        <v>15312.9</v>
+      </c>
+      <c r="J10" s="11">
+        <v>3758.8</v>
+      </c>
+      <c r="K10" s="11">
+        <v>1462.8</v>
+      </c>
+      <c r="L10" s="11">
+        <v>2296.5</v>
+      </c>
+      <c r="M10" s="11">
+        <v>4643.8999999999996</v>
+      </c>
+      <c r="N10" s="11">
+        <v>1730.6</v>
+      </c>
+      <c r="O10" s="11">
+        <v>2913.2</v>
+      </c>
+      <c r="P10" s="5">
+        <v>301.33</v>
+      </c>
+      <c r="Q10" s="5">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>45107</v>
+      </c>
+      <c r="B11" s="11">
+        <v>27063</v>
+      </c>
+      <c r="C11" s="11">
+        <v>22225.4</v>
+      </c>
+      <c r="D11" s="11">
+        <v>27088.400000000001</v>
+      </c>
+      <c r="E11" s="11">
+        <v>22246.2</v>
+      </c>
+      <c r="F11" s="5">
+        <v>120.044</v>
+      </c>
+      <c r="G11" s="5">
+        <v>121.789</v>
+      </c>
+      <c r="H11" s="11">
+        <v>18419</v>
+      </c>
+      <c r="I11" s="11">
+        <v>15343.6</v>
+      </c>
+      <c r="J11" s="11">
+        <v>3789.8</v>
+      </c>
+      <c r="K11" s="11">
+        <v>1466.9</v>
+      </c>
+      <c r="L11" s="11">
+        <v>2323</v>
+      </c>
+      <c r="M11" s="11">
+        <v>4669.8</v>
+      </c>
+      <c r="N11" s="11">
+        <v>1744.3</v>
+      </c>
+      <c r="O11" s="11">
+        <v>2925.5</v>
+      </c>
+      <c r="P11" s="5">
+        <v>303.351</v>
+      </c>
+      <c r="Q11" s="5">
+        <v>3.5659999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>45199</v>
+      </c>
+      <c r="B12" s="11">
+        <v>27644.5</v>
+      </c>
+      <c r="C12" s="11">
+        <v>22506.400000000001</v>
+      </c>
+      <c r="D12" s="11">
+        <v>27476.6</v>
+      </c>
+      <c r="E12" s="11">
+        <v>22369.7</v>
+      </c>
+      <c r="F12" s="5">
+        <v>120.88</v>
+      </c>
+      <c r="G12" s="5">
+        <v>122.857</v>
+      </c>
+      <c r="H12" s="11">
+        <v>18711.599999999999</v>
+      </c>
+      <c r="I12" s="11">
+        <v>15479.5</v>
+      </c>
+      <c r="J12" s="11">
+        <v>3840.9</v>
+      </c>
+      <c r="K12" s="11">
+        <v>1491.8</v>
+      </c>
+      <c r="L12" s="11">
+        <v>2349.5</v>
+      </c>
+      <c r="M12" s="11">
+        <v>4792.5</v>
+      </c>
+      <c r="N12" s="11">
+        <v>1791.6</v>
+      </c>
+      <c r="O12" s="11">
+        <v>3000.9</v>
+      </c>
+      <c r="P12" s="5">
+        <v>306.03199999999998</v>
+      </c>
+      <c r="Q12" s="5">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>45291</v>
+      </c>
+      <c r="B13" s="53">
+        <v>27842.400000000001</v>
+      </c>
+      <c r="C13" s="53">
+        <v>22549.599999999999</v>
+      </c>
+      <c r="D13" s="53">
+        <v>27775.200000000001</v>
+      </c>
+      <c r="E13" s="53">
+        <v>22495.200000000001</v>
+      </c>
+      <c r="F13" s="54">
+        <v>121.55</v>
+      </c>
+      <c r="G13" s="54">
+        <v>123.471</v>
+      </c>
+      <c r="H13" s="53">
+        <v>18910.599999999999</v>
+      </c>
+      <c r="I13" s="53">
+        <v>15557.8</v>
+      </c>
+      <c r="J13" s="53">
+        <v>3845.8</v>
+      </c>
+      <c r="K13" s="53">
+        <v>1487.8</v>
+      </c>
+      <c r="L13" s="53">
+        <v>2358</v>
+      </c>
+      <c r="M13" s="53">
+        <v>4822.3999999999996</v>
+      </c>
+      <c r="N13" s="53">
+        <v>1795.9</v>
+      </c>
+      <c r="O13" s="53">
+        <v>3026.5</v>
+      </c>
+      <c r="P13" s="54">
+        <v>307.964</v>
+      </c>
+      <c r="Q13" s="54">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>45382</v>
+      </c>
+      <c r="B14" s="53">
+        <v>28044.7</v>
+      </c>
+      <c r="C14" s="53">
+        <v>22625</v>
+      </c>
+      <c r="D14" s="53">
+        <v>28036.2</v>
+      </c>
+      <c r="E14" s="53">
+        <v>22618.2</v>
+      </c>
+      <c r="F14" s="54">
+        <v>122.10899999999999</v>
+      </c>
+      <c r="G14" s="54">
+        <v>123.95399999999999</v>
+      </c>
+      <c r="H14" s="53">
+        <v>19051.2</v>
+      </c>
+      <c r="I14" s="53">
+        <v>15601.7</v>
+      </c>
+      <c r="J14" s="53">
+        <v>3853.9</v>
+      </c>
+      <c r="K14" s="53">
+        <v>1486.2</v>
+      </c>
+      <c r="L14" s="53">
+        <v>2367.4</v>
+      </c>
+      <c r="M14" s="53">
+        <v>4852</v>
+      </c>
+      <c r="N14" s="53">
+        <v>1804.5</v>
+      </c>
+      <c r="O14" s="53">
+        <v>3047.5</v>
+      </c>
+      <c r="P14" s="54">
+        <v>309.53399999999999</v>
+      </c>
+      <c r="Q14" s="54">
+        <v>3.9750000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>45473</v>
+      </c>
+      <c r="B15" s="53">
+        <v>28279.7</v>
+      </c>
+      <c r="C15" s="53">
+        <v>22703.200000000001</v>
+      </c>
+      <c r="D15" s="53">
+        <v>28324.3</v>
+      </c>
+      <c r="E15" s="53">
+        <v>22739</v>
+      </c>
+      <c r="F15" s="54">
+        <v>122.753</v>
+      </c>
+      <c r="G15" s="54">
+        <v>124.562</v>
+      </c>
+      <c r="H15" s="53">
+        <v>19203.099999999999</v>
+      </c>
+      <c r="I15" s="53">
+        <v>15643.6</v>
+      </c>
+      <c r="J15" s="53">
+        <v>3861.4</v>
+      </c>
+      <c r="K15" s="53">
+        <v>1486.1</v>
+      </c>
+      <c r="L15" s="53">
+        <v>2374.8000000000002</v>
+      </c>
+      <c r="M15" s="53">
+        <v>4889.8999999999996</v>
+      </c>
+      <c r="N15" s="53">
+        <v>1815.8</v>
+      </c>
+      <c r="O15" s="53">
+        <v>3074.1</v>
+      </c>
+      <c r="P15" s="54">
+        <v>311.58</v>
+      </c>
+      <c r="Q15" s="54">
+        <v>4.1100000000000003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>45565</v>
+      </c>
+      <c r="B16" s="53">
+        <v>28539.7</v>
+      </c>
+      <c r="C16" s="53">
+        <v>22797</v>
+      </c>
+      <c r="D16" s="53">
+        <v>28622</v>
+      </c>
+      <c r="E16" s="53">
+        <v>22862.7</v>
+      </c>
+      <c r="F16" s="54">
+        <v>123.42700000000001</v>
+      </c>
+      <c r="G16" s="54">
+        <v>125.19</v>
+      </c>
+      <c r="H16" s="53">
+        <v>19375.8</v>
+      </c>
+      <c r="I16" s="53">
+        <v>15698.1</v>
+      </c>
+      <c r="J16" s="53">
+        <v>3870</v>
+      </c>
+      <c r="K16" s="53">
+        <v>1488.9</v>
+      </c>
+      <c r="L16" s="53">
+        <v>2380.6</v>
+      </c>
+      <c r="M16" s="53">
+        <v>4932.6000000000004</v>
+      </c>
+      <c r="N16" s="53">
+        <v>1831.3</v>
+      </c>
+      <c r="O16" s="53">
+        <v>3101.3</v>
+      </c>
+      <c r="P16" s="54">
+        <v>313.65300000000002</v>
+      </c>
+      <c r="Q16" s="54">
+        <v>4.2460000000000004</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>45657</v>
+      </c>
+      <c r="B17" s="53">
+        <v>28807.9</v>
+      </c>
+      <c r="C17" s="53">
+        <v>22895.599999999999</v>
+      </c>
+      <c r="D17" s="53">
+        <v>28925.1</v>
+      </c>
+      <c r="E17" s="53">
+        <v>22988.799999999999</v>
+      </c>
+      <c r="F17" s="54">
+        <v>124.102</v>
+      </c>
+      <c r="G17" s="54">
+        <v>125.822</v>
+      </c>
+      <c r="H17" s="53">
+        <v>19556.2</v>
+      </c>
+      <c r="I17" s="53">
+        <v>15758.2</v>
+      </c>
+      <c r="J17" s="53">
+        <v>3876.7</v>
+      </c>
+      <c r="K17" s="53">
+        <v>1489.7</v>
+      </c>
+      <c r="L17" s="53">
+        <v>2386.4</v>
+      </c>
+      <c r="M17" s="53">
+        <v>4973.3999999999996</v>
+      </c>
+      <c r="N17" s="53">
+        <v>1845.1</v>
+      </c>
+      <c r="O17" s="53">
+        <v>3128.3</v>
+      </c>
+      <c r="P17" s="54">
+        <v>315.56200000000001</v>
+      </c>
+      <c r="Q17" s="54">
+        <v>4.3710000000000004</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>45747</v>
+      </c>
+      <c r="B18" s="53">
+        <v>29095.1</v>
+      </c>
+      <c r="C18" s="53">
+        <v>23007.3</v>
+      </c>
+      <c r="D18" s="53">
+        <v>29233.200000000001</v>
+      </c>
+      <c r="E18" s="53">
+        <v>23116.6</v>
+      </c>
+      <c r="F18" s="54">
+        <v>124.792</v>
+      </c>
+      <c r="G18" s="54">
+        <v>126.46</v>
+      </c>
+      <c r="H18" s="53">
+        <v>19758.5</v>
+      </c>
+      <c r="I18" s="53">
+        <v>15833.2</v>
+      </c>
+      <c r="J18" s="53">
+        <v>3882.8</v>
+      </c>
+      <c r="K18" s="53">
+        <v>1489.3</v>
+      </c>
+      <c r="L18" s="53">
+        <v>2392.6999999999998</v>
+      </c>
+      <c r="M18" s="53">
+        <v>5013.8</v>
+      </c>
+      <c r="N18" s="53">
+        <v>1856.5</v>
+      </c>
+      <c r="O18" s="53">
+        <v>3157.3</v>
+      </c>
+      <c r="P18" s="54">
+        <v>317.53899999999999</v>
+      </c>
+      <c r="Q18" s="54">
+        <v>4.4089999999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>45838</v>
+      </c>
+      <c r="B19" s="53">
+        <v>29404.5</v>
+      </c>
+      <c r="C19" s="53">
+        <v>23135.599999999999</v>
+      </c>
+      <c r="D19" s="53">
+        <v>29544.3</v>
+      </c>
+      <c r="E19" s="53">
+        <v>23245.599999999999</v>
+      </c>
+      <c r="F19" s="54">
+        <v>125.47799999999999</v>
+      </c>
+      <c r="G19" s="54">
+        <v>127.096</v>
+      </c>
+      <c r="H19" s="53">
+        <v>19957.7</v>
+      </c>
+      <c r="I19" s="53">
+        <v>15905.3</v>
+      </c>
+      <c r="J19" s="53">
+        <v>3889.6</v>
+      </c>
+      <c r="K19" s="53">
+        <v>1489.4</v>
+      </c>
+      <c r="L19" s="53">
+        <v>2399.3000000000002</v>
+      </c>
+      <c r="M19" s="53">
+        <v>5055.2</v>
+      </c>
+      <c r="N19" s="53">
+        <v>1868.4</v>
+      </c>
+      <c r="O19" s="53">
+        <v>3186.8</v>
+      </c>
+      <c r="P19" s="54">
+        <v>319.48700000000002</v>
+      </c>
+      <c r="Q19" s="54">
+        <v>4.4029999999999996</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>45930</v>
+      </c>
+      <c r="B20" s="53">
+        <v>29718.1</v>
+      </c>
+      <c r="C20" s="53">
+        <v>23266.6</v>
+      </c>
+      <c r="D20" s="53">
+        <v>29857.599999999999</v>
+      </c>
+      <c r="E20" s="53">
+        <v>23375.8</v>
+      </c>
+      <c r="F20" s="54">
+        <v>126.16</v>
+      </c>
+      <c r="G20" s="54">
+        <v>127.72799999999999</v>
+      </c>
+      <c r="H20" s="53">
+        <v>20156.599999999999</v>
+      </c>
+      <c r="I20" s="53">
+        <v>15976.9</v>
+      </c>
+      <c r="J20" s="53">
+        <v>3897.5</v>
+      </c>
+      <c r="K20" s="53">
+        <v>1490.2</v>
+      </c>
+      <c r="L20" s="53">
+        <v>2406.1999999999998</v>
+      </c>
+      <c r="M20" s="53">
+        <v>5098.2</v>
+      </c>
+      <c r="N20" s="53">
+        <v>1881.1</v>
+      </c>
+      <c r="O20" s="53">
+        <v>3217</v>
+      </c>
+      <c r="P20" s="54">
+        <v>321.42200000000003</v>
+      </c>
+      <c r="Q20" s="54">
+        <v>4.375</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>46022</v>
+      </c>
+      <c r="B21" s="53">
+        <v>30042.1</v>
+      </c>
+      <c r="C21" s="53">
+        <v>23405.4</v>
+      </c>
+      <c r="D21" s="53">
+        <v>30172.1</v>
+      </c>
+      <c r="E21" s="53">
+        <v>23506.6</v>
+      </c>
+      <c r="F21" s="54">
+        <v>126.834</v>
+      </c>
+      <c r="G21" s="54">
+        <v>128.35499999999999</v>
+      </c>
+      <c r="H21" s="53">
+        <v>20359.900000000001</v>
+      </c>
+      <c r="I21" s="53">
+        <v>16052.3</v>
+      </c>
+      <c r="J21" s="53">
+        <v>3906</v>
+      </c>
+      <c r="K21" s="53">
+        <v>1492.1</v>
+      </c>
+      <c r="L21" s="53">
+        <v>2412.9</v>
+      </c>
+      <c r="M21" s="53">
+        <v>5142.3</v>
+      </c>
+      <c r="N21" s="53">
+        <v>1895</v>
+      </c>
+      <c r="O21" s="53">
+        <v>3247.2</v>
+      </c>
+      <c r="P21" s="54">
+        <v>323.32799999999997</v>
+      </c>
+      <c r="Q21" s="54">
+        <v>4.3540000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>46112</v>
+      </c>
+      <c r="B22" s="53">
+        <v>30348.3</v>
+      </c>
+      <c r="C22" s="53">
+        <v>23530.6</v>
+      </c>
+      <c r="D22" s="53">
+        <v>30486.7</v>
+      </c>
+      <c r="E22" s="53">
+        <v>23637.9</v>
+      </c>
+      <c r="F22" s="54">
+        <v>127.498</v>
+      </c>
+      <c r="G22" s="54">
+        <v>128.97300000000001</v>
+      </c>
+      <c r="H22" s="53">
+        <v>20538</v>
+      </c>
+      <c r="I22" s="53">
+        <v>16108.4</v>
+      </c>
+      <c r="J22" s="53">
+        <v>3916.1</v>
+      </c>
+      <c r="K22" s="53">
+        <v>1494.5</v>
+      </c>
+      <c r="L22" s="53">
+        <v>2420.4</v>
+      </c>
+      <c r="M22" s="53">
+        <v>5188</v>
+      </c>
+      <c r="N22" s="53">
+        <v>1909</v>
+      </c>
+      <c r="O22" s="53">
+        <v>3279</v>
+      </c>
+      <c r="P22" s="54">
+        <v>325.18900000000002</v>
+      </c>
+      <c r="Q22" s="54">
+        <v>4.3440000000000003</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>46203</v>
+      </c>
+      <c r="B23" s="53">
+        <v>30656.799999999999</v>
+      </c>
+      <c r="C23" s="53">
+        <v>23656.9</v>
+      </c>
+      <c r="D23" s="53">
+        <v>30801.200000000001</v>
+      </c>
+      <c r="E23" s="53">
+        <v>23768.400000000001</v>
+      </c>
+      <c r="F23" s="54">
+        <v>128.15299999999999</v>
+      </c>
+      <c r="G23" s="54">
+        <v>129.589</v>
+      </c>
+      <c r="H23" s="53">
+        <v>20726.599999999999</v>
+      </c>
+      <c r="I23" s="53">
+        <v>16173.3</v>
+      </c>
+      <c r="J23" s="53">
+        <v>3925.3</v>
+      </c>
+      <c r="K23" s="53">
+        <v>1497</v>
+      </c>
+      <c r="L23" s="53">
+        <v>2427.1</v>
+      </c>
+      <c r="M23" s="53">
+        <v>5233.6000000000004</v>
+      </c>
+      <c r="N23" s="53">
+        <v>1923.3</v>
+      </c>
+      <c r="O23" s="53">
+        <v>3310.2</v>
+      </c>
+      <c r="P23" s="54">
+        <v>327.00400000000002</v>
+      </c>
+      <c r="Q23" s="54">
+        <v>4.343</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>46295</v>
+      </c>
+      <c r="B24" s="53">
+        <v>30967.1</v>
+      </c>
+      <c r="C24" s="53">
+        <v>23783.200000000001</v>
+      </c>
+      <c r="D24" s="53">
+        <v>31117.5</v>
+      </c>
+      <c r="E24" s="53">
+        <v>23898.7</v>
+      </c>
+      <c r="F24" s="54">
+        <v>128.803</v>
+      </c>
+      <c r="G24" s="54">
+        <v>130.20500000000001</v>
+      </c>
+      <c r="H24" s="53">
+        <v>20916</v>
+      </c>
+      <c r="I24" s="53">
+        <v>16238.7</v>
+      </c>
+      <c r="J24" s="53">
+        <v>3934.4</v>
+      </c>
+      <c r="K24" s="53">
+        <v>1499.4</v>
+      </c>
+      <c r="L24" s="53">
+        <v>2433.6999999999998</v>
+      </c>
+      <c r="M24" s="53">
+        <v>5280</v>
+      </c>
+      <c r="N24" s="53">
+        <v>1937.9</v>
+      </c>
+      <c r="O24" s="53">
+        <v>3342.1</v>
+      </c>
+      <c r="P24" s="54">
+        <v>328.80099999999999</v>
+      </c>
+      <c r="Q24" s="54">
+        <v>4.3490000000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>46387</v>
+      </c>
+      <c r="B25" s="53">
+        <v>31278.7</v>
+      </c>
+      <c r="C25" s="53">
+        <v>23909.1</v>
+      </c>
+      <c r="D25" s="53">
+        <v>31435</v>
+      </c>
+      <c r="E25" s="53">
+        <v>24028.6</v>
+      </c>
+      <c r="F25" s="54">
+        <v>129.44999999999999</v>
+      </c>
+      <c r="G25" s="54">
+        <v>130.82300000000001</v>
+      </c>
+      <c r="H25" s="53">
+        <v>21112.5</v>
+      </c>
+      <c r="I25" s="53">
+        <v>16309.3</v>
+      </c>
+      <c r="J25" s="53">
+        <v>3943</v>
+      </c>
+      <c r="K25" s="53">
+        <v>1501.6</v>
+      </c>
+      <c r="L25" s="53">
+        <v>2440</v>
+      </c>
+      <c r="M25" s="53">
+        <v>5326.3</v>
+      </c>
+      <c r="N25" s="53">
+        <v>1952.4</v>
+      </c>
+      <c r="O25" s="53">
+        <v>3373.9</v>
+      </c>
+      <c r="P25" s="54">
+        <v>330.59100000000001</v>
+      </c>
+      <c r="Q25" s="54">
+        <v>4.3570000000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>46477</v>
+      </c>
+      <c r="B26" s="53">
+        <v>31596.400000000001</v>
+      </c>
+      <c r="C26" s="53">
+        <v>24038.6</v>
+      </c>
+      <c r="D26" s="53">
+        <v>31755.1</v>
+      </c>
+      <c r="E26" s="53">
+        <v>24159.4</v>
+      </c>
+      <c r="F26" s="54">
+        <v>130.095</v>
+      </c>
+      <c r="G26" s="54">
+        <v>131.44</v>
+      </c>
+      <c r="H26" s="53">
+        <v>21320.6</v>
+      </c>
+      <c r="I26" s="53">
+        <v>16388.400000000001</v>
+      </c>
+      <c r="J26" s="53">
+        <v>3950.2</v>
+      </c>
+      <c r="K26" s="53">
+        <v>1503.3</v>
+      </c>
+      <c r="L26" s="53">
+        <v>2445.5</v>
+      </c>
+      <c r="M26" s="53">
+        <v>5370.8</v>
+      </c>
+      <c r="N26" s="53">
+        <v>1965.7</v>
+      </c>
+      <c r="O26" s="53">
+        <v>3405.1</v>
+      </c>
+      <c r="P26" s="54">
+        <v>332.37700000000001</v>
+      </c>
+      <c r="Q26" s="54">
         <v>4.3659999999999997</v>
       </c>
     </row>
-    <row r="4" spans="1:46" s="73" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="65">
-        <v>43008</v>
-      </c>
-      <c r="B4" s="67">
-        <v>19558.7</v>
-      </c>
-      <c r="C4" s="67">
-        <v>18126.2</v>
-      </c>
-      <c r="D4" s="67">
-        <v>18433.5</v>
-      </c>
-      <c r="E4" s="67">
-        <v>19890.3</v>
-      </c>
-      <c r="F4" s="66">
-        <v>106.146</v>
-      </c>
-      <c r="G4" s="66">
-        <v>107.94199999999999</v>
-      </c>
-      <c r="H4" s="67">
-        <v>13268.1</v>
-      </c>
-      <c r="I4" s="67">
-        <v>12500.4</v>
-      </c>
-      <c r="J4" s="67">
-        <v>3160.7</v>
-      </c>
-      <c r="K4" s="67">
-        <v>1193.4000000000001</v>
-      </c>
-      <c r="L4" s="67">
-        <v>1965.3</v>
-      </c>
-      <c r="M4" s="67">
-        <v>3400.8</v>
-      </c>
-      <c r="N4" s="67">
-        <v>1263.3</v>
-      </c>
-      <c r="O4" s="67">
-        <v>2137.5</v>
-      </c>
-      <c r="P4" s="66">
-        <v>245.28700000000001</v>
-      </c>
-      <c r="Q4" s="66">
-        <v>4.3330000000000002</v>
-      </c>
-    </row>
-    <row r="5" spans="1:46" s="73" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="65">
-        <v>43100</v>
-      </c>
-      <c r="B5" s="67">
-        <v>19883</v>
-      </c>
-      <c r="C5" s="67">
-        <v>18296.7</v>
-      </c>
-      <c r="D5" s="67">
-        <v>18516.099999999999</v>
-      </c>
-      <c r="E5" s="67">
-        <v>20121.400000000001</v>
-      </c>
-      <c r="F5" s="66">
-        <v>106.85599999999999</v>
-      </c>
-      <c r="G5" s="66">
-        <v>108.658</v>
-      </c>
-      <c r="H5" s="67">
-        <v>13497.5</v>
-      </c>
-      <c r="I5" s="67">
-        <v>12632</v>
-      </c>
-      <c r="J5" s="67">
-        <v>3183</v>
-      </c>
-      <c r="K5" s="67">
-        <v>1207.7</v>
-      </c>
-      <c r="L5" s="67">
-        <v>1973.4</v>
-      </c>
-      <c r="M5" s="67">
-        <v>3459.9</v>
-      </c>
-      <c r="N5" s="67">
-        <v>1287.7</v>
-      </c>
-      <c r="O5" s="67">
-        <v>2172.1999999999998</v>
-      </c>
-      <c r="P5" s="66">
-        <v>247.238</v>
-      </c>
-      <c r="Q5" s="66">
-        <v>4.1660000000000004</v>
-      </c>
-    </row>
-    <row r="6" spans="1:46" s="73" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="65">
-        <v>43190</v>
-      </c>
-      <c r="B6" s="67">
-        <v>20143.7</v>
-      </c>
-      <c r="C6" s="67">
-        <v>18436.3</v>
-      </c>
-      <c r="D6" s="67">
-        <v>18600.5</v>
-      </c>
-      <c r="E6" s="67">
-        <v>20323.2</v>
-      </c>
-      <c r="F6" s="66">
-        <v>107.557</v>
-      </c>
-      <c r="G6" s="66">
-        <v>109.312</v>
-      </c>
-      <c r="H6" s="67">
-        <v>13667.4</v>
-      </c>
-      <c r="I6" s="67">
-        <v>12707.6</v>
-      </c>
-      <c r="J6" s="67">
-        <v>3189.7</v>
-      </c>
-      <c r="K6" s="67">
-        <v>1213</v>
-      </c>
-      <c r="L6" s="67">
-        <v>1974.9</v>
-      </c>
-      <c r="M6" s="67">
-        <v>3505.5</v>
-      </c>
-      <c r="N6" s="67">
-        <v>1305.8</v>
-      </c>
-      <c r="O6" s="67">
-        <v>2199.6999999999998</v>
-      </c>
-      <c r="P6" s="66">
-        <v>249.25399999999999</v>
-      </c>
-      <c r="Q6" s="66">
-        <v>4.0330000000000004</v>
-      </c>
-    </row>
-    <row r="7" spans="1:46" s="73" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="65">
-        <v>43281</v>
-      </c>
-      <c r="B7" s="67">
-        <v>20492.5</v>
-      </c>
-      <c r="C7" s="67">
-        <v>18590</v>
-      </c>
-      <c r="D7" s="67">
-        <v>18687.3</v>
-      </c>
-      <c r="E7" s="67">
-        <v>20599.8</v>
-      </c>
-      <c r="F7" s="66">
-        <v>108.184</v>
-      </c>
-      <c r="G7" s="66">
-        <v>110.15600000000001</v>
-      </c>
-      <c r="H7" s="67">
-        <v>13864.8</v>
-      </c>
-      <c r="I7" s="67">
-        <v>12816.4</v>
-      </c>
-      <c r="J7" s="67">
-        <v>3212.2</v>
-      </c>
-      <c r="K7" s="67">
-        <v>1228.0999999999999</v>
-      </c>
-      <c r="L7" s="67">
-        <v>1982.5</v>
-      </c>
-      <c r="M7" s="67">
-        <v>3564.3</v>
-      </c>
-      <c r="N7" s="67">
-        <v>1331.7</v>
-      </c>
-      <c r="O7" s="67">
-        <v>2232.6</v>
-      </c>
-      <c r="P7" s="66">
-        <v>250.68100000000001</v>
-      </c>
-      <c r="Q7" s="66">
-        <v>3.9329999999999998</v>
-      </c>
-    </row>
-    <row r="8" spans="1:46" s="73" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="65">
-        <v>43373</v>
-      </c>
-      <c r="B8" s="67">
-        <v>20659.099999999999</v>
-      </c>
-      <c r="C8" s="67">
-        <v>18679.599999999999</v>
-      </c>
-      <c r="D8" s="67">
-        <v>18776.099999999999</v>
-      </c>
-      <c r="E8" s="67">
-        <v>20765.8</v>
-      </c>
-      <c r="F8" s="66">
-        <v>108.54600000000001</v>
-      </c>
-      <c r="G8" s="66">
-        <v>110.64700000000001</v>
-      </c>
-      <c r="H8" s="67">
-        <v>14002.6</v>
-      </c>
-      <c r="I8" s="67">
-        <v>12900.6</v>
-      </c>
-      <c r="J8" s="67">
-        <v>3220</v>
-      </c>
-      <c r="K8" s="67">
-        <v>1238.5</v>
-      </c>
-      <c r="L8" s="67">
-        <v>1980.2</v>
-      </c>
-      <c r="M8" s="67">
-        <v>3600.9</v>
-      </c>
-      <c r="N8" s="67">
-        <v>1350.8</v>
-      </c>
-      <c r="O8" s="67">
-        <v>2250.1</v>
-      </c>
-      <c r="P8" s="66">
-        <v>251.77</v>
-      </c>
-      <c r="Q8" s="66">
-        <v>3.766</v>
-      </c>
-    </row>
-    <row r="9" spans="1:46" s="73" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="65">
-        <v>43465</v>
-      </c>
-      <c r="B9" s="67">
-        <v>20813.3</v>
-      </c>
-      <c r="C9" s="67">
-        <v>18721.3</v>
-      </c>
-      <c r="D9" s="67">
-        <v>18865.400000000001</v>
-      </c>
-      <c r="E9" s="67">
-        <v>20973.5</v>
-      </c>
-      <c r="F9" s="66">
-        <v>108.986</v>
-      </c>
-      <c r="G9" s="66">
-        <v>111.191</v>
-      </c>
-      <c r="H9" s="67">
-        <v>14119.3</v>
-      </c>
-      <c r="I9" s="67">
-        <v>12955.5</v>
-      </c>
-      <c r="J9" s="67">
-        <v>3213.4</v>
-      </c>
-      <c r="K9" s="67">
-        <v>1244.2</v>
-      </c>
-      <c r="L9" s="67">
-        <v>1968.1</v>
-      </c>
-      <c r="M9" s="67">
-        <v>3617.4</v>
-      </c>
-      <c r="N9" s="67">
-        <v>1367.7</v>
-      </c>
-      <c r="O9" s="67">
-        <v>2249.6999999999998</v>
-      </c>
-      <c r="P9" s="66">
-        <v>252.69</v>
-      </c>
-      <c r="Q9" s="66">
-        <v>3.8330000000000002</v>
-      </c>
-    </row>
-    <row r="10" spans="1:46" s="73" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="65">
-        <v>43555</v>
-      </c>
-      <c r="B10" s="67">
-        <v>21001.599999999999</v>
-      </c>
-      <c r="C10" s="67">
-        <v>18833.2</v>
-      </c>
-      <c r="D10" s="67">
-        <v>18954.8</v>
-      </c>
-      <c r="E10" s="67">
-        <v>21137.200000000001</v>
-      </c>
-      <c r="F10" s="66">
-        <v>109.1</v>
-      </c>
-      <c r="G10" s="66">
-        <v>111.502</v>
-      </c>
-      <c r="H10" s="67">
-        <v>14155.6</v>
-      </c>
-      <c r="I10" s="67">
-        <v>12975.1</v>
-      </c>
-      <c r="J10" s="67">
-        <v>3235.2</v>
-      </c>
-      <c r="K10" s="67">
-        <v>1248.7</v>
-      </c>
-      <c r="L10" s="67">
-        <v>1985.4</v>
-      </c>
-      <c r="M10" s="67">
-        <v>3650.5</v>
-      </c>
-      <c r="N10" s="67">
-        <v>1387</v>
-      </c>
-      <c r="O10" s="67">
-        <v>2263.5</v>
-      </c>
-      <c r="P10" s="66">
-        <v>253.292</v>
-      </c>
-      <c r="Q10" s="66">
-        <v>3.8660000000000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>44286</v>
-      </c>
-      <c r="B11" s="68">
-        <v>22600.2</v>
-      </c>
-      <c r="C11" s="68">
-        <v>20990.5</v>
-      </c>
-      <c r="D11" s="68">
-        <v>22884.6</v>
-      </c>
-      <c r="E11" s="68">
-        <v>21254.6</v>
-      </c>
-      <c r="F11" s="69">
-        <v>106.578</v>
-      </c>
-      <c r="G11" s="69">
-        <v>107.73099999999999</v>
-      </c>
-      <c r="H11" s="68">
-        <v>15217.7</v>
-      </c>
-      <c r="I11" s="68">
-        <v>14282.6</v>
-      </c>
-      <c r="J11" s="68">
-        <v>3743.1</v>
-      </c>
-      <c r="K11" s="68">
-        <v>1499.1</v>
-      </c>
-      <c r="L11" s="68">
-        <v>2247</v>
-      </c>
-      <c r="M11" s="68">
-        <v>4143.8999999999996</v>
-      </c>
-      <c r="N11" s="68">
-        <v>1609.9</v>
-      </c>
-      <c r="O11" s="68">
-        <v>2533.9</v>
-      </c>
-      <c r="P11" s="69">
-        <v>263.73399999999998</v>
-      </c>
-      <c r="Q11" s="69">
-        <v>6.2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>44377</v>
-      </c>
-      <c r="B12" s="68">
-        <v>23292.400000000001</v>
-      </c>
-      <c r="C12" s="68">
-        <v>21309.5</v>
-      </c>
-      <c r="D12" s="68">
-        <v>23343.1</v>
-      </c>
-      <c r="E12" s="68">
-        <v>21355.9</v>
-      </c>
-      <c r="F12" s="69">
-        <v>108.208</v>
-      </c>
-      <c r="G12" s="69">
-        <v>109.33199999999999</v>
-      </c>
-      <c r="H12" s="68">
-        <v>15950.9</v>
-      </c>
-      <c r="I12" s="68">
-        <v>14745.6</v>
-      </c>
-      <c r="J12" s="68">
-        <v>3701.8</v>
-      </c>
-      <c r="K12" s="68">
-        <v>1464.8</v>
-      </c>
-      <c r="L12" s="68">
-        <v>2239.1999999999998</v>
-      </c>
-      <c r="M12" s="68">
-        <v>4160.2</v>
-      </c>
-      <c r="N12" s="68">
-        <v>1588.5</v>
-      </c>
-      <c r="O12" s="68">
-        <v>2571.6999999999998</v>
-      </c>
-      <c r="P12" s="69">
-        <v>268.55700000000002</v>
-      </c>
-      <c r="Q12" s="69">
-        <v>5.9329999999999998</v>
-      </c>
-    </row>
-    <row r="13" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>44469</v>
-      </c>
-      <c r="B13" s="68">
-        <v>23829</v>
-      </c>
-      <c r="C13" s="68">
-        <v>21483.1</v>
-      </c>
-      <c r="D13" s="68">
-        <v>23804.5</v>
-      </c>
-      <c r="E13" s="68">
-        <v>21461</v>
-      </c>
-      <c r="F13" s="69">
-        <v>109.705</v>
-      </c>
-      <c r="G13" s="69">
-        <v>110.95699999999999</v>
-      </c>
-      <c r="H13" s="68">
-        <v>16285.1</v>
-      </c>
-      <c r="I13" s="68">
-        <v>14848.8</v>
-      </c>
-      <c r="J13" s="68">
-        <v>3688.2</v>
-      </c>
-      <c r="K13" s="68">
-        <v>1439.1</v>
-      </c>
-      <c r="L13" s="68">
-        <v>2250.1</v>
-      </c>
-      <c r="M13" s="68">
-        <v>4201.5</v>
-      </c>
-      <c r="N13" s="68">
-        <v>1576.4</v>
-      </c>
-      <c r="O13" s="68">
-        <v>2625.1</v>
-      </c>
-      <c r="P13" s="69">
-        <v>272.887</v>
-      </c>
-      <c r="Q13" s="69">
-        <v>5.133</v>
-      </c>
-    </row>
-    <row r="14" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>44561</v>
-      </c>
-      <c r="B14" s="68">
-        <v>24654.6</v>
-      </c>
-      <c r="C14" s="68">
-        <v>21847.599999999999</v>
-      </c>
-      <c r="D14" s="68">
-        <v>24338.1</v>
-      </c>
-      <c r="E14" s="68">
-        <v>21567.1</v>
-      </c>
-      <c r="F14" s="69">
-        <v>111.514</v>
-      </c>
-      <c r="G14" s="69">
-        <v>112.858</v>
-      </c>
-      <c r="H14" s="68">
-        <v>16718.2</v>
-      </c>
-      <c r="I14" s="68">
-        <v>14995.6</v>
-      </c>
-      <c r="J14" s="68">
-        <v>3685.8</v>
-      </c>
-      <c r="K14" s="68">
-        <v>1446.5</v>
-      </c>
-      <c r="L14" s="68">
-        <v>2240.9</v>
-      </c>
-      <c r="M14" s="68">
-        <v>4266.6000000000004</v>
-      </c>
-      <c r="N14" s="68">
-        <v>1602.5</v>
-      </c>
-      <c r="O14" s="68">
-        <v>2664.2</v>
-      </c>
-      <c r="P14" s="69">
-        <v>278.70600000000002</v>
-      </c>
-      <c r="Q14" s="69">
-        <v>4.2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>44651</v>
-      </c>
-      <c r="B15" s="68">
-        <v>25029.1</v>
-      </c>
-      <c r="C15" s="68">
-        <v>21738.9</v>
-      </c>
-      <c r="D15" s="68">
-        <v>24954.400000000001</v>
-      </c>
-      <c r="E15" s="68">
-        <v>21674</v>
-      </c>
-      <c r="F15" s="69">
-        <v>113.59</v>
-      </c>
-      <c r="G15" s="69">
-        <v>115.182</v>
-      </c>
-      <c r="H15" s="68">
-        <v>17030.599999999999</v>
-      </c>
-      <c r="I15" s="68">
-        <v>14995.2</v>
-      </c>
-      <c r="J15" s="68">
-        <v>3658.8</v>
-      </c>
-      <c r="K15" s="68">
-        <v>1420.9</v>
-      </c>
-      <c r="L15" s="68">
-        <v>2238.4</v>
-      </c>
-      <c r="M15" s="68">
-        <v>4321.3999999999996</v>
-      </c>
-      <c r="N15" s="68">
-        <v>1601.7</v>
-      </c>
-      <c r="O15" s="68">
-        <v>2719.7</v>
-      </c>
-      <c r="P15" s="69">
-        <v>284.89299999999997</v>
-      </c>
-      <c r="Q15" s="69">
-        <v>3.8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>44742</v>
-      </c>
-      <c r="B16" s="68">
-        <v>25544.3</v>
-      </c>
-      <c r="C16" s="68">
-        <v>21708.2</v>
-      </c>
-      <c r="D16" s="68">
-        <v>25631.200000000001</v>
-      </c>
-      <c r="E16" s="68">
-        <v>21782</v>
-      </c>
-      <c r="F16" s="69">
-        <v>115.577</v>
-      </c>
-      <c r="G16" s="69">
-        <v>117.70399999999999</v>
-      </c>
-      <c r="H16" s="68">
-        <v>17415.099999999999</v>
-      </c>
-      <c r="I16" s="68">
-        <v>15069.2</v>
-      </c>
-      <c r="J16" s="68">
-        <v>3641.2</v>
-      </c>
-      <c r="K16" s="68">
-        <v>1406.9</v>
-      </c>
-      <c r="L16" s="68">
-        <v>2234.1</v>
-      </c>
-      <c r="M16" s="68">
-        <v>4415.7</v>
-      </c>
-      <c r="N16" s="68">
-        <v>1612.3</v>
-      </c>
-      <c r="O16" s="68">
-        <v>2803.4</v>
-      </c>
-      <c r="P16" s="69">
-        <v>291.53500000000003</v>
-      </c>
-      <c r="Q16" s="69">
-        <v>3.6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>44834</v>
-      </c>
-      <c r="B17" s="68">
-        <v>25994.6</v>
-      </c>
-      <c r="C17" s="68">
-        <v>21851.1</v>
-      </c>
-      <c r="D17" s="68">
-        <v>26045.9</v>
-      </c>
-      <c r="E17" s="68">
-        <v>21894.2</v>
-      </c>
-      <c r="F17" s="69">
-        <v>116.905</v>
-      </c>
-      <c r="G17" s="69">
-        <v>118.98</v>
-      </c>
-      <c r="H17" s="68">
-        <v>17684.2</v>
-      </c>
-      <c r="I17" s="68">
-        <v>15127.4</v>
-      </c>
-      <c r="J17" s="68">
-        <v>3667</v>
-      </c>
-      <c r="K17" s="68">
-        <v>1411.2</v>
-      </c>
-      <c r="L17" s="68">
-        <v>2255.1</v>
-      </c>
-      <c r="M17" s="68">
-        <v>4477.8999999999996</v>
-      </c>
-      <c r="N17" s="68">
-        <v>1636.3</v>
-      </c>
-      <c r="O17" s="68">
-        <v>2841.5</v>
-      </c>
-      <c r="P17" s="69">
-        <v>295.495</v>
-      </c>
-      <c r="Q17" s="69">
-        <v>3.5659999999999998</v>
-      </c>
-      <c r="R17" s="33"/>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>44926</v>
-      </c>
-      <c r="B18" s="68">
-        <v>26408.400000000001</v>
-      </c>
-      <c r="C18" s="68">
-        <v>21990</v>
-      </c>
-      <c r="D18" s="68">
-        <v>26428.7</v>
-      </c>
-      <c r="E18" s="68">
-        <v>22006.9</v>
-      </c>
-      <c r="F18" s="69">
-        <v>118.098</v>
-      </c>
-      <c r="G18" s="69">
-        <v>120.11499999999999</v>
-      </c>
-      <c r="H18" s="68">
-        <v>17917</v>
-      </c>
-      <c r="I18" s="68">
-        <v>15171.4</v>
-      </c>
-      <c r="J18" s="68">
-        <v>3714.8</v>
-      </c>
-      <c r="K18" s="68">
-        <v>1444.5</v>
-      </c>
-      <c r="L18" s="68">
-        <v>2270.8000000000002</v>
-      </c>
-      <c r="M18" s="68">
-        <v>4572.3999999999996</v>
-      </c>
-      <c r="N18" s="68">
-        <v>1691.8</v>
-      </c>
-      <c r="O18" s="68">
-        <v>2880.6</v>
-      </c>
-      <c r="P18" s="69">
-        <v>298.52499999999998</v>
-      </c>
-      <c r="Q18" s="69">
-        <v>3.6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>45016</v>
-      </c>
-      <c r="B19" s="68">
-        <v>26813.599999999999</v>
-      </c>
-      <c r="C19" s="68">
-        <v>22112.3</v>
-      </c>
-      <c r="D19" s="68">
-        <v>26830</v>
-      </c>
-      <c r="E19" s="68">
-        <v>22125.8</v>
-      </c>
-      <c r="F19" s="69">
-        <v>119.309</v>
-      </c>
-      <c r="G19" s="69">
-        <v>121.264</v>
-      </c>
-      <c r="H19" s="68">
-        <v>18269.599999999999</v>
-      </c>
-      <c r="I19" s="68">
-        <v>15312.9</v>
-      </c>
-      <c r="J19" s="68">
-        <v>3758.8</v>
-      </c>
-      <c r="K19" s="68">
-        <v>1462.8</v>
-      </c>
-      <c r="L19" s="68">
-        <v>2296.5</v>
-      </c>
-      <c r="M19" s="68">
-        <v>4643.8999999999996</v>
-      </c>
-      <c r="N19" s="68">
-        <v>1730.6</v>
-      </c>
-      <c r="O19" s="68">
-        <v>2913.2</v>
-      </c>
-      <c r="P19" s="69">
-        <v>301.33</v>
-      </c>
-      <c r="Q19" s="69">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>45107</v>
-      </c>
-      <c r="B20" s="68">
-        <v>27063</v>
-      </c>
-      <c r="C20" s="68">
-        <v>22225.4</v>
-      </c>
-      <c r="D20" s="68">
-        <v>27088.400000000001</v>
-      </c>
-      <c r="E20" s="68">
-        <v>22246.2</v>
-      </c>
-      <c r="F20" s="69">
-        <v>120.044</v>
-      </c>
-      <c r="G20" s="69">
-        <v>121.789</v>
-      </c>
-      <c r="H20" s="68">
-        <v>18419</v>
-      </c>
-      <c r="I20" s="68">
-        <v>15343.6</v>
-      </c>
-      <c r="J20" s="68">
-        <v>3789.8</v>
-      </c>
-      <c r="K20" s="68">
-        <v>1466.9</v>
-      </c>
-      <c r="L20" s="68">
-        <v>2323</v>
-      </c>
-      <c r="M20" s="68">
-        <v>4669.8</v>
-      </c>
-      <c r="N20" s="68">
-        <v>1744.3</v>
-      </c>
-      <c r="O20" s="68">
-        <v>2925.5</v>
-      </c>
-      <c r="P20" s="69">
-        <v>303.351</v>
-      </c>
-      <c r="Q20" s="69">
-        <v>3.5659999999999998</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>45199</v>
-      </c>
-      <c r="B21" s="68">
-        <v>27644.5</v>
-      </c>
-      <c r="C21" s="68">
-        <v>22506.400000000001</v>
-      </c>
-      <c r="D21" s="68">
-        <v>27476.6</v>
-      </c>
-      <c r="E21" s="68">
-        <v>22369.7</v>
-      </c>
-      <c r="F21" s="69">
-        <v>120.88</v>
-      </c>
-      <c r="G21" s="69">
-        <v>122.857</v>
-      </c>
-      <c r="H21" s="68">
-        <v>18711.599999999999</v>
-      </c>
-      <c r="I21" s="68">
-        <v>15479.5</v>
-      </c>
-      <c r="J21" s="68">
-        <v>3840.9</v>
-      </c>
-      <c r="K21" s="68">
-        <v>1491.8</v>
-      </c>
-      <c r="L21" s="68">
-        <v>2349.5</v>
-      </c>
-      <c r="M21" s="68">
-        <v>4792.5</v>
-      </c>
-      <c r="N21" s="68">
-        <v>1791.6</v>
-      </c>
-      <c r="O21" s="68">
-        <v>3000.9</v>
-      </c>
-      <c r="P21" s="69">
-        <v>306.03199999999998</v>
-      </c>
-      <c r="Q21" s="69">
-        <v>3.7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>45291</v>
-      </c>
-      <c r="B22" s="70">
-        <v>27842.400000000001</v>
-      </c>
-      <c r="C22" s="70">
-        <v>22549.599999999999</v>
-      </c>
-      <c r="D22" s="70">
-        <v>27775.200000000001</v>
-      </c>
-      <c r="E22" s="70">
-        <v>22495.200000000001</v>
-      </c>
-      <c r="F22" s="71">
-        <v>121.55</v>
-      </c>
-      <c r="G22" s="71">
-        <v>123.471</v>
-      </c>
-      <c r="H22" s="70">
-        <v>18910.599999999999</v>
-      </c>
-      <c r="I22" s="70">
-        <v>15557.8</v>
-      </c>
-      <c r="J22" s="70">
-        <v>3845.8</v>
-      </c>
-      <c r="K22" s="70">
-        <v>1487.8</v>
-      </c>
-      <c r="L22" s="70">
-        <v>2358</v>
-      </c>
-      <c r="M22" s="70">
-        <v>4822.3999999999996</v>
-      </c>
-      <c r="N22" s="70">
-        <v>1795.9</v>
-      </c>
-      <c r="O22" s="70">
-        <v>3026.5</v>
-      </c>
-      <c r="P22" s="71">
-        <v>307.964</v>
-      </c>
-      <c r="Q22" s="71">
-        <v>3.9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>45382</v>
-      </c>
-      <c r="B23" s="70">
-        <v>28044.7</v>
-      </c>
-      <c r="C23" s="70">
-        <v>22625</v>
-      </c>
-      <c r="D23" s="70">
-        <v>28036.2</v>
-      </c>
-      <c r="E23" s="70">
-        <v>22618.2</v>
-      </c>
-      <c r="F23" s="71">
-        <v>122.10899999999999</v>
-      </c>
-      <c r="G23" s="71">
-        <v>123.95399999999999</v>
-      </c>
-      <c r="H23" s="70">
-        <v>19051.2</v>
-      </c>
-      <c r="I23" s="70">
-        <v>15601.7</v>
-      </c>
-      <c r="J23" s="70">
-        <v>3853.9</v>
-      </c>
-      <c r="K23" s="70">
-        <v>1486.2</v>
-      </c>
-      <c r="L23" s="70">
-        <v>2367.4</v>
-      </c>
-      <c r="M23" s="70">
-        <v>4852</v>
-      </c>
-      <c r="N23" s="70">
-        <v>1804.5</v>
-      </c>
-      <c r="O23" s="70">
-        <v>3047.5</v>
-      </c>
-      <c r="P23" s="71">
-        <v>309.53399999999999</v>
-      </c>
-      <c r="Q23" s="71">
-        <v>3.9750000000000001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>45473</v>
-      </c>
-      <c r="B24" s="70">
-        <v>28279.7</v>
-      </c>
-      <c r="C24" s="70">
-        <v>22703.200000000001</v>
-      </c>
-      <c r="D24" s="70">
-        <v>28324.3</v>
-      </c>
-      <c r="E24" s="70">
-        <v>22739</v>
-      </c>
-      <c r="F24" s="71">
-        <v>122.753</v>
-      </c>
-      <c r="G24" s="71">
-        <v>124.562</v>
-      </c>
-      <c r="H24" s="70">
-        <v>19203.099999999999</v>
-      </c>
-      <c r="I24" s="70">
-        <v>15643.6</v>
-      </c>
-      <c r="J24" s="70">
-        <v>3861.4</v>
-      </c>
-      <c r="K24" s="70">
-        <v>1486.1</v>
-      </c>
-      <c r="L24" s="70">
-        <v>2374.8000000000002</v>
-      </c>
-      <c r="M24" s="70">
-        <v>4889.8999999999996</v>
-      </c>
-      <c r="N24" s="70">
-        <v>1815.8</v>
-      </c>
-      <c r="O24" s="70">
-        <v>3074.1</v>
-      </c>
-      <c r="P24" s="71">
-        <v>311.58</v>
-      </c>
-      <c r="Q24" s="71">
-        <v>4.1100000000000003</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>45565</v>
-      </c>
-      <c r="B25" s="70">
-        <v>28539.7</v>
-      </c>
-      <c r="C25" s="70">
-        <v>22797</v>
-      </c>
-      <c r="D25" s="70">
-        <v>28622</v>
-      </c>
-      <c r="E25" s="70">
-        <v>22862.7</v>
-      </c>
-      <c r="F25" s="71">
-        <v>123.42700000000001</v>
-      </c>
-      <c r="G25" s="71">
-        <v>125.19</v>
-      </c>
-      <c r="H25" s="70">
-        <v>19375.8</v>
-      </c>
-      <c r="I25" s="70">
-        <v>15698.1</v>
-      </c>
-      <c r="J25" s="70">
-        <v>3870</v>
-      </c>
-      <c r="K25" s="70">
-        <v>1488.9</v>
-      </c>
-      <c r="L25" s="70">
-        <v>2380.6</v>
-      </c>
-      <c r="M25" s="70">
-        <v>4932.6000000000004</v>
-      </c>
-      <c r="N25" s="70">
-        <v>1831.3</v>
-      </c>
-      <c r="O25" s="70">
-        <v>3101.3</v>
-      </c>
-      <c r="P25" s="71">
-        <v>313.65300000000002</v>
-      </c>
-      <c r="Q25" s="71">
-        <v>4.2460000000000004</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <v>45657</v>
-      </c>
-      <c r="B26" s="70">
-        <v>28807.9</v>
-      </c>
-      <c r="C26" s="70">
-        <v>22895.599999999999</v>
-      </c>
-      <c r="D26" s="70">
-        <v>28925.1</v>
-      </c>
-      <c r="E26" s="70">
-        <v>22988.799999999999</v>
-      </c>
-      <c r="F26" s="71">
-        <v>124.102</v>
-      </c>
-      <c r="G26" s="71">
-        <v>125.822</v>
-      </c>
-      <c r="H26" s="70">
-        <v>19556.2</v>
-      </c>
-      <c r="I26" s="70">
-        <v>15758.2</v>
-      </c>
-      <c r="J26" s="70">
-        <v>3876.7</v>
-      </c>
-      <c r="K26" s="70">
-        <v>1489.7</v>
-      </c>
-      <c r="L26" s="70">
-        <v>2386.4</v>
-      </c>
-      <c r="M26" s="70">
-        <v>4973.3999999999996</v>
-      </c>
-      <c r="N26" s="70">
-        <v>1845.1</v>
-      </c>
-      <c r="O26" s="70">
-        <v>3128.3</v>
-      </c>
-      <c r="P26" s="71">
-        <v>315.56200000000001</v>
-      </c>
-      <c r="Q26" s="71">
-        <v>4.3710000000000004</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>45747</v>
-      </c>
-      <c r="B27" s="70">
-        <v>29095.1</v>
-      </c>
-      <c r="C27" s="70">
-        <v>23007.3</v>
-      </c>
-      <c r="D27" s="70">
-        <v>29233.200000000001</v>
-      </c>
-      <c r="E27" s="70">
-        <v>23116.6</v>
-      </c>
-      <c r="F27" s="71">
-        <v>124.792</v>
-      </c>
-      <c r="G27" s="71">
-        <v>126.46</v>
-      </c>
-      <c r="H27" s="70">
-        <v>19758.5</v>
-      </c>
-      <c r="I27" s="70">
-        <v>15833.2</v>
-      </c>
-      <c r="J27" s="70">
-        <v>3882.8</v>
-      </c>
-      <c r="K27" s="70">
-        <v>1489.3</v>
-      </c>
-      <c r="L27" s="70">
-        <v>2392.6999999999998</v>
-      </c>
-      <c r="M27" s="70">
-        <v>5013.8</v>
-      </c>
-      <c r="N27" s="70">
-        <v>1856.5</v>
-      </c>
-      <c r="O27" s="70">
-        <v>3157.3</v>
-      </c>
-      <c r="P27" s="71">
-        <v>317.53899999999999</v>
-      </c>
-      <c r="Q27" s="71">
-        <v>4.4089999999999998</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+        <v>46568</v>
+      </c>
+      <c r="B27" s="53">
+        <v>31914.1</v>
+      </c>
+      <c r="C27" s="53">
+        <v>24166.7</v>
+      </c>
+      <c r="D27" s="53">
+        <v>32074.400000000001</v>
+      </c>
+      <c r="E27" s="53">
+        <v>24288.1</v>
+      </c>
+      <c r="F27" s="54">
+        <v>130.739</v>
+      </c>
+      <c r="G27" s="54">
+        <v>132.05799999999999</v>
+      </c>
+      <c r="H27" s="53">
+        <v>21527.3</v>
+      </c>
+      <c r="I27" s="53">
+        <v>16465.8</v>
+      </c>
+      <c r="J27" s="53">
+        <v>3958.7</v>
+      </c>
+      <c r="K27" s="53">
+        <v>1505.1</v>
+      </c>
+      <c r="L27" s="53">
+        <v>2452.1</v>
+      </c>
+      <c r="M27" s="53">
+        <v>5417.5</v>
+      </c>
+      <c r="N27" s="53">
+        <v>1979.2</v>
+      </c>
+      <c r="O27" s="53">
+        <v>3438.3</v>
+      </c>
+      <c r="P27" s="54">
+        <v>334.16500000000002</v>
+      </c>
+      <c r="Q27" s="54">
+        <v>4.3739999999999997</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>45838</v>
-      </c>
-      <c r="B28" s="70">
-        <v>29404.5</v>
-      </c>
-      <c r="C28" s="70">
-        <v>23135.599999999999</v>
-      </c>
-      <c r="D28" s="70">
-        <v>29544.3</v>
-      </c>
-      <c r="E28" s="70">
-        <v>23245.599999999999</v>
-      </c>
-      <c r="F28" s="71">
-        <v>125.47799999999999</v>
-      </c>
-      <c r="G28" s="71">
-        <v>127.096</v>
-      </c>
-      <c r="H28" s="70">
-        <v>19957.7</v>
-      </c>
-      <c r="I28" s="70">
-        <v>15905.3</v>
-      </c>
-      <c r="J28" s="70">
-        <v>3889.6</v>
-      </c>
-      <c r="K28" s="70">
-        <v>1489.4</v>
-      </c>
-      <c r="L28" s="70">
-        <v>2399.3000000000002</v>
-      </c>
-      <c r="M28" s="70">
-        <v>5055.2</v>
-      </c>
-      <c r="N28" s="70">
-        <v>1868.4</v>
-      </c>
-      <c r="O28" s="70">
-        <v>3186.8</v>
-      </c>
-      <c r="P28" s="71">
-        <v>319.48700000000002</v>
-      </c>
-      <c r="Q28" s="71">
-        <v>4.4029999999999996</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+        <v>46660</v>
+      </c>
+      <c r="B28" s="53">
+        <v>32233.7</v>
+      </c>
+      <c r="C28" s="53">
+        <v>24294.3</v>
+      </c>
+      <c r="D28" s="53">
+        <v>32395.7</v>
+      </c>
+      <c r="E28" s="53">
+        <v>24416.400000000001</v>
+      </c>
+      <c r="F28" s="54">
+        <v>131.38300000000001</v>
+      </c>
+      <c r="G28" s="54">
+        <v>132.68</v>
+      </c>
+      <c r="H28" s="53">
+        <v>21743.599999999999</v>
+      </c>
+      <c r="I28" s="53">
+        <v>16549.8</v>
+      </c>
+      <c r="J28" s="53">
+        <v>3966.9</v>
+      </c>
+      <c r="K28" s="53">
+        <v>1506.9</v>
+      </c>
+      <c r="L28" s="53">
+        <v>2458.4</v>
+      </c>
+      <c r="M28" s="53">
+        <v>5464</v>
+      </c>
+      <c r="N28" s="53">
+        <v>1992.8</v>
+      </c>
+      <c r="O28" s="53">
+        <v>3471.3</v>
+      </c>
+      <c r="P28" s="54">
+        <v>335.96600000000001</v>
+      </c>
+      <c r="Q28" s="54">
+        <v>4.3810000000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>45930</v>
-      </c>
-      <c r="B29" s="70">
-        <v>29718.1</v>
-      </c>
-      <c r="C29" s="70">
-        <v>23266.6</v>
-      </c>
-      <c r="D29" s="70">
-        <v>29857.599999999999</v>
-      </c>
-      <c r="E29" s="70">
-        <v>23375.8</v>
-      </c>
-      <c r="F29" s="71">
-        <v>126.16</v>
-      </c>
-      <c r="G29" s="71">
-        <v>127.72799999999999</v>
-      </c>
-      <c r="H29" s="70">
-        <v>20156.599999999999</v>
-      </c>
-      <c r="I29" s="70">
-        <v>15976.9</v>
-      </c>
-      <c r="J29" s="70">
-        <v>3897.5</v>
-      </c>
-      <c r="K29" s="70">
-        <v>1490.2</v>
-      </c>
-      <c r="L29" s="70">
-        <v>2406.1999999999998</v>
-      </c>
-      <c r="M29" s="70">
-        <v>5098.2</v>
-      </c>
-      <c r="N29" s="70">
-        <v>1881.1</v>
-      </c>
-      <c r="O29" s="70">
-        <v>3217</v>
-      </c>
-      <c r="P29" s="71">
-        <v>321.42200000000003</v>
-      </c>
-      <c r="Q29" s="71">
-        <v>4.375</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+        <v>46752</v>
+      </c>
+      <c r="B29" s="53">
+        <v>32555.3</v>
+      </c>
+      <c r="C29" s="53">
+        <v>24421.200000000001</v>
+      </c>
+      <c r="D29" s="53">
+        <v>32718.9</v>
+      </c>
+      <c r="E29" s="53">
+        <v>24543.9</v>
+      </c>
+      <c r="F29" s="54">
+        <v>132.02799999999999</v>
+      </c>
+      <c r="G29" s="54">
+        <v>133.30699999999999</v>
+      </c>
+      <c r="H29" s="53">
+        <v>21964.3</v>
+      </c>
+      <c r="I29" s="53">
+        <v>16636.099999999999</v>
+      </c>
+      <c r="J29" s="53">
+        <v>3974.7</v>
+      </c>
+      <c r="K29" s="53">
+        <v>1508.7</v>
+      </c>
+      <c r="L29" s="53">
+        <v>2464.3000000000002</v>
+      </c>
+      <c r="M29" s="53">
+        <v>5511</v>
+      </c>
+      <c r="N29" s="53">
+        <v>2007</v>
+      </c>
+      <c r="O29" s="53">
+        <v>3503.9</v>
+      </c>
+      <c r="P29" s="54">
+        <v>337.78399999999999</v>
+      </c>
+      <c r="Q29" s="54">
+        <v>4.3879999999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>46022</v>
-      </c>
-      <c r="B30" s="70">
-        <v>30042.1</v>
-      </c>
-      <c r="C30" s="70">
-        <v>23405.4</v>
-      </c>
-      <c r="D30" s="70">
-        <v>30172.1</v>
-      </c>
-      <c r="E30" s="70">
-        <v>23506.6</v>
-      </c>
-      <c r="F30" s="71">
-        <v>126.834</v>
-      </c>
-      <c r="G30" s="71">
-        <v>128.35499999999999</v>
-      </c>
-      <c r="H30" s="70">
-        <v>20359.900000000001</v>
-      </c>
-      <c r="I30" s="70">
-        <v>16052.3</v>
-      </c>
-      <c r="J30" s="70">
-        <v>3906</v>
-      </c>
-      <c r="K30" s="70">
-        <v>1492.1</v>
-      </c>
-      <c r="L30" s="70">
-        <v>2412.9</v>
-      </c>
-      <c r="M30" s="70">
-        <v>5142.3</v>
-      </c>
-      <c r="N30" s="70">
-        <v>1895</v>
-      </c>
-      <c r="O30" s="70">
-        <v>3247.2</v>
-      </c>
-      <c r="P30" s="71">
-        <v>323.32799999999997</v>
-      </c>
-      <c r="Q30" s="71">
-        <v>4.3540000000000001</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+        <v>46843</v>
+      </c>
+      <c r="B30" s="53">
+        <v>32877.599999999999</v>
+      </c>
+      <c r="C30" s="53">
+        <v>24547.1</v>
+      </c>
+      <c r="D30" s="53">
+        <v>33042.9</v>
+      </c>
+      <c r="E30" s="53">
+        <v>24670.400000000001</v>
+      </c>
+      <c r="F30" s="54">
+        <v>132.673</v>
+      </c>
+      <c r="G30" s="54">
+        <v>133.93700000000001</v>
+      </c>
+      <c r="H30" s="53">
+        <v>22187.1</v>
+      </c>
+      <c r="I30" s="53">
+        <v>16723.099999999999</v>
+      </c>
+      <c r="J30" s="53">
+        <v>3982</v>
+      </c>
+      <c r="K30" s="53">
+        <v>1510.4</v>
+      </c>
+      <c r="L30" s="53">
+        <v>2469.9</v>
+      </c>
+      <c r="M30" s="53">
+        <v>5557.2</v>
+      </c>
+      <c r="N30" s="53">
+        <v>2020.8</v>
+      </c>
+      <c r="O30" s="53">
+        <v>3536.5</v>
+      </c>
+      <c r="P30" s="54">
+        <v>339.625</v>
+      </c>
+      <c r="Q30" s="54">
+        <v>4.3959999999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>46112</v>
-      </c>
-      <c r="B31" s="70">
-        <v>30348.3</v>
-      </c>
-      <c r="C31" s="70">
-        <v>23530.6</v>
-      </c>
-      <c r="D31" s="70">
-        <v>30486.7</v>
-      </c>
-      <c r="E31" s="70">
-        <v>23637.9</v>
-      </c>
-      <c r="F31" s="71">
-        <v>127.498</v>
-      </c>
-      <c r="G31" s="71">
-        <v>128.97300000000001</v>
-      </c>
-      <c r="H31" s="70">
-        <v>20538</v>
-      </c>
-      <c r="I31" s="70">
-        <v>16108.4</v>
-      </c>
-      <c r="J31" s="70">
-        <v>3916.1</v>
-      </c>
-      <c r="K31" s="70">
-        <v>1494.5</v>
-      </c>
-      <c r="L31" s="70">
-        <v>2420.4</v>
-      </c>
-      <c r="M31" s="70">
-        <v>5188</v>
-      </c>
-      <c r="N31" s="70">
-        <v>1909</v>
-      </c>
-      <c r="O31" s="70">
-        <v>3279</v>
-      </c>
-      <c r="P31" s="71">
-        <v>325.18900000000002</v>
-      </c>
-      <c r="Q31" s="71">
-        <v>4.3440000000000003</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+        <v>46934</v>
+      </c>
+      <c r="B31" s="53">
+        <v>33204.699999999997</v>
+      </c>
+      <c r="C31" s="53">
+        <v>24674.6</v>
+      </c>
+      <c r="D31" s="53">
+        <v>33371.599999999999</v>
+      </c>
+      <c r="E31" s="53">
+        <v>24798.6</v>
+      </c>
+      <c r="F31" s="54">
+        <v>133.31899999999999</v>
+      </c>
+      <c r="G31" s="54">
+        <v>134.57</v>
+      </c>
+      <c r="H31" s="53">
+        <v>22420.5</v>
+      </c>
+      <c r="I31" s="53">
+        <v>16817.099999999999</v>
+      </c>
+      <c r="J31" s="53">
+        <v>3988.5</v>
+      </c>
+      <c r="K31" s="53">
+        <v>1512</v>
+      </c>
+      <c r="L31" s="53">
+        <v>2474.6999999999998</v>
+      </c>
+      <c r="M31" s="53">
+        <v>5602.8</v>
+      </c>
+      <c r="N31" s="53">
+        <v>2034.6</v>
+      </c>
+      <c r="O31" s="53">
+        <v>3568.2</v>
+      </c>
+      <c r="P31" s="54">
+        <v>341.47800000000001</v>
+      </c>
+      <c r="Q31" s="54">
+        <v>4.4039999999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>46203</v>
-      </c>
-      <c r="B32" s="70">
-        <v>30656.799999999999</v>
-      </c>
-      <c r="C32" s="70">
-        <v>23656.9</v>
-      </c>
-      <c r="D32" s="70">
-        <v>30801.200000000001</v>
-      </c>
-      <c r="E32" s="70">
-        <v>23768.400000000001</v>
-      </c>
-      <c r="F32" s="71">
-        <v>128.15299999999999</v>
-      </c>
-      <c r="G32" s="71">
-        <v>129.589</v>
-      </c>
-      <c r="H32" s="70">
-        <v>20726.599999999999</v>
-      </c>
-      <c r="I32" s="70">
-        <v>16173.3</v>
-      </c>
-      <c r="J32" s="70">
-        <v>3925.3</v>
-      </c>
-      <c r="K32" s="70">
-        <v>1497</v>
-      </c>
-      <c r="L32" s="70">
-        <v>2427.1</v>
-      </c>
-      <c r="M32" s="70">
-        <v>5233.6000000000004</v>
-      </c>
-      <c r="N32" s="70">
-        <v>1923.3</v>
-      </c>
-      <c r="O32" s="70">
-        <v>3310.2</v>
-      </c>
-      <c r="P32" s="71">
-        <v>327.00400000000002</v>
-      </c>
-      <c r="Q32" s="71">
-        <v>4.343</v>
+        <v>47026</v>
+      </c>
+      <c r="B32" s="53">
+        <v>33534.699999999997</v>
+      </c>
+      <c r="C32" s="53">
+        <v>24802.2</v>
+      </c>
+      <c r="D32" s="53">
+        <v>33703.300000000003</v>
+      </c>
+      <c r="E32" s="53">
+        <v>24926.799999999999</v>
+      </c>
+      <c r="F32" s="54">
+        <v>133.96700000000001</v>
+      </c>
+      <c r="G32" s="54">
+        <v>135.209</v>
+      </c>
+      <c r="H32" s="53">
+        <v>22657.1</v>
+      </c>
+      <c r="I32" s="53">
+        <v>16912.5</v>
+      </c>
+      <c r="J32" s="53">
+        <v>3994.7</v>
+      </c>
+      <c r="K32" s="53">
+        <v>1513.6</v>
+      </c>
+      <c r="L32" s="53">
+        <v>2479.1999999999998</v>
+      </c>
+      <c r="M32" s="53">
+        <v>5648.5</v>
+      </c>
+      <c r="N32" s="53">
+        <v>2048.6</v>
+      </c>
+      <c r="O32" s="53">
+        <v>3599.9</v>
+      </c>
+      <c r="P32" s="54">
+        <v>343.346</v>
+      </c>
+      <c r="Q32" s="54">
+        <v>4.415</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>46295</v>
-      </c>
-      <c r="B33" s="70">
-        <v>30967.1</v>
-      </c>
-      <c r="C33" s="70">
-        <v>23783.200000000001</v>
-      </c>
-      <c r="D33" s="70">
-        <v>31117.5</v>
-      </c>
-      <c r="E33" s="70">
-        <v>23898.7</v>
-      </c>
-      <c r="F33" s="71">
-        <v>128.803</v>
-      </c>
-      <c r="G33" s="71">
-        <v>130.20500000000001</v>
-      </c>
-      <c r="H33" s="70">
-        <v>20916</v>
-      </c>
-      <c r="I33" s="70">
-        <v>16238.7</v>
-      </c>
-      <c r="J33" s="70">
-        <v>3934.4</v>
-      </c>
-      <c r="K33" s="70">
-        <v>1499.4</v>
-      </c>
-      <c r="L33" s="70">
-        <v>2433.6999999999998</v>
-      </c>
-      <c r="M33" s="70">
-        <v>5280</v>
-      </c>
-      <c r="N33" s="70">
-        <v>1937.9</v>
-      </c>
-      <c r="O33" s="70">
-        <v>3342.1</v>
-      </c>
-      <c r="P33" s="71">
-        <v>328.80099999999999</v>
-      </c>
-      <c r="Q33" s="71">
-        <v>4.3490000000000002</v>
+        <v>47118</v>
+      </c>
+      <c r="B33" s="53">
+        <v>33868.400000000001</v>
+      </c>
+      <c r="C33" s="53">
+        <v>24930.3</v>
+      </c>
+      <c r="D33" s="53">
+        <v>34038.6</v>
+      </c>
+      <c r="E33" s="53">
+        <v>25055.5</v>
+      </c>
+      <c r="F33" s="54">
+        <v>134.61699999999999</v>
+      </c>
+      <c r="G33" s="54">
+        <v>135.852</v>
+      </c>
+      <c r="H33" s="53">
+        <v>22897.8</v>
+      </c>
+      <c r="I33" s="53">
+        <v>17009.599999999999</v>
+      </c>
+      <c r="J33" s="53">
+        <v>4000.8</v>
+      </c>
+      <c r="K33" s="53">
+        <v>1515.5</v>
+      </c>
+      <c r="L33" s="53">
+        <v>2483.4</v>
+      </c>
+      <c r="M33" s="53">
+        <v>5694.6</v>
+      </c>
+      <c r="N33" s="53">
+        <v>2062.9</v>
+      </c>
+      <c r="O33" s="53">
+        <v>3631.6</v>
+      </c>
+      <c r="P33" s="54">
+        <v>345.23200000000003</v>
+      </c>
+      <c r="Q33" s="54">
+        <v>4.4290000000000003</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>46387</v>
-      </c>
-      <c r="B34" s="70">
-        <v>31278.7</v>
-      </c>
-      <c r="C34" s="70">
-        <v>23909.1</v>
-      </c>
-      <c r="D34" s="70">
-        <v>31435</v>
-      </c>
-      <c r="E34" s="70">
-        <v>24028.6</v>
-      </c>
-      <c r="F34" s="71">
-        <v>129.44999999999999</v>
-      </c>
-      <c r="G34" s="71">
-        <v>130.82300000000001</v>
-      </c>
-      <c r="H34" s="70">
-        <v>21112.5</v>
-      </c>
-      <c r="I34" s="70">
-        <v>16309.3</v>
-      </c>
-      <c r="J34" s="70">
-        <v>3943</v>
-      </c>
-      <c r="K34" s="70">
-        <v>1501.6</v>
-      </c>
-      <c r="L34" s="70">
-        <v>2440</v>
-      </c>
-      <c r="M34" s="70">
-        <v>5326.3</v>
-      </c>
-      <c r="N34" s="70">
-        <v>1952.4</v>
-      </c>
-      <c r="O34" s="70">
-        <v>3373.9</v>
-      </c>
-      <c r="P34" s="71">
-        <v>330.59100000000001</v>
-      </c>
-      <c r="Q34" s="71">
-        <v>4.3570000000000002</v>
+        <v>47208</v>
+      </c>
+      <c r="B34" s="53">
+        <v>34204.1</v>
+      </c>
+      <c r="C34" s="53">
+        <v>25058</v>
+      </c>
+      <c r="D34" s="53">
+        <v>34376</v>
+      </c>
+      <c r="E34" s="53">
+        <v>25183.9</v>
+      </c>
+      <c r="F34" s="54">
+        <v>135.268</v>
+      </c>
+      <c r="G34" s="54">
+        <v>136.499</v>
+      </c>
+      <c r="H34" s="53">
+        <v>23139.8</v>
+      </c>
+      <c r="I34" s="53">
+        <v>17106.5</v>
+      </c>
+      <c r="J34" s="53">
+        <v>4006.6</v>
+      </c>
+      <c r="K34" s="53">
+        <v>1517.3</v>
+      </c>
+      <c r="L34" s="53">
+        <v>2487.4</v>
+      </c>
+      <c r="M34" s="53">
+        <v>5740.1</v>
+      </c>
+      <c r="N34" s="53">
+        <v>2076.9</v>
+      </c>
+      <c r="O34" s="53">
+        <v>3663.2</v>
+      </c>
+      <c r="P34" s="54">
+        <v>347.13299999999998</v>
+      </c>
+      <c r="Q34" s="54">
+        <v>4.444</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>46477</v>
-      </c>
-      <c r="B35" s="70">
-        <v>31596.400000000001</v>
-      </c>
-      <c r="C35" s="70">
-        <v>24038.6</v>
-      </c>
-      <c r="D35" s="70">
-        <v>31755.1</v>
-      </c>
-      <c r="E35" s="70">
-        <v>24159.4</v>
-      </c>
-      <c r="F35" s="71">
-        <v>130.095</v>
-      </c>
-      <c r="G35" s="71">
-        <v>131.44</v>
-      </c>
-      <c r="H35" s="70">
-        <v>21320.6</v>
-      </c>
-      <c r="I35" s="70">
-        <v>16388.400000000001</v>
-      </c>
-      <c r="J35" s="70">
-        <v>3950.2</v>
-      </c>
-      <c r="K35" s="70">
-        <v>1503.3</v>
-      </c>
-      <c r="L35" s="70">
-        <v>2445.5</v>
-      </c>
-      <c r="M35" s="70">
-        <v>5370.8</v>
-      </c>
-      <c r="N35" s="70">
-        <v>1965.7</v>
-      </c>
-      <c r="O35" s="70">
-        <v>3405.1</v>
-      </c>
-      <c r="P35" s="71">
-        <v>332.37700000000001</v>
-      </c>
-      <c r="Q35" s="71">
-        <v>4.3659999999999997</v>
+        <v>47299</v>
+      </c>
+      <c r="B35" s="53">
+        <v>34542.9</v>
+      </c>
+      <c r="C35" s="53">
+        <v>25186.2</v>
+      </c>
+      <c r="D35" s="53">
+        <v>34716.5</v>
+      </c>
+      <c r="E35" s="53">
+        <v>25312.799999999999</v>
+      </c>
+      <c r="F35" s="54">
+        <v>135.92099999999999</v>
+      </c>
+      <c r="G35" s="54">
+        <v>137.15</v>
+      </c>
+      <c r="H35" s="53">
+        <v>23383.7</v>
+      </c>
+      <c r="I35" s="53">
+        <v>17203.8</v>
+      </c>
+      <c r="J35" s="53">
+        <v>4012.7</v>
+      </c>
+      <c r="K35" s="53">
+        <v>1519.1</v>
+      </c>
+      <c r="L35" s="53">
+        <v>2491.6999999999998</v>
+      </c>
+      <c r="M35" s="53">
+        <v>5786.4</v>
+      </c>
+      <c r="N35" s="53">
+        <v>2091</v>
+      </c>
+      <c r="O35" s="53">
+        <v>3695.4</v>
+      </c>
+      <c r="P35" s="54">
+        <v>349.04500000000002</v>
+      </c>
+      <c r="Q35" s="54">
+        <v>4.4589999999999996</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>46568</v>
-      </c>
-      <c r="B36" s="70">
-        <v>31914.1</v>
-      </c>
-      <c r="C36" s="70">
-        <v>24166.7</v>
-      </c>
-      <c r="D36" s="70">
-        <v>32074.400000000001</v>
-      </c>
-      <c r="E36" s="70">
-        <v>24288.1</v>
-      </c>
-      <c r="F36" s="71">
-        <v>130.739</v>
-      </c>
-      <c r="G36" s="71">
-        <v>132.05799999999999</v>
-      </c>
-      <c r="H36" s="70">
-        <v>21527.3</v>
-      </c>
-      <c r="I36" s="70">
-        <v>16465.8</v>
-      </c>
-      <c r="J36" s="70">
-        <v>3958.7</v>
-      </c>
-      <c r="K36" s="70">
-        <v>1505.1</v>
-      </c>
-      <c r="L36" s="70">
-        <v>2452.1</v>
-      </c>
-      <c r="M36" s="70">
-        <v>5417.5</v>
-      </c>
-      <c r="N36" s="70">
-        <v>1979.2</v>
-      </c>
-      <c r="O36" s="70">
-        <v>3438.3</v>
-      </c>
-      <c r="P36" s="71">
-        <v>334.16500000000002</v>
-      </c>
-      <c r="Q36" s="71">
-        <v>4.3739999999999997</v>
+        <v>47391</v>
+      </c>
+      <c r="B36" s="53">
+        <v>34883.5</v>
+      </c>
+      <c r="C36" s="53">
+        <v>25314.1</v>
+      </c>
+      <c r="D36" s="53">
+        <v>35058.800000000003</v>
+      </c>
+      <c r="E36" s="53">
+        <v>25441.3</v>
+      </c>
+      <c r="F36" s="54">
+        <v>136.57300000000001</v>
+      </c>
+      <c r="G36" s="54">
+        <v>137.803</v>
+      </c>
+      <c r="H36" s="53">
+        <v>23634.2</v>
+      </c>
+      <c r="I36" s="53">
+        <v>17305.2</v>
+      </c>
+      <c r="J36" s="53">
+        <v>4018.2</v>
+      </c>
+      <c r="K36" s="53">
+        <v>1521</v>
+      </c>
+      <c r="L36" s="53">
+        <v>2495.3000000000002</v>
+      </c>
+      <c r="M36" s="53">
+        <v>5832.2</v>
+      </c>
+      <c r="N36" s="53">
+        <v>2105.1999999999998</v>
+      </c>
+      <c r="O36" s="53">
+        <v>3727</v>
+      </c>
+      <c r="P36" s="54">
+        <v>350.96699999999998</v>
+      </c>
+      <c r="Q36" s="54">
+        <v>4.4729999999999999</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>46660</v>
-      </c>
-      <c r="B37" s="70">
-        <v>32233.7</v>
-      </c>
-      <c r="C37" s="70">
-        <v>24294.3</v>
-      </c>
-      <c r="D37" s="70">
-        <v>32395.7</v>
-      </c>
-      <c r="E37" s="70">
-        <v>24416.400000000001</v>
-      </c>
-      <c r="F37" s="71">
-        <v>131.38300000000001</v>
-      </c>
-      <c r="G37" s="71">
-        <v>132.68</v>
-      </c>
-      <c r="H37" s="70">
-        <v>21743.599999999999</v>
-      </c>
-      <c r="I37" s="70">
-        <v>16549.8</v>
-      </c>
-      <c r="J37" s="70">
-        <v>3966.9</v>
-      </c>
-      <c r="K37" s="70">
-        <v>1506.9</v>
-      </c>
-      <c r="L37" s="70">
-        <v>2458.4</v>
-      </c>
-      <c r="M37" s="70">
-        <v>5464</v>
-      </c>
-      <c r="N37" s="70">
-        <v>1992.8</v>
-      </c>
-      <c r="O37" s="70">
-        <v>3471.3</v>
-      </c>
-      <c r="P37" s="71">
-        <v>335.96600000000001</v>
-      </c>
-      <c r="Q37" s="71">
-        <v>4.3810000000000002</v>
+        <v>47483</v>
+      </c>
+      <c r="B37" s="53">
+        <v>35226.199999999997</v>
+      </c>
+      <c r="C37" s="53">
+        <v>25441.4</v>
+      </c>
+      <c r="D37" s="53">
+        <v>35403.199999999997</v>
+      </c>
+      <c r="E37" s="53">
+        <v>25569.200000000001</v>
+      </c>
+      <c r="F37" s="54">
+        <v>137.227</v>
+      </c>
+      <c r="G37" s="54">
+        <v>138.46</v>
+      </c>
+      <c r="H37" s="53">
+        <v>23883.9</v>
+      </c>
+      <c r="I37" s="53">
+        <v>17404.599999999999</v>
+      </c>
+      <c r="J37" s="53">
+        <v>4023.6</v>
+      </c>
+      <c r="K37" s="53">
+        <v>1522.9</v>
+      </c>
+      <c r="L37" s="53">
+        <v>2498.8000000000002</v>
+      </c>
+      <c r="M37" s="53">
+        <v>5878.2</v>
+      </c>
+      <c r="N37" s="53">
+        <v>2119.5</v>
+      </c>
+      <c r="O37" s="53">
+        <v>3758.7</v>
+      </c>
+      <c r="P37" s="54">
+        <v>352.899</v>
+      </c>
+      <c r="Q37" s="54">
+        <v>4.484</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>46752</v>
-      </c>
-      <c r="B38" s="70">
-        <v>32555.3</v>
-      </c>
-      <c r="C38" s="70">
-        <v>24421.200000000001</v>
-      </c>
-      <c r="D38" s="70">
-        <v>32718.9</v>
-      </c>
-      <c r="E38" s="70">
-        <v>24543.9</v>
-      </c>
-      <c r="F38" s="71">
-        <v>132.02799999999999</v>
-      </c>
-      <c r="G38" s="71">
-        <v>133.30699999999999</v>
-      </c>
-      <c r="H38" s="70">
-        <v>21964.3</v>
-      </c>
-      <c r="I38" s="70">
-        <v>16636.099999999999</v>
-      </c>
-      <c r="J38" s="70">
-        <v>3974.7</v>
-      </c>
-      <c r="K38" s="70">
-        <v>1508.7</v>
-      </c>
-      <c r="L38" s="70">
-        <v>2464.3000000000002</v>
-      </c>
-      <c r="M38" s="70">
-        <v>5511</v>
-      </c>
-      <c r="N38" s="70">
-        <v>2007</v>
-      </c>
-      <c r="O38" s="70">
-        <v>3503.9</v>
-      </c>
-      <c r="P38" s="71">
-        <v>337.78399999999999</v>
-      </c>
-      <c r="Q38" s="71">
-        <v>4.3879999999999999</v>
+        <v>47573</v>
+      </c>
+      <c r="B38" s="53">
+        <v>35570.800000000003</v>
+      </c>
+      <c r="C38" s="53">
+        <v>25568.2</v>
+      </c>
+      <c r="D38" s="53">
+        <v>35749.599999999999</v>
+      </c>
+      <c r="E38" s="53">
+        <v>25696.7</v>
+      </c>
+      <c r="F38" s="54">
+        <v>137.88499999999999</v>
+      </c>
+      <c r="G38" s="54">
+        <v>139.12100000000001</v>
+      </c>
+      <c r="H38" s="53">
+        <v>24134</v>
+      </c>
+      <c r="I38" s="53">
+        <v>17502.900000000001</v>
+      </c>
+      <c r="J38" s="53">
+        <v>4029.3</v>
+      </c>
+      <c r="K38" s="53">
+        <v>1524.8</v>
+      </c>
+      <c r="L38" s="53">
+        <v>2502.4</v>
+      </c>
+      <c r="M38" s="53">
+        <v>5924.6</v>
+      </c>
+      <c r="N38" s="53">
+        <v>2133.6999999999998</v>
+      </c>
+      <c r="O38" s="53">
+        <v>3790.9</v>
+      </c>
+      <c r="P38" s="54">
+        <v>354.84699999999998</v>
+      </c>
+      <c r="Q38" s="54">
+        <v>4.4930000000000003</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>46843</v>
-      </c>
-      <c r="B39" s="70">
-        <v>32877.599999999999</v>
-      </c>
-      <c r="C39" s="70">
-        <v>24547.1</v>
-      </c>
-      <c r="D39" s="70">
-        <v>33042.9</v>
-      </c>
-      <c r="E39" s="70">
-        <v>24670.400000000001</v>
-      </c>
-      <c r="F39" s="71">
-        <v>132.673</v>
-      </c>
-      <c r="G39" s="71">
-        <v>133.93700000000001</v>
-      </c>
-      <c r="H39" s="70">
-        <v>22187.1</v>
-      </c>
-      <c r="I39" s="70">
-        <v>16723.099999999999</v>
-      </c>
-      <c r="J39" s="70">
-        <v>3982</v>
-      </c>
-      <c r="K39" s="70">
-        <v>1510.4</v>
-      </c>
-      <c r="L39" s="70">
-        <v>2469.9</v>
-      </c>
-      <c r="M39" s="70">
-        <v>5557.2</v>
-      </c>
-      <c r="N39" s="70">
-        <v>2020.8</v>
-      </c>
-      <c r="O39" s="70">
-        <v>3536.5</v>
-      </c>
-      <c r="P39" s="71">
-        <v>339.625</v>
-      </c>
-      <c r="Q39" s="71">
-        <v>4.3959999999999999</v>
+        <v>47664</v>
+      </c>
+      <c r="B39" s="53">
+        <v>35918.1</v>
+      </c>
+      <c r="C39" s="53">
+        <v>25694.6</v>
+      </c>
+      <c r="D39" s="53">
+        <v>36098.6</v>
+      </c>
+      <c r="E39" s="53">
+        <v>25823.8</v>
+      </c>
+      <c r="F39" s="54">
+        <v>138.547</v>
+      </c>
+      <c r="G39" s="54">
+        <v>139.78800000000001</v>
+      </c>
+      <c r="H39" s="53">
+        <v>24385.1</v>
+      </c>
+      <c r="I39" s="53">
+        <v>17600.5</v>
+      </c>
+      <c r="J39" s="53">
+        <v>4034.8</v>
+      </c>
+      <c r="K39" s="53">
+        <v>1526.8</v>
+      </c>
+      <c r="L39" s="53">
+        <v>2506.1</v>
+      </c>
+      <c r="M39" s="53">
+        <v>5971.2</v>
+      </c>
+      <c r="N39" s="53">
+        <v>2147.9</v>
+      </c>
+      <c r="O39" s="53">
+        <v>3823.3</v>
+      </c>
+      <c r="P39" s="54">
+        <v>356.81</v>
+      </c>
+      <c r="Q39" s="54">
+        <v>4.5010000000000003</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>46934</v>
-      </c>
-      <c r="B40" s="70">
-        <v>33204.699999999997</v>
-      </c>
-      <c r="C40" s="70">
-        <v>24674.6</v>
-      </c>
-      <c r="D40" s="70">
-        <v>33371.599999999999</v>
-      </c>
-      <c r="E40" s="70">
-        <v>24798.6</v>
-      </c>
-      <c r="F40" s="71">
-        <v>133.31899999999999</v>
-      </c>
-      <c r="G40" s="71">
-        <v>134.57</v>
-      </c>
-      <c r="H40" s="70">
-        <v>22420.5</v>
-      </c>
-      <c r="I40" s="70">
-        <v>16817.099999999999</v>
-      </c>
-      <c r="J40" s="70">
-        <v>3988.5</v>
-      </c>
-      <c r="K40" s="70">
-        <v>1512</v>
-      </c>
-      <c r="L40" s="70">
-        <v>2474.6999999999998</v>
-      </c>
-      <c r="M40" s="70">
-        <v>5602.8</v>
-      </c>
-      <c r="N40" s="70">
-        <v>2034.6</v>
-      </c>
-      <c r="O40" s="70">
-        <v>3568.2</v>
-      </c>
-      <c r="P40" s="71">
-        <v>341.47800000000001</v>
-      </c>
-      <c r="Q40" s="71">
-        <v>4.4039999999999999</v>
+        <v>47756</v>
+      </c>
+      <c r="B40" s="53">
+        <v>36268.400000000001</v>
+      </c>
+      <c r="C40" s="53">
+        <v>25821.1</v>
+      </c>
+      <c r="D40" s="53">
+        <v>36450.6</v>
+      </c>
+      <c r="E40" s="53">
+        <v>25950.799999999999</v>
+      </c>
+      <c r="F40" s="54">
+        <v>139.21199999999999</v>
+      </c>
+      <c r="G40" s="54">
+        <v>140.46</v>
+      </c>
+      <c r="H40" s="53">
+        <v>24638</v>
+      </c>
+      <c r="I40" s="53">
+        <v>17698.099999999999</v>
+      </c>
+      <c r="J40" s="53">
+        <v>4040.3</v>
+      </c>
+      <c r="K40" s="53">
+        <v>1528.7</v>
+      </c>
+      <c r="L40" s="53">
+        <v>2509.6</v>
+      </c>
+      <c r="M40" s="53">
+        <v>6018.2</v>
+      </c>
+      <c r="N40" s="53">
+        <v>2162.3000000000002</v>
+      </c>
+      <c r="O40" s="53">
+        <v>3855.9</v>
+      </c>
+      <c r="P40" s="54">
+        <v>358.78800000000001</v>
+      </c>
+      <c r="Q40" s="54">
+        <v>4.51</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>47026</v>
-      </c>
-      <c r="B41" s="70">
-        <v>33534.699999999997</v>
-      </c>
-      <c r="C41" s="70">
-        <v>24802.2</v>
-      </c>
-      <c r="D41" s="70">
-        <v>33703.300000000003</v>
-      </c>
-      <c r="E41" s="70">
-        <v>24926.799999999999</v>
-      </c>
-      <c r="F41" s="71">
-        <v>133.96700000000001</v>
-      </c>
-      <c r="G41" s="71">
-        <v>135.209</v>
-      </c>
-      <c r="H41" s="70">
-        <v>22657.1</v>
-      </c>
-      <c r="I41" s="70">
-        <v>16912.5</v>
-      </c>
-      <c r="J41" s="70">
-        <v>3994.7</v>
-      </c>
-      <c r="K41" s="70">
-        <v>1513.6</v>
-      </c>
-      <c r="L41" s="70">
-        <v>2479.1999999999998</v>
-      </c>
-      <c r="M41" s="70">
-        <v>5648.5</v>
-      </c>
-      <c r="N41" s="70">
-        <v>2048.6</v>
-      </c>
-      <c r="O41" s="70">
-        <v>3599.9</v>
-      </c>
-      <c r="P41" s="71">
-        <v>343.346</v>
-      </c>
-      <c r="Q41" s="71">
-        <v>4.415</v>
+        <v>47848</v>
+      </c>
+      <c r="B41" s="53">
+        <v>36620.9</v>
+      </c>
+      <c r="C41" s="53">
+        <v>25947.1</v>
+      </c>
+      <c r="D41" s="53">
+        <v>36804.9</v>
+      </c>
+      <c r="E41" s="53">
+        <v>26077.5</v>
+      </c>
+      <c r="F41" s="54">
+        <v>139.881</v>
+      </c>
+      <c r="G41" s="54">
+        <v>141.136</v>
+      </c>
+      <c r="H41" s="53">
+        <v>24891.5</v>
+      </c>
+      <c r="I41" s="53">
+        <v>17794.7</v>
+      </c>
+      <c r="J41" s="53">
+        <v>4045.7</v>
+      </c>
+      <c r="K41" s="53">
+        <v>1530.5</v>
+      </c>
+      <c r="L41" s="53">
+        <v>2513.1</v>
+      </c>
+      <c r="M41" s="53">
+        <v>6065.3</v>
+      </c>
+      <c r="N41" s="53">
+        <v>2176.6</v>
+      </c>
+      <c r="O41" s="53">
+        <v>3888.7</v>
+      </c>
+      <c r="P41" s="54">
+        <v>360.78</v>
+      </c>
+      <c r="Q41" s="54">
+        <v>4.5140000000000002</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>47118</v>
-      </c>
-      <c r="B42" s="70">
-        <v>33868.400000000001</v>
-      </c>
-      <c r="C42" s="70">
-        <v>24930.3</v>
-      </c>
-      <c r="D42" s="70">
-        <v>34038.6</v>
-      </c>
-      <c r="E42" s="70">
-        <v>25055.5</v>
-      </c>
-      <c r="F42" s="71">
-        <v>134.61699999999999</v>
-      </c>
-      <c r="G42" s="71">
-        <v>135.852</v>
-      </c>
-      <c r="H42" s="70">
-        <v>22897.8</v>
-      </c>
-      <c r="I42" s="70">
-        <v>17009.599999999999</v>
-      </c>
-      <c r="J42" s="70">
-        <v>4000.8</v>
-      </c>
-      <c r="K42" s="70">
-        <v>1515.5</v>
-      </c>
-      <c r="L42" s="70">
-        <v>2483.4</v>
-      </c>
-      <c r="M42" s="70">
-        <v>5694.6</v>
-      </c>
-      <c r="N42" s="70">
-        <v>2062.9</v>
-      </c>
-      <c r="O42" s="70">
-        <v>3631.6</v>
-      </c>
-      <c r="P42" s="71">
-        <v>345.23200000000003</v>
-      </c>
-      <c r="Q42" s="71">
-        <v>4.4290000000000003</v>
+        <v>47938</v>
+      </c>
+      <c r="B42" s="53">
+        <v>36976.300000000003</v>
+      </c>
+      <c r="C42" s="53">
+        <v>26073.200000000001</v>
+      </c>
+      <c r="D42" s="53">
+        <v>37162.1</v>
+      </c>
+      <c r="E42" s="53">
+        <v>26204.2</v>
+      </c>
+      <c r="F42" s="54">
+        <v>140.553</v>
+      </c>
+      <c r="G42" s="54">
+        <v>141.81700000000001</v>
+      </c>
+      <c r="H42" s="53">
+        <v>25149.599999999999</v>
+      </c>
+      <c r="I42" s="53">
+        <v>17893.3</v>
+      </c>
+      <c r="J42" s="53">
+        <v>4050.7</v>
+      </c>
+      <c r="K42" s="53">
+        <v>1532.2</v>
+      </c>
+      <c r="L42" s="53">
+        <v>2516.5</v>
+      </c>
+      <c r="M42" s="53">
+        <v>6112.1</v>
+      </c>
+      <c r="N42" s="53">
+        <v>2190.6</v>
+      </c>
+      <c r="O42" s="53">
+        <v>3921.6</v>
+      </c>
+      <c r="P42" s="54">
+        <v>362.786</v>
+      </c>
+      <c r="Q42" s="54">
+        <v>4.5149999999999997</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>47208</v>
-      </c>
-      <c r="B43" s="70">
-        <v>34204.1</v>
-      </c>
-      <c r="C43" s="70">
-        <v>25058</v>
-      </c>
-      <c r="D43" s="70">
-        <v>34376</v>
-      </c>
-      <c r="E43" s="70">
-        <v>25183.9</v>
-      </c>
-      <c r="F43" s="71">
-        <v>135.268</v>
-      </c>
-      <c r="G43" s="71">
-        <v>136.499</v>
-      </c>
-      <c r="H43" s="70">
-        <v>23139.8</v>
-      </c>
-      <c r="I43" s="70">
-        <v>17106.5</v>
-      </c>
-      <c r="J43" s="70">
-        <v>4006.6</v>
-      </c>
-      <c r="K43" s="70">
-        <v>1517.3</v>
-      </c>
-      <c r="L43" s="70">
-        <v>2487.4</v>
-      </c>
-      <c r="M43" s="70">
-        <v>5740.1</v>
-      </c>
-      <c r="N43" s="70">
-        <v>2076.9</v>
-      </c>
-      <c r="O43" s="70">
-        <v>3663.2</v>
-      </c>
-      <c r="P43" s="71">
-        <v>347.13299999999998</v>
-      </c>
-      <c r="Q43" s="71">
-        <v>4.444</v>
+        <v>48029</v>
+      </c>
+      <c r="B43" s="53">
+        <v>37334.199999999997</v>
+      </c>
+      <c r="C43" s="53">
+        <v>26199</v>
+      </c>
+      <c r="D43" s="53">
+        <v>37521.800000000003</v>
+      </c>
+      <c r="E43" s="53">
+        <v>26330.7</v>
+      </c>
+      <c r="F43" s="54">
+        <v>141.22800000000001</v>
+      </c>
+      <c r="G43" s="54">
+        <v>142.50200000000001</v>
+      </c>
+      <c r="H43" s="53">
+        <v>25408.1</v>
+      </c>
+      <c r="I43" s="53">
+        <v>17990.8</v>
+      </c>
+      <c r="J43" s="53">
+        <v>4055.9</v>
+      </c>
+      <c r="K43" s="53">
+        <v>1533.8</v>
+      </c>
+      <c r="L43" s="53">
+        <v>2520</v>
+      </c>
+      <c r="M43" s="53">
+        <v>6159.6</v>
+      </c>
+      <c r="N43" s="53">
+        <v>2204.6</v>
+      </c>
+      <c r="O43" s="53">
+        <v>3955</v>
+      </c>
+      <c r="P43" s="54">
+        <v>364.80500000000001</v>
+      </c>
+      <c r="Q43" s="54">
+        <v>4.5119999999999996</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>47299</v>
-      </c>
-      <c r="B44" s="70">
-        <v>34542.9</v>
-      </c>
-      <c r="C44" s="70">
-        <v>25186.2</v>
-      </c>
-      <c r="D44" s="70">
-        <v>34716.5</v>
-      </c>
-      <c r="E44" s="70">
-        <v>25312.799999999999</v>
-      </c>
-      <c r="F44" s="71">
-        <v>135.92099999999999</v>
-      </c>
-      <c r="G44" s="71">
-        <v>137.15</v>
-      </c>
-      <c r="H44" s="70">
-        <v>23383.7</v>
-      </c>
-      <c r="I44" s="70">
-        <v>17203.8</v>
-      </c>
-      <c r="J44" s="70">
-        <v>4012.7</v>
-      </c>
-      <c r="K44" s="70">
-        <v>1519.1</v>
-      </c>
-      <c r="L44" s="70">
-        <v>2491.6999999999998</v>
-      </c>
-      <c r="M44" s="70">
-        <v>5786.4</v>
-      </c>
-      <c r="N44" s="70">
-        <v>2091</v>
-      </c>
-      <c r="O44" s="70">
-        <v>3695.4</v>
-      </c>
-      <c r="P44" s="71">
-        <v>349.04500000000002</v>
-      </c>
-      <c r="Q44" s="71">
-        <v>4.4589999999999996</v>
+        <v>48121</v>
+      </c>
+      <c r="B44" s="53">
+        <v>37695</v>
+      </c>
+      <c r="C44" s="53">
+        <v>26325</v>
+      </c>
+      <c r="D44" s="53">
+        <v>37884.400000000001</v>
+      </c>
+      <c r="E44" s="53">
+        <v>26457.3</v>
+      </c>
+      <c r="F44" s="54">
+        <v>141.90600000000001</v>
+      </c>
+      <c r="G44" s="54">
+        <v>143.19</v>
+      </c>
+      <c r="H44" s="53">
+        <v>25669.7</v>
+      </c>
+      <c r="I44" s="53">
+        <v>18089.099999999999</v>
+      </c>
+      <c r="J44" s="53">
+        <v>4061.2</v>
+      </c>
+      <c r="K44" s="53">
+        <v>1535.6</v>
+      </c>
+      <c r="L44" s="53">
+        <v>2523.5</v>
+      </c>
+      <c r="M44" s="53">
+        <v>6207.5</v>
+      </c>
+      <c r="N44" s="53">
+        <v>2219</v>
+      </c>
+      <c r="O44" s="53">
+        <v>3988.6</v>
+      </c>
+      <c r="P44" s="54">
+        <v>366.83699999999999</v>
+      </c>
+      <c r="Q44" s="54">
+        <v>4.508</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>47391</v>
-      </c>
-      <c r="B45" s="70">
-        <v>34883.5</v>
-      </c>
-      <c r="C45" s="70">
-        <v>25314.1</v>
-      </c>
-      <c r="D45" s="70">
-        <v>35058.800000000003</v>
-      </c>
-      <c r="E45" s="70">
-        <v>25441.3</v>
-      </c>
-      <c r="F45" s="71">
-        <v>136.57300000000001</v>
-      </c>
-      <c r="G45" s="71">
-        <v>137.803</v>
-      </c>
-      <c r="H45" s="70">
-        <v>23634.2</v>
-      </c>
-      <c r="I45" s="70">
-        <v>17305.2</v>
-      </c>
-      <c r="J45" s="70">
-        <v>4018.2</v>
-      </c>
-      <c r="K45" s="70">
-        <v>1521</v>
-      </c>
-      <c r="L45" s="70">
-        <v>2495.3000000000002</v>
-      </c>
-      <c r="M45" s="70">
-        <v>5832.2</v>
-      </c>
-      <c r="N45" s="70">
-        <v>2105.1999999999998</v>
-      </c>
-      <c r="O45" s="70">
-        <v>3727</v>
-      </c>
-      <c r="P45" s="71">
-        <v>350.96699999999998</v>
-      </c>
-      <c r="Q45" s="71">
-        <v>4.4729999999999999</v>
+        <v>48213</v>
+      </c>
+      <c r="B45" s="53">
+        <v>38058.1</v>
+      </c>
+      <c r="C45" s="53">
+        <v>26450.799999999999</v>
+      </c>
+      <c r="D45" s="53">
+        <v>38249.300000000003</v>
+      </c>
+      <c r="E45" s="53">
+        <v>26583.7</v>
+      </c>
+      <c r="F45" s="54">
+        <v>142.58799999999999</v>
+      </c>
+      <c r="G45" s="54">
+        <v>143.88200000000001</v>
+      </c>
+      <c r="H45" s="53">
+        <v>25940.1</v>
+      </c>
+      <c r="I45" s="53">
+        <v>18192.2</v>
+      </c>
+      <c r="J45" s="53">
+        <v>4062.1</v>
+      </c>
+      <c r="K45" s="53">
+        <v>1533</v>
+      </c>
+      <c r="L45" s="53">
+        <v>2526.8000000000002</v>
+      </c>
+      <c r="M45" s="53">
+        <v>6248.9</v>
+      </c>
+      <c r="N45" s="53">
+        <v>2226.6999999999998</v>
+      </c>
+      <c r="O45" s="53">
+        <v>4022.1</v>
+      </c>
+      <c r="P45" s="54">
+        <v>368.88200000000001</v>
+      </c>
+      <c r="Q45" s="54">
+        <v>4.5039999999999996</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>47483</v>
-      </c>
-      <c r="B46" s="70">
-        <v>35226.199999999997</v>
-      </c>
-      <c r="C46" s="70">
-        <v>25441.4</v>
-      </c>
-      <c r="D46" s="70">
-        <v>35403.199999999997</v>
-      </c>
-      <c r="E46" s="70">
-        <v>25569.200000000001</v>
-      </c>
-      <c r="F46" s="71">
-        <v>137.227</v>
-      </c>
-      <c r="G46" s="71">
-        <v>138.46</v>
-      </c>
-      <c r="H46" s="70">
-        <v>23883.9</v>
-      </c>
-      <c r="I46" s="70">
-        <v>17404.599999999999</v>
-      </c>
-      <c r="J46" s="70">
-        <v>4023.6</v>
-      </c>
-      <c r="K46" s="70">
-        <v>1522.9</v>
-      </c>
-      <c r="L46" s="70">
-        <v>2498.8000000000002</v>
-      </c>
-      <c r="M46" s="70">
-        <v>5878.2</v>
-      </c>
-      <c r="N46" s="70">
-        <v>2119.5</v>
-      </c>
-      <c r="O46" s="70">
-        <v>3758.7</v>
-      </c>
-      <c r="P46" s="71">
-        <v>352.899</v>
-      </c>
-      <c r="Q46" s="71">
-        <v>4.484</v>
+        <v>48304</v>
+      </c>
+      <c r="B46" s="53">
+        <v>38423.800000000003</v>
+      </c>
+      <c r="C46" s="53">
+        <v>26576.400000000001</v>
+      </c>
+      <c r="D46" s="53">
+        <v>38616.9</v>
+      </c>
+      <c r="E46" s="53">
+        <v>26710</v>
+      </c>
+      <c r="F46" s="54">
+        <v>143.274</v>
+      </c>
+      <c r="G46" s="54">
+        <v>144.578</v>
+      </c>
+      <c r="H46" s="53">
+        <v>26213.4</v>
+      </c>
+      <c r="I46" s="53">
+        <v>18296</v>
+      </c>
+      <c r="J46" s="53">
+        <v>4063.6</v>
+      </c>
+      <c r="K46" s="53">
+        <v>1531.1</v>
+      </c>
+      <c r="L46" s="53">
+        <v>2530</v>
+      </c>
+      <c r="M46" s="53">
+        <v>6291.4</v>
+      </c>
+      <c r="N46" s="53">
+        <v>2235.3000000000002</v>
+      </c>
+      <c r="O46" s="53">
+        <v>4056.2</v>
+      </c>
+      <c r="P46" s="54">
+        <v>370.94</v>
+      </c>
+      <c r="Q46" s="54">
+        <v>4.5</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>47573</v>
-      </c>
-      <c r="B47" s="70">
-        <v>35570.800000000003</v>
-      </c>
-      <c r="C47" s="70">
-        <v>25568.2</v>
-      </c>
-      <c r="D47" s="70">
-        <v>35749.599999999999</v>
-      </c>
-      <c r="E47" s="70">
-        <v>25696.7</v>
-      </c>
-      <c r="F47" s="71">
-        <v>137.88499999999999</v>
-      </c>
-      <c r="G47" s="71">
-        <v>139.12100000000001</v>
-      </c>
-      <c r="H47" s="70">
-        <v>24134</v>
-      </c>
-      <c r="I47" s="70">
-        <v>17502.900000000001</v>
-      </c>
-      <c r="J47" s="70">
-        <v>4029.3</v>
-      </c>
-      <c r="K47" s="70">
-        <v>1524.8</v>
-      </c>
-      <c r="L47" s="70">
-        <v>2502.4</v>
-      </c>
-      <c r="M47" s="70">
-        <v>5924.6</v>
-      </c>
-      <c r="N47" s="70">
-        <v>2133.6999999999998</v>
-      </c>
-      <c r="O47" s="70">
-        <v>3790.9</v>
-      </c>
-      <c r="P47" s="71">
-        <v>354.84699999999998</v>
-      </c>
-      <c r="Q47" s="71">
-        <v>4.4930000000000003</v>
+        <v>48395</v>
+      </c>
+      <c r="B47" s="53">
+        <v>38792.199999999997</v>
+      </c>
+      <c r="C47" s="53">
+        <v>26701.7</v>
+      </c>
+      <c r="D47" s="53">
+        <v>38987.1</v>
+      </c>
+      <c r="E47" s="53">
+        <v>26835.9</v>
+      </c>
+      <c r="F47" s="54">
+        <v>143.96299999999999</v>
+      </c>
+      <c r="G47" s="54">
+        <v>145.279</v>
+      </c>
+      <c r="H47" s="53">
+        <v>26488.9</v>
+      </c>
+      <c r="I47" s="53">
+        <v>18399.8</v>
+      </c>
+      <c r="J47" s="53">
+        <v>4066</v>
+      </c>
+      <c r="K47" s="53">
+        <v>1530.1</v>
+      </c>
+      <c r="L47" s="53">
+        <v>2533.1999999999998</v>
+      </c>
+      <c r="M47" s="53">
+        <v>6335.8</v>
+      </c>
+      <c r="N47" s="53">
+        <v>2245.3000000000002</v>
+      </c>
+      <c r="O47" s="53">
+        <v>4090.5</v>
+      </c>
+      <c r="P47" s="54">
+        <v>373.01100000000002</v>
+      </c>
+      <c r="Q47" s="54">
+        <v>4.4960000000000004</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>47664</v>
-      </c>
-      <c r="B48" s="70">
-        <v>35918.1</v>
-      </c>
-      <c r="C48" s="70">
-        <v>25694.6</v>
-      </c>
-      <c r="D48" s="70">
-        <v>36098.6</v>
-      </c>
-      <c r="E48" s="70">
-        <v>25823.8</v>
-      </c>
-      <c r="F48" s="71">
-        <v>138.547</v>
-      </c>
-      <c r="G48" s="71">
-        <v>139.78800000000001</v>
-      </c>
-      <c r="H48" s="70">
-        <v>24385.1</v>
-      </c>
-      <c r="I48" s="70">
-        <v>17600.5</v>
-      </c>
-      <c r="J48" s="70">
-        <v>4034.8</v>
-      </c>
-      <c r="K48" s="70">
-        <v>1526.8</v>
-      </c>
-      <c r="L48" s="70">
-        <v>2506.1</v>
-      </c>
-      <c r="M48" s="70">
-        <v>5971.2</v>
-      </c>
-      <c r="N48" s="70">
-        <v>2147.9</v>
-      </c>
-      <c r="O48" s="70">
-        <v>3823.3</v>
-      </c>
-      <c r="P48" s="71">
-        <v>356.81</v>
-      </c>
-      <c r="Q48" s="71">
-        <v>4.5010000000000003</v>
+        <v>48487</v>
+      </c>
+      <c r="B48" s="53">
+        <v>39163.5</v>
+      </c>
+      <c r="C48" s="53">
+        <v>26826.799999999999</v>
+      </c>
+      <c r="D48" s="53">
+        <v>39360.300000000003</v>
+      </c>
+      <c r="E48" s="53">
+        <v>26961.599999999999</v>
+      </c>
+      <c r="F48" s="54">
+        <v>144.655</v>
+      </c>
+      <c r="G48" s="54">
+        <v>145.98599999999999</v>
+      </c>
+      <c r="H48" s="53">
+        <v>26765.4</v>
+      </c>
+      <c r="I48" s="53">
+        <v>18502.8</v>
+      </c>
+      <c r="J48" s="53">
+        <v>4070.6</v>
+      </c>
+      <c r="K48" s="53">
+        <v>1531.5</v>
+      </c>
+      <c r="L48" s="53">
+        <v>2536.3000000000002</v>
+      </c>
+      <c r="M48" s="53">
+        <v>6384.4</v>
+      </c>
+      <c r="N48" s="53">
+        <v>2259.1999999999998</v>
+      </c>
+      <c r="O48" s="53">
+        <v>4125.2</v>
+      </c>
+      <c r="P48" s="54">
+        <v>375.09399999999999</v>
+      </c>
+      <c r="Q48" s="54">
+        <v>4.492</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>47756</v>
-      </c>
-      <c r="B49" s="70">
-        <v>36268.400000000001</v>
-      </c>
-      <c r="C49" s="70">
-        <v>25821.1</v>
-      </c>
-      <c r="D49" s="70">
-        <v>36450.6</v>
-      </c>
-      <c r="E49" s="70">
-        <v>25950.799999999999</v>
-      </c>
-      <c r="F49" s="71">
-        <v>139.21199999999999</v>
-      </c>
-      <c r="G49" s="71">
-        <v>140.46</v>
-      </c>
-      <c r="H49" s="70">
-        <v>24638</v>
-      </c>
-      <c r="I49" s="70">
-        <v>17698.099999999999</v>
-      </c>
-      <c r="J49" s="70">
-        <v>4040.3</v>
-      </c>
-      <c r="K49" s="70">
-        <v>1528.7</v>
-      </c>
-      <c r="L49" s="70">
-        <v>2509.6</v>
-      </c>
-      <c r="M49" s="70">
-        <v>6018.2</v>
-      </c>
-      <c r="N49" s="70">
-        <v>2162.3000000000002</v>
-      </c>
-      <c r="O49" s="70">
-        <v>3855.9</v>
-      </c>
-      <c r="P49" s="71">
-        <v>358.78800000000001</v>
-      </c>
-      <c r="Q49" s="71">
-        <v>4.51</v>
+        <v>48579</v>
+      </c>
+      <c r="B49" s="53">
+        <v>39538.1</v>
+      </c>
+      <c r="C49" s="53">
+        <v>26951.9</v>
+      </c>
+      <c r="D49" s="53">
+        <v>39736.699999999997</v>
+      </c>
+      <c r="E49" s="53">
+        <v>27087.3</v>
+      </c>
+      <c r="F49" s="54">
+        <v>145.351</v>
+      </c>
+      <c r="G49" s="54">
+        <v>146.69800000000001</v>
+      </c>
+      <c r="H49" s="53">
+        <v>27042</v>
+      </c>
+      <c r="I49" s="53">
+        <v>18604.599999999999</v>
+      </c>
+      <c r="J49" s="53">
+        <v>4077</v>
+      </c>
+      <c r="K49" s="53">
+        <v>1534.8</v>
+      </c>
+      <c r="L49" s="53">
+        <v>2539.5</v>
+      </c>
+      <c r="M49" s="53">
+        <v>6436.4</v>
+      </c>
+      <c r="N49" s="53">
+        <v>2276.1</v>
+      </c>
+      <c r="O49" s="53">
+        <v>4160.3</v>
+      </c>
+      <c r="P49" s="54">
+        <v>377.19</v>
+      </c>
+      <c r="Q49" s="54">
+        <v>4.4870000000000001</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>47848</v>
-      </c>
-      <c r="B50" s="70">
-        <v>36620.9</v>
-      </c>
-      <c r="C50" s="70">
-        <v>25947.1</v>
-      </c>
-      <c r="D50" s="70">
-        <v>36804.9</v>
-      </c>
-      <c r="E50" s="70">
-        <v>26077.5</v>
-      </c>
-      <c r="F50" s="71">
-        <v>139.881</v>
-      </c>
-      <c r="G50" s="71">
-        <v>141.136</v>
-      </c>
-      <c r="H50" s="70">
-        <v>24891.5</v>
-      </c>
-      <c r="I50" s="70">
-        <v>17794.7</v>
-      </c>
-      <c r="J50" s="70">
-        <v>4045.7</v>
-      </c>
-      <c r="K50" s="70">
-        <v>1530.5</v>
-      </c>
-      <c r="L50" s="70">
-        <v>2513.1</v>
-      </c>
-      <c r="M50" s="70">
-        <v>6065.3</v>
-      </c>
-      <c r="N50" s="70">
-        <v>2176.6</v>
-      </c>
-      <c r="O50" s="70">
-        <v>3888.7</v>
-      </c>
-      <c r="P50" s="71">
-        <v>360.78</v>
-      </c>
-      <c r="Q50" s="71">
-        <v>4.5140000000000002</v>
+        <v>48669</v>
+      </c>
+      <c r="B50" s="53">
+        <v>39915.199999999997</v>
+      </c>
+      <c r="C50" s="53">
+        <v>27076.7</v>
+      </c>
+      <c r="D50" s="53">
+        <v>40115.800000000003</v>
+      </c>
+      <c r="E50" s="53">
+        <v>27212.799999999999</v>
+      </c>
+      <c r="F50" s="54">
+        <v>146.05000000000001</v>
+      </c>
+      <c r="G50" s="54">
+        <v>147.41499999999999</v>
+      </c>
+      <c r="H50" s="53">
+        <v>27327.4</v>
+      </c>
+      <c r="I50" s="53">
+        <v>18710.900000000001</v>
+      </c>
+      <c r="J50" s="53">
+        <v>4082.5</v>
+      </c>
+      <c r="K50" s="53">
+        <v>1537.3</v>
+      </c>
+      <c r="L50" s="53">
+        <v>2542.5</v>
+      </c>
+      <c r="M50" s="53">
+        <v>6487.6</v>
+      </c>
+      <c r="N50" s="53">
+        <v>2292.3000000000002</v>
+      </c>
+      <c r="O50" s="53">
+        <v>4195.3</v>
+      </c>
+      <c r="P50" s="54">
+        <v>379.298</v>
+      </c>
+      <c r="Q50" s="54">
+        <v>4.4820000000000002</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>47938</v>
-      </c>
-      <c r="B51" s="70">
-        <v>36976.300000000003</v>
-      </c>
-      <c r="C51" s="70">
-        <v>26073.200000000001</v>
-      </c>
-      <c r="D51" s="70">
-        <v>37162.1</v>
-      </c>
-      <c r="E51" s="70">
-        <v>26204.2</v>
-      </c>
-      <c r="F51" s="71">
-        <v>140.553</v>
-      </c>
-      <c r="G51" s="71">
-        <v>141.81700000000001</v>
-      </c>
-      <c r="H51" s="70">
-        <v>25149.599999999999</v>
-      </c>
-      <c r="I51" s="70">
-        <v>17893.3</v>
-      </c>
-      <c r="J51" s="70">
-        <v>4050.7</v>
-      </c>
-      <c r="K51" s="70">
-        <v>1532.2</v>
-      </c>
-      <c r="L51" s="70">
-        <v>2516.5</v>
-      </c>
-      <c r="M51" s="70">
-        <v>6112.1</v>
-      </c>
-      <c r="N51" s="70">
-        <v>2190.6</v>
-      </c>
-      <c r="O51" s="70">
-        <v>3921.6</v>
-      </c>
-      <c r="P51" s="71">
-        <v>362.786</v>
-      </c>
-      <c r="Q51" s="71">
-        <v>4.5149999999999997</v>
+        <v>48760</v>
+      </c>
+      <c r="B51" s="53">
+        <v>40295.199999999997</v>
+      </c>
+      <c r="C51" s="53">
+        <v>27201.599999999999</v>
+      </c>
+      <c r="D51" s="53">
+        <v>40497.599999999999</v>
+      </c>
+      <c r="E51" s="53">
+        <v>27338.2</v>
+      </c>
+      <c r="F51" s="54">
+        <v>146.75299999999999</v>
+      </c>
+      <c r="G51" s="54">
+        <v>148.13499999999999</v>
+      </c>
+      <c r="H51" s="53">
+        <v>27616.799999999999</v>
+      </c>
+      <c r="I51" s="53">
+        <v>18818.5</v>
+      </c>
+      <c r="J51" s="53">
+        <v>4087.7</v>
+      </c>
+      <c r="K51" s="53">
+        <v>1539.6</v>
+      </c>
+      <c r="L51" s="53">
+        <v>2545.4</v>
+      </c>
+      <c r="M51" s="53">
+        <v>6538.6</v>
+      </c>
+      <c r="N51" s="53">
+        <v>2308</v>
+      </c>
+      <c r="O51" s="53">
+        <v>4230.6000000000004</v>
+      </c>
+      <c r="P51" s="54">
+        <v>381.41899999999998</v>
+      </c>
+      <c r="Q51" s="54">
+        <v>4.4779999999999998</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>48029</v>
-      </c>
-      <c r="B52" s="70">
-        <v>37334.199999999997</v>
-      </c>
-      <c r="C52" s="70">
-        <v>26199</v>
-      </c>
-      <c r="D52" s="70">
-        <v>37521.800000000003</v>
-      </c>
-      <c r="E52" s="70">
-        <v>26330.7</v>
-      </c>
-      <c r="F52" s="71">
-        <v>141.22800000000001</v>
-      </c>
-      <c r="G52" s="71">
-        <v>142.50200000000001</v>
-      </c>
-      <c r="H52" s="70">
-        <v>25408.1</v>
-      </c>
-      <c r="I52" s="70">
-        <v>17990.8</v>
-      </c>
-      <c r="J52" s="70">
-        <v>4055.9</v>
-      </c>
-      <c r="K52" s="70">
-        <v>1533.8</v>
-      </c>
-      <c r="L52" s="70">
-        <v>2520</v>
-      </c>
-      <c r="M52" s="70">
-        <v>6159.6</v>
-      </c>
-      <c r="N52" s="70">
-        <v>2204.6</v>
-      </c>
-      <c r="O52" s="70">
-        <v>3955</v>
-      </c>
-      <c r="P52" s="71">
-        <v>364.80500000000001</v>
-      </c>
-      <c r="Q52" s="71">
-        <v>4.5119999999999996</v>
+        <v>48852</v>
+      </c>
+      <c r="B52" s="53">
+        <v>40677.5</v>
+      </c>
+      <c r="C52" s="53">
+        <v>27326</v>
+      </c>
+      <c r="D52" s="53">
+        <v>40881.9</v>
+      </c>
+      <c r="E52" s="53">
+        <v>27463.3</v>
+      </c>
+      <c r="F52" s="54">
+        <v>147.459</v>
+      </c>
+      <c r="G52" s="54">
+        <v>148.85900000000001</v>
+      </c>
+      <c r="H52" s="53">
+        <v>27912</v>
+      </c>
+      <c r="I52" s="53">
+        <v>18928.599999999999</v>
+      </c>
+      <c r="J52" s="53">
+        <v>4092.1</v>
+      </c>
+      <c r="K52" s="53">
+        <v>1541.2</v>
+      </c>
+      <c r="L52" s="53">
+        <v>2548.3000000000002</v>
+      </c>
+      <c r="M52" s="53">
+        <v>6588.9</v>
+      </c>
+      <c r="N52" s="53">
+        <v>2322.9</v>
+      </c>
+      <c r="O52" s="53">
+        <v>4266</v>
+      </c>
+      <c r="P52" s="54">
+        <v>383.55200000000002</v>
+      </c>
+      <c r="Q52" s="54">
+        <v>4.4720000000000004</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>48121</v>
-      </c>
-      <c r="B53" s="70">
-        <v>37695</v>
-      </c>
-      <c r="C53" s="70">
-        <v>26325</v>
-      </c>
-      <c r="D53" s="70">
-        <v>37884.400000000001</v>
-      </c>
-      <c r="E53" s="70">
-        <v>26457.3</v>
-      </c>
-      <c r="F53" s="71">
-        <v>141.90600000000001</v>
-      </c>
-      <c r="G53" s="71">
-        <v>143.19</v>
-      </c>
-      <c r="H53" s="70">
-        <v>25669.7</v>
-      </c>
-      <c r="I53" s="70">
-        <v>18089.099999999999</v>
-      </c>
-      <c r="J53" s="70">
-        <v>4061.2</v>
-      </c>
-      <c r="K53" s="70">
-        <v>1535.6</v>
-      </c>
-      <c r="L53" s="70">
-        <v>2523.5</v>
-      </c>
-      <c r="M53" s="70">
-        <v>6207.5</v>
-      </c>
-      <c r="N53" s="70">
-        <v>2219</v>
-      </c>
-      <c r="O53" s="70">
-        <v>3988.6</v>
-      </c>
-      <c r="P53" s="71">
-        <v>366.83699999999999</v>
-      </c>
-      <c r="Q53" s="71">
-        <v>4.508</v>
+        <v>48944</v>
+      </c>
+      <c r="B53" s="53">
+        <v>41062.5</v>
+      </c>
+      <c r="C53" s="53">
+        <v>27450.3</v>
+      </c>
+      <c r="D53" s="53">
+        <v>41268.9</v>
+      </c>
+      <c r="E53" s="53">
+        <v>27588.3</v>
+      </c>
+      <c r="F53" s="54">
+        <v>148.16800000000001</v>
+      </c>
+      <c r="G53" s="54">
+        <v>149.58799999999999</v>
+      </c>
+      <c r="H53" s="53">
+        <v>28210.1</v>
+      </c>
+      <c r="I53" s="53">
+        <v>19039.099999999999</v>
+      </c>
+      <c r="J53" s="53">
+        <v>4096.5</v>
+      </c>
+      <c r="K53" s="53">
+        <v>1542.8</v>
+      </c>
+      <c r="L53" s="53">
+        <v>2551</v>
+      </c>
+      <c r="M53" s="53">
+        <v>6639.7</v>
+      </c>
+      <c r="N53" s="53">
+        <v>2337.9</v>
+      </c>
+      <c r="O53" s="53">
+        <v>4301.8</v>
+      </c>
+      <c r="P53" s="54">
+        <v>385.69799999999998</v>
+      </c>
+      <c r="Q53" s="54">
+        <v>4.4669999999999996</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>48213</v>
-      </c>
-      <c r="B54" s="70">
-        <v>38058.1</v>
-      </c>
-      <c r="C54" s="70">
-        <v>26450.799999999999</v>
-      </c>
-      <c r="D54" s="70">
-        <v>38249.300000000003</v>
-      </c>
-      <c r="E54" s="70">
-        <v>26583.7</v>
-      </c>
-      <c r="F54" s="71">
-        <v>142.58799999999999</v>
-      </c>
-      <c r="G54" s="71">
-        <v>143.88200000000001</v>
-      </c>
-      <c r="H54" s="70">
-        <v>25940.1</v>
-      </c>
-      <c r="I54" s="70">
-        <v>18192.2</v>
-      </c>
-      <c r="J54" s="70">
-        <v>4062.1</v>
-      </c>
-      <c r="K54" s="70">
-        <v>1533</v>
-      </c>
-      <c r="L54" s="70">
-        <v>2526.8000000000002</v>
-      </c>
-      <c r="M54" s="70">
-        <v>6248.9</v>
-      </c>
-      <c r="N54" s="70">
-        <v>2226.6999999999998</v>
-      </c>
-      <c r="O54" s="70">
-        <v>4022.1</v>
-      </c>
-      <c r="P54" s="71">
-        <v>368.88200000000001</v>
-      </c>
-      <c r="Q54" s="71">
-        <v>4.5039999999999996</v>
+        <v>49034</v>
+      </c>
+      <c r="B54" s="53">
+        <v>41449.4</v>
+      </c>
+      <c r="C54" s="53">
+        <v>27574.1</v>
+      </c>
+      <c r="D54" s="53">
+        <v>41657.699999999997</v>
+      </c>
+      <c r="E54" s="53">
+        <v>27712.7</v>
+      </c>
+      <c r="F54" s="54">
+        <v>148.88200000000001</v>
+      </c>
+      <c r="G54" s="54">
+        <v>150.32</v>
+      </c>
+      <c r="H54" s="53">
+        <v>28508.400000000001</v>
+      </c>
+      <c r="I54" s="53">
+        <v>19148.3</v>
+      </c>
+      <c r="J54" s="53">
+        <v>4100.8</v>
+      </c>
+      <c r="K54" s="53">
+        <v>1544.3</v>
+      </c>
+      <c r="L54" s="53">
+        <v>2553.8000000000002</v>
+      </c>
+      <c r="M54" s="53">
+        <v>6690.7</v>
+      </c>
+      <c r="N54" s="53">
+        <v>2352.6999999999998</v>
+      </c>
+      <c r="O54" s="53">
+        <v>4338</v>
+      </c>
+      <c r="P54" s="54">
+        <v>387.85599999999999</v>
+      </c>
+      <c r="Q54" s="54">
+        <v>4.4630000000000001</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>48304</v>
-      </c>
-      <c r="B55" s="70">
-        <v>38423.800000000003</v>
-      </c>
-      <c r="C55" s="70">
-        <v>26576.400000000001</v>
-      </c>
-      <c r="D55" s="70">
-        <v>38616.9</v>
-      </c>
-      <c r="E55" s="70">
-        <v>26710</v>
-      </c>
-      <c r="F55" s="71">
-        <v>143.274</v>
-      </c>
-      <c r="G55" s="71">
-        <v>144.578</v>
-      </c>
-      <c r="H55" s="70">
-        <v>26213.4</v>
-      </c>
-      <c r="I55" s="70">
-        <v>18296</v>
-      </c>
-      <c r="J55" s="70">
-        <v>4063.6</v>
-      </c>
-      <c r="K55" s="70">
-        <v>1531.1</v>
-      </c>
-      <c r="L55" s="70">
-        <v>2530</v>
-      </c>
-      <c r="M55" s="70">
-        <v>6291.4</v>
-      </c>
-      <c r="N55" s="70">
-        <v>2235.3000000000002</v>
-      </c>
-      <c r="O55" s="70">
-        <v>4056.2</v>
-      </c>
-      <c r="P55" s="71">
-        <v>370.94</v>
-      </c>
-      <c r="Q55" s="71">
-        <v>4.5</v>
+        <v>49125</v>
+      </c>
+      <c r="B55" s="53">
+        <v>41839.4</v>
+      </c>
+      <c r="C55" s="53">
+        <v>27698</v>
+      </c>
+      <c r="D55" s="53">
+        <v>42049.7</v>
+      </c>
+      <c r="E55" s="53">
+        <v>27837.200000000001</v>
+      </c>
+      <c r="F55" s="54">
+        <v>149.59800000000001</v>
+      </c>
+      <c r="G55" s="54">
+        <v>151.05500000000001</v>
+      </c>
+      <c r="H55" s="53">
+        <v>28806.400000000001</v>
+      </c>
+      <c r="I55" s="53">
+        <v>19255.8</v>
+      </c>
+      <c r="J55" s="53">
+        <v>4105.2</v>
+      </c>
+      <c r="K55" s="53">
+        <v>1545.9</v>
+      </c>
+      <c r="L55" s="53">
+        <v>2556.6</v>
+      </c>
+      <c r="M55" s="53">
+        <v>6742.2</v>
+      </c>
+      <c r="N55" s="53">
+        <v>2367.6</v>
+      </c>
+      <c r="O55" s="53">
+        <v>4374.6000000000004</v>
+      </c>
+      <c r="P55" s="54">
+        <v>390.02600000000001</v>
+      </c>
+      <c r="Q55" s="54">
+        <v>4.4560000000000004</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>48395</v>
-      </c>
-      <c r="B56" s="70">
-        <v>38792.199999999997</v>
-      </c>
-      <c r="C56" s="70">
-        <v>26701.7</v>
-      </c>
-      <c r="D56" s="70">
-        <v>38987.1</v>
-      </c>
-      <c r="E56" s="70">
-        <v>26835.9</v>
-      </c>
-      <c r="F56" s="71">
-        <v>143.96299999999999</v>
-      </c>
-      <c r="G56" s="71">
-        <v>145.279</v>
-      </c>
-      <c r="H56" s="70">
-        <v>26488.9</v>
-      </c>
-      <c r="I56" s="70">
-        <v>18399.8</v>
-      </c>
-      <c r="J56" s="70">
-        <v>4066</v>
-      </c>
-      <c r="K56" s="70">
-        <v>1530.1</v>
-      </c>
-      <c r="L56" s="70">
-        <v>2533.1999999999998</v>
-      </c>
-      <c r="M56" s="70">
-        <v>6335.8</v>
-      </c>
-      <c r="N56" s="70">
-        <v>2245.3000000000002</v>
-      </c>
-      <c r="O56" s="70">
-        <v>4090.5</v>
-      </c>
-      <c r="P56" s="71">
-        <v>373.01100000000002</v>
-      </c>
-      <c r="Q56" s="71">
-        <v>4.4960000000000004</v>
+        <v>49217</v>
+      </c>
+      <c r="B56" s="53">
+        <v>42231.4</v>
+      </c>
+      <c r="C56" s="53">
+        <v>27821.3</v>
+      </c>
+      <c r="D56" s="53">
+        <v>42443.6</v>
+      </c>
+      <c r="E56" s="53">
+        <v>27961.1</v>
+      </c>
+      <c r="F56" s="54">
+        <v>150.31800000000001</v>
+      </c>
+      <c r="G56" s="54">
+        <v>151.79499999999999</v>
+      </c>
+      <c r="H56" s="53">
+        <v>29104.1</v>
+      </c>
+      <c r="I56" s="53">
+        <v>19361.599999999999</v>
+      </c>
+      <c r="J56" s="53">
+        <v>4109.6000000000004</v>
+      </c>
+      <c r="K56" s="53">
+        <v>1547.4</v>
+      </c>
+      <c r="L56" s="53">
+        <v>2559.5</v>
+      </c>
+      <c r="M56" s="53">
+        <v>6794.4</v>
+      </c>
+      <c r="N56" s="53">
+        <v>2382.6</v>
+      </c>
+      <c r="O56" s="53">
+        <v>4411.8</v>
+      </c>
+      <c r="P56" s="54">
+        <v>392.21</v>
+      </c>
+      <c r="Q56" s="54">
+        <v>4.45</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>48487</v>
-      </c>
-      <c r="B57" s="70">
-        <v>39163.5</v>
-      </c>
-      <c r="C57" s="70">
-        <v>26826.799999999999</v>
-      </c>
-      <c r="D57" s="70">
-        <v>39360.300000000003</v>
-      </c>
-      <c r="E57" s="70">
-        <v>26961.599999999999</v>
-      </c>
-      <c r="F57" s="71">
-        <v>144.655</v>
-      </c>
-      <c r="G57" s="71">
-        <v>145.98599999999999</v>
-      </c>
-      <c r="H57" s="70">
-        <v>26765.4</v>
-      </c>
-      <c r="I57" s="70">
-        <v>18502.8</v>
-      </c>
-      <c r="J57" s="70">
-        <v>4070.6</v>
-      </c>
-      <c r="K57" s="70">
-        <v>1531.5</v>
-      </c>
-      <c r="L57" s="70">
-        <v>2536.3000000000002</v>
-      </c>
-      <c r="M57" s="70">
-        <v>6384.4</v>
-      </c>
-      <c r="N57" s="70">
-        <v>2259.1999999999998</v>
-      </c>
-      <c r="O57" s="70">
-        <v>4125.2</v>
-      </c>
-      <c r="P57" s="71">
-        <v>375.09399999999999</v>
-      </c>
-      <c r="Q57" s="71">
-        <v>4.492</v>
-      </c>
-    </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A58" s="1">
-        <v>48579</v>
-      </c>
-      <c r="B58" s="70">
-        <v>39538.1</v>
-      </c>
-      <c r="C58" s="70">
-        <v>26951.9</v>
-      </c>
-      <c r="D58" s="70">
-        <v>39736.699999999997</v>
-      </c>
-      <c r="E58" s="70">
-        <v>27087.3</v>
-      </c>
-      <c r="F58" s="71">
-        <v>145.351</v>
-      </c>
-      <c r="G58" s="71">
-        <v>146.69800000000001</v>
-      </c>
-      <c r="H58" s="70">
-        <v>27042</v>
-      </c>
-      <c r="I58" s="70">
-        <v>18604.599999999999</v>
-      </c>
-      <c r="J58" s="70">
-        <v>4077</v>
-      </c>
-      <c r="K58" s="70">
-        <v>1534.8</v>
-      </c>
-      <c r="L58" s="70">
-        <v>2539.5</v>
-      </c>
-      <c r="M58" s="70">
-        <v>6436.4</v>
-      </c>
-      <c r="N58" s="70">
-        <v>2276.1</v>
-      </c>
-      <c r="O58" s="70">
-        <v>4160.3</v>
-      </c>
-      <c r="P58" s="71">
-        <v>377.19</v>
-      </c>
-      <c r="Q58" s="71">
-        <v>4.4870000000000001</v>
-      </c>
-    </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A59" s="1">
-        <v>48669</v>
-      </c>
-      <c r="B59" s="70">
-        <v>39915.199999999997</v>
-      </c>
-      <c r="C59" s="70">
-        <v>27076.7</v>
-      </c>
-      <c r="D59" s="70">
-        <v>40115.800000000003</v>
-      </c>
-      <c r="E59" s="70">
-        <v>27212.799999999999</v>
-      </c>
-      <c r="F59" s="71">
-        <v>146.05000000000001</v>
-      </c>
-      <c r="G59" s="71">
-        <v>147.41499999999999</v>
-      </c>
-      <c r="H59" s="70">
-        <v>27327.4</v>
-      </c>
-      <c r="I59" s="70">
-        <v>18710.900000000001</v>
-      </c>
-      <c r="J59" s="70">
-        <v>4082.5</v>
-      </c>
-      <c r="K59" s="70">
-        <v>1537.3</v>
-      </c>
-      <c r="L59" s="70">
-        <v>2542.5</v>
-      </c>
-      <c r="M59" s="70">
-        <v>6487.6</v>
-      </c>
-      <c r="N59" s="70">
-        <v>2292.3000000000002</v>
-      </c>
-      <c r="O59" s="70">
-        <v>4195.3</v>
-      </c>
-      <c r="P59" s="71">
-        <v>379.298</v>
-      </c>
-      <c r="Q59" s="71">
-        <v>4.4820000000000002</v>
-      </c>
-    </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A60" s="1">
-        <v>48760</v>
-      </c>
-      <c r="B60" s="70">
-        <v>40295.199999999997</v>
-      </c>
-      <c r="C60" s="70">
-        <v>27201.599999999999</v>
-      </c>
-      <c r="D60" s="70">
-        <v>40497.599999999999</v>
-      </c>
-      <c r="E60" s="70">
-        <v>27338.2</v>
-      </c>
-      <c r="F60" s="71">
-        <v>146.75299999999999</v>
-      </c>
-      <c r="G60" s="71">
-        <v>148.13499999999999</v>
-      </c>
-      <c r="H60" s="70">
-        <v>27616.799999999999</v>
-      </c>
-      <c r="I60" s="70">
-        <v>18818.5</v>
-      </c>
-      <c r="J60" s="70">
-        <v>4087.7</v>
-      </c>
-      <c r="K60" s="70">
-        <v>1539.6</v>
-      </c>
-      <c r="L60" s="70">
-        <v>2545.4</v>
-      </c>
-      <c r="M60" s="70">
-        <v>6538.6</v>
-      </c>
-      <c r="N60" s="70">
-        <v>2308</v>
-      </c>
-      <c r="O60" s="70">
-        <v>4230.6000000000004</v>
-      </c>
-      <c r="P60" s="71">
-        <v>381.41899999999998</v>
-      </c>
-      <c r="Q60" s="71">
-        <v>4.4779999999999998</v>
-      </c>
-    </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A61" s="1">
-        <v>48852</v>
-      </c>
-      <c r="B61" s="70">
-        <v>40677.5</v>
-      </c>
-      <c r="C61" s="70">
-        <v>27326</v>
-      </c>
-      <c r="D61" s="70">
-        <v>40881.9</v>
-      </c>
-      <c r="E61" s="70">
-        <v>27463.3</v>
-      </c>
-      <c r="F61" s="71">
-        <v>147.459</v>
-      </c>
-      <c r="G61" s="71">
-        <v>148.85900000000001</v>
-      </c>
-      <c r="H61" s="70">
-        <v>27912</v>
-      </c>
-      <c r="I61" s="70">
-        <v>18928.599999999999</v>
-      </c>
-      <c r="J61" s="70">
-        <v>4092.1</v>
-      </c>
-      <c r="K61" s="70">
-        <v>1541.2</v>
-      </c>
-      <c r="L61" s="70">
-        <v>2548.3000000000002</v>
-      </c>
-      <c r="M61" s="70">
-        <v>6588.9</v>
-      </c>
-      <c r="N61" s="70">
-        <v>2322.9</v>
-      </c>
-      <c r="O61" s="70">
-        <v>4266</v>
-      </c>
-      <c r="P61" s="71">
-        <v>383.55200000000002</v>
-      </c>
-      <c r="Q61" s="71">
-        <v>4.4720000000000004</v>
-      </c>
-    </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A62" s="1">
-        <v>48944</v>
-      </c>
-      <c r="B62" s="70">
-        <v>41062.5</v>
-      </c>
-      <c r="C62" s="70">
-        <v>27450.3</v>
-      </c>
-      <c r="D62" s="70">
-        <v>41268.9</v>
-      </c>
-      <c r="E62" s="70">
-        <v>27588.3</v>
-      </c>
-      <c r="F62" s="71">
-        <v>148.16800000000001</v>
-      </c>
-      <c r="G62" s="71">
-        <v>149.58799999999999</v>
-      </c>
-      <c r="H62" s="70">
-        <v>28210.1</v>
-      </c>
-      <c r="I62" s="70">
-        <v>19039.099999999999</v>
-      </c>
-      <c r="J62" s="70">
-        <v>4096.5</v>
-      </c>
-      <c r="K62" s="70">
-        <v>1542.8</v>
-      </c>
-      <c r="L62" s="70">
-        <v>2551</v>
-      </c>
-      <c r="M62" s="70">
-        <v>6639.7</v>
-      </c>
-      <c r="N62" s="70">
-        <v>2337.9</v>
-      </c>
-      <c r="O62" s="70">
-        <v>4301.8</v>
-      </c>
-      <c r="P62" s="71">
-        <v>385.69799999999998</v>
-      </c>
-      <c r="Q62" s="71">
-        <v>4.4669999999999996</v>
-      </c>
-    </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B63" s="70">
-        <v>41449.4</v>
-      </c>
-      <c r="C63" s="70">
-        <v>27574.1</v>
-      </c>
-      <c r="D63" s="70">
-        <v>41657.699999999997</v>
-      </c>
-      <c r="E63" s="70">
-        <v>27712.7</v>
-      </c>
-      <c r="F63" s="71">
-        <v>148.88200000000001</v>
-      </c>
-      <c r="G63" s="71">
-        <v>150.32</v>
-      </c>
-      <c r="H63" s="70">
-        <v>28508.400000000001</v>
-      </c>
-      <c r="I63" s="70">
-        <v>19148.3</v>
-      </c>
-      <c r="J63" s="70">
-        <v>4100.8</v>
-      </c>
-      <c r="K63" s="70">
-        <v>1544.3</v>
-      </c>
-      <c r="L63" s="70">
-        <v>2553.8000000000002</v>
-      </c>
-      <c r="M63" s="70">
-        <v>6690.7</v>
-      </c>
-      <c r="N63" s="70">
-        <v>2352.6999999999998</v>
-      </c>
-      <c r="O63" s="70">
-        <v>4338</v>
-      </c>
-      <c r="P63" s="71">
-        <v>387.85599999999999</v>
-      </c>
-      <c r="Q63" s="71">
-        <v>4.4630000000000001</v>
-      </c>
-    </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B64" s="70">
-        <v>41839.4</v>
-      </c>
-      <c r="C64" s="70">
-        <v>27698</v>
-      </c>
-      <c r="D64" s="70">
-        <v>42049.7</v>
-      </c>
-      <c r="E64" s="70">
-        <v>27837.200000000001</v>
-      </c>
-      <c r="F64" s="71">
-        <v>149.59800000000001</v>
-      </c>
-      <c r="G64" s="71">
-        <v>151.05500000000001</v>
-      </c>
-      <c r="H64" s="70">
-        <v>28806.400000000001</v>
-      </c>
-      <c r="I64" s="70">
-        <v>19255.8</v>
-      </c>
-      <c r="J64" s="70">
-        <v>4105.2</v>
-      </c>
-      <c r="K64" s="70">
-        <v>1545.9</v>
-      </c>
-      <c r="L64" s="70">
-        <v>2556.6</v>
-      </c>
-      <c r="M64" s="70">
-        <v>6742.2</v>
-      </c>
-      <c r="N64" s="70">
-        <v>2367.6</v>
-      </c>
-      <c r="O64" s="70">
-        <v>4374.6000000000004</v>
-      </c>
-      <c r="P64" s="71">
-        <v>390.02600000000001</v>
-      </c>
-      <c r="Q64" s="71">
-        <v>4.4560000000000004</v>
-      </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B65" s="70">
-        <v>42231.4</v>
-      </c>
-      <c r="C65" s="70">
-        <v>27821.3</v>
-      </c>
-      <c r="D65" s="70">
-        <v>42443.6</v>
-      </c>
-      <c r="E65" s="70">
-        <v>27961.1</v>
-      </c>
-      <c r="F65" s="71">
-        <v>150.31800000000001</v>
-      </c>
-      <c r="G65" s="71">
-        <v>151.79499999999999</v>
-      </c>
-      <c r="H65" s="70">
-        <v>29104.1</v>
-      </c>
-      <c r="I65" s="70">
-        <v>19361.599999999999</v>
-      </c>
-      <c r="J65" s="70">
-        <v>4109.6000000000004</v>
-      </c>
-      <c r="K65" s="70">
-        <v>1547.4</v>
-      </c>
-      <c r="L65" s="70">
-        <v>2559.5</v>
-      </c>
-      <c r="M65" s="70">
-        <v>6794.4</v>
-      </c>
-      <c r="N65" s="70">
-        <v>2382.6</v>
-      </c>
-      <c r="O65" s="70">
-        <v>4411.8</v>
-      </c>
-      <c r="P65" s="71">
-        <v>392.21</v>
-      </c>
-      <c r="Q65" s="71">
-        <v>4.45</v>
-      </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B66" s="70">
+        <v>49309</v>
+      </c>
+      <c r="B57" s="53">
         <v>42626.6</v>
       </c>
-      <c r="C66" s="70">
+      <c r="C57" s="53">
         <v>27944.5</v>
       </c>
-      <c r="D66" s="70">
+      <c r="D57" s="53">
         <v>42840.800000000003</v>
       </c>
-      <c r="E66" s="70">
+      <c r="E57" s="53">
         <v>28085</v>
       </c>
-      <c r="F66" s="71">
+      <c r="F57" s="54">
         <v>151.042</v>
       </c>
-      <c r="G66" s="71">
+      <c r="G57" s="54">
         <v>152.54</v>
       </c>
-      <c r="H66" s="70">
+      <c r="H57" s="53">
         <v>29403.5</v>
       </c>
-      <c r="I66" s="70">
+      <c r="I57" s="53">
         <v>19467.099999999999</v>
       </c>
-      <c r="J66" s="70">
+      <c r="J57" s="53">
         <v>4114.2</v>
       </c>
-      <c r="K66" s="70">
+      <c r="K57" s="53">
         <v>1549.2</v>
       </c>
-      <c r="L66" s="70">
+      <c r="L57" s="53">
         <v>2562.3000000000002</v>
       </c>
-      <c r="M66" s="70">
+      <c r="M57" s="53">
         <v>6847.4</v>
       </c>
-      <c r="N66" s="70">
+      <c r="N57" s="53">
         <v>2398.1</v>
       </c>
-      <c r="O66" s="70">
+      <c r="O57" s="53">
         <v>4449.3999999999996</v>
       </c>
-      <c r="P66" s="71">
+      <c r="P57" s="54">
         <v>394.40499999999997</v>
       </c>
-      <c r="Q66" s="71">
+      <c r="Q57" s="54">
         <v>4.4429999999999996</v>
       </c>
     </row>
@@ -28747,8 +28234,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77260E8A-45C6-C74E-A071-E1E958901B15}">
   <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="107" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD7"/>
+    <sheetView zoomScale="107" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -28792,16 +28279,16 @@
       <c r="B2">
         <v>2912.9949999999999</v>
       </c>
-      <c r="C2" s="74">
+      <c r="C2" s="55">
         <v>2176.4810000000002</v>
       </c>
-      <c r="D2" s="74">
+      <c r="D2" s="55">
         <v>228.76499999999999</v>
       </c>
-      <c r="E2" s="74">
+      <c r="E2" s="55">
         <v>419.584</v>
       </c>
-      <c r="F2" s="74">
+      <c r="F2" s="55">
         <v>1614.454</v>
       </c>
       <c r="G2" s="52">
@@ -28824,16 +28311,16 @@
       <c r="B3">
         <v>3065.1009999999997</v>
       </c>
-      <c r="C3" s="74">
+      <c r="C3" s="55">
         <v>2469</v>
       </c>
-      <c r="D3" s="74">
+      <c r="D3" s="55">
         <v>233.84800000000001</v>
       </c>
-      <c r="E3" s="74">
+      <c r="E3" s="55">
         <v>568.70699999999999</v>
       </c>
-      <c r="F3" s="74">
+      <c r="F3" s="55">
         <v>1663.451</v>
       </c>
       <c r="G3" s="52">
@@ -28856,16 +28343,16 @@
       <c r="B4">
         <v>3227.105</v>
       </c>
-      <c r="C4" s="74">
+      <c r="C4" s="55">
         <v>2520.36</v>
       </c>
-      <c r="D4" s="74">
+      <c r="D4" s="55">
         <v>247.26300000000001</v>
       </c>
-      <c r="E4" s="74">
+      <c r="E4" s="55">
         <v>494.09399999999999</v>
       </c>
-      <c r="F4" s="74">
+      <c r="F4" s="55">
         <v>1734.414</v>
       </c>
       <c r="G4" s="52">
@@ -28888,16 +28375,16 @@
       <c r="B5">
         <v>3362.6279999999997</v>
       </c>
-      <c r="C5" s="74">
+      <c r="C5" s="55">
         <v>2788.6729999999998</v>
       </c>
-      <c r="D5" s="74">
+      <c r="D5" s="55">
         <v>258.77100000000002</v>
       </c>
-      <c r="E5" s="74">
+      <c r="E5" s="55">
         <v>491.44299999999998</v>
       </c>
-      <c r="F5" s="74">
+      <c r="F5" s="55">
         <v>1811.6869999999999</v>
       </c>
       <c r="G5" s="52">
@@ -28920,16 +28407,16 @@
       <c r="B6">
         <v>3542.7759999999998</v>
       </c>
-      <c r="C6" s="74">
+      <c r="C6" s="55">
         <v>3031.4430000000002</v>
       </c>
-      <c r="D6" s="74">
+      <c r="D6" s="55">
         <v>282.51900000000001</v>
       </c>
-      <c r="E6" s="74">
+      <c r="E6" s="55">
         <v>484.14299999999997</v>
       </c>
-      <c r="F6" s="74">
+      <c r="F6" s="55">
         <v>1884.4380000000001</v>
       </c>
       <c r="G6" s="52">
@@ -28952,16 +28439,16 @@
       <c r="B7">
         <v>3745.4989999999998</v>
       </c>
-      <c r="C7" s="74">
+      <c r="C7" s="55">
         <v>3123.694</v>
       </c>
-      <c r="D7" s="74">
+      <c r="D7" s="55">
         <v>295.55099999999999</v>
       </c>
-      <c r="E7" s="74">
+      <c r="E7" s="55">
         <v>490.702</v>
       </c>
-      <c r="F7" s="74">
+      <c r="F7" s="55">
         <v>1960.191</v>
       </c>
       <c r="G7" s="52">
@@ -28984,16 +28471,16 @@
       <c r="B8">
         <v>3956.2</v>
       </c>
-      <c r="C8" s="74">
+      <c r="C8" s="55">
         <v>3251.116</v>
       </c>
-      <c r="D8" s="74">
+      <c r="D8" s="55">
         <v>355.38200000000001</v>
       </c>
-      <c r="E8" s="74">
+      <c r="E8" s="55">
         <v>500.90499999999997</v>
       </c>
-      <c r="F8" s="74">
+      <c r="F8" s="55">
         <v>2039.181</v>
       </c>
       <c r="G8" s="52">
@@ -29016,16 +28503,16 @@
       <c r="B9">
         <v>4179.369999999999</v>
       </c>
-      <c r="C9" s="74">
+      <c r="C9" s="55">
         <v>3380.623</v>
       </c>
-      <c r="D9" s="74">
+      <c r="D9" s="55">
         <v>402.31799999999998</v>
       </c>
-      <c r="E9" s="74">
+      <c r="E9" s="55">
         <v>510.59699999999998</v>
       </c>
-      <c r="F9" s="74">
+      <c r="F9" s="55">
         <v>2120.6680000000001</v>
       </c>
       <c r="G9" s="52">
@@ -29048,16 +28535,16 @@
       <c r="B10">
         <v>4412.58</v>
       </c>
-      <c r="C10" s="74">
+      <c r="C10" s="55">
         <v>3511.3330000000001</v>
       </c>
-      <c r="D10" s="74">
+      <c r="D10" s="55">
         <v>420.71600000000001</v>
       </c>
-      <c r="E10" s="74">
+      <c r="E10" s="55">
         <v>518.66499999999996</v>
       </c>
-      <c r="F10" s="74">
+      <c r="F10" s="55">
         <v>2205.232</v>
       </c>
       <c r="G10" s="52">
@@ -29080,16 +28567,16 @@
       <c r="B11">
         <v>4665.2000000000007</v>
       </c>
-      <c r="C11" s="74">
+      <c r="C11" s="55">
         <v>3634.2420000000002</v>
       </c>
-      <c r="D11" s="74">
+      <c r="D11" s="55">
         <v>444.91699999999997</v>
       </c>
-      <c r="E11" s="74">
+      <c r="E11" s="55">
         <v>519.16700000000003</v>
       </c>
-      <c r="F11" s="74">
+      <c r="F11" s="55">
         <v>2291.4090000000001</v>
       </c>
       <c r="G11" s="52">
@@ -29109,16 +28596,16 @@
       <c r="B12">
         <v>4934.5189999999993</v>
       </c>
-      <c r="C12" s="74">
+      <c r="C12" s="55">
         <v>3792.5070000000001</v>
       </c>
-      <c r="D12" s="74">
+      <c r="D12" s="55">
         <v>463.70299999999997</v>
       </c>
-      <c r="E12" s="74">
+      <c r="E12" s="55">
         <v>533.44899999999996</v>
       </c>
-      <c r="F12" s="74">
+      <c r="F12" s="55">
         <v>2378.5569999999998</v>
       </c>
       <c r="G12" s="52">
@@ -29138,16 +28625,16 @@
       <c r="B13">
         <v>5217.0079999999998</v>
       </c>
-      <c r="C13" s="74">
+      <c r="C13" s="55">
         <v>3972.681</v>
       </c>
-      <c r="D13" s="74">
+      <c r="D13" s="55">
         <v>485.149</v>
       </c>
-      <c r="E13" s="74">
+      <c r="E13" s="55">
         <v>550.78700000000003</v>
       </c>
-      <c r="F13" s="74">
+      <c r="F13" s="55">
         <v>2465.8270000000002</v>
       </c>
       <c r="G13" s="52">
@@ -29783,11 +29270,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="62" t="s">
         <v>216</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
@@ -30100,11 +29587,11 @@
       <c r="H18" s="30"/>
     </row>
     <row r="21" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="60" t="s">
+      <c r="A21" s="63" t="s">
         <v>226</v>
       </c>
-      <c r="B21" s="60"/>
-      <c r="C21" s="60"/>
+      <c r="B21" s="63"/>
+      <c r="C21" s="63"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
@@ -30139,11 +29626,11 @@
       </c>
     </row>
     <row r="26" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="60" t="s">
+      <c r="A26" s="63" t="s">
         <v>225</v>
       </c>
-      <c r="B26" s="60"/>
-      <c r="C26" s="60"/>
+      <c r="B26" s="63"/>
+      <c r="C26" s="63"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">

--- a/inst/extdata/projections.xlsx
+++ b/inst/extdata/projections.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stoja\fim\inst\extdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stoja\dev\FIM\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ADC3AE3-FE13-492C-9EC7-F6396A6F98DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6E7686F-B433-4EE2-AC8B-B51F732A651D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-3390" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dictionary" sheetId="12" r:id="rId1"/>
@@ -3440,8 +3440,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{386681B1-D5EF-4F8F-85A9-C01E4CBD446B}">
   <dimension ref="A1:P41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -25191,11 +25191,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E35EE37A-6DA7-464E-B4F9-9D022FBE10B3}">
   <dimension ref="A1:R57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B38" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B63" sqref="B63"/>
+      <selection pane="bottomRight" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -25267,10 +25267,10 @@
         <v>20990.5</v>
       </c>
       <c r="D2" s="11">
+        <v>21254.6</v>
+      </c>
+      <c r="E2" s="11">
         <v>22884.6</v>
-      </c>
-      <c r="E2" s="11">
-        <v>21254.6</v>
       </c>
       <c r="F2" s="5">
         <v>106.578</v>
@@ -25320,10 +25320,10 @@
         <v>21309.5</v>
       </c>
       <c r="D3" s="11">
+        <v>21355.9</v>
+      </c>
+      <c r="E3" s="11">
         <v>23343.1</v>
-      </c>
-      <c r="E3" s="11">
-        <v>21355.9</v>
       </c>
       <c r="F3" s="5">
         <v>108.208</v>
@@ -25373,10 +25373,10 @@
         <v>21483.1</v>
       </c>
       <c r="D4" s="11">
+        <v>21461</v>
+      </c>
+      <c r="E4" s="11">
         <v>23804.5</v>
-      </c>
-      <c r="E4" s="11">
-        <v>21461</v>
       </c>
       <c r="F4" s="5">
         <v>109.705</v>
@@ -25426,10 +25426,10 @@
         <v>21847.599999999999</v>
       </c>
       <c r="D5" s="11">
+        <v>21567.1</v>
+      </c>
+      <c r="E5" s="11">
         <v>24338.1</v>
-      </c>
-      <c r="E5" s="11">
-        <v>21567.1</v>
       </c>
       <c r="F5" s="5">
         <v>111.514</v>
@@ -25479,10 +25479,10 @@
         <v>21738.9</v>
       </c>
       <c r="D6" s="11">
+        <v>21674</v>
+      </c>
+      <c r="E6" s="11">
         <v>24954.400000000001</v>
-      </c>
-      <c r="E6" s="11">
-        <v>21674</v>
       </c>
       <c r="F6" s="5">
         <v>113.59</v>
@@ -25532,10 +25532,10 @@
         <v>21708.2</v>
       </c>
       <c r="D7" s="11">
+        <v>21782</v>
+      </c>
+      <c r="E7" s="11">
         <v>25631.200000000001</v>
-      </c>
-      <c r="E7" s="11">
-        <v>21782</v>
       </c>
       <c r="F7" s="5">
         <v>115.577</v>
@@ -25585,10 +25585,10 @@
         <v>21851.1</v>
       </c>
       <c r="D8" s="11">
+        <v>21894.2</v>
+      </c>
+      <c r="E8" s="11">
         <v>26045.9</v>
-      </c>
-      <c r="E8" s="11">
-        <v>21894.2</v>
       </c>
       <c r="F8" s="5">
         <v>116.905</v>
@@ -25639,10 +25639,10 @@
         <v>21990</v>
       </c>
       <c r="D9" s="11">
+        <v>22006.9</v>
+      </c>
+      <c r="E9" s="11">
         <v>26428.7</v>
-      </c>
-      <c r="E9" s="11">
-        <v>22006.9</v>
       </c>
       <c r="F9" s="5">
         <v>118.098</v>
@@ -25692,10 +25692,10 @@
         <v>22112.3</v>
       </c>
       <c r="D10" s="11">
+        <v>22125.8</v>
+      </c>
+      <c r="E10" s="11">
         <v>26830</v>
-      </c>
-      <c r="E10" s="11">
-        <v>22125.8</v>
       </c>
       <c r="F10" s="5">
         <v>119.309</v>
@@ -25745,10 +25745,10 @@
         <v>22225.4</v>
       </c>
       <c r="D11" s="11">
+        <v>22246.2</v>
+      </c>
+      <c r="E11" s="11">
         <v>27088.400000000001</v>
-      </c>
-      <c r="E11" s="11">
-        <v>22246.2</v>
       </c>
       <c r="F11" s="5">
         <v>120.044</v>
@@ -25798,10 +25798,10 @@
         <v>22506.400000000001</v>
       </c>
       <c r="D12" s="11">
+        <v>22369.7</v>
+      </c>
+      <c r="E12" s="11">
         <v>27476.6</v>
-      </c>
-      <c r="E12" s="11">
-        <v>22369.7</v>
       </c>
       <c r="F12" s="5">
         <v>120.88</v>
@@ -25851,10 +25851,10 @@
         <v>22549.599999999999</v>
       </c>
       <c r="D13" s="53">
+        <v>22495.200000000001</v>
+      </c>
+      <c r="E13" s="53">
         <v>27775.200000000001</v>
-      </c>
-      <c r="E13" s="53">
-        <v>22495.200000000001</v>
       </c>
       <c r="F13" s="54">
         <v>121.55</v>
@@ -25904,10 +25904,10 @@
         <v>22625</v>
       </c>
       <c r="D14" s="53">
+        <v>22618.2</v>
+      </c>
+      <c r="E14" s="53">
         <v>28036.2</v>
-      </c>
-      <c r="E14" s="53">
-        <v>22618.2</v>
       </c>
       <c r="F14" s="54">
         <v>122.10899999999999</v>
@@ -25957,10 +25957,10 @@
         <v>22703.200000000001</v>
       </c>
       <c r="D15" s="53">
+        <v>22739</v>
+      </c>
+      <c r="E15" s="53">
         <v>28324.3</v>
-      </c>
-      <c r="E15" s="53">
-        <v>22739</v>
       </c>
       <c r="F15" s="54">
         <v>122.753</v>
@@ -26010,10 +26010,10 @@
         <v>22797</v>
       </c>
       <c r="D16" s="53">
+        <v>22862.7</v>
+      </c>
+      <c r="E16" s="53">
         <v>28622</v>
-      </c>
-      <c r="E16" s="53">
-        <v>22862.7</v>
       </c>
       <c r="F16" s="54">
         <v>123.42700000000001</v>
@@ -26063,10 +26063,10 @@
         <v>22895.599999999999</v>
       </c>
       <c r="D17" s="53">
+        <v>22988.799999999999</v>
+      </c>
+      <c r="E17" s="53">
         <v>28925.1</v>
-      </c>
-      <c r="E17" s="53">
-        <v>22988.799999999999</v>
       </c>
       <c r="F17" s="54">
         <v>124.102</v>
@@ -26116,10 +26116,10 @@
         <v>23007.3</v>
       </c>
       <c r="D18" s="53">
+        <v>23116.6</v>
+      </c>
+      <c r="E18" s="53">
         <v>29233.200000000001</v>
-      </c>
-      <c r="E18" s="53">
-        <v>23116.6</v>
       </c>
       <c r="F18" s="54">
         <v>124.792</v>
@@ -26169,10 +26169,10 @@
         <v>23135.599999999999</v>
       </c>
       <c r="D19" s="53">
+        <v>23245.599999999999</v>
+      </c>
+      <c r="E19" s="53">
         <v>29544.3</v>
-      </c>
-      <c r="E19" s="53">
-        <v>23245.599999999999</v>
       </c>
       <c r="F19" s="54">
         <v>125.47799999999999</v>
@@ -26222,10 +26222,10 @@
         <v>23266.6</v>
       </c>
       <c r="D20" s="53">
+        <v>23375.8</v>
+      </c>
+      <c r="E20" s="53">
         <v>29857.599999999999</v>
-      </c>
-      <c r="E20" s="53">
-        <v>23375.8</v>
       </c>
       <c r="F20" s="54">
         <v>126.16</v>
@@ -26275,10 +26275,10 @@
         <v>23405.4</v>
       </c>
       <c r="D21" s="53">
+        <v>23506.6</v>
+      </c>
+      <c r="E21" s="53">
         <v>30172.1</v>
-      </c>
-      <c r="E21" s="53">
-        <v>23506.6</v>
       </c>
       <c r="F21" s="54">
         <v>126.834</v>
@@ -26328,10 +26328,10 @@
         <v>23530.6</v>
       </c>
       <c r="D22" s="53">
+        <v>23637.9</v>
+      </c>
+      <c r="E22" s="53">
         <v>30486.7</v>
-      </c>
-      <c r="E22" s="53">
-        <v>23637.9</v>
       </c>
       <c r="F22" s="54">
         <v>127.498</v>
@@ -26381,10 +26381,10 @@
         <v>23656.9</v>
       </c>
       <c r="D23" s="53">
+        <v>23768.400000000001</v>
+      </c>
+      <c r="E23" s="53">
         <v>30801.200000000001</v>
-      </c>
-      <c r="E23" s="53">
-        <v>23768.400000000001</v>
       </c>
       <c r="F23" s="54">
         <v>128.15299999999999</v>
@@ -26434,10 +26434,10 @@
         <v>23783.200000000001</v>
       </c>
       <c r="D24" s="53">
+        <v>23898.7</v>
+      </c>
+      <c r="E24" s="53">
         <v>31117.5</v>
-      </c>
-      <c r="E24" s="53">
-        <v>23898.7</v>
       </c>
       <c r="F24" s="54">
         <v>128.803</v>
@@ -26487,10 +26487,10 @@
         <v>23909.1</v>
       </c>
       <c r="D25" s="53">
+        <v>24028.6</v>
+      </c>
+      <c r="E25" s="53">
         <v>31435</v>
-      </c>
-      <c r="E25" s="53">
-        <v>24028.6</v>
       </c>
       <c r="F25" s="54">
         <v>129.44999999999999</v>
@@ -26540,10 +26540,10 @@
         <v>24038.6</v>
       </c>
       <c r="D26" s="53">
+        <v>24159.4</v>
+      </c>
+      <c r="E26" s="53">
         <v>31755.1</v>
-      </c>
-      <c r="E26" s="53">
-        <v>24159.4</v>
       </c>
       <c r="F26" s="54">
         <v>130.095</v>
@@ -26593,10 +26593,10 @@
         <v>24166.7</v>
       </c>
       <c r="D27" s="53">
+        <v>24288.1</v>
+      </c>
+      <c r="E27" s="53">
         <v>32074.400000000001</v>
-      </c>
-      <c r="E27" s="53">
-        <v>24288.1</v>
       </c>
       <c r="F27" s="54">
         <v>130.739</v>
@@ -26646,10 +26646,10 @@
         <v>24294.3</v>
       </c>
       <c r="D28" s="53">
+        <v>24416.400000000001</v>
+      </c>
+      <c r="E28" s="53">
         <v>32395.7</v>
-      </c>
-      <c r="E28" s="53">
-        <v>24416.400000000001</v>
       </c>
       <c r="F28" s="54">
         <v>131.38300000000001</v>
@@ -26699,10 +26699,10 @@
         <v>24421.200000000001</v>
       </c>
       <c r="D29" s="53">
+        <v>24543.9</v>
+      </c>
+      <c r="E29" s="53">
         <v>32718.9</v>
-      </c>
-      <c r="E29" s="53">
-        <v>24543.9</v>
       </c>
       <c r="F29" s="54">
         <v>132.02799999999999</v>
@@ -26752,10 +26752,10 @@
         <v>24547.1</v>
       </c>
       <c r="D30" s="53">
+        <v>24670.400000000001</v>
+      </c>
+      <c r="E30" s="53">
         <v>33042.9</v>
-      </c>
-      <c r="E30" s="53">
-        <v>24670.400000000001</v>
       </c>
       <c r="F30" s="54">
         <v>132.673</v>
@@ -26805,10 +26805,10 @@
         <v>24674.6</v>
       </c>
       <c r="D31" s="53">
+        <v>24798.6</v>
+      </c>
+      <c r="E31" s="53">
         <v>33371.599999999999</v>
-      </c>
-      <c r="E31" s="53">
-        <v>24798.6</v>
       </c>
       <c r="F31" s="54">
         <v>133.31899999999999</v>
@@ -26858,10 +26858,10 @@
         <v>24802.2</v>
       </c>
       <c r="D32" s="53">
+        <v>24926.799999999999</v>
+      </c>
+      <c r="E32" s="53">
         <v>33703.300000000003</v>
-      </c>
-      <c r="E32" s="53">
-        <v>24926.799999999999</v>
       </c>
       <c r="F32" s="54">
         <v>133.96700000000001</v>
@@ -26911,10 +26911,10 @@
         <v>24930.3</v>
       </c>
       <c r="D33" s="53">
+        <v>25055.5</v>
+      </c>
+      <c r="E33" s="53">
         <v>34038.6</v>
-      </c>
-      <c r="E33" s="53">
-        <v>25055.5</v>
       </c>
       <c r="F33" s="54">
         <v>134.61699999999999</v>
@@ -26964,10 +26964,10 @@
         <v>25058</v>
       </c>
       <c r="D34" s="53">
+        <v>25183.9</v>
+      </c>
+      <c r="E34" s="53">
         <v>34376</v>
-      </c>
-      <c r="E34" s="53">
-        <v>25183.9</v>
       </c>
       <c r="F34" s="54">
         <v>135.268</v>
@@ -27017,10 +27017,10 @@
         <v>25186.2</v>
       </c>
       <c r="D35" s="53">
+        <v>25312.799999999999</v>
+      </c>
+      <c r="E35" s="53">
         <v>34716.5</v>
-      </c>
-      <c r="E35" s="53">
-        <v>25312.799999999999</v>
       </c>
       <c r="F35" s="54">
         <v>135.92099999999999</v>
@@ -27070,10 +27070,10 @@
         <v>25314.1</v>
       </c>
       <c r="D36" s="53">
+        <v>25441.3</v>
+      </c>
+      <c r="E36" s="53">
         <v>35058.800000000003</v>
-      </c>
-      <c r="E36" s="53">
-        <v>25441.3</v>
       </c>
       <c r="F36" s="54">
         <v>136.57300000000001</v>
@@ -27123,10 +27123,10 @@
         <v>25441.4</v>
       </c>
       <c r="D37" s="53">
+        <v>25569.200000000001</v>
+      </c>
+      <c r="E37" s="53">
         <v>35403.199999999997</v>
-      </c>
-      <c r="E37" s="53">
-        <v>25569.200000000001</v>
       </c>
       <c r="F37" s="54">
         <v>137.227</v>
@@ -27176,10 +27176,10 @@
         <v>25568.2</v>
       </c>
       <c r="D38" s="53">
+        <v>25696.7</v>
+      </c>
+      <c r="E38" s="53">
         <v>35749.599999999999</v>
-      </c>
-      <c r="E38" s="53">
-        <v>25696.7</v>
       </c>
       <c r="F38" s="54">
         <v>137.88499999999999</v>
@@ -27229,10 +27229,10 @@
         <v>25694.6</v>
       </c>
       <c r="D39" s="53">
+        <v>25823.8</v>
+      </c>
+      <c r="E39" s="53">
         <v>36098.6</v>
-      </c>
-      <c r="E39" s="53">
-        <v>25823.8</v>
       </c>
       <c r="F39" s="54">
         <v>138.547</v>
@@ -27282,10 +27282,10 @@
         <v>25821.1</v>
       </c>
       <c r="D40" s="53">
+        <v>25950.799999999999</v>
+      </c>
+      <c r="E40" s="53">
         <v>36450.6</v>
-      </c>
-      <c r="E40" s="53">
-        <v>25950.799999999999</v>
       </c>
       <c r="F40" s="54">
         <v>139.21199999999999</v>
@@ -27335,10 +27335,10 @@
         <v>25947.1</v>
       </c>
       <c r="D41" s="53">
+        <v>26077.5</v>
+      </c>
+      <c r="E41" s="53">
         <v>36804.9</v>
-      </c>
-      <c r="E41" s="53">
-        <v>26077.5</v>
       </c>
       <c r="F41" s="54">
         <v>139.881</v>
@@ -27388,10 +27388,10 @@
         <v>26073.200000000001</v>
       </c>
       <c r="D42" s="53">
+        <v>26204.2</v>
+      </c>
+      <c r="E42" s="53">
         <v>37162.1</v>
-      </c>
-      <c r="E42" s="53">
-        <v>26204.2</v>
       </c>
       <c r="F42" s="54">
         <v>140.553</v>
@@ -27441,10 +27441,10 @@
         <v>26199</v>
       </c>
       <c r="D43" s="53">
+        <v>26330.7</v>
+      </c>
+      <c r="E43" s="53">
         <v>37521.800000000003</v>
-      </c>
-      <c r="E43" s="53">
-        <v>26330.7</v>
       </c>
       <c r="F43" s="54">
         <v>141.22800000000001</v>
@@ -27494,10 +27494,10 @@
         <v>26325</v>
       </c>
       <c r="D44" s="53">
+        <v>26457.3</v>
+      </c>
+      <c r="E44" s="53">
         <v>37884.400000000001</v>
-      </c>
-      <c r="E44" s="53">
-        <v>26457.3</v>
       </c>
       <c r="F44" s="54">
         <v>141.90600000000001</v>
@@ -27547,10 +27547,10 @@
         <v>26450.799999999999</v>
       </c>
       <c r="D45" s="53">
+        <v>26583.7</v>
+      </c>
+      <c r="E45" s="53">
         <v>38249.300000000003</v>
-      </c>
-      <c r="E45" s="53">
-        <v>26583.7</v>
       </c>
       <c r="F45" s="54">
         <v>142.58799999999999</v>
@@ -27600,10 +27600,10 @@
         <v>26576.400000000001</v>
       </c>
       <c r="D46" s="53">
+        <v>26710</v>
+      </c>
+      <c r="E46" s="53">
         <v>38616.9</v>
-      </c>
-      <c r="E46" s="53">
-        <v>26710</v>
       </c>
       <c r="F46" s="54">
         <v>143.274</v>
@@ -27653,10 +27653,10 @@
         <v>26701.7</v>
       </c>
       <c r="D47" s="53">
+        <v>26835.9</v>
+      </c>
+      <c r="E47" s="53">
         <v>38987.1</v>
-      </c>
-      <c r="E47" s="53">
-        <v>26835.9</v>
       </c>
       <c r="F47" s="54">
         <v>143.96299999999999</v>
@@ -27706,10 +27706,10 @@
         <v>26826.799999999999</v>
       </c>
       <c r="D48" s="53">
+        <v>26961.599999999999</v>
+      </c>
+      <c r="E48" s="53">
         <v>39360.300000000003</v>
-      </c>
-      <c r="E48" s="53">
-        <v>26961.599999999999</v>
       </c>
       <c r="F48" s="54">
         <v>144.655</v>
@@ -27759,10 +27759,10 @@
         <v>26951.9</v>
       </c>
       <c r="D49" s="53">
+        <v>27087.3</v>
+      </c>
+      <c r="E49" s="53">
         <v>39736.699999999997</v>
-      </c>
-      <c r="E49" s="53">
-        <v>27087.3</v>
       </c>
       <c r="F49" s="54">
         <v>145.351</v>
@@ -27812,10 +27812,10 @@
         <v>27076.7</v>
       </c>
       <c r="D50" s="53">
+        <v>27212.799999999999</v>
+      </c>
+      <c r="E50" s="53">
         <v>40115.800000000003</v>
-      </c>
-      <c r="E50" s="53">
-        <v>27212.799999999999</v>
       </c>
       <c r="F50" s="54">
         <v>146.05000000000001</v>
@@ -27865,10 +27865,10 @@
         <v>27201.599999999999</v>
       </c>
       <c r="D51" s="53">
+        <v>27338.2</v>
+      </c>
+      <c r="E51" s="53">
         <v>40497.599999999999</v>
-      </c>
-      <c r="E51" s="53">
-        <v>27338.2</v>
       </c>
       <c r="F51" s="54">
         <v>146.75299999999999</v>
@@ -27918,10 +27918,10 @@
         <v>27326</v>
       </c>
       <c r="D52" s="53">
+        <v>27463.3</v>
+      </c>
+      <c r="E52" s="53">
         <v>40881.9</v>
-      </c>
-      <c r="E52" s="53">
-        <v>27463.3</v>
       </c>
       <c r="F52" s="54">
         <v>147.459</v>
@@ -27971,10 +27971,10 @@
         <v>27450.3</v>
       </c>
       <c r="D53" s="53">
+        <v>27588.3</v>
+      </c>
+      <c r="E53" s="53">
         <v>41268.9</v>
-      </c>
-      <c r="E53" s="53">
-        <v>27588.3</v>
       </c>
       <c r="F53" s="54">
         <v>148.16800000000001</v>
@@ -28024,10 +28024,10 @@
         <v>27574.1</v>
       </c>
       <c r="D54" s="53">
+        <v>27712.7</v>
+      </c>
+      <c r="E54" s="53">
         <v>41657.699999999997</v>
-      </c>
-      <c r="E54" s="53">
-        <v>27712.7</v>
       </c>
       <c r="F54" s="54">
         <v>148.88200000000001</v>
@@ -28077,10 +28077,10 @@
         <v>27698</v>
       </c>
       <c r="D55" s="53">
+        <v>27837.200000000001</v>
+      </c>
+      <c r="E55" s="53">
         <v>42049.7</v>
-      </c>
-      <c r="E55" s="53">
-        <v>27837.200000000001</v>
       </c>
       <c r="F55" s="54">
         <v>149.59800000000001</v>
@@ -28130,10 +28130,10 @@
         <v>27821.3</v>
       </c>
       <c r="D56" s="53">
+        <v>27961.1</v>
+      </c>
+      <c r="E56" s="53">
         <v>42443.6</v>
-      </c>
-      <c r="E56" s="53">
-        <v>27961.1</v>
       </c>
       <c r="F56" s="54">
         <v>150.31800000000001</v>
@@ -28183,10 +28183,10 @@
         <v>27944.5</v>
       </c>
       <c r="D57" s="53">
+        <v>28085</v>
+      </c>
+      <c r="E57" s="53">
         <v>42840.800000000003</v>
-      </c>
-      <c r="E57" s="53">
-        <v>28085</v>
       </c>
       <c r="F57" s="54">
         <v>151.042</v>

--- a/inst/extdata/projections.xlsx
+++ b/inst/extdata/projections.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stoja\dev\FIM\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6E7686F-B433-4EE2-AC8B-B51F732A651D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5ECCB6B-D10D-40F8-8A24-ED55559D7BBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dictionary" sheetId="12" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="320">
   <si>
     <t>date</t>
   </si>
@@ -962,9 +962,6 @@
     <t xml:space="preserve"> Prices&gt;GDP Price Index</t>
   </si>
   <si>
-    <t xml:space="preserve"> Labor&gt;Unemployment Rate Civilian 16 Years or Older</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Components of GDP (Nominal)&gt;Personal Consumption Expenditures</t>
   </si>
   <si>
@@ -1029,6 +1026,15 @@
   </si>
   <si>
     <t>CBO's Baseline Projections of Mandatory Outlays, Adjusted to Exclude the Effects of Timing Shifts</t>
+  </si>
+  <si>
+    <t>Warning! This is the FOURTH column, not the third column of the "economic" sheet!</t>
+  </si>
+  <si>
+    <t>Warning! This is the THIRD column, not the fourth column of the "economic" sheet!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Labor&gt;Unemployment Rate Civilian 16 Years or Older (Percent)</t>
   </si>
 </sst>
 </file>
@@ -1436,7 +1442,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="41">
+  <fills count="42">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1654,13 +1660,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2446,7 +2458,7 @@
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="43" applyFont="1"/>
@@ -2516,12 +2528,10 @@
     <xf numFmtId="0" fontId="0" fillId="38" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="38" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="38" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="3" fontId="21" fillId="0" borderId="0" xfId="557" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="1" fontId="21" fillId="39" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="21" fillId="39" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="21" fillId="0" borderId="0" xfId="557" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2557,6 +2567,10 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="43" applyFont="1"/>
+    <xf numFmtId="1" fontId="21" fillId="40" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="21" fillId="40" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="568">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3438,10 +3452,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{386681B1-D5EF-4F8F-85A9-C01E4CBD446B}">
-  <dimension ref="A1:P41"/>
+  <dimension ref="A1:R41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3459,13 +3473,13 @@
         <v>280</v>
       </c>
       <c r="C1" s="38" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D1" s="37" t="s">
+        <v>313</v>
+      </c>
+      <c r="E1" s="37" t="s">
         <v>314</v>
-      </c>
-      <c r="E1" s="37" t="s">
-        <v>315</v>
       </c>
       <c r="F1" s="39"/>
       <c r="G1" s="39"/>
@@ -3480,13 +3494,13 @@
       <c r="P1" s="39"/>
     </row>
     <row r="2" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="57" t="s">
         <v>278</v>
       </c>
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="54" t="s">
         <v>279</v>
       </c>
-      <c r="C2" s="56" t="s">
+      <c r="C2" s="54" t="s">
         <v>281</v>
       </c>
       <c r="D2" s="49" t="s">
@@ -3508,9 +3522,9 @@
       <c r="P2" s="42"/>
     </row>
     <row r="3" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="60"/>
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
+      <c r="A3" s="58"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
       <c r="D3" s="48" t="s">
         <v>2</v>
       </c>
@@ -3530,9 +3544,9 @@
       <c r="P3" s="44"/>
     </row>
     <row r="4" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="60"/>
-      <c r="B4" s="57"/>
-      <c r="C4" s="57"/>
+      <c r="A4" s="58"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="55"/>
       <c r="D4" s="48" t="s">
         <v>4</v>
       </c>
@@ -3542,7 +3556,9 @@
       <c r="F4" s="43"/>
       <c r="G4" s="43"/>
       <c r="H4" s="43"/>
-      <c r="I4" s="43"/>
+      <c r="I4" s="67" t="s">
+        <v>317</v>
+      </c>
       <c r="J4" s="43"/>
       <c r="K4" s="43"/>
       <c r="L4" s="43"/>
@@ -3552,9 +3568,9 @@
       <c r="P4" s="44"/>
     </row>
     <row r="5" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="60"/>
-      <c r="B5" s="57"/>
-      <c r="C5" s="57"/>
+      <c r="A5" s="58"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="55"/>
       <c r="D5" s="48" t="s">
         <v>3</v>
       </c>
@@ -3564,7 +3580,9 @@
       <c r="F5" s="43"/>
       <c r="G5" s="43"/>
       <c r="H5" s="43"/>
-      <c r="I5" s="43"/>
+      <c r="I5" s="67" t="s">
+        <v>318</v>
+      </c>
       <c r="J5" s="43"/>
       <c r="K5" s="43"/>
       <c r="L5" s="43"/>
@@ -3574,9 +3592,9 @@
       <c r="P5" s="44"/>
     </row>
     <row r="6" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="60"/>
-      <c r="B6" s="57"/>
-      <c r="C6" s="57"/>
+      <c r="A6" s="58"/>
+      <c r="B6" s="55"/>
+      <c r="C6" s="55"/>
       <c r="D6" s="48" t="s">
         <v>5</v>
       </c>
@@ -3596,9 +3614,9 @@
       <c r="P6" s="44"/>
     </row>
     <row r="7" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="60"/>
-      <c r="B7" s="57"/>
-      <c r="C7" s="57"/>
+      <c r="A7" s="58"/>
+      <c r="B7" s="55"/>
+      <c r="C7" s="55"/>
       <c r="D7" s="48" t="s">
         <v>15</v>
       </c>
@@ -3618,9 +3636,9 @@
       <c r="P7" s="44"/>
     </row>
     <row r="8" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="60"/>
-      <c r="B8" s="57"/>
-      <c r="C8" s="57"/>
+      <c r="A8" s="58"/>
+      <c r="B8" s="55"/>
+      <c r="C8" s="55"/>
       <c r="D8" s="48" t="s">
         <v>6</v>
       </c>
@@ -3640,14 +3658,14 @@
       <c r="P8" s="44"/>
     </row>
     <row r="9" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="60"/>
-      <c r="B9" s="57"/>
-      <c r="C9" s="57"/>
+      <c r="A9" s="58"/>
+      <c r="B9" s="55"/>
+      <c r="C9" s="55"/>
       <c r="D9" s="48" t="s">
         <v>212</v>
       </c>
       <c r="E9" s="43" t="s">
-        <v>295</v>
+        <v>319</v>
       </c>
       <c r="F9" s="43"/>
       <c r="G9" s="43"/>
@@ -3662,14 +3680,14 @@
       <c r="P9" s="44"/>
     </row>
     <row r="10" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="60"/>
-      <c r="B10" s="57"/>
-      <c r="C10" s="57"/>
+      <c r="A10" s="58"/>
+      <c r="B10" s="55"/>
+      <c r="C10" s="55"/>
       <c r="D10" s="48" t="s">
         <v>7</v>
       </c>
       <c r="E10" s="43" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F10" s="43"/>
       <c r="G10" s="43"/>
@@ -3684,14 +3702,14 @@
       <c r="P10" s="44"/>
     </row>
     <row r="11" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="60"/>
-      <c r="B11" s="57"/>
-      <c r="C11" s="57"/>
+      <c r="A11" s="58"/>
+      <c r="B11" s="55"/>
+      <c r="C11" s="55"/>
       <c r="D11" s="48" t="s">
         <v>12</v>
       </c>
       <c r="E11" s="43" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F11" s="43"/>
       <c r="G11" s="43"/>
@@ -3706,14 +3724,14 @@
       <c r="P11" s="44"/>
     </row>
     <row r="12" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="60"/>
-      <c r="B12" s="57"/>
-      <c r="C12" s="57"/>
+      <c r="A12" s="58"/>
+      <c r="B12" s="55"/>
+      <c r="C12" s="55"/>
       <c r="D12" s="48" t="s">
         <v>13</v>
       </c>
       <c r="E12" s="43" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F12" s="43"/>
       <c r="G12" s="43"/>
@@ -3728,14 +3746,14 @@
       <c r="P12" s="44"/>
     </row>
     <row r="13" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="60"/>
-      <c r="B13" s="57"/>
-      <c r="C13" s="57"/>
+      <c r="A13" s="58"/>
+      <c r="B13" s="55"/>
+      <c r="C13" s="55"/>
       <c r="D13" s="48" t="s">
         <v>14</v>
       </c>
       <c r="E13" s="43" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F13" s="43"/>
       <c r="G13" s="43"/>
@@ -3750,14 +3768,14 @@
       <c r="P13" s="44"/>
     </row>
     <row r="14" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="60"/>
-      <c r="B14" s="57"/>
-      <c r="C14" s="57"/>
+      <c r="A14" s="58"/>
+      <c r="B14" s="55"/>
+      <c r="C14" s="55"/>
       <c r="D14" s="48" t="s">
         <v>8</v>
       </c>
       <c r="E14" s="43" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F14" s="43"/>
       <c r="G14" s="43"/>
@@ -3772,14 +3790,14 @@
       <c r="P14" s="44"/>
     </row>
     <row r="15" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="60"/>
-      <c r="B15" s="57"/>
-      <c r="C15" s="57"/>
+      <c r="A15" s="58"/>
+      <c r="B15" s="55"/>
+      <c r="C15" s="55"/>
       <c r="D15" s="48" t="s">
         <v>9</v>
       </c>
       <c r="E15" s="43" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F15" s="43"/>
       <c r="G15" s="43"/>
@@ -3794,14 +3812,14 @@
       <c r="P15" s="44"/>
     </row>
     <row r="16" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="60"/>
-      <c r="B16" s="57"/>
-      <c r="C16" s="57"/>
+      <c r="A16" s="58"/>
+      <c r="B16" s="55"/>
+      <c r="C16" s="55"/>
       <c r="D16" s="48" t="s">
         <v>10</v>
       </c>
       <c r="E16" s="43" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F16" s="43"/>
       <c r="G16" s="43"/>
@@ -3815,15 +3833,15 @@
       <c r="O16" s="43"/>
       <c r="P16" s="44"/>
     </row>
-    <row r="17" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="61"/>
-      <c r="B17" s="58"/>
-      <c r="C17" s="58"/>
+    <row r="17" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="59"/>
+      <c r="B17" s="56"/>
+      <c r="C17" s="56"/>
       <c r="D17" s="50" t="s">
         <v>11</v>
       </c>
       <c r="E17" s="45" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F17" s="45"/>
       <c r="G17" s="45"/>
@@ -3837,15 +3855,15 @@
       <c r="O17" s="45"/>
       <c r="P17" s="46"/>
     </row>
-    <row r="18" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="59" t="s">
+    <row r="18" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="57" t="s">
         <v>282</v>
       </c>
-      <c r="B18" s="56" t="s">
+      <c r="B18" s="54" t="s">
         <v>283</v>
       </c>
-      <c r="C18" s="56" t="s">
-        <v>317</v>
+      <c r="C18" s="54" t="s">
+        <v>316</v>
       </c>
       <c r="D18" s="49" t="s">
         <v>159</v>
@@ -3865,10 +3883,10 @@
       <c r="O18" s="41"/>
       <c r="P18" s="42"/>
     </row>
-    <row r="19" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="60"/>
-      <c r="B19" s="57"/>
-      <c r="C19" s="57"/>
+    <row r="19" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="58"/>
+      <c r="B19" s="55"/>
+      <c r="C19" s="55"/>
       <c r="D19" s="48" t="s">
         <v>165</v>
       </c>
@@ -3887,10 +3905,10 @@
       <c r="O19" s="43"/>
       <c r="P19" s="44"/>
     </row>
-    <row r="20" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="60"/>
-      <c r="B20" s="57"/>
-      <c r="C20" s="57"/>
+    <row r="20" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="58"/>
+      <c r="B20" s="55"/>
+      <c r="C20" s="55"/>
       <c r="D20" s="48" t="s">
         <v>164</v>
       </c>
@@ -3909,10 +3927,10 @@
       <c r="O20" s="43"/>
       <c r="P20" s="44"/>
     </row>
-    <row r="21" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="60"/>
-      <c r="B21" s="57"/>
-      <c r="C21" s="58"/>
+    <row r="21" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="58"/>
+      <c r="B21" s="55"/>
+      <c r="C21" s="56"/>
       <c r="D21" s="50" t="s">
         <v>166</v>
       </c>
@@ -3931,17 +3949,17 @@
       <c r="O21" s="45"/>
       <c r="P21" s="46"/>
     </row>
-    <row r="22" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="60"/>
-      <c r="B22" s="57"/>
-      <c r="C22" s="57" t="s">
-        <v>304</v>
+    <row r="22" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="58"/>
+      <c r="B22" s="55"/>
+      <c r="C22" s="55" t="s">
+        <v>303</v>
       </c>
       <c r="D22" s="48" t="s">
         <v>160</v>
       </c>
       <c r="E22" s="43" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F22" s="43"/>
       <c r="G22" s="43"/>
@@ -3955,15 +3973,15 @@
       <c r="O22" s="43"/>
       <c r="P22" s="44"/>
     </row>
-    <row r="23" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="60"/>
-      <c r="B23" s="57"/>
-      <c r="C23" s="57"/>
+    <row r="23" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="58"/>
+      <c r="B23" s="55"/>
+      <c r="C23" s="55"/>
       <c r="D23" s="48" t="s">
         <v>163</v>
       </c>
       <c r="E23" s="43" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F23" s="43"/>
       <c r="G23" s="43"/>
@@ -3977,15 +3995,15 @@
       <c r="O23" s="43"/>
       <c r="P23" s="44"/>
     </row>
-    <row r="24" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="60"/>
-      <c r="B24" s="57"/>
-      <c r="C24" s="57"/>
+    <row r="24" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="58"/>
+      <c r="B24" s="55"/>
+      <c r="C24" s="55"/>
       <c r="D24" s="48" t="s">
         <v>162</v>
       </c>
       <c r="E24" s="43" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F24" s="43"/>
       <c r="G24" s="43"/>
@@ -3999,15 +4017,15 @@
       <c r="O24" s="43"/>
       <c r="P24" s="44"/>
     </row>
-    <row r="25" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="61"/>
-      <c r="B25" s="58"/>
-      <c r="C25" s="58"/>
+    <row r="25" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="59"/>
+      <c r="B25" s="56"/>
+      <c r="C25" s="56"/>
       <c r="D25" s="50" t="s">
         <v>161</v>
       </c>
       <c r="E25" s="45" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F25" s="45"/>
       <c r="G25" s="45"/>
@@ -4021,30 +4039,90 @@
       <c r="O25" s="45"/>
       <c r="P25" s="46"/>
     </row>
-    <row r="27" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>308</v>
+      </c>
+      <c r="G27" s="52"/>
+      <c r="H27" s="52"/>
+      <c r="I27" s="52"/>
+      <c r="J27" s="52"/>
+      <c r="K27" s="52"/>
+      <c r="L27" s="52"/>
+      <c r="M27" s="52"/>
+      <c r="N27" s="52"/>
+      <c r="O27" s="52"/>
+      <c r="P27" s="52"/>
+      <c r="Q27" s="52"/>
+      <c r="R27" s="52"/>
+    </row>
+    <row r="28" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="28" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="G28" s="52"/>
+      <c r="H28" s="52"/>
+      <c r="I28" s="52"/>
+      <c r="J28" s="52"/>
+      <c r="K28" s="52"/>
+      <c r="L28" s="52"/>
+      <c r="M28" s="52"/>
+      <c r="N28" s="52"/>
+      <c r="O28" s="52"/>
+      <c r="P28" s="52"/>
+      <c r="Q28" s="52"/>
+      <c r="R28" s="52"/>
+    </row>
+    <row r="29" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="29" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="G29" s="52"/>
+      <c r="H29" s="52"/>
+      <c r="I29" s="52"/>
+      <c r="J29" s="52"/>
+      <c r="K29" s="52"/>
+      <c r="L29" s="52"/>
+      <c r="M29" s="52"/>
+      <c r="N29" s="52"/>
+      <c r="O29" s="52"/>
+      <c r="P29" s="52"/>
+      <c r="Q29" s="52"/>
+      <c r="R29" s="52"/>
+    </row>
+    <row r="30" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="30" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="G30" s="52"/>
+      <c r="H30" s="52"/>
+      <c r="I30" s="52"/>
+      <c r="J30" s="52"/>
+      <c r="K30" s="52"/>
+      <c r="L30" s="52"/>
+      <c r="M30" s="52"/>
+      <c r="N30" s="52"/>
+      <c r="O30" s="52"/>
+      <c r="P30" s="52"/>
+      <c r="Q30" s="52"/>
+      <c r="R30" s="52"/>
+    </row>
+    <row r="31" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="31" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>313</v>
-      </c>
+      <c r="G31" s="31"/>
+      <c r="H31" s="31"/>
+      <c r="I31" s="31"/>
+      <c r="J31" s="31"/>
+      <c r="K31" s="31"/>
+      <c r="L31" s="31"/>
+      <c r="M31" s="31"/>
+      <c r="N31" s="31"/>
+      <c r="O31" s="31"/>
+      <c r="P31" s="31"/>
+      <c r="Q31" s="31"/>
+      <c r="R31" s="31"/>
     </row>
     <row r="40" spans="9:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I40" s="52"/>
@@ -4203,27 +4281,27 @@
       </c>
     </row>
     <row r="2" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="62" t="s">
         <v>156</v>
       </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
     </row>
     <row r="4" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D4" s="23"/>
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="66" t="s">
+      <c r="A5" s="64" t="s">
         <v>155</v>
       </c>
-      <c r="B5" s="66"/>
-      <c r="C5" s="66"/>
-      <c r="D5" s="66"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -25061,12 +25139,12 @@
       </c>
     </row>
     <row r="130" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="67" t="s">
+      <c r="A130" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="B130" s="67"/>
-      <c r="C130" s="67"/>
-      <c r="D130" s="67"/>
+      <c r="B130" s="65"/>
+      <c r="C130" s="65"/>
+      <c r="D130" s="65"/>
     </row>
     <row r="131" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C131" s="6"/>
@@ -25195,7 +25273,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G2" sqref="G2"/>
+      <selection pane="bottomRight" activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -25267,10 +25345,10 @@
         <v>20990.5</v>
       </c>
       <c r="D2" s="11">
-        <v>21254.6</v>
+        <v>21261.599999999999</v>
       </c>
       <c r="E2" s="11">
-        <v>22884.6</v>
+        <v>22892.1</v>
       </c>
       <c r="F2" s="5">
         <v>106.578</v>
@@ -25303,10 +25381,10 @@
         <v>2533.9</v>
       </c>
       <c r="P2" s="5">
-        <v>263.73399999999998</v>
+        <v>263.67</v>
       </c>
       <c r="Q2" s="5">
-        <v>6.2</v>
+        <v>6.2329999999999997</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -25320,10 +25398,10 @@
         <v>21309.5</v>
       </c>
       <c r="D3" s="11">
-        <v>21355.9</v>
+        <v>21356</v>
       </c>
       <c r="E3" s="11">
-        <v>23343.1</v>
+        <v>23343.200000000001</v>
       </c>
       <c r="F3" s="5">
         <v>108.208</v>
@@ -25356,7 +25434,7 @@
         <v>2571.6999999999998</v>
       </c>
       <c r="P3" s="5">
-        <v>268.55700000000002</v>
+        <v>268.62200000000001</v>
       </c>
       <c r="Q3" s="5">
         <v>5.9329999999999998</v>
@@ -25373,10 +25451,10 @@
         <v>21483.1</v>
       </c>
       <c r="D4" s="11">
-        <v>21461</v>
+        <v>21454.6</v>
       </c>
       <c r="E4" s="11">
-        <v>23804.5</v>
+        <v>23797.4</v>
       </c>
       <c r="F4" s="5">
         <v>109.705</v>
@@ -25409,10 +25487,10 @@
         <v>2625.1</v>
       </c>
       <c r="P4" s="5">
-        <v>272.887</v>
+        <v>272.89</v>
       </c>
       <c r="Q4" s="5">
-        <v>5.133</v>
+        <v>5.0659999999999998</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
@@ -25426,10 +25504,10 @@
         <v>21847.599999999999</v>
       </c>
       <c r="D5" s="11">
-        <v>21567.1</v>
+        <v>21558.2</v>
       </c>
       <c r="E5" s="11">
-        <v>24338.1</v>
+        <v>24328.1</v>
       </c>
       <c r="F5" s="5">
         <v>111.514</v>
@@ -25462,10 +25540,10 @@
         <v>2664.2</v>
       </c>
       <c r="P5" s="5">
-        <v>278.70600000000002</v>
+        <v>278.68</v>
       </c>
       <c r="Q5" s="5">
-        <v>4.2</v>
+        <v>4.1660000000000004</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
@@ -25479,10 +25557,10 @@
         <v>21738.9</v>
       </c>
       <c r="D6" s="11">
-        <v>21674</v>
+        <v>21667.7</v>
       </c>
       <c r="E6" s="11">
-        <v>24954.400000000001</v>
+        <v>24947.1</v>
       </c>
       <c r="F6" s="5">
         <v>113.59</v>
@@ -25515,7 +25593,7 @@
         <v>2719.7</v>
       </c>
       <c r="P6" s="5">
-        <v>284.89299999999997</v>
+        <v>284.82600000000002</v>
       </c>
       <c r="Q6" s="5">
         <v>3.8</v>
@@ -25532,10 +25610,10 @@
         <v>21708.2</v>
       </c>
       <c r="D7" s="11">
-        <v>21782</v>
+        <v>21780.1</v>
       </c>
       <c r="E7" s="11">
-        <v>25631.200000000001</v>
+        <v>25629</v>
       </c>
       <c r="F7" s="5">
         <v>115.577</v>
@@ -25568,10 +25646,10 @@
         <v>2803.4</v>
       </c>
       <c r="P7" s="5">
-        <v>291.53500000000003</v>
+        <v>291.70600000000002</v>
       </c>
       <c r="Q7" s="5">
-        <v>3.6</v>
+        <v>3.633</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
@@ -25585,10 +25663,10 @@
         <v>21851.1</v>
       </c>
       <c r="D8" s="11">
-        <v>21894.2</v>
+        <v>21892.799999999999</v>
       </c>
       <c r="E8" s="11">
-        <v>26045.9</v>
+        <v>26044.2</v>
       </c>
       <c r="F8" s="5">
         <v>116.905</v>
@@ -25621,10 +25699,10 @@
         <v>2841.5</v>
       </c>
       <c r="P8" s="5">
-        <v>295.495</v>
+        <v>295.50900000000001</v>
       </c>
       <c r="Q8" s="5">
-        <v>3.5659999999999998</v>
+        <v>3.5329999999999999</v>
       </c>
       <c r="R8" s="33"/>
     </row>
@@ -25639,10 +25717,10 @@
         <v>21990</v>
       </c>
       <c r="D9" s="11">
-        <v>22006.9</v>
+        <v>22004.7</v>
       </c>
       <c r="E9" s="11">
-        <v>26428.7</v>
+        <v>26426</v>
       </c>
       <c r="F9" s="5">
         <v>118.098</v>
@@ -25675,10 +25753,10 @@
         <v>2880.6</v>
       </c>
       <c r="P9" s="5">
-        <v>298.52499999999998</v>
+        <v>298.44099999999997</v>
       </c>
       <c r="Q9" s="5">
-        <v>3.6</v>
+        <v>3.5659999999999998</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
@@ -25692,10 +25770,10 @@
         <v>22112.3</v>
       </c>
       <c r="D10" s="11">
-        <v>22125.8</v>
+        <v>22116.400000000001</v>
       </c>
       <c r="E10" s="11">
-        <v>26830</v>
+        <v>26818.6</v>
       </c>
       <c r="F10" s="5">
         <v>119.309</v>
@@ -25728,7 +25806,7 @@
         <v>2913.2</v>
       </c>
       <c r="P10" s="5">
-        <v>301.33</v>
+        <v>301.20299999999997</v>
       </c>
       <c r="Q10" s="5">
         <v>3.5</v>
@@ -25745,10 +25823,10 @@
         <v>22225.4</v>
       </c>
       <c r="D11" s="11">
-        <v>22246.2</v>
+        <v>22227.599999999999</v>
       </c>
       <c r="E11" s="11">
-        <v>27088.400000000001</v>
+        <v>27065.7</v>
       </c>
       <c r="F11" s="5">
         <v>120.044</v>
@@ -25781,7 +25859,7 @@
         <v>2925.5</v>
       </c>
       <c r="P11" s="5">
-        <v>303.351</v>
+        <v>303.46600000000001</v>
       </c>
       <c r="Q11" s="5">
         <v>3.5659999999999998</v>
@@ -25792,49 +25870,49 @@
         <v>45199</v>
       </c>
       <c r="B12" s="11">
-        <v>27644.5</v>
+        <v>27610.1</v>
       </c>
       <c r="C12" s="11">
-        <v>22506.400000000001</v>
+        <v>22490.7</v>
       </c>
       <c r="D12" s="11">
-        <v>22369.7</v>
+        <v>22338.799999999999</v>
       </c>
       <c r="E12" s="11">
-        <v>27476.6</v>
+        <v>27423.599999999999</v>
       </c>
       <c r="F12" s="5">
-        <v>120.88</v>
+        <v>120.81399999999999</v>
       </c>
       <c r="G12" s="5">
-        <v>122.857</v>
+        <v>122.792</v>
       </c>
       <c r="H12" s="11">
-        <v>18711.599999999999</v>
+        <v>18679.5</v>
       </c>
       <c r="I12" s="11">
-        <v>15479.5</v>
+        <v>15461.4</v>
       </c>
       <c r="J12" s="11">
-        <v>3840.9</v>
+        <v>3843.4</v>
       </c>
       <c r="K12" s="11">
-        <v>1491.8</v>
+        <v>1492.3</v>
       </c>
       <c r="L12" s="11">
-        <v>2349.5</v>
+        <v>2351.4</v>
       </c>
       <c r="M12" s="11">
-        <v>4792.5</v>
+        <v>4794.8</v>
       </c>
       <c r="N12" s="11">
-        <v>1791.6</v>
+        <v>1791.9</v>
       </c>
       <c r="O12" s="11">
-        <v>3000.9</v>
+        <v>3002.9</v>
       </c>
       <c r="P12" s="5">
-        <v>306.03199999999998</v>
+        <v>306.03399999999999</v>
       </c>
       <c r="Q12" s="5">
         <v>3.7</v>
@@ -25844,2385 +25922,2385 @@
       <c r="A13" s="1">
         <v>45291</v>
       </c>
-      <c r="B13" s="53">
-        <v>27842.400000000001</v>
-      </c>
-      <c r="C13" s="53">
-        <v>22549.599999999999</v>
-      </c>
-      <c r="D13" s="53">
-        <v>22495.200000000001</v>
-      </c>
-      <c r="E13" s="53">
-        <v>27775.200000000001</v>
-      </c>
-      <c r="F13" s="54">
-        <v>121.55</v>
-      </c>
-      <c r="G13" s="54">
-        <v>123.471</v>
-      </c>
-      <c r="H13" s="53">
-        <v>18910.599999999999</v>
-      </c>
-      <c r="I13" s="53">
-        <v>15557.8</v>
-      </c>
-      <c r="J13" s="53">
-        <v>3845.8</v>
-      </c>
-      <c r="K13" s="53">
-        <v>1487.8</v>
-      </c>
-      <c r="L13" s="53">
-        <v>2358</v>
-      </c>
-      <c r="M13" s="53">
-        <v>4822.3999999999996</v>
-      </c>
-      <c r="N13" s="53">
-        <v>1795.9</v>
-      </c>
-      <c r="O13" s="53">
-        <v>3026.5</v>
-      </c>
-      <c r="P13" s="54">
-        <v>307.964</v>
-      </c>
-      <c r="Q13" s="54">
-        <v>3.9</v>
+      <c r="B13" s="11">
+        <v>27957</v>
+      </c>
+      <c r="C13" s="11">
+        <v>22679.3</v>
+      </c>
+      <c r="D13" s="11">
+        <v>22452.1</v>
+      </c>
+      <c r="E13" s="11">
+        <v>27676.9</v>
+      </c>
+      <c r="F13" s="5">
+        <v>121.351</v>
+      </c>
+      <c r="G13" s="5">
+        <v>123.289</v>
+      </c>
+      <c r="H13" s="11">
+        <v>18914.5</v>
+      </c>
+      <c r="I13" s="11">
+        <v>15586.7</v>
+      </c>
+      <c r="J13" s="11">
+        <v>3887</v>
+      </c>
+      <c r="K13" s="11">
+        <v>1501</v>
+      </c>
+      <c r="L13" s="11">
+        <v>2385.9</v>
+      </c>
+      <c r="M13" s="11">
+        <v>4871.8</v>
+      </c>
+      <c r="N13" s="11">
+        <v>1820</v>
+      </c>
+      <c r="O13" s="11">
+        <v>3051.8</v>
+      </c>
+      <c r="P13" s="5">
+        <v>308.09899999999999</v>
+      </c>
+      <c r="Q13" s="5">
+        <v>3.7330000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>45382</v>
       </c>
-      <c r="B14" s="53">
-        <v>28044.7</v>
-      </c>
-      <c r="C14" s="53">
-        <v>22625</v>
-      </c>
-      <c r="D14" s="53">
-        <v>22618.2</v>
-      </c>
-      <c r="E14" s="53">
-        <v>28036.2</v>
-      </c>
-      <c r="F14" s="54">
-        <v>122.10899999999999</v>
-      </c>
-      <c r="G14" s="54">
-        <v>123.95399999999999</v>
-      </c>
-      <c r="H14" s="53">
-        <v>19051.2</v>
-      </c>
-      <c r="I14" s="53">
-        <v>15601.7</v>
-      </c>
-      <c r="J14" s="53">
-        <v>3853.9</v>
-      </c>
-      <c r="K14" s="53">
-        <v>1486.2</v>
-      </c>
-      <c r="L14" s="53">
-        <v>2367.4</v>
-      </c>
-      <c r="M14" s="53">
-        <v>4852</v>
-      </c>
-      <c r="N14" s="53">
-        <v>1804.5</v>
-      </c>
-      <c r="O14" s="53">
-        <v>3047.5</v>
-      </c>
-      <c r="P14" s="54">
-        <v>309.53399999999999</v>
-      </c>
-      <c r="Q14" s="54">
-        <v>3.9750000000000001</v>
+      <c r="B14" s="11">
+        <v>28284.5</v>
+      </c>
+      <c r="C14" s="11">
+        <v>22768.9</v>
+      </c>
+      <c r="D14" s="11">
+        <v>22566.6</v>
+      </c>
+      <c r="E14" s="11">
+        <v>28033.200000000001</v>
+      </c>
+      <c r="F14" s="5">
+        <v>122.36799999999999</v>
+      </c>
+      <c r="G14" s="5">
+        <v>124.24</v>
+      </c>
+      <c r="H14" s="11">
+        <v>19191.599999999999</v>
+      </c>
+      <c r="I14" s="11">
+        <v>15683.5</v>
+      </c>
+      <c r="J14" s="11">
+        <v>3898.5</v>
+      </c>
+      <c r="K14" s="11">
+        <v>1500.1</v>
+      </c>
+      <c r="L14" s="11">
+        <v>2397.9</v>
+      </c>
+      <c r="M14" s="11">
+        <v>4932</v>
+      </c>
+      <c r="N14" s="11">
+        <v>1837.3</v>
+      </c>
+      <c r="O14" s="11">
+        <v>3094.7</v>
+      </c>
+      <c r="P14" s="5">
+        <v>310.98899999999998</v>
+      </c>
+      <c r="Q14" s="5">
+        <v>3.8</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>45473</v>
       </c>
-      <c r="B15" s="53">
-        <v>28279.7</v>
-      </c>
-      <c r="C15" s="53">
-        <v>22703.200000000001</v>
-      </c>
-      <c r="D15" s="53">
-        <v>22739</v>
-      </c>
-      <c r="E15" s="53">
-        <v>28324.3</v>
-      </c>
-      <c r="F15" s="54">
-        <v>122.753</v>
-      </c>
-      <c r="G15" s="54">
-        <v>124.562</v>
-      </c>
-      <c r="H15" s="53">
-        <v>19203.099999999999</v>
-      </c>
-      <c r="I15" s="53">
-        <v>15643.6</v>
-      </c>
-      <c r="J15" s="53">
-        <v>3861.4</v>
-      </c>
-      <c r="K15" s="53">
-        <v>1486.1</v>
-      </c>
-      <c r="L15" s="53">
-        <v>2374.8000000000002</v>
-      </c>
-      <c r="M15" s="53">
-        <v>4889.8999999999996</v>
-      </c>
-      <c r="N15" s="53">
-        <v>1815.8</v>
-      </c>
-      <c r="O15" s="53">
-        <v>3074.1</v>
-      </c>
-      <c r="P15" s="54">
-        <v>311.58</v>
-      </c>
-      <c r="Q15" s="54">
-        <v>4.1100000000000003</v>
+      <c r="B15" s="66">
+        <v>28658.5</v>
+      </c>
+      <c r="C15" s="66">
+        <v>22902.1</v>
+      </c>
+      <c r="D15" s="66">
+        <v>22682.7</v>
+      </c>
+      <c r="E15" s="66">
+        <v>28383.9</v>
+      </c>
+      <c r="F15" s="68">
+        <v>123.328</v>
+      </c>
+      <c r="G15" s="68">
+        <v>125.13500000000001</v>
+      </c>
+      <c r="H15" s="66">
+        <v>19506.599999999999</v>
+      </c>
+      <c r="I15" s="66">
+        <v>15816.9</v>
+      </c>
+      <c r="J15" s="66">
+        <v>3881.9</v>
+      </c>
+      <c r="K15" s="66">
+        <v>1478.5</v>
+      </c>
+      <c r="L15" s="66">
+        <v>2402.1999999999998</v>
+      </c>
+      <c r="M15" s="66">
+        <v>4956.5</v>
+      </c>
+      <c r="N15" s="66">
+        <v>1825.6</v>
+      </c>
+      <c r="O15" s="66">
+        <v>3131</v>
+      </c>
+      <c r="P15" s="68">
+        <v>313.7</v>
+      </c>
+      <c r="Q15" s="68">
+        <v>3.8809999999999998</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>45565</v>
       </c>
-      <c r="B16" s="53">
-        <v>28539.7</v>
-      </c>
-      <c r="C16" s="53">
-        <v>22797</v>
-      </c>
-      <c r="D16" s="53">
-        <v>22862.7</v>
-      </c>
-      <c r="E16" s="53">
-        <v>28622</v>
-      </c>
-      <c r="F16" s="54">
-        <v>123.42700000000001</v>
-      </c>
-      <c r="G16" s="54">
-        <v>125.19</v>
-      </c>
-      <c r="H16" s="53">
-        <v>19375.8</v>
-      </c>
-      <c r="I16" s="53">
-        <v>15698.1</v>
-      </c>
-      <c r="J16" s="53">
-        <v>3870</v>
-      </c>
-      <c r="K16" s="53">
-        <v>1488.9</v>
-      </c>
-      <c r="L16" s="53">
-        <v>2380.6</v>
-      </c>
-      <c r="M16" s="53">
-        <v>4932.6000000000004</v>
-      </c>
-      <c r="N16" s="53">
-        <v>1831.3</v>
-      </c>
-      <c r="O16" s="53">
-        <v>3101.3</v>
-      </c>
-      <c r="P16" s="54">
-        <v>313.65300000000002</v>
-      </c>
-      <c r="Q16" s="54">
-        <v>4.2460000000000004</v>
+      <c r="B16" s="66">
+        <v>28968.9</v>
+      </c>
+      <c r="C16" s="66">
+        <v>23022.5</v>
+      </c>
+      <c r="D16" s="66">
+        <v>22800.6</v>
+      </c>
+      <c r="E16" s="66">
+        <v>28689.8</v>
+      </c>
+      <c r="F16" s="68">
+        <v>124.015</v>
+      </c>
+      <c r="G16" s="68">
+        <v>125.828</v>
+      </c>
+      <c r="H16" s="66">
+        <v>19739.8</v>
+      </c>
+      <c r="I16" s="66">
+        <v>15917.3</v>
+      </c>
+      <c r="J16" s="66">
+        <v>3878.1</v>
+      </c>
+      <c r="K16" s="66">
+        <v>1467.7</v>
+      </c>
+      <c r="L16" s="66">
+        <v>2408.6999999999998</v>
+      </c>
+      <c r="M16" s="66">
+        <v>4983.3</v>
+      </c>
+      <c r="N16" s="66">
+        <v>1824.6</v>
+      </c>
+      <c r="O16" s="66">
+        <v>3158.7</v>
+      </c>
+      <c r="P16" s="68">
+        <v>315.63499999999999</v>
+      </c>
+      <c r="Q16" s="68">
+        <v>3.915</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>45657</v>
       </c>
-      <c r="B17" s="53">
-        <v>28807.9</v>
-      </c>
-      <c r="C17" s="53">
-        <v>22895.599999999999</v>
-      </c>
-      <c r="D17" s="53">
-        <v>22988.799999999999</v>
-      </c>
-      <c r="E17" s="53">
-        <v>28925.1</v>
-      </c>
-      <c r="F17" s="54">
-        <v>124.102</v>
-      </c>
-      <c r="G17" s="54">
-        <v>125.822</v>
-      </c>
-      <c r="H17" s="53">
-        <v>19556.2</v>
-      </c>
-      <c r="I17" s="53">
-        <v>15758.2</v>
-      </c>
-      <c r="J17" s="53">
-        <v>3876.7</v>
-      </c>
-      <c r="K17" s="53">
-        <v>1489.7</v>
-      </c>
-      <c r="L17" s="53">
-        <v>2386.4</v>
-      </c>
-      <c r="M17" s="53">
-        <v>4973.3999999999996</v>
-      </c>
-      <c r="N17" s="53">
-        <v>1845.1</v>
-      </c>
-      <c r="O17" s="53">
-        <v>3128.3</v>
-      </c>
-      <c r="P17" s="54">
-        <v>315.56200000000001</v>
-      </c>
-      <c r="Q17" s="54">
-        <v>4.3710000000000004</v>
+      <c r="B17" s="66">
+        <v>29256.5</v>
+      </c>
+      <c r="C17" s="66">
+        <v>23132.799999999999</v>
+      </c>
+      <c r="D17" s="66">
+        <v>22920.3</v>
+      </c>
+      <c r="E17" s="66">
+        <v>28987.7</v>
+      </c>
+      <c r="F17" s="68">
+        <v>124.64400000000001</v>
+      </c>
+      <c r="G17" s="68">
+        <v>126.47199999999999</v>
+      </c>
+      <c r="H17" s="66">
+        <v>19911.8</v>
+      </c>
+      <c r="I17" s="66">
+        <v>15974.8</v>
+      </c>
+      <c r="J17" s="66">
+        <v>3889.4</v>
+      </c>
+      <c r="K17" s="66">
+        <v>1472.9</v>
+      </c>
+      <c r="L17" s="66">
+        <v>2414.9</v>
+      </c>
+      <c r="M17" s="66">
+        <v>5027.8999999999996</v>
+      </c>
+      <c r="N17" s="66">
+        <v>1842.6</v>
+      </c>
+      <c r="O17" s="66">
+        <v>3185.3</v>
+      </c>
+      <c r="P17" s="68">
+        <v>317.40300000000002</v>
+      </c>
+      <c r="Q17" s="68">
+        <v>3.9319999999999999</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>45747</v>
       </c>
-      <c r="B18" s="53">
-        <v>29095.1</v>
-      </c>
-      <c r="C18" s="53">
-        <v>23007.3</v>
-      </c>
-      <c r="D18" s="53">
-        <v>23116.6</v>
-      </c>
-      <c r="E18" s="53">
-        <v>29233.200000000001</v>
-      </c>
-      <c r="F18" s="54">
-        <v>124.792</v>
-      </c>
-      <c r="G18" s="54">
-        <v>126.46</v>
-      </c>
-      <c r="H18" s="53">
-        <v>19758.5</v>
-      </c>
-      <c r="I18" s="53">
-        <v>15833.2</v>
-      </c>
-      <c r="J18" s="53">
-        <v>3882.8</v>
-      </c>
-      <c r="K18" s="53">
-        <v>1489.3</v>
-      </c>
-      <c r="L18" s="53">
-        <v>2392.6999999999998</v>
-      </c>
-      <c r="M18" s="53">
-        <v>5013.8</v>
-      </c>
-      <c r="N18" s="53">
-        <v>1856.5</v>
-      </c>
-      <c r="O18" s="53">
-        <v>3157.3</v>
-      </c>
-      <c r="P18" s="54">
-        <v>317.53899999999999</v>
-      </c>
-      <c r="Q18" s="54">
-        <v>4.4089999999999998</v>
+      <c r="B18" s="66">
+        <v>29556.6</v>
+      </c>
+      <c r="C18" s="66">
+        <v>23248.1</v>
+      </c>
+      <c r="D18" s="66">
+        <v>23041.9</v>
+      </c>
+      <c r="E18" s="66">
+        <v>29294.5</v>
+      </c>
+      <c r="F18" s="68">
+        <v>125.318</v>
+      </c>
+      <c r="G18" s="68">
+        <v>127.13500000000001</v>
+      </c>
+      <c r="H18" s="66">
+        <v>20098.5</v>
+      </c>
+      <c r="I18" s="66">
+        <v>16037.9</v>
+      </c>
+      <c r="J18" s="66">
+        <v>3903.3</v>
+      </c>
+      <c r="K18" s="66">
+        <v>1481.3</v>
+      </c>
+      <c r="L18" s="66">
+        <v>2420.5</v>
+      </c>
+      <c r="M18" s="66">
+        <v>5077.3999999999996</v>
+      </c>
+      <c r="N18" s="66">
+        <v>1864.3</v>
+      </c>
+      <c r="O18" s="66">
+        <v>3213.1</v>
+      </c>
+      <c r="P18" s="68">
+        <v>319.274</v>
+      </c>
+      <c r="Q18" s="68">
+        <v>3.9569999999999999</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>45838</v>
       </c>
-      <c r="B19" s="53">
-        <v>29404.5</v>
-      </c>
-      <c r="C19" s="53">
-        <v>23135.599999999999</v>
-      </c>
-      <c r="D19" s="53">
-        <v>23245.599999999999</v>
-      </c>
-      <c r="E19" s="53">
-        <v>29544.3</v>
-      </c>
-      <c r="F19" s="54">
-        <v>125.47799999999999</v>
-      </c>
-      <c r="G19" s="54">
-        <v>127.096</v>
-      </c>
-      <c r="H19" s="53">
-        <v>19957.7</v>
-      </c>
-      <c r="I19" s="53">
-        <v>15905.3</v>
-      </c>
-      <c r="J19" s="53">
-        <v>3889.6</v>
-      </c>
-      <c r="K19" s="53">
-        <v>1489.4</v>
-      </c>
-      <c r="L19" s="53">
-        <v>2399.3000000000002</v>
-      </c>
-      <c r="M19" s="53">
-        <v>5055.2</v>
-      </c>
-      <c r="N19" s="53">
-        <v>1868.4</v>
-      </c>
-      <c r="O19" s="53">
-        <v>3186.8</v>
-      </c>
-      <c r="P19" s="54">
-        <v>319.48700000000002</v>
-      </c>
-      <c r="Q19" s="54">
-        <v>4.4029999999999996</v>
+      <c r="B19" s="66">
+        <v>29864</v>
+      </c>
+      <c r="C19" s="66">
+        <v>23370.799999999999</v>
+      </c>
+      <c r="D19" s="66">
+        <v>23164.5</v>
+      </c>
+      <c r="E19" s="66">
+        <v>29600.400000000001</v>
+      </c>
+      <c r="F19" s="68">
+        <v>125.989</v>
+      </c>
+      <c r="G19" s="68">
+        <v>127.783</v>
+      </c>
+      <c r="H19" s="66">
+        <v>20285.8</v>
+      </c>
+      <c r="I19" s="66">
+        <v>16101.2</v>
+      </c>
+      <c r="J19" s="66">
+        <v>3918</v>
+      </c>
+      <c r="K19" s="66">
+        <v>1490.5</v>
+      </c>
+      <c r="L19" s="66">
+        <v>2426.1999999999998</v>
+      </c>
+      <c r="M19" s="66">
+        <v>5128</v>
+      </c>
+      <c r="N19" s="66">
+        <v>1886.9</v>
+      </c>
+      <c r="O19" s="66">
+        <v>3241</v>
+      </c>
+      <c r="P19" s="68">
+        <v>321.18599999999998</v>
+      </c>
+      <c r="Q19" s="68">
+        <v>3.9569999999999999</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>45930</v>
       </c>
-      <c r="B20" s="53">
-        <v>29718.1</v>
-      </c>
-      <c r="C20" s="53">
-        <v>23266.6</v>
-      </c>
-      <c r="D20" s="53">
-        <v>23375.8</v>
-      </c>
-      <c r="E20" s="53">
-        <v>29857.599999999999</v>
-      </c>
-      <c r="F20" s="54">
-        <v>126.16</v>
-      </c>
-      <c r="G20" s="54">
-        <v>127.72799999999999</v>
-      </c>
-      <c r="H20" s="53">
-        <v>20156.599999999999</v>
-      </c>
-      <c r="I20" s="53">
-        <v>15976.9</v>
-      </c>
-      <c r="J20" s="53">
-        <v>3897.5</v>
-      </c>
-      <c r="K20" s="53">
-        <v>1490.2</v>
-      </c>
-      <c r="L20" s="53">
-        <v>2406.1999999999998</v>
-      </c>
-      <c r="M20" s="53">
-        <v>5098.2</v>
-      </c>
-      <c r="N20" s="53">
-        <v>1881.1</v>
-      </c>
-      <c r="O20" s="53">
-        <v>3217</v>
-      </c>
-      <c r="P20" s="54">
-        <v>321.42200000000003</v>
-      </c>
-      <c r="Q20" s="54">
-        <v>4.375</v>
+      <c r="B20" s="66">
+        <v>30165.4</v>
+      </c>
+      <c r="C20" s="66">
+        <v>23492.400000000001</v>
+      </c>
+      <c r="D20" s="66">
+        <v>23288.3</v>
+      </c>
+      <c r="E20" s="66">
+        <v>29903.4</v>
+      </c>
+      <c r="F20" s="68">
+        <v>126.637</v>
+      </c>
+      <c r="G20" s="68">
+        <v>128.405</v>
+      </c>
+      <c r="H20" s="66">
+        <v>20464.099999999999</v>
+      </c>
+      <c r="I20" s="66">
+        <v>16159.7</v>
+      </c>
+      <c r="J20" s="66">
+        <v>3932.4</v>
+      </c>
+      <c r="K20" s="66">
+        <v>1500.1</v>
+      </c>
+      <c r="L20" s="66">
+        <v>2431.3000000000002</v>
+      </c>
+      <c r="M20" s="66">
+        <v>5178.1000000000004</v>
+      </c>
+      <c r="N20" s="66">
+        <v>1910.1</v>
+      </c>
+      <c r="O20" s="66">
+        <v>3268</v>
+      </c>
+      <c r="P20" s="68">
+        <v>323.01299999999998</v>
+      </c>
+      <c r="Q20" s="68">
+        <v>3.9750000000000001</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>46022</v>
       </c>
-      <c r="B21" s="53">
-        <v>30042.1</v>
-      </c>
-      <c r="C21" s="53">
-        <v>23405.4</v>
-      </c>
-      <c r="D21" s="53">
-        <v>23506.6</v>
-      </c>
-      <c r="E21" s="53">
-        <v>30172.1</v>
-      </c>
-      <c r="F21" s="54">
-        <v>126.834</v>
-      </c>
-      <c r="G21" s="54">
-        <v>128.35499999999999</v>
-      </c>
-      <c r="H21" s="53">
-        <v>20359.900000000001</v>
-      </c>
-      <c r="I21" s="53">
-        <v>16052.3</v>
-      </c>
-      <c r="J21" s="53">
-        <v>3906</v>
-      </c>
-      <c r="K21" s="53">
-        <v>1492.1</v>
-      </c>
-      <c r="L21" s="53">
-        <v>2412.9</v>
-      </c>
-      <c r="M21" s="53">
-        <v>5142.3</v>
-      </c>
-      <c r="N21" s="53">
-        <v>1895</v>
-      </c>
-      <c r="O21" s="53">
-        <v>3247.2</v>
-      </c>
-      <c r="P21" s="54">
-        <v>323.32799999999997</v>
-      </c>
-      <c r="Q21" s="54">
-        <v>4.3540000000000001</v>
+      <c r="B21" s="66">
+        <v>30451.4</v>
+      </c>
+      <c r="C21" s="66">
+        <v>23604.2</v>
+      </c>
+      <c r="D21" s="66">
+        <v>23413.1</v>
+      </c>
+      <c r="E21" s="66">
+        <v>30204.9</v>
+      </c>
+      <c r="F21" s="68">
+        <v>127.268</v>
+      </c>
+      <c r="G21" s="68">
+        <v>129.00800000000001</v>
+      </c>
+      <c r="H21" s="66">
+        <v>20636.599999999999</v>
+      </c>
+      <c r="I21" s="66">
+        <v>16215</v>
+      </c>
+      <c r="J21" s="66">
+        <v>3939.6</v>
+      </c>
+      <c r="K21" s="66">
+        <v>1502.1</v>
+      </c>
+      <c r="L21" s="66">
+        <v>2436.3000000000002</v>
+      </c>
+      <c r="M21" s="66">
+        <v>5218.7</v>
+      </c>
+      <c r="N21" s="66">
+        <v>1923.8</v>
+      </c>
+      <c r="O21" s="66">
+        <v>3294.9</v>
+      </c>
+      <c r="P21" s="68">
+        <v>324.82900000000001</v>
+      </c>
+      <c r="Q21" s="68">
+        <v>4.0039999999999996</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>46112</v>
       </c>
-      <c r="B22" s="53">
-        <v>30348.3</v>
-      </c>
-      <c r="C22" s="53">
-        <v>23530.6</v>
-      </c>
-      <c r="D22" s="53">
-        <v>23637.9</v>
-      </c>
-      <c r="E22" s="53">
-        <v>30486.7</v>
-      </c>
-      <c r="F22" s="54">
-        <v>127.498</v>
-      </c>
-      <c r="G22" s="54">
-        <v>128.97300000000001</v>
-      </c>
-      <c r="H22" s="53">
-        <v>20538</v>
-      </c>
-      <c r="I22" s="53">
-        <v>16108.4</v>
-      </c>
-      <c r="J22" s="53">
-        <v>3916.1</v>
-      </c>
-      <c r="K22" s="53">
-        <v>1494.5</v>
-      </c>
-      <c r="L22" s="53">
-        <v>2420.4</v>
-      </c>
-      <c r="M22" s="53">
-        <v>5188</v>
-      </c>
-      <c r="N22" s="53">
-        <v>1909</v>
-      </c>
-      <c r="O22" s="53">
-        <v>3279</v>
-      </c>
-      <c r="P22" s="54">
-        <v>325.18900000000002</v>
-      </c>
-      <c r="Q22" s="54">
-        <v>4.3440000000000003</v>
+      <c r="B22" s="66">
+        <v>30717.599999999999</v>
+      </c>
+      <c r="C22" s="66">
+        <v>23702.799999999999</v>
+      </c>
+      <c r="D22" s="66">
+        <v>23538</v>
+      </c>
+      <c r="E22" s="66">
+        <v>30504</v>
+      </c>
+      <c r="F22" s="68">
+        <v>127.893</v>
+      </c>
+      <c r="G22" s="68">
+        <v>129.59399999999999</v>
+      </c>
+      <c r="H22" s="66">
+        <v>20786.400000000001</v>
+      </c>
+      <c r="I22" s="66">
+        <v>16253</v>
+      </c>
+      <c r="J22" s="66">
+        <v>3948.2</v>
+      </c>
+      <c r="K22" s="66">
+        <v>1505</v>
+      </c>
+      <c r="L22" s="66">
+        <v>2442</v>
+      </c>
+      <c r="M22" s="66">
+        <v>5259</v>
+      </c>
+      <c r="N22" s="66">
+        <v>1936.1</v>
+      </c>
+      <c r="O22" s="66">
+        <v>3323</v>
+      </c>
+      <c r="P22" s="68">
+        <v>326.61900000000003</v>
+      </c>
+      <c r="Q22" s="68">
+        <v>4.0780000000000003</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>46203</v>
       </c>
-      <c r="B23" s="53">
-        <v>30656.799999999999</v>
-      </c>
-      <c r="C23" s="53">
-        <v>23656.9</v>
-      </c>
-      <c r="D23" s="53">
-        <v>23768.400000000001</v>
-      </c>
-      <c r="E23" s="53">
-        <v>30801.200000000001</v>
-      </c>
-      <c r="F23" s="54">
-        <v>128.15299999999999</v>
-      </c>
-      <c r="G23" s="54">
-        <v>129.589</v>
-      </c>
-      <c r="H23" s="53">
-        <v>20726.599999999999</v>
-      </c>
-      <c r="I23" s="53">
-        <v>16173.3</v>
-      </c>
-      <c r="J23" s="53">
-        <v>3925.3</v>
-      </c>
-      <c r="K23" s="53">
-        <v>1497</v>
-      </c>
-      <c r="L23" s="53">
-        <v>2427.1</v>
-      </c>
-      <c r="M23" s="53">
-        <v>5233.6000000000004</v>
-      </c>
-      <c r="N23" s="53">
-        <v>1923.3</v>
-      </c>
-      <c r="O23" s="53">
-        <v>3310.2</v>
-      </c>
-      <c r="P23" s="54">
-        <v>327.00400000000002</v>
-      </c>
-      <c r="Q23" s="54">
-        <v>4.343</v>
+      <c r="B23" s="66">
+        <v>30987.599999999999</v>
+      </c>
+      <c r="C23" s="66">
+        <v>23803</v>
+      </c>
+      <c r="D23" s="66">
+        <v>23662.9</v>
+      </c>
+      <c r="E23" s="66">
+        <v>30805.200000000001</v>
+      </c>
+      <c r="F23" s="68">
+        <v>128.512</v>
+      </c>
+      <c r="G23" s="68">
+        <v>130.18299999999999</v>
+      </c>
+      <c r="H23" s="66">
+        <v>20949.8</v>
+      </c>
+      <c r="I23" s="66">
+        <v>16301.8</v>
+      </c>
+      <c r="J23" s="66">
+        <v>3957.4</v>
+      </c>
+      <c r="K23" s="66">
+        <v>1509.3</v>
+      </c>
+      <c r="L23" s="66">
+        <v>2447.1</v>
+      </c>
+      <c r="M23" s="66">
+        <v>5301.3</v>
+      </c>
+      <c r="N23" s="66">
+        <v>1950.7</v>
+      </c>
+      <c r="O23" s="66">
+        <v>3350.6</v>
+      </c>
+      <c r="P23" s="68">
+        <v>328.39</v>
+      </c>
+      <c r="Q23" s="68">
+        <v>4.1369999999999996</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>46295</v>
       </c>
-      <c r="B24" s="53">
-        <v>30967.1</v>
-      </c>
-      <c r="C24" s="53">
-        <v>23783.200000000001</v>
-      </c>
-      <c r="D24" s="53">
-        <v>23898.7</v>
-      </c>
-      <c r="E24" s="53">
-        <v>31117.5</v>
-      </c>
-      <c r="F24" s="54">
-        <v>128.803</v>
-      </c>
-      <c r="G24" s="54">
-        <v>130.20500000000001</v>
-      </c>
-      <c r="H24" s="53">
-        <v>20916</v>
-      </c>
-      <c r="I24" s="53">
-        <v>16238.7</v>
-      </c>
-      <c r="J24" s="53">
-        <v>3934.4</v>
-      </c>
-      <c r="K24" s="53">
-        <v>1499.4</v>
-      </c>
-      <c r="L24" s="53">
-        <v>2433.6999999999998</v>
-      </c>
-      <c r="M24" s="53">
-        <v>5280</v>
-      </c>
-      <c r="N24" s="53">
-        <v>1937.9</v>
-      </c>
-      <c r="O24" s="53">
-        <v>3342.1</v>
-      </c>
-      <c r="P24" s="54">
-        <v>328.80099999999999</v>
-      </c>
-      <c r="Q24" s="54">
-        <v>4.3490000000000002</v>
+      <c r="B24" s="66">
+        <v>31268.7</v>
+      </c>
+      <c r="C24" s="66">
+        <v>23910.5</v>
+      </c>
+      <c r="D24" s="66">
+        <v>23787.7</v>
+      </c>
+      <c r="E24" s="66">
+        <v>31108.1</v>
+      </c>
+      <c r="F24" s="68">
+        <v>129.12700000000001</v>
+      </c>
+      <c r="G24" s="68">
+        <v>130.773</v>
+      </c>
+      <c r="H24" s="66">
+        <v>21122.799999999999</v>
+      </c>
+      <c r="I24" s="66">
+        <v>16358</v>
+      </c>
+      <c r="J24" s="66">
+        <v>3965.4</v>
+      </c>
+      <c r="K24" s="66">
+        <v>1512.2</v>
+      </c>
+      <c r="L24" s="66">
+        <v>2452.1</v>
+      </c>
+      <c r="M24" s="66">
+        <v>5342.7</v>
+      </c>
+      <c r="N24" s="66">
+        <v>1964.1</v>
+      </c>
+      <c r="O24" s="66">
+        <v>3378.6</v>
+      </c>
+      <c r="P24" s="68">
+        <v>330.149</v>
+      </c>
+      <c r="Q24" s="68">
+        <v>4.1870000000000003</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>46387</v>
       </c>
-      <c r="B25" s="53">
-        <v>31278.7</v>
-      </c>
-      <c r="C25" s="53">
-        <v>23909.1</v>
-      </c>
-      <c r="D25" s="53">
-        <v>24028.6</v>
-      </c>
-      <c r="E25" s="53">
-        <v>31435</v>
-      </c>
-      <c r="F25" s="54">
-        <v>129.44999999999999</v>
-      </c>
-      <c r="G25" s="54">
-        <v>130.82300000000001</v>
-      </c>
-      <c r="H25" s="53">
-        <v>21112.5</v>
-      </c>
-      <c r="I25" s="53">
-        <v>16309.3</v>
-      </c>
-      <c r="J25" s="53">
-        <v>3943</v>
-      </c>
-      <c r="K25" s="53">
-        <v>1501.6</v>
-      </c>
-      <c r="L25" s="53">
-        <v>2440</v>
-      </c>
-      <c r="M25" s="53">
-        <v>5326.3</v>
-      </c>
-      <c r="N25" s="53">
-        <v>1952.4</v>
-      </c>
-      <c r="O25" s="53">
-        <v>3373.9</v>
-      </c>
-      <c r="P25" s="54">
-        <v>330.59100000000001</v>
-      </c>
-      <c r="Q25" s="54">
-        <v>4.3570000000000002</v>
+      <c r="B25" s="66">
+        <v>31552.799999999999</v>
+      </c>
+      <c r="C25" s="66">
+        <v>24019</v>
+      </c>
+      <c r="D25" s="66">
+        <v>23912.2</v>
+      </c>
+      <c r="E25" s="66">
+        <v>31412.6</v>
+      </c>
+      <c r="F25" s="68">
+        <v>129.74</v>
+      </c>
+      <c r="G25" s="68">
+        <v>131.36600000000001</v>
+      </c>
+      <c r="H25" s="66">
+        <v>21304.1</v>
+      </c>
+      <c r="I25" s="66">
+        <v>16420.5</v>
+      </c>
+      <c r="J25" s="66">
+        <v>3973.5</v>
+      </c>
+      <c r="K25" s="66">
+        <v>1515.8</v>
+      </c>
+      <c r="L25" s="66">
+        <v>2456.6999999999998</v>
+      </c>
+      <c r="M25" s="66">
+        <v>5384.9</v>
+      </c>
+      <c r="N25" s="66">
+        <v>1978.7</v>
+      </c>
+      <c r="O25" s="66">
+        <v>3406.2</v>
+      </c>
+      <c r="P25" s="68">
+        <v>331.90800000000002</v>
+      </c>
+      <c r="Q25" s="68">
+        <v>4.2279999999999998</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>46477</v>
       </c>
-      <c r="B26" s="53">
-        <v>31596.400000000001</v>
-      </c>
-      <c r="C26" s="53">
-        <v>24038.6</v>
-      </c>
-      <c r="D26" s="53">
-        <v>24159.4</v>
-      </c>
-      <c r="E26" s="53">
-        <v>31755.1</v>
-      </c>
-      <c r="F26" s="54">
-        <v>130.095</v>
-      </c>
-      <c r="G26" s="54">
-        <v>131.44</v>
-      </c>
-      <c r="H26" s="53">
-        <v>21320.6</v>
-      </c>
-      <c r="I26" s="53">
-        <v>16388.400000000001</v>
-      </c>
-      <c r="J26" s="53">
-        <v>3950.2</v>
-      </c>
-      <c r="K26" s="53">
-        <v>1503.3</v>
-      </c>
-      <c r="L26" s="53">
-        <v>2445.5</v>
-      </c>
-      <c r="M26" s="53">
-        <v>5370.8</v>
-      </c>
-      <c r="N26" s="53">
-        <v>1965.7</v>
-      </c>
-      <c r="O26" s="53">
-        <v>3405.1</v>
-      </c>
-      <c r="P26" s="54">
-        <v>332.37700000000001</v>
-      </c>
-      <c r="Q26" s="54">
-        <v>4.3659999999999997</v>
+      <c r="B26" s="66">
+        <v>31832.799999999999</v>
+      </c>
+      <c r="C26" s="66">
+        <v>24123</v>
+      </c>
+      <c r="D26" s="66">
+        <v>24037.1</v>
+      </c>
+      <c r="E26" s="66">
+        <v>31719.5</v>
+      </c>
+      <c r="F26" s="68">
+        <v>130.35499999999999</v>
+      </c>
+      <c r="G26" s="68">
+        <v>131.96</v>
+      </c>
+      <c r="H26" s="66">
+        <v>21479.7</v>
+      </c>
+      <c r="I26" s="66">
+        <v>16477.900000000001</v>
+      </c>
+      <c r="J26" s="66">
+        <v>3980.7</v>
+      </c>
+      <c r="K26" s="66">
+        <v>1519.3</v>
+      </c>
+      <c r="L26" s="66">
+        <v>2460.3000000000002</v>
+      </c>
+      <c r="M26" s="66">
+        <v>5426.2</v>
+      </c>
+      <c r="N26" s="66">
+        <v>1993.5</v>
+      </c>
+      <c r="O26" s="66">
+        <v>3432.7</v>
+      </c>
+      <c r="P26" s="68">
+        <v>333.678</v>
+      </c>
+      <c r="Q26" s="68">
+        <v>4.2699999999999996</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>46568</v>
       </c>
-      <c r="B27" s="53">
-        <v>31914.1</v>
-      </c>
-      <c r="C27" s="53">
-        <v>24166.7</v>
-      </c>
-      <c r="D27" s="53">
-        <v>24288.1</v>
-      </c>
-      <c r="E27" s="53">
-        <v>32074.400000000001</v>
-      </c>
-      <c r="F27" s="54">
-        <v>130.739</v>
-      </c>
-      <c r="G27" s="54">
-        <v>132.05799999999999</v>
-      </c>
-      <c r="H27" s="53">
-        <v>21527.3</v>
-      </c>
-      <c r="I27" s="53">
-        <v>16465.8</v>
-      </c>
-      <c r="J27" s="53">
-        <v>3958.7</v>
-      </c>
-      <c r="K27" s="53">
-        <v>1505.1</v>
-      </c>
-      <c r="L27" s="53">
-        <v>2452.1</v>
-      </c>
-      <c r="M27" s="53">
-        <v>5417.5</v>
-      </c>
-      <c r="N27" s="53">
-        <v>1979.2</v>
-      </c>
-      <c r="O27" s="53">
-        <v>3438.3</v>
-      </c>
-      <c r="P27" s="54">
-        <v>334.16500000000002</v>
-      </c>
-      <c r="Q27" s="54">
-        <v>4.3739999999999997</v>
+      <c r="B27" s="66">
+        <v>32110.2</v>
+      </c>
+      <c r="C27" s="66">
+        <v>24223.8</v>
+      </c>
+      <c r="D27" s="66">
+        <v>24160.9</v>
+      </c>
+      <c r="E27" s="66">
+        <v>32026.799999999999</v>
+      </c>
+      <c r="F27" s="68">
+        <v>130.971</v>
+      </c>
+      <c r="G27" s="68">
+        <v>132.55600000000001</v>
+      </c>
+      <c r="H27" s="66">
+        <v>21659.5</v>
+      </c>
+      <c r="I27" s="66">
+        <v>16537.599999999999</v>
+      </c>
+      <c r="J27" s="66">
+        <v>3986.9</v>
+      </c>
+      <c r="K27" s="66">
+        <v>1521.8</v>
+      </c>
+      <c r="L27" s="66">
+        <v>2464.1</v>
+      </c>
+      <c r="M27" s="66">
+        <v>5466.9</v>
+      </c>
+      <c r="N27" s="66">
+        <v>2007</v>
+      </c>
+      <c r="O27" s="66">
+        <v>3459.9</v>
+      </c>
+      <c r="P27" s="68">
+        <v>335.46100000000001</v>
+      </c>
+      <c r="Q27" s="68">
+        <v>4.3049999999999997</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>46660</v>
       </c>
-      <c r="B28" s="53">
-        <v>32233.7</v>
-      </c>
-      <c r="C28" s="53">
-        <v>24294.3</v>
-      </c>
-      <c r="D28" s="53">
-        <v>24416.400000000001</v>
-      </c>
-      <c r="E28" s="53">
-        <v>32395.7</v>
-      </c>
-      <c r="F28" s="54">
-        <v>131.38300000000001</v>
-      </c>
-      <c r="G28" s="54">
-        <v>132.68</v>
-      </c>
-      <c r="H28" s="53">
-        <v>21743.599999999999</v>
-      </c>
-      <c r="I28" s="53">
-        <v>16549.8</v>
-      </c>
-      <c r="J28" s="53">
-        <v>3966.9</v>
-      </c>
-      <c r="K28" s="53">
-        <v>1506.9</v>
-      </c>
-      <c r="L28" s="53">
-        <v>2458.4</v>
-      </c>
-      <c r="M28" s="53">
-        <v>5464</v>
-      </c>
-      <c r="N28" s="53">
-        <v>1992.8</v>
-      </c>
-      <c r="O28" s="53">
-        <v>3471.3</v>
-      </c>
-      <c r="P28" s="54">
-        <v>335.96600000000001</v>
-      </c>
-      <c r="Q28" s="54">
-        <v>4.3810000000000002</v>
+      <c r="B28" s="66">
+        <v>32390.9</v>
+      </c>
+      <c r="C28" s="66">
+        <v>24325.7</v>
+      </c>
+      <c r="D28" s="66">
+        <v>24284.2</v>
+      </c>
+      <c r="E28" s="66">
+        <v>32335.7</v>
+      </c>
+      <c r="F28" s="68">
+        <v>131.59</v>
+      </c>
+      <c r="G28" s="68">
+        <v>133.155</v>
+      </c>
+      <c r="H28" s="66">
+        <v>21842.799999999999</v>
+      </c>
+      <c r="I28" s="66">
+        <v>16599.099999999999</v>
+      </c>
+      <c r="J28" s="66">
+        <v>3991.9</v>
+      </c>
+      <c r="K28" s="66">
+        <v>1523.6</v>
+      </c>
+      <c r="L28" s="66">
+        <v>2467.3000000000002</v>
+      </c>
+      <c r="M28" s="66">
+        <v>5506.4</v>
+      </c>
+      <c r="N28" s="66">
+        <v>2019.8</v>
+      </c>
+      <c r="O28" s="66">
+        <v>3486.6</v>
+      </c>
+      <c r="P28" s="68">
+        <v>337.25599999999997</v>
+      </c>
+      <c r="Q28" s="68">
+        <v>4.34</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>46752</v>
       </c>
-      <c r="B29" s="53">
-        <v>32555.3</v>
-      </c>
-      <c r="C29" s="53">
-        <v>24421.200000000001</v>
-      </c>
-      <c r="D29" s="53">
-        <v>24543.9</v>
-      </c>
-      <c r="E29" s="53">
-        <v>32718.9</v>
-      </c>
-      <c r="F29" s="54">
-        <v>132.02799999999999</v>
-      </c>
-      <c r="G29" s="54">
-        <v>133.30699999999999</v>
-      </c>
-      <c r="H29" s="53">
-        <v>21964.3</v>
-      </c>
-      <c r="I29" s="53">
-        <v>16636.099999999999</v>
-      </c>
-      <c r="J29" s="53">
-        <v>3974.7</v>
-      </c>
-      <c r="K29" s="53">
-        <v>1508.7</v>
-      </c>
-      <c r="L29" s="53">
-        <v>2464.3000000000002</v>
-      </c>
-      <c r="M29" s="53">
-        <v>5511</v>
-      </c>
-      <c r="N29" s="53">
-        <v>2007</v>
-      </c>
-      <c r="O29" s="53">
-        <v>3503.9</v>
-      </c>
-      <c r="P29" s="54">
-        <v>337.78399999999999</v>
-      </c>
-      <c r="Q29" s="54">
-        <v>4.3879999999999999</v>
+      <c r="B29" s="66">
+        <v>32675.3</v>
+      </c>
+      <c r="C29" s="66">
+        <v>24428.7</v>
+      </c>
+      <c r="D29" s="66">
+        <v>24407.200000000001</v>
+      </c>
+      <c r="E29" s="66">
+        <v>32646.5</v>
+      </c>
+      <c r="F29" s="68">
+        <v>132.21299999999999</v>
+      </c>
+      <c r="G29" s="68">
+        <v>133.75700000000001</v>
+      </c>
+      <c r="H29" s="66">
+        <v>22030.5</v>
+      </c>
+      <c r="I29" s="66">
+        <v>16662.8</v>
+      </c>
+      <c r="J29" s="66">
+        <v>3995.8</v>
+      </c>
+      <c r="K29" s="66">
+        <v>1524.3</v>
+      </c>
+      <c r="L29" s="66">
+        <v>2470.4</v>
+      </c>
+      <c r="M29" s="66">
+        <v>5545.3</v>
+      </c>
+      <c r="N29" s="66">
+        <v>2031.9</v>
+      </c>
+      <c r="O29" s="66">
+        <v>3513.5</v>
+      </c>
+      <c r="P29" s="68">
+        <v>339.065</v>
+      </c>
+      <c r="Q29" s="68">
+        <v>4.3719999999999999</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>46843</v>
       </c>
-      <c r="B30" s="53">
-        <v>32877.599999999999</v>
-      </c>
-      <c r="C30" s="53">
-        <v>24547.1</v>
-      </c>
-      <c r="D30" s="53">
-        <v>24670.400000000001</v>
-      </c>
-      <c r="E30" s="53">
-        <v>33042.9</v>
-      </c>
-      <c r="F30" s="54">
-        <v>132.673</v>
-      </c>
-      <c r="G30" s="54">
-        <v>133.93700000000001</v>
-      </c>
-      <c r="H30" s="53">
-        <v>22187.1</v>
-      </c>
-      <c r="I30" s="53">
-        <v>16723.099999999999</v>
-      </c>
-      <c r="J30" s="53">
-        <v>3982</v>
-      </c>
-      <c r="K30" s="53">
-        <v>1510.4</v>
-      </c>
-      <c r="L30" s="53">
-        <v>2469.9</v>
-      </c>
-      <c r="M30" s="53">
-        <v>5557.2</v>
-      </c>
-      <c r="N30" s="53">
-        <v>2020.8</v>
-      </c>
-      <c r="O30" s="53">
-        <v>3536.5</v>
-      </c>
-      <c r="P30" s="54">
-        <v>339.625</v>
-      </c>
-      <c r="Q30" s="54">
-        <v>4.3959999999999999</v>
+      <c r="B30" s="66">
+        <v>32964</v>
+      </c>
+      <c r="C30" s="66">
+        <v>24532.6</v>
+      </c>
+      <c r="D30" s="66">
+        <v>24529.5</v>
+      </c>
+      <c r="E30" s="66">
+        <v>32959.800000000003</v>
+      </c>
+      <c r="F30" s="68">
+        <v>132.84299999999999</v>
+      </c>
+      <c r="G30" s="68">
+        <v>134.36799999999999</v>
+      </c>
+      <c r="H30" s="66">
+        <v>22229.7</v>
+      </c>
+      <c r="I30" s="66">
+        <v>16733.8</v>
+      </c>
+      <c r="J30" s="66">
+        <v>3999.1</v>
+      </c>
+      <c r="K30" s="66">
+        <v>1524.7</v>
+      </c>
+      <c r="L30" s="66">
+        <v>2473.3000000000002</v>
+      </c>
+      <c r="M30" s="66">
+        <v>5584</v>
+      </c>
+      <c r="N30" s="66">
+        <v>2043.4</v>
+      </c>
+      <c r="O30" s="66">
+        <v>3540.6</v>
+      </c>
+      <c r="P30" s="68">
+        <v>340.88799999999998</v>
+      </c>
+      <c r="Q30" s="68">
+        <v>4.399</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>46934</v>
       </c>
-      <c r="B31" s="53">
-        <v>33204.699999999997</v>
-      </c>
-      <c r="C31" s="53">
-        <v>24674.6</v>
-      </c>
-      <c r="D31" s="53">
-        <v>24798.6</v>
-      </c>
-      <c r="E31" s="53">
-        <v>33371.599999999999</v>
-      </c>
-      <c r="F31" s="54">
-        <v>133.31899999999999</v>
-      </c>
-      <c r="G31" s="54">
-        <v>134.57</v>
-      </c>
-      <c r="H31" s="53">
-        <v>22420.5</v>
-      </c>
-      <c r="I31" s="53">
-        <v>16817.099999999999</v>
-      </c>
-      <c r="J31" s="53">
-        <v>3988.5</v>
-      </c>
-      <c r="K31" s="53">
-        <v>1512</v>
-      </c>
-      <c r="L31" s="53">
-        <v>2474.6999999999998</v>
-      </c>
-      <c r="M31" s="53">
-        <v>5602.8</v>
-      </c>
-      <c r="N31" s="53">
-        <v>2034.6</v>
-      </c>
-      <c r="O31" s="53">
-        <v>3568.2</v>
-      </c>
-      <c r="P31" s="54">
-        <v>341.47800000000001</v>
-      </c>
-      <c r="Q31" s="54">
-        <v>4.4039999999999999</v>
+      <c r="B31" s="66">
+        <v>33259.599999999999</v>
+      </c>
+      <c r="C31" s="66">
+        <v>24639.1</v>
+      </c>
+      <c r="D31" s="66">
+        <v>24652.799999999999</v>
+      </c>
+      <c r="E31" s="66">
+        <v>33278</v>
+      </c>
+      <c r="F31" s="68">
+        <v>133.47900000000001</v>
+      </c>
+      <c r="G31" s="68">
+        <v>134.98599999999999</v>
+      </c>
+      <c r="H31" s="66">
+        <v>22441.1</v>
+      </c>
+      <c r="I31" s="66">
+        <v>16812.400000000001</v>
+      </c>
+      <c r="J31" s="66">
+        <v>4001.4</v>
+      </c>
+      <c r="K31" s="66">
+        <v>1524.6</v>
+      </c>
+      <c r="L31" s="66">
+        <v>2475.6</v>
+      </c>
+      <c r="M31" s="66">
+        <v>5622.1</v>
+      </c>
+      <c r="N31" s="66">
+        <v>2054.6</v>
+      </c>
+      <c r="O31" s="66">
+        <v>3567.5</v>
+      </c>
+      <c r="P31" s="68">
+        <v>342.72699999999998</v>
+      </c>
+      <c r="Q31" s="68">
+        <v>4.4189999999999996</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>47026</v>
       </c>
-      <c r="B32" s="53">
-        <v>33534.699999999997</v>
-      </c>
-      <c r="C32" s="53">
-        <v>24802.2</v>
-      </c>
-      <c r="D32" s="53">
-        <v>24926.799999999999</v>
-      </c>
-      <c r="E32" s="53">
-        <v>33703.300000000003</v>
-      </c>
-      <c r="F32" s="54">
-        <v>133.96700000000001</v>
-      </c>
-      <c r="G32" s="54">
-        <v>135.209</v>
-      </c>
-      <c r="H32" s="53">
-        <v>22657.1</v>
-      </c>
-      <c r="I32" s="53">
-        <v>16912.5</v>
-      </c>
-      <c r="J32" s="53">
-        <v>3994.7</v>
-      </c>
-      <c r="K32" s="53">
-        <v>1513.6</v>
-      </c>
-      <c r="L32" s="53">
-        <v>2479.1999999999998</v>
-      </c>
-      <c r="M32" s="53">
-        <v>5648.5</v>
-      </c>
-      <c r="N32" s="53">
-        <v>2048.6</v>
-      </c>
-      <c r="O32" s="53">
-        <v>3599.9</v>
-      </c>
-      <c r="P32" s="54">
-        <v>343.346</v>
-      </c>
-      <c r="Q32" s="54">
-        <v>4.415</v>
+      <c r="B32" s="66">
+        <v>33561.599999999999</v>
+      </c>
+      <c r="C32" s="66">
+        <v>24747.7</v>
+      </c>
+      <c r="D32" s="66">
+        <v>24776.400000000001</v>
+      </c>
+      <c r="E32" s="66">
+        <v>33600.5</v>
+      </c>
+      <c r="F32" s="68">
+        <v>134.12</v>
+      </c>
+      <c r="G32" s="68">
+        <v>135.61500000000001</v>
+      </c>
+      <c r="H32" s="66">
+        <v>22659.200000000001</v>
+      </c>
+      <c r="I32" s="66">
+        <v>16894.599999999999</v>
+      </c>
+      <c r="J32" s="66">
+        <v>4003.6</v>
+      </c>
+      <c r="K32" s="66">
+        <v>1524.6</v>
+      </c>
+      <c r="L32" s="66">
+        <v>2477.6999999999998</v>
+      </c>
+      <c r="M32" s="66">
+        <v>5660.6</v>
+      </c>
+      <c r="N32" s="66">
+        <v>2065.9</v>
+      </c>
+      <c r="O32" s="66">
+        <v>3594.6</v>
+      </c>
+      <c r="P32" s="68">
+        <v>344.584</v>
+      </c>
+      <c r="Q32" s="68">
+        <v>4.4359999999999999</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>47118</v>
       </c>
-      <c r="B33" s="53">
-        <v>33868.400000000001</v>
-      </c>
-      <c r="C33" s="53">
-        <v>24930.3</v>
-      </c>
-      <c r="D33" s="53">
-        <v>25055.5</v>
-      </c>
-      <c r="E33" s="53">
-        <v>34038.6</v>
-      </c>
-      <c r="F33" s="54">
-        <v>134.61699999999999</v>
-      </c>
-      <c r="G33" s="54">
-        <v>135.852</v>
-      </c>
-      <c r="H33" s="53">
-        <v>22897.8</v>
-      </c>
-      <c r="I33" s="53">
-        <v>17009.599999999999</v>
-      </c>
-      <c r="J33" s="53">
-        <v>4000.8</v>
-      </c>
-      <c r="K33" s="53">
-        <v>1515.5</v>
-      </c>
-      <c r="L33" s="53">
-        <v>2483.4</v>
-      </c>
-      <c r="M33" s="53">
-        <v>5694.6</v>
-      </c>
-      <c r="N33" s="53">
-        <v>2062.9</v>
-      </c>
-      <c r="O33" s="53">
-        <v>3631.6</v>
-      </c>
-      <c r="P33" s="54">
-        <v>345.23200000000003</v>
-      </c>
-      <c r="Q33" s="54">
-        <v>4.4290000000000003</v>
+      <c r="B33" s="66">
+        <v>33869.9</v>
+      </c>
+      <c r="C33" s="66">
+        <v>24858.400000000001</v>
+      </c>
+      <c r="D33" s="66">
+        <v>24900.3</v>
+      </c>
+      <c r="E33" s="66">
+        <v>33926.9</v>
+      </c>
+      <c r="F33" s="68">
+        <v>134.767</v>
+      </c>
+      <c r="G33" s="68">
+        <v>136.251</v>
+      </c>
+      <c r="H33" s="66">
+        <v>22881.599999999999</v>
+      </c>
+      <c r="I33" s="66">
+        <v>16978.599999999999</v>
+      </c>
+      <c r="J33" s="66">
+        <v>4005.6</v>
+      </c>
+      <c r="K33" s="66">
+        <v>1524.6</v>
+      </c>
+      <c r="L33" s="66">
+        <v>2479.6999999999998</v>
+      </c>
+      <c r="M33" s="66">
+        <v>5699.4</v>
+      </c>
+      <c r="N33" s="66">
+        <v>2077.3000000000002</v>
+      </c>
+      <c r="O33" s="66">
+        <v>3622.1</v>
+      </c>
+      <c r="P33" s="68">
+        <v>346.46</v>
+      </c>
+      <c r="Q33" s="68">
+        <v>4.4489999999999998</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>47208</v>
       </c>
-      <c r="B34" s="53">
-        <v>34204.1</v>
-      </c>
-      <c r="C34" s="53">
-        <v>25058</v>
-      </c>
-      <c r="D34" s="53">
-        <v>25183.9</v>
-      </c>
-      <c r="E34" s="53">
-        <v>34376</v>
-      </c>
-      <c r="F34" s="54">
-        <v>135.268</v>
-      </c>
-      <c r="G34" s="54">
-        <v>136.499</v>
-      </c>
-      <c r="H34" s="53">
-        <v>23139.8</v>
-      </c>
-      <c r="I34" s="53">
-        <v>17106.5</v>
-      </c>
-      <c r="J34" s="53">
-        <v>4006.6</v>
-      </c>
-      <c r="K34" s="53">
-        <v>1517.3</v>
-      </c>
-      <c r="L34" s="53">
-        <v>2487.4</v>
-      </c>
-      <c r="M34" s="53">
-        <v>5740.1</v>
-      </c>
-      <c r="N34" s="53">
-        <v>2076.9</v>
-      </c>
-      <c r="O34" s="53">
-        <v>3663.2</v>
-      </c>
-      <c r="P34" s="54">
-        <v>347.13299999999998</v>
-      </c>
-      <c r="Q34" s="54">
-        <v>4.444</v>
+      <c r="B34" s="66">
+        <v>34183.599999999999</v>
+      </c>
+      <c r="C34" s="66">
+        <v>24970.9</v>
+      </c>
+      <c r="D34" s="66">
+        <v>25024.2</v>
+      </c>
+      <c r="E34" s="66">
+        <v>34256.699999999997</v>
+      </c>
+      <c r="F34" s="68">
+        <v>135.41900000000001</v>
+      </c>
+      <c r="G34" s="68">
+        <v>136.893</v>
+      </c>
+      <c r="H34" s="66">
+        <v>23107.1</v>
+      </c>
+      <c r="I34" s="66">
+        <v>17063.400000000001</v>
+      </c>
+      <c r="J34" s="66">
+        <v>4008.2</v>
+      </c>
+      <c r="K34" s="66">
+        <v>1525.5</v>
+      </c>
+      <c r="L34" s="66">
+        <v>2481.3000000000002</v>
+      </c>
+      <c r="M34" s="66">
+        <v>5739.2</v>
+      </c>
+      <c r="N34" s="66">
+        <v>2089.9</v>
+      </c>
+      <c r="O34" s="66">
+        <v>3649.4</v>
+      </c>
+      <c r="P34" s="68">
+        <v>348.35399999999998</v>
+      </c>
+      <c r="Q34" s="68">
+        <v>4.4630000000000001</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>47299</v>
       </c>
-      <c r="B35" s="53">
-        <v>34542.9</v>
-      </c>
-      <c r="C35" s="53">
-        <v>25186.2</v>
-      </c>
-      <c r="D35" s="53">
-        <v>25312.799999999999</v>
-      </c>
-      <c r="E35" s="53">
-        <v>34716.5</v>
-      </c>
-      <c r="F35" s="54">
-        <v>135.92099999999999</v>
-      </c>
-      <c r="G35" s="54">
-        <v>137.15</v>
-      </c>
-      <c r="H35" s="53">
-        <v>23383.7</v>
-      </c>
-      <c r="I35" s="53">
-        <v>17203.8</v>
-      </c>
-      <c r="J35" s="53">
-        <v>4012.7</v>
-      </c>
-      <c r="K35" s="53">
-        <v>1519.1</v>
-      </c>
-      <c r="L35" s="53">
-        <v>2491.6999999999998</v>
-      </c>
-      <c r="M35" s="53">
-        <v>5786.4</v>
-      </c>
-      <c r="N35" s="53">
-        <v>2091</v>
-      </c>
-      <c r="O35" s="53">
-        <v>3695.4</v>
-      </c>
-      <c r="P35" s="54">
-        <v>349.04500000000002</v>
-      </c>
-      <c r="Q35" s="54">
-        <v>4.4589999999999996</v>
+      <c r="B35" s="66">
+        <v>34502.800000000003</v>
+      </c>
+      <c r="C35" s="66">
+        <v>25085.1</v>
+      </c>
+      <c r="D35" s="66">
+        <v>25148.5</v>
+      </c>
+      <c r="E35" s="66">
+        <v>34590.1</v>
+      </c>
+      <c r="F35" s="68">
+        <v>136.07400000000001</v>
+      </c>
+      <c r="G35" s="68">
+        <v>137.54300000000001</v>
+      </c>
+      <c r="H35" s="66">
+        <v>23342.5</v>
+      </c>
+      <c r="I35" s="66">
+        <v>17154.2</v>
+      </c>
+      <c r="J35" s="66">
+        <v>4010.8</v>
+      </c>
+      <c r="K35" s="66">
+        <v>1526.2</v>
+      </c>
+      <c r="L35" s="66">
+        <v>2483.3000000000002</v>
+      </c>
+      <c r="M35" s="66">
+        <v>5779.5</v>
+      </c>
+      <c r="N35" s="66">
+        <v>2102</v>
+      </c>
+      <c r="O35" s="66">
+        <v>3677.5</v>
+      </c>
+      <c r="P35" s="68">
+        <v>350.26400000000001</v>
+      </c>
+      <c r="Q35" s="68">
+        <v>4.4710000000000001</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>47391</v>
       </c>
-      <c r="B36" s="53">
-        <v>34883.5</v>
-      </c>
-      <c r="C36" s="53">
-        <v>25314.1</v>
-      </c>
-      <c r="D36" s="53">
-        <v>25441.3</v>
-      </c>
-      <c r="E36" s="53">
-        <v>35058.800000000003</v>
-      </c>
-      <c r="F36" s="54">
-        <v>136.57300000000001</v>
-      </c>
-      <c r="G36" s="54">
-        <v>137.803</v>
-      </c>
-      <c r="H36" s="53">
-        <v>23634.2</v>
-      </c>
-      <c r="I36" s="53">
-        <v>17305.2</v>
-      </c>
-      <c r="J36" s="53">
-        <v>4018.2</v>
-      </c>
-      <c r="K36" s="53">
-        <v>1521</v>
-      </c>
-      <c r="L36" s="53">
-        <v>2495.3000000000002</v>
-      </c>
-      <c r="M36" s="53">
-        <v>5832.2</v>
-      </c>
-      <c r="N36" s="53">
-        <v>2105.1999999999998</v>
-      </c>
-      <c r="O36" s="53">
-        <v>3727</v>
-      </c>
-      <c r="P36" s="54">
-        <v>350.96699999999998</v>
-      </c>
-      <c r="Q36" s="54">
-        <v>4.4729999999999999</v>
+      <c r="B36" s="66">
+        <v>34826.699999999997</v>
+      </c>
+      <c r="C36" s="66">
+        <v>25200.3</v>
+      </c>
+      <c r="D36" s="66">
+        <v>25272.400000000001</v>
+      </c>
+      <c r="E36" s="66">
+        <v>34926.400000000001</v>
+      </c>
+      <c r="F36" s="68">
+        <v>136.733</v>
+      </c>
+      <c r="G36" s="68">
+        <v>138.19900000000001</v>
+      </c>
+      <c r="H36" s="66">
+        <v>23580.400000000001</v>
+      </c>
+      <c r="I36" s="66">
+        <v>17245.5</v>
+      </c>
+      <c r="J36" s="66">
+        <v>4013</v>
+      </c>
+      <c r="K36" s="66">
+        <v>1526.9</v>
+      </c>
+      <c r="L36" s="66">
+        <v>2484.8000000000002</v>
+      </c>
+      <c r="M36" s="66">
+        <v>5819.6</v>
+      </c>
+      <c r="N36" s="66">
+        <v>2114.3000000000002</v>
+      </c>
+      <c r="O36" s="66">
+        <v>3705.3</v>
+      </c>
+      <c r="P36" s="68">
+        <v>352.19</v>
+      </c>
+      <c r="Q36" s="68">
+        <v>4.476</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>47483</v>
       </c>
-      <c r="B37" s="53">
-        <v>35226.199999999997</v>
-      </c>
-      <c r="C37" s="53">
-        <v>25441.4</v>
-      </c>
-      <c r="D37" s="53">
-        <v>25569.200000000001</v>
-      </c>
-      <c r="E37" s="53">
-        <v>35403.199999999997</v>
-      </c>
-      <c r="F37" s="54">
-        <v>137.227</v>
-      </c>
-      <c r="G37" s="54">
-        <v>138.46</v>
-      </c>
-      <c r="H37" s="53">
-        <v>23883.9</v>
-      </c>
-      <c r="I37" s="53">
-        <v>17404.599999999999</v>
-      </c>
-      <c r="J37" s="53">
-        <v>4023.6</v>
-      </c>
-      <c r="K37" s="53">
-        <v>1522.9</v>
-      </c>
-      <c r="L37" s="53">
-        <v>2498.8000000000002</v>
-      </c>
-      <c r="M37" s="53">
-        <v>5878.2</v>
-      </c>
-      <c r="N37" s="53">
-        <v>2119.5</v>
-      </c>
-      <c r="O37" s="53">
-        <v>3758.7</v>
-      </c>
-      <c r="P37" s="54">
-        <v>352.899</v>
-      </c>
-      <c r="Q37" s="54">
-        <v>4.484</v>
+      <c r="B37" s="66">
+        <v>35154.400000000001</v>
+      </c>
+      <c r="C37" s="66">
+        <v>25316</v>
+      </c>
+      <c r="D37" s="66">
+        <v>25395.8</v>
+      </c>
+      <c r="E37" s="66">
+        <v>35265.199999999997</v>
+      </c>
+      <c r="F37" s="68">
+        <v>137.39699999999999</v>
+      </c>
+      <c r="G37" s="68">
+        <v>138.86199999999999</v>
+      </c>
+      <c r="H37" s="66">
+        <v>23821.599999999999</v>
+      </c>
+      <c r="I37" s="66">
+        <v>17337.8</v>
+      </c>
+      <c r="J37" s="66">
+        <v>4014.2</v>
+      </c>
+      <c r="K37" s="66">
+        <v>1526.5</v>
+      </c>
+      <c r="L37" s="66">
+        <v>2486.4</v>
+      </c>
+      <c r="M37" s="66">
+        <v>5858.7</v>
+      </c>
+      <c r="N37" s="66">
+        <v>2125.1</v>
+      </c>
+      <c r="O37" s="66">
+        <v>3733.6</v>
+      </c>
+      <c r="P37" s="68">
+        <v>354.13099999999997</v>
+      </c>
+      <c r="Q37" s="68">
+        <v>4.4790000000000001</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>47573</v>
       </c>
-      <c r="B38" s="53">
-        <v>35570.800000000003</v>
-      </c>
-      <c r="C38" s="53">
-        <v>25568.2</v>
-      </c>
-      <c r="D38" s="53">
-        <v>25696.7</v>
-      </c>
-      <c r="E38" s="53">
-        <v>35749.599999999999</v>
-      </c>
-      <c r="F38" s="54">
-        <v>137.88499999999999</v>
-      </c>
-      <c r="G38" s="54">
-        <v>139.12100000000001</v>
-      </c>
-      <c r="H38" s="53">
-        <v>24134</v>
-      </c>
-      <c r="I38" s="53">
-        <v>17502.900000000001</v>
-      </c>
-      <c r="J38" s="53">
-        <v>4029.3</v>
-      </c>
-      <c r="K38" s="53">
-        <v>1524.8</v>
-      </c>
-      <c r="L38" s="53">
-        <v>2502.4</v>
-      </c>
-      <c r="M38" s="53">
-        <v>5924.6</v>
-      </c>
-      <c r="N38" s="53">
-        <v>2133.6999999999998</v>
-      </c>
-      <c r="O38" s="53">
-        <v>3790.9</v>
-      </c>
-      <c r="P38" s="54">
-        <v>354.84699999999998</v>
-      </c>
-      <c r="Q38" s="54">
-        <v>4.4930000000000003</v>
+      <c r="B38" s="66">
+        <v>35485.1</v>
+      </c>
+      <c r="C38" s="66">
+        <v>25432</v>
+      </c>
+      <c r="D38" s="66">
+        <v>25518.400000000001</v>
+      </c>
+      <c r="E38" s="66">
+        <v>35605.699999999997</v>
+      </c>
+      <c r="F38" s="68">
+        <v>138.06299999999999</v>
+      </c>
+      <c r="G38" s="68">
+        <v>139.529</v>
+      </c>
+      <c r="H38" s="66">
+        <v>24060.6</v>
+      </c>
+      <c r="I38" s="66">
+        <v>17427.2</v>
+      </c>
+      <c r="J38" s="66">
+        <v>4017.1</v>
+      </c>
+      <c r="K38" s="66">
+        <v>1527.3</v>
+      </c>
+      <c r="L38" s="66">
+        <v>2488.4</v>
+      </c>
+      <c r="M38" s="66">
+        <v>5900.1</v>
+      </c>
+      <c r="N38" s="66">
+        <v>2137.1999999999998</v>
+      </c>
+      <c r="O38" s="66">
+        <v>3762.8</v>
+      </c>
+      <c r="P38" s="68">
+        <v>356.08600000000001</v>
+      </c>
+      <c r="Q38" s="68">
+        <v>4.484</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>47664</v>
       </c>
-      <c r="B39" s="53">
-        <v>35918.1</v>
-      </c>
-      <c r="C39" s="53">
-        <v>25694.6</v>
-      </c>
-      <c r="D39" s="53">
-        <v>25823.8</v>
-      </c>
-      <c r="E39" s="53">
-        <v>36098.6</v>
-      </c>
-      <c r="F39" s="54">
-        <v>138.547</v>
-      </c>
-      <c r="G39" s="54">
-        <v>139.78800000000001</v>
-      </c>
-      <c r="H39" s="53">
-        <v>24385.1</v>
-      </c>
-      <c r="I39" s="53">
-        <v>17600.5</v>
-      </c>
-      <c r="J39" s="53">
-        <v>4034.8</v>
-      </c>
-      <c r="K39" s="53">
-        <v>1526.8</v>
-      </c>
-      <c r="L39" s="53">
-        <v>2506.1</v>
-      </c>
-      <c r="M39" s="53">
-        <v>5971.2</v>
-      </c>
-      <c r="N39" s="53">
-        <v>2147.9</v>
-      </c>
-      <c r="O39" s="53">
-        <v>3823.3</v>
-      </c>
-      <c r="P39" s="54">
-        <v>356.81</v>
-      </c>
-      <c r="Q39" s="54">
-        <v>4.5010000000000003</v>
+      <c r="B39" s="66">
+        <v>35819.300000000003</v>
+      </c>
+      <c r="C39" s="66">
+        <v>25548.3</v>
+      </c>
+      <c r="D39" s="66">
+        <v>25640.5</v>
+      </c>
+      <c r="E39" s="66">
+        <v>35948.6</v>
+      </c>
+      <c r="F39" s="68">
+        <v>138.73400000000001</v>
+      </c>
+      <c r="G39" s="68">
+        <v>140.202</v>
+      </c>
+      <c r="H39" s="66">
+        <v>24308.3</v>
+      </c>
+      <c r="I39" s="66">
+        <v>17521.400000000001</v>
+      </c>
+      <c r="J39" s="66">
+        <v>4019.8</v>
+      </c>
+      <c r="K39" s="66">
+        <v>1528</v>
+      </c>
+      <c r="L39" s="66">
+        <v>2490.4</v>
+      </c>
+      <c r="M39" s="66">
+        <v>5941.8</v>
+      </c>
+      <c r="N39" s="66">
+        <v>2149.5</v>
+      </c>
+      <c r="O39" s="66">
+        <v>3792.4</v>
+      </c>
+      <c r="P39" s="68">
+        <v>358.05399999999997</v>
+      </c>
+      <c r="Q39" s="68">
+        <v>4.4850000000000003</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>47756</v>
       </c>
-      <c r="B40" s="53">
-        <v>36268.400000000001</v>
-      </c>
-      <c r="C40" s="53">
-        <v>25821.1</v>
-      </c>
-      <c r="D40" s="53">
-        <v>25950.799999999999</v>
-      </c>
-      <c r="E40" s="53">
-        <v>36450.6</v>
-      </c>
-      <c r="F40" s="54">
-        <v>139.21199999999999</v>
-      </c>
-      <c r="G40" s="54">
-        <v>140.46</v>
-      </c>
-      <c r="H40" s="53">
-        <v>24638</v>
-      </c>
-      <c r="I40" s="53">
-        <v>17698.099999999999</v>
-      </c>
-      <c r="J40" s="53">
-        <v>4040.3</v>
-      </c>
-      <c r="K40" s="53">
+      <c r="B40" s="66">
+        <v>36157.1</v>
+      </c>
+      <c r="C40" s="66">
+        <v>25664.9</v>
+      </c>
+      <c r="D40" s="66">
+        <v>25762.3</v>
+      </c>
+      <c r="E40" s="66">
+        <v>36294.300000000003</v>
+      </c>
+      <c r="F40" s="68">
+        <v>139.40799999999999</v>
+      </c>
+      <c r="G40" s="68">
+        <v>140.881</v>
+      </c>
+      <c r="H40" s="66">
+        <v>24560.1</v>
+      </c>
+      <c r="I40" s="66">
+        <v>17617.400000000001</v>
+      </c>
+      <c r="J40" s="66">
+        <v>4022.7</v>
+      </c>
+      <c r="K40" s="66">
         <v>1528.7</v>
       </c>
-      <c r="L40" s="53">
-        <v>2509.6</v>
-      </c>
-      <c r="M40" s="53">
-        <v>6018.2</v>
-      </c>
-      <c r="N40" s="53">
-        <v>2162.3000000000002</v>
-      </c>
-      <c r="O40" s="53">
-        <v>3855.9</v>
-      </c>
-      <c r="P40" s="54">
-        <v>358.78800000000001</v>
-      </c>
-      <c r="Q40" s="54">
-        <v>4.51</v>
+      <c r="L40" s="66">
+        <v>2492.5</v>
+      </c>
+      <c r="M40" s="66">
+        <v>5984.1</v>
+      </c>
+      <c r="N40" s="66">
+        <v>2161.8000000000002</v>
+      </c>
+      <c r="O40" s="66">
+        <v>3822.3</v>
+      </c>
+      <c r="P40" s="68">
+        <v>360.036</v>
+      </c>
+      <c r="Q40" s="68">
+        <v>4.484</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>47848</v>
       </c>
-      <c r="B41" s="53">
-        <v>36620.9</v>
-      </c>
-      <c r="C41" s="53">
-        <v>25947.1</v>
-      </c>
-      <c r="D41" s="53">
-        <v>26077.5</v>
-      </c>
-      <c r="E41" s="53">
-        <v>36804.9</v>
-      </c>
-      <c r="F41" s="54">
-        <v>139.881</v>
-      </c>
-      <c r="G41" s="54">
-        <v>141.136</v>
-      </c>
-      <c r="H41" s="53">
-        <v>24891.5</v>
-      </c>
-      <c r="I41" s="53">
-        <v>17794.7</v>
-      </c>
-      <c r="J41" s="53">
-        <v>4045.7</v>
-      </c>
-      <c r="K41" s="53">
-        <v>1530.5</v>
-      </c>
-      <c r="L41" s="53">
-        <v>2513.1</v>
-      </c>
-      <c r="M41" s="53">
-        <v>6065.3</v>
-      </c>
-      <c r="N41" s="53">
-        <v>2176.6</v>
-      </c>
-      <c r="O41" s="53">
-        <v>3888.7</v>
-      </c>
-      <c r="P41" s="54">
-        <v>360.78</v>
-      </c>
-      <c r="Q41" s="54">
-        <v>4.5140000000000002</v>
+      <c r="B41" s="66">
+        <v>36498.400000000001</v>
+      </c>
+      <c r="C41" s="66">
+        <v>25782</v>
+      </c>
+      <c r="D41" s="66">
+        <v>25883.9</v>
+      </c>
+      <c r="E41" s="66">
+        <v>36642.699999999997</v>
+      </c>
+      <c r="F41" s="68">
+        <v>140.08600000000001</v>
+      </c>
+      <c r="G41" s="68">
+        <v>141.565</v>
+      </c>
+      <c r="H41" s="66">
+        <v>24811.200000000001</v>
+      </c>
+      <c r="I41" s="66">
+        <v>17711.400000000001</v>
+      </c>
+      <c r="J41" s="66">
+        <v>4025.6</v>
+      </c>
+      <c r="K41" s="66">
+        <v>1529.4</v>
+      </c>
+      <c r="L41" s="66">
+        <v>2494.6999999999998</v>
+      </c>
+      <c r="M41" s="66">
+        <v>6026.9</v>
+      </c>
+      <c r="N41" s="66">
+        <v>2174.1999999999998</v>
+      </c>
+      <c r="O41" s="66">
+        <v>3852.7</v>
+      </c>
+      <c r="P41" s="68">
+        <v>362.03100000000001</v>
+      </c>
+      <c r="Q41" s="68">
+        <v>4.4829999999999997</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>47938</v>
       </c>
-      <c r="B42" s="53">
-        <v>36976.300000000003</v>
-      </c>
-      <c r="C42" s="53">
-        <v>26073.200000000001</v>
-      </c>
-      <c r="D42" s="53">
-        <v>26204.2</v>
-      </c>
-      <c r="E42" s="53">
-        <v>37162.1</v>
-      </c>
-      <c r="F42" s="54">
-        <v>140.553</v>
-      </c>
-      <c r="G42" s="54">
-        <v>141.81700000000001</v>
-      </c>
-      <c r="H42" s="53">
-        <v>25149.599999999999</v>
-      </c>
-      <c r="I42" s="53">
-        <v>17893.3</v>
-      </c>
-      <c r="J42" s="53">
-        <v>4050.7</v>
-      </c>
-      <c r="K42" s="53">
-        <v>1532.2</v>
-      </c>
-      <c r="L42" s="53">
-        <v>2516.5</v>
-      </c>
-      <c r="M42" s="53">
-        <v>6112.1</v>
-      </c>
-      <c r="N42" s="53">
-        <v>2190.6</v>
-      </c>
-      <c r="O42" s="53">
-        <v>3921.6</v>
-      </c>
-      <c r="P42" s="54">
-        <v>362.786</v>
-      </c>
-      <c r="Q42" s="54">
-        <v>4.5149999999999997</v>
+      <c r="B42" s="66">
+        <v>36842.800000000003</v>
+      </c>
+      <c r="C42" s="66">
+        <v>25899.1</v>
+      </c>
+      <c r="D42" s="66">
+        <v>26005.1</v>
+      </c>
+      <c r="E42" s="66">
+        <v>36993.599999999999</v>
+      </c>
+      <c r="F42" s="68">
+        <v>140.76599999999999</v>
+      </c>
+      <c r="G42" s="68">
+        <v>142.255</v>
+      </c>
+      <c r="H42" s="66">
+        <v>25066.3</v>
+      </c>
+      <c r="I42" s="66">
+        <v>17807</v>
+      </c>
+      <c r="J42" s="66">
+        <v>4029.1</v>
+      </c>
+      <c r="K42" s="66">
+        <v>1530.5</v>
+      </c>
+      <c r="L42" s="66">
+        <v>2497.1</v>
+      </c>
+      <c r="M42" s="66">
+        <v>6071</v>
+      </c>
+      <c r="N42" s="66">
+        <v>2187.3000000000002</v>
+      </c>
+      <c r="O42" s="66">
+        <v>3883.6</v>
+      </c>
+      <c r="P42" s="68">
+        <v>364.03800000000001</v>
+      </c>
+      <c r="Q42" s="68">
+        <v>4.4829999999999997</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>48029</v>
       </c>
-      <c r="B43" s="53">
-        <v>37334.199999999997</v>
-      </c>
-      <c r="C43" s="53">
-        <v>26199</v>
-      </c>
-      <c r="D43" s="53">
-        <v>26330.7</v>
-      </c>
-      <c r="E43" s="53">
-        <v>37521.800000000003</v>
-      </c>
-      <c r="F43" s="54">
-        <v>141.22800000000001</v>
-      </c>
-      <c r="G43" s="54">
-        <v>142.50200000000001</v>
-      </c>
-      <c r="H43" s="53">
-        <v>25408.1</v>
-      </c>
-      <c r="I43" s="53">
-        <v>17990.8</v>
-      </c>
-      <c r="J43" s="53">
-        <v>4055.9</v>
-      </c>
-      <c r="K43" s="53">
-        <v>1533.8</v>
-      </c>
-      <c r="L43" s="53">
-        <v>2520</v>
-      </c>
-      <c r="M43" s="53">
-        <v>6159.6</v>
-      </c>
-      <c r="N43" s="53">
-        <v>2204.6</v>
-      </c>
-      <c r="O43" s="53">
-        <v>3955</v>
-      </c>
-      <c r="P43" s="54">
-        <v>364.80500000000001</v>
-      </c>
-      <c r="Q43" s="54">
-        <v>4.5119999999999996</v>
+      <c r="B43" s="66">
+        <v>37190.400000000001</v>
+      </c>
+      <c r="C43" s="66">
+        <v>26016.5</v>
+      </c>
+      <c r="D43" s="66">
+        <v>26126.2</v>
+      </c>
+      <c r="E43" s="66">
+        <v>37347.199999999997</v>
+      </c>
+      <c r="F43" s="68">
+        <v>141.45099999999999</v>
+      </c>
+      <c r="G43" s="68">
+        <v>142.94900000000001</v>
+      </c>
+      <c r="H43" s="66">
+        <v>25325.5</v>
+      </c>
+      <c r="I43" s="66">
+        <v>17904.099999999999</v>
+      </c>
+      <c r="J43" s="66">
+        <v>4032.8</v>
+      </c>
+      <c r="K43" s="66">
+        <v>1531.7</v>
+      </c>
+      <c r="L43" s="66">
+        <v>2499.5</v>
+      </c>
+      <c r="M43" s="66">
+        <v>6115.6</v>
+      </c>
+      <c r="N43" s="66">
+        <v>2200.6</v>
+      </c>
+      <c r="O43" s="66">
+        <v>3915</v>
+      </c>
+      <c r="P43" s="68">
+        <v>366.05799999999999</v>
+      </c>
+      <c r="Q43" s="68">
+        <v>4.4809999999999999</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>48121</v>
       </c>
-      <c r="B44" s="53">
-        <v>37695</v>
-      </c>
-      <c r="C44" s="53">
-        <v>26325</v>
-      </c>
-      <c r="D44" s="53">
-        <v>26457.3</v>
-      </c>
-      <c r="E44" s="53">
-        <v>37884.400000000001</v>
-      </c>
-      <c r="F44" s="54">
-        <v>141.90600000000001</v>
-      </c>
-      <c r="G44" s="54">
-        <v>143.19</v>
-      </c>
-      <c r="H44" s="53">
-        <v>25669.7</v>
-      </c>
-      <c r="I44" s="53">
-        <v>18089.099999999999</v>
-      </c>
-      <c r="J44" s="53">
-        <v>4061.2</v>
-      </c>
-      <c r="K44" s="53">
-        <v>1535.6</v>
-      </c>
-      <c r="L44" s="53">
-        <v>2523.5</v>
-      </c>
-      <c r="M44" s="53">
-        <v>6207.5</v>
-      </c>
-      <c r="N44" s="53">
-        <v>2219</v>
-      </c>
-      <c r="O44" s="53">
-        <v>3988.6</v>
-      </c>
-      <c r="P44" s="54">
-        <v>366.83699999999999</v>
-      </c>
-      <c r="Q44" s="54">
-        <v>4.508</v>
+      <c r="B44" s="66">
+        <v>37541.4</v>
+      </c>
+      <c r="C44" s="66">
+        <v>26134.2</v>
+      </c>
+      <c r="D44" s="66">
+        <v>26247</v>
+      </c>
+      <c r="E44" s="66">
+        <v>37703.4</v>
+      </c>
+      <c r="F44" s="68">
+        <v>142.13800000000001</v>
+      </c>
+      <c r="G44" s="68">
+        <v>143.648</v>
+      </c>
+      <c r="H44" s="66">
+        <v>25589.4</v>
+      </c>
+      <c r="I44" s="66">
+        <v>18003.099999999999</v>
+      </c>
+      <c r="J44" s="66">
+        <v>4036.4</v>
+      </c>
+      <c r="K44" s="66">
+        <v>1532.9</v>
+      </c>
+      <c r="L44" s="66">
+        <v>2502</v>
+      </c>
+      <c r="M44" s="66">
+        <v>6160.6</v>
+      </c>
+      <c r="N44" s="66">
+        <v>2213.9</v>
+      </c>
+      <c r="O44" s="66">
+        <v>3946.7</v>
+      </c>
+      <c r="P44" s="68">
+        <v>368.09100000000001</v>
+      </c>
+      <c r="Q44" s="68">
+        <v>4.4779999999999998</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>48213</v>
       </c>
-      <c r="B45" s="53">
-        <v>38058.1</v>
-      </c>
-      <c r="C45" s="53">
-        <v>26450.799999999999</v>
-      </c>
-      <c r="D45" s="53">
-        <v>26583.7</v>
-      </c>
-      <c r="E45" s="53">
-        <v>38249.300000000003</v>
-      </c>
-      <c r="F45" s="54">
-        <v>142.58799999999999</v>
-      </c>
-      <c r="G45" s="54">
-        <v>143.88200000000001</v>
-      </c>
-      <c r="H45" s="53">
-        <v>25940.1</v>
-      </c>
-      <c r="I45" s="53">
-        <v>18192.2</v>
-      </c>
-      <c r="J45" s="53">
-        <v>4062.1</v>
-      </c>
-      <c r="K45" s="53">
-        <v>1533</v>
-      </c>
-      <c r="L45" s="53">
-        <v>2526.8000000000002</v>
-      </c>
-      <c r="M45" s="53">
-        <v>6248.9</v>
-      </c>
-      <c r="N45" s="53">
-        <v>2226.6999999999998</v>
-      </c>
-      <c r="O45" s="53">
-        <v>4022.1</v>
-      </c>
-      <c r="P45" s="54">
-        <v>368.88200000000001</v>
-      </c>
-      <c r="Q45" s="54">
-        <v>4.5039999999999996</v>
+      <c r="B45" s="66">
+        <v>37894.800000000003</v>
+      </c>
+      <c r="C45" s="66">
+        <v>26251.8</v>
+      </c>
+      <c r="D45" s="66">
+        <v>26367.599999999999</v>
+      </c>
+      <c r="E45" s="66">
+        <v>38061.9</v>
+      </c>
+      <c r="F45" s="68">
+        <v>142.82900000000001</v>
+      </c>
+      <c r="G45" s="68">
+        <v>144.351</v>
+      </c>
+      <c r="H45" s="66">
+        <v>25868.400000000001</v>
+      </c>
+      <c r="I45" s="66">
+        <v>18111.400000000001</v>
+      </c>
+      <c r="J45" s="66">
+        <v>4033.2</v>
+      </c>
+      <c r="K45" s="66">
+        <v>1527.2</v>
+      </c>
+      <c r="L45" s="66">
+        <v>2504.1</v>
+      </c>
+      <c r="M45" s="66">
+        <v>6195.3</v>
+      </c>
+      <c r="N45" s="66">
+        <v>2217.1999999999998</v>
+      </c>
+      <c r="O45" s="66">
+        <v>3978.2</v>
+      </c>
+      <c r="P45" s="68">
+        <v>370.13600000000002</v>
+      </c>
+      <c r="Q45" s="68">
+        <v>4.4749999999999996</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>48304</v>
       </c>
-      <c r="B46" s="53">
-        <v>38423.800000000003</v>
-      </c>
-      <c r="C46" s="53">
-        <v>26576.400000000001</v>
-      </c>
-      <c r="D46" s="53">
-        <v>26710</v>
-      </c>
-      <c r="E46" s="53">
-        <v>38616.9</v>
-      </c>
-      <c r="F46" s="54">
-        <v>143.274</v>
-      </c>
-      <c r="G46" s="54">
-        <v>144.578</v>
-      </c>
-      <c r="H46" s="53">
-        <v>26213.4</v>
-      </c>
-      <c r="I46" s="53">
-        <v>18296</v>
-      </c>
-      <c r="J46" s="53">
-        <v>4063.6</v>
-      </c>
-      <c r="K46" s="53">
-        <v>1531.1</v>
-      </c>
-      <c r="L46" s="53">
-        <v>2530</v>
-      </c>
-      <c r="M46" s="53">
-        <v>6291.4</v>
-      </c>
-      <c r="N46" s="53">
-        <v>2235.3000000000002</v>
-      </c>
-      <c r="O46" s="53">
-        <v>4056.2</v>
-      </c>
-      <c r="P46" s="54">
-        <v>370.94</v>
-      </c>
-      <c r="Q46" s="54">
-        <v>4.5</v>
+      <c r="B46" s="66">
+        <v>38250.6</v>
+      </c>
+      <c r="C46" s="66">
+        <v>26369.4</v>
+      </c>
+      <c r="D46" s="66">
+        <v>26487.9</v>
+      </c>
+      <c r="E46" s="66">
+        <v>38422.5</v>
+      </c>
+      <c r="F46" s="68">
+        <v>143.524</v>
+      </c>
+      <c r="G46" s="68">
+        <v>145.05600000000001</v>
+      </c>
+      <c r="H46" s="66">
+        <v>26142.400000000001</v>
+      </c>
+      <c r="I46" s="66">
+        <v>18214.599999999999</v>
+      </c>
+      <c r="J46" s="66">
+        <v>4034.6</v>
+      </c>
+      <c r="K46" s="66">
+        <v>1526</v>
+      </c>
+      <c r="L46" s="66">
+        <v>2506.4</v>
+      </c>
+      <c r="M46" s="66">
+        <v>6236.9</v>
+      </c>
+      <c r="N46" s="66">
+        <v>2226.4</v>
+      </c>
+      <c r="O46" s="66">
+        <v>4010.4</v>
+      </c>
+      <c r="P46" s="68">
+        <v>372.19400000000002</v>
+      </c>
+      <c r="Q46" s="68">
+        <v>4.4749999999999996</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>48395</v>
       </c>
-      <c r="B47" s="53">
-        <v>38792.199999999997</v>
-      </c>
-      <c r="C47" s="53">
-        <v>26701.7</v>
-      </c>
-      <c r="D47" s="53">
-        <v>26835.9</v>
-      </c>
-      <c r="E47" s="53">
-        <v>38987.1</v>
-      </c>
-      <c r="F47" s="54">
-        <v>143.96299999999999</v>
-      </c>
-      <c r="G47" s="54">
-        <v>145.279</v>
-      </c>
-      <c r="H47" s="53">
-        <v>26488.9</v>
-      </c>
-      <c r="I47" s="53">
-        <v>18399.8</v>
-      </c>
-      <c r="J47" s="53">
-        <v>4066</v>
-      </c>
-      <c r="K47" s="53">
-        <v>1530.1</v>
-      </c>
-      <c r="L47" s="53">
-        <v>2533.1999999999998</v>
-      </c>
-      <c r="M47" s="53">
-        <v>6335.8</v>
-      </c>
-      <c r="N47" s="53">
-        <v>2245.3000000000002</v>
-      </c>
-      <c r="O47" s="53">
-        <v>4090.5</v>
-      </c>
-      <c r="P47" s="54">
-        <v>373.01100000000002</v>
-      </c>
-      <c r="Q47" s="54">
-        <v>4.4960000000000004</v>
+      <c r="B47" s="66">
+        <v>38609.4</v>
+      </c>
+      <c r="C47" s="66">
+        <v>26487.200000000001</v>
+      </c>
+      <c r="D47" s="66">
+        <v>26608.2</v>
+      </c>
+      <c r="E47" s="66">
+        <v>38785.800000000003</v>
+      </c>
+      <c r="F47" s="68">
+        <v>144.22200000000001</v>
+      </c>
+      <c r="G47" s="68">
+        <v>145.76599999999999</v>
+      </c>
+      <c r="H47" s="66">
+        <v>26418</v>
+      </c>
+      <c r="I47" s="66">
+        <v>18317.5</v>
+      </c>
+      <c r="J47" s="66">
+        <v>4036.5</v>
+      </c>
+      <c r="K47" s="66">
+        <v>1525.5</v>
+      </c>
+      <c r="L47" s="66">
+        <v>2508.8000000000002</v>
+      </c>
+      <c r="M47" s="66">
+        <v>6280</v>
+      </c>
+      <c r="N47" s="66">
+        <v>2236.9</v>
+      </c>
+      <c r="O47" s="66">
+        <v>4043.1</v>
+      </c>
+      <c r="P47" s="68">
+        <v>374.26400000000001</v>
+      </c>
+      <c r="Q47" s="68">
+        <v>4.4710000000000001</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>48487</v>
       </c>
-      <c r="B48" s="53">
-        <v>39163.5</v>
-      </c>
-      <c r="C48" s="53">
-        <v>26826.799999999999</v>
-      </c>
-      <c r="D48" s="53">
-        <v>26961.599999999999</v>
-      </c>
-      <c r="E48" s="53">
-        <v>39360.300000000003</v>
-      </c>
-      <c r="F48" s="54">
-        <v>144.655</v>
-      </c>
-      <c r="G48" s="54">
-        <v>145.98599999999999</v>
-      </c>
-      <c r="H48" s="53">
-        <v>26765.4</v>
-      </c>
-      <c r="I48" s="53">
-        <v>18502.8</v>
-      </c>
-      <c r="J48" s="53">
-        <v>4070.6</v>
-      </c>
-      <c r="K48" s="53">
-        <v>1531.5</v>
-      </c>
-      <c r="L48" s="53">
-        <v>2536.3000000000002</v>
-      </c>
-      <c r="M48" s="53">
-        <v>6384.4</v>
-      </c>
-      <c r="N48" s="53">
-        <v>2259.1999999999998</v>
-      </c>
-      <c r="O48" s="53">
-        <v>4125.2</v>
-      </c>
-      <c r="P48" s="54">
-        <v>375.09399999999999</v>
-      </c>
-      <c r="Q48" s="54">
-        <v>4.492</v>
+      <c r="B48" s="66">
+        <v>38971.4</v>
+      </c>
+      <c r="C48" s="66">
+        <v>26605.200000000001</v>
+      </c>
+      <c r="D48" s="66">
+        <v>26728.2</v>
+      </c>
+      <c r="E48" s="66">
+        <v>39151.599999999999</v>
+      </c>
+      <c r="F48" s="68">
+        <v>144.92400000000001</v>
+      </c>
+      <c r="G48" s="68">
+        <v>146.47999999999999</v>
+      </c>
+      <c r="H48" s="66">
+        <v>26693</v>
+      </c>
+      <c r="I48" s="66">
+        <v>18418.599999999999</v>
+      </c>
+      <c r="J48" s="66">
+        <v>4040.3</v>
+      </c>
+      <c r="K48" s="66">
+        <v>1526.8</v>
+      </c>
+      <c r="L48" s="66">
+        <v>2511.3000000000002</v>
+      </c>
+      <c r="M48" s="66">
+        <v>6326.4</v>
+      </c>
+      <c r="N48" s="66">
+        <v>2250.1999999999998</v>
+      </c>
+      <c r="O48" s="66">
+        <v>4076.2</v>
+      </c>
+      <c r="P48" s="68">
+        <v>376.346</v>
+      </c>
+      <c r="Q48" s="68">
+        <v>4.4669999999999996</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>48579</v>
       </c>
-      <c r="B49" s="53">
-        <v>39538.1</v>
-      </c>
-      <c r="C49" s="53">
-        <v>26951.9</v>
-      </c>
-      <c r="D49" s="53">
-        <v>27087.3</v>
-      </c>
-      <c r="E49" s="53">
-        <v>39736.699999999997</v>
-      </c>
-      <c r="F49" s="54">
-        <v>145.351</v>
-      </c>
-      <c r="G49" s="54">
-        <v>146.69800000000001</v>
-      </c>
-      <c r="H49" s="53">
-        <v>27042</v>
-      </c>
-      <c r="I49" s="53">
-        <v>18604.599999999999</v>
-      </c>
-      <c r="J49" s="53">
-        <v>4077</v>
-      </c>
-      <c r="K49" s="53">
-        <v>1534.8</v>
-      </c>
-      <c r="L49" s="53">
-        <v>2539.5</v>
-      </c>
-      <c r="M49" s="53">
-        <v>6436.4</v>
-      </c>
-      <c r="N49" s="53">
-        <v>2276.1</v>
-      </c>
-      <c r="O49" s="53">
-        <v>4160.3</v>
-      </c>
-      <c r="P49" s="54">
-        <v>377.19</v>
-      </c>
-      <c r="Q49" s="54">
-        <v>4.4870000000000001</v>
+      <c r="B49" s="66">
+        <v>39336.199999999997</v>
+      </c>
+      <c r="C49" s="66">
+        <v>26723.1</v>
+      </c>
+      <c r="D49" s="66">
+        <v>26848</v>
+      </c>
+      <c r="E49" s="66">
+        <v>39520.1</v>
+      </c>
+      <c r="F49" s="68">
+        <v>145.62899999999999</v>
+      </c>
+      <c r="G49" s="68">
+        <v>147.19900000000001</v>
+      </c>
+      <c r="H49" s="66">
+        <v>26968</v>
+      </c>
+      <c r="I49" s="66">
+        <v>18518.3</v>
+      </c>
+      <c r="J49" s="66">
+        <v>4045.1</v>
+      </c>
+      <c r="K49" s="66">
+        <v>1529.1</v>
+      </c>
+      <c r="L49" s="66">
+        <v>2513.9</v>
+      </c>
+      <c r="M49" s="66">
+        <v>6375.2</v>
+      </c>
+      <c r="N49" s="66">
+        <v>2265.5</v>
+      </c>
+      <c r="O49" s="66">
+        <v>4109.7</v>
+      </c>
+      <c r="P49" s="68">
+        <v>378.44099999999997</v>
+      </c>
+      <c r="Q49" s="68">
+        <v>4.4619999999999997</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>48669</v>
       </c>
-      <c r="B50" s="53">
-        <v>39915.199999999997</v>
-      </c>
-      <c r="C50" s="53">
-        <v>27076.7</v>
-      </c>
-      <c r="D50" s="53">
-        <v>27212.799999999999</v>
-      </c>
-      <c r="E50" s="53">
-        <v>40115.800000000003</v>
-      </c>
-      <c r="F50" s="54">
-        <v>146.05000000000001</v>
-      </c>
-      <c r="G50" s="54">
-        <v>147.41499999999999</v>
-      </c>
-      <c r="H50" s="53">
-        <v>27327.4</v>
-      </c>
-      <c r="I50" s="53">
-        <v>18710.900000000001</v>
-      </c>
-      <c r="J50" s="53">
-        <v>4082.5</v>
-      </c>
-      <c r="K50" s="53">
-        <v>1537.3</v>
-      </c>
-      <c r="L50" s="53">
-        <v>2542.5</v>
-      </c>
-      <c r="M50" s="53">
-        <v>6487.6</v>
-      </c>
-      <c r="N50" s="53">
-        <v>2292.3000000000002</v>
-      </c>
-      <c r="O50" s="53">
-        <v>4195.3</v>
-      </c>
-      <c r="P50" s="54">
-        <v>379.298</v>
-      </c>
-      <c r="Q50" s="54">
-        <v>4.4820000000000002</v>
+      <c r="B50" s="66">
+        <v>39703.699999999997</v>
+      </c>
+      <c r="C50" s="66">
+        <v>26840.799999999999</v>
+      </c>
+      <c r="D50" s="66">
+        <v>26967.7</v>
+      </c>
+      <c r="E50" s="66">
+        <v>39891.300000000003</v>
+      </c>
+      <c r="F50" s="68">
+        <v>146.33699999999999</v>
+      </c>
+      <c r="G50" s="68">
+        <v>147.922</v>
+      </c>
+      <c r="H50" s="66">
+        <v>27246.7</v>
+      </c>
+      <c r="I50" s="66">
+        <v>18619.099999999999</v>
+      </c>
+      <c r="J50" s="66">
+        <v>4049.6</v>
+      </c>
+      <c r="K50" s="66">
+        <v>1531.1</v>
+      </c>
+      <c r="L50" s="66">
+        <v>2516.3000000000002</v>
+      </c>
+      <c r="M50" s="66">
+        <v>6423.9</v>
+      </c>
+      <c r="N50" s="66">
+        <v>2280.5</v>
+      </c>
+      <c r="O50" s="66">
+        <v>4143.3999999999996</v>
+      </c>
+      <c r="P50" s="68">
+        <v>380.54899999999998</v>
+      </c>
+      <c r="Q50" s="68">
+        <v>4.4589999999999996</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>48760</v>
       </c>
-      <c r="B51" s="53">
-        <v>40295.199999999997</v>
-      </c>
-      <c r="C51" s="53">
-        <v>27201.599999999999</v>
-      </c>
-      <c r="D51" s="53">
-        <v>27338.2</v>
-      </c>
-      <c r="E51" s="53">
-        <v>40497.599999999999</v>
-      </c>
-      <c r="F51" s="54">
-        <v>146.75299999999999</v>
-      </c>
-      <c r="G51" s="54">
-        <v>148.13499999999999</v>
-      </c>
-      <c r="H51" s="53">
-        <v>27616.799999999999</v>
-      </c>
-      <c r="I51" s="53">
-        <v>18818.5</v>
-      </c>
-      <c r="J51" s="53">
-        <v>4087.7</v>
-      </c>
-      <c r="K51" s="53">
-        <v>1539.6</v>
-      </c>
-      <c r="L51" s="53">
-        <v>2545.4</v>
-      </c>
-      <c r="M51" s="53">
-        <v>6538.6</v>
-      </c>
-      <c r="N51" s="53">
-        <v>2308</v>
-      </c>
-      <c r="O51" s="53">
-        <v>4230.6000000000004</v>
-      </c>
-      <c r="P51" s="54">
-        <v>381.41899999999998</v>
-      </c>
-      <c r="Q51" s="54">
-        <v>4.4779999999999998</v>
+      <c r="B51" s="66">
+        <v>40074.1</v>
+      </c>
+      <c r="C51" s="66">
+        <v>26958.5</v>
+      </c>
+      <c r="D51" s="66">
+        <v>27087.200000000001</v>
+      </c>
+      <c r="E51" s="66">
+        <v>40265.5</v>
+      </c>
+      <c r="F51" s="68">
+        <v>147.04900000000001</v>
+      </c>
+      <c r="G51" s="68">
+        <v>148.65100000000001</v>
+      </c>
+      <c r="H51" s="66">
+        <v>27528.2</v>
+      </c>
+      <c r="I51" s="66">
+        <v>18720.3</v>
+      </c>
+      <c r="J51" s="66">
+        <v>4053.4</v>
+      </c>
+      <c r="K51" s="66">
+        <v>1532.5</v>
+      </c>
+      <c r="L51" s="66">
+        <v>2518.8000000000002</v>
+      </c>
+      <c r="M51" s="66">
+        <v>6472</v>
+      </c>
+      <c r="N51" s="66">
+        <v>2294.6</v>
+      </c>
+      <c r="O51" s="66">
+        <v>4177.3999999999996</v>
+      </c>
+      <c r="P51" s="68">
+        <v>382.66800000000001</v>
+      </c>
+      <c r="Q51" s="68">
+        <v>4.4539999999999997</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>48852</v>
       </c>
-      <c r="B52" s="53">
-        <v>40677.5</v>
-      </c>
-      <c r="C52" s="53">
-        <v>27326</v>
-      </c>
-      <c r="D52" s="53">
-        <v>27463.3</v>
-      </c>
-      <c r="E52" s="53">
-        <v>40881.9</v>
-      </c>
-      <c r="F52" s="54">
-        <v>147.459</v>
-      </c>
-      <c r="G52" s="54">
-        <v>148.85900000000001</v>
-      </c>
-      <c r="H52" s="53">
-        <v>27912</v>
-      </c>
-      <c r="I52" s="53">
-        <v>18928.599999999999</v>
-      </c>
-      <c r="J52" s="53">
-        <v>4092.1</v>
-      </c>
-      <c r="K52" s="53">
-        <v>1541.2</v>
-      </c>
-      <c r="L52" s="53">
-        <v>2548.3000000000002</v>
-      </c>
-      <c r="M52" s="53">
-        <v>6588.9</v>
-      </c>
-      <c r="N52" s="53">
-        <v>2322.9</v>
-      </c>
-      <c r="O52" s="53">
-        <v>4266</v>
-      </c>
-      <c r="P52" s="54">
-        <v>383.55200000000002</v>
-      </c>
-      <c r="Q52" s="54">
-        <v>4.4720000000000004</v>
+      <c r="B52" s="66">
+        <v>40447.599999999999</v>
+      </c>
+      <c r="C52" s="66">
+        <v>27076.1</v>
+      </c>
+      <c r="D52" s="66">
+        <v>27206.7</v>
+      </c>
+      <c r="E52" s="66">
+        <v>40642.800000000003</v>
+      </c>
+      <c r="F52" s="68">
+        <v>147.76499999999999</v>
+      </c>
+      <c r="G52" s="68">
+        <v>149.38499999999999</v>
+      </c>
+      <c r="H52" s="66">
+        <v>27813.200000000001</v>
+      </c>
+      <c r="I52" s="66">
+        <v>18822.599999999999</v>
+      </c>
+      <c r="J52" s="66">
+        <v>4056.9</v>
+      </c>
+      <c r="K52" s="66">
+        <v>1533.6</v>
+      </c>
+      <c r="L52" s="66">
+        <v>2521.1999999999998</v>
+      </c>
+      <c r="M52" s="66">
+        <v>6520.2</v>
+      </c>
+      <c r="N52" s="66">
+        <v>2308.5</v>
+      </c>
+      <c r="O52" s="66">
+        <v>4211.7</v>
+      </c>
+      <c r="P52" s="68">
+        <v>384.8</v>
+      </c>
+      <c r="Q52" s="68">
+        <v>4.4480000000000004</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>48944</v>
       </c>
-      <c r="B53" s="53">
-        <v>41062.5</v>
-      </c>
-      <c r="C53" s="53">
-        <v>27450.3</v>
-      </c>
-      <c r="D53" s="53">
-        <v>27588.3</v>
-      </c>
-      <c r="E53" s="53">
-        <v>41268.9</v>
-      </c>
-      <c r="F53" s="54">
-        <v>148.16800000000001</v>
-      </c>
-      <c r="G53" s="54">
-        <v>149.58799999999999</v>
-      </c>
-      <c r="H53" s="53">
-        <v>28210.1</v>
-      </c>
-      <c r="I53" s="53">
-        <v>19039.099999999999</v>
-      </c>
-      <c r="J53" s="53">
-        <v>4096.5</v>
-      </c>
-      <c r="K53" s="53">
-        <v>1542.8</v>
-      </c>
-      <c r="L53" s="53">
-        <v>2551</v>
-      </c>
-      <c r="M53" s="53">
-        <v>6639.7</v>
-      </c>
-      <c r="N53" s="53">
-        <v>2337.9</v>
-      </c>
-      <c r="O53" s="53">
-        <v>4301.8</v>
-      </c>
-      <c r="P53" s="54">
-        <v>385.69799999999998</v>
-      </c>
-      <c r="Q53" s="54">
-        <v>4.4669999999999996</v>
+      <c r="B53" s="66">
+        <v>40824.300000000003</v>
+      </c>
+      <c r="C53" s="66">
+        <v>27193.7</v>
+      </c>
+      <c r="D53" s="66">
+        <v>27326.2</v>
+      </c>
+      <c r="E53" s="66">
+        <v>41023.199999999997</v>
+      </c>
+      <c r="F53" s="68">
+        <v>148.48400000000001</v>
+      </c>
+      <c r="G53" s="68">
+        <v>150.124</v>
+      </c>
+      <c r="H53" s="66">
+        <v>28100.799999999999</v>
+      </c>
+      <c r="I53" s="66">
+        <v>18925.099999999999</v>
+      </c>
+      <c r="J53" s="66">
+        <v>4060.3</v>
+      </c>
+      <c r="K53" s="66">
+        <v>1534.6</v>
+      </c>
+      <c r="L53" s="66">
+        <v>2523.5</v>
+      </c>
+      <c r="M53" s="66">
+        <v>6568.6</v>
+      </c>
+      <c r="N53" s="66">
+        <v>2322.1999999999998</v>
+      </c>
+      <c r="O53" s="66">
+        <v>4246.3</v>
+      </c>
+      <c r="P53" s="68">
+        <v>386.94499999999999</v>
+      </c>
+      <c r="Q53" s="68">
+        <v>4.4429999999999996</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>49034</v>
       </c>
-      <c r="B54" s="53">
-        <v>41449.4</v>
-      </c>
-      <c r="C54" s="53">
-        <v>27574.1</v>
-      </c>
-      <c r="D54" s="53">
-        <v>27712.7</v>
-      </c>
-      <c r="E54" s="53">
-        <v>41657.699999999997</v>
-      </c>
-      <c r="F54" s="54">
-        <v>148.88200000000001</v>
-      </c>
-      <c r="G54" s="54">
-        <v>150.32</v>
-      </c>
-      <c r="H54" s="53">
-        <v>28508.400000000001</v>
-      </c>
-      <c r="I54" s="53">
-        <v>19148.3</v>
-      </c>
-      <c r="J54" s="53">
-        <v>4100.8</v>
-      </c>
-      <c r="K54" s="53">
-        <v>1544.3</v>
-      </c>
-      <c r="L54" s="53">
-        <v>2553.8000000000002</v>
-      </c>
-      <c r="M54" s="53">
-        <v>6690.7</v>
-      </c>
-      <c r="N54" s="53">
-        <v>2352.6999999999998</v>
-      </c>
-      <c r="O54" s="53">
-        <v>4338</v>
-      </c>
-      <c r="P54" s="54">
-        <v>387.85599999999999</v>
-      </c>
-      <c r="Q54" s="54">
-        <v>4.4630000000000001</v>
+      <c r="B54" s="66">
+        <v>41204.5</v>
+      </c>
+      <c r="C54" s="66">
+        <v>27311.5</v>
+      </c>
+      <c r="D54" s="66">
+        <v>27445.8</v>
+      </c>
+      <c r="E54" s="66">
+        <v>41407</v>
+      </c>
+      <c r="F54" s="68">
+        <v>149.20599999999999</v>
+      </c>
+      <c r="G54" s="68">
+        <v>150.86799999999999</v>
+      </c>
+      <c r="H54" s="66">
+        <v>28391.5</v>
+      </c>
+      <c r="I54" s="66">
+        <v>19028.3</v>
+      </c>
+      <c r="J54" s="66">
+        <v>4063.6</v>
+      </c>
+      <c r="K54" s="66">
+        <v>1535.6</v>
+      </c>
+      <c r="L54" s="66">
+        <v>2525.8000000000002</v>
+      </c>
+      <c r="M54" s="66">
+        <v>6617.3</v>
+      </c>
+      <c r="N54" s="66">
+        <v>2336</v>
+      </c>
+      <c r="O54" s="66">
+        <v>4281.3</v>
+      </c>
+      <c r="P54" s="68">
+        <v>389.10199999999998</v>
+      </c>
+      <c r="Q54" s="68">
+        <v>4.4379999999999997</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>49125</v>
       </c>
-      <c r="B55" s="53">
-        <v>41839.4</v>
-      </c>
-      <c r="C55" s="53">
-        <v>27698</v>
-      </c>
-      <c r="D55" s="53">
-        <v>27837.200000000001</v>
-      </c>
-      <c r="E55" s="53">
-        <v>42049.7</v>
-      </c>
-      <c r="F55" s="54">
-        <v>149.59800000000001</v>
-      </c>
-      <c r="G55" s="54">
-        <v>151.05500000000001</v>
-      </c>
-      <c r="H55" s="53">
-        <v>28806.400000000001</v>
-      </c>
-      <c r="I55" s="53">
-        <v>19255.8</v>
-      </c>
-      <c r="J55" s="53">
-        <v>4105.2</v>
-      </c>
-      <c r="K55" s="53">
-        <v>1545.9</v>
-      </c>
-      <c r="L55" s="53">
-        <v>2556.6</v>
-      </c>
-      <c r="M55" s="53">
-        <v>6742.2</v>
-      </c>
-      <c r="N55" s="53">
-        <v>2367.6</v>
-      </c>
-      <c r="O55" s="53">
-        <v>4374.6000000000004</v>
-      </c>
-      <c r="P55" s="54">
-        <v>390.02600000000001</v>
-      </c>
-      <c r="Q55" s="54">
-        <v>4.4560000000000004</v>
+      <c r="B55" s="66">
+        <v>41588</v>
+      </c>
+      <c r="C55" s="66">
+        <v>27429.5</v>
+      </c>
+      <c r="D55" s="66">
+        <v>27565.4</v>
+      </c>
+      <c r="E55" s="66">
+        <v>41794</v>
+      </c>
+      <c r="F55" s="68">
+        <v>149.93199999999999</v>
+      </c>
+      <c r="G55" s="68">
+        <v>151.61699999999999</v>
+      </c>
+      <c r="H55" s="66">
+        <v>28683.8</v>
+      </c>
+      <c r="I55" s="66">
+        <v>19131.099999999999</v>
+      </c>
+      <c r="J55" s="66">
+        <v>4066.8</v>
+      </c>
+      <c r="K55" s="66">
+        <v>1536.6</v>
+      </c>
+      <c r="L55" s="66">
+        <v>2528</v>
+      </c>
+      <c r="M55" s="66">
+        <v>6666.5</v>
+      </c>
+      <c r="N55" s="66">
+        <v>2350</v>
+      </c>
+      <c r="O55" s="66">
+        <v>4316.6000000000004</v>
+      </c>
+      <c r="P55" s="68">
+        <v>391.27199999999999</v>
+      </c>
+      <c r="Q55" s="68">
+        <v>4.4329999999999998</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>49217</v>
       </c>
-      <c r="B56" s="53">
-        <v>42231.4</v>
-      </c>
-      <c r="C56" s="53">
-        <v>27821.3</v>
-      </c>
-      <c r="D56" s="53">
-        <v>27961.1</v>
-      </c>
-      <c r="E56" s="53">
-        <v>42443.6</v>
-      </c>
-      <c r="F56" s="54">
-        <v>150.31800000000001</v>
-      </c>
-      <c r="G56" s="54">
-        <v>151.79499999999999</v>
-      </c>
-      <c r="H56" s="53">
-        <v>29104.1</v>
-      </c>
-      <c r="I56" s="53">
-        <v>19361.599999999999</v>
-      </c>
-      <c r="J56" s="53">
-        <v>4109.6000000000004</v>
-      </c>
-      <c r="K56" s="53">
-        <v>1547.4</v>
-      </c>
-      <c r="L56" s="53">
-        <v>2559.5</v>
-      </c>
-      <c r="M56" s="53">
-        <v>6794.4</v>
-      </c>
-      <c r="N56" s="53">
-        <v>2382.6</v>
-      </c>
-      <c r="O56" s="53">
-        <v>4411.8</v>
-      </c>
-      <c r="P56" s="54">
-        <v>392.21</v>
-      </c>
-      <c r="Q56" s="54">
-        <v>4.45</v>
+      <c r="B56" s="66">
+        <v>41975</v>
+      </c>
+      <c r="C56" s="66">
+        <v>27547.599999999999</v>
+      </c>
+      <c r="D56" s="66">
+        <v>27684.9</v>
+      </c>
+      <c r="E56" s="66">
+        <v>42184.1</v>
+      </c>
+      <c r="F56" s="68">
+        <v>150.66200000000001</v>
+      </c>
+      <c r="G56" s="68">
+        <v>152.37200000000001</v>
+      </c>
+      <c r="H56" s="66">
+        <v>28978.400000000001</v>
+      </c>
+      <c r="I56" s="66">
+        <v>19234</v>
+      </c>
+      <c r="J56" s="66">
+        <v>4070</v>
+      </c>
+      <c r="K56" s="66">
+        <v>1537.6</v>
+      </c>
+      <c r="L56" s="66">
+        <v>2530.1</v>
+      </c>
+      <c r="M56" s="66">
+        <v>6716.2</v>
+      </c>
+      <c r="N56" s="66">
+        <v>2364</v>
+      </c>
+      <c r="O56" s="66">
+        <v>4352.2</v>
+      </c>
+      <c r="P56" s="68">
+        <v>393.45400000000001</v>
+      </c>
+      <c r="Q56" s="68">
+        <v>4.4279999999999999</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>49309</v>
       </c>
-      <c r="B57" s="53">
-        <v>42626.6</v>
-      </c>
-      <c r="C57" s="53">
-        <v>27944.5</v>
-      </c>
-      <c r="D57" s="53">
-        <v>28085</v>
-      </c>
-      <c r="E57" s="53">
-        <v>42840.800000000003</v>
-      </c>
-      <c r="F57" s="54">
-        <v>151.042</v>
-      </c>
-      <c r="G57" s="54">
-        <v>152.54</v>
-      </c>
-      <c r="H57" s="53">
-        <v>29403.5</v>
-      </c>
-      <c r="I57" s="53">
-        <v>19467.099999999999</v>
-      </c>
-      <c r="J57" s="53">
-        <v>4114.2</v>
-      </c>
-      <c r="K57" s="53">
-        <v>1549.2</v>
-      </c>
-      <c r="L57" s="53">
-        <v>2562.3000000000002</v>
-      </c>
-      <c r="M57" s="53">
-        <v>6847.4</v>
-      </c>
-      <c r="N57" s="53">
-        <v>2398.1</v>
-      </c>
-      <c r="O57" s="53">
-        <v>4449.3999999999996</v>
-      </c>
-      <c r="P57" s="54">
-        <v>394.40499999999997</v>
-      </c>
-      <c r="Q57" s="54">
-        <v>4.4429999999999996</v>
+      <c r="B57" s="66">
+        <v>42365.5</v>
+      </c>
+      <c r="C57" s="66">
+        <v>27666</v>
+      </c>
+      <c r="D57" s="66">
+        <v>27804.400000000001</v>
+      </c>
+      <c r="E57" s="66">
+        <v>42577.4</v>
+      </c>
+      <c r="F57" s="68">
+        <v>151.39500000000001</v>
+      </c>
+      <c r="G57" s="68">
+        <v>153.13200000000001</v>
+      </c>
+      <c r="H57" s="66">
+        <v>29274.3</v>
+      </c>
+      <c r="I57" s="66">
+        <v>19336.3</v>
+      </c>
+      <c r="J57" s="66">
+        <v>4073.4</v>
+      </c>
+      <c r="K57" s="66">
+        <v>1538.9</v>
+      </c>
+      <c r="L57" s="66">
+        <v>2532.3000000000002</v>
+      </c>
+      <c r="M57" s="66">
+        <v>6766.8</v>
+      </c>
+      <c r="N57" s="66">
+        <v>2378.5</v>
+      </c>
+      <c r="O57" s="66">
+        <v>4388.3</v>
+      </c>
+      <c r="P57" s="68">
+        <v>395.649</v>
+      </c>
+      <c r="Q57" s="68">
+        <v>4.4219999999999997</v>
       </c>
     </row>
   </sheetData>
@@ -28234,8 +28312,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77260E8A-45C6-C74E-A071-E1E958901B15}">
   <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView zoomScale="107" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" zoomScale="107" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -28244,25 +28322,25 @@
       <c r="A1" t="s">
         <v>158</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="69" t="s">
         <v>159</v>
       </c>
-      <c r="C1" s="51" t="s">
+      <c r="C1" s="69" t="s">
         <v>160</v>
       </c>
-      <c r="D1" s="51" t="s">
+      <c r="D1" s="69" t="s">
         <v>161</v>
       </c>
-      <c r="E1" s="51" t="s">
+      <c r="E1" s="69" t="s">
         <v>162</v>
       </c>
-      <c r="F1" s="51" t="s">
+      <c r="F1" s="69" t="s">
         <v>163</v>
       </c>
-      <c r="G1" s="51" t="s">
+      <c r="G1" s="69" t="s">
         <v>164</v>
       </c>
-      <c r="H1" s="51" t="s">
+      <c r="H1" s="69" t="s">
         <v>165</v>
       </c>
       <c r="I1" s="51" t="s">
@@ -28277,28 +28355,28 @@
         <v>2023</v>
       </c>
       <c r="B2">
-        <v>2912.9949999999999</v>
-      </c>
-      <c r="C2" s="55">
+        <v>2912.7670000000003</v>
+      </c>
+      <c r="C2" s="53">
         <v>2176.4810000000002</v>
       </c>
-      <c r="D2" s="55">
-        <v>228.76499999999999</v>
-      </c>
-      <c r="E2" s="55">
+      <c r="D2" s="53">
+        <v>230.42599999999999</v>
+      </c>
+      <c r="E2" s="53">
         <v>419.584</v>
       </c>
-      <c r="F2" s="55">
-        <v>1614.454</v>
+      <c r="F2" s="53">
+        <v>1614.4559999999999</v>
       </c>
       <c r="G2" s="52">
-        <v>1008.641</v>
+        <v>1008.504</v>
       </c>
       <c r="H2" s="52">
-        <v>615.77300000000002</v>
+        <v>615.77200000000005</v>
       </c>
       <c r="I2" s="52">
-        <v>30.323</v>
+        <v>30.468</v>
       </c>
       <c r="J2" s="23">
         <v>36.145000000000003</v>
@@ -28309,28 +28387,28 @@
         <v>2024</v>
       </c>
       <c r="B3">
-        <v>3065.1009999999997</v>
-      </c>
-      <c r="C3" s="55">
-        <v>2469</v>
-      </c>
-      <c r="D3" s="55">
-        <v>233.84800000000001</v>
-      </c>
-      <c r="E3" s="55">
-        <v>568.70699999999999</v>
-      </c>
-      <c r="F3" s="55">
-        <v>1663.451</v>
+        <v>3062.8609999999999</v>
+      </c>
+      <c r="C3" s="53">
+        <v>2446.6640000000002</v>
+      </c>
+      <c r="D3" s="53">
+        <v>239.24200000000002</v>
+      </c>
+      <c r="E3" s="53">
+        <v>525.40200000000004</v>
+      </c>
+      <c r="F3" s="53">
+        <v>1678.453</v>
       </c>
       <c r="G3" s="52">
-        <v>1085.0250000000001</v>
+        <v>1088.6869999999999</v>
       </c>
       <c r="H3" s="52">
-        <v>557.43200000000002</v>
+        <v>606.89800000000002</v>
       </c>
       <c r="I3" s="52">
-        <v>39.82</v>
+        <v>36.207999999999998</v>
       </c>
       <c r="J3" s="23">
         <v>35.369999999999997</v>
@@ -28341,28 +28419,28 @@
         <v>2025</v>
       </c>
       <c r="B4">
-        <v>3227.105</v>
-      </c>
-      <c r="C4" s="55">
-        <v>2520.36</v>
-      </c>
-      <c r="D4" s="55">
-        <v>247.26300000000001</v>
-      </c>
-      <c r="E4" s="55">
-        <v>494.09399999999999</v>
-      </c>
-      <c r="F4" s="55">
-        <v>1734.414</v>
+        <v>3249.0470000000005</v>
+      </c>
+      <c r="C4" s="53">
+        <v>2549.8649999999998</v>
+      </c>
+      <c r="D4" s="53">
+        <v>260.48400000000004</v>
+      </c>
+      <c r="E4" s="53">
+        <v>490.08600000000001</v>
+      </c>
+      <c r="F4" s="53">
+        <v>1737.193</v>
       </c>
       <c r="G4" s="52">
-        <v>1152.328</v>
+        <v>1144.932</v>
       </c>
       <c r="H4" s="52">
-        <v>550.59799999999996</v>
+        <v>600.45899999999995</v>
       </c>
       <c r="I4" s="52">
-        <v>45.414999999999999</v>
+        <v>39.488999999999997</v>
       </c>
       <c r="J4" s="23">
         <v>33.424999999999997</v>
@@ -28373,28 +28451,28 @@
         <v>2026</v>
       </c>
       <c r="B5">
-        <v>3362.6279999999997</v>
-      </c>
-      <c r="C5" s="55">
-        <v>2788.6729999999998</v>
-      </c>
-      <c r="D5" s="55">
-        <v>258.77100000000002</v>
-      </c>
-      <c r="E5" s="55">
-        <v>491.44299999999998</v>
-      </c>
-      <c r="F5" s="55">
-        <v>1811.6869999999999</v>
+        <v>3381.027</v>
+      </c>
+      <c r="C5" s="53">
+        <v>2841.002</v>
+      </c>
+      <c r="D5" s="53">
+        <v>267.90000000000003</v>
+      </c>
+      <c r="E5" s="53">
+        <v>470.452</v>
+      </c>
+      <c r="F5" s="53">
+        <v>1814.2460000000001</v>
       </c>
       <c r="G5" s="52">
-        <v>1222.5840000000001</v>
+        <v>1218.7349999999999</v>
       </c>
       <c r="H5" s="52">
-        <v>582.23299999999995</v>
+        <v>614.44100000000003</v>
       </c>
       <c r="I5" s="52">
-        <v>45.43</v>
+        <v>42.991</v>
       </c>
       <c r="J5" s="23">
         <v>32.450000000000003</v>
@@ -28405,28 +28483,28 @@
         <v>2027</v>
       </c>
       <c r="B6">
-        <v>3542.7759999999998</v>
-      </c>
-      <c r="C6" s="55">
-        <v>3031.4430000000002</v>
-      </c>
-      <c r="D6" s="55">
-        <v>282.51900000000001</v>
-      </c>
-      <c r="E6" s="55">
-        <v>484.14299999999997</v>
-      </c>
-      <c r="F6" s="55">
-        <v>1884.4380000000001</v>
+        <v>3563.0540000000001</v>
+      </c>
+      <c r="C6" s="53">
+        <v>3121.953</v>
+      </c>
+      <c r="D6" s="53">
+        <v>289.20100000000002</v>
+      </c>
+      <c r="E6" s="53">
+        <v>459.399</v>
+      </c>
+      <c r="F6" s="53">
+        <v>1885.5429999999999</v>
       </c>
       <c r="G6" s="52">
-        <v>1314.424</v>
+        <v>1306.105</v>
       </c>
       <c r="H6" s="52">
-        <v>619.15599999999995</v>
+        <v>642.08799999999997</v>
       </c>
       <c r="I6" s="52">
-        <v>47.143999999999998</v>
+        <v>46.302999999999997</v>
       </c>
       <c r="J6" s="23">
         <v>33.164999999999999</v>
@@ -28437,28 +28515,28 @@
         <v>2028</v>
       </c>
       <c r="B7">
-        <v>3745.4989999999998</v>
-      </c>
-      <c r="C7" s="55">
-        <v>3123.694</v>
-      </c>
-      <c r="D7" s="55">
-        <v>295.55099999999999</v>
-      </c>
-      <c r="E7" s="55">
-        <v>490.702</v>
-      </c>
-      <c r="F7" s="55">
-        <v>1960.191</v>
+        <v>3761.8629999999994</v>
+      </c>
+      <c r="C7" s="53">
+        <v>3224.15</v>
+      </c>
+      <c r="D7" s="53">
+        <v>298.11</v>
+      </c>
+      <c r="E7" s="53">
+        <v>461.55399999999997</v>
+      </c>
+      <c r="F7" s="53">
+        <v>1960.0719999999999</v>
       </c>
       <c r="G7" s="52">
-        <v>1407.337</v>
+        <v>1395.152</v>
       </c>
       <c r="H7" s="52">
-        <v>655.12900000000002</v>
+        <v>679.89200000000005</v>
       </c>
       <c r="I7" s="52">
-        <v>49.061</v>
+        <v>48.953000000000003</v>
       </c>
       <c r="J7" s="23">
         <v>35.090000000000003</v>
@@ -28469,28 +28547,28 @@
         <v>2029</v>
       </c>
       <c r="B8">
-        <v>3956.2</v>
-      </c>
-      <c r="C8" s="55">
-        <v>3251.116</v>
-      </c>
-      <c r="D8" s="55">
-        <v>355.38200000000001</v>
-      </c>
-      <c r="E8" s="55">
-        <v>500.90499999999997</v>
-      </c>
-      <c r="F8" s="55">
-        <v>2039.181</v>
+        <v>3969.4119999999998</v>
+      </c>
+      <c r="C8" s="53">
+        <v>3326.8539999999998</v>
+      </c>
+      <c r="D8" s="53">
+        <v>307.46699999999998</v>
+      </c>
+      <c r="E8" s="53">
+        <v>460.858</v>
+      </c>
+      <c r="F8" s="53">
+        <v>2038.2460000000001</v>
       </c>
       <c r="G8" s="52">
-        <v>1507.3820000000001</v>
+        <v>1492.1469999999999</v>
       </c>
       <c r="H8" s="52">
-        <v>690.928</v>
+        <v>717.14099999999996</v>
       </c>
       <c r="I8" s="52">
-        <v>51.286000000000001</v>
+        <v>51.146000000000001</v>
       </c>
       <c r="J8" s="23">
         <v>37.164999999999999</v>
@@ -28501,28 +28579,28 @@
         <v>2030</v>
       </c>
       <c r="B9">
-        <v>4179.369999999999</v>
-      </c>
-      <c r="C9" s="55">
-        <v>3380.623</v>
-      </c>
-      <c r="D9" s="55">
-        <v>402.31799999999998</v>
-      </c>
-      <c r="E9" s="55">
-        <v>510.59699999999998</v>
-      </c>
-      <c r="F9" s="55">
-        <v>2120.6680000000001</v>
+        <v>4189.75</v>
+      </c>
+      <c r="C9" s="53">
+        <v>3455.0859999999998</v>
+      </c>
+      <c r="D9" s="53">
+        <v>317.98800000000006</v>
+      </c>
+      <c r="E9" s="53">
+        <v>462.81099999999998</v>
+      </c>
+      <c r="F9" s="53">
+        <v>2118.127</v>
       </c>
       <c r="G9" s="52">
-        <v>1617.415</v>
+        <v>1600.472</v>
       </c>
       <c r="H9" s="52">
-        <v>728.42499999999995</v>
+        <v>756.26</v>
       </c>
       <c r="I9" s="52">
-        <v>52.673000000000002</v>
+        <v>52.383000000000003</v>
       </c>
       <c r="J9" s="23">
         <v>39.784999999999997</v>
@@ -28533,28 +28611,28 @@
         <v>2031</v>
       </c>
       <c r="B10">
-        <v>4412.58</v>
-      </c>
-      <c r="C10" s="55">
-        <v>3511.3330000000001</v>
-      </c>
-      <c r="D10" s="55">
-        <v>420.71600000000001</v>
-      </c>
-      <c r="E10" s="55">
-        <v>518.66499999999996</v>
-      </c>
-      <c r="F10" s="55">
-        <v>2205.232</v>
+        <v>4426.1340000000009</v>
+      </c>
+      <c r="C10" s="53">
+        <v>3583.2</v>
+      </c>
+      <c r="D10" s="53">
+        <v>411.95800000000003</v>
+      </c>
+      <c r="E10" s="53">
+        <v>465.98700000000002</v>
+      </c>
+      <c r="F10" s="53">
+        <v>2199.9830000000002</v>
       </c>
       <c r="G10" s="52">
-        <v>1732.7650000000001</v>
+        <v>1717.546</v>
       </c>
       <c r="H10" s="52">
-        <v>765.19399999999996</v>
+        <v>795.53099999999995</v>
       </c>
       <c r="I10" s="52">
-        <v>54.648000000000003</v>
+        <v>54.133000000000003</v>
       </c>
       <c r="J10" s="23">
         <v>44.73</v>
@@ -28565,28 +28643,28 @@
         <v>2032</v>
       </c>
       <c r="B11">
-        <v>4665.2000000000007</v>
-      </c>
-      <c r="C11" s="55">
-        <v>3634.2420000000002</v>
-      </c>
-      <c r="D11" s="55">
-        <v>444.91699999999997</v>
-      </c>
-      <c r="E11" s="55">
-        <v>519.16700000000003</v>
-      </c>
-      <c r="F11" s="55">
-        <v>2291.4090000000001</v>
+        <v>4675.7250000000004</v>
+      </c>
+      <c r="C11" s="53">
+        <v>3710.4380000000001</v>
+      </c>
+      <c r="D11" s="53">
+        <v>434.77100000000002</v>
+      </c>
+      <c r="E11" s="53">
+        <v>471.01</v>
+      </c>
+      <c r="F11" s="53">
+        <v>2283.1770000000001</v>
       </c>
       <c r="G11" s="52">
-        <v>1858.623</v>
+        <v>1841.902</v>
       </c>
       <c r="H11" s="52">
-        <v>805.702</v>
+        <v>837.52499999999998</v>
       </c>
       <c r="I11" s="52">
-        <v>56.36</v>
+        <v>55.856000000000002</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -28594,28 +28672,28 @@
         <v>2033</v>
       </c>
       <c r="B12">
-        <v>4934.5189999999993</v>
-      </c>
-      <c r="C12" s="55">
-        <v>3792.5070000000001</v>
-      </c>
-      <c r="D12" s="55">
-        <v>463.70299999999997</v>
-      </c>
-      <c r="E12" s="55">
-        <v>533.44899999999996</v>
-      </c>
-      <c r="F12" s="55">
-        <v>2378.5569999999998</v>
+        <v>4948.9089999999997</v>
+      </c>
+      <c r="C12" s="53">
+        <v>3858.924</v>
+      </c>
+      <c r="D12" s="53">
+        <v>453.87699999999995</v>
+      </c>
+      <c r="E12" s="53">
+        <v>495.30399999999997</v>
+      </c>
+      <c r="F12" s="53">
+        <v>2367.9110000000001</v>
       </c>
       <c r="G12" s="52">
-        <v>2008.463</v>
+        <v>1996.52</v>
       </c>
       <c r="H12" s="52">
-        <v>852.87099999999998</v>
+        <v>885.98900000000003</v>
       </c>
       <c r="I12" s="52">
-        <v>58.02</v>
+        <v>57.52</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -28623,28 +28701,28 @@
         <v>2034</v>
       </c>
       <c r="B13">
-        <v>5217.0079999999998</v>
-      </c>
-      <c r="C13" s="55">
-        <v>3972.681</v>
-      </c>
-      <c r="D13" s="55">
-        <v>485.149</v>
-      </c>
-      <c r="E13" s="55">
-        <v>550.78700000000003</v>
-      </c>
-      <c r="F13" s="55">
-        <v>2465.8270000000002</v>
+        <v>5213.2370000000001</v>
+      </c>
+      <c r="C13" s="53">
+        <v>4020.6480000000001</v>
+      </c>
+      <c r="D13" s="53">
+        <v>476.29400000000004</v>
+      </c>
+      <c r="E13" s="53">
+        <v>506.70400000000001</v>
+      </c>
+      <c r="F13" s="53">
+        <v>2455.0839999999998</v>
       </c>
       <c r="G13" s="52">
-        <v>2161.3440000000001</v>
+        <v>2149.098</v>
       </c>
       <c r="H13" s="52">
-        <v>897.7</v>
+        <v>932.56399999999996</v>
       </c>
       <c r="I13" s="52">
-        <v>59.665999999999997</v>
+        <v>59.161000000000001</v>
       </c>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
@@ -29270,11 +29348,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="60" t="s">
         <v>216</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
@@ -29587,11 +29665,11 @@
       <c r="H18" s="30"/>
     </row>
     <row r="21" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="63" t="s">
+      <c r="A21" s="61" t="s">
         <v>226</v>
       </c>
-      <c r="B21" s="63"/>
-      <c r="C21" s="63"/>
+      <c r="B21" s="61"/>
+      <c r="C21" s="61"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
@@ -29626,11 +29704,11 @@
       </c>
     </row>
     <row r="26" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="63" t="s">
+      <c r="A26" s="61" t="s">
         <v>225</v>
       </c>
-      <c r="B26" s="63"/>
-      <c r="C26" s="63"/>
+      <c r="B26" s="61"/>
+      <c r="C26" s="61"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
